--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -59,6 +59,24 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="H135">
+      <text>
+        <t xml:space="preserve">isSubjectToLotTerm replaced by forsses.... between lot and contractTerm
+	-ibrahim dellal</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G135">
+      <text>
+        <t xml:space="preserve">it was like that epo:ResultNotice / epo:Tender / epo:Lot / epo:ContractTerm / at-voc:applicability
+	-ibrahim dellal</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F130">
+      <text>
+        <t xml:space="preserve">add the currency to the hight and low
+	-ibrahim dellal</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="H30">
       <text>
         <t xml:space="preserve">does not match with cpv code
@@ -271,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="887">
   <si>
     <t>File name</t>
   </si>
@@ -1233,7 +1251,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
     </r>
     <r>
       <rPr>
@@ -1462,7 +1480,7 @@
     <t>epo:ResultNotice / epo:Procedure</t>
   </si>
   <si>
-    <t>?this epo:refers ToProcedure ?value .</t>
+    <t>?this epo:refersToProcedure ?value .</t>
   </si>
   <si>
     <t>II.1.1</t>
@@ -2336,21 +2354,6 @@
     <t>Information about options</t>
   </si>
   <si>
-    <t>BT-541</t>
-  </si>
-  <si>
-    <t>Award Criterion Number</t>
-  </si>
-  <si>
-    <t>No match on the pdf (see the xsd file)</t>
-  </si>
-  <si>
-    <t>epo:AwardCriterion</t>
-  </si>
-  <si>
-    <t>?this epo:hasFixedValue ?value .</t>
-  </si>
-  <si>
     <t>II.2.11.1</t>
   </si>
   <si>
@@ -2427,7 +2430,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> isUsingEUFunds ?value .</t>
+      <t xml:space="preserve"> epo:isUsingEUFunds ?value .</t>
     </r>
   </si>
   <si>
@@ -3031,7 +3034,7 @@
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve">
-OR
+AND
 </t>
     </r>
     <r>
@@ -3071,7 +3074,7 @@
         <i/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">OR (newly added relation)
+      <t xml:space="preserve">AND
 </t>
     </r>
     <r>
@@ -3378,25 +3381,16 @@
     <t>Winner Chosen</t>
   </si>
   <si>
-    <t>*[matches(name(),'AWARDED_CONTRACT')]
-AWARDED_CONTRACT
-NO_AWARDED_CONTRACT</t>
+    <t>1. *[matches(name(),'AWARDED_CONTRACT')]
+2. *[matches(name(),'NO_AWARDED_CONTRACT')]</t>
   </si>
   <si>
     <t>epo:Contract / epo:LotAwardOutcome /at-voc:winner-selection-status</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
       <rPr/>
-      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status&gt; .
-OR 
-?this epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;</t>
+      <t>?this epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;</t>
     </r>
     <r>
       <rPr>
@@ -3773,7 +3767,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>?this  epo:announcesContract / epo:isWithinAFrameworkAgreement ?</t>
+      <t>?this  epo:announcesContract / epo:isWithinFrameworkAgreement ?</t>
     </r>
     <r>
       <rPr>
@@ -4362,7 +4356,7 @@
     <t>VALUES/VAL_TOTAL</t>
   </si>
   <si>
-    <t>epo:Lot / epo:Tender / epo:MonetaryValue / epo:Numeric</t>
+    <t>epo:Tender / epo:MonetaryValue / epo:Numeric</t>
   </si>
   <si>
     <r>
@@ -4385,7 +4379,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:isSubmitedForLot / epo:hasFinnancialOfferValue / hasAmountValue ?</t>
+      <t xml:space="preserve"> epo:hasFinnancialOfferValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -4442,6 +4436,57 @@
     </r>
   </si>
   <si>
+    <t>epo:SubmissionStatisticalInformation / MonetaryValue /at-voc:currency (from CL9)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasLowestReceivedTenderLotValue / epo:hasCurrency ?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasHighestReceivedTenderLotValue / epo:hasCurrency ?value .</t>
+    </r>
+  </si>
+  <si>
     <t>V.2.4.4</t>
   </si>
   <si>
@@ -4481,9 +4526,6 @@
     <t>VALUES/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue /at-voc:currency (from CL9)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -4529,10 +4571,10 @@
     <t>LIKELY_SUBCONTRACTED</t>
   </si>
   <si>
-    <t xml:space="preserve">epo:ResultNotice / epo:Tender / epo:Lot / epo:ContractTerm / at-voc:applicability </t>
-  </si>
-  <si>
-    <t>?this epo:announecesTender / isSubmittedForLot / epo:isSubjectToLotTerm / epo:hasReservedExecution ?value .</t>
+    <t xml:space="preserve">epo:Lot / epo:ContractTerm / at-voc:applicability </t>
+  </si>
+  <si>
+    <t>?this epo:forseesContractTerm / epo:hasReservedExecution ?value .</t>
   </si>
   <si>
     <t>V.2.5.2</t>
@@ -7026,11 +7068,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -7593,15 +7635,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -7628,15 +7670,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -7663,15 +7705,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -7698,15 +7740,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -7733,15 +7775,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -7768,15 +7810,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>
@@ -12895,22 +12937,12 @@
       <c r="B59" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="C59" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="E59" s="66"/>
-      <c r="F59" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="G59" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="H59" s="54" t="s">
-        <v>346</v>
-      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="52"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="47"/>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
       <c r="K59" s="30"/>
@@ -12924,26 +12956,26 @@
     </row>
     <row r="60">
       <c r="A60" s="34" t="s">
+        <v>342</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>343</v>
+      </c>
+      <c r="C60" s="54" t="s">
+        <v>344</v>
+      </c>
+      <c r="D60" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="E60" s="67"/>
+      <c r="F60" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>346</v>
+      </c>
+      <c r="H60" s="68" t="s">
         <v>347</v>
-      </c>
-      <c r="B60" s="35" t="s">
-        <v>348</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="D60" s="54" t="s">
-        <v>348</v>
-      </c>
-      <c r="E60" s="66"/>
-      <c r="F60" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="G60" s="54" t="s">
-        <v>351</v>
-      </c>
-      <c r="H60" s="68" t="s">
-        <v>352</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
@@ -12958,26 +12990,26 @@
     </row>
     <row r="61">
       <c r="A61" s="34" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="D61" s="47" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="47" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H61" s="69" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
@@ -12992,10 +13024,10 @@
     </row>
     <row r="62">
       <c r="A62" s="44" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -13006,87 +13038,87 @@
     </row>
     <row r="63">
       <c r="A63" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="C63" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>360</v>
+      </c>
+      <c r="E63" s="67"/>
+      <c r="F63" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="G63" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="H63" s="54" t="s">
         <v>363</v>
-      </c>
-      <c r="C63" s="71" t="s">
-        <v>364</v>
-      </c>
-      <c r="D63" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="54" t="s">
-        <v>366</v>
-      </c>
-      <c r="G63" s="54" t="s">
-        <v>367</v>
-      </c>
-      <c r="H63" s="54" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="44" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="D64" s="71" t="s">
-        <v>365</v>
-      </c>
-      <c r="E64" s="66"/>
+        <v>360</v>
+      </c>
+      <c r="E64" s="67"/>
       <c r="F64" s="71" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G64" s="72" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H64" s="54" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="44" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G65" s="35" t="s">
         <v>269</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="44" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C66" s="70"/>
       <c r="D66" s="70"/>
       <c r="E66" s="35" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F66" s="70"/>
       <c r="G66" s="30"/>
@@ -13094,7 +13126,7 @@
     </row>
     <row r="67">
       <c r="A67" s="44" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>16</v>
@@ -13108,10 +13140,10 @@
     </row>
     <row r="68">
       <c r="A68" s="44" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E68" s="30"/>
       <c r="G68" s="30"/>
@@ -13119,301 +13151,301 @@
     </row>
     <row r="69">
       <c r="A69" s="44" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="3" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H69" s="73" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="44" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="44" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G71" s="35" t="s">
         <v>194</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="44" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E72" s="30"/>
       <c r="F72" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H72" s="73" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="44" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="44" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E74" s="30"/>
       <c r="F74" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G74" s="35" t="s">
         <v>194</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="44" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E75" s="30"/>
       <c r="F75" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H75" s="74" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="44" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E76" s="30"/>
       <c r="F76" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="44" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G77" s="35" t="s">
         <v>194</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="44" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H78" s="73" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="44" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H79" s="73" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="44" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H80" s="74" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="44" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C81" s="75" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D81" s="76"/>
       <c r="E81" s="30"/>
@@ -13423,61 +13455,61 @@
     </row>
     <row r="82">
       <c r="A82" s="44" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E82" s="52"/>
       <c r="F82" s="2" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H82" s="74" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="44" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E83" s="52"/>
       <c r="F83" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="G83" s="47" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H83" s="74" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="44" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E84" s="30"/>
       <c r="F84" s="70"/>
@@ -13486,58 +13518,58 @@
     </row>
     <row r="85">
       <c r="A85" s="44" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E85" s="52"/>
       <c r="F85" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G85" s="47" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H85" s="74" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="B86" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="C86" s="71" t="s">
+        <v>455</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="E86" s="67"/>
+      <c r="F86" s="71" t="s">
+        <v>457</v>
+      </c>
+      <c r="G86" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="H86" s="54" t="s">
         <v>458</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="C86" s="71" t="s">
-        <v>460</v>
-      </c>
-      <c r="D86" s="71" t="s">
-        <v>461</v>
-      </c>
-      <c r="E86" s="66"/>
-      <c r="F86" s="71" t="s">
-        <v>462</v>
-      </c>
-      <c r="G86" s="54" t="s">
-        <v>367</v>
-      </c>
-      <c r="H86" s="54" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="44" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E87" s="30"/>
       <c r="F87" s="70"/>
@@ -13546,34 +13578,34 @@
     </row>
     <row r="88">
       <c r="A88" s="44" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B88" s="35" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E88" s="52"/>
       <c r="F88" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G88" s="47" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H88" s="47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="44" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="E89" s="30"/>
       <c r="F89" s="70"/>
@@ -13582,34 +13614,34 @@
     </row>
     <row r="90">
       <c r="A90" s="44" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E90" s="52"/>
       <c r="F90" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G90" s="47" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H90" s="47" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="44" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C91" s="3"/>
       <c r="E91" s="30"/>
@@ -13619,86 +13651,86 @@
     </row>
     <row r="92">
       <c r="A92" s="44" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E92" s="52"/>
       <c r="F92" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G92" s="47" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="H92" s="47" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="44" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F93" s="77"/>
       <c r="G93" s="35" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="H93" s="30"/>
     </row>
     <row r="94">
       <c r="A94" s="78"/>
       <c r="B94" s="35" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C94" s="79" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D94" s="79" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="80" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="78"/>
       <c r="B95" s="35" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C95" s="79" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D95" s="79" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E95" s="30"/>
       <c r="F95" s="80" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G95" s="81" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96">
@@ -13707,42 +13739,42 @@
         <v>15</v>
       </c>
       <c r="C96" s="79" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D96" s="79" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E96" s="30"/>
       <c r="F96" s="80" t="s">
         <v>193</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="78"/>
       <c r="B97" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="C97" s="82" t="s">
+        <v>506</v>
+      </c>
+      <c r="D97" s="82" t="s">
+        <v>507</v>
+      </c>
+      <c r="E97" s="67"/>
+      <c r="F97" s="83" t="s">
+        <v>508</v>
+      </c>
+      <c r="G97" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="H97" s="84" t="s">
         <v>510</v>
-      </c>
-      <c r="C97" s="82" t="s">
-        <v>511</v>
-      </c>
-      <c r="D97" s="82" t="s">
-        <v>512</v>
-      </c>
-      <c r="E97" s="66"/>
-      <c r="F97" s="83" t="s">
-        <v>513</v>
-      </c>
-      <c r="G97" s="54" t="s">
-        <v>514</v>
-      </c>
-      <c r="H97" s="84" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="98">
@@ -13757,13 +13789,13 @@
     </row>
     <row r="99">
       <c r="A99" s="44" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C99" s="85" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D99" s="79"/>
       <c r="E99" s="30"/>
@@ -13773,13 +13805,13 @@
     </row>
     <row r="100">
       <c r="A100" s="44" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C100" s="85" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D100" s="79"/>
       <c r="E100" s="30"/>
@@ -13789,83 +13821,83 @@
     </row>
     <row r="101">
       <c r="A101" s="44" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C101" s="79" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D101" s="79" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="80" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H101" s="73" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="44" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C102" s="79" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="D102" s="79" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="80" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G102" s="35" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H102" s="73" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="44" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C103" s="87" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D103" s="79"/>
       <c r="E103" s="52"/>
       <c r="F103" s="80" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G103" s="47" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H103" s="88" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="44" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="C104" s="85" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D104" s="79"/>
       <c r="E104" s="30"/>
@@ -13875,215 +13907,215 @@
     </row>
     <row r="105">
       <c r="A105" s="44" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C105" s="79" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D105" s="79" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="80" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G105" s="89" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="44" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C106" s="85" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D106" s="79"/>
       <c r="E106" s="30"/>
       <c r="F106" s="90" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G106" s="69" t="s">
         <v>237</v>
       </c>
       <c r="H106" s="47" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="44" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C107" s="79" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D107" s="79" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E107" s="30"/>
       <c r="F107" s="80" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H107" s="35" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="44" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C108" s="79" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D108" s="79" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E108" s="30"/>
       <c r="F108" s="80" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H108" s="35" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="44" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C109" s="79" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D109" s="79" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="80" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G109" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="H109" s="35" t="s">
         <v>560</v>
-      </c>
-      <c r="H109" s="35" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="44" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C110" s="79" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D110" s="79" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="80" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H110" s="35" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="44" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C111" s="79" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D111" s="79" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="80" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H111" s="35" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="44" t="s">
+        <v>568</v>
+      </c>
+      <c r="B112" s="35" t="s">
+        <v>569</v>
+      </c>
+      <c r="C112" s="91" t="s">
+        <v>570</v>
+      </c>
+      <c r="D112" s="82"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="G112" s="54" t="s">
+        <v>572</v>
+      </c>
+      <c r="H112" s="54" t="s">
         <v>573</v>
-      </c>
-      <c r="B112" s="35" t="s">
-        <v>574</v>
-      </c>
-      <c r="C112" s="91" t="s">
-        <v>575</v>
-      </c>
-      <c r="D112" s="82"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="83" t="s">
-        <v>576</v>
-      </c>
-      <c r="G112" s="54" t="s">
-        <v>577</v>
-      </c>
-      <c r="H112" s="54" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="44" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C113" s="85" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D113" s="79"/>
       <c r="E113" s="92" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F113" s="86"/>
       <c r="G113" s="35" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="H113" s="30"/>
     </row>
     <row r="114">
       <c r="A114" s="44" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B114" s="35" t="s">
         <v>68</v>
@@ -14096,18 +14128,18 @@
       </c>
       <c r="E114" s="30"/>
       <c r="F114" s="80" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G114" s="37" t="s">
         <v>72</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="44" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B115" s="35" t="s">
         <v>75</v>
@@ -14120,18 +14152,18 @@
       </c>
       <c r="E115" s="30"/>
       <c r="F115" s="80" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G115" s="39" t="s">
         <v>79</v>
       </c>
       <c r="H115" s="39" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="44" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B116" s="35" t="s">
         <v>82</v>
@@ -14144,18 +14176,18 @@
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="80" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G116" s="35" t="s">
         <v>86</v>
       </c>
       <c r="H116" s="35" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="44" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B117" s="35" t="s">
         <v>89</v>
@@ -14168,18 +14200,18 @@
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="80" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="G117" s="35" t="s">
         <v>86</v>
       </c>
       <c r="H117" s="35" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="44" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B118" s="35" t="s">
         <v>95</v>
@@ -14192,18 +14224,18 @@
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="80" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G118" s="47" t="s">
         <v>99</v>
       </c>
       <c r="H118" s="47" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="44" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B119" s="35" t="s">
         <v>102</v>
@@ -14212,22 +14244,22 @@
         <v>103</v>
       </c>
       <c r="D119" s="79" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="80" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G119" s="35" t="s">
         <v>105</v>
       </c>
       <c r="H119" s="35" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="44" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B120" s="35" t="s">
         <v>108</v>
@@ -14240,18 +14272,18 @@
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="80" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="G120" s="37" t="s">
         <v>112</v>
       </c>
       <c r="H120" s="37" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="44" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B121" s="35" t="s">
         <v>128</v>
@@ -14264,18 +14296,18 @@
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="80" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G121" s="35" t="s">
         <v>132</v>
       </c>
       <c r="H121" s="47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="44" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B122" s="35" t="s">
         <v>122</v>
@@ -14288,21 +14320,21 @@
       </c>
       <c r="E122" s="30"/>
       <c r="F122" s="80" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G122" s="35" t="s">
         <v>119</v>
       </c>
       <c r="H122" s="47" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="44" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C123" s="86"/>
       <c r="D123" s="79"/>
@@ -14313,7 +14345,7 @@
     </row>
     <row r="124">
       <c r="A124" s="44" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B124" s="35" t="s">
         <v>135</v>
@@ -14326,48 +14358,48 @@
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="80" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G124" s="35" t="s">
         <v>119</v>
       </c>
       <c r="H124" s="47" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="44" t="s">
+        <v>611</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>612</v>
+      </c>
+      <c r="C125" s="93" t="s">
+        <v>613</v>
+      </c>
+      <c r="D125" s="82" t="s">
+        <v>614</v>
+      </c>
+      <c r="E125" s="67"/>
+      <c r="F125" s="83" t="s">
+        <v>615</v>
+      </c>
+      <c r="G125" s="54" t="s">
         <v>616</v>
       </c>
-      <c r="B125" s="35" t="s">
+      <c r="H125" s="94" t="s">
         <v>617</v>
-      </c>
-      <c r="C125" s="93" t="s">
-        <v>618</v>
-      </c>
-      <c r="D125" s="82" t="s">
-        <v>619</v>
-      </c>
-      <c r="E125" s="66"/>
-      <c r="F125" s="83" t="s">
-        <v>620</v>
-      </c>
-      <c r="G125" s="54" t="s">
-        <v>621</v>
-      </c>
-      <c r="H125" s="94" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="44" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C126" s="85" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D126" s="79"/>
       <c r="E126" s="30"/>
@@ -14377,10 +14409,10 @@
     </row>
     <row r="127">
       <c r="A127" s="44" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C127" s="79" t="s">
         <v>241</v>
@@ -14390,42 +14422,42 @@
       </c>
       <c r="E127" s="30"/>
       <c r="F127" s="80" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G127" s="47" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H127" s="47" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="44" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="C128" s="79" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D128" s="79" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E128" s="52"/>
       <c r="F128" s="80" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G128" s="47" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H128" s="47" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="44" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B129" s="35" t="s">
         <v>247</v>
@@ -14438,1040 +14470,1046 @@
       </c>
       <c r="E129" s="30"/>
       <c r="F129" s="80" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G129" s="47" t="s">
         <v>251</v>
       </c>
       <c r="H129" s="47" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="44" t="s">
-        <v>640</v>
-      </c>
-      <c r="B130" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="C130" s="79" t="s">
-        <v>255</v>
-      </c>
-      <c r="D130" s="79" t="s">
-        <v>256</v>
-      </c>
-      <c r="E130" s="30"/>
-      <c r="F130" s="80" t="s">
-        <v>641</v>
-      </c>
+      <c r="A130" s="44"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="79"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="83"/>
       <c r="G130" s="47" t="s">
-        <v>251</v>
+        <v>635</v>
       </c>
       <c r="H130" s="47" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="44" t="s">
-        <v>643</v>
-      </c>
-      <c r="B131" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C131" s="95" t="s">
-        <v>644</v>
-      </c>
-      <c r="D131" s="79"/>
-      <c r="E131" s="52"/>
-      <c r="F131" s="96" t="s">
-        <v>645</v>
-      </c>
+      <c r="A131" s="44"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="79"/>
+      <c r="D131" s="82"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="83"/>
       <c r="G131" s="47" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="H131" s="47" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="44" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>649</v>
-      </c>
-      <c r="C132" s="85" t="s">
-        <v>434</v>
-      </c>
-      <c r="D132" s="79"/>
+        <v>254</v>
+      </c>
+      <c r="C132" s="79" t="s">
+        <v>255</v>
+      </c>
+      <c r="D132" s="79" t="s">
+        <v>256</v>
+      </c>
       <c r="E132" s="30"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="30"/>
-      <c r="H132" s="30"/>
+      <c r="F132" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="G132" s="47" t="s">
+        <v>251</v>
+      </c>
+      <c r="H132" s="47" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="44" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>651</v>
-      </c>
-      <c r="C133" s="82" t="s">
-        <v>652</v>
-      </c>
-      <c r="D133" s="82" t="s">
-        <v>653</v>
-      </c>
-      <c r="E133" s="66"/>
-      <c r="F133" s="83" t="s">
-        <v>654</v>
-      </c>
-      <c r="G133" s="54" t="s">
-        <v>655</v>
-      </c>
-      <c r="H133" s="54" t="s">
-        <v>656</v>
+        <v>260</v>
+      </c>
+      <c r="C133" s="95" t="s">
+        <v>642</v>
+      </c>
+      <c r="D133" s="79"/>
+      <c r="E133" s="52"/>
+      <c r="F133" s="96" t="s">
+        <v>643</v>
+      </c>
+      <c r="G133" s="47" t="s">
+        <v>635</v>
+      </c>
+      <c r="H133" s="47" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="44" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="C134" s="79" t="s">
-        <v>659</v>
-      </c>
-      <c r="D134" s="79" t="s">
-        <v>660</v>
-      </c>
-      <c r="E134" s="47" t="s">
-        <v>533</v>
-      </c>
-      <c r="F134" s="80" t="s">
-        <v>48</v>
-      </c>
-      <c r="G134" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="H134" s="47" t="s">
-        <v>662</v>
-      </c>
+        <v>646</v>
+      </c>
+      <c r="C134" s="85" t="s">
+        <v>429</v>
+      </c>
+      <c r="D134" s="79"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="86"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
     </row>
     <row r="135">
       <c r="A135" s="44" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>664</v>
-      </c>
-      <c r="C135" s="79"/>
-      <c r="D135" s="79"/>
-      <c r="E135" s="52"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="63"/>
+        <v>648</v>
+      </c>
+      <c r="C135" s="82" t="s">
+        <v>649</v>
+      </c>
+      <c r="D135" s="82" t="s">
+        <v>650</v>
+      </c>
+      <c r="E135" s="67"/>
+      <c r="F135" s="83" t="s">
+        <v>651</v>
+      </c>
+      <c r="G135" s="54" t="s">
+        <v>652</v>
+      </c>
+      <c r="H135" s="54" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="44" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="C136" s="95" t="s">
-        <v>644</v>
-      </c>
-      <c r="D136" s="79"/>
-      <c r="E136" s="52"/>
+        <v>655</v>
+      </c>
+      <c r="C136" s="79" t="s">
+        <v>656</v>
+      </c>
+      <c r="D136" s="79" t="s">
+        <v>657</v>
+      </c>
+      <c r="E136" s="47" t="s">
+        <v>528</v>
+      </c>
       <c r="F136" s="80" t="s">
-        <v>666</v>
-      </c>
-      <c r="G136" s="69" t="s">
-        <v>667</v>
+        <v>48</v>
+      </c>
+      <c r="G136" s="47" t="s">
+        <v>658</v>
       </c>
       <c r="H136" s="47" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="44" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>670</v>
-      </c>
-      <c r="C137" s="79" t="s">
-        <v>671</v>
-      </c>
-      <c r="D137" s="79" t="s">
-        <v>672</v>
-      </c>
+        <v>661</v>
+      </c>
+      <c r="C137" s="79"/>
+      <c r="D137" s="79"/>
       <c r="E137" s="52"/>
-      <c r="F137" s="80" t="s">
-        <v>673</v>
-      </c>
-      <c r="G137" s="69" t="s">
-        <v>674</v>
-      </c>
-      <c r="H137" s="47" t="s">
-        <v>675</v>
-      </c>
+      <c r="F137" s="79"/>
+      <c r="G137" s="63"/>
     </row>
     <row r="138">
       <c r="A138" s="44" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>677</v>
-      </c>
-      <c r="C138" s="79" t="s">
-        <v>678</v>
-      </c>
-      <c r="D138" s="79" t="s">
-        <v>679</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C138" s="95" t="s">
+        <v>642</v>
+      </c>
+      <c r="D138" s="79"/>
       <c r="E138" s="52"/>
       <c r="F138" s="80" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G138" s="69" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="H138" s="47" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="44" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>684</v>
-      </c>
-      <c r="C139" s="97"/>
-      <c r="D139" s="98"/>
-      <c r="E139" s="99" t="s">
-        <v>685</v>
-      </c>
-      <c r="F139" s="97"/>
-      <c r="G139" s="98"/>
-      <c r="H139" s="98"/>
+        <v>667</v>
+      </c>
+      <c r="C139" s="79" t="s">
+        <v>668</v>
+      </c>
+      <c r="D139" s="79" t="s">
+        <v>669</v>
+      </c>
+      <c r="E139" s="52"/>
+      <c r="F139" s="80" t="s">
+        <v>670</v>
+      </c>
+      <c r="G139" s="69" t="s">
+        <v>671</v>
+      </c>
+      <c r="H139" s="47" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="44" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>375</v>
+        <v>674</v>
       </c>
       <c r="C140" s="79" t="s">
-        <v>376</v>
-      </c>
-      <c r="D140" s="98"/>
-      <c r="E140" s="98"/>
-      <c r="F140" s="100" t="s">
-        <v>687</v>
-      </c>
-      <c r="G140" s="101" t="s">
-        <v>688</v>
-      </c>
-      <c r="H140" s="102" t="s">
-        <v>689</v>
+        <v>675</v>
+      </c>
+      <c r="D140" s="79" t="s">
+        <v>676</v>
+      </c>
+      <c r="E140" s="52"/>
+      <c r="F140" s="80" t="s">
+        <v>677</v>
+      </c>
+      <c r="G140" s="69" t="s">
+        <v>678</v>
+      </c>
+      <c r="H140" s="47" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="44" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>691</v>
-      </c>
-      <c r="C141" s="85" t="s">
-        <v>434</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="C141" s="97"/>
       <c r="D141" s="98"/>
-      <c r="E141" s="98"/>
-      <c r="F141" s="103"/>
+      <c r="E141" s="99" t="s">
+        <v>682</v>
+      </c>
+      <c r="F141" s="97"/>
       <c r="G141" s="98"/>
       <c r="H141" s="98"/>
     </row>
     <row r="142">
       <c r="A142" s="44" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>693</v>
-      </c>
-      <c r="C142" s="104" t="s">
-        <v>434</v>
+        <v>370</v>
+      </c>
+      <c r="C142" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="D142" s="98"/>
       <c r="E142" s="98"/>
-      <c r="F142" s="86"/>
-      <c r="G142" s="35" t="s">
-        <v>694</v>
-      </c>
-      <c r="H142" s="98"/>
+      <c r="F142" s="100" t="s">
+        <v>684</v>
+      </c>
+      <c r="G142" s="101" t="s">
+        <v>685</v>
+      </c>
+      <c r="H142" s="102" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="44" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C143" s="79" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" s="79" t="s">
-        <v>70</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C143" s="85" t="s">
+        <v>429</v>
+      </c>
+      <c r="D143" s="98"/>
       <c r="E143" s="98"/>
-      <c r="F143" s="80" t="s">
-        <v>696</v>
-      </c>
-      <c r="G143" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="H143" s="105" t="s">
-        <v>697</v>
-      </c>
+      <c r="F143" s="103"/>
+      <c r="G143" s="98"/>
+      <c r="H143" s="98"/>
     </row>
     <row r="144">
       <c r="A144" s="44" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C144" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="D144" s="79" t="s">
-        <v>84</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="C144" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="D144" s="98"/>
       <c r="E144" s="98"/>
-      <c r="F144" s="80" t="s">
-        <v>699</v>
-      </c>
-      <c r="G144" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="H144" s="105" t="s">
-        <v>700</v>
-      </c>
+      <c r="F144" s="86"/>
+      <c r="G144" s="35" t="s">
+        <v>691</v>
+      </c>
+      <c r="H144" s="98"/>
     </row>
     <row r="145">
       <c r="A145" s="44" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C145" s="79" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D145" s="79" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E145" s="98"/>
       <c r="F145" s="80" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G145" s="105" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H145" s="105" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="44" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C146" s="79" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D146" s="79" t="s">
-        <v>599</v>
+        <v>84</v>
       </c>
       <c r="E146" s="98"/>
       <c r="F146" s="80" t="s">
-        <v>705</v>
-      </c>
-      <c r="G146" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="H146" s="106" t="s">
-        <v>706</v>
+        <v>696</v>
+      </c>
+      <c r="G146" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H146" s="105" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="44" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C147" s="79" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D147" s="79" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E147" s="98"/>
       <c r="F147" s="80" t="s">
-        <v>708</v>
-      </c>
-      <c r="G147" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="H147" s="107" t="s">
-        <v>709</v>
+        <v>699</v>
+      </c>
+      <c r="G147" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H147" s="105" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="44" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C148" s="79" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D148" s="79" t="s">
-        <v>130</v>
+        <v>594</v>
       </c>
       <c r="E148" s="98"/>
       <c r="F148" s="80" t="s">
-        <v>711</v>
-      </c>
-      <c r="G148" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="H148" s="108" t="s">
-        <v>712</v>
+        <v>702</v>
+      </c>
+      <c r="G148" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="H148" s="106" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="44" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C149" s="79" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D149" s="79" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E149" s="98"/>
       <c r="F149" s="80" t="s">
-        <v>714</v>
-      </c>
-      <c r="G149" s="106" t="s">
-        <v>119</v>
-      </c>
-      <c r="H149" s="80" t="s">
-        <v>715</v>
+        <v>705</v>
+      </c>
+      <c r="G149" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="H149" s="107" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="44" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>717</v>
+        <v>128</v>
       </c>
       <c r="C150" s="79" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D150" s="79" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E150" s="98"/>
       <c r="F150" s="80" t="s">
-        <v>718</v>
-      </c>
-      <c r="G150" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H150" s="39" t="s">
-        <v>719</v>
+        <v>708</v>
+      </c>
+      <c r="G150" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="H150" s="108" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="44" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C151" s="79" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D151" s="79" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E151" s="98"/>
       <c r="F151" s="80" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G151" s="106" t="s">
         <v>119</v>
       </c>
       <c r="H151" s="80" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="44" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>724</v>
-      </c>
-      <c r="C152" s="104" t="s">
-        <v>434</v>
-      </c>
-      <c r="D152" s="109"/>
+        <v>714</v>
+      </c>
+      <c r="C152" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D152" s="79" t="s">
+        <v>145</v>
+      </c>
       <c r="E152" s="98"/>
-      <c r="F152" s="86"/>
-      <c r="G152" s="35" t="s">
-        <v>725</v>
-      </c>
-      <c r="H152" s="98"/>
+      <c r="F152" s="80" t="s">
+        <v>715</v>
+      </c>
+      <c r="G152" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H152" s="39" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="44" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="C153" s="79" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="D153" s="79" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="E153" s="98"/>
       <c r="F153" s="80" t="s">
-        <v>727</v>
-      </c>
-      <c r="G153" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="H153" s="105" t="s">
-        <v>728</v>
+        <v>718</v>
+      </c>
+      <c r="G153" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="H153" s="80" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="44" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C154" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="D154" s="79" t="s">
-        <v>84</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="C154" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="D154" s="109"/>
       <c r="E154" s="98"/>
-      <c r="F154" s="80" t="s">
-        <v>730</v>
-      </c>
-      <c r="G154" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="H154" s="105" t="s">
-        <v>731</v>
-      </c>
+      <c r="F154" s="86"/>
+      <c r="G154" s="35" t="s">
+        <v>722</v>
+      </c>
+      <c r="H154" s="98"/>
     </row>
     <row r="155">
       <c r="A155" s="44" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C155" s="79" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D155" s="79" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E155" s="98"/>
       <c r="F155" s="80" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="G155" s="105" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H155" s="105" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="44" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C156" s="79" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D156" s="79" t="s">
-        <v>599</v>
+        <v>84</v>
       </c>
       <c r="E156" s="98"/>
       <c r="F156" s="80" t="s">
-        <v>736</v>
-      </c>
-      <c r="G156" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="H156" s="106" t="s">
-        <v>737</v>
+        <v>727</v>
+      </c>
+      <c r="G156" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H156" s="105" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="44" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C157" s="79" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D157" s="79" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E157" s="98"/>
       <c r="F157" s="80" t="s">
-        <v>739</v>
-      </c>
-      <c r="G157" s="110" t="s">
-        <v>99</v>
-      </c>
-      <c r="H157" s="110" t="s">
-        <v>740</v>
+        <v>730</v>
+      </c>
+      <c r="G157" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H157" s="105" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="44" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C158" s="79" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D158" s="79" t="s">
-        <v>130</v>
+        <v>594</v>
       </c>
       <c r="E158" s="98"/>
       <c r="F158" s="80" t="s">
-        <v>742</v>
-      </c>
-      <c r="G158" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="H158" s="108" t="s">
-        <v>743</v>
+        <v>733</v>
+      </c>
+      <c r="G158" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="H158" s="106" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="44" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C159" s="79" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D159" s="79" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E159" s="98"/>
       <c r="F159" s="80" t="s">
-        <v>745</v>
-      </c>
-      <c r="G159" s="106" t="s">
-        <v>119</v>
-      </c>
-      <c r="H159" s="80" t="s">
-        <v>746</v>
+        <v>736</v>
+      </c>
+      <c r="G159" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="H159" s="110" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="44" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>717</v>
+        <v>128</v>
       </c>
       <c r="C160" s="79" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D160" s="79" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E160" s="98"/>
       <c r="F160" s="80" t="s">
-        <v>748</v>
-      </c>
-      <c r="G160" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H160" s="39" t="s">
-        <v>749</v>
+        <v>739</v>
+      </c>
+      <c r="G160" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="H160" s="108" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="44" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C161" s="79" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D161" s="79" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E161" s="98"/>
       <c r="F161" s="80" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="G161" s="106" t="s">
         <v>119</v>
       </c>
       <c r="H161" s="80" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="44" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="C162" s="79" t="s">
-        <v>755</v>
+        <v>144</v>
       </c>
       <c r="D162" s="79" t="s">
-        <v>756</v>
-      </c>
-      <c r="E162" s="79"/>
-      <c r="F162" s="111" t="s">
-        <v>757</v>
-      </c>
-      <c r="G162" s="112" t="s">
-        <v>758</v>
-      </c>
-      <c r="H162" s="112" t="s">
-        <v>759</v>
+        <v>145</v>
+      </c>
+      <c r="E162" s="98"/>
+      <c r="F162" s="80" t="s">
+        <v>745</v>
+      </c>
+      <c r="G162" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H162" s="39" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="44" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>761</v>
-      </c>
-      <c r="C163" s="97"/>
-      <c r="D163" s="97"/>
+        <v>135</v>
+      </c>
+      <c r="C163" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D163" s="79" t="s">
+        <v>137</v>
+      </c>
       <c r="E163" s="98"/>
-      <c r="F163" s="86"/>
-      <c r="G163" s="47" t="s">
-        <v>762</v>
-      </c>
-      <c r="H163" s="79"/>
+      <c r="F163" s="80" t="s">
+        <v>748</v>
+      </c>
+      <c r="G163" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="H163" s="80" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="44" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>68</v>
+        <v>751</v>
       </c>
       <c r="C164" s="79" t="s">
-        <v>69</v>
+        <v>752</v>
       </c>
       <c r="D164" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="E164" s="98"/>
-      <c r="F164" s="80" t="s">
-        <v>764</v>
-      </c>
-      <c r="G164" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="H164" s="105" t="s">
-        <v>765</v>
+        <v>753</v>
+      </c>
+      <c r="E164" s="79"/>
+      <c r="F164" s="111" t="s">
+        <v>754</v>
+      </c>
+      <c r="G164" s="112" t="s">
+        <v>755</v>
+      </c>
+      <c r="H164" s="112" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="44" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C165" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="D165" s="79" t="s">
-        <v>84</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="C165" s="97"/>
+      <c r="D165" s="97"/>
       <c r="E165" s="98"/>
-      <c r="F165" s="80" t="s">
-        <v>767</v>
-      </c>
-      <c r="G165" s="105" t="s">
-        <v>86</v>
-      </c>
-      <c r="H165" s="105" t="s">
-        <v>768</v>
-      </c>
+      <c r="F165" s="86"/>
+      <c r="G165" s="47" t="s">
+        <v>759</v>
+      </c>
+      <c r="H165" s="79"/>
     </row>
     <row r="166">
       <c r="A166" s="44" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C166" s="79" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D166" s="79" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E166" s="98"/>
       <c r="F166" s="80" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G166" s="105" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="H166" s="105" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="44" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C167" s="79" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="D167" s="79" t="s">
-        <v>599</v>
+        <v>84</v>
       </c>
       <c r="E167" s="98"/>
       <c r="F167" s="80" t="s">
-        <v>773</v>
-      </c>
-      <c r="G167" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="H167" s="106" t="s">
-        <v>774</v>
+        <v>764</v>
+      </c>
+      <c r="G167" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H167" s="105" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="44" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C168" s="79" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D168" s="79" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="E168" s="98"/>
       <c r="F168" s="80" t="s">
-        <v>776</v>
-      </c>
-      <c r="G168" s="107" t="s">
-        <v>99</v>
-      </c>
-      <c r="H168" s="107" t="s">
-        <v>777</v>
+        <v>767</v>
+      </c>
+      <c r="G168" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="H168" s="105" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="44" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C169" s="79" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="D169" s="79" t="s">
-        <v>130</v>
+        <v>594</v>
       </c>
       <c r="E169" s="98"/>
       <c r="F169" s="80" t="s">
-        <v>779</v>
-      </c>
-      <c r="G169" s="105" t="s">
-        <v>132</v>
-      </c>
-      <c r="H169" s="108" t="s">
-        <v>780</v>
+        <v>770</v>
+      </c>
+      <c r="G169" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="H169" s="106" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="44" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C170" s="79" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="D170" s="79" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E170" s="98"/>
       <c r="F170" s="80" t="s">
-        <v>782</v>
-      </c>
-      <c r="G170" s="106" t="s">
-        <v>119</v>
-      </c>
-      <c r="H170" s="80" t="s">
-        <v>783</v>
+        <v>773</v>
+      </c>
+      <c r="G170" s="107" t="s">
+        <v>99</v>
+      </c>
+      <c r="H170" s="107" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="44" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>717</v>
+        <v>128</v>
       </c>
       <c r="C171" s="79" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D171" s="79" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E171" s="98"/>
       <c r="F171" s="80" t="s">
-        <v>785</v>
-      </c>
-      <c r="G171" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="H171" s="39" t="s">
-        <v>786</v>
+        <v>776</v>
+      </c>
+      <c r="G171" s="105" t="s">
+        <v>132</v>
+      </c>
+      <c r="H171" s="108" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="44" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C172" s="79" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="D172" s="79" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E172" s="98"/>
       <c r="F172" s="80" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G172" s="106" t="s">
         <v>119</v>
       </c>
       <c r="H172" s="80" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="44" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>791</v>
-      </c>
-      <c r="C173" s="113" t="s">
-        <v>792</v>
-      </c>
-      <c r="D173" s="113" t="s">
-        <v>793</v>
+        <v>714</v>
+      </c>
+      <c r="C173" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D173" s="79" t="s">
+        <v>145</v>
       </c>
       <c r="E173" s="98"/>
-      <c r="F173" s="114" t="s">
-        <v>794</v>
-      </c>
-      <c r="G173" s="102" t="s">
-        <v>795</v>
-      </c>
-      <c r="H173" s="102" t="s">
-        <v>796</v>
+      <c r="F173" s="80" t="s">
+        <v>782</v>
+      </c>
+      <c r="G173" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="H173" s="39" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="44" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>798</v>
-      </c>
-      <c r="E174" s="30"/>
-      <c r="G174" s="30"/>
-      <c r="H174" s="30"/>
+        <v>135</v>
+      </c>
+      <c r="C174" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D174" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="E174" s="98"/>
+      <c r="F174" s="80" t="s">
+        <v>785</v>
+      </c>
+      <c r="G174" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="H174" s="80" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="44" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>800</v>
-      </c>
-      <c r="E175" s="30"/>
-      <c r="G175" s="30"/>
-      <c r="H175" s="30"/>
+        <v>788</v>
+      </c>
+      <c r="C175" s="113" t="s">
+        <v>789</v>
+      </c>
+      <c r="D175" s="113" t="s">
+        <v>790</v>
+      </c>
+      <c r="E175" s="98"/>
+      <c r="F175" s="114" t="s">
+        <v>791</v>
+      </c>
+      <c r="G175" s="102" t="s">
+        <v>792</v>
+      </c>
+      <c r="H175" s="102" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="44" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="E176" s="30"/>
       <c r="G176" s="30"/>
@@ -15479,10 +15517,10 @@
     </row>
     <row r="177">
       <c r="A177" s="44" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>387</v>
+        <v>797</v>
       </c>
       <c r="E177" s="30"/>
       <c r="G177" s="30"/>
@@ -15490,10 +15528,10 @@
     </row>
     <row r="178">
       <c r="A178" s="44" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>407</v>
+        <v>799</v>
       </c>
       <c r="E178" s="30"/>
       <c r="G178" s="30"/>
@@ -15501,10 +15539,10 @@
     </row>
     <row r="179">
       <c r="A179" s="44" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>806</v>
+        <v>382</v>
       </c>
       <c r="E179" s="30"/>
       <c r="G179" s="30"/>
@@ -15512,10 +15550,10 @@
     </row>
     <row r="180">
       <c r="A180" s="44" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>808</v>
+        <v>402</v>
       </c>
       <c r="E180" s="30"/>
       <c r="G180" s="30"/>
@@ -15523,10 +15561,10 @@
     </row>
     <row r="181">
       <c r="A181" s="44" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="E181" s="30"/>
       <c r="G181" s="30"/>
@@ -15534,10 +15572,10 @@
     </row>
     <row r="182">
       <c r="A182" s="44" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="E182" s="30"/>
       <c r="G182" s="30"/>
@@ -15545,10 +15583,10 @@
     </row>
     <row r="183">
       <c r="A183" s="44" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="E183" s="30"/>
       <c r="G183" s="30"/>
@@ -15556,10 +15594,10 @@
     </row>
     <row r="184">
       <c r="A184" s="44" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="E184" s="30"/>
       <c r="G184" s="30"/>
@@ -15567,10 +15605,10 @@
     </row>
     <row r="185">
       <c r="A185" s="44" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="E185" s="30"/>
       <c r="G185" s="30"/>
@@ -15578,10 +15616,10 @@
     </row>
     <row r="186">
       <c r="A186" s="44" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="E186" s="30"/>
       <c r="G186" s="30"/>
@@ -15589,10 +15627,10 @@
     </row>
     <row r="187">
       <c r="A187" s="44" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="E187" s="30"/>
       <c r="G187" s="30"/>
@@ -15600,10 +15638,10 @@
     </row>
     <row r="188">
       <c r="A188" s="44" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E188" s="30"/>
       <c r="G188" s="30"/>
@@ -15611,10 +15649,10 @@
     </row>
     <row r="189">
       <c r="A189" s="44" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="E189" s="30"/>
       <c r="G189" s="30"/>
@@ -15622,10 +15660,10 @@
     </row>
     <row r="190">
       <c r="A190" s="44" t="s">
-        <v>827</v>
-      </c>
-      <c r="B190" s="50" t="s">
-        <v>828</v>
+        <v>820</v>
+      </c>
+      <c r="B190" s="35" t="s">
+        <v>821</v>
       </c>
       <c r="E190" s="30"/>
       <c r="G190" s="30"/>
@@ -15633,10 +15671,10 @@
     </row>
     <row r="191">
       <c r="A191" s="44" t="s">
-        <v>829</v>
-      </c>
-      <c r="B191" s="50" t="s">
-        <v>830</v>
+        <v>822</v>
+      </c>
+      <c r="B191" s="35" t="s">
+        <v>823</v>
       </c>
       <c r="E191" s="30"/>
       <c r="G191" s="30"/>
@@ -15644,10 +15682,10 @@
     </row>
     <row r="192">
       <c r="A192" s="44" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B192" s="50" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="E192" s="30"/>
       <c r="G192" s="30"/>
@@ -15655,10 +15693,10 @@
     </row>
     <row r="193">
       <c r="A193" s="44" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B193" s="50" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="E193" s="30"/>
       <c r="G193" s="30"/>
@@ -15666,10 +15704,10 @@
     </row>
     <row r="194">
       <c r="A194" s="44" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B194" s="50" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="E194" s="30"/>
       <c r="G194" s="30"/>
@@ -15677,23 +15715,33 @@
     </row>
     <row r="195">
       <c r="A195" s="44" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B195" s="50" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="E195" s="30"/>
       <c r="G195" s="30"/>
       <c r="H195" s="30"/>
     </row>
     <row r="196">
-      <c r="A196" s="78"/>
+      <c r="A196" s="44" t="s">
+        <v>832</v>
+      </c>
+      <c r="B196" s="50" t="s">
+        <v>833</v>
+      </c>
       <c r="E196" s="30"/>
       <c r="G196" s="30"/>
       <c r="H196" s="30"/>
     </row>
     <row r="197">
-      <c r="A197" s="78"/>
+      <c r="A197" s="44" t="s">
+        <v>834</v>
+      </c>
+      <c r="B197" s="50" t="s">
+        <v>835</v>
+      </c>
       <c r="E197" s="30"/>
       <c r="G197" s="30"/>
       <c r="H197" s="30"/>
@@ -20552,32 +20600,44 @@
       <c r="G1006" s="30"/>
       <c r="H1006" s="30"/>
     </row>
+    <row r="1007">
+      <c r="A1007" s="78"/>
+      <c r="E1007" s="30"/>
+      <c r="G1007" s="30"/>
+      <c r="H1007" s="30"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="78"/>
+      <c r="E1008" s="30"/>
+      <c r="G1008" s="30"/>
+      <c r="H1008" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B197">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>REGEXMATCH($A3,"^[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B197">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B197">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B197">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B195">
+  <conditionalFormatting sqref="A3:B197">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
@@ -20599,7 +20659,7 @@
     <hyperlink r:id="rId15" ref="H101"/>
     <hyperlink r:id="rId16" ref="H102"/>
     <hyperlink r:id="rId17" ref="H125"/>
-    <hyperlink r:id="rId18" ref="F131"/>
+    <hyperlink r:id="rId18" ref="F133"/>
   </hyperlinks>
   <drawing r:id="rId19"/>
   <legacyDrawing r:id="rId20"/>
@@ -20622,36 +20682,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="115" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="116" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="117" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8">
@@ -20662,41 +20722,41 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="118" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="34"/>
       <c r="B13" s="119" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="120" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="71" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="121" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17">
@@ -20705,24 +20765,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B18" s="46" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B19" s="122"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -20754,7 +20814,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -20849,25 +20909,25 @@
         <v>90</v>
       </c>
       <c r="D5" s="123" t="s">
+        <v>858</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>859</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>860</v>
+      </c>
+      <c r="G5" s="124" t="s">
         <v>861</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="H5" s="124" t="s">
         <v>862</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="I5" s="123" t="s">
         <v>863</v>
       </c>
-      <c r="G5" s="124" t="s">
+      <c r="J5" s="123" t="s">
         <v>864</v>
-      </c>
-      <c r="H5" s="124" t="s">
-        <v>865</v>
-      </c>
-      <c r="I5" s="123" t="s">
-        <v>866</v>
-      </c>
-      <c r="J5" s="123" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="6">
@@ -20899,76 +20959,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
   </sheetData>
@@ -20995,31 +21055,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -21046,15 +21106,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="125" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -31,6 +31,12 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A1">
+      <text>
+        <t xml:space="preserve">There is no MonetaryValue on the procedure
+	-ibrahim dellal</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A8">
       <text>
         <t xml:space="preserve">This file not only is not used as a source in the YARRRML/RML mappings, but its content is not even related to the buyers "main activity" (for that we have the main_activity.json and main_activity.csv files), but rather it contains the same information as the buyer_legal_type.json file.
@@ -295,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="890">
   <si>
     <t>File name</t>
   </si>
@@ -346,6 +352,9 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Package F03</t>
   </si>
   <si>
     <t>Description</t>
@@ -2311,9 +2320,6 @@
     <t>II.2.5.2.2</t>
   </si>
   <si>
-    <t>hasFormila</t>
-  </si>
-  <si>
     <t>II.2.5.3</t>
   </si>
   <si>
@@ -3226,40 +3232,12 @@
     <t>epo:Contract / epo:LotAwardOutcome /at-voc:winner-selection-status (we need to add logic on the file parser to handle the OR)</t>
   </si>
   <si>
-    <r>
-      <rPr/>
-      <t>?this epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/winner-selection-status/selec-w</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>&gt; .
-OR
-?this epo:includesLotAwardOutcome / epo:hasAwardStatu</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>s &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>&gt; .</t>
-    </r>
+    <t>{
+  ?this epo:includesLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .
+} UNION
+{
+  ?this epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .
+}</t>
   </si>
   <si>
     <t>V.1</t>
@@ -6889,7 +6867,8 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -6948,15 +6927,15 @@
     <xf borderId="0" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf quotePrefix="1" borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -6972,9 +6951,6 @@
     </xf>
     <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7738,38 +7714,40 @@
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="10"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -7784,62 +7762,62 @@
     </row>
     <row r="10">
       <c r="A10" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="10"/>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="15">
         <v>29.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="17">
         <v>41640.0</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -10795,55 +10773,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -10876,17 +10854,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="E1" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
@@ -10910,34 +10888,34 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
@@ -10958,15 +10936,15 @@
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
@@ -10984,20 +10962,20 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" s="36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
@@ -11012,26 +10990,26 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
@@ -11054,26 +11032,26 @@
     </row>
     <row r="6">
       <c r="A6" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
@@ -11096,26 +11074,26 @@
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
@@ -11130,26 +11108,26 @@
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -11164,26 +11142,26 @@
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
@@ -11198,26 +11176,26 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -11232,26 +11210,26 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -11274,26 +11252,26 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -11308,26 +11286,26 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
@@ -11342,26 +11320,26 @@
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -11376,26 +11354,26 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -11410,10 +11388,10 @@
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -11434,26 +11412,26 @@
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -11476,26 +11454,26 @@
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -11510,10 +11488,10 @@
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -11534,16 +11512,16 @@
     </row>
     <row r="20">
       <c r="A20" s="51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -11560,26 +11538,26 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -11594,10 +11572,10 @@
     </row>
     <row r="22">
       <c r="A22" s="55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="44"/>
@@ -11626,26 +11604,26 @@
     </row>
     <row r="23">
       <c r="A23" s="45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -11660,26 +11638,26 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -11694,15 +11672,15 @@
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -11720,20 +11698,20 @@
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="3"/>
       <c r="E26" s="30"/>
       <c r="F26" s="3"/>
       <c r="G26" s="35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -11748,32 +11726,32 @@
     </row>
     <row r="27">
       <c r="A27" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -11786,26 +11764,26 @@
     </row>
     <row r="28">
       <c r="A28" s="58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="40" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -11828,26 +11806,26 @@
     </row>
     <row r="29">
       <c r="A29" s="45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -11862,26 +11840,26 @@
     </row>
     <row r="30">
       <c r="A30" s="51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H30" s="54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -11896,26 +11874,26 @@
     </row>
     <row r="31">
       <c r="A31" s="34" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -11930,26 +11908,26 @@
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D32" s="60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -11964,10 +11942,10 @@
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -11988,20 +11966,21 @@
     </row>
     <row r="34">
       <c r="A34" s="51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="G34" s="61"/>
-      <c r="H34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
@@ -12015,20 +11994,20 @@
     </row>
     <row r="35">
       <c r="A35" s="34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="30"/>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -12043,26 +12022,26 @@
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="36" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -12077,26 +12056,26 @@
     </row>
     <row r="37">
       <c r="A37" s="34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -12111,26 +12090,26 @@
     </row>
     <row r="38">
       <c r="A38" s="34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
@@ -12145,22 +12124,22 @@
     </row>
     <row r="39">
       <c r="A39" s="34" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
       <c r="F39" s="36" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
@@ -12175,20 +12154,20 @@
     </row>
     <row r="40">
       <c r="A40" s="34" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
@@ -12203,26 +12182,26 @@
     </row>
     <row r="41">
       <c r="A41" s="34" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="36" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
@@ -12237,26 +12216,26 @@
     </row>
     <row r="42">
       <c r="A42" s="34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="36" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -12271,15 +12250,15 @@
     </row>
     <row r="43">
       <c r="A43" s="34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="30"/>
-      <c r="F43" s="62"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
@@ -12295,26 +12274,26 @@
     </row>
     <row r="44">
       <c r="A44" s="34" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
@@ -12329,26 +12308,26 @@
     </row>
     <row r="45">
       <c r="A45" s="34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="35" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
@@ -12363,10 +12342,10 @@
     </row>
     <row r="46">
       <c r="A46" s="34" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -12387,26 +12366,26 @@
     </row>
     <row r="47">
       <c r="A47" s="34" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="35" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
@@ -12421,26 +12400,26 @@
     </row>
     <row r="48">
       <c r="A48" s="34" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="35" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
@@ -12455,26 +12434,26 @@
     </row>
     <row r="49">
       <c r="A49" s="34" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D49" s="36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="35" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I49" s="30"/>
       <c r="J49" s="30"/>
@@ -12489,20 +12468,20 @@
     </row>
     <row r="50">
       <c r="A50" s="34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
+        <v>310</v>
+      </c>
+      <c r="C50" s="64"/>
+      <c r="D50" s="64"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
       <c r="G50" s="36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I50" s="30"/>
       <c r="J50" s="30"/>
@@ -12517,26 +12496,26 @@
     </row>
     <row r="51">
       <c r="A51" s="34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="H51" s="64" t="s">
         <v>318</v>
+      </c>
+      <c r="H51" s="65" t="s">
+        <v>319</v>
       </c>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
@@ -12551,24 +12530,24 @@
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="36"/>
       <c r="G52" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H52" s="65" t="s">
         <v>324</v>
+      </c>
+      <c r="H52" s="66" t="s">
+        <v>325</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
@@ -12583,24 +12562,24 @@
     </row>
     <row r="53">
       <c r="A53" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="36"/>
       <c r="G53" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H53" s="65" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="H53" s="66" t="s">
+        <v>330</v>
       </c>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
@@ -12615,26 +12594,26 @@
     </row>
     <row r="54">
       <c r="A54" s="34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="36" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="H54" s="64" t="s">
-        <v>333</v>
+        <v>318</v>
+      </c>
+      <c r="H54" s="65" t="s">
+        <v>334</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
@@ -12649,24 +12628,24 @@
     </row>
     <row r="55">
       <c r="A55" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="36"/>
       <c r="G55" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H55" s="65" t="s">
         <v>324</v>
+      </c>
+      <c r="H55" s="66" t="s">
+        <v>325</v>
       </c>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
@@ -12681,24 +12660,24 @@
     </row>
     <row r="56">
       <c r="A56" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="36"/>
       <c r="G56" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H56" s="65" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>330</v>
       </c>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
@@ -12719,19 +12698,19 @@
         <v>338</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="36" t="s">
         <v>339</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="H57" s="64" t="s">
+        <v>318</v>
+      </c>
+      <c r="H57" s="65" t="s">
         <v>340</v>
       </c>
       <c r="I57" s="30"/>
@@ -12750,21 +12729,21 @@
         <v>341</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="H58" s="65" t="s">
-        <v>329</v>
+        <v>324</v>
+      </c>
+      <c r="H58" s="66" t="s">
+        <v>330</v>
       </c>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
@@ -12788,7 +12767,7 @@
       <c r="D59" s="36"/>
       <c r="E59" s="52"/>
       <c r="F59" s="36"/>
-      <c r="G59" s="66"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="36"/>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
@@ -12821,7 +12800,7 @@
       <c r="G60" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="H60" s="67" t="s">
+      <c r="H60" s="68" t="s">
         <v>349</v>
       </c>
       <c r="I60" s="30"/>
@@ -12855,7 +12834,7 @@
       <c r="G61" s="36" t="s">
         <v>355</v>
       </c>
-      <c r="H61" s="67" t="s">
+      <c r="H61" s="68" t="s">
         <v>356</v>
       </c>
       <c r="I61" s="30"/>
@@ -12879,7 +12858,7 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="30"/>
-      <c r="F62" s="68"/>
+      <c r="F62" s="69"/>
       <c r="G62" s="30"/>
       <c r="H62" s="30"/>
     </row>
@@ -12924,7 +12903,7 @@
       <c r="F64" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G64" s="69" t="s">
+      <c r="G64" s="70" t="s">
         <v>369</v>
       </c>
       <c r="H64" s="36" t="s">
@@ -12949,7 +12928,7 @@
         <v>375</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H65" s="35" t="s">
         <v>376</v>
@@ -12962,12 +12941,12 @@
       <c r="B66" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="69"/>
       <c r="E66" s="35" t="s">
         <v>379</v>
       </c>
-      <c r="F66" s="68"/>
+      <c r="F66" s="69"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
     </row>
@@ -12976,12 +12955,12 @@
         <v>380</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="68"/>
+        <v>18</v>
+      </c>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="30"/>
-      <c r="F67" s="68"/>
+      <c r="F67" s="69"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
     </row>
@@ -13016,7 +12995,7 @@
       <c r="G69" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="H69" s="70" t="s">
+      <c r="H69" s="71" t="s">
         <v>389</v>
       </c>
     </row>
@@ -13062,7 +13041,7 @@
         <v>401</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H71" s="35" t="s">
         <v>402</v>
@@ -13088,7 +13067,7 @@
       <c r="G72" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="H72" s="70" t="s">
+      <c r="H72" s="71" t="s">
         <v>406</v>
       </c>
     </row>
@@ -13134,7 +13113,7 @@
         <v>401</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H74" s="35" t="s">
         <v>410</v>
@@ -13160,7 +13139,7 @@
       <c r="G75" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="H75" s="71" t="s">
+      <c r="H75" s="72" t="s">
         <v>414</v>
       </c>
     </row>
@@ -13206,7 +13185,7 @@
         <v>401</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H77" s="35" t="s">
         <v>410</v>
@@ -13232,7 +13211,7 @@
       <c r="G78" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="H78" s="70" t="s">
+      <c r="H78" s="71" t="s">
         <v>420</v>
       </c>
     </row>
@@ -13256,7 +13235,7 @@
       <c r="G79" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="H79" s="70" t="s">
+      <c r="H79" s="71" t="s">
         <v>424</v>
       </c>
     </row>
@@ -13280,7 +13259,7 @@
       <c r="G80" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="H80" s="71" t="s">
+      <c r="H80" s="72" t="s">
         <v>428</v>
       </c>
     </row>
@@ -13291,12 +13270,12 @@
       <c r="B81" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="D81" s="73"/>
+      <c r="D81" s="74"/>
       <c r="E81" s="30"/>
-      <c r="F81" s="68"/>
+      <c r="F81" s="69"/>
       <c r="G81" s="30"/>
       <c r="H81" s="30"/>
     </row>
@@ -13320,7 +13299,7 @@
       <c r="G82" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="H82" s="71" t="s">
+      <c r="H82" s="72" t="s">
         <v>438</v>
       </c>
     </row>
@@ -13344,7 +13323,7 @@
       <c r="G83" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="H83" s="71" t="s">
+      <c r="H83" s="72" t="s">
         <v>445</v>
       </c>
     </row>
@@ -13359,7 +13338,7 @@
         <v>431</v>
       </c>
       <c r="E84" s="30"/>
-      <c r="F84" s="68"/>
+      <c r="F84" s="69"/>
       <c r="G84" s="30"/>
       <c r="H84" s="30"/>
     </row>
@@ -13383,7 +13362,7 @@
       <c r="G85" s="36" t="s">
         <v>453</v>
       </c>
-      <c r="H85" s="71" t="s">
+      <c r="H85" s="72" t="s">
         <v>454</v>
       </c>
     </row>
@@ -13419,29 +13398,29 @@
         <v>462</v>
       </c>
       <c r="E87" s="30"/>
-      <c r="F87" s="68"/>
+      <c r="F87" s="69"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88">
       <c r="A88" s="45"/>
-      <c r="B88" s="74" t="s">
+      <c r="B88" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="C88" s="75" t="s">
+      <c r="C88" s="76" t="s">
         <v>464</v>
       </c>
-      <c r="D88" s="75" t="s">
+      <c r="D88" s="76" t="s">
         <v>465</v>
       </c>
-      <c r="E88" s="76"/>
-      <c r="F88" s="75" t="s">
+      <c r="E88" s="77"/>
+      <c r="F88" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="G88" s="77" t="s">
+      <c r="G88" s="78" t="s">
         <v>467</v>
       </c>
-      <c r="H88" s="78" t="s">
+      <c r="H88" s="79" t="s">
         <v>468</v>
       </c>
     </row>
@@ -13453,7 +13432,7 @@
         <v>470</v>
       </c>
       <c r="E89" s="30"/>
-      <c r="F89" s="68"/>
+      <c r="F89" s="69"/>
       <c r="G89" s="35" t="s">
         <v>471</v>
       </c>
@@ -13492,7 +13471,7 @@
       </c>
       <c r="C91" s="3"/>
       <c r="E91" s="30"/>
-      <c r="F91" s="68"/>
+      <c r="F91" s="69"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
     </row>
@@ -13530,7 +13509,7 @@
       <c r="E93" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="F93" s="79"/>
+      <c r="F93" s="80"/>
       <c r="G93" s="35" t="s">
         <v>490</v>
       </c>
@@ -13539,18 +13518,18 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="80"/>
+      <c r="A94" s="81"/>
       <c r="B94" s="35" t="s">
         <v>492</v>
       </c>
-      <c r="C94" s="81" t="s">
+      <c r="C94" s="82" t="s">
         <v>493</v>
       </c>
-      <c r="D94" s="81" t="s">
+      <c r="D94" s="82" t="s">
         <v>494</v>
       </c>
       <c r="E94" s="30"/>
-      <c r="F94" s="82" t="s">
+      <c r="F94" s="83" t="s">
         <v>495</v>
       </c>
       <c r="G94" s="35" t="s">
@@ -13561,21 +13540,21 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="80"/>
+      <c r="A95" s="81"/>
       <c r="B95" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="C95" s="81" t="s">
+      <c r="C95" s="82" t="s">
         <v>499</v>
       </c>
-      <c r="D95" s="81" t="s">
+      <c r="D95" s="82" t="s">
         <v>500</v>
       </c>
       <c r="E95" s="30"/>
-      <c r="F95" s="82" t="s">
+      <c r="F95" s="83" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="83" t="s">
+      <c r="G95" s="84" t="s">
         <v>502</v>
       </c>
       <c r="H95" s="35" t="s">
@@ -13583,19 +13562,19 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="80"/>
+      <c r="A96" s="81"/>
       <c r="B96" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="81" t="s">
+      <c r="C96" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="D96" s="81" t="s">
+      <c r="D96" s="82" t="s">
         <v>505</v>
       </c>
       <c r="E96" s="30"/>
-      <c r="F96" s="82" t="s">
-        <v>195</v>
+      <c r="F96" s="83" t="s">
+        <v>196</v>
       </c>
       <c r="G96" s="35" t="s">
         <v>506</v>
@@ -13605,34 +13584,34 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="80"/>
+      <c r="A97" s="81"/>
       <c r="B97" s="35" t="s">
         <v>508</v>
       </c>
-      <c r="C97" s="81" t="s">
+      <c r="C97" s="82" t="s">
         <v>509</v>
       </c>
-      <c r="D97" s="81" t="s">
+      <c r="D97" s="82" t="s">
         <v>510</v>
       </c>
       <c r="E97" s="52"/>
-      <c r="F97" s="82" t="s">
+      <c r="F97" s="83" t="s">
         <v>511</v>
       </c>
       <c r="G97" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="H97" s="71" t="s">
+      <c r="H97" s="85" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="80"/>
+      <c r="A98" s="81"/>
       <c r="B98" s="35"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
       <c r="E98" s="30"/>
-      <c r="F98" s="82"/>
+      <c r="F98" s="83"/>
       <c r="G98" s="30"/>
       <c r="H98" s="30"/>
     </row>
@@ -13643,12 +13622,12 @@
       <c r="B99" s="35" t="s">
         <v>515</v>
       </c>
-      <c r="C99" s="84" t="s">
+      <c r="C99" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="D99" s="81"/>
+      <c r="D99" s="82"/>
       <c r="E99" s="30"/>
-      <c r="F99" s="81"/>
+      <c r="F99" s="82"/>
       <c r="G99" s="30"/>
       <c r="H99" s="30"/>
     </row>
@@ -13659,12 +13638,12 @@
       <c r="B100" s="35" t="s">
         <v>516</v>
       </c>
-      <c r="C100" s="84" t="s">
+      <c r="C100" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="D100" s="81"/>
+      <c r="D100" s="82"/>
       <c r="E100" s="30"/>
-      <c r="F100" s="85"/>
+      <c r="F100" s="87"/>
       <c r="G100" s="30"/>
       <c r="H100" s="30"/>
     </row>
@@ -13675,20 +13654,20 @@
       <c r="B101" s="35" t="s">
         <v>518</v>
       </c>
-      <c r="C101" s="81" t="s">
+      <c r="C101" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="D101" s="81" t="s">
+      <c r="D101" s="82" t="s">
         <v>520</v>
       </c>
       <c r="E101" s="30"/>
-      <c r="F101" s="82" t="s">
+      <c r="F101" s="83" t="s">
         <v>521</v>
       </c>
       <c r="G101" s="35" t="s">
         <v>522</v>
       </c>
-      <c r="H101" s="70" t="s">
+      <c r="H101" s="71" t="s">
         <v>523</v>
       </c>
     </row>
@@ -13699,20 +13678,20 @@
       <c r="B102" s="35" t="s">
         <v>525</v>
       </c>
-      <c r="C102" s="81" t="s">
+      <c r="C102" s="82" t="s">
         <v>519</v>
       </c>
-      <c r="D102" s="81" t="s">
+      <c r="D102" s="82" t="s">
         <v>520</v>
       </c>
       <c r="E102" s="30"/>
-      <c r="F102" s="82" t="s">
+      <c r="F102" s="83" t="s">
         <v>526</v>
       </c>
       <c r="G102" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="H102" s="70" t="s">
+      <c r="H102" s="71" t="s">
         <v>528</v>
       </c>
     </row>
@@ -13723,18 +13702,18 @@
       <c r="B103" s="35" t="s">
         <v>530</v>
       </c>
-      <c r="C103" s="86" t="s">
+      <c r="C103" s="88" t="s">
         <v>531</v>
       </c>
-      <c r="D103" s="81"/>
+      <c r="D103" s="82"/>
       <c r="E103" s="52"/>
-      <c r="F103" s="82" t="s">
+      <c r="F103" s="83" t="s">
         <v>532</v>
       </c>
       <c r="G103" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="H103" s="87" t="s">
+      <c r="H103" s="85" t="s">
         <v>534</v>
       </c>
     </row>
@@ -13745,12 +13724,12 @@
       <c r="B104" s="35" t="s">
         <v>488</v>
       </c>
-      <c r="C104" s="84" t="s">
+      <c r="C104" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="D104" s="81"/>
+      <c r="D104" s="82"/>
       <c r="E104" s="30"/>
-      <c r="F104" s="81"/>
+      <c r="F104" s="82"/>
       <c r="G104" s="30"/>
       <c r="H104" s="30"/>
     </row>
@@ -13761,17 +13740,17 @@
       <c r="B105" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="C105" s="81" t="s">
+      <c r="C105" s="82" t="s">
         <v>538</v>
       </c>
-      <c r="D105" s="81" t="s">
+      <c r="D105" s="82" t="s">
         <v>539</v>
       </c>
       <c r="E105" s="30"/>
-      <c r="F105" s="82" t="s">
+      <c r="F105" s="83" t="s">
         <v>540</v>
       </c>
-      <c r="G105" s="88" t="s">
+      <c r="G105" s="89" t="s">
         <v>506</v>
       </c>
       <c r="H105" s="35" t="s">
@@ -13785,16 +13764,16 @@
       <c r="B106" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="C106" s="84" t="s">
+      <c r="C106" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="D106" s="81"/>
+      <c r="D106" s="82"/>
       <c r="E106" s="30"/>
-      <c r="F106" s="89" t="s">
+      <c r="F106" s="90" t="s">
         <v>544</v>
       </c>
-      <c r="G106" s="67" t="s">
-        <v>239</v>
+      <c r="G106" s="68" t="s">
+        <v>240</v>
       </c>
       <c r="H106" s="36" t="s">
         <v>545</v>
@@ -13807,14 +13786,14 @@
       <c r="B107" s="35" t="s">
         <v>547</v>
       </c>
-      <c r="C107" s="81" t="s">
+      <c r="C107" s="82" t="s">
         <v>548</v>
       </c>
-      <c r="D107" s="81" t="s">
+      <c r="D107" s="82" t="s">
         <v>549</v>
       </c>
       <c r="E107" s="30"/>
-      <c r="F107" s="82" t="s">
+      <c r="F107" s="83" t="s">
         <v>550</v>
       </c>
       <c r="G107" s="35" t="s">
@@ -13831,14 +13810,14 @@
       <c r="B108" s="35" t="s">
         <v>554</v>
       </c>
-      <c r="C108" s="81" t="s">
+      <c r="C108" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="D108" s="81" t="s">
+      <c r="D108" s="82" t="s">
         <v>556</v>
       </c>
       <c r="E108" s="30"/>
-      <c r="F108" s="82" t="s">
+      <c r="F108" s="83" t="s">
         <v>557</v>
       </c>
       <c r="G108" s="35" t="s">
@@ -13855,14 +13834,14 @@
       <c r="B109" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="C109" s="81" t="s">
+      <c r="C109" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="D109" s="81" t="s">
+      <c r="D109" s="82" t="s">
         <v>556</v>
       </c>
       <c r="E109" s="30"/>
-      <c r="F109" s="82" t="s">
+      <c r="F109" s="83" t="s">
         <v>562</v>
       </c>
       <c r="G109" s="35" t="s">
@@ -13879,14 +13858,14 @@
       <c r="B110" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="C110" s="81" t="s">
+      <c r="C110" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="D110" s="81" t="s">
+      <c r="D110" s="82" t="s">
         <v>556</v>
       </c>
       <c r="E110" s="30"/>
-      <c r="F110" s="82" t="s">
+      <c r="F110" s="83" t="s">
         <v>566</v>
       </c>
       <c r="G110" s="35" t="s">
@@ -13903,14 +13882,14 @@
       <c r="B111" s="35" t="s">
         <v>569</v>
       </c>
-      <c r="C111" s="81" t="s">
+      <c r="C111" s="82" t="s">
         <v>555</v>
       </c>
-      <c r="D111" s="81" t="s">
+      <c r="D111" s="82" t="s">
         <v>556</v>
       </c>
       <c r="E111" s="30"/>
-      <c r="F111" s="82" t="s">
+      <c r="F111" s="83" t="s">
         <v>570</v>
       </c>
       <c r="G111" s="35" t="s">
@@ -13927,12 +13906,12 @@
       <c r="B112" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="C112" s="90" t="s">
+      <c r="C112" s="91" t="s">
         <v>573</v>
       </c>
-      <c r="D112" s="81"/>
+      <c r="D112" s="82"/>
       <c r="E112" s="52"/>
-      <c r="F112" s="82" t="s">
+      <c r="F112" s="83" t="s">
         <v>574</v>
       </c>
       <c r="G112" s="36" t="s">
@@ -13949,19 +13928,19 @@
       <c r="B113" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="C113" s="84" t="s">
+      <c r="C113" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="D113" s="81"/>
-      <c r="E113" s="91" t="s">
+      <c r="D113" s="82"/>
+      <c r="E113" s="92" t="s">
         <v>579</v>
       </c>
-      <c r="F113" s="85"/>
+      <c r="F113" s="87"/>
       <c r="G113" s="36" t="s">
         <v>580</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114">
@@ -13969,20 +13948,20 @@
         <v>581</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="D114" s="81" t="s">
+      <c r="C114" s="87" t="s">
         <v>72</v>
       </c>
+      <c r="D114" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="E114" s="30"/>
-      <c r="F114" s="82" t="s">
+      <c r="F114" s="83" t="s">
         <v>582</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H114" s="38" t="s">
         <v>583</v>
@@ -13993,20 +13972,20 @@
         <v>584</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="D115" s="81" t="s">
+      <c r="C115" s="87" t="s">
         <v>79</v>
       </c>
+      <c r="D115" s="82" t="s">
+        <v>80</v>
+      </c>
       <c r="E115" s="30"/>
-      <c r="F115" s="82" t="s">
+      <c r="F115" s="83" t="s">
         <v>585</v>
       </c>
       <c r="G115" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H115" s="40" t="s">
         <v>586</v>
@@ -14017,20 +13996,20 @@
         <v>587</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C116" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="D116" s="81" t="s">
+      <c r="C116" s="87" t="s">
         <v>86</v>
       </c>
+      <c r="D116" s="82" t="s">
+        <v>87</v>
+      </c>
       <c r="E116" s="30"/>
-      <c r="F116" s="82" t="s">
+      <c r="F116" s="83" t="s">
         <v>588</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H116" s="35" t="s">
         <v>589</v>
@@ -14041,20 +14020,20 @@
         <v>590</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C117" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="D117" s="81" t="s">
+      <c r="C117" s="87" t="s">
         <v>93</v>
       </c>
+      <c r="D117" s="82" t="s">
+        <v>94</v>
+      </c>
       <c r="E117" s="30"/>
-      <c r="F117" s="82" t="s">
+      <c r="F117" s="83" t="s">
         <v>591</v>
       </c>
       <c r="G117" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H117" s="35" t="s">
         <v>592</v>
@@ -14065,20 +14044,20 @@
         <v>593</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C118" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="D118" s="81" t="s">
+      <c r="C118" s="87" t="s">
         <v>99</v>
       </c>
+      <c r="D118" s="82" t="s">
+        <v>100</v>
+      </c>
       <c r="E118" s="30"/>
-      <c r="F118" s="82" t="s">
+      <c r="F118" s="83" t="s">
         <v>594</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H118" s="36" t="s">
         <v>595</v>
@@ -14089,20 +14068,20 @@
         <v>596</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D119" s="81" t="s">
+      <c r="C119" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" s="82" t="s">
         <v>597</v>
       </c>
       <c r="E119" s="30"/>
-      <c r="F119" s="82" t="s">
+      <c r="F119" s="83" t="s">
         <v>598</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H119" s="35" t="s">
         <v>599</v>
@@ -14113,20 +14092,20 @@
         <v>600</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="D120" s="81" t="s">
+      <c r="C120" s="87" t="s">
         <v>112</v>
       </c>
+      <c r="D120" s="82" t="s">
+        <v>113</v>
+      </c>
       <c r="E120" s="30"/>
-      <c r="F120" s="82" t="s">
+      <c r="F120" s="83" t="s">
         <v>601</v>
       </c>
       <c r="G120" s="38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H120" s="38" t="s">
         <v>602</v>
@@ -14137,20 +14116,20 @@
         <v>603</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C121" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="81" t="s">
+      <c r="C121" s="87" t="s">
         <v>132</v>
       </c>
+      <c r="D121" s="82" t="s">
+        <v>133</v>
+      </c>
       <c r="E121" s="30"/>
-      <c r="F121" s="82" t="s">
+      <c r="F121" s="83" t="s">
         <v>604</v>
       </c>
       <c r="G121" s="35" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H121" s="36" t="s">
         <v>605</v>
@@ -14161,20 +14140,20 @@
         <v>606</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C122" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D122" s="81" t="s">
+      <c r="C122" s="87" t="s">
         <v>126</v>
       </c>
+      <c r="D122" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="E122" s="30"/>
-      <c r="F122" s="82" t="s">
+      <c r="F122" s="83" t="s">
         <v>607</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H122" s="36" t="s">
         <v>608</v>
@@ -14187,10 +14166,10 @@
       <c r="B123" s="35" t="s">
         <v>610</v>
       </c>
-      <c r="C123" s="85"/>
-      <c r="D123" s="81"/>
+      <c r="C123" s="87"/>
+      <c r="D123" s="82"/>
       <c r="E123" s="30"/>
-      <c r="F123" s="82"/>
+      <c r="F123" s="83"/>
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
     </row>
@@ -14199,20 +14178,20 @@
         <v>611</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C124" s="85" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="81" t="s">
+      <c r="C124" s="87" t="s">
         <v>139</v>
       </c>
+      <c r="D124" s="82" t="s">
+        <v>140</v>
+      </c>
       <c r="E124" s="30"/>
-      <c r="F124" s="82" t="s">
+      <c r="F124" s="83" t="s">
         <v>612</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H124" s="36" t="s">
         <v>613</v>
@@ -14225,13 +14204,13 @@
       <c r="B125" s="35" t="s">
         <v>615</v>
       </c>
-      <c r="C125" s="92" t="s">
+      <c r="C125" s="93" t="s">
         <v>616</v>
       </c>
-      <c r="D125" s="93" t="s">
+      <c r="D125" s="94" t="s">
         <v>617</v>
       </c>
-      <c r="E125" s="94"/>
+      <c r="E125" s="62"/>
       <c r="F125" s="95" t="s">
         <v>618</v>
       </c>
@@ -14249,12 +14228,12 @@
       <c r="B126" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="C126" s="84" t="s">
+      <c r="C126" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="D126" s="81"/>
+      <c r="D126" s="82"/>
       <c r="E126" s="30"/>
-      <c r="F126" s="85"/>
+      <c r="F126" s="87"/>
       <c r="G126" s="35"/>
       <c r="H126" s="35"/>
     </row>
@@ -14265,14 +14244,14 @@
       <c r="B127" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="C127" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="D127" s="81" t="s">
+      <c r="C127" s="82" t="s">
         <v>244</v>
       </c>
+      <c r="D127" s="82" t="s">
+        <v>245</v>
+      </c>
       <c r="E127" s="30"/>
-      <c r="F127" s="82" t="s">
+      <c r="F127" s="83" t="s">
         <v>625</v>
       </c>
       <c r="G127" s="36" t="s">
@@ -14289,14 +14268,14 @@
       <c r="B128" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="C128" s="81" t="s">
+      <c r="C128" s="82" t="s">
         <v>630</v>
       </c>
-      <c r="D128" s="81" t="s">
+      <c r="D128" s="82" t="s">
         <v>631</v>
       </c>
       <c r="E128" s="52"/>
-      <c r="F128" s="82" t="s">
+      <c r="F128" s="83" t="s">
         <v>632</v>
       </c>
       <c r="G128" s="36" t="s">
@@ -14311,20 +14290,20 @@
         <v>635</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C129" s="81" t="s">
         <v>250</v>
       </c>
-      <c r="D129" s="81" t="s">
+      <c r="C129" s="82" t="s">
         <v>251</v>
       </c>
+      <c r="D129" s="82" t="s">
+        <v>252</v>
+      </c>
       <c r="E129" s="30"/>
-      <c r="F129" s="82" t="s">
+      <c r="F129" s="83" t="s">
         <v>636</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H129" s="36" t="s">
         <v>637</v>
@@ -14333,10 +14312,10 @@
     <row r="130">
       <c r="A130" s="45"/>
       <c r="B130" s="35"/>
-      <c r="C130" s="81"/>
-      <c r="D130" s="81"/>
+      <c r="C130" s="82"/>
+      <c r="D130" s="82"/>
       <c r="E130" s="52"/>
-      <c r="F130" s="82"/>
+      <c r="F130" s="83"/>
       <c r="G130" s="36" t="s">
         <v>638</v>
       </c>
@@ -14347,10 +14326,10 @@
     <row r="131">
       <c r="A131" s="45"/>
       <c r="B131" s="35"/>
-      <c r="C131" s="81"/>
-      <c r="D131" s="81"/>
+      <c r="C131" s="82"/>
+      <c r="D131" s="82"/>
       <c r="E131" s="52"/>
-      <c r="F131" s="82"/>
+      <c r="F131" s="83"/>
       <c r="G131" s="36" t="s">
         <v>638</v>
       </c>
@@ -14363,20 +14342,20 @@
         <v>641</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C132" s="81" t="s">
         <v>257</v>
       </c>
-      <c r="D132" s="81" t="s">
+      <c r="C132" s="82" t="s">
         <v>258</v>
       </c>
+      <c r="D132" s="82" t="s">
+        <v>259</v>
+      </c>
       <c r="E132" s="30"/>
-      <c r="F132" s="82" t="s">
+      <c r="F132" s="83" t="s">
         <v>642</v>
       </c>
       <c r="G132" s="36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H132" s="36" t="s">
         <v>643</v>
@@ -14387,12 +14366,12 @@
         <v>644</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C133" s="97" t="s">
         <v>645</v>
       </c>
-      <c r="D133" s="81"/>
+      <c r="D133" s="82"/>
       <c r="E133" s="52"/>
       <c r="F133" s="98" t="s">
         <v>646</v>
@@ -14411,12 +14390,12 @@
       <c r="B134" s="35" t="s">
         <v>649</v>
       </c>
-      <c r="C134" s="84" t="s">
+      <c r="C134" s="86" t="s">
         <v>431</v>
       </c>
-      <c r="D134" s="81"/>
+      <c r="D134" s="82"/>
       <c r="E134" s="30"/>
-      <c r="F134" s="85"/>
+      <c r="F134" s="87"/>
       <c r="G134" s="30"/>
       <c r="H134" s="30"/>
     </row>
@@ -14427,13 +14406,13 @@
       <c r="B135" s="35" t="s">
         <v>651</v>
       </c>
-      <c r="C135" s="93" t="s">
+      <c r="C135" s="94" t="s">
         <v>652</v>
       </c>
-      <c r="D135" s="93" t="s">
+      <c r="D135" s="94" t="s">
         <v>653</v>
       </c>
-      <c r="E135" s="94"/>
+      <c r="E135" s="62"/>
       <c r="F135" s="95" t="s">
         <v>654</v>
       </c>
@@ -14451,17 +14430,17 @@
       <c r="B136" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="C136" s="81" t="s">
+      <c r="C136" s="82" t="s">
         <v>659</v>
       </c>
-      <c r="D136" s="81" t="s">
+      <c r="D136" s="82" t="s">
         <v>660</v>
       </c>
       <c r="E136" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="F136" s="82" t="s">
-        <v>49</v>
+      <c r="F136" s="83" t="s">
+        <v>50</v>
       </c>
       <c r="G136" s="36" t="s">
         <v>661</v>
@@ -14477,28 +14456,28 @@
       <c r="B137" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="C137" s="81"/>
-      <c r="D137" s="81"/>
+      <c r="C137" s="82"/>
+      <c r="D137" s="82"/>
       <c r="E137" s="52"/>
-      <c r="F137" s="81"/>
-      <c r="G137" s="63"/>
+      <c r="F137" s="82"/>
+      <c r="G137" s="64"/>
     </row>
     <row r="138">
       <c r="A138" s="45" t="s">
         <v>665</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C138" s="97" t="s">
         <v>645</v>
       </c>
-      <c r="D138" s="81"/>
+      <c r="D138" s="82"/>
       <c r="E138" s="52"/>
-      <c r="F138" s="82" t="s">
+      <c r="F138" s="83" t="s">
         <v>666</v>
       </c>
-      <c r="G138" s="67" t="s">
+      <c r="G138" s="68" t="s">
         <v>667</v>
       </c>
       <c r="H138" s="36" t="s">
@@ -14512,17 +14491,17 @@
       <c r="B139" s="35" t="s">
         <v>670</v>
       </c>
-      <c r="C139" s="81" t="s">
+      <c r="C139" s="82" t="s">
         <v>671</v>
       </c>
-      <c r="D139" s="81" t="s">
+      <c r="D139" s="82" t="s">
         <v>672</v>
       </c>
       <c r="E139" s="52"/>
-      <c r="F139" s="82" t="s">
+      <c r="F139" s="83" t="s">
         <v>673</v>
       </c>
-      <c r="G139" s="67" t="s">
+      <c r="G139" s="68" t="s">
         <v>674</v>
       </c>
       <c r="H139" s="36" t="s">
@@ -14536,17 +14515,17 @@
       <c r="B140" s="35" t="s">
         <v>677</v>
       </c>
-      <c r="C140" s="81" t="s">
+      <c r="C140" s="82" t="s">
         <v>678</v>
       </c>
-      <c r="D140" s="81" t="s">
+      <c r="D140" s="82" t="s">
         <v>679</v>
       </c>
       <c r="E140" s="52"/>
-      <c r="F140" s="82" t="s">
+      <c r="F140" s="83" t="s">
         <v>680</v>
       </c>
-      <c r="G140" s="67" t="s">
+      <c r="G140" s="68" t="s">
         <v>681</v>
       </c>
       <c r="H140" s="36" t="s">
@@ -14576,7 +14555,7 @@
       <c r="B142" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="C142" s="81" t="s">
+      <c r="C142" s="82" t="s">
         <v>373</v>
       </c>
       <c r="D142" s="100"/>
@@ -14598,7 +14577,7 @@
       <c r="B143" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="C143" s="84" t="s">
+      <c r="C143" s="86" t="s">
         <v>431</v>
       </c>
       <c r="D143" s="100"/>
@@ -14619,12 +14598,12 @@
       </c>
       <c r="D144" s="100"/>
       <c r="E144" s="100"/>
-      <c r="F144" s="85"/>
+      <c r="F144" s="87"/>
       <c r="G144" s="36" t="s">
         <v>694</v>
       </c>
       <c r="H144" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="145">
@@ -14632,20 +14611,20 @@
         <v>695</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C145" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D145" s="81" t="s">
+      <c r="C145" s="82" t="s">
         <v>72</v>
       </c>
+      <c r="D145" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="E145" s="100"/>
-      <c r="F145" s="82" t="s">
+      <c r="F145" s="83" t="s">
         <v>696</v>
       </c>
       <c r="G145" s="107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H145" s="107" t="s">
         <v>697</v>
@@ -14656,20 +14635,20 @@
         <v>698</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C146" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D146" s="81" t="s">
+      <c r="C146" s="82" t="s">
         <v>86</v>
       </c>
+      <c r="D146" s="82" t="s">
+        <v>87</v>
+      </c>
       <c r="E146" s="100"/>
-      <c r="F146" s="82" t="s">
+      <c r="F146" s="83" t="s">
         <v>699</v>
       </c>
       <c r="G146" s="107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H146" s="107" t="s">
         <v>700</v>
@@ -14680,20 +14659,20 @@
         <v>701</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C147" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D147" s="81" t="s">
+      <c r="C147" s="82" t="s">
         <v>93</v>
       </c>
+      <c r="D147" s="82" t="s">
+        <v>94</v>
+      </c>
       <c r="E147" s="100"/>
-      <c r="F147" s="82" t="s">
+      <c r="F147" s="83" t="s">
         <v>702</v>
       </c>
       <c r="G147" s="107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H147" s="107" t="s">
         <v>703</v>
@@ -14704,20 +14683,20 @@
         <v>704</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C148" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D148" s="81" t="s">
+      <c r="C148" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D148" s="82" t="s">
         <v>597</v>
       </c>
       <c r="E148" s="100"/>
-      <c r="F148" s="82" t="s">
+      <c r="F148" s="83" t="s">
         <v>705</v>
       </c>
       <c r="G148" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H148" s="108" t="s">
         <v>706</v>
@@ -14728,20 +14707,20 @@
         <v>707</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C149" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D149" s="81" t="s">
+      <c r="C149" s="82" t="s">
         <v>112</v>
       </c>
+      <c r="D149" s="82" t="s">
+        <v>113</v>
+      </c>
       <c r="E149" s="100"/>
-      <c r="F149" s="82" t="s">
+      <c r="F149" s="83" t="s">
         <v>708</v>
       </c>
       <c r="G149" s="109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H149" s="109" t="s">
         <v>709</v>
@@ -14752,20 +14731,20 @@
         <v>710</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C150" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="D150" s="81" t="s">
+      <c r="C150" s="82" t="s">
         <v>132</v>
       </c>
+      <c r="D150" s="82" t="s">
+        <v>133</v>
+      </c>
       <c r="E150" s="100"/>
-      <c r="F150" s="82" t="s">
+      <c r="F150" s="83" t="s">
         <v>711</v>
       </c>
       <c r="G150" s="107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H150" s="110" t="s">
         <v>712</v>
@@ -14776,22 +14755,22 @@
         <v>713</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C151" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D151" s="81" t="s">
+      <c r="C151" s="82" t="s">
         <v>126</v>
       </c>
+      <c r="D151" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="E151" s="100"/>
-      <c r="F151" s="82" t="s">
+      <c r="F151" s="83" t="s">
         <v>714</v>
       </c>
       <c r="G151" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H151" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H151" s="83" t="s">
         <v>715</v>
       </c>
     </row>
@@ -14802,18 +14781,18 @@
       <c r="B152" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="C152" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D152" s="81" t="s">
+      <c r="C152" s="82" t="s">
         <v>147</v>
       </c>
+      <c r="D152" s="82" t="s">
+        <v>148</v>
+      </c>
       <c r="E152" s="100"/>
-      <c r="F152" s="82" t="s">
+      <c r="F152" s="83" t="s">
         <v>718</v>
       </c>
       <c r="G152" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H152" s="40" t="s">
         <v>719</v>
@@ -14824,22 +14803,22 @@
         <v>720</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C153" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D153" s="81" t="s">
+      <c r="C153" s="82" t="s">
         <v>139</v>
       </c>
+      <c r="D153" s="82" t="s">
+        <v>140</v>
+      </c>
       <c r="E153" s="100"/>
-      <c r="F153" s="82" t="s">
+      <c r="F153" s="83" t="s">
         <v>721</v>
       </c>
       <c r="G153" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H153" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H153" s="83" t="s">
         <v>722</v>
       </c>
     </row>
@@ -14855,12 +14834,12 @@
       </c>
       <c r="D154" s="111"/>
       <c r="E154" s="100"/>
-      <c r="F154" s="85"/>
+      <c r="F154" s="87"/>
       <c r="G154" s="36" t="s">
         <v>725</v>
       </c>
       <c r="H154" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155">
@@ -14868,20 +14847,20 @@
         <v>726</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C155" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D155" s="81" t="s">
+      <c r="C155" s="82" t="s">
         <v>72</v>
       </c>
+      <c r="D155" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="E155" s="100"/>
-      <c r="F155" s="82" t="s">
+      <c r="F155" s="83" t="s">
         <v>727</v>
       </c>
       <c r="G155" s="107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H155" s="107" t="s">
         <v>728</v>
@@ -14892,20 +14871,20 @@
         <v>729</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D156" s="81" t="s">
+      <c r="C156" s="82" t="s">
         <v>86</v>
       </c>
+      <c r="D156" s="82" t="s">
+        <v>87</v>
+      </c>
       <c r="E156" s="100"/>
-      <c r="F156" s="82" t="s">
+      <c r="F156" s="83" t="s">
         <v>730</v>
       </c>
       <c r="G156" s="107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H156" s="107" t="s">
         <v>731</v>
@@ -14916,20 +14895,20 @@
         <v>732</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C157" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D157" s="81" t="s">
+      <c r="C157" s="82" t="s">
         <v>93</v>
       </c>
+      <c r="D157" s="82" t="s">
+        <v>94</v>
+      </c>
       <c r="E157" s="100"/>
-      <c r="F157" s="82" t="s">
+      <c r="F157" s="83" t="s">
         <v>733</v>
       </c>
       <c r="G157" s="107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H157" s="107" t="s">
         <v>734</v>
@@ -14940,20 +14919,20 @@
         <v>735</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C158" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D158" s="81" t="s">
+      <c r="C158" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D158" s="82" t="s">
         <v>597</v>
       </c>
       <c r="E158" s="100"/>
-      <c r="F158" s="82" t="s">
+      <c r="F158" s="83" t="s">
         <v>736</v>
       </c>
       <c r="G158" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H158" s="108" t="s">
         <v>737</v>
@@ -14964,20 +14943,20 @@
         <v>738</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C159" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D159" s="81" t="s">
+      <c r="C159" s="82" t="s">
         <v>112</v>
       </c>
+      <c r="D159" s="82" t="s">
+        <v>113</v>
+      </c>
       <c r="E159" s="100"/>
-      <c r="F159" s="82" t="s">
+      <c r="F159" s="83" t="s">
         <v>739</v>
       </c>
       <c r="G159" s="112" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H159" s="112" t="s">
         <v>740</v>
@@ -14988,20 +14967,20 @@
         <v>741</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C160" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="D160" s="81" t="s">
+      <c r="C160" s="82" t="s">
         <v>132</v>
       </c>
+      <c r="D160" s="82" t="s">
+        <v>133</v>
+      </c>
       <c r="E160" s="100"/>
-      <c r="F160" s="82" t="s">
+      <c r="F160" s="83" t="s">
         <v>742</v>
       </c>
       <c r="G160" s="107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H160" s="110" t="s">
         <v>743</v>
@@ -15012,22 +14991,22 @@
         <v>744</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C161" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D161" s="81" t="s">
+      <c r="C161" s="82" t="s">
         <v>126</v>
       </c>
+      <c r="D161" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="E161" s="100"/>
-      <c r="F161" s="82" t="s">
+      <c r="F161" s="83" t="s">
         <v>745</v>
       </c>
       <c r="G161" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H161" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H161" s="83" t="s">
         <v>746</v>
       </c>
     </row>
@@ -15038,18 +15017,18 @@
       <c r="B162" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="C162" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D162" s="81" t="s">
+      <c r="C162" s="82" t="s">
         <v>147</v>
       </c>
+      <c r="D162" s="82" t="s">
+        <v>148</v>
+      </c>
       <c r="E162" s="100"/>
-      <c r="F162" s="82" t="s">
+      <c r="F162" s="83" t="s">
         <v>748</v>
       </c>
       <c r="G162" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H162" s="40" t="s">
         <v>749</v>
@@ -15060,22 +15039,22 @@
         <v>750</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C163" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D163" s="81" t="s">
+      <c r="C163" s="82" t="s">
         <v>139</v>
       </c>
+      <c r="D163" s="82" t="s">
+        <v>140</v>
+      </c>
       <c r="E163" s="100"/>
-      <c r="F163" s="82" t="s">
+      <c r="F163" s="83" t="s">
         <v>751</v>
       </c>
       <c r="G163" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H163" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H163" s="83" t="s">
         <v>752</v>
       </c>
     </row>
@@ -15086,13 +15065,13 @@
       <c r="B164" s="35" t="s">
         <v>754</v>
       </c>
-      <c r="C164" s="81" t="s">
+      <c r="C164" s="82" t="s">
         <v>755</v>
       </c>
-      <c r="D164" s="81" t="s">
+      <c r="D164" s="82" t="s">
         <v>756</v>
       </c>
-      <c r="E164" s="81"/>
+      <c r="E164" s="82"/>
       <c r="F164" s="113" t="s">
         <v>757</v>
       </c>
@@ -15113,12 +15092,12 @@
       <c r="C165" s="99"/>
       <c r="D165" s="99"/>
       <c r="E165" s="100"/>
-      <c r="F165" s="85"/>
+      <c r="F165" s="87"/>
       <c r="G165" s="36" t="s">
         <v>762</v>
       </c>
       <c r="H165" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="166">
@@ -15126,20 +15105,20 @@
         <v>763</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C166" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="D166" s="81" t="s">
+      <c r="C166" s="82" t="s">
         <v>72</v>
       </c>
+      <c r="D166" s="82" t="s">
+        <v>73</v>
+      </c>
       <c r="E166" s="100"/>
-      <c r="F166" s="82" t="s">
+      <c r="F166" s="83" t="s">
         <v>764</v>
       </c>
       <c r="G166" s="107" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H166" s="107" t="s">
         <v>765</v>
@@ -15150,20 +15129,20 @@
         <v>766</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C167" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="D167" s="81" t="s">
+      <c r="C167" s="82" t="s">
         <v>86</v>
       </c>
+      <c r="D167" s="82" t="s">
+        <v>87</v>
+      </c>
       <c r="E167" s="100"/>
-      <c r="F167" s="82" t="s">
+      <c r="F167" s="83" t="s">
         <v>767</v>
       </c>
       <c r="G167" s="107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H167" s="107" t="s">
         <v>768</v>
@@ -15174,20 +15153,20 @@
         <v>769</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="C168" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="D168" s="81" t="s">
+      <c r="C168" s="82" t="s">
         <v>93</v>
       </c>
+      <c r="D168" s="82" t="s">
+        <v>94</v>
+      </c>
       <c r="E168" s="100"/>
-      <c r="F168" s="82" t="s">
+      <c r="F168" s="83" t="s">
         <v>770</v>
       </c>
       <c r="G168" s="107" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H168" s="107" t="s">
         <v>771</v>
@@ -15198,20 +15177,20 @@
         <v>772</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="C169" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="D169" s="81" t="s">
+      <c r="C169" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="D169" s="82" t="s">
         <v>597</v>
       </c>
       <c r="E169" s="100"/>
-      <c r="F169" s="82" t="s">
+      <c r="F169" s="83" t="s">
         <v>773</v>
       </c>
       <c r="G169" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H169" s="108" t="s">
         <v>774</v>
@@ -15222,20 +15201,20 @@
         <v>775</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C170" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="D170" s="81" t="s">
+      <c r="C170" s="82" t="s">
         <v>112</v>
       </c>
+      <c r="D170" s="82" t="s">
+        <v>113</v>
+      </c>
       <c r="E170" s="100"/>
-      <c r="F170" s="82" t="s">
+      <c r="F170" s="83" t="s">
         <v>776</v>
       </c>
       <c r="G170" s="109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H170" s="109" t="s">
         <v>777</v>
@@ -15246,20 +15225,20 @@
         <v>778</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C171" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="D171" s="81" t="s">
+      <c r="C171" s="82" t="s">
         <v>132</v>
       </c>
+      <c r="D171" s="82" t="s">
+        <v>133</v>
+      </c>
       <c r="E171" s="100"/>
-      <c r="F171" s="82" t="s">
+      <c r="F171" s="83" t="s">
         <v>779</v>
       </c>
       <c r="G171" s="107" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H171" s="110" t="s">
         <v>780</v>
@@ -15270,22 +15249,22 @@
         <v>781</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C172" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="D172" s="81" t="s">
+      <c r="C172" s="82" t="s">
         <v>126</v>
       </c>
+      <c r="D172" s="82" t="s">
+        <v>127</v>
+      </c>
       <c r="E172" s="100"/>
-      <c r="F172" s="82" t="s">
+      <c r="F172" s="83" t="s">
         <v>782</v>
       </c>
       <c r="G172" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H172" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H172" s="83" t="s">
         <v>783</v>
       </c>
     </row>
@@ -15296,18 +15275,18 @@
       <c r="B173" s="35" t="s">
         <v>717</v>
       </c>
-      <c r="C173" s="81" t="s">
-        <v>146</v>
-      </c>
-      <c r="D173" s="81" t="s">
+      <c r="C173" s="82" t="s">
         <v>147</v>
       </c>
+      <c r="D173" s="82" t="s">
+        <v>148</v>
+      </c>
       <c r="E173" s="100"/>
-      <c r="F173" s="82" t="s">
+      <c r="F173" s="83" t="s">
         <v>785</v>
       </c>
       <c r="G173" s="38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H173" s="40" t="s">
         <v>786</v>
@@ -15318,22 +15297,22 @@
         <v>787</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="C174" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="D174" s="81" t="s">
+      <c r="C174" s="82" t="s">
         <v>139</v>
       </c>
+      <c r="D174" s="82" t="s">
+        <v>140</v>
+      </c>
       <c r="E174" s="100"/>
-      <c r="F174" s="82" t="s">
+      <c r="F174" s="83" t="s">
         <v>788</v>
       </c>
       <c r="G174" s="108" t="s">
-        <v>121</v>
-      </c>
-      <c r="H174" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="H174" s="83" t="s">
         <v>789</v>
       </c>
     </row>
@@ -15604,4867 +15583,4867 @@
       <c r="H197" s="30"/>
     </row>
     <row r="198">
-      <c r="A198" s="80"/>
+      <c r="A198" s="81"/>
       <c r="E198" s="30"/>
       <c r="G198" s="30"/>
       <c r="H198" s="30"/>
     </row>
     <row r="199">
-      <c r="A199" s="80"/>
+      <c r="A199" s="81"/>
       <c r="E199" s="30"/>
       <c r="G199" s="30"/>
       <c r="H199" s="30"/>
     </row>
     <row r="200">
-      <c r="A200" s="80"/>
+      <c r="A200" s="81"/>
       <c r="E200" s="30"/>
       <c r="G200" s="30"/>
       <c r="H200" s="30"/>
     </row>
     <row r="201">
-      <c r="A201" s="80"/>
+      <c r="A201" s="81"/>
       <c r="E201" s="30"/>
       <c r="G201" s="30"/>
       <c r="H201" s="30"/>
     </row>
     <row r="202">
-      <c r="A202" s="80"/>
+      <c r="A202" s="81"/>
       <c r="E202" s="30"/>
       <c r="G202" s="30"/>
       <c r="H202" s="30"/>
     </row>
     <row r="203">
-      <c r="A203" s="80"/>
+      <c r="A203" s="81"/>
       <c r="E203" s="30"/>
       <c r="G203" s="30"/>
       <c r="H203" s="30"/>
     </row>
     <row r="204">
-      <c r="A204" s="80"/>
+      <c r="A204" s="81"/>
       <c r="E204" s="30"/>
       <c r="G204" s="30"/>
       <c r="H204" s="30"/>
     </row>
     <row r="205">
-      <c r="A205" s="80"/>
+      <c r="A205" s="81"/>
       <c r="E205" s="30"/>
       <c r="G205" s="30"/>
       <c r="H205" s="30"/>
     </row>
     <row r="206">
-      <c r="A206" s="80"/>
+      <c r="A206" s="81"/>
       <c r="E206" s="30"/>
       <c r="G206" s="30"/>
       <c r="H206" s="30"/>
     </row>
     <row r="207">
-      <c r="A207" s="80"/>
+      <c r="A207" s="81"/>
       <c r="E207" s="30"/>
       <c r="G207" s="30"/>
       <c r="H207" s="30"/>
     </row>
     <row r="208">
-      <c r="A208" s="80"/>
+      <c r="A208" s="81"/>
       <c r="E208" s="30"/>
       <c r="G208" s="30"/>
       <c r="H208" s="30"/>
     </row>
     <row r="209">
-      <c r="A209" s="80"/>
+      <c r="A209" s="81"/>
       <c r="E209" s="30"/>
       <c r="G209" s="30"/>
       <c r="H209" s="30"/>
     </row>
     <row r="210">
-      <c r="A210" s="80"/>
+      <c r="A210" s="81"/>
       <c r="E210" s="30"/>
       <c r="G210" s="30"/>
       <c r="H210" s="30"/>
     </row>
     <row r="211">
-      <c r="A211" s="80"/>
+      <c r="A211" s="81"/>
       <c r="E211" s="30"/>
       <c r="G211" s="30"/>
       <c r="H211" s="30"/>
     </row>
     <row r="212">
-      <c r="A212" s="80"/>
+      <c r="A212" s="81"/>
       <c r="E212" s="30"/>
       <c r="G212" s="30"/>
       <c r="H212" s="30"/>
     </row>
     <row r="213">
-      <c r="A213" s="80"/>
+      <c r="A213" s="81"/>
       <c r="E213" s="30"/>
       <c r="G213" s="30"/>
       <c r="H213" s="30"/>
     </row>
     <row r="214">
-      <c r="A214" s="80"/>
+      <c r="A214" s="81"/>
       <c r="E214" s="30"/>
       <c r="G214" s="30"/>
       <c r="H214" s="30"/>
     </row>
     <row r="215">
-      <c r="A215" s="80"/>
+      <c r="A215" s="81"/>
       <c r="E215" s="30"/>
       <c r="G215" s="30"/>
       <c r="H215" s="30"/>
     </row>
     <row r="216">
-      <c r="A216" s="80"/>
+      <c r="A216" s="81"/>
       <c r="E216" s="30"/>
       <c r="G216" s="30"/>
       <c r="H216" s="30"/>
     </row>
     <row r="217">
-      <c r="A217" s="80"/>
+      <c r="A217" s="81"/>
       <c r="E217" s="30"/>
       <c r="G217" s="30"/>
       <c r="H217" s="30"/>
     </row>
     <row r="218">
-      <c r="A218" s="80"/>
+      <c r="A218" s="81"/>
       <c r="E218" s="30"/>
       <c r="G218" s="30"/>
       <c r="H218" s="30"/>
     </row>
     <row r="219">
-      <c r="A219" s="80"/>
+      <c r="A219" s="81"/>
       <c r="E219" s="30"/>
       <c r="G219" s="30"/>
       <c r="H219" s="30"/>
     </row>
     <row r="220">
-      <c r="A220" s="80"/>
+      <c r="A220" s="81"/>
       <c r="E220" s="30"/>
       <c r="G220" s="30"/>
       <c r="H220" s="30"/>
     </row>
     <row r="221">
-      <c r="A221" s="80"/>
+      <c r="A221" s="81"/>
       <c r="E221" s="30"/>
       <c r="G221" s="30"/>
       <c r="H221" s="30"/>
     </row>
     <row r="222">
-      <c r="A222" s="80"/>
+      <c r="A222" s="81"/>
       <c r="E222" s="30"/>
       <c r="G222" s="30"/>
       <c r="H222" s="30"/>
     </row>
     <row r="223">
-      <c r="A223" s="80"/>
+      <c r="A223" s="81"/>
       <c r="E223" s="30"/>
       <c r="G223" s="30"/>
       <c r="H223" s="30"/>
     </row>
     <row r="224">
-      <c r="A224" s="80"/>
+      <c r="A224" s="81"/>
       <c r="E224" s="30"/>
       <c r="G224" s="30"/>
       <c r="H224" s="30"/>
     </row>
     <row r="225">
-      <c r="A225" s="80"/>
+      <c r="A225" s="81"/>
       <c r="E225" s="30"/>
       <c r="G225" s="30"/>
       <c r="H225" s="30"/>
     </row>
     <row r="226">
-      <c r="A226" s="80"/>
+      <c r="A226" s="81"/>
       <c r="E226" s="30"/>
       <c r="G226" s="30"/>
       <c r="H226" s="30"/>
     </row>
     <row r="227">
-      <c r="A227" s="80"/>
+      <c r="A227" s="81"/>
       <c r="E227" s="30"/>
       <c r="G227" s="30"/>
       <c r="H227" s="30"/>
     </row>
     <row r="228">
-      <c r="A228" s="80"/>
+      <c r="A228" s="81"/>
       <c r="E228" s="30"/>
       <c r="G228" s="30"/>
       <c r="H228" s="30"/>
     </row>
     <row r="229">
-      <c r="A229" s="80"/>
+      <c r="A229" s="81"/>
       <c r="E229" s="30"/>
       <c r="G229" s="30"/>
       <c r="H229" s="30"/>
     </row>
     <row r="230">
-      <c r="A230" s="80"/>
+      <c r="A230" s="81"/>
       <c r="E230" s="30"/>
       <c r="G230" s="30"/>
       <c r="H230" s="30"/>
     </row>
     <row r="231">
-      <c r="A231" s="80"/>
+      <c r="A231" s="81"/>
       <c r="E231" s="30"/>
       <c r="G231" s="30"/>
       <c r="H231" s="30"/>
     </row>
     <row r="232">
-      <c r="A232" s="80"/>
+      <c r="A232" s="81"/>
       <c r="E232" s="30"/>
       <c r="G232" s="30"/>
       <c r="H232" s="30"/>
     </row>
     <row r="233">
-      <c r="A233" s="80"/>
+      <c r="A233" s="81"/>
       <c r="E233" s="30"/>
       <c r="G233" s="30"/>
       <c r="H233" s="30"/>
     </row>
     <row r="234">
-      <c r="A234" s="80"/>
+      <c r="A234" s="81"/>
       <c r="E234" s="30"/>
       <c r="G234" s="30"/>
       <c r="H234" s="30"/>
     </row>
     <row r="235">
-      <c r="A235" s="80"/>
+      <c r="A235" s="81"/>
       <c r="E235" s="30"/>
       <c r="G235" s="30"/>
       <c r="H235" s="30"/>
     </row>
     <row r="236">
-      <c r="A236" s="80"/>
+      <c r="A236" s="81"/>
       <c r="E236" s="30"/>
       <c r="G236" s="30"/>
       <c r="H236" s="30"/>
     </row>
     <row r="237">
-      <c r="A237" s="80"/>
+      <c r="A237" s="81"/>
       <c r="E237" s="30"/>
       <c r="G237" s="30"/>
       <c r="H237" s="30"/>
     </row>
     <row r="238">
-      <c r="A238" s="80"/>
+      <c r="A238" s="81"/>
       <c r="E238" s="30"/>
       <c r="G238" s="30"/>
       <c r="H238" s="30"/>
     </row>
     <row r="239">
-      <c r="A239" s="80"/>
+      <c r="A239" s="81"/>
       <c r="E239" s="30"/>
       <c r="G239" s="30"/>
       <c r="H239" s="30"/>
     </row>
     <row r="240">
-      <c r="A240" s="80"/>
+      <c r="A240" s="81"/>
       <c r="E240" s="30"/>
       <c r="G240" s="30"/>
       <c r="H240" s="30"/>
     </row>
     <row r="241">
-      <c r="A241" s="80"/>
+      <c r="A241" s="81"/>
       <c r="E241" s="30"/>
       <c r="G241" s="30"/>
       <c r="H241" s="30"/>
     </row>
     <row r="242">
-      <c r="A242" s="80"/>
+      <c r="A242" s="81"/>
       <c r="E242" s="30"/>
       <c r="G242" s="30"/>
       <c r="H242" s="30"/>
     </row>
     <row r="243">
-      <c r="A243" s="80"/>
+      <c r="A243" s="81"/>
       <c r="E243" s="30"/>
       <c r="G243" s="30"/>
       <c r="H243" s="30"/>
     </row>
     <row r="244">
-      <c r="A244" s="80"/>
+      <c r="A244" s="81"/>
       <c r="E244" s="30"/>
       <c r="G244" s="30"/>
       <c r="H244" s="30"/>
     </row>
     <row r="245">
-      <c r="A245" s="80"/>
+      <c r="A245" s="81"/>
       <c r="E245" s="30"/>
       <c r="G245" s="30"/>
       <c r="H245" s="30"/>
     </row>
     <row r="246">
-      <c r="A246" s="80"/>
+      <c r="A246" s="81"/>
       <c r="E246" s="30"/>
       <c r="G246" s="30"/>
       <c r="H246" s="30"/>
     </row>
     <row r="247">
-      <c r="A247" s="80"/>
+      <c r="A247" s="81"/>
       <c r="E247" s="30"/>
       <c r="G247" s="30"/>
       <c r="H247" s="30"/>
     </row>
     <row r="248">
-      <c r="A248" s="80"/>
+      <c r="A248" s="81"/>
       <c r="E248" s="30"/>
       <c r="G248" s="30"/>
       <c r="H248" s="30"/>
     </row>
     <row r="249">
-      <c r="A249" s="80"/>
+      <c r="A249" s="81"/>
       <c r="E249" s="30"/>
       <c r="G249" s="30"/>
       <c r="H249" s="30"/>
     </row>
     <row r="250">
-      <c r="A250" s="80"/>
+      <c r="A250" s="81"/>
       <c r="E250" s="30"/>
       <c r="G250" s="30"/>
       <c r="H250" s="30"/>
     </row>
     <row r="251">
-      <c r="A251" s="80"/>
+      <c r="A251" s="81"/>
       <c r="E251" s="30"/>
       <c r="G251" s="30"/>
       <c r="H251" s="30"/>
     </row>
     <row r="252">
-      <c r="A252" s="80"/>
+      <c r="A252" s="81"/>
       <c r="E252" s="30"/>
       <c r="G252" s="30"/>
       <c r="H252" s="30"/>
     </row>
     <row r="253">
-      <c r="A253" s="80"/>
+      <c r="A253" s="81"/>
       <c r="E253" s="30"/>
       <c r="G253" s="30"/>
       <c r="H253" s="30"/>
     </row>
     <row r="254">
-      <c r="A254" s="80"/>
+      <c r="A254" s="81"/>
       <c r="E254" s="30"/>
       <c r="G254" s="30"/>
       <c r="H254" s="30"/>
     </row>
     <row r="255">
-      <c r="A255" s="80"/>
+      <c r="A255" s="81"/>
       <c r="E255" s="30"/>
       <c r="G255" s="30"/>
       <c r="H255" s="30"/>
     </row>
     <row r="256">
-      <c r="A256" s="80"/>
+      <c r="A256" s="81"/>
       <c r="E256" s="30"/>
       <c r="G256" s="30"/>
       <c r="H256" s="30"/>
     </row>
     <row r="257">
-      <c r="A257" s="80"/>
+      <c r="A257" s="81"/>
       <c r="E257" s="30"/>
       <c r="G257" s="30"/>
       <c r="H257" s="30"/>
     </row>
     <row r="258">
-      <c r="A258" s="80"/>
+      <c r="A258" s="81"/>
       <c r="E258" s="30"/>
       <c r="G258" s="30"/>
       <c r="H258" s="30"/>
     </row>
     <row r="259">
-      <c r="A259" s="80"/>
+      <c r="A259" s="81"/>
       <c r="E259" s="30"/>
       <c r="G259" s="30"/>
       <c r="H259" s="30"/>
     </row>
     <row r="260">
-      <c r="A260" s="80"/>
+      <c r="A260" s="81"/>
       <c r="E260" s="30"/>
       <c r="G260" s="30"/>
       <c r="H260" s="30"/>
     </row>
     <row r="261">
-      <c r="A261" s="80"/>
+      <c r="A261" s="81"/>
       <c r="E261" s="30"/>
       <c r="G261" s="30"/>
       <c r="H261" s="30"/>
     </row>
     <row r="262">
-      <c r="A262" s="80"/>
+      <c r="A262" s="81"/>
       <c r="E262" s="30"/>
       <c r="G262" s="30"/>
       <c r="H262" s="30"/>
     </row>
     <row r="263">
-      <c r="A263" s="80"/>
+      <c r="A263" s="81"/>
       <c r="E263" s="30"/>
       <c r="G263" s="30"/>
       <c r="H263" s="30"/>
     </row>
     <row r="264">
-      <c r="A264" s="80"/>
+      <c r="A264" s="81"/>
       <c r="E264" s="30"/>
       <c r="G264" s="30"/>
       <c r="H264" s="30"/>
     </row>
     <row r="265">
-      <c r="A265" s="80"/>
+      <c r="A265" s="81"/>
       <c r="E265" s="30"/>
       <c r="G265" s="30"/>
       <c r="H265" s="30"/>
     </row>
     <row r="266">
-      <c r="A266" s="80"/>
+      <c r="A266" s="81"/>
       <c r="E266" s="30"/>
       <c r="G266" s="30"/>
       <c r="H266" s="30"/>
     </row>
     <row r="267">
-      <c r="A267" s="80"/>
+      <c r="A267" s="81"/>
       <c r="E267" s="30"/>
       <c r="G267" s="30"/>
       <c r="H267" s="30"/>
     </row>
     <row r="268">
-      <c r="A268" s="80"/>
+      <c r="A268" s="81"/>
       <c r="E268" s="30"/>
       <c r="G268" s="30"/>
       <c r="H268" s="30"/>
     </row>
     <row r="269">
-      <c r="A269" s="80"/>
+      <c r="A269" s="81"/>
       <c r="E269" s="30"/>
       <c r="G269" s="30"/>
       <c r="H269" s="30"/>
     </row>
     <row r="270">
-      <c r="A270" s="80"/>
+      <c r="A270" s="81"/>
       <c r="E270" s="30"/>
       <c r="G270" s="30"/>
       <c r="H270" s="30"/>
     </row>
     <row r="271">
-      <c r="A271" s="80"/>
+      <c r="A271" s="81"/>
       <c r="E271" s="30"/>
       <c r="G271" s="30"/>
       <c r="H271" s="30"/>
     </row>
     <row r="272">
-      <c r="A272" s="80"/>
+      <c r="A272" s="81"/>
       <c r="E272" s="30"/>
       <c r="G272" s="30"/>
       <c r="H272" s="30"/>
     </row>
     <row r="273">
-      <c r="A273" s="80"/>
+      <c r="A273" s="81"/>
       <c r="E273" s="30"/>
       <c r="G273" s="30"/>
       <c r="H273" s="30"/>
     </row>
     <row r="274">
-      <c r="A274" s="80"/>
+      <c r="A274" s="81"/>
       <c r="E274" s="30"/>
       <c r="G274" s="30"/>
       <c r="H274" s="30"/>
     </row>
     <row r="275">
-      <c r="A275" s="80"/>
+      <c r="A275" s="81"/>
       <c r="E275" s="30"/>
       <c r="G275" s="30"/>
       <c r="H275" s="30"/>
     </row>
     <row r="276">
-      <c r="A276" s="80"/>
+      <c r="A276" s="81"/>
       <c r="E276" s="30"/>
       <c r="G276" s="30"/>
       <c r="H276" s="30"/>
     </row>
     <row r="277">
-      <c r="A277" s="80"/>
+      <c r="A277" s="81"/>
       <c r="E277" s="30"/>
       <c r="G277" s="30"/>
       <c r="H277" s="30"/>
     </row>
     <row r="278">
-      <c r="A278" s="80"/>
+      <c r="A278" s="81"/>
       <c r="E278" s="30"/>
       <c r="G278" s="30"/>
       <c r="H278" s="30"/>
     </row>
     <row r="279">
-      <c r="A279" s="80"/>
+      <c r="A279" s="81"/>
       <c r="E279" s="30"/>
       <c r="G279" s="30"/>
       <c r="H279" s="30"/>
     </row>
     <row r="280">
-      <c r="A280" s="80"/>
+      <c r="A280" s="81"/>
       <c r="E280" s="30"/>
       <c r="G280" s="30"/>
       <c r="H280" s="30"/>
     </row>
     <row r="281">
-      <c r="A281" s="80"/>
+      <c r="A281" s="81"/>
       <c r="E281" s="30"/>
       <c r="G281" s="30"/>
       <c r="H281" s="30"/>
     </row>
     <row r="282">
-      <c r="A282" s="80"/>
+      <c r="A282" s="81"/>
       <c r="E282" s="30"/>
       <c r="G282" s="30"/>
       <c r="H282" s="30"/>
     </row>
     <row r="283">
-      <c r="A283" s="80"/>
+      <c r="A283" s="81"/>
       <c r="E283" s="30"/>
       <c r="G283" s="30"/>
       <c r="H283" s="30"/>
     </row>
     <row r="284">
-      <c r="A284" s="80"/>
+      <c r="A284" s="81"/>
       <c r="E284" s="30"/>
       <c r="G284" s="30"/>
       <c r="H284" s="30"/>
     </row>
     <row r="285">
-      <c r="A285" s="80"/>
+      <c r="A285" s="81"/>
       <c r="E285" s="30"/>
       <c r="G285" s="30"/>
       <c r="H285" s="30"/>
     </row>
     <row r="286">
-      <c r="A286" s="80"/>
+      <c r="A286" s="81"/>
       <c r="E286" s="30"/>
       <c r="G286" s="30"/>
       <c r="H286" s="30"/>
     </row>
     <row r="287">
-      <c r="A287" s="80"/>
+      <c r="A287" s="81"/>
       <c r="E287" s="30"/>
       <c r="G287" s="30"/>
       <c r="H287" s="30"/>
     </row>
     <row r="288">
-      <c r="A288" s="80"/>
+      <c r="A288" s="81"/>
       <c r="E288" s="30"/>
       <c r="G288" s="30"/>
       <c r="H288" s="30"/>
     </row>
     <row r="289">
-      <c r="A289" s="80"/>
+      <c r="A289" s="81"/>
       <c r="E289" s="30"/>
       <c r="G289" s="30"/>
       <c r="H289" s="30"/>
     </row>
     <row r="290">
-      <c r="A290" s="80"/>
+      <c r="A290" s="81"/>
       <c r="E290" s="30"/>
       <c r="G290" s="30"/>
       <c r="H290" s="30"/>
     </row>
     <row r="291">
-      <c r="A291" s="80"/>
+      <c r="A291" s="81"/>
       <c r="E291" s="30"/>
       <c r="G291" s="30"/>
       <c r="H291" s="30"/>
     </row>
     <row r="292">
-      <c r="A292" s="80"/>
+      <c r="A292" s="81"/>
       <c r="E292" s="30"/>
       <c r="G292" s="30"/>
       <c r="H292" s="30"/>
     </row>
     <row r="293">
-      <c r="A293" s="80"/>
+      <c r="A293" s="81"/>
       <c r="E293" s="30"/>
       <c r="G293" s="30"/>
       <c r="H293" s="30"/>
     </row>
     <row r="294">
-      <c r="A294" s="80"/>
+      <c r="A294" s="81"/>
       <c r="E294" s="30"/>
       <c r="G294" s="30"/>
       <c r="H294" s="30"/>
     </row>
     <row r="295">
-      <c r="A295" s="80"/>
+      <c r="A295" s="81"/>
       <c r="E295" s="30"/>
       <c r="G295" s="30"/>
       <c r="H295" s="30"/>
     </row>
     <row r="296">
-      <c r="A296" s="80"/>
+      <c r="A296" s="81"/>
       <c r="E296" s="30"/>
       <c r="G296" s="30"/>
       <c r="H296" s="30"/>
     </row>
     <row r="297">
-      <c r="A297" s="80"/>
+      <c r="A297" s="81"/>
       <c r="E297" s="30"/>
       <c r="G297" s="30"/>
       <c r="H297" s="30"/>
     </row>
     <row r="298">
-      <c r="A298" s="80"/>
+      <c r="A298" s="81"/>
       <c r="E298" s="30"/>
       <c r="G298" s="30"/>
       <c r="H298" s="30"/>
     </row>
     <row r="299">
-      <c r="A299" s="80"/>
+      <c r="A299" s="81"/>
       <c r="E299" s="30"/>
       <c r="G299" s="30"/>
       <c r="H299" s="30"/>
     </row>
     <row r="300">
-      <c r="A300" s="80"/>
+      <c r="A300" s="81"/>
       <c r="E300" s="30"/>
       <c r="G300" s="30"/>
       <c r="H300" s="30"/>
     </row>
     <row r="301">
-      <c r="A301" s="80"/>
+      <c r="A301" s="81"/>
       <c r="E301" s="30"/>
       <c r="G301" s="30"/>
       <c r="H301" s="30"/>
     </row>
     <row r="302">
-      <c r="A302" s="80"/>
+      <c r="A302" s="81"/>
       <c r="E302" s="30"/>
       <c r="G302" s="30"/>
       <c r="H302" s="30"/>
     </row>
     <row r="303">
-      <c r="A303" s="80"/>
+      <c r="A303" s="81"/>
       <c r="E303" s="30"/>
       <c r="G303" s="30"/>
       <c r="H303" s="30"/>
     </row>
     <row r="304">
-      <c r="A304" s="80"/>
+      <c r="A304" s="81"/>
       <c r="E304" s="30"/>
       <c r="G304" s="30"/>
       <c r="H304" s="30"/>
     </row>
     <row r="305">
-      <c r="A305" s="80"/>
+      <c r="A305" s="81"/>
       <c r="E305" s="30"/>
       <c r="G305" s="30"/>
       <c r="H305" s="30"/>
     </row>
     <row r="306">
-      <c r="A306" s="80"/>
+      <c r="A306" s="81"/>
       <c r="E306" s="30"/>
       <c r="G306" s="30"/>
       <c r="H306" s="30"/>
     </row>
     <row r="307">
-      <c r="A307" s="80"/>
+      <c r="A307" s="81"/>
       <c r="E307" s="30"/>
       <c r="G307" s="30"/>
       <c r="H307" s="30"/>
     </row>
     <row r="308">
-      <c r="A308" s="80"/>
+      <c r="A308" s="81"/>
       <c r="E308" s="30"/>
       <c r="G308" s="30"/>
       <c r="H308" s="30"/>
     </row>
     <row r="309">
-      <c r="A309" s="80"/>
+      <c r="A309" s="81"/>
       <c r="E309" s="30"/>
       <c r="G309" s="30"/>
       <c r="H309" s="30"/>
     </row>
     <row r="310">
-      <c r="A310" s="80"/>
+      <c r="A310" s="81"/>
       <c r="E310" s="30"/>
       <c r="G310" s="30"/>
       <c r="H310" s="30"/>
     </row>
     <row r="311">
-      <c r="A311" s="80"/>
+      <c r="A311" s="81"/>
       <c r="E311" s="30"/>
       <c r="G311" s="30"/>
       <c r="H311" s="30"/>
     </row>
     <row r="312">
-      <c r="A312" s="80"/>
+      <c r="A312" s="81"/>
       <c r="E312" s="30"/>
       <c r="G312" s="30"/>
       <c r="H312" s="30"/>
     </row>
     <row r="313">
-      <c r="A313" s="80"/>
+      <c r="A313" s="81"/>
       <c r="E313" s="30"/>
       <c r="G313" s="30"/>
       <c r="H313" s="30"/>
     </row>
     <row r="314">
-      <c r="A314" s="80"/>
+      <c r="A314" s="81"/>
       <c r="E314" s="30"/>
       <c r="G314" s="30"/>
       <c r="H314" s="30"/>
     </row>
     <row r="315">
-      <c r="A315" s="80"/>
+      <c r="A315" s="81"/>
       <c r="E315" s="30"/>
       <c r="G315" s="30"/>
       <c r="H315" s="30"/>
     </row>
     <row r="316">
-      <c r="A316" s="80"/>
+      <c r="A316" s="81"/>
       <c r="E316" s="30"/>
       <c r="G316" s="30"/>
       <c r="H316" s="30"/>
     </row>
     <row r="317">
-      <c r="A317" s="80"/>
+      <c r="A317" s="81"/>
       <c r="E317" s="30"/>
       <c r="G317" s="30"/>
       <c r="H317" s="30"/>
     </row>
     <row r="318">
-      <c r="A318" s="80"/>
+      <c r="A318" s="81"/>
       <c r="E318" s="30"/>
       <c r="G318" s="30"/>
       <c r="H318" s="30"/>
     </row>
     <row r="319">
-      <c r="A319" s="80"/>
+      <c r="A319" s="81"/>
       <c r="E319" s="30"/>
       <c r="G319" s="30"/>
       <c r="H319" s="30"/>
     </row>
     <row r="320">
-      <c r="A320" s="80"/>
+      <c r="A320" s="81"/>
       <c r="E320" s="30"/>
       <c r="G320" s="30"/>
       <c r="H320" s="30"/>
     </row>
     <row r="321">
-      <c r="A321" s="80"/>
+      <c r="A321" s="81"/>
       <c r="E321" s="30"/>
       <c r="G321" s="30"/>
       <c r="H321" s="30"/>
     </row>
     <row r="322">
-      <c r="A322" s="80"/>
+      <c r="A322" s="81"/>
       <c r="E322" s="30"/>
       <c r="G322" s="30"/>
       <c r="H322" s="30"/>
     </row>
     <row r="323">
-      <c r="A323" s="80"/>
+      <c r="A323" s="81"/>
       <c r="E323" s="30"/>
       <c r="G323" s="30"/>
       <c r="H323" s="30"/>
     </row>
     <row r="324">
-      <c r="A324" s="80"/>
+      <c r="A324" s="81"/>
       <c r="E324" s="30"/>
       <c r="G324" s="30"/>
       <c r="H324" s="30"/>
     </row>
     <row r="325">
-      <c r="A325" s="80"/>
+      <c r="A325" s="81"/>
       <c r="E325" s="30"/>
       <c r="G325" s="30"/>
       <c r="H325" s="30"/>
     </row>
     <row r="326">
-      <c r="A326" s="80"/>
+      <c r="A326" s="81"/>
       <c r="E326" s="30"/>
       <c r="G326" s="30"/>
       <c r="H326" s="30"/>
     </row>
     <row r="327">
-      <c r="A327" s="80"/>
+      <c r="A327" s="81"/>
       <c r="E327" s="30"/>
       <c r="G327" s="30"/>
       <c r="H327" s="30"/>
     </row>
     <row r="328">
-      <c r="A328" s="80"/>
+      <c r="A328" s="81"/>
       <c r="E328" s="30"/>
       <c r="G328" s="30"/>
       <c r="H328" s="30"/>
     </row>
     <row r="329">
-      <c r="A329" s="80"/>
+      <c r="A329" s="81"/>
       <c r="E329" s="30"/>
       <c r="G329" s="30"/>
       <c r="H329" s="30"/>
     </row>
     <row r="330">
-      <c r="A330" s="80"/>
+      <c r="A330" s="81"/>
       <c r="E330" s="30"/>
       <c r="G330" s="30"/>
       <c r="H330" s="30"/>
     </row>
     <row r="331">
-      <c r="A331" s="80"/>
+      <c r="A331" s="81"/>
       <c r="E331" s="30"/>
       <c r="G331" s="30"/>
       <c r="H331" s="30"/>
     </row>
     <row r="332">
-      <c r="A332" s="80"/>
+      <c r="A332" s="81"/>
       <c r="E332" s="30"/>
       <c r="G332" s="30"/>
       <c r="H332" s="30"/>
     </row>
     <row r="333">
-      <c r="A333" s="80"/>
+      <c r="A333" s="81"/>
       <c r="E333" s="30"/>
       <c r="G333" s="30"/>
       <c r="H333" s="30"/>
     </row>
     <row r="334">
-      <c r="A334" s="80"/>
+      <c r="A334" s="81"/>
       <c r="E334" s="30"/>
       <c r="G334" s="30"/>
       <c r="H334" s="30"/>
     </row>
     <row r="335">
-      <c r="A335" s="80"/>
+      <c r="A335" s="81"/>
       <c r="E335" s="30"/>
       <c r="G335" s="30"/>
       <c r="H335" s="30"/>
     </row>
     <row r="336">
-      <c r="A336" s="80"/>
+      <c r="A336" s="81"/>
       <c r="E336" s="30"/>
       <c r="G336" s="30"/>
       <c r="H336" s="30"/>
     </row>
     <row r="337">
-      <c r="A337" s="80"/>
+      <c r="A337" s="81"/>
       <c r="E337" s="30"/>
       <c r="G337" s="30"/>
       <c r="H337" s="30"/>
     </row>
     <row r="338">
-      <c r="A338" s="80"/>
+      <c r="A338" s="81"/>
       <c r="E338" s="30"/>
       <c r="G338" s="30"/>
       <c r="H338" s="30"/>
     </row>
     <row r="339">
-      <c r="A339" s="80"/>
+      <c r="A339" s="81"/>
       <c r="E339" s="30"/>
       <c r="G339" s="30"/>
       <c r="H339" s="30"/>
     </row>
     <row r="340">
-      <c r="A340" s="80"/>
+      <c r="A340" s="81"/>
       <c r="E340" s="30"/>
       <c r="G340" s="30"/>
       <c r="H340" s="30"/>
     </row>
     <row r="341">
-      <c r="A341" s="80"/>
+      <c r="A341" s="81"/>
       <c r="E341" s="30"/>
       <c r="G341" s="30"/>
       <c r="H341" s="30"/>
     </row>
     <row r="342">
-      <c r="A342" s="80"/>
+      <c r="A342" s="81"/>
       <c r="E342" s="30"/>
       <c r="G342" s="30"/>
       <c r="H342" s="30"/>
     </row>
     <row r="343">
-      <c r="A343" s="80"/>
+      <c r="A343" s="81"/>
       <c r="E343" s="30"/>
       <c r="G343" s="30"/>
       <c r="H343" s="30"/>
     </row>
     <row r="344">
-      <c r="A344" s="80"/>
+      <c r="A344" s="81"/>
       <c r="E344" s="30"/>
       <c r="G344" s="30"/>
       <c r="H344" s="30"/>
     </row>
     <row r="345">
-      <c r="A345" s="80"/>
+      <c r="A345" s="81"/>
       <c r="E345" s="30"/>
       <c r="G345" s="30"/>
       <c r="H345" s="30"/>
     </row>
     <row r="346">
-      <c r="A346" s="80"/>
+      <c r="A346" s="81"/>
       <c r="E346" s="30"/>
       <c r="G346" s="30"/>
       <c r="H346" s="30"/>
     </row>
     <row r="347">
-      <c r="A347" s="80"/>
+      <c r="A347" s="81"/>
       <c r="E347" s="30"/>
       <c r="G347" s="30"/>
       <c r="H347" s="30"/>
     </row>
     <row r="348">
-      <c r="A348" s="80"/>
+      <c r="A348" s="81"/>
       <c r="E348" s="30"/>
       <c r="G348" s="30"/>
       <c r="H348" s="30"/>
     </row>
     <row r="349">
-      <c r="A349" s="80"/>
+      <c r="A349" s="81"/>
       <c r="E349" s="30"/>
       <c r="G349" s="30"/>
       <c r="H349" s="30"/>
     </row>
     <row r="350">
-      <c r="A350" s="80"/>
+      <c r="A350" s="81"/>
       <c r="E350" s="30"/>
       <c r="G350" s="30"/>
       <c r="H350" s="30"/>
     </row>
     <row r="351">
-      <c r="A351" s="80"/>
+      <c r="A351" s="81"/>
       <c r="E351" s="30"/>
       <c r="G351" s="30"/>
       <c r="H351" s="30"/>
     </row>
     <row r="352">
-      <c r="A352" s="80"/>
+      <c r="A352" s="81"/>
       <c r="E352" s="30"/>
       <c r="G352" s="30"/>
       <c r="H352" s="30"/>
     </row>
     <row r="353">
-      <c r="A353" s="80"/>
+      <c r="A353" s="81"/>
       <c r="E353" s="30"/>
       <c r="G353" s="30"/>
       <c r="H353" s="30"/>
     </row>
     <row r="354">
-      <c r="A354" s="80"/>
+      <c r="A354" s="81"/>
       <c r="E354" s="30"/>
       <c r="G354" s="30"/>
       <c r="H354" s="30"/>
     </row>
     <row r="355">
-      <c r="A355" s="80"/>
+      <c r="A355" s="81"/>
       <c r="E355" s="30"/>
       <c r="G355" s="30"/>
       <c r="H355" s="30"/>
     </row>
     <row r="356">
-      <c r="A356" s="80"/>
+      <c r="A356" s="81"/>
       <c r="E356" s="30"/>
       <c r="G356" s="30"/>
       <c r="H356" s="30"/>
     </row>
     <row r="357">
-      <c r="A357" s="80"/>
+      <c r="A357" s="81"/>
       <c r="E357" s="30"/>
       <c r="G357" s="30"/>
       <c r="H357" s="30"/>
     </row>
     <row r="358">
-      <c r="A358" s="80"/>
+      <c r="A358" s="81"/>
       <c r="E358" s="30"/>
       <c r="G358" s="30"/>
       <c r="H358" s="30"/>
     </row>
     <row r="359">
-      <c r="A359" s="80"/>
+      <c r="A359" s="81"/>
       <c r="E359" s="30"/>
       <c r="G359" s="30"/>
       <c r="H359" s="30"/>
     </row>
     <row r="360">
-      <c r="A360" s="80"/>
+      <c r="A360" s="81"/>
       <c r="E360" s="30"/>
       <c r="G360" s="30"/>
       <c r="H360" s="30"/>
     </row>
     <row r="361">
-      <c r="A361" s="80"/>
+      <c r="A361" s="81"/>
       <c r="E361" s="30"/>
       <c r="G361" s="30"/>
       <c r="H361" s="30"/>
     </row>
     <row r="362">
-      <c r="A362" s="80"/>
+      <c r="A362" s="81"/>
       <c r="E362" s="30"/>
       <c r="G362" s="30"/>
       <c r="H362" s="30"/>
     </row>
     <row r="363">
-      <c r="A363" s="80"/>
+      <c r="A363" s="81"/>
       <c r="E363" s="30"/>
       <c r="G363" s="30"/>
       <c r="H363" s="30"/>
     </row>
     <row r="364">
-      <c r="A364" s="80"/>
+      <c r="A364" s="81"/>
       <c r="E364" s="30"/>
       <c r="G364" s="30"/>
       <c r="H364" s="30"/>
     </row>
     <row r="365">
-      <c r="A365" s="80"/>
+      <c r="A365" s="81"/>
       <c r="E365" s="30"/>
       <c r="G365" s="30"/>
       <c r="H365" s="30"/>
     </row>
     <row r="366">
-      <c r="A366" s="80"/>
+      <c r="A366" s="81"/>
       <c r="E366" s="30"/>
       <c r="G366" s="30"/>
       <c r="H366" s="30"/>
     </row>
     <row r="367">
-      <c r="A367" s="80"/>
+      <c r="A367" s="81"/>
       <c r="E367" s="30"/>
       <c r="G367" s="30"/>
       <c r="H367" s="30"/>
     </row>
     <row r="368">
-      <c r="A368" s="80"/>
+      <c r="A368" s="81"/>
       <c r="E368" s="30"/>
       <c r="G368" s="30"/>
       <c r="H368" s="30"/>
     </row>
     <row r="369">
-      <c r="A369" s="80"/>
+      <c r="A369" s="81"/>
       <c r="E369" s="30"/>
       <c r="G369" s="30"/>
       <c r="H369" s="30"/>
     </row>
     <row r="370">
-      <c r="A370" s="80"/>
+      <c r="A370" s="81"/>
       <c r="E370" s="30"/>
       <c r="G370" s="30"/>
       <c r="H370" s="30"/>
     </row>
     <row r="371">
-      <c r="A371" s="80"/>
+      <c r="A371" s="81"/>
       <c r="E371" s="30"/>
       <c r="G371" s="30"/>
       <c r="H371" s="30"/>
     </row>
     <row r="372">
-      <c r="A372" s="80"/>
+      <c r="A372" s="81"/>
       <c r="E372" s="30"/>
       <c r="G372" s="30"/>
       <c r="H372" s="30"/>
     </row>
     <row r="373">
-      <c r="A373" s="80"/>
+      <c r="A373" s="81"/>
       <c r="E373" s="30"/>
       <c r="G373" s="30"/>
       <c r="H373" s="30"/>
     </row>
     <row r="374">
-      <c r="A374" s="80"/>
+      <c r="A374" s="81"/>
       <c r="E374" s="30"/>
       <c r="G374" s="30"/>
       <c r="H374" s="30"/>
     </row>
     <row r="375">
-      <c r="A375" s="80"/>
+      <c r="A375" s="81"/>
       <c r="E375" s="30"/>
       <c r="G375" s="30"/>
       <c r="H375" s="30"/>
     </row>
     <row r="376">
-      <c r="A376" s="80"/>
+      <c r="A376" s="81"/>
       <c r="E376" s="30"/>
       <c r="G376" s="30"/>
       <c r="H376" s="30"/>
     </row>
     <row r="377">
-      <c r="A377" s="80"/>
+      <c r="A377" s="81"/>
       <c r="E377" s="30"/>
       <c r="G377" s="30"/>
       <c r="H377" s="30"/>
     </row>
     <row r="378">
-      <c r="A378" s="80"/>
+      <c r="A378" s="81"/>
       <c r="E378" s="30"/>
       <c r="G378" s="30"/>
       <c r="H378" s="30"/>
     </row>
     <row r="379">
-      <c r="A379" s="80"/>
+      <c r="A379" s="81"/>
       <c r="E379" s="30"/>
       <c r="G379" s="30"/>
       <c r="H379" s="30"/>
     </row>
     <row r="380">
-      <c r="A380" s="80"/>
+      <c r="A380" s="81"/>
       <c r="E380" s="30"/>
       <c r="G380" s="30"/>
       <c r="H380" s="30"/>
     </row>
     <row r="381">
-      <c r="A381" s="80"/>
+      <c r="A381" s="81"/>
       <c r="E381" s="30"/>
       <c r="G381" s="30"/>
       <c r="H381" s="30"/>
     </row>
     <row r="382">
-      <c r="A382" s="80"/>
+      <c r="A382" s="81"/>
       <c r="E382" s="30"/>
       <c r="G382" s="30"/>
       <c r="H382" s="30"/>
     </row>
     <row r="383">
-      <c r="A383" s="80"/>
+      <c r="A383" s="81"/>
       <c r="E383" s="30"/>
       <c r="G383" s="30"/>
       <c r="H383" s="30"/>
     </row>
     <row r="384">
-      <c r="A384" s="80"/>
+      <c r="A384" s="81"/>
       <c r="E384" s="30"/>
       <c r="G384" s="30"/>
       <c r="H384" s="30"/>
     </row>
     <row r="385">
-      <c r="A385" s="80"/>
+      <c r="A385" s="81"/>
       <c r="E385" s="30"/>
       <c r="G385" s="30"/>
       <c r="H385" s="30"/>
     </row>
     <row r="386">
-      <c r="A386" s="80"/>
+      <c r="A386" s="81"/>
       <c r="E386" s="30"/>
       <c r="G386" s="30"/>
       <c r="H386" s="30"/>
     </row>
     <row r="387">
-      <c r="A387" s="80"/>
+      <c r="A387" s="81"/>
       <c r="E387" s="30"/>
       <c r="G387" s="30"/>
       <c r="H387" s="30"/>
     </row>
     <row r="388">
-      <c r="A388" s="80"/>
+      <c r="A388" s="81"/>
       <c r="E388" s="30"/>
       <c r="G388" s="30"/>
       <c r="H388" s="30"/>
     </row>
     <row r="389">
-      <c r="A389" s="80"/>
+      <c r="A389" s="81"/>
       <c r="E389" s="30"/>
       <c r="G389" s="30"/>
       <c r="H389" s="30"/>
     </row>
     <row r="390">
-      <c r="A390" s="80"/>
+      <c r="A390" s="81"/>
       <c r="E390" s="30"/>
       <c r="G390" s="30"/>
       <c r="H390" s="30"/>
     </row>
     <row r="391">
-      <c r="A391" s="80"/>
+      <c r="A391" s="81"/>
       <c r="E391" s="30"/>
       <c r="G391" s="30"/>
       <c r="H391" s="30"/>
     </row>
     <row r="392">
-      <c r="A392" s="80"/>
+      <c r="A392" s="81"/>
       <c r="E392" s="30"/>
       <c r="G392" s="30"/>
       <c r="H392" s="30"/>
     </row>
     <row r="393">
-      <c r="A393" s="80"/>
+      <c r="A393" s="81"/>
       <c r="E393" s="30"/>
       <c r="G393" s="30"/>
       <c r="H393" s="30"/>
     </row>
     <row r="394">
-      <c r="A394" s="80"/>
+      <c r="A394" s="81"/>
       <c r="E394" s="30"/>
       <c r="G394" s="30"/>
       <c r="H394" s="30"/>
     </row>
     <row r="395">
-      <c r="A395" s="80"/>
+      <c r="A395" s="81"/>
       <c r="E395" s="30"/>
       <c r="G395" s="30"/>
       <c r="H395" s="30"/>
     </row>
     <row r="396">
-      <c r="A396" s="80"/>
+      <c r="A396" s="81"/>
       <c r="E396" s="30"/>
       <c r="G396" s="30"/>
       <c r="H396" s="30"/>
     </row>
     <row r="397">
-      <c r="A397" s="80"/>
+      <c r="A397" s="81"/>
       <c r="E397" s="30"/>
       <c r="G397" s="30"/>
       <c r="H397" s="30"/>
     </row>
     <row r="398">
-      <c r="A398" s="80"/>
+      <c r="A398" s="81"/>
       <c r="E398" s="30"/>
       <c r="G398" s="30"/>
       <c r="H398" s="30"/>
     </row>
     <row r="399">
-      <c r="A399" s="80"/>
+      <c r="A399" s="81"/>
       <c r="E399" s="30"/>
       <c r="G399" s="30"/>
       <c r="H399" s="30"/>
     </row>
     <row r="400">
-      <c r="A400" s="80"/>
+      <c r="A400" s="81"/>
       <c r="E400" s="30"/>
       <c r="G400" s="30"/>
       <c r="H400" s="30"/>
     </row>
     <row r="401">
-      <c r="A401" s="80"/>
+      <c r="A401" s="81"/>
       <c r="E401" s="30"/>
       <c r="G401" s="30"/>
       <c r="H401" s="30"/>
     </row>
     <row r="402">
-      <c r="A402" s="80"/>
+      <c r="A402" s="81"/>
       <c r="E402" s="30"/>
       <c r="G402" s="30"/>
       <c r="H402" s="30"/>
     </row>
     <row r="403">
-      <c r="A403" s="80"/>
+      <c r="A403" s="81"/>
       <c r="E403" s="30"/>
       <c r="G403" s="30"/>
       <c r="H403" s="30"/>
     </row>
     <row r="404">
-      <c r="A404" s="80"/>
+      <c r="A404" s="81"/>
       <c r="E404" s="30"/>
       <c r="G404" s="30"/>
       <c r="H404" s="30"/>
     </row>
     <row r="405">
-      <c r="A405" s="80"/>
+      <c r="A405" s="81"/>
       <c r="E405" s="30"/>
       <c r="G405" s="30"/>
       <c r="H405" s="30"/>
     </row>
     <row r="406">
-      <c r="A406" s="80"/>
+      <c r="A406" s="81"/>
       <c r="E406" s="30"/>
       <c r="G406" s="30"/>
       <c r="H406" s="30"/>
     </row>
     <row r="407">
-      <c r="A407" s="80"/>
+      <c r="A407" s="81"/>
       <c r="E407" s="30"/>
       <c r="G407" s="30"/>
       <c r="H407" s="30"/>
     </row>
     <row r="408">
-      <c r="A408" s="80"/>
+      <c r="A408" s="81"/>
       <c r="E408" s="30"/>
       <c r="G408" s="30"/>
       <c r="H408" s="30"/>
     </row>
     <row r="409">
-      <c r="A409" s="80"/>
+      <c r="A409" s="81"/>
       <c r="E409" s="30"/>
       <c r="G409" s="30"/>
       <c r="H409" s="30"/>
     </row>
     <row r="410">
-      <c r="A410" s="80"/>
+      <c r="A410" s="81"/>
       <c r="E410" s="30"/>
       <c r="G410" s="30"/>
       <c r="H410" s="30"/>
     </row>
     <row r="411">
-      <c r="A411" s="80"/>
+      <c r="A411" s="81"/>
       <c r="E411" s="30"/>
       <c r="G411" s="30"/>
       <c r="H411" s="30"/>
     </row>
     <row r="412">
-      <c r="A412" s="80"/>
+      <c r="A412" s="81"/>
       <c r="E412" s="30"/>
       <c r="G412" s="30"/>
       <c r="H412" s="30"/>
     </row>
     <row r="413">
-      <c r="A413" s="80"/>
+      <c r="A413" s="81"/>
       <c r="E413" s="30"/>
       <c r="G413" s="30"/>
       <c r="H413" s="30"/>
     </row>
     <row r="414">
-      <c r="A414" s="80"/>
+      <c r="A414" s="81"/>
       <c r="E414" s="30"/>
       <c r="G414" s="30"/>
       <c r="H414" s="30"/>
     </row>
     <row r="415">
-      <c r="A415" s="80"/>
+      <c r="A415" s="81"/>
       <c r="E415" s="30"/>
       <c r="G415" s="30"/>
       <c r="H415" s="30"/>
     </row>
     <row r="416">
-      <c r="A416" s="80"/>
+      <c r="A416" s="81"/>
       <c r="E416" s="30"/>
       <c r="G416" s="30"/>
       <c r="H416" s="30"/>
     </row>
     <row r="417">
-      <c r="A417" s="80"/>
+      <c r="A417" s="81"/>
       <c r="E417" s="30"/>
       <c r="G417" s="30"/>
       <c r="H417" s="30"/>
     </row>
     <row r="418">
-      <c r="A418" s="80"/>
+      <c r="A418" s="81"/>
       <c r="E418" s="30"/>
       <c r="G418" s="30"/>
       <c r="H418" s="30"/>
     </row>
     <row r="419">
-      <c r="A419" s="80"/>
+      <c r="A419" s="81"/>
       <c r="E419" s="30"/>
       <c r="G419" s="30"/>
       <c r="H419" s="30"/>
     </row>
     <row r="420">
-      <c r="A420" s="80"/>
+      <c r="A420" s="81"/>
       <c r="E420" s="30"/>
       <c r="G420" s="30"/>
       <c r="H420" s="30"/>
     </row>
     <row r="421">
-      <c r="A421" s="80"/>
+      <c r="A421" s="81"/>
       <c r="E421" s="30"/>
       <c r="G421" s="30"/>
       <c r="H421" s="30"/>
     </row>
     <row r="422">
-      <c r="A422" s="80"/>
+      <c r="A422" s="81"/>
       <c r="E422" s="30"/>
       <c r="G422" s="30"/>
       <c r="H422" s="30"/>
     </row>
     <row r="423">
-      <c r="A423" s="80"/>
+      <c r="A423" s="81"/>
       <c r="E423" s="30"/>
       <c r="G423" s="30"/>
       <c r="H423" s="30"/>
     </row>
     <row r="424">
-      <c r="A424" s="80"/>
+      <c r="A424" s="81"/>
       <c r="E424" s="30"/>
       <c r="G424" s="30"/>
       <c r="H424" s="30"/>
     </row>
     <row r="425">
-      <c r="A425" s="80"/>
+      <c r="A425" s="81"/>
       <c r="E425" s="30"/>
       <c r="G425" s="30"/>
       <c r="H425" s="30"/>
     </row>
     <row r="426">
-      <c r="A426" s="80"/>
+      <c r="A426" s="81"/>
       <c r="E426" s="30"/>
       <c r="G426" s="30"/>
       <c r="H426" s="30"/>
     </row>
     <row r="427">
-      <c r="A427" s="80"/>
+      <c r="A427" s="81"/>
       <c r="E427" s="30"/>
       <c r="G427" s="30"/>
       <c r="H427" s="30"/>
     </row>
     <row r="428">
-      <c r="A428" s="80"/>
+      <c r="A428" s="81"/>
       <c r="E428" s="30"/>
       <c r="G428" s="30"/>
       <c r="H428" s="30"/>
     </row>
     <row r="429">
-      <c r="A429" s="80"/>
+      <c r="A429" s="81"/>
       <c r="E429" s="30"/>
       <c r="G429" s="30"/>
       <c r="H429" s="30"/>
     </row>
     <row r="430">
-      <c r="A430" s="80"/>
+      <c r="A430" s="81"/>
       <c r="E430" s="30"/>
       <c r="G430" s="30"/>
       <c r="H430" s="30"/>
     </row>
     <row r="431">
-      <c r="A431" s="80"/>
+      <c r="A431" s="81"/>
       <c r="E431" s="30"/>
       <c r="G431" s="30"/>
       <c r="H431" s="30"/>
     </row>
     <row r="432">
-      <c r="A432" s="80"/>
+      <c r="A432" s="81"/>
       <c r="E432" s="30"/>
       <c r="G432" s="30"/>
       <c r="H432" s="30"/>
     </row>
     <row r="433">
-      <c r="A433" s="80"/>
+      <c r="A433" s="81"/>
       <c r="E433" s="30"/>
       <c r="G433" s="30"/>
       <c r="H433" s="30"/>
     </row>
     <row r="434">
-      <c r="A434" s="80"/>
+      <c r="A434" s="81"/>
       <c r="E434" s="30"/>
       <c r="G434" s="30"/>
       <c r="H434" s="30"/>
     </row>
     <row r="435">
-      <c r="A435" s="80"/>
+      <c r="A435" s="81"/>
       <c r="E435" s="30"/>
       <c r="G435" s="30"/>
       <c r="H435" s="30"/>
     </row>
     <row r="436">
-      <c r="A436" s="80"/>
+      <c r="A436" s="81"/>
       <c r="E436" s="30"/>
       <c r="G436" s="30"/>
       <c r="H436" s="30"/>
     </row>
     <row r="437">
-      <c r="A437" s="80"/>
+      <c r="A437" s="81"/>
       <c r="E437" s="30"/>
       <c r="G437" s="30"/>
       <c r="H437" s="30"/>
     </row>
     <row r="438">
-      <c r="A438" s="80"/>
+      <c r="A438" s="81"/>
       <c r="E438" s="30"/>
       <c r="G438" s="30"/>
       <c r="H438" s="30"/>
     </row>
     <row r="439">
-      <c r="A439" s="80"/>
+      <c r="A439" s="81"/>
       <c r="E439" s="30"/>
       <c r="G439" s="30"/>
       <c r="H439" s="30"/>
     </row>
     <row r="440">
-      <c r="A440" s="80"/>
+      <c r="A440" s="81"/>
       <c r="E440" s="30"/>
       <c r="G440" s="30"/>
       <c r="H440" s="30"/>
     </row>
     <row r="441">
-      <c r="A441" s="80"/>
+      <c r="A441" s="81"/>
       <c r="E441" s="30"/>
       <c r="G441" s="30"/>
       <c r="H441" s="30"/>
     </row>
     <row r="442">
-      <c r="A442" s="80"/>
+      <c r="A442" s="81"/>
       <c r="E442" s="30"/>
       <c r="G442" s="30"/>
       <c r="H442" s="30"/>
     </row>
     <row r="443">
-      <c r="A443" s="80"/>
+      <c r="A443" s="81"/>
       <c r="E443" s="30"/>
       <c r="G443" s="30"/>
       <c r="H443" s="30"/>
     </row>
     <row r="444">
-      <c r="A444" s="80"/>
+      <c r="A444" s="81"/>
       <c r="E444" s="30"/>
       <c r="G444" s="30"/>
       <c r="H444" s="30"/>
     </row>
     <row r="445">
-      <c r="A445" s="80"/>
+      <c r="A445" s="81"/>
       <c r="E445" s="30"/>
       <c r="G445" s="30"/>
       <c r="H445" s="30"/>
     </row>
     <row r="446">
-      <c r="A446" s="80"/>
+      <c r="A446" s="81"/>
       <c r="E446" s="30"/>
       <c r="G446" s="30"/>
       <c r="H446" s="30"/>
     </row>
     <row r="447">
-      <c r="A447" s="80"/>
+      <c r="A447" s="81"/>
       <c r="E447" s="30"/>
       <c r="G447" s="30"/>
       <c r="H447" s="30"/>
     </row>
     <row r="448">
-      <c r="A448" s="80"/>
+      <c r="A448" s="81"/>
       <c r="E448" s="30"/>
       <c r="G448" s="30"/>
       <c r="H448" s="30"/>
     </row>
     <row r="449">
-      <c r="A449" s="80"/>
+      <c r="A449" s="81"/>
       <c r="E449" s="30"/>
       <c r="G449" s="30"/>
       <c r="H449" s="30"/>
     </row>
     <row r="450">
-      <c r="A450" s="80"/>
+      <c r="A450" s="81"/>
       <c r="E450" s="30"/>
       <c r="G450" s="30"/>
       <c r="H450" s="30"/>
     </row>
     <row r="451">
-      <c r="A451" s="80"/>
+      <c r="A451" s="81"/>
       <c r="E451" s="30"/>
       <c r="G451" s="30"/>
       <c r="H451" s="30"/>
     </row>
     <row r="452">
-      <c r="A452" s="80"/>
+      <c r="A452" s="81"/>
       <c r="E452" s="30"/>
       <c r="G452" s="30"/>
       <c r="H452" s="30"/>
     </row>
     <row r="453">
-      <c r="A453" s="80"/>
+      <c r="A453" s="81"/>
       <c r="E453" s="30"/>
       <c r="G453" s="30"/>
       <c r="H453" s="30"/>
     </row>
     <row r="454">
-      <c r="A454" s="80"/>
+      <c r="A454" s="81"/>
       <c r="E454" s="30"/>
       <c r="G454" s="30"/>
       <c r="H454" s="30"/>
     </row>
     <row r="455">
-      <c r="A455" s="80"/>
+      <c r="A455" s="81"/>
       <c r="E455" s="30"/>
       <c r="G455" s="30"/>
       <c r="H455" s="30"/>
     </row>
     <row r="456">
-      <c r="A456" s="80"/>
+      <c r="A456" s="81"/>
       <c r="E456" s="30"/>
       <c r="G456" s="30"/>
       <c r="H456" s="30"/>
     </row>
     <row r="457">
-      <c r="A457" s="80"/>
+      <c r="A457" s="81"/>
       <c r="E457" s="30"/>
       <c r="G457" s="30"/>
       <c r="H457" s="30"/>
     </row>
     <row r="458">
-      <c r="A458" s="80"/>
+      <c r="A458" s="81"/>
       <c r="E458" s="30"/>
       <c r="G458" s="30"/>
       <c r="H458" s="30"/>
     </row>
     <row r="459">
-      <c r="A459" s="80"/>
+      <c r="A459" s="81"/>
       <c r="E459" s="30"/>
       <c r="G459" s="30"/>
       <c r="H459" s="30"/>
     </row>
     <row r="460">
-      <c r="A460" s="80"/>
+      <c r="A460" s="81"/>
       <c r="E460" s="30"/>
       <c r="G460" s="30"/>
       <c r="H460" s="30"/>
     </row>
     <row r="461">
-      <c r="A461" s="80"/>
+      <c r="A461" s="81"/>
       <c r="E461" s="30"/>
       <c r="G461" s="30"/>
       <c r="H461" s="30"/>
     </row>
     <row r="462">
-      <c r="A462" s="80"/>
+      <c r="A462" s="81"/>
       <c r="E462" s="30"/>
       <c r="G462" s="30"/>
       <c r="H462" s="30"/>
     </row>
     <row r="463">
-      <c r="A463" s="80"/>
+      <c r="A463" s="81"/>
       <c r="E463" s="30"/>
       <c r="G463" s="30"/>
       <c r="H463" s="30"/>
     </row>
     <row r="464">
-      <c r="A464" s="80"/>
+      <c r="A464" s="81"/>
       <c r="E464" s="30"/>
       <c r="G464" s="30"/>
       <c r="H464" s="30"/>
     </row>
     <row r="465">
-      <c r="A465" s="80"/>
+      <c r="A465" s="81"/>
       <c r="E465" s="30"/>
       <c r="G465" s="30"/>
       <c r="H465" s="30"/>
     </row>
     <row r="466">
-      <c r="A466" s="80"/>
+      <c r="A466" s="81"/>
       <c r="E466" s="30"/>
       <c r="G466" s="30"/>
       <c r="H466" s="30"/>
     </row>
     <row r="467">
-      <c r="A467" s="80"/>
+      <c r="A467" s="81"/>
       <c r="E467" s="30"/>
       <c r="G467" s="30"/>
       <c r="H467" s="30"/>
     </row>
     <row r="468">
-      <c r="A468" s="80"/>
+      <c r="A468" s="81"/>
       <c r="E468" s="30"/>
       <c r="G468" s="30"/>
       <c r="H468" s="30"/>
     </row>
     <row r="469">
-      <c r="A469" s="80"/>
+      <c r="A469" s="81"/>
       <c r="E469" s="30"/>
       <c r="G469" s="30"/>
       <c r="H469" s="30"/>
     </row>
     <row r="470">
-      <c r="A470" s="80"/>
+      <c r="A470" s="81"/>
       <c r="E470" s="30"/>
       <c r="G470" s="30"/>
       <c r="H470" s="30"/>
     </row>
     <row r="471">
-      <c r="A471" s="80"/>
+      <c r="A471" s="81"/>
       <c r="E471" s="30"/>
       <c r="G471" s="30"/>
       <c r="H471" s="30"/>
     </row>
     <row r="472">
-      <c r="A472" s="80"/>
+      <c r="A472" s="81"/>
       <c r="E472" s="30"/>
       <c r="G472" s="30"/>
       <c r="H472" s="30"/>
     </row>
     <row r="473">
-      <c r="A473" s="80"/>
+      <c r="A473" s="81"/>
       <c r="E473" s="30"/>
       <c r="G473" s="30"/>
       <c r="H473" s="30"/>
     </row>
     <row r="474">
-      <c r="A474" s="80"/>
+      <c r="A474" s="81"/>
       <c r="E474" s="30"/>
       <c r="G474" s="30"/>
       <c r="H474" s="30"/>
     </row>
     <row r="475">
-      <c r="A475" s="80"/>
+      <c r="A475" s="81"/>
       <c r="E475" s="30"/>
       <c r="G475" s="30"/>
       <c r="H475" s="30"/>
     </row>
     <row r="476">
-      <c r="A476" s="80"/>
+      <c r="A476" s="81"/>
       <c r="E476" s="30"/>
       <c r="G476" s="30"/>
       <c r="H476" s="30"/>
     </row>
     <row r="477">
-      <c r="A477" s="80"/>
+      <c r="A477" s="81"/>
       <c r="E477" s="30"/>
       <c r="G477" s="30"/>
       <c r="H477" s="30"/>
     </row>
     <row r="478">
-      <c r="A478" s="80"/>
+      <c r="A478" s="81"/>
       <c r="E478" s="30"/>
       <c r="G478" s="30"/>
       <c r="H478" s="30"/>
     </row>
     <row r="479">
-      <c r="A479" s="80"/>
+      <c r="A479" s="81"/>
       <c r="E479" s="30"/>
       <c r="G479" s="30"/>
       <c r="H479" s="30"/>
     </row>
     <row r="480">
-      <c r="A480" s="80"/>
+      <c r="A480" s="81"/>
       <c r="E480" s="30"/>
       <c r="G480" s="30"/>
       <c r="H480" s="30"/>
     </row>
     <row r="481">
-      <c r="A481" s="80"/>
+      <c r="A481" s="81"/>
       <c r="E481" s="30"/>
       <c r="G481" s="30"/>
       <c r="H481" s="30"/>
     </row>
     <row r="482">
-      <c r="A482" s="80"/>
+      <c r="A482" s="81"/>
       <c r="E482" s="30"/>
       <c r="G482" s="30"/>
       <c r="H482" s="30"/>
     </row>
     <row r="483">
-      <c r="A483" s="80"/>
+      <c r="A483" s="81"/>
       <c r="E483" s="30"/>
       <c r="G483" s="30"/>
       <c r="H483" s="30"/>
     </row>
     <row r="484">
-      <c r="A484" s="80"/>
+      <c r="A484" s="81"/>
       <c r="E484" s="30"/>
       <c r="G484" s="30"/>
       <c r="H484" s="30"/>
     </row>
     <row r="485">
-      <c r="A485" s="80"/>
+      <c r="A485" s="81"/>
       <c r="E485" s="30"/>
       <c r="G485" s="30"/>
       <c r="H485" s="30"/>
     </row>
     <row r="486">
-      <c r="A486" s="80"/>
+      <c r="A486" s="81"/>
       <c r="E486" s="30"/>
       <c r="G486" s="30"/>
       <c r="H486" s="30"/>
     </row>
     <row r="487">
-      <c r="A487" s="80"/>
+      <c r="A487" s="81"/>
       <c r="E487" s="30"/>
       <c r="G487" s="30"/>
       <c r="H487" s="30"/>
     </row>
     <row r="488">
-      <c r="A488" s="80"/>
+      <c r="A488" s="81"/>
       <c r="E488" s="30"/>
       <c r="G488" s="30"/>
       <c r="H488" s="30"/>
     </row>
     <row r="489">
-      <c r="A489" s="80"/>
+      <c r="A489" s="81"/>
       <c r="E489" s="30"/>
       <c r="G489" s="30"/>
       <c r="H489" s="30"/>
     </row>
     <row r="490">
-      <c r="A490" s="80"/>
+      <c r="A490" s="81"/>
       <c r="E490" s="30"/>
       <c r="G490" s="30"/>
       <c r="H490" s="30"/>
     </row>
     <row r="491">
-      <c r="A491" s="80"/>
+      <c r="A491" s="81"/>
       <c r="E491" s="30"/>
       <c r="G491" s="30"/>
       <c r="H491" s="30"/>
     </row>
     <row r="492">
-      <c r="A492" s="80"/>
+      <c r="A492" s="81"/>
       <c r="E492" s="30"/>
       <c r="G492" s="30"/>
       <c r="H492" s="30"/>
     </row>
     <row r="493">
-      <c r="A493" s="80"/>
+      <c r="A493" s="81"/>
       <c r="E493" s="30"/>
       <c r="G493" s="30"/>
       <c r="H493" s="30"/>
     </row>
     <row r="494">
-      <c r="A494" s="80"/>
+      <c r="A494" s="81"/>
       <c r="E494" s="30"/>
       <c r="G494" s="30"/>
       <c r="H494" s="30"/>
     </row>
     <row r="495">
-      <c r="A495" s="80"/>
+      <c r="A495" s="81"/>
       <c r="E495" s="30"/>
       <c r="G495" s="30"/>
       <c r="H495" s="30"/>
     </row>
     <row r="496">
-      <c r="A496" s="80"/>
+      <c r="A496" s="81"/>
       <c r="E496" s="30"/>
       <c r="G496" s="30"/>
       <c r="H496" s="30"/>
     </row>
     <row r="497">
-      <c r="A497" s="80"/>
+      <c r="A497" s="81"/>
       <c r="E497" s="30"/>
       <c r="G497" s="30"/>
       <c r="H497" s="30"/>
     </row>
     <row r="498">
-      <c r="A498" s="80"/>
+      <c r="A498" s="81"/>
       <c r="E498" s="30"/>
       <c r="G498" s="30"/>
       <c r="H498" s="30"/>
     </row>
     <row r="499">
-      <c r="A499" s="80"/>
+      <c r="A499" s="81"/>
       <c r="E499" s="30"/>
       <c r="G499" s="30"/>
       <c r="H499" s="30"/>
     </row>
     <row r="500">
-      <c r="A500" s="80"/>
+      <c r="A500" s="81"/>
       <c r="E500" s="30"/>
       <c r="G500" s="30"/>
       <c r="H500" s="30"/>
     </row>
     <row r="501">
-      <c r="A501" s="80"/>
+      <c r="A501" s="81"/>
       <c r="E501" s="30"/>
       <c r="G501" s="30"/>
       <c r="H501" s="30"/>
     </row>
     <row r="502">
-      <c r="A502" s="80"/>
+      <c r="A502" s="81"/>
       <c r="E502" s="30"/>
       <c r="G502" s="30"/>
       <c r="H502" s="30"/>
     </row>
     <row r="503">
-      <c r="A503" s="80"/>
+      <c r="A503" s="81"/>
       <c r="E503" s="30"/>
       <c r="G503" s="30"/>
       <c r="H503" s="30"/>
     </row>
     <row r="504">
-      <c r="A504" s="80"/>
+      <c r="A504" s="81"/>
       <c r="E504" s="30"/>
       <c r="G504" s="30"/>
       <c r="H504" s="30"/>
     </row>
     <row r="505">
-      <c r="A505" s="80"/>
+      <c r="A505" s="81"/>
       <c r="E505" s="30"/>
       <c r="G505" s="30"/>
       <c r="H505" s="30"/>
     </row>
     <row r="506">
-      <c r="A506" s="80"/>
+      <c r="A506" s="81"/>
       <c r="E506" s="30"/>
       <c r="G506" s="30"/>
       <c r="H506" s="30"/>
     </row>
     <row r="507">
-      <c r="A507" s="80"/>
+      <c r="A507" s="81"/>
       <c r="E507" s="30"/>
       <c r="G507" s="30"/>
       <c r="H507" s="30"/>
     </row>
     <row r="508">
-      <c r="A508" s="80"/>
+      <c r="A508" s="81"/>
       <c r="E508" s="30"/>
       <c r="G508" s="30"/>
       <c r="H508" s="30"/>
     </row>
     <row r="509">
-      <c r="A509" s="80"/>
+      <c r="A509" s="81"/>
       <c r="E509" s="30"/>
       <c r="G509" s="30"/>
       <c r="H509" s="30"/>
     </row>
     <row r="510">
-      <c r="A510" s="80"/>
+      <c r="A510" s="81"/>
       <c r="E510" s="30"/>
       <c r="G510" s="30"/>
       <c r="H510" s="30"/>
     </row>
     <row r="511">
-      <c r="A511" s="80"/>
+      <c r="A511" s="81"/>
       <c r="E511" s="30"/>
       <c r="G511" s="30"/>
       <c r="H511" s="30"/>
     </row>
     <row r="512">
-      <c r="A512" s="80"/>
+      <c r="A512" s="81"/>
       <c r="E512" s="30"/>
       <c r="G512" s="30"/>
       <c r="H512" s="30"/>
     </row>
     <row r="513">
-      <c r="A513" s="80"/>
+      <c r="A513" s="81"/>
       <c r="E513" s="30"/>
       <c r="G513" s="30"/>
       <c r="H513" s="30"/>
     </row>
     <row r="514">
-      <c r="A514" s="80"/>
+      <c r="A514" s="81"/>
       <c r="E514" s="30"/>
       <c r="G514" s="30"/>
       <c r="H514" s="30"/>
     </row>
     <row r="515">
-      <c r="A515" s="80"/>
+      <c r="A515" s="81"/>
       <c r="E515" s="30"/>
       <c r="G515" s="30"/>
       <c r="H515" s="30"/>
     </row>
     <row r="516">
-      <c r="A516" s="80"/>
+      <c r="A516" s="81"/>
       <c r="E516" s="30"/>
       <c r="G516" s="30"/>
       <c r="H516" s="30"/>
     </row>
     <row r="517">
-      <c r="A517" s="80"/>
+      <c r="A517" s="81"/>
       <c r="E517" s="30"/>
       <c r="G517" s="30"/>
       <c r="H517" s="30"/>
     </row>
     <row r="518">
-      <c r="A518" s="80"/>
+      <c r="A518" s="81"/>
       <c r="E518" s="30"/>
       <c r="G518" s="30"/>
       <c r="H518" s="30"/>
     </row>
     <row r="519">
-      <c r="A519" s="80"/>
+      <c r="A519" s="81"/>
       <c r="E519" s="30"/>
       <c r="G519" s="30"/>
       <c r="H519" s="30"/>
     </row>
     <row r="520">
-      <c r="A520" s="80"/>
+      <c r="A520" s="81"/>
       <c r="E520" s="30"/>
       <c r="G520" s="30"/>
       <c r="H520" s="30"/>
     </row>
     <row r="521">
-      <c r="A521" s="80"/>
+      <c r="A521" s="81"/>
       <c r="E521" s="30"/>
       <c r="G521" s="30"/>
       <c r="H521" s="30"/>
     </row>
     <row r="522">
-      <c r="A522" s="80"/>
+      <c r="A522" s="81"/>
       <c r="E522" s="30"/>
       <c r="G522" s="30"/>
       <c r="H522" s="30"/>
     </row>
     <row r="523">
-      <c r="A523" s="80"/>
+      <c r="A523" s="81"/>
       <c r="E523" s="30"/>
       <c r="G523" s="30"/>
       <c r="H523" s="30"/>
     </row>
     <row r="524">
-      <c r="A524" s="80"/>
+      <c r="A524" s="81"/>
       <c r="E524" s="30"/>
       <c r="G524" s="30"/>
       <c r="H524" s="30"/>
     </row>
     <row r="525">
-      <c r="A525" s="80"/>
+      <c r="A525" s="81"/>
       <c r="E525" s="30"/>
       <c r="G525" s="30"/>
       <c r="H525" s="30"/>
     </row>
     <row r="526">
-      <c r="A526" s="80"/>
+      <c r="A526" s="81"/>
       <c r="E526" s="30"/>
       <c r="G526" s="30"/>
       <c r="H526" s="30"/>
     </row>
     <row r="527">
-      <c r="A527" s="80"/>
+      <c r="A527" s="81"/>
       <c r="E527" s="30"/>
       <c r="G527" s="30"/>
       <c r="H527" s="30"/>
     </row>
     <row r="528">
-      <c r="A528" s="80"/>
+      <c r="A528" s="81"/>
       <c r="E528" s="30"/>
       <c r="G528" s="30"/>
       <c r="H528" s="30"/>
     </row>
     <row r="529">
-      <c r="A529" s="80"/>
+      <c r="A529" s="81"/>
       <c r="E529" s="30"/>
       <c r="G529" s="30"/>
       <c r="H529" s="30"/>
     </row>
     <row r="530">
-      <c r="A530" s="80"/>
+      <c r="A530" s="81"/>
       <c r="E530" s="30"/>
       <c r="G530" s="30"/>
       <c r="H530" s="30"/>
     </row>
     <row r="531">
-      <c r="A531" s="80"/>
+      <c r="A531" s="81"/>
       <c r="E531" s="30"/>
       <c r="G531" s="30"/>
       <c r="H531" s="30"/>
     </row>
     <row r="532">
-      <c r="A532" s="80"/>
+      <c r="A532" s="81"/>
       <c r="E532" s="30"/>
       <c r="G532" s="30"/>
       <c r="H532" s="30"/>
     </row>
     <row r="533">
-      <c r="A533" s="80"/>
+      <c r="A533" s="81"/>
       <c r="E533" s="30"/>
       <c r="G533" s="30"/>
       <c r="H533" s="30"/>
     </row>
     <row r="534">
-      <c r="A534" s="80"/>
+      <c r="A534" s="81"/>
       <c r="E534" s="30"/>
       <c r="G534" s="30"/>
       <c r="H534" s="30"/>
     </row>
     <row r="535">
-      <c r="A535" s="80"/>
+      <c r="A535" s="81"/>
       <c r="E535" s="30"/>
       <c r="G535" s="30"/>
       <c r="H535" s="30"/>
     </row>
     <row r="536">
-      <c r="A536" s="80"/>
+      <c r="A536" s="81"/>
       <c r="E536" s="30"/>
       <c r="G536" s="30"/>
       <c r="H536" s="30"/>
     </row>
     <row r="537">
-      <c r="A537" s="80"/>
+      <c r="A537" s="81"/>
       <c r="E537" s="30"/>
       <c r="G537" s="30"/>
       <c r="H537" s="30"/>
     </row>
     <row r="538">
-      <c r="A538" s="80"/>
+      <c r="A538" s="81"/>
       <c r="E538" s="30"/>
       <c r="G538" s="30"/>
       <c r="H538" s="30"/>
     </row>
     <row r="539">
-      <c r="A539" s="80"/>
+      <c r="A539" s="81"/>
       <c r="E539" s="30"/>
       <c r="G539" s="30"/>
       <c r="H539" s="30"/>
     </row>
     <row r="540">
-      <c r="A540" s="80"/>
+      <c r="A540" s="81"/>
       <c r="E540" s="30"/>
       <c r="G540" s="30"/>
       <c r="H540" s="30"/>
     </row>
     <row r="541">
-      <c r="A541" s="80"/>
+      <c r="A541" s="81"/>
       <c r="E541" s="30"/>
       <c r="G541" s="30"/>
       <c r="H541" s="30"/>
     </row>
     <row r="542">
-      <c r="A542" s="80"/>
+      <c r="A542" s="81"/>
       <c r="E542" s="30"/>
       <c r="G542" s="30"/>
       <c r="H542" s="30"/>
     </row>
     <row r="543">
-      <c r="A543" s="80"/>
+      <c r="A543" s="81"/>
       <c r="E543" s="30"/>
       <c r="G543" s="30"/>
       <c r="H543" s="30"/>
     </row>
     <row r="544">
-      <c r="A544" s="80"/>
+      <c r="A544" s="81"/>
       <c r="E544" s="30"/>
       <c r="G544" s="30"/>
       <c r="H544" s="30"/>
     </row>
     <row r="545">
-      <c r="A545" s="80"/>
+      <c r="A545" s="81"/>
       <c r="E545" s="30"/>
       <c r="G545" s="30"/>
       <c r="H545" s="30"/>
     </row>
     <row r="546">
-      <c r="A546" s="80"/>
+      <c r="A546" s="81"/>
       <c r="E546" s="30"/>
       <c r="G546" s="30"/>
       <c r="H546" s="30"/>
     </row>
     <row r="547">
-      <c r="A547" s="80"/>
+      <c r="A547" s="81"/>
       <c r="E547" s="30"/>
       <c r="G547" s="30"/>
       <c r="H547" s="30"/>
     </row>
     <row r="548">
-      <c r="A548" s="80"/>
+      <c r="A548" s="81"/>
       <c r="E548" s="30"/>
       <c r="G548" s="30"/>
       <c r="H548" s="30"/>
     </row>
     <row r="549">
-      <c r="A549" s="80"/>
+      <c r="A549" s="81"/>
       <c r="E549" s="30"/>
       <c r="G549" s="30"/>
       <c r="H549" s="30"/>
     </row>
     <row r="550">
-      <c r="A550" s="80"/>
+      <c r="A550" s="81"/>
       <c r="E550" s="30"/>
       <c r="G550" s="30"/>
       <c r="H550" s="30"/>
     </row>
     <row r="551">
-      <c r="A551" s="80"/>
+      <c r="A551" s="81"/>
       <c r="E551" s="30"/>
       <c r="G551" s="30"/>
       <c r="H551" s="30"/>
     </row>
     <row r="552">
-      <c r="A552" s="80"/>
+      <c r="A552" s="81"/>
       <c r="E552" s="30"/>
       <c r="G552" s="30"/>
       <c r="H552" s="30"/>
     </row>
     <row r="553">
-      <c r="A553" s="80"/>
+      <c r="A553" s="81"/>
       <c r="E553" s="30"/>
       <c r="G553" s="30"/>
       <c r="H553" s="30"/>
     </row>
     <row r="554">
-      <c r="A554" s="80"/>
+      <c r="A554" s="81"/>
       <c r="E554" s="30"/>
       <c r="G554" s="30"/>
       <c r="H554" s="30"/>
     </row>
     <row r="555">
-      <c r="A555" s="80"/>
+      <c r="A555" s="81"/>
       <c r="E555" s="30"/>
       <c r="G555" s="30"/>
       <c r="H555" s="30"/>
     </row>
     <row r="556">
-      <c r="A556" s="80"/>
+      <c r="A556" s="81"/>
       <c r="E556" s="30"/>
       <c r="G556" s="30"/>
       <c r="H556" s="30"/>
     </row>
     <row r="557">
-      <c r="A557" s="80"/>
+      <c r="A557" s="81"/>
       <c r="E557" s="30"/>
       <c r="G557" s="30"/>
       <c r="H557" s="30"/>
     </row>
     <row r="558">
-      <c r="A558" s="80"/>
+      <c r="A558" s="81"/>
       <c r="E558" s="30"/>
       <c r="G558" s="30"/>
       <c r="H558" s="30"/>
     </row>
     <row r="559">
-      <c r="A559" s="80"/>
+      <c r="A559" s="81"/>
       <c r="E559" s="30"/>
       <c r="G559" s="30"/>
       <c r="H559" s="30"/>
     </row>
     <row r="560">
-      <c r="A560" s="80"/>
+      <c r="A560" s="81"/>
       <c r="E560" s="30"/>
       <c r="G560" s="30"/>
       <c r="H560" s="30"/>
     </row>
     <row r="561">
-      <c r="A561" s="80"/>
+      <c r="A561" s="81"/>
       <c r="E561" s="30"/>
       <c r="G561" s="30"/>
       <c r="H561" s="30"/>
     </row>
     <row r="562">
-      <c r="A562" s="80"/>
+      <c r="A562" s="81"/>
       <c r="E562" s="30"/>
       <c r="G562" s="30"/>
       <c r="H562" s="30"/>
     </row>
     <row r="563">
-      <c r="A563" s="80"/>
+      <c r="A563" s="81"/>
       <c r="E563" s="30"/>
       <c r="G563" s="30"/>
       <c r="H563" s="30"/>
     </row>
     <row r="564">
-      <c r="A564" s="80"/>
+      <c r="A564" s="81"/>
       <c r="E564" s="30"/>
       <c r="G564" s="30"/>
       <c r="H564" s="30"/>
     </row>
     <row r="565">
-      <c r="A565" s="80"/>
+      <c r="A565" s="81"/>
       <c r="E565" s="30"/>
       <c r="G565" s="30"/>
       <c r="H565" s="30"/>
     </row>
     <row r="566">
-      <c r="A566" s="80"/>
+      <c r="A566" s="81"/>
       <c r="E566" s="30"/>
       <c r="G566" s="30"/>
       <c r="H566" s="30"/>
     </row>
     <row r="567">
-      <c r="A567" s="80"/>
+      <c r="A567" s="81"/>
       <c r="E567" s="30"/>
       <c r="G567" s="30"/>
       <c r="H567" s="30"/>
     </row>
     <row r="568">
-      <c r="A568" s="80"/>
+      <c r="A568" s="81"/>
       <c r="E568" s="30"/>
       <c r="G568" s="30"/>
       <c r="H568" s="30"/>
     </row>
     <row r="569">
-      <c r="A569" s="80"/>
+      <c r="A569" s="81"/>
       <c r="E569" s="30"/>
       <c r="G569" s="30"/>
       <c r="H569" s="30"/>
     </row>
     <row r="570">
-      <c r="A570" s="80"/>
+      <c r="A570" s="81"/>
       <c r="E570" s="30"/>
       <c r="G570" s="30"/>
       <c r="H570" s="30"/>
     </row>
     <row r="571">
-      <c r="A571" s="80"/>
+      <c r="A571" s="81"/>
       <c r="E571" s="30"/>
       <c r="G571" s="30"/>
       <c r="H571" s="30"/>
     </row>
     <row r="572">
-      <c r="A572" s="80"/>
+      <c r="A572" s="81"/>
       <c r="E572" s="30"/>
       <c r="G572" s="30"/>
       <c r="H572" s="30"/>
     </row>
     <row r="573">
-      <c r="A573" s="80"/>
+      <c r="A573" s="81"/>
       <c r="E573" s="30"/>
       <c r="G573" s="30"/>
       <c r="H573" s="30"/>
     </row>
     <row r="574">
-      <c r="A574" s="80"/>
+      <c r="A574" s="81"/>
       <c r="E574" s="30"/>
       <c r="G574" s="30"/>
       <c r="H574" s="30"/>
     </row>
     <row r="575">
-      <c r="A575" s="80"/>
+      <c r="A575" s="81"/>
       <c r="E575" s="30"/>
       <c r="G575" s="30"/>
       <c r="H575" s="30"/>
     </row>
     <row r="576">
-      <c r="A576" s="80"/>
+      <c r="A576" s="81"/>
       <c r="E576" s="30"/>
       <c r="G576" s="30"/>
       <c r="H576" s="30"/>
     </row>
     <row r="577">
-      <c r="A577" s="80"/>
+      <c r="A577" s="81"/>
       <c r="E577" s="30"/>
       <c r="G577" s="30"/>
       <c r="H577" s="30"/>
     </row>
     <row r="578">
-      <c r="A578" s="80"/>
+      <c r="A578" s="81"/>
       <c r="E578" s="30"/>
       <c r="G578" s="30"/>
       <c r="H578" s="30"/>
     </row>
     <row r="579">
-      <c r="A579" s="80"/>
+      <c r="A579" s="81"/>
       <c r="E579" s="30"/>
       <c r="G579" s="30"/>
       <c r="H579" s="30"/>
     </row>
     <row r="580">
-      <c r="A580" s="80"/>
+      <c r="A580" s="81"/>
       <c r="E580" s="30"/>
       <c r="G580" s="30"/>
       <c r="H580" s="30"/>
     </row>
     <row r="581">
-      <c r="A581" s="80"/>
+      <c r="A581" s="81"/>
       <c r="E581" s="30"/>
       <c r="G581" s="30"/>
       <c r="H581" s="30"/>
     </row>
     <row r="582">
-      <c r="A582" s="80"/>
+      <c r="A582" s="81"/>
       <c r="E582" s="30"/>
       <c r="G582" s="30"/>
       <c r="H582" s="30"/>
     </row>
     <row r="583">
-      <c r="A583" s="80"/>
+      <c r="A583" s="81"/>
       <c r="E583" s="30"/>
       <c r="G583" s="30"/>
       <c r="H583" s="30"/>
     </row>
     <row r="584">
-      <c r="A584" s="80"/>
+      <c r="A584" s="81"/>
       <c r="E584" s="30"/>
       <c r="G584" s="30"/>
       <c r="H584" s="30"/>
     </row>
     <row r="585">
-      <c r="A585" s="80"/>
+      <c r="A585" s="81"/>
       <c r="E585" s="30"/>
       <c r="G585" s="30"/>
       <c r="H585" s="30"/>
     </row>
     <row r="586">
-      <c r="A586" s="80"/>
+      <c r="A586" s="81"/>
       <c r="E586" s="30"/>
       <c r="G586" s="30"/>
       <c r="H586" s="30"/>
     </row>
     <row r="587">
-      <c r="A587" s="80"/>
+      <c r="A587" s="81"/>
       <c r="E587" s="30"/>
       <c r="G587" s="30"/>
       <c r="H587" s="30"/>
     </row>
     <row r="588">
-      <c r="A588" s="80"/>
+      <c r="A588" s="81"/>
       <c r="E588" s="30"/>
       <c r="G588" s="30"/>
       <c r="H588" s="30"/>
     </row>
     <row r="589">
-      <c r="A589" s="80"/>
+      <c r="A589" s="81"/>
       <c r="E589" s="30"/>
       <c r="G589" s="30"/>
       <c r="H589" s="30"/>
     </row>
     <row r="590">
-      <c r="A590" s="80"/>
+      <c r="A590" s="81"/>
       <c r="E590" s="30"/>
       <c r="G590" s="30"/>
       <c r="H590" s="30"/>
     </row>
     <row r="591">
-      <c r="A591" s="80"/>
+      <c r="A591" s="81"/>
       <c r="E591" s="30"/>
       <c r="G591" s="30"/>
       <c r="H591" s="30"/>
     </row>
     <row r="592">
-      <c r="A592" s="80"/>
+      <c r="A592" s="81"/>
       <c r="E592" s="30"/>
       <c r="G592" s="30"/>
       <c r="H592" s="30"/>
     </row>
     <row r="593">
-      <c r="A593" s="80"/>
+      <c r="A593" s="81"/>
       <c r="E593" s="30"/>
       <c r="G593" s="30"/>
       <c r="H593" s="30"/>
     </row>
     <row r="594">
-      <c r="A594" s="80"/>
+      <c r="A594" s="81"/>
       <c r="E594" s="30"/>
       <c r="G594" s="30"/>
       <c r="H594" s="30"/>
     </row>
     <row r="595">
-      <c r="A595" s="80"/>
+      <c r="A595" s="81"/>
       <c r="E595" s="30"/>
       <c r="G595" s="30"/>
       <c r="H595" s="30"/>
     </row>
     <row r="596">
-      <c r="A596" s="80"/>
+      <c r="A596" s="81"/>
       <c r="E596" s="30"/>
       <c r="G596" s="30"/>
       <c r="H596" s="30"/>
     </row>
     <row r="597">
-      <c r="A597" s="80"/>
+      <c r="A597" s="81"/>
       <c r="E597" s="30"/>
       <c r="G597" s="30"/>
       <c r="H597" s="30"/>
     </row>
     <row r="598">
-      <c r="A598" s="80"/>
+      <c r="A598" s="81"/>
       <c r="E598" s="30"/>
       <c r="G598" s="30"/>
       <c r="H598" s="30"/>
     </row>
     <row r="599">
-      <c r="A599" s="80"/>
+      <c r="A599" s="81"/>
       <c r="E599" s="30"/>
       <c r="G599" s="30"/>
       <c r="H599" s="30"/>
     </row>
     <row r="600">
-      <c r="A600" s="80"/>
+      <c r="A600" s="81"/>
       <c r="E600" s="30"/>
       <c r="G600" s="30"/>
       <c r="H600" s="30"/>
     </row>
     <row r="601">
-      <c r="A601" s="80"/>
+      <c r="A601" s="81"/>
       <c r="E601" s="30"/>
       <c r="G601" s="30"/>
       <c r="H601" s="30"/>
     </row>
     <row r="602">
-      <c r="A602" s="80"/>
+      <c r="A602" s="81"/>
       <c r="E602" s="30"/>
       <c r="G602" s="30"/>
       <c r="H602" s="30"/>
     </row>
     <row r="603">
-      <c r="A603" s="80"/>
+      <c r="A603" s="81"/>
       <c r="E603" s="30"/>
       <c r="G603" s="30"/>
       <c r="H603" s="30"/>
     </row>
     <row r="604">
-      <c r="A604" s="80"/>
+      <c r="A604" s="81"/>
       <c r="E604" s="30"/>
       <c r="G604" s="30"/>
       <c r="H604" s="30"/>
     </row>
     <row r="605">
-      <c r="A605" s="80"/>
+      <c r="A605" s="81"/>
       <c r="E605" s="30"/>
       <c r="G605" s="30"/>
       <c r="H605" s="30"/>
     </row>
     <row r="606">
-      <c r="A606" s="80"/>
+      <c r="A606" s="81"/>
       <c r="E606" s="30"/>
       <c r="G606" s="30"/>
       <c r="H606" s="30"/>
     </row>
     <row r="607">
-      <c r="A607" s="80"/>
+      <c r="A607" s="81"/>
       <c r="E607" s="30"/>
       <c r="G607" s="30"/>
       <c r="H607" s="30"/>
     </row>
     <row r="608">
-      <c r="A608" s="80"/>
+      <c r="A608" s="81"/>
       <c r="E608" s="30"/>
       <c r="G608" s="30"/>
       <c r="H608" s="30"/>
     </row>
     <row r="609">
-      <c r="A609" s="80"/>
+      <c r="A609" s="81"/>
       <c r="E609" s="30"/>
       <c r="G609" s="30"/>
       <c r="H609" s="30"/>
     </row>
     <row r="610">
-      <c r="A610" s="80"/>
+      <c r="A610" s="81"/>
       <c r="E610" s="30"/>
       <c r="G610" s="30"/>
       <c r="H610" s="30"/>
     </row>
     <row r="611">
-      <c r="A611" s="80"/>
+      <c r="A611" s="81"/>
       <c r="E611" s="30"/>
       <c r="G611" s="30"/>
       <c r="H611" s="30"/>
     </row>
     <row r="612">
-      <c r="A612" s="80"/>
+      <c r="A612" s="81"/>
       <c r="E612" s="30"/>
       <c r="G612" s="30"/>
       <c r="H612" s="30"/>
     </row>
     <row r="613">
-      <c r="A613" s="80"/>
+      <c r="A613" s="81"/>
       <c r="E613" s="30"/>
       <c r="G613" s="30"/>
       <c r="H613" s="30"/>
     </row>
     <row r="614">
-      <c r="A614" s="80"/>
+      <c r="A614" s="81"/>
       <c r="E614" s="30"/>
       <c r="G614" s="30"/>
       <c r="H614" s="30"/>
     </row>
     <row r="615">
-      <c r="A615" s="80"/>
+      <c r="A615" s="81"/>
       <c r="E615" s="30"/>
       <c r="G615" s="30"/>
       <c r="H615" s="30"/>
     </row>
     <row r="616">
-      <c r="A616" s="80"/>
+      <c r="A616" s="81"/>
       <c r="E616" s="30"/>
       <c r="G616" s="30"/>
       <c r="H616" s="30"/>
     </row>
     <row r="617">
-      <c r="A617" s="80"/>
+      <c r="A617" s="81"/>
       <c r="E617" s="30"/>
       <c r="G617" s="30"/>
       <c r="H617" s="30"/>
     </row>
     <row r="618">
-      <c r="A618" s="80"/>
+      <c r="A618" s="81"/>
       <c r="E618" s="30"/>
       <c r="G618" s="30"/>
       <c r="H618" s="30"/>
     </row>
     <row r="619">
-      <c r="A619" s="80"/>
+      <c r="A619" s="81"/>
       <c r="E619" s="30"/>
       <c r="G619" s="30"/>
       <c r="H619" s="30"/>
     </row>
     <row r="620">
-      <c r="A620" s="80"/>
+      <c r="A620" s="81"/>
       <c r="E620" s="30"/>
       <c r="G620" s="30"/>
       <c r="H620" s="30"/>
     </row>
     <row r="621">
-      <c r="A621" s="80"/>
+      <c r="A621" s="81"/>
       <c r="E621" s="30"/>
       <c r="G621" s="30"/>
       <c r="H621" s="30"/>
     </row>
     <row r="622">
-      <c r="A622" s="80"/>
+      <c r="A622" s="81"/>
       <c r="E622" s="30"/>
       <c r="G622" s="30"/>
       <c r="H622" s="30"/>
     </row>
     <row r="623">
-      <c r="A623" s="80"/>
+      <c r="A623" s="81"/>
       <c r="E623" s="30"/>
       <c r="G623" s="30"/>
       <c r="H623" s="30"/>
     </row>
     <row r="624">
-      <c r="A624" s="80"/>
+      <c r="A624" s="81"/>
       <c r="E624" s="30"/>
       <c r="G624" s="30"/>
       <c r="H624" s="30"/>
     </row>
     <row r="625">
-      <c r="A625" s="80"/>
+      <c r="A625" s="81"/>
       <c r="E625" s="30"/>
       <c r="G625" s="30"/>
       <c r="H625" s="30"/>
     </row>
     <row r="626">
-      <c r="A626" s="80"/>
+      <c r="A626" s="81"/>
       <c r="E626" s="30"/>
       <c r="G626" s="30"/>
       <c r="H626" s="30"/>
     </row>
     <row r="627">
-      <c r="A627" s="80"/>
+      <c r="A627" s="81"/>
       <c r="E627" s="30"/>
       <c r="G627" s="30"/>
       <c r="H627" s="30"/>
     </row>
     <row r="628">
-      <c r="A628" s="80"/>
+      <c r="A628" s="81"/>
       <c r="E628" s="30"/>
       <c r="G628" s="30"/>
       <c r="H628" s="30"/>
     </row>
     <row r="629">
-      <c r="A629" s="80"/>
+      <c r="A629" s="81"/>
       <c r="E629" s="30"/>
       <c r="G629" s="30"/>
       <c r="H629" s="30"/>
     </row>
     <row r="630">
-      <c r="A630" s="80"/>
+      <c r="A630" s="81"/>
       <c r="E630" s="30"/>
       <c r="G630" s="30"/>
       <c r="H630" s="30"/>
     </row>
     <row r="631">
-      <c r="A631" s="80"/>
+      <c r="A631" s="81"/>
       <c r="E631" s="30"/>
       <c r="G631" s="30"/>
       <c r="H631" s="30"/>
     </row>
     <row r="632">
-      <c r="A632" s="80"/>
+      <c r="A632" s="81"/>
       <c r="E632" s="30"/>
       <c r="G632" s="30"/>
       <c r="H632" s="30"/>
     </row>
     <row r="633">
-      <c r="A633" s="80"/>
+      <c r="A633" s="81"/>
       <c r="E633" s="30"/>
       <c r="G633" s="30"/>
       <c r="H633" s="30"/>
     </row>
     <row r="634">
-      <c r="A634" s="80"/>
+      <c r="A634" s="81"/>
       <c r="E634" s="30"/>
       <c r="G634" s="30"/>
       <c r="H634" s="30"/>
     </row>
     <row r="635">
-      <c r="A635" s="80"/>
+      <c r="A635" s="81"/>
       <c r="E635" s="30"/>
       <c r="G635" s="30"/>
       <c r="H635" s="30"/>
     </row>
     <row r="636">
-      <c r="A636" s="80"/>
+      <c r="A636" s="81"/>
       <c r="E636" s="30"/>
       <c r="G636" s="30"/>
       <c r="H636" s="30"/>
     </row>
     <row r="637">
-      <c r="A637" s="80"/>
+      <c r="A637" s="81"/>
       <c r="E637" s="30"/>
       <c r="G637" s="30"/>
       <c r="H637" s="30"/>
     </row>
     <row r="638">
-      <c r="A638" s="80"/>
+      <c r="A638" s="81"/>
       <c r="E638" s="30"/>
       <c r="G638" s="30"/>
       <c r="H638" s="30"/>
     </row>
     <row r="639">
-      <c r="A639" s="80"/>
+      <c r="A639" s="81"/>
       <c r="E639" s="30"/>
       <c r="G639" s="30"/>
       <c r="H639" s="30"/>
     </row>
     <row r="640">
-      <c r="A640" s="80"/>
+      <c r="A640" s="81"/>
       <c r="E640" s="30"/>
       <c r="G640" s="30"/>
       <c r="H640" s="30"/>
     </row>
     <row r="641">
-      <c r="A641" s="80"/>
+      <c r="A641" s="81"/>
       <c r="E641" s="30"/>
       <c r="G641" s="30"/>
       <c r="H641" s="30"/>
     </row>
     <row r="642">
-      <c r="A642" s="80"/>
+      <c r="A642" s="81"/>
       <c r="E642" s="30"/>
       <c r="G642" s="30"/>
       <c r="H642" s="30"/>
     </row>
     <row r="643">
-      <c r="A643" s="80"/>
+      <c r="A643" s="81"/>
       <c r="E643" s="30"/>
       <c r="G643" s="30"/>
       <c r="H643" s="30"/>
     </row>
     <row r="644">
-      <c r="A644" s="80"/>
+      <c r="A644" s="81"/>
       <c r="E644" s="30"/>
       <c r="G644" s="30"/>
       <c r="H644" s="30"/>
     </row>
     <row r="645">
-      <c r="A645" s="80"/>
+      <c r="A645" s="81"/>
       <c r="E645" s="30"/>
       <c r="G645" s="30"/>
       <c r="H645" s="30"/>
     </row>
     <row r="646">
-      <c r="A646" s="80"/>
+      <c r="A646" s="81"/>
       <c r="E646" s="30"/>
       <c r="G646" s="30"/>
       <c r="H646" s="30"/>
     </row>
     <row r="647">
-      <c r="A647" s="80"/>
+      <c r="A647" s="81"/>
       <c r="E647" s="30"/>
       <c r="G647" s="30"/>
       <c r="H647" s="30"/>
     </row>
     <row r="648">
-      <c r="A648" s="80"/>
+      <c r="A648" s="81"/>
       <c r="E648" s="30"/>
       <c r="G648" s="30"/>
       <c r="H648" s="30"/>
     </row>
     <row r="649">
-      <c r="A649" s="80"/>
+      <c r="A649" s="81"/>
       <c r="E649" s="30"/>
       <c r="G649" s="30"/>
       <c r="H649" s="30"/>
     </row>
     <row r="650">
-      <c r="A650" s="80"/>
+      <c r="A650" s="81"/>
       <c r="E650" s="30"/>
       <c r="G650" s="30"/>
       <c r="H650" s="30"/>
     </row>
     <row r="651">
-      <c r="A651" s="80"/>
+      <c r="A651" s="81"/>
       <c r="E651" s="30"/>
       <c r="G651" s="30"/>
       <c r="H651" s="30"/>
     </row>
     <row r="652">
-      <c r="A652" s="80"/>
+      <c r="A652" s="81"/>
       <c r="E652" s="30"/>
       <c r="G652" s="30"/>
       <c r="H652" s="30"/>
     </row>
     <row r="653">
-      <c r="A653" s="80"/>
+      <c r="A653" s="81"/>
       <c r="E653" s="30"/>
       <c r="G653" s="30"/>
       <c r="H653" s="30"/>
     </row>
     <row r="654">
-      <c r="A654" s="80"/>
+      <c r="A654" s="81"/>
       <c r="E654" s="30"/>
       <c r="G654" s="30"/>
       <c r="H654" s="30"/>
     </row>
     <row r="655">
-      <c r="A655" s="80"/>
+      <c r="A655" s="81"/>
       <c r="E655" s="30"/>
       <c r="G655" s="30"/>
       <c r="H655" s="30"/>
     </row>
     <row r="656">
-      <c r="A656" s="80"/>
+      <c r="A656" s="81"/>
       <c r="E656" s="30"/>
       <c r="G656" s="30"/>
       <c r="H656" s="30"/>
     </row>
     <row r="657">
-      <c r="A657" s="80"/>
+      <c r="A657" s="81"/>
       <c r="E657" s="30"/>
       <c r="G657" s="30"/>
       <c r="H657" s="30"/>
     </row>
     <row r="658">
-      <c r="A658" s="80"/>
+      <c r="A658" s="81"/>
       <c r="E658" s="30"/>
       <c r="G658" s="30"/>
       <c r="H658" s="30"/>
     </row>
     <row r="659">
-      <c r="A659" s="80"/>
+      <c r="A659" s="81"/>
       <c r="E659" s="30"/>
       <c r="G659" s="30"/>
       <c r="H659" s="30"/>
     </row>
     <row r="660">
-      <c r="A660" s="80"/>
+      <c r="A660" s="81"/>
       <c r="E660" s="30"/>
       <c r="G660" s="30"/>
       <c r="H660" s="30"/>
     </row>
     <row r="661">
-      <c r="A661" s="80"/>
+      <c r="A661" s="81"/>
       <c r="E661" s="30"/>
       <c r="G661" s="30"/>
       <c r="H661" s="30"/>
     </row>
     <row r="662">
-      <c r="A662" s="80"/>
+      <c r="A662" s="81"/>
       <c r="E662" s="30"/>
       <c r="G662" s="30"/>
       <c r="H662" s="30"/>
     </row>
     <row r="663">
-      <c r="A663" s="80"/>
+      <c r="A663" s="81"/>
       <c r="E663" s="30"/>
       <c r="G663" s="30"/>
       <c r="H663" s="30"/>
     </row>
     <row r="664">
-      <c r="A664" s="80"/>
+      <c r="A664" s="81"/>
       <c r="E664" s="30"/>
       <c r="G664" s="30"/>
       <c r="H664" s="30"/>
     </row>
     <row r="665">
-      <c r="A665" s="80"/>
+      <c r="A665" s="81"/>
       <c r="E665" s="30"/>
       <c r="G665" s="30"/>
       <c r="H665" s="30"/>
     </row>
     <row r="666">
-      <c r="A666" s="80"/>
+      <c r="A666" s="81"/>
       <c r="E666" s="30"/>
       <c r="G666" s="30"/>
       <c r="H666" s="30"/>
     </row>
     <row r="667">
-      <c r="A667" s="80"/>
+      <c r="A667" s="81"/>
       <c r="E667" s="30"/>
       <c r="G667" s="30"/>
       <c r="H667" s="30"/>
     </row>
     <row r="668">
-      <c r="A668" s="80"/>
+      <c r="A668" s="81"/>
       <c r="E668" s="30"/>
       <c r="G668" s="30"/>
       <c r="H668" s="30"/>
     </row>
     <row r="669">
-      <c r="A669" s="80"/>
+      <c r="A669" s="81"/>
       <c r="E669" s="30"/>
       <c r="G669" s="30"/>
       <c r="H669" s="30"/>
     </row>
     <row r="670">
-      <c r="A670" s="80"/>
+      <c r="A670" s="81"/>
       <c r="E670" s="30"/>
       <c r="G670" s="30"/>
       <c r="H670" s="30"/>
     </row>
     <row r="671">
-      <c r="A671" s="80"/>
+      <c r="A671" s="81"/>
       <c r="E671" s="30"/>
       <c r="G671" s="30"/>
       <c r="H671" s="30"/>
     </row>
     <row r="672">
-      <c r="A672" s="80"/>
+      <c r="A672" s="81"/>
       <c r="E672" s="30"/>
       <c r="G672" s="30"/>
       <c r="H672" s="30"/>
     </row>
     <row r="673">
-      <c r="A673" s="80"/>
+      <c r="A673" s="81"/>
       <c r="E673" s="30"/>
       <c r="G673" s="30"/>
       <c r="H673" s="30"/>
     </row>
     <row r="674">
-      <c r="A674" s="80"/>
+      <c r="A674" s="81"/>
       <c r="E674" s="30"/>
       <c r="G674" s="30"/>
       <c r="H674" s="30"/>
     </row>
     <row r="675">
-      <c r="A675" s="80"/>
+      <c r="A675" s="81"/>
       <c r="E675" s="30"/>
       <c r="G675" s="30"/>
       <c r="H675" s="30"/>
     </row>
     <row r="676">
-      <c r="A676" s="80"/>
+      <c r="A676" s="81"/>
       <c r="E676" s="30"/>
       <c r="G676" s="30"/>
       <c r="H676" s="30"/>
     </row>
     <row r="677">
-      <c r="A677" s="80"/>
+      <c r="A677" s="81"/>
       <c r="E677" s="30"/>
       <c r="G677" s="30"/>
       <c r="H677" s="30"/>
     </row>
     <row r="678">
-      <c r="A678" s="80"/>
+      <c r="A678" s="81"/>
       <c r="E678" s="30"/>
       <c r="G678" s="30"/>
       <c r="H678" s="30"/>
     </row>
     <row r="679">
-      <c r="A679" s="80"/>
+      <c r="A679" s="81"/>
       <c r="E679" s="30"/>
       <c r="G679" s="30"/>
       <c r="H679" s="30"/>
     </row>
     <row r="680">
-      <c r="A680" s="80"/>
+      <c r="A680" s="81"/>
       <c r="E680" s="30"/>
       <c r="G680" s="30"/>
       <c r="H680" s="30"/>
     </row>
     <row r="681">
-      <c r="A681" s="80"/>
+      <c r="A681" s="81"/>
       <c r="E681" s="30"/>
       <c r="G681" s="30"/>
       <c r="H681" s="30"/>
     </row>
     <row r="682">
-      <c r="A682" s="80"/>
+      <c r="A682" s="81"/>
       <c r="E682" s="30"/>
       <c r="G682" s="30"/>
       <c r="H682" s="30"/>
     </row>
     <row r="683">
-      <c r="A683" s="80"/>
+      <c r="A683" s="81"/>
       <c r="E683" s="30"/>
       <c r="G683" s="30"/>
       <c r="H683" s="30"/>
     </row>
     <row r="684">
-      <c r="A684" s="80"/>
+      <c r="A684" s="81"/>
       <c r="E684" s="30"/>
       <c r="G684" s="30"/>
       <c r="H684" s="30"/>
     </row>
     <row r="685">
-      <c r="A685" s="80"/>
+      <c r="A685" s="81"/>
       <c r="E685" s="30"/>
       <c r="G685" s="30"/>
       <c r="H685" s="30"/>
     </row>
     <row r="686">
-      <c r="A686" s="80"/>
+      <c r="A686" s="81"/>
       <c r="E686" s="30"/>
       <c r="G686" s="30"/>
       <c r="H686" s="30"/>
     </row>
     <row r="687">
-      <c r="A687" s="80"/>
+      <c r="A687" s="81"/>
       <c r="E687" s="30"/>
       <c r="G687" s="30"/>
       <c r="H687" s="30"/>
     </row>
     <row r="688">
-      <c r="A688" s="80"/>
+      <c r="A688" s="81"/>
       <c r="E688" s="30"/>
       <c r="G688" s="30"/>
       <c r="H688" s="30"/>
     </row>
     <row r="689">
-      <c r="A689" s="80"/>
+      <c r="A689" s="81"/>
       <c r="E689" s="30"/>
       <c r="G689" s="30"/>
       <c r="H689" s="30"/>
     </row>
     <row r="690">
-      <c r="A690" s="80"/>
+      <c r="A690" s="81"/>
       <c r="E690" s="30"/>
       <c r="G690" s="30"/>
       <c r="H690" s="30"/>
     </row>
     <row r="691">
-      <c r="A691" s="80"/>
+      <c r="A691" s="81"/>
       <c r="E691" s="30"/>
       <c r="G691" s="30"/>
       <c r="H691" s="30"/>
     </row>
     <row r="692">
-      <c r="A692" s="80"/>
+      <c r="A692" s="81"/>
       <c r="E692" s="30"/>
       <c r="G692" s="30"/>
       <c r="H692" s="30"/>
     </row>
     <row r="693">
-      <c r="A693" s="80"/>
+      <c r="A693" s="81"/>
       <c r="E693" s="30"/>
       <c r="G693" s="30"/>
       <c r="H693" s="30"/>
     </row>
     <row r="694">
-      <c r="A694" s="80"/>
+      <c r="A694" s="81"/>
       <c r="E694" s="30"/>
       <c r="G694" s="30"/>
       <c r="H694" s="30"/>
     </row>
     <row r="695">
-      <c r="A695" s="80"/>
+      <c r="A695" s="81"/>
       <c r="E695" s="30"/>
       <c r="G695" s="30"/>
       <c r="H695" s="30"/>
     </row>
     <row r="696">
-      <c r="A696" s="80"/>
+      <c r="A696" s="81"/>
       <c r="E696" s="30"/>
       <c r="G696" s="30"/>
       <c r="H696" s="30"/>
     </row>
     <row r="697">
-      <c r="A697" s="80"/>
+      <c r="A697" s="81"/>
       <c r="E697" s="30"/>
       <c r="G697" s="30"/>
       <c r="H697" s="30"/>
     </row>
     <row r="698">
-      <c r="A698" s="80"/>
+      <c r="A698" s="81"/>
       <c r="E698" s="30"/>
       <c r="G698" s="30"/>
       <c r="H698" s="30"/>
     </row>
     <row r="699">
-      <c r="A699" s="80"/>
+      <c r="A699" s="81"/>
       <c r="E699" s="30"/>
       <c r="G699" s="30"/>
       <c r="H699" s="30"/>
     </row>
     <row r="700">
-      <c r="A700" s="80"/>
+      <c r="A700" s="81"/>
       <c r="E700" s="30"/>
       <c r="G700" s="30"/>
       <c r="H700" s="30"/>
     </row>
     <row r="701">
-      <c r="A701" s="80"/>
+      <c r="A701" s="81"/>
       <c r="E701" s="30"/>
       <c r="G701" s="30"/>
       <c r="H701" s="30"/>
     </row>
     <row r="702">
-      <c r="A702" s="80"/>
+      <c r="A702" s="81"/>
       <c r="E702" s="30"/>
       <c r="G702" s="30"/>
       <c r="H702" s="30"/>
     </row>
     <row r="703">
-      <c r="A703" s="80"/>
+      <c r="A703" s="81"/>
       <c r="E703" s="30"/>
       <c r="G703" s="30"/>
       <c r="H703" s="30"/>
     </row>
     <row r="704">
-      <c r="A704" s="80"/>
+      <c r="A704" s="81"/>
       <c r="E704" s="30"/>
       <c r="G704" s="30"/>
       <c r="H704" s="30"/>
     </row>
     <row r="705">
-      <c r="A705" s="80"/>
+      <c r="A705" s="81"/>
       <c r="E705" s="30"/>
       <c r="G705" s="30"/>
       <c r="H705" s="30"/>
     </row>
     <row r="706">
-      <c r="A706" s="80"/>
+      <c r="A706" s="81"/>
       <c r="E706" s="30"/>
       <c r="G706" s="30"/>
       <c r="H706" s="30"/>
     </row>
     <row r="707">
-      <c r="A707" s="80"/>
+      <c r="A707" s="81"/>
       <c r="E707" s="30"/>
       <c r="G707" s="30"/>
       <c r="H707" s="30"/>
     </row>
     <row r="708">
-      <c r="A708" s="80"/>
+      <c r="A708" s="81"/>
       <c r="E708" s="30"/>
       <c r="G708" s="30"/>
       <c r="H708" s="30"/>
     </row>
     <row r="709">
-      <c r="A709" s="80"/>
+      <c r="A709" s="81"/>
       <c r="E709" s="30"/>
       <c r="G709" s="30"/>
       <c r="H709" s="30"/>
     </row>
     <row r="710">
-      <c r="A710" s="80"/>
+      <c r="A710" s="81"/>
       <c r="E710" s="30"/>
       <c r="G710" s="30"/>
       <c r="H710" s="30"/>
     </row>
     <row r="711">
-      <c r="A711" s="80"/>
+      <c r="A711" s="81"/>
       <c r="E711" s="30"/>
       <c r="G711" s="30"/>
       <c r="H711" s="30"/>
     </row>
     <row r="712">
-      <c r="A712" s="80"/>
+      <c r="A712" s="81"/>
       <c r="E712" s="30"/>
       <c r="G712" s="30"/>
       <c r="H712" s="30"/>
     </row>
     <row r="713">
-      <c r="A713" s="80"/>
+      <c r="A713" s="81"/>
       <c r="E713" s="30"/>
       <c r="G713" s="30"/>
       <c r="H713" s="30"/>
     </row>
     <row r="714">
-      <c r="A714" s="80"/>
+      <c r="A714" s="81"/>
       <c r="E714" s="30"/>
       <c r="G714" s="30"/>
       <c r="H714" s="30"/>
     </row>
     <row r="715">
-      <c r="A715" s="80"/>
+      <c r="A715" s="81"/>
       <c r="E715" s="30"/>
       <c r="G715" s="30"/>
       <c r="H715" s="30"/>
     </row>
     <row r="716">
-      <c r="A716" s="80"/>
+      <c r="A716" s="81"/>
       <c r="E716" s="30"/>
       <c r="G716" s="30"/>
       <c r="H716" s="30"/>
     </row>
     <row r="717">
-      <c r="A717" s="80"/>
+      <c r="A717" s="81"/>
       <c r="E717" s="30"/>
       <c r="G717" s="30"/>
       <c r="H717" s="30"/>
     </row>
     <row r="718">
-      <c r="A718" s="80"/>
+      <c r="A718" s="81"/>
       <c r="E718" s="30"/>
       <c r="G718" s="30"/>
       <c r="H718" s="30"/>
     </row>
     <row r="719">
-      <c r="A719" s="80"/>
+      <c r="A719" s="81"/>
       <c r="E719" s="30"/>
       <c r="G719" s="30"/>
       <c r="H719" s="30"/>
     </row>
     <row r="720">
-      <c r="A720" s="80"/>
+      <c r="A720" s="81"/>
       <c r="E720" s="30"/>
       <c r="G720" s="30"/>
       <c r="H720" s="30"/>
     </row>
     <row r="721">
-      <c r="A721" s="80"/>
+      <c r="A721" s="81"/>
       <c r="E721" s="30"/>
       <c r="G721" s="30"/>
       <c r="H721" s="30"/>
     </row>
     <row r="722">
-      <c r="A722" s="80"/>
+      <c r="A722" s="81"/>
       <c r="E722" s="30"/>
       <c r="G722" s="30"/>
       <c r="H722" s="30"/>
     </row>
     <row r="723">
-      <c r="A723" s="80"/>
+      <c r="A723" s="81"/>
       <c r="E723" s="30"/>
       <c r="G723" s="30"/>
       <c r="H723" s="30"/>
     </row>
     <row r="724">
-      <c r="A724" s="80"/>
+      <c r="A724" s="81"/>
       <c r="E724" s="30"/>
       <c r="G724" s="30"/>
       <c r="H724" s="30"/>
     </row>
     <row r="725">
-      <c r="A725" s="80"/>
+      <c r="A725" s="81"/>
       <c r="E725" s="30"/>
       <c r="G725" s="30"/>
       <c r="H725" s="30"/>
     </row>
     <row r="726">
-      <c r="A726" s="80"/>
+      <c r="A726" s="81"/>
       <c r="E726" s="30"/>
       <c r="G726" s="30"/>
       <c r="H726" s="30"/>
     </row>
     <row r="727">
-      <c r="A727" s="80"/>
+      <c r="A727" s="81"/>
       <c r="E727" s="30"/>
       <c r="G727" s="30"/>
       <c r="H727" s="30"/>
     </row>
     <row r="728">
-      <c r="A728" s="80"/>
+      <c r="A728" s="81"/>
       <c r="E728" s="30"/>
       <c r="G728" s="30"/>
       <c r="H728" s="30"/>
     </row>
     <row r="729">
-      <c r="A729" s="80"/>
+      <c r="A729" s="81"/>
       <c r="E729" s="30"/>
       <c r="G729" s="30"/>
       <c r="H729" s="30"/>
     </row>
     <row r="730">
-      <c r="A730" s="80"/>
+      <c r="A730" s="81"/>
       <c r="E730" s="30"/>
       <c r="G730" s="30"/>
       <c r="H730" s="30"/>
     </row>
     <row r="731">
-      <c r="A731" s="80"/>
+      <c r="A731" s="81"/>
       <c r="E731" s="30"/>
       <c r="G731" s="30"/>
       <c r="H731" s="30"/>
     </row>
     <row r="732">
-      <c r="A732" s="80"/>
+      <c r="A732" s="81"/>
       <c r="E732" s="30"/>
       <c r="G732" s="30"/>
       <c r="H732" s="30"/>
     </row>
     <row r="733">
-      <c r="A733" s="80"/>
+      <c r="A733" s="81"/>
       <c r="E733" s="30"/>
       <c r="G733" s="30"/>
       <c r="H733" s="30"/>
     </row>
     <row r="734">
-      <c r="A734" s="80"/>
+      <c r="A734" s="81"/>
       <c r="E734" s="30"/>
       <c r="G734" s="30"/>
       <c r="H734" s="30"/>
     </row>
     <row r="735">
-      <c r="A735" s="80"/>
+      <c r="A735" s="81"/>
       <c r="E735" s="30"/>
       <c r="G735" s="30"/>
       <c r="H735" s="30"/>
     </row>
     <row r="736">
-      <c r="A736" s="80"/>
+      <c r="A736" s="81"/>
       <c r="E736" s="30"/>
       <c r="G736" s="30"/>
       <c r="H736" s="30"/>
     </row>
     <row r="737">
-      <c r="A737" s="80"/>
+      <c r="A737" s="81"/>
       <c r="E737" s="30"/>
       <c r="G737" s="30"/>
       <c r="H737" s="30"/>
     </row>
     <row r="738">
-      <c r="A738" s="80"/>
+      <c r="A738" s="81"/>
       <c r="E738" s="30"/>
       <c r="G738" s="30"/>
       <c r="H738" s="30"/>
     </row>
     <row r="739">
-      <c r="A739" s="80"/>
+      <c r="A739" s="81"/>
       <c r="E739" s="30"/>
       <c r="G739" s="30"/>
       <c r="H739" s="30"/>
     </row>
     <row r="740">
-      <c r="A740" s="80"/>
+      <c r="A740" s="81"/>
       <c r="E740" s="30"/>
       <c r="G740" s="30"/>
       <c r="H740" s="30"/>
     </row>
     <row r="741">
-      <c r="A741" s="80"/>
+      <c r="A741" s="81"/>
       <c r="E741" s="30"/>
       <c r="G741" s="30"/>
       <c r="H741" s="30"/>
     </row>
     <row r="742">
-      <c r="A742" s="80"/>
+      <c r="A742" s="81"/>
       <c r="E742" s="30"/>
       <c r="G742" s="30"/>
       <c r="H742" s="30"/>
     </row>
     <row r="743">
-      <c r="A743" s="80"/>
+      <c r="A743" s="81"/>
       <c r="E743" s="30"/>
       <c r="G743" s="30"/>
       <c r="H743" s="30"/>
     </row>
     <row r="744">
-      <c r="A744" s="80"/>
+      <c r="A744" s="81"/>
       <c r="E744" s="30"/>
       <c r="G744" s="30"/>
       <c r="H744" s="30"/>
     </row>
     <row r="745">
-      <c r="A745" s="80"/>
+      <c r="A745" s="81"/>
       <c r="E745" s="30"/>
       <c r="G745" s="30"/>
       <c r="H745" s="30"/>
     </row>
     <row r="746">
-      <c r="A746" s="80"/>
+      <c r="A746" s="81"/>
       <c r="E746" s="30"/>
       <c r="G746" s="30"/>
       <c r="H746" s="30"/>
     </row>
     <row r="747">
-      <c r="A747" s="80"/>
+      <c r="A747" s="81"/>
       <c r="E747" s="30"/>
       <c r="G747" s="30"/>
       <c r="H747" s="30"/>
     </row>
     <row r="748">
-      <c r="A748" s="80"/>
+      <c r="A748" s="81"/>
       <c r="E748" s="30"/>
       <c r="G748" s="30"/>
       <c r="H748" s="30"/>
     </row>
     <row r="749">
-      <c r="A749" s="80"/>
+      <c r="A749" s="81"/>
       <c r="E749" s="30"/>
       <c r="G749" s="30"/>
       <c r="H749" s="30"/>
     </row>
     <row r="750">
-      <c r="A750" s="80"/>
+      <c r="A750" s="81"/>
       <c r="E750" s="30"/>
       <c r="G750" s="30"/>
       <c r="H750" s="30"/>
     </row>
     <row r="751">
-      <c r="A751" s="80"/>
+      <c r="A751" s="81"/>
       <c r="E751" s="30"/>
       <c r="G751" s="30"/>
       <c r="H751" s="30"/>
     </row>
     <row r="752">
-      <c r="A752" s="80"/>
+      <c r="A752" s="81"/>
       <c r="E752" s="30"/>
       <c r="G752" s="30"/>
       <c r="H752" s="30"/>
     </row>
     <row r="753">
-      <c r="A753" s="80"/>
+      <c r="A753" s="81"/>
       <c r="E753" s="30"/>
       <c r="G753" s="30"/>
       <c r="H753" s="30"/>
     </row>
     <row r="754">
-      <c r="A754" s="80"/>
+      <c r="A754" s="81"/>
       <c r="E754" s="30"/>
       <c r="G754" s="30"/>
       <c r="H754" s="30"/>
     </row>
     <row r="755">
-      <c r="A755" s="80"/>
+      <c r="A755" s="81"/>
       <c r="E755" s="30"/>
       <c r="G755" s="30"/>
       <c r="H755" s="30"/>
     </row>
     <row r="756">
-      <c r="A756" s="80"/>
+      <c r="A756" s="81"/>
       <c r="E756" s="30"/>
       <c r="G756" s="30"/>
       <c r="H756" s="30"/>
     </row>
     <row r="757">
-      <c r="A757" s="80"/>
+      <c r="A757" s="81"/>
       <c r="E757" s="30"/>
       <c r="G757" s="30"/>
       <c r="H757" s="30"/>
     </row>
     <row r="758">
-      <c r="A758" s="80"/>
+      <c r="A758" s="81"/>
       <c r="E758" s="30"/>
       <c r="G758" s="30"/>
       <c r="H758" s="30"/>
     </row>
     <row r="759">
-      <c r="A759" s="80"/>
+      <c r="A759" s="81"/>
       <c r="E759" s="30"/>
       <c r="G759" s="30"/>
       <c r="H759" s="30"/>
     </row>
     <row r="760">
-      <c r="A760" s="80"/>
+      <c r="A760" s="81"/>
       <c r="E760" s="30"/>
       <c r="G760" s="30"/>
       <c r="H760" s="30"/>
     </row>
     <row r="761">
-      <c r="A761" s="80"/>
+      <c r="A761" s="81"/>
       <c r="E761" s="30"/>
       <c r="G761" s="30"/>
       <c r="H761" s="30"/>
     </row>
     <row r="762">
-      <c r="A762" s="80"/>
+      <c r="A762" s="81"/>
       <c r="E762" s="30"/>
       <c r="G762" s="30"/>
       <c r="H762" s="30"/>
     </row>
     <row r="763">
-      <c r="A763" s="80"/>
+      <c r="A763" s="81"/>
       <c r="E763" s="30"/>
       <c r="G763" s="30"/>
       <c r="H763" s="30"/>
     </row>
     <row r="764">
-      <c r="A764" s="80"/>
+      <c r="A764" s="81"/>
       <c r="E764" s="30"/>
       <c r="G764" s="30"/>
       <c r="H764" s="30"/>
     </row>
     <row r="765">
-      <c r="A765" s="80"/>
+      <c r="A765" s="81"/>
       <c r="E765" s="30"/>
       <c r="G765" s="30"/>
       <c r="H765" s="30"/>
     </row>
     <row r="766">
-      <c r="A766" s="80"/>
+      <c r="A766" s="81"/>
       <c r="E766" s="30"/>
       <c r="G766" s="30"/>
       <c r="H766" s="30"/>
     </row>
     <row r="767">
-      <c r="A767" s="80"/>
+      <c r="A767" s="81"/>
       <c r="E767" s="30"/>
       <c r="G767" s="30"/>
       <c r="H767" s="30"/>
     </row>
     <row r="768">
-      <c r="A768" s="80"/>
+      <c r="A768" s="81"/>
       <c r="E768" s="30"/>
       <c r="G768" s="30"/>
       <c r="H768" s="30"/>
     </row>
     <row r="769">
-      <c r="A769" s="80"/>
+      <c r="A769" s="81"/>
       <c r="E769" s="30"/>
       <c r="G769" s="30"/>
       <c r="H769" s="30"/>
     </row>
     <row r="770">
-      <c r="A770" s="80"/>
+      <c r="A770" s="81"/>
       <c r="E770" s="30"/>
       <c r="G770" s="30"/>
       <c r="H770" s="30"/>
     </row>
     <row r="771">
-      <c r="A771" s="80"/>
+      <c r="A771" s="81"/>
       <c r="E771" s="30"/>
       <c r="G771" s="30"/>
       <c r="H771" s="30"/>
     </row>
     <row r="772">
-      <c r="A772" s="80"/>
+      <c r="A772" s="81"/>
       <c r="E772" s="30"/>
       <c r="G772" s="30"/>
       <c r="H772" s="30"/>
     </row>
     <row r="773">
-      <c r="A773" s="80"/>
+      <c r="A773" s="81"/>
       <c r="E773" s="30"/>
       <c r="G773" s="30"/>
       <c r="H773" s="30"/>
     </row>
     <row r="774">
-      <c r="A774" s="80"/>
+      <c r="A774" s="81"/>
       <c r="E774" s="30"/>
       <c r="G774" s="30"/>
       <c r="H774" s="30"/>
     </row>
     <row r="775">
-      <c r="A775" s="80"/>
+      <c r="A775" s="81"/>
       <c r="E775" s="30"/>
       <c r="G775" s="30"/>
       <c r="H775" s="30"/>
     </row>
     <row r="776">
-      <c r="A776" s="80"/>
+      <c r="A776" s="81"/>
       <c r="E776" s="30"/>
       <c r="G776" s="30"/>
       <c r="H776" s="30"/>
     </row>
     <row r="777">
-      <c r="A777" s="80"/>
+      <c r="A777" s="81"/>
       <c r="E777" s="30"/>
       <c r="G777" s="30"/>
       <c r="H777" s="30"/>
     </row>
     <row r="778">
-      <c r="A778" s="80"/>
+      <c r="A778" s="81"/>
       <c r="E778" s="30"/>
       <c r="G778" s="30"/>
       <c r="H778" s="30"/>
     </row>
     <row r="779">
-      <c r="A779" s="80"/>
+      <c r="A779" s="81"/>
       <c r="E779" s="30"/>
       <c r="G779" s="30"/>
       <c r="H779" s="30"/>
     </row>
     <row r="780">
-      <c r="A780" s="80"/>
+      <c r="A780" s="81"/>
       <c r="E780" s="30"/>
       <c r="G780" s="30"/>
       <c r="H780" s="30"/>
     </row>
     <row r="781">
-      <c r="A781" s="80"/>
+      <c r="A781" s="81"/>
       <c r="E781" s="30"/>
       <c r="G781" s="30"/>
       <c r="H781" s="30"/>
     </row>
     <row r="782">
-      <c r="A782" s="80"/>
+      <c r="A782" s="81"/>
       <c r="E782" s="30"/>
       <c r="G782" s="30"/>
       <c r="H782" s="30"/>
     </row>
     <row r="783">
-      <c r="A783" s="80"/>
+      <c r="A783" s="81"/>
       <c r="E783" s="30"/>
       <c r="G783" s="30"/>
       <c r="H783" s="30"/>
     </row>
     <row r="784">
-      <c r="A784" s="80"/>
+      <c r="A784" s="81"/>
       <c r="E784" s="30"/>
       <c r="G784" s="30"/>
       <c r="H784" s="30"/>
     </row>
     <row r="785">
-      <c r="A785" s="80"/>
+      <c r="A785" s="81"/>
       <c r="E785" s="30"/>
       <c r="G785" s="30"/>
       <c r="H785" s="30"/>
     </row>
     <row r="786">
-      <c r="A786" s="80"/>
+      <c r="A786" s="81"/>
       <c r="E786" s="30"/>
       <c r="G786" s="30"/>
       <c r="H786" s="30"/>
     </row>
     <row r="787">
-      <c r="A787" s="80"/>
+      <c r="A787" s="81"/>
       <c r="E787" s="30"/>
       <c r="G787" s="30"/>
       <c r="H787" s="30"/>
     </row>
     <row r="788">
-      <c r="A788" s="80"/>
+      <c r="A788" s="81"/>
       <c r="E788" s="30"/>
       <c r="G788" s="30"/>
       <c r="H788" s="30"/>
     </row>
     <row r="789">
-      <c r="A789" s="80"/>
+      <c r="A789" s="81"/>
       <c r="E789" s="30"/>
       <c r="G789" s="30"/>
       <c r="H789" s="30"/>
     </row>
     <row r="790">
-      <c r="A790" s="80"/>
+      <c r="A790" s="81"/>
       <c r="E790" s="30"/>
       <c r="G790" s="30"/>
       <c r="H790" s="30"/>
     </row>
     <row r="791">
-      <c r="A791" s="80"/>
+      <c r="A791" s="81"/>
       <c r="E791" s="30"/>
       <c r="G791" s="30"/>
       <c r="H791" s="30"/>
     </row>
     <row r="792">
-      <c r="A792" s="80"/>
+      <c r="A792" s="81"/>
       <c r="E792" s="30"/>
       <c r="G792" s="30"/>
       <c r="H792" s="30"/>
     </row>
     <row r="793">
-      <c r="A793" s="80"/>
+      <c r="A793" s="81"/>
       <c r="E793" s="30"/>
       <c r="G793" s="30"/>
       <c r="H793" s="30"/>
     </row>
     <row r="794">
-      <c r="A794" s="80"/>
+      <c r="A794" s="81"/>
       <c r="E794" s="30"/>
       <c r="G794" s="30"/>
       <c r="H794" s="30"/>
     </row>
     <row r="795">
-      <c r="A795" s="80"/>
+      <c r="A795" s="81"/>
       <c r="E795" s="30"/>
       <c r="G795" s="30"/>
       <c r="H795" s="30"/>
     </row>
     <row r="796">
-      <c r="A796" s="80"/>
+      <c r="A796" s="81"/>
       <c r="E796" s="30"/>
       <c r="G796" s="30"/>
       <c r="H796" s="30"/>
     </row>
     <row r="797">
-      <c r="A797" s="80"/>
+      <c r="A797" s="81"/>
       <c r="E797" s="30"/>
       <c r="G797" s="30"/>
       <c r="H797" s="30"/>
     </row>
     <row r="798">
-      <c r="A798" s="80"/>
+      <c r="A798" s="81"/>
       <c r="E798" s="30"/>
       <c r="G798" s="30"/>
       <c r="H798" s="30"/>
     </row>
     <row r="799">
-      <c r="A799" s="80"/>
+      <c r="A799" s="81"/>
       <c r="E799" s="30"/>
       <c r="G799" s="30"/>
       <c r="H799" s="30"/>
     </row>
     <row r="800">
-      <c r="A800" s="80"/>
+      <c r="A800" s="81"/>
       <c r="E800" s="30"/>
       <c r="G800" s="30"/>
       <c r="H800" s="30"/>
     </row>
     <row r="801">
-      <c r="A801" s="80"/>
+      <c r="A801" s="81"/>
       <c r="E801" s="30"/>
       <c r="G801" s="30"/>
       <c r="H801" s="30"/>
     </row>
     <row r="802">
-      <c r="A802" s="80"/>
+      <c r="A802" s="81"/>
       <c r="E802" s="30"/>
       <c r="G802" s="30"/>
       <c r="H802" s="30"/>
     </row>
     <row r="803">
-      <c r="A803" s="80"/>
+      <c r="A803" s="81"/>
       <c r="E803" s="30"/>
       <c r="G803" s="30"/>
       <c r="H803" s="30"/>
     </row>
     <row r="804">
-      <c r="A804" s="80"/>
+      <c r="A804" s="81"/>
       <c r="E804" s="30"/>
       <c r="G804" s="30"/>
       <c r="H804" s="30"/>
     </row>
     <row r="805">
-      <c r="A805" s="80"/>
+      <c r="A805" s="81"/>
       <c r="E805" s="30"/>
       <c r="G805" s="30"/>
       <c r="H805" s="30"/>
     </row>
     <row r="806">
-      <c r="A806" s="80"/>
+      <c r="A806" s="81"/>
       <c r="E806" s="30"/>
       <c r="G806" s="30"/>
       <c r="H806" s="30"/>
     </row>
     <row r="807">
-      <c r="A807" s="80"/>
+      <c r="A807" s="81"/>
       <c r="E807" s="30"/>
       <c r="G807" s="30"/>
       <c r="H807" s="30"/>
     </row>
     <row r="808">
-      <c r="A808" s="80"/>
+      <c r="A808" s="81"/>
       <c r="E808" s="30"/>
       <c r="G808" s="30"/>
       <c r="H808" s="30"/>
     </row>
     <row r="809">
-      <c r="A809" s="80"/>
+      <c r="A809" s="81"/>
       <c r="E809" s="30"/>
       <c r="G809" s="30"/>
       <c r="H809" s="30"/>
     </row>
     <row r="810">
-      <c r="A810" s="80"/>
+      <c r="A810" s="81"/>
       <c r="E810" s="30"/>
       <c r="G810" s="30"/>
       <c r="H810" s="30"/>
     </row>
     <row r="811">
-      <c r="A811" s="80"/>
+      <c r="A811" s="81"/>
       <c r="E811" s="30"/>
       <c r="G811" s="30"/>
       <c r="H811" s="30"/>
     </row>
     <row r="812">
-      <c r="A812" s="80"/>
+      <c r="A812" s="81"/>
       <c r="E812" s="30"/>
       <c r="G812" s="30"/>
       <c r="H812" s="30"/>
     </row>
     <row r="813">
-      <c r="A813" s="80"/>
+      <c r="A813" s="81"/>
       <c r="E813" s="30"/>
       <c r="G813" s="30"/>
       <c r="H813" s="30"/>
     </row>
     <row r="814">
-      <c r="A814" s="80"/>
+      <c r="A814" s="81"/>
       <c r="E814" s="30"/>
       <c r="G814" s="30"/>
       <c r="H814" s="30"/>
     </row>
     <row r="815">
-      <c r="A815" s="80"/>
+      <c r="A815" s="81"/>
       <c r="E815" s="30"/>
       <c r="G815" s="30"/>
       <c r="H815" s="30"/>
     </row>
     <row r="816">
-      <c r="A816" s="80"/>
+      <c r="A816" s="81"/>
       <c r="E816" s="30"/>
       <c r="G816" s="30"/>
       <c r="H816" s="30"/>
     </row>
     <row r="817">
-      <c r="A817" s="80"/>
+      <c r="A817" s="81"/>
       <c r="E817" s="30"/>
       <c r="G817" s="30"/>
       <c r="H817" s="30"/>
     </row>
     <row r="818">
-      <c r="A818" s="80"/>
+      <c r="A818" s="81"/>
       <c r="E818" s="30"/>
       <c r="G818" s="30"/>
       <c r="H818" s="30"/>
     </row>
     <row r="819">
-      <c r="A819" s="80"/>
+      <c r="A819" s="81"/>
       <c r="E819" s="30"/>
       <c r="G819" s="30"/>
       <c r="H819" s="30"/>
     </row>
     <row r="820">
-      <c r="A820" s="80"/>
+      <c r="A820" s="81"/>
       <c r="E820" s="30"/>
       <c r="G820" s="30"/>
       <c r="H820" s="30"/>
     </row>
     <row r="821">
-      <c r="A821" s="80"/>
+      <c r="A821" s="81"/>
       <c r="E821" s="30"/>
       <c r="G821" s="30"/>
       <c r="H821" s="30"/>
     </row>
     <row r="822">
-      <c r="A822" s="80"/>
+      <c r="A822" s="81"/>
       <c r="E822" s="30"/>
       <c r="G822" s="30"/>
       <c r="H822" s="30"/>
     </row>
     <row r="823">
-      <c r="A823" s="80"/>
+      <c r="A823" s="81"/>
       <c r="E823" s="30"/>
       <c r="G823" s="30"/>
       <c r="H823" s="30"/>
     </row>
     <row r="824">
-      <c r="A824" s="80"/>
+      <c r="A824" s="81"/>
       <c r="E824" s="30"/>
       <c r="G824" s="30"/>
       <c r="H824" s="30"/>
     </row>
     <row r="825">
-      <c r="A825" s="80"/>
+      <c r="A825" s="81"/>
       <c r="E825" s="30"/>
       <c r="G825" s="30"/>
       <c r="H825" s="30"/>
     </row>
     <row r="826">
-      <c r="A826" s="80"/>
+      <c r="A826" s="81"/>
       <c r="E826" s="30"/>
       <c r="G826" s="30"/>
       <c r="H826" s="30"/>
     </row>
     <row r="827">
-      <c r="A827" s="80"/>
+      <c r="A827" s="81"/>
       <c r="E827" s="30"/>
       <c r="G827" s="30"/>
       <c r="H827" s="30"/>
     </row>
     <row r="828">
-      <c r="A828" s="80"/>
+      <c r="A828" s="81"/>
       <c r="E828" s="30"/>
       <c r="G828" s="30"/>
       <c r="H828" s="30"/>
     </row>
     <row r="829">
-      <c r="A829" s="80"/>
+      <c r="A829" s="81"/>
       <c r="E829" s="30"/>
       <c r="G829" s="30"/>
       <c r="H829" s="30"/>
     </row>
     <row r="830">
-      <c r="A830" s="80"/>
+      <c r="A830" s="81"/>
       <c r="E830" s="30"/>
       <c r="G830" s="30"/>
       <c r="H830" s="30"/>
     </row>
     <row r="831">
-      <c r="A831" s="80"/>
+      <c r="A831" s="81"/>
       <c r="E831" s="30"/>
       <c r="G831" s="30"/>
       <c r="H831" s="30"/>
     </row>
     <row r="832">
-      <c r="A832" s="80"/>
+      <c r="A832" s="81"/>
       <c r="E832" s="30"/>
       <c r="G832" s="30"/>
       <c r="H832" s="30"/>
     </row>
     <row r="833">
-      <c r="A833" s="80"/>
+      <c r="A833" s="81"/>
       <c r="E833" s="30"/>
       <c r="G833" s="30"/>
       <c r="H833" s="30"/>
     </row>
     <row r="834">
-      <c r="A834" s="80"/>
+      <c r="A834" s="81"/>
       <c r="E834" s="30"/>
       <c r="G834" s="30"/>
       <c r="H834" s="30"/>
     </row>
     <row r="835">
-      <c r="A835" s="80"/>
+      <c r="A835" s="81"/>
       <c r="E835" s="30"/>
       <c r="G835" s="30"/>
       <c r="H835" s="30"/>
     </row>
     <row r="836">
-      <c r="A836" s="80"/>
+      <c r="A836" s="81"/>
       <c r="E836" s="30"/>
       <c r="G836" s="30"/>
       <c r="H836" s="30"/>
     </row>
     <row r="837">
-      <c r="A837" s="80"/>
+      <c r="A837" s="81"/>
       <c r="E837" s="30"/>
       <c r="G837" s="30"/>
       <c r="H837" s="30"/>
     </row>
     <row r="838">
-      <c r="A838" s="80"/>
+      <c r="A838" s="81"/>
       <c r="E838" s="30"/>
       <c r="G838" s="30"/>
       <c r="H838" s="30"/>
     </row>
     <row r="839">
-      <c r="A839" s="80"/>
+      <c r="A839" s="81"/>
       <c r="E839" s="30"/>
       <c r="G839" s="30"/>
       <c r="H839" s="30"/>
     </row>
     <row r="840">
-      <c r="A840" s="80"/>
+      <c r="A840" s="81"/>
       <c r="E840" s="30"/>
       <c r="G840" s="30"/>
       <c r="H840" s="30"/>
     </row>
     <row r="841">
-      <c r="A841" s="80"/>
+      <c r="A841" s="81"/>
       <c r="E841" s="30"/>
       <c r="G841" s="30"/>
       <c r="H841" s="30"/>
     </row>
     <row r="842">
-      <c r="A842" s="80"/>
+      <c r="A842" s="81"/>
       <c r="E842" s="30"/>
       <c r="G842" s="30"/>
       <c r="H842" s="30"/>
     </row>
     <row r="843">
-      <c r="A843" s="80"/>
+      <c r="A843" s="81"/>
       <c r="E843" s="30"/>
       <c r="G843" s="30"/>
       <c r="H843" s="30"/>
     </row>
     <row r="844">
-      <c r="A844" s="80"/>
+      <c r="A844" s="81"/>
       <c r="E844" s="30"/>
       <c r="G844" s="30"/>
       <c r="H844" s="30"/>
     </row>
     <row r="845">
-      <c r="A845" s="80"/>
+      <c r="A845" s="81"/>
       <c r="E845" s="30"/>
       <c r="G845" s="30"/>
       <c r="H845" s="30"/>
     </row>
     <row r="846">
-      <c r="A846" s="80"/>
+      <c r="A846" s="81"/>
       <c r="E846" s="30"/>
       <c r="G846" s="30"/>
       <c r="H846" s="30"/>
     </row>
     <row r="847">
-      <c r="A847" s="80"/>
+      <c r="A847" s="81"/>
       <c r="E847" s="30"/>
       <c r="G847" s="30"/>
       <c r="H847" s="30"/>
     </row>
     <row r="848">
-      <c r="A848" s="80"/>
+      <c r="A848" s="81"/>
       <c r="E848" s="30"/>
       <c r="G848" s="30"/>
       <c r="H848" s="30"/>
     </row>
     <row r="849">
-      <c r="A849" s="80"/>
+      <c r="A849" s="81"/>
       <c r="E849" s="30"/>
       <c r="G849" s="30"/>
       <c r="H849" s="30"/>
     </row>
     <row r="850">
-      <c r="A850" s="80"/>
+      <c r="A850" s="81"/>
       <c r="E850" s="30"/>
       <c r="G850" s="30"/>
       <c r="H850" s="30"/>
     </row>
     <row r="851">
-      <c r="A851" s="80"/>
+      <c r="A851" s="81"/>
       <c r="E851" s="30"/>
       <c r="G851" s="30"/>
       <c r="H851" s="30"/>
     </row>
     <row r="852">
-      <c r="A852" s="80"/>
+      <c r="A852" s="81"/>
       <c r="E852" s="30"/>
       <c r="G852" s="30"/>
       <c r="H852" s="30"/>
     </row>
     <row r="853">
-      <c r="A853" s="80"/>
+      <c r="A853" s="81"/>
       <c r="E853" s="30"/>
       <c r="G853" s="30"/>
       <c r="H853" s="30"/>
     </row>
     <row r="854">
-      <c r="A854" s="80"/>
+      <c r="A854" s="81"/>
       <c r="E854" s="30"/>
       <c r="G854" s="30"/>
       <c r="H854" s="30"/>
     </row>
     <row r="855">
-      <c r="A855" s="80"/>
+      <c r="A855" s="81"/>
       <c r="E855" s="30"/>
       <c r="G855" s="30"/>
       <c r="H855" s="30"/>
     </row>
     <row r="856">
-      <c r="A856" s="80"/>
+      <c r="A856" s="81"/>
       <c r="E856" s="30"/>
       <c r="G856" s="30"/>
       <c r="H856" s="30"/>
     </row>
     <row r="857">
-      <c r="A857" s="80"/>
+      <c r="A857" s="81"/>
       <c r="E857" s="30"/>
       <c r="G857" s="30"/>
       <c r="H857" s="30"/>
     </row>
     <row r="858">
-      <c r="A858" s="80"/>
+      <c r="A858" s="81"/>
       <c r="E858" s="30"/>
       <c r="G858" s="30"/>
       <c r="H858" s="30"/>
     </row>
     <row r="859">
-      <c r="A859" s="80"/>
+      <c r="A859" s="81"/>
       <c r="E859" s="30"/>
       <c r="G859" s="30"/>
       <c r="H859" s="30"/>
     </row>
     <row r="860">
-      <c r="A860" s="80"/>
+      <c r="A860" s="81"/>
       <c r="E860" s="30"/>
       <c r="G860" s="30"/>
       <c r="H860" s="30"/>
     </row>
     <row r="861">
-      <c r="A861" s="80"/>
+      <c r="A861" s="81"/>
       <c r="E861" s="30"/>
       <c r="G861" s="30"/>
       <c r="H861" s="30"/>
     </row>
     <row r="862">
-      <c r="A862" s="80"/>
+      <c r="A862" s="81"/>
       <c r="E862" s="30"/>
       <c r="G862" s="30"/>
       <c r="H862" s="30"/>
     </row>
     <row r="863">
-      <c r="A863" s="80"/>
+      <c r="A863" s="81"/>
       <c r="E863" s="30"/>
       <c r="G863" s="30"/>
       <c r="H863" s="30"/>
     </row>
     <row r="864">
-      <c r="A864" s="80"/>
+      <c r="A864" s="81"/>
       <c r="E864" s="30"/>
       <c r="G864" s="30"/>
       <c r="H864" s="30"/>
     </row>
     <row r="865">
-      <c r="A865" s="80"/>
+      <c r="A865" s="81"/>
       <c r="E865" s="30"/>
       <c r="G865" s="30"/>
       <c r="H865" s="30"/>
     </row>
     <row r="866">
-      <c r="A866" s="80"/>
+      <c r="A866" s="81"/>
       <c r="E866" s="30"/>
       <c r="G866" s="30"/>
       <c r="H866" s="30"/>
     </row>
     <row r="867">
-      <c r="A867" s="80"/>
+      <c r="A867" s="81"/>
       <c r="E867" s="30"/>
       <c r="G867" s="30"/>
       <c r="H867" s="30"/>
     </row>
     <row r="868">
-      <c r="A868" s="80"/>
+      <c r="A868" s="81"/>
       <c r="E868" s="30"/>
       <c r="G868" s="30"/>
       <c r="H868" s="30"/>
     </row>
     <row r="869">
-      <c r="A869" s="80"/>
+      <c r="A869" s="81"/>
       <c r="E869" s="30"/>
       <c r="G869" s="30"/>
       <c r="H869" s="30"/>
     </row>
     <row r="870">
-      <c r="A870" s="80"/>
+      <c r="A870" s="81"/>
       <c r="E870" s="30"/>
       <c r="G870" s="30"/>
       <c r="H870" s="30"/>
     </row>
     <row r="871">
-      <c r="A871" s="80"/>
+      <c r="A871" s="81"/>
       <c r="E871" s="30"/>
       <c r="G871" s="30"/>
       <c r="H871" s="30"/>
     </row>
     <row r="872">
-      <c r="A872" s="80"/>
+      <c r="A872" s="81"/>
       <c r="E872" s="30"/>
       <c r="G872" s="30"/>
       <c r="H872" s="30"/>
     </row>
     <row r="873">
-      <c r="A873" s="80"/>
+      <c r="A873" s="81"/>
       <c r="E873" s="30"/>
       <c r="G873" s="30"/>
       <c r="H873" s="30"/>
     </row>
     <row r="874">
-      <c r="A874" s="80"/>
+      <c r="A874" s="81"/>
       <c r="E874" s="30"/>
       <c r="G874" s="30"/>
       <c r="H874" s="30"/>
     </row>
     <row r="875">
-      <c r="A875" s="80"/>
+      <c r="A875" s="81"/>
       <c r="E875" s="30"/>
       <c r="G875" s="30"/>
       <c r="H875" s="30"/>
     </row>
     <row r="876">
-      <c r="A876" s="80"/>
+      <c r="A876" s="81"/>
       <c r="E876" s="30"/>
       <c r="G876" s="30"/>
       <c r="H876" s="30"/>
     </row>
     <row r="877">
-      <c r="A877" s="80"/>
+      <c r="A877" s="81"/>
       <c r="E877" s="30"/>
       <c r="G877" s="30"/>
       <c r="H877" s="30"/>
     </row>
     <row r="878">
-      <c r="A878" s="80"/>
+      <c r="A878" s="81"/>
       <c r="E878" s="30"/>
       <c r="G878" s="30"/>
       <c r="H878" s="30"/>
     </row>
     <row r="879">
-      <c r="A879" s="80"/>
+      <c r="A879" s="81"/>
       <c r="E879" s="30"/>
       <c r="G879" s="30"/>
       <c r="H879" s="30"/>
     </row>
     <row r="880">
-      <c r="A880" s="80"/>
+      <c r="A880" s="81"/>
       <c r="E880" s="30"/>
       <c r="G880" s="30"/>
       <c r="H880" s="30"/>
     </row>
     <row r="881">
-      <c r="A881" s="80"/>
+      <c r="A881" s="81"/>
       <c r="E881" s="30"/>
       <c r="G881" s="30"/>
       <c r="H881" s="30"/>
     </row>
     <row r="882">
-      <c r="A882" s="80"/>
+      <c r="A882" s="81"/>
       <c r="E882" s="30"/>
       <c r="G882" s="30"/>
       <c r="H882" s="30"/>
     </row>
     <row r="883">
-      <c r="A883" s="80"/>
+      <c r="A883" s="81"/>
       <c r="E883" s="30"/>
       <c r="G883" s="30"/>
       <c r="H883" s="30"/>
     </row>
     <row r="884">
-      <c r="A884" s="80"/>
+      <c r="A884" s="81"/>
       <c r="E884" s="30"/>
       <c r="G884" s="30"/>
       <c r="H884" s="30"/>
     </row>
     <row r="885">
-      <c r="A885" s="80"/>
+      <c r="A885" s="81"/>
       <c r="E885" s="30"/>
       <c r="G885" s="30"/>
       <c r="H885" s="30"/>
     </row>
     <row r="886">
-      <c r="A886" s="80"/>
+      <c r="A886" s="81"/>
       <c r="E886" s="30"/>
       <c r="G886" s="30"/>
       <c r="H886" s="30"/>
     </row>
     <row r="887">
-      <c r="A887" s="80"/>
+      <c r="A887" s="81"/>
       <c r="E887" s="30"/>
       <c r="G887" s="30"/>
       <c r="H887" s="30"/>
     </row>
     <row r="888">
-      <c r="A888" s="80"/>
+      <c r="A888" s="81"/>
       <c r="E888" s="30"/>
       <c r="G888" s="30"/>
       <c r="H888" s="30"/>
     </row>
     <row r="889">
-      <c r="A889" s="80"/>
+      <c r="A889" s="81"/>
       <c r="E889" s="30"/>
       <c r="G889" s="30"/>
       <c r="H889" s="30"/>
     </row>
     <row r="890">
-      <c r="A890" s="80"/>
+      <c r="A890" s="81"/>
       <c r="E890" s="30"/>
       <c r="G890" s="30"/>
       <c r="H890" s="30"/>
     </row>
     <row r="891">
-      <c r="A891" s="80"/>
+      <c r="A891" s="81"/>
       <c r="E891" s="30"/>
       <c r="G891" s="30"/>
       <c r="H891" s="30"/>
     </row>
     <row r="892">
-      <c r="A892" s="80"/>
+      <c r="A892" s="81"/>
       <c r="E892" s="30"/>
       <c r="G892" s="30"/>
       <c r="H892" s="30"/>
     </row>
     <row r="893">
-      <c r="A893" s="80"/>
+      <c r="A893" s="81"/>
       <c r="E893" s="30"/>
       <c r="G893" s="30"/>
       <c r="H893" s="30"/>
     </row>
     <row r="894">
-      <c r="A894" s="80"/>
+      <c r="A894" s="81"/>
       <c r="E894" s="30"/>
       <c r="G894" s="30"/>
       <c r="H894" s="30"/>
     </row>
     <row r="895">
-      <c r="A895" s="80"/>
+      <c r="A895" s="81"/>
       <c r="E895" s="30"/>
       <c r="G895" s="30"/>
       <c r="H895" s="30"/>
     </row>
     <row r="896">
-      <c r="A896" s="80"/>
+      <c r="A896" s="81"/>
       <c r="E896" s="30"/>
       <c r="G896" s="30"/>
       <c r="H896" s="30"/>
     </row>
     <row r="897">
-      <c r="A897" s="80"/>
+      <c r="A897" s="81"/>
       <c r="E897" s="30"/>
       <c r="G897" s="30"/>
       <c r="H897" s="30"/>
     </row>
     <row r="898">
-      <c r="A898" s="80"/>
+      <c r="A898" s="81"/>
       <c r="E898" s="30"/>
       <c r="G898" s="30"/>
       <c r="H898" s="30"/>
     </row>
     <row r="899">
-      <c r="A899" s="80"/>
+      <c r="A899" s="81"/>
       <c r="E899" s="30"/>
       <c r="G899" s="30"/>
       <c r="H899" s="30"/>
     </row>
     <row r="900">
-      <c r="A900" s="80"/>
+      <c r="A900" s="81"/>
       <c r="E900" s="30"/>
       <c r="G900" s="30"/>
       <c r="H900" s="30"/>
     </row>
     <row r="901">
-      <c r="A901" s="80"/>
+      <c r="A901" s="81"/>
       <c r="E901" s="30"/>
       <c r="G901" s="30"/>
       <c r="H901" s="30"/>
     </row>
     <row r="902">
-      <c r="A902" s="80"/>
+      <c r="A902" s="81"/>
       <c r="E902" s="30"/>
       <c r="G902" s="30"/>
       <c r="H902" s="30"/>
     </row>
     <row r="903">
-      <c r="A903" s="80"/>
+      <c r="A903" s="81"/>
       <c r="E903" s="30"/>
       <c r="G903" s="30"/>
       <c r="H903" s="30"/>
     </row>
     <row r="904">
-      <c r="A904" s="80"/>
+      <c r="A904" s="81"/>
       <c r="E904" s="30"/>
       <c r="G904" s="30"/>
       <c r="H904" s="30"/>
     </row>
     <row r="905">
-      <c r="A905" s="80"/>
+      <c r="A905" s="81"/>
       <c r="E905" s="30"/>
       <c r="G905" s="30"/>
       <c r="H905" s="30"/>
     </row>
     <row r="906">
-      <c r="A906" s="80"/>
+      <c r="A906" s="81"/>
       <c r="E906" s="30"/>
       <c r="G906" s="30"/>
       <c r="H906" s="30"/>
     </row>
     <row r="907">
-      <c r="A907" s="80"/>
+      <c r="A907" s="81"/>
       <c r="E907" s="30"/>
       <c r="G907" s="30"/>
       <c r="H907" s="30"/>
     </row>
     <row r="908">
-      <c r="A908" s="80"/>
+      <c r="A908" s="81"/>
       <c r="E908" s="30"/>
       <c r="G908" s="30"/>
       <c r="H908" s="30"/>
     </row>
     <row r="909">
-      <c r="A909" s="80"/>
+      <c r="A909" s="81"/>
       <c r="E909" s="30"/>
       <c r="G909" s="30"/>
       <c r="H909" s="30"/>
     </row>
     <row r="910">
-      <c r="A910" s="80"/>
+      <c r="A910" s="81"/>
       <c r="E910" s="30"/>
       <c r="G910" s="30"/>
       <c r="H910" s="30"/>
     </row>
     <row r="911">
-      <c r="A911" s="80"/>
+      <c r="A911" s="81"/>
       <c r="E911" s="30"/>
       <c r="G911" s="30"/>
       <c r="H911" s="30"/>
     </row>
     <row r="912">
-      <c r="A912" s="80"/>
+      <c r="A912" s="81"/>
       <c r="E912" s="30"/>
       <c r="G912" s="30"/>
       <c r="H912" s="30"/>
     </row>
     <row r="913">
-      <c r="A913" s="80"/>
+      <c r="A913" s="81"/>
       <c r="E913" s="30"/>
       <c r="G913" s="30"/>
       <c r="H913" s="30"/>
     </row>
     <row r="914">
-      <c r="A914" s="80"/>
+      <c r="A914" s="81"/>
       <c r="E914" s="30"/>
       <c r="G914" s="30"/>
       <c r="H914" s="30"/>
     </row>
     <row r="915">
-      <c r="A915" s="80"/>
+      <c r="A915" s="81"/>
       <c r="E915" s="30"/>
       <c r="G915" s="30"/>
       <c r="H915" s="30"/>
     </row>
     <row r="916">
-      <c r="A916" s="80"/>
+      <c r="A916" s="81"/>
       <c r="E916" s="30"/>
       <c r="G916" s="30"/>
       <c r="H916" s="30"/>
     </row>
     <row r="917">
-      <c r="A917" s="80"/>
+      <c r="A917" s="81"/>
       <c r="E917" s="30"/>
       <c r="G917" s="30"/>
       <c r="H917" s="30"/>
     </row>
     <row r="918">
-      <c r="A918" s="80"/>
+      <c r="A918" s="81"/>
       <c r="E918" s="30"/>
       <c r="G918" s="30"/>
       <c r="H918" s="30"/>
     </row>
     <row r="919">
-      <c r="A919" s="80"/>
+      <c r="A919" s="81"/>
       <c r="E919" s="30"/>
       <c r="G919" s="30"/>
       <c r="H919" s="30"/>
     </row>
     <row r="920">
-      <c r="A920" s="80"/>
+      <c r="A920" s="81"/>
       <c r="E920" s="30"/>
       <c r="G920" s="30"/>
       <c r="H920" s="30"/>
     </row>
     <row r="921">
-      <c r="A921" s="80"/>
+      <c r="A921" s="81"/>
       <c r="E921" s="30"/>
       <c r="G921" s="30"/>
       <c r="H921" s="30"/>
     </row>
     <row r="922">
-      <c r="A922" s="80"/>
+      <c r="A922" s="81"/>
       <c r="E922" s="30"/>
       <c r="G922" s="30"/>
       <c r="H922" s="30"/>
     </row>
     <row r="923">
-      <c r="A923" s="80"/>
+      <c r="A923" s="81"/>
       <c r="E923" s="30"/>
       <c r="G923" s="30"/>
       <c r="H923" s="30"/>
     </row>
     <row r="924">
-      <c r="A924" s="80"/>
+      <c r="A924" s="81"/>
       <c r="E924" s="30"/>
       <c r="G924" s="30"/>
       <c r="H924" s="30"/>
     </row>
     <row r="925">
-      <c r="A925" s="80"/>
+      <c r="A925" s="81"/>
       <c r="E925" s="30"/>
       <c r="G925" s="30"/>
       <c r="H925" s="30"/>
     </row>
     <row r="926">
-      <c r="A926" s="80"/>
+      <c r="A926" s="81"/>
       <c r="E926" s="30"/>
       <c r="G926" s="30"/>
       <c r="H926" s="30"/>
     </row>
     <row r="927">
-      <c r="A927" s="80"/>
+      <c r="A927" s="81"/>
       <c r="E927" s="30"/>
       <c r="G927" s="30"/>
       <c r="H927" s="30"/>
     </row>
     <row r="928">
-      <c r="A928" s="80"/>
+      <c r="A928" s="81"/>
       <c r="E928" s="30"/>
       <c r="G928" s="30"/>
       <c r="H928" s="30"/>
     </row>
     <row r="929">
-      <c r="A929" s="80"/>
+      <c r="A929" s="81"/>
       <c r="E929" s="30"/>
       <c r="G929" s="30"/>
       <c r="H929" s="30"/>
     </row>
     <row r="930">
-      <c r="A930" s="80"/>
+      <c r="A930" s="81"/>
       <c r="E930" s="30"/>
       <c r="G930" s="30"/>
       <c r="H930" s="30"/>
     </row>
     <row r="931">
-      <c r="A931" s="80"/>
+      <c r="A931" s="81"/>
       <c r="E931" s="30"/>
       <c r="G931" s="30"/>
       <c r="H931" s="30"/>
     </row>
     <row r="932">
-      <c r="A932" s="80"/>
+      <c r="A932" s="81"/>
       <c r="E932" s="30"/>
       <c r="G932" s="30"/>
       <c r="H932" s="30"/>
     </row>
     <row r="933">
-      <c r="A933" s="80"/>
+      <c r="A933" s="81"/>
       <c r="E933" s="30"/>
       <c r="G933" s="30"/>
       <c r="H933" s="30"/>
     </row>
     <row r="934">
-      <c r="A934" s="80"/>
+      <c r="A934" s="81"/>
       <c r="E934" s="30"/>
       <c r="G934" s="30"/>
       <c r="H934" s="30"/>
     </row>
     <row r="935">
-      <c r="A935" s="80"/>
+      <c r="A935" s="81"/>
       <c r="E935" s="30"/>
       <c r="G935" s="30"/>
       <c r="H935" s="30"/>
     </row>
     <row r="936">
-      <c r="A936" s="80"/>
+      <c r="A936" s="81"/>
       <c r="E936" s="30"/>
       <c r="G936" s="30"/>
       <c r="H936" s="30"/>
     </row>
     <row r="937">
-      <c r="A937" s="80"/>
+      <c r="A937" s="81"/>
       <c r="E937" s="30"/>
       <c r="G937" s="30"/>
       <c r="H937" s="30"/>
     </row>
     <row r="938">
-      <c r="A938" s="80"/>
+      <c r="A938" s="81"/>
       <c r="E938" s="30"/>
       <c r="G938" s="30"/>
       <c r="H938" s="30"/>
     </row>
     <row r="939">
-      <c r="A939" s="80"/>
+      <c r="A939" s="81"/>
       <c r="E939" s="30"/>
       <c r="G939" s="30"/>
       <c r="H939" s="30"/>
     </row>
     <row r="940">
-      <c r="A940" s="80"/>
+      <c r="A940" s="81"/>
       <c r="E940" s="30"/>
       <c r="G940" s="30"/>
       <c r="H940" s="30"/>
     </row>
     <row r="941">
-      <c r="A941" s="80"/>
+      <c r="A941" s="81"/>
       <c r="E941" s="30"/>
       <c r="G941" s="30"/>
       <c r="H941" s="30"/>
     </row>
     <row r="942">
-      <c r="A942" s="80"/>
+      <c r="A942" s="81"/>
       <c r="E942" s="30"/>
       <c r="G942" s="30"/>
       <c r="H942" s="30"/>
     </row>
     <row r="943">
-      <c r="A943" s="80"/>
+      <c r="A943" s="81"/>
       <c r="E943" s="30"/>
       <c r="G943" s="30"/>
       <c r="H943" s="30"/>
     </row>
     <row r="944">
-      <c r="A944" s="80"/>
+      <c r="A944" s="81"/>
       <c r="E944" s="30"/>
       <c r="G944" s="30"/>
       <c r="H944" s="30"/>
     </row>
     <row r="945">
-      <c r="A945" s="80"/>
+      <c r="A945" s="81"/>
       <c r="E945" s="30"/>
       <c r="G945" s="30"/>
       <c r="H945" s="30"/>
     </row>
     <row r="946">
-      <c r="A946" s="80"/>
+      <c r="A946" s="81"/>
       <c r="E946" s="30"/>
       <c r="G946" s="30"/>
       <c r="H946" s="30"/>
     </row>
     <row r="947">
-      <c r="A947" s="80"/>
+      <c r="A947" s="81"/>
       <c r="E947" s="30"/>
       <c r="G947" s="30"/>
       <c r="H947" s="30"/>
     </row>
     <row r="948">
-      <c r="A948" s="80"/>
+      <c r="A948" s="81"/>
       <c r="E948" s="30"/>
       <c r="G948" s="30"/>
       <c r="H948" s="30"/>
     </row>
     <row r="949">
-      <c r="A949" s="80"/>
+      <c r="A949" s="81"/>
       <c r="E949" s="30"/>
       <c r="G949" s="30"/>
       <c r="H949" s="30"/>
     </row>
     <row r="950">
-      <c r="A950" s="80"/>
+      <c r="A950" s="81"/>
       <c r="E950" s="30"/>
       <c r="G950" s="30"/>
       <c r="H950" s="30"/>
     </row>
     <row r="951">
-      <c r="A951" s="80"/>
+      <c r="A951" s="81"/>
       <c r="E951" s="30"/>
       <c r="G951" s="30"/>
       <c r="H951" s="30"/>
     </row>
     <row r="952">
-      <c r="A952" s="80"/>
+      <c r="A952" s="81"/>
       <c r="E952" s="30"/>
       <c r="G952" s="30"/>
       <c r="H952" s="30"/>
     </row>
     <row r="953">
-      <c r="A953" s="80"/>
+      <c r="A953" s="81"/>
       <c r="E953" s="30"/>
       <c r="G953" s="30"/>
       <c r="H953" s="30"/>
     </row>
     <row r="954">
-      <c r="A954" s="80"/>
+      <c r="A954" s="81"/>
       <c r="E954" s="30"/>
       <c r="G954" s="30"/>
       <c r="H954" s="30"/>
     </row>
     <row r="955">
-      <c r="A955" s="80"/>
+      <c r="A955" s="81"/>
       <c r="E955" s="30"/>
       <c r="G955" s="30"/>
       <c r="H955" s="30"/>
     </row>
     <row r="956">
-      <c r="A956" s="80"/>
+      <c r="A956" s="81"/>
       <c r="E956" s="30"/>
       <c r="G956" s="30"/>
       <c r="H956" s="30"/>
     </row>
     <row r="957">
-      <c r="A957" s="80"/>
+      <c r="A957" s="81"/>
       <c r="E957" s="30"/>
       <c r="G957" s="30"/>
       <c r="H957" s="30"/>
     </row>
     <row r="958">
-      <c r="A958" s="80"/>
+      <c r="A958" s="81"/>
       <c r="E958" s="30"/>
       <c r="G958" s="30"/>
       <c r="H958" s="30"/>
     </row>
     <row r="959">
-      <c r="A959" s="80"/>
+      <c r="A959" s="81"/>
       <c r="E959" s="30"/>
       <c r="G959" s="30"/>
       <c r="H959" s="30"/>
     </row>
     <row r="960">
-      <c r="A960" s="80"/>
+      <c r="A960" s="81"/>
       <c r="E960" s="30"/>
       <c r="G960" s="30"/>
       <c r="H960" s="30"/>
     </row>
     <row r="961">
-      <c r="A961" s="80"/>
+      <c r="A961" s="81"/>
       <c r="E961" s="30"/>
       <c r="G961" s="30"/>
       <c r="H961" s="30"/>
     </row>
     <row r="962">
-      <c r="A962" s="80"/>
+      <c r="A962" s="81"/>
       <c r="E962" s="30"/>
       <c r="G962" s="30"/>
       <c r="H962" s="30"/>
     </row>
     <row r="963">
-      <c r="A963" s="80"/>
+      <c r="A963" s="81"/>
       <c r="E963" s="30"/>
       <c r="G963" s="30"/>
       <c r="H963" s="30"/>
     </row>
     <row r="964">
-      <c r="A964" s="80"/>
+      <c r="A964" s="81"/>
       <c r="E964" s="30"/>
       <c r="G964" s="30"/>
       <c r="H964" s="30"/>
     </row>
     <row r="965">
-      <c r="A965" s="80"/>
+      <c r="A965" s="81"/>
       <c r="E965" s="30"/>
       <c r="G965" s="30"/>
       <c r="H965" s="30"/>
     </row>
     <row r="966">
-      <c r="A966" s="80"/>
+      <c r="A966" s="81"/>
       <c r="E966" s="30"/>
       <c r="G966" s="30"/>
       <c r="H966" s="30"/>
     </row>
     <row r="967">
-      <c r="A967" s="80"/>
+      <c r="A967" s="81"/>
       <c r="E967" s="30"/>
       <c r="G967" s="30"/>
       <c r="H967" s="30"/>
     </row>
     <row r="968">
-      <c r="A968" s="80"/>
+      <c r="A968" s="81"/>
       <c r="E968" s="30"/>
       <c r="G968" s="30"/>
       <c r="H968" s="30"/>
     </row>
     <row r="969">
-      <c r="A969" s="80"/>
+      <c r="A969" s="81"/>
       <c r="E969" s="30"/>
       <c r="G969" s="30"/>
       <c r="H969" s="30"/>
     </row>
     <row r="970">
-      <c r="A970" s="80"/>
+      <c r="A970" s="81"/>
       <c r="E970" s="30"/>
       <c r="G970" s="30"/>
       <c r="H970" s="30"/>
     </row>
     <row r="971">
-      <c r="A971" s="80"/>
+      <c r="A971" s="81"/>
       <c r="E971" s="30"/>
       <c r="G971" s="30"/>
       <c r="H971" s="30"/>
     </row>
     <row r="972">
-      <c r="A972" s="80"/>
+      <c r="A972" s="81"/>
       <c r="E972" s="30"/>
       <c r="G972" s="30"/>
       <c r="H972" s="30"/>
     </row>
     <row r="973">
-      <c r="A973" s="80"/>
+      <c r="A973" s="81"/>
       <c r="E973" s="30"/>
       <c r="G973" s="30"/>
       <c r="H973" s="30"/>
     </row>
     <row r="974">
-      <c r="A974" s="80"/>
+      <c r="A974" s="81"/>
       <c r="E974" s="30"/>
       <c r="G974" s="30"/>
       <c r="H974" s="30"/>
     </row>
     <row r="975">
-      <c r="A975" s="80"/>
+      <c r="A975" s="81"/>
       <c r="E975" s="30"/>
       <c r="G975" s="30"/>
       <c r="H975" s="30"/>
     </row>
     <row r="976">
-      <c r="A976" s="80"/>
+      <c r="A976" s="81"/>
       <c r="E976" s="30"/>
       <c r="G976" s="30"/>
       <c r="H976" s="30"/>
     </row>
     <row r="977">
-      <c r="A977" s="80"/>
+      <c r="A977" s="81"/>
       <c r="E977" s="30"/>
       <c r="G977" s="30"/>
       <c r="H977" s="30"/>
     </row>
     <row r="978">
-      <c r="A978" s="80"/>
+      <c r="A978" s="81"/>
       <c r="E978" s="30"/>
       <c r="G978" s="30"/>
       <c r="H978" s="30"/>
     </row>
     <row r="979">
-      <c r="A979" s="80"/>
+      <c r="A979" s="81"/>
       <c r="E979" s="30"/>
       <c r="G979" s="30"/>
       <c r="H979" s="30"/>
     </row>
     <row r="980">
-      <c r="A980" s="80"/>
+      <c r="A980" s="81"/>
       <c r="E980" s="30"/>
       <c r="G980" s="30"/>
       <c r="H980" s="30"/>
     </row>
     <row r="981">
-      <c r="A981" s="80"/>
+      <c r="A981" s="81"/>
       <c r="E981" s="30"/>
       <c r="G981" s="30"/>
       <c r="H981" s="30"/>
     </row>
     <row r="982">
-      <c r="A982" s="80"/>
+      <c r="A982" s="81"/>
       <c r="E982" s="30"/>
       <c r="G982" s="30"/>
       <c r="H982" s="30"/>
     </row>
     <row r="983">
-      <c r="A983" s="80"/>
+      <c r="A983" s="81"/>
       <c r="E983" s="30"/>
       <c r="G983" s="30"/>
       <c r="H983" s="30"/>
     </row>
     <row r="984">
-      <c r="A984" s="80"/>
+      <c r="A984" s="81"/>
       <c r="E984" s="30"/>
       <c r="G984" s="30"/>
       <c r="H984" s="30"/>
     </row>
     <row r="985">
-      <c r="A985" s="80"/>
+      <c r="A985" s="81"/>
       <c r="E985" s="30"/>
       <c r="G985" s="30"/>
       <c r="H985" s="30"/>
     </row>
     <row r="986">
-      <c r="A986" s="80"/>
+      <c r="A986" s="81"/>
       <c r="E986" s="30"/>
       <c r="G986" s="30"/>
       <c r="H986" s="30"/>
     </row>
     <row r="987">
-      <c r="A987" s="80"/>
+      <c r="A987" s="81"/>
       <c r="E987" s="30"/>
       <c r="G987" s="30"/>
       <c r="H987" s="30"/>
     </row>
     <row r="988">
-      <c r="A988" s="80"/>
+      <c r="A988" s="81"/>
       <c r="E988" s="30"/>
       <c r="G988" s="30"/>
       <c r="H988" s="30"/>
     </row>
     <row r="989">
-      <c r="A989" s="80"/>
+      <c r="A989" s="81"/>
       <c r="E989" s="30"/>
       <c r="G989" s="30"/>
       <c r="H989" s="30"/>
     </row>
     <row r="990">
-      <c r="A990" s="80"/>
+      <c r="A990" s="81"/>
       <c r="E990" s="30"/>
       <c r="G990" s="30"/>
       <c r="H990" s="30"/>
     </row>
     <row r="991">
-      <c r="A991" s="80"/>
+      <c r="A991" s="81"/>
       <c r="E991" s="30"/>
       <c r="G991" s="30"/>
       <c r="H991" s="30"/>
     </row>
     <row r="992">
-      <c r="A992" s="80"/>
+      <c r="A992" s="81"/>
       <c r="E992" s="30"/>
       <c r="G992" s="30"/>
       <c r="H992" s="30"/>
     </row>
     <row r="993">
-      <c r="A993" s="80"/>
+      <c r="A993" s="81"/>
       <c r="E993" s="30"/>
       <c r="G993" s="30"/>
       <c r="H993" s="30"/>
     </row>
     <row r="994">
-      <c r="A994" s="80"/>
+      <c r="A994" s="81"/>
       <c r="E994" s="30"/>
       <c r="G994" s="30"/>
       <c r="H994" s="30"/>
     </row>
     <row r="995">
-      <c r="A995" s="80"/>
+      <c r="A995" s="81"/>
       <c r="E995" s="30"/>
       <c r="G995" s="30"/>
       <c r="H995" s="30"/>
     </row>
     <row r="996">
-      <c r="A996" s="80"/>
+      <c r="A996" s="81"/>
       <c r="E996" s="30"/>
       <c r="G996" s="30"/>
       <c r="H996" s="30"/>
     </row>
     <row r="997">
-      <c r="A997" s="80"/>
+      <c r="A997" s="81"/>
       <c r="E997" s="30"/>
       <c r="G997" s="30"/>
       <c r="H997" s="30"/>
     </row>
     <row r="998">
-      <c r="A998" s="80"/>
+      <c r="A998" s="81"/>
       <c r="E998" s="30"/>
       <c r="G998" s="30"/>
       <c r="H998" s="30"/>
     </row>
     <row r="999">
-      <c r="A999" s="80"/>
+      <c r="A999" s="81"/>
       <c r="E999" s="30"/>
       <c r="G999" s="30"/>
       <c r="H999" s="30"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="80"/>
+      <c r="A1000" s="81"/>
       <c r="E1000" s="30"/>
       <c r="G1000" s="30"/>
       <c r="H1000" s="30"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="80"/>
+      <c r="A1001" s="81"/>
       <c r="E1001" s="30"/>
       <c r="G1001" s="30"/>
       <c r="H1001" s="30"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="80"/>
+      <c r="A1002" s="81"/>
       <c r="E1002" s="30"/>
       <c r="G1002" s="30"/>
       <c r="H1002" s="30"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="80"/>
+      <c r="A1003" s="81"/>
       <c r="E1003" s="30"/>
       <c r="G1003" s="30"/>
       <c r="H1003" s="30"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="80"/>
+      <c r="A1004" s="81"/>
       <c r="E1004" s="30"/>
       <c r="G1004" s="30"/>
       <c r="H1004" s="30"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="80"/>
+      <c r="A1005" s="81"/>
       <c r="E1005" s="30"/>
       <c r="G1005" s="30"/>
       <c r="H1005" s="30"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="80"/>
+      <c r="A1006" s="81"/>
       <c r="E1006" s="30"/>
       <c r="G1006" s="30"/>
       <c r="H1006" s="30"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="80"/>
+      <c r="A1007" s="81"/>
       <c r="E1007" s="30"/>
       <c r="G1007" s="30"/>
       <c r="H1007" s="30"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="80"/>
+      <c r="A1008" s="81"/>
       <c r="E1008" s="30"/>
       <c r="G1008" s="30"/>
       <c r="H1008" s="30"/>
@@ -20512,14 +20491,13 @@
     <hyperlink r:id="rId11" ref="H82"/>
     <hyperlink r:id="rId12" ref="H83"/>
     <hyperlink r:id="rId13" ref="H85"/>
-    <hyperlink r:id="rId14" ref="H97"/>
-    <hyperlink r:id="rId15" ref="H101"/>
-    <hyperlink r:id="rId16" ref="H102"/>
-    <hyperlink r:id="rId17" ref="H125"/>
-    <hyperlink r:id="rId18" ref="F133"/>
+    <hyperlink r:id="rId14" ref="H101"/>
+    <hyperlink r:id="rId15" ref="H102"/>
+    <hyperlink r:id="rId16" ref="H125"/>
+    <hyperlink r:id="rId17" ref="F133"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
-  <legacyDrawing r:id="rId20"/>
+  <drawing r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -20638,7 +20616,7 @@
       <c r="A21" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="73" t="s">
         <v>859</v>
       </c>
     </row>
@@ -20677,11 +20655,11 @@
       <c r="C1" s="29"/>
       <c r="D1" s="28"/>
       <c r="E1" s="27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="35"/>
@@ -20707,34 +20685,34 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
@@ -20757,13 +20735,13 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B5" s="126" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="126" t="s">
         <v>861</v>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -301,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="885">
   <si>
     <t>File name</t>
   </si>
@@ -466,34 +466,19 @@
     <t>The first file listed should always be the main file (i.e. the "entry point" specific to a form)</t>
   </si>
   <si>
-    <t>contracting_authority.rml.ttl</t>
-  </si>
-  <si>
-    <t>section 1</t>
-  </si>
-  <si>
-    <t>object.rml.ttl</t>
-  </si>
-  <si>
-    <t>section 2</t>
-  </si>
-  <si>
-    <t>procedure.rml.ttl</t>
-  </si>
-  <si>
-    <t>section 4</t>
-  </si>
-  <si>
-    <t>award_of_contract.rml.ttl</t>
-  </si>
-  <si>
-    <t>section 5</t>
-  </si>
-  <si>
-    <t>complementary_information.rml.ttl</t>
-  </si>
-  <si>
-    <t>section 6</t>
+    <t>s1_contracting_authority.rml.ttl</t>
+  </si>
+  <si>
+    <t>s2_object.rml.ttl</t>
+  </si>
+  <si>
+    <t>s4_procedure.rml.ttl</t>
+  </si>
+  <si>
+    <t>s5_award_of_contract.rml.ttl</t>
+  </si>
+  <si>
+    <t>s6_complementary_information.rml.ttl</t>
   </si>
   <si>
     <t>VAL_SUBCONTRACTING</t>
@@ -7454,15 +7439,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -7489,15 +7474,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -7524,15 +7509,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -7559,15 +7544,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -7594,15 +7579,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -7629,15 +7614,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -10788,40 +10773,25 @@
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -10854,17 +10824,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="26"/>
       <c r="E1" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
@@ -10888,34 +10858,34 @@
     </row>
     <row r="2">
       <c r="A2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="I2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>62</v>
       </c>
       <c r="K2" s="30"/>
       <c r="L2" s="30"/>
@@ -10936,15 +10906,15 @@
     </row>
     <row r="3">
       <c r="A3" s="34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="35"/>
       <c r="E3" s="35" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F3" s="35"/>
       <c r="G3" s="36"/>
@@ -10962,20 +10932,20 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
       <c r="G4" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
@@ -10990,26 +10960,26 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="38" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G5" s="38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H5" s="38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
@@ -11032,26 +11002,26 @@
     </row>
     <row r="6">
       <c r="A6" s="42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
@@ -11074,26 +11044,26 @@
     </row>
     <row r="7">
       <c r="A7" s="34" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
@@ -11108,26 +11078,26 @@
     </row>
     <row r="8">
       <c r="A8" s="45" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E8" s="35"/>
       <c r="F8" s="35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
@@ -11142,26 +11112,26 @@
     </row>
     <row r="9">
       <c r="A9" s="46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
@@ -11176,26 +11146,26 @@
     </row>
     <row r="10">
       <c r="A10" s="45" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
@@ -11210,26 +11180,26 @@
     </row>
     <row r="11">
       <c r="A11" s="48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E11" s="38"/>
       <c r="F11" s="38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -11252,26 +11222,26 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E12" s="35"/>
       <c r="F12" s="35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
@@ -11286,26 +11256,26 @@
     </row>
     <row r="13">
       <c r="A13" s="45" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E13" s="35"/>
       <c r="F13" s="35" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
@@ -11320,26 +11290,26 @@
     </row>
     <row r="14">
       <c r="A14" s="34" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H14" s="36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -11354,26 +11324,26 @@
     </row>
     <row r="15">
       <c r="A15" s="45" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E15" s="35"/>
       <c r="F15" s="35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H15" s="36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -11388,10 +11358,10 @@
     </row>
     <row r="16">
       <c r="A16" s="34" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -11412,26 +11382,26 @@
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G17" s="38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -11454,26 +11424,26 @@
     </row>
     <row r="18">
       <c r="A18" s="34" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E18" s="30"/>
       <c r="F18" s="35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -11488,10 +11458,10 @@
     </row>
     <row r="19">
       <c r="A19" s="34" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B19" s="50" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -11512,16 +11482,16 @@
     </row>
     <row r="20">
       <c r="A20" s="51" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
       <c r="E20" s="52"/>
       <c r="F20" s="36" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -11538,26 +11508,26 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E21" s="52"/>
       <c r="F21" s="36" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
@@ -11572,10 +11542,10 @@
     </row>
     <row r="22">
       <c r="A22" s="55" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B22" s="56" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="44"/>
@@ -11604,26 +11574,26 @@
     </row>
     <row r="23">
       <c r="A23" s="45" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E23" s="30"/>
       <c r="F23" s="35" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
@@ -11638,26 +11608,26 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E24" s="30"/>
       <c r="F24" s="35" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H24" s="35" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
@@ -11672,15 +11642,15 @@
     </row>
     <row r="25">
       <c r="A25" s="34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B25" s="50" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="35" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -11698,20 +11668,20 @@
     </row>
     <row r="26">
       <c r="A26" s="34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C26" s="35"/>
       <c r="D26" s="3"/>
       <c r="E26" s="30"/>
       <c r="F26" s="3"/>
       <c r="G26" s="35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
@@ -11726,32 +11696,32 @@
     </row>
     <row r="27">
       <c r="A27" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E27" s="30"/>
       <c r="F27" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H27" s="35" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -11764,26 +11734,26 @@
     </row>
     <row r="28">
       <c r="A28" s="58" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B28" s="59" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E28" s="57"/>
       <c r="F28" s="40" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G28" s="40" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I28" s="39"/>
       <c r="J28" s="39"/>
@@ -11806,26 +11776,26 @@
     </row>
     <row r="29">
       <c r="A29" s="45" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E29" s="30"/>
       <c r="F29" s="35" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -11840,26 +11810,26 @@
     </row>
     <row r="30">
       <c r="A30" s="51" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E30" s="30"/>
       <c r="F30" s="35" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H30" s="54" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -11874,26 +11844,26 @@
     </row>
     <row r="31">
       <c r="A31" s="34" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="35" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H31" s="35" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -11908,26 +11878,26 @@
     </row>
     <row r="32">
       <c r="A32" s="34" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D32" s="60" t="s">
         <v>18</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="36" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -11942,10 +11912,10 @@
     </row>
     <row r="33">
       <c r="A33" s="34" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
@@ -11966,18 +11936,18 @@
     </row>
     <row r="34">
       <c r="A34" s="51" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D34" s="61"/>
       <c r="E34" s="62"/>
       <c r="F34" s="54" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G34" s="62"/>
       <c r="H34" s="62"/>
@@ -11994,20 +11964,20 @@
     </row>
     <row r="35">
       <c r="A35" s="34" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="30"/>
       <c r="F35" s="35"/>
       <c r="G35" s="36" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -12022,26 +11992,26 @@
     </row>
     <row r="36">
       <c r="A36" s="34" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B36" s="54" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D36" s="36" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="36" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
@@ -12056,26 +12026,26 @@
     </row>
     <row r="37">
       <c r="A37" s="34" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E37" s="52"/>
       <c r="F37" s="36" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H37" s="36" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
@@ -12090,26 +12060,26 @@
     </row>
     <row r="38">
       <c r="A38" s="34" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E38" s="52"/>
       <c r="F38" s="36" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G38" s="36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H38" s="36" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
@@ -12124,22 +12094,22 @@
     </row>
     <row r="39">
       <c r="A39" s="34" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
       <c r="F39" s="36" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H39" s="36" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
@@ -12154,7 +12124,7 @@
     </row>
     <row r="40">
       <c r="A40" s="34" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B40" s="35" t="s">
         <v>18</v>
@@ -12164,10 +12134,10 @@
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
       <c r="G40" s="35" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H40" s="35" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="30"/>
@@ -12182,26 +12152,26 @@
     </row>
     <row r="41">
       <c r="A41" s="34" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>16</v>
       </c>
       <c r="E41" s="52"/>
       <c r="F41" s="36" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
@@ -12216,26 +12186,26 @@
     </row>
     <row r="42">
       <c r="A42" s="34" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D42" s="36" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E42" s="52"/>
       <c r="F42" s="36" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -12250,10 +12220,10 @@
     </row>
     <row r="43">
       <c r="A43" s="34" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
@@ -12274,26 +12244,26 @@
     </row>
     <row r="44">
       <c r="A44" s="34" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="35" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G44" s="35" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H44" s="35" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
@@ -12308,26 +12278,26 @@
     </row>
     <row r="45">
       <c r="A45" s="34" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="35" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="G45" s="35" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="H45" s="35" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
@@ -12342,10 +12312,10 @@
     </row>
     <row r="46">
       <c r="A46" s="34" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
@@ -12366,26 +12336,26 @@
     </row>
     <row r="47">
       <c r="A47" s="34" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E47" s="30"/>
       <c r="F47" s="35" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
@@ -12400,26 +12370,26 @@
     </row>
     <row r="48">
       <c r="A48" s="34" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D48" s="36" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E48" s="30"/>
       <c r="F48" s="35" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G48" s="36" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
@@ -12434,26 +12404,26 @@
     </row>
     <row r="49">
       <c r="A49" s="34" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="30"/>
       <c r="F49" s="35" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H49" s="35" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I49" s="30"/>
       <c r="J49" s="30"/>
@@ -12468,20 +12438,20 @@
     </row>
     <row r="50">
       <c r="A50" s="34" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C50" s="64"/>
       <c r="D50" s="64"/>
       <c r="E50" s="52"/>
       <c r="F50" s="52"/>
       <c r="G50" s="36" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I50" s="30"/>
       <c r="J50" s="30"/>
@@ -12496,26 +12466,26 @@
     </row>
     <row r="51">
       <c r="A51" s="34" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="36" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H51" s="65" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I51" s="30"/>
       <c r="J51" s="30"/>
@@ -12530,24 +12500,24 @@
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D52" s="36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="36"/>
       <c r="G52" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I52" s="30"/>
       <c r="J52" s="30"/>
@@ -12562,24 +12532,24 @@
     </row>
     <row r="53">
       <c r="A53" s="24" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D53" s="36" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="36"/>
       <c r="G53" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H53" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I53" s="30"/>
       <c r="J53" s="30"/>
@@ -12594,26 +12564,26 @@
     </row>
     <row r="54">
       <c r="A54" s="34" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="36" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H54" s="65" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
@@ -12628,24 +12598,24 @@
     </row>
     <row r="55">
       <c r="A55" s="24" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E55" s="52"/>
       <c r="F55" s="36"/>
       <c r="G55" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I55" s="30"/>
       <c r="J55" s="30"/>
@@ -12660,24 +12630,24 @@
     </row>
     <row r="56">
       <c r="A56" s="24" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E56" s="52"/>
       <c r="F56" s="36"/>
       <c r="G56" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I56" s="30"/>
       <c r="J56" s="30"/>
@@ -12692,26 +12662,26 @@
     </row>
     <row r="57">
       <c r="A57" s="34" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="36" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H57" s="65" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="I57" s="30"/>
       <c r="J57" s="30"/>
@@ -12726,24 +12696,24 @@
     </row>
     <row r="58">
       <c r="A58" s="24" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E58" s="52"/>
       <c r="F58" s="52"/>
       <c r="G58" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H58" s="66" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I58" s="30"/>
       <c r="J58" s="30"/>
@@ -12758,10 +12728,10 @@
     </row>
     <row r="59">
       <c r="A59" s="34" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C59" s="36"/>
       <c r="D59" s="36"/>
@@ -12782,26 +12752,26 @@
     </row>
     <row r="60">
       <c r="A60" s="34" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E60" s="52"/>
       <c r="F60" s="36" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H60" s="68" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I60" s="30"/>
       <c r="J60" s="30"/>
@@ -12816,26 +12786,26 @@
     </row>
     <row r="61">
       <c r="A61" s="34" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="36" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H61" s="68" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
@@ -12850,10 +12820,10 @@
     </row>
     <row r="62">
       <c r="A62" s="45" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -12864,87 +12834,87 @@
     </row>
     <row r="63">
       <c r="A63" s="45" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="36" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="45" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E64" s="52"/>
       <c r="F64" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G64" s="70" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="45" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B65" s="35" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E65" s="30"/>
       <c r="F65" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G65" s="35" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H65" s="35" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B66" s="35" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
       <c r="E66" s="35" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F66" s="69"/>
       <c r="G66" s="30"/>
@@ -12952,7 +12922,7 @@
     </row>
     <row r="67">
       <c r="A67" s="45" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>18</v>
@@ -12966,10 +12936,10 @@
     </row>
     <row r="68">
       <c r="A68" s="45" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E68" s="30"/>
       <c r="G68" s="30"/>
@@ -12977,301 +12947,301 @@
     </row>
     <row r="69">
       <c r="A69" s="45" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E69" s="30"/>
       <c r="F69" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G69" s="35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H69" s="71" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="45" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E70" s="30"/>
       <c r="F70" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G70" s="35" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H70" s="35" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="45" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E71" s="30"/>
       <c r="F71" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G71" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="45" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E72" s="30"/>
       <c r="F72" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="G72" s="35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H72" s="71" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="45" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E73" s="30"/>
       <c r="F73" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H73" s="35" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="45" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E74" s="30"/>
       <c r="F74" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G74" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="45" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E75" s="30"/>
       <c r="F75" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G75" s="35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H75" s="72" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="45" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E76" s="30"/>
       <c r="F76" s="3" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G76" s="35" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="45" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E77" s="30"/>
       <c r="F77" s="3" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G77" s="35" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="H77" s="35" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="45" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E78" s="30"/>
       <c r="F78" s="3" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G78" s="35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H78" s="71" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="45" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E79" s="30"/>
       <c r="F79" s="3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G79" s="35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H79" s="71" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="45" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E80" s="30"/>
       <c r="F80" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G80" s="35" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H80" s="72" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="45" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B81" s="35" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C81" s="73" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D81" s="74"/>
       <c r="E81" s="30"/>
@@ -13281,61 +13251,61 @@
     </row>
     <row r="82">
       <c r="A82" s="45" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B82" s="35" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E82" s="52"/>
       <c r="F82" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G82" s="36" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H82" s="72" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="45" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B83" s="35" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E83" s="52"/>
       <c r="F83" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G83" s="36" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H83" s="72" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="45" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="E84" s="30"/>
       <c r="F84" s="69"/>
@@ -13344,58 +13314,58 @@
     </row>
     <row r="85">
       <c r="A85" s="45" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B85" s="35" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E85" s="52"/>
       <c r="F85" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H85" s="72" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="45" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B86" s="35" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E86" s="52"/>
       <c r="F86" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="G86" s="36" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H86" s="36" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="45" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B87" s="35" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="E87" s="30"/>
       <c r="F87" s="69"/>
@@ -13405,69 +13375,69 @@
     <row r="88">
       <c r="A88" s="45"/>
       <c r="B88" s="75" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C88" s="76" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D88" s="76" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E88" s="77"/>
       <c r="F88" s="76" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G88" s="78" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H88" s="79" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="45" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B89" s="35" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="E89" s="30"/>
       <c r="F89" s="69"/>
       <c r="G89" s="35" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H89" s="30"/>
     </row>
     <row r="90">
       <c r="A90" s="45" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E90" s="52"/>
       <c r="F90" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H90" s="36" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="45" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B91" s="35" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C91" s="3"/>
       <c r="E91" s="30"/>
@@ -13477,88 +13447,88 @@
     </row>
     <row r="92">
       <c r="A92" s="45" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B92" s="35" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E92" s="52"/>
       <c r="F92" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H92" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="45" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B93" s="35" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F93" s="80"/>
       <c r="G93" s="35" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H93" s="35" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="81"/>
       <c r="B94" s="35" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C94" s="82" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D94" s="82" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="E94" s="30"/>
       <c r="F94" s="83" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G94" s="35" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H94" s="35" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="81"/>
       <c r="B95" s="35" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C95" s="82" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D95" s="82" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E95" s="30"/>
       <c r="F95" s="83" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G95" s="84" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H95" s="35" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96">
@@ -13567,42 +13537,42 @@
         <v>16</v>
       </c>
       <c r="C96" s="82" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D96" s="82" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="E96" s="30"/>
       <c r="F96" s="83" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G96" s="35" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H96" s="35" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="81"/>
       <c r="B97" s="35" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C97" s="82" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E97" s="52"/>
       <c r="F97" s="83" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H97" s="85" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98">
@@ -13617,13 +13587,13 @@
     </row>
     <row r="99">
       <c r="A99" s="45" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C99" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D99" s="82"/>
       <c r="E99" s="30"/>
@@ -13633,13 +13603,13 @@
     </row>
     <row r="100">
       <c r="A100" s="45" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C100" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D100" s="82"/>
       <c r="E100" s="30"/>
@@ -13649,83 +13619,83 @@
     </row>
     <row r="101">
       <c r="A101" s="45" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C101" s="82" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D101" s="82" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E101" s="30"/>
       <c r="F101" s="83" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G101" s="35" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H101" s="71" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="45" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C102" s="82" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D102" s="82" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E102" s="30"/>
       <c r="F102" s="83" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G102" s="35" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H102" s="71" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="45" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C103" s="88" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D103" s="82"/>
       <c r="E103" s="52"/>
       <c r="F103" s="83" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="H103" s="85" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="45" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C104" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D104" s="82"/>
       <c r="E104" s="30"/>
@@ -13735,436 +13705,436 @@
     </row>
     <row r="105">
       <c r="A105" s="45" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C105" s="82" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E105" s="30"/>
       <c r="F105" s="83" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G105" s="89" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H105" s="35" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="45" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C106" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D106" s="82"/>
       <c r="E106" s="30"/>
       <c r="F106" s="90" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G106" s="68" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H106" s="36" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="45" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C107" s="82" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E107" s="30"/>
       <c r="F107" s="83" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H107" s="35" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="45" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C108" s="82" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E108" s="30"/>
       <c r="F108" s="83" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G108" s="35" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H108" s="35" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="45" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C109" s="82" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D109" s="82" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E109" s="30"/>
       <c r="F109" s="83" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G109" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="H109" s="35" t="s">
         <v>558</v>
-      </c>
-      <c r="H109" s="35" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="45" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C110" s="82" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D110" s="82" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E110" s="30"/>
       <c r="F110" s="83" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G110" s="35" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H110" s="35" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="45" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C111" s="82" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E111" s="30"/>
       <c r="F111" s="83" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G111" s="35" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H111" s="35" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="45" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B112" s="35" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C112" s="91" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D112" s="82"/>
       <c r="E112" s="52"/>
       <c r="F112" s="83" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="45" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B113" s="35" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C113" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D113" s="82"/>
       <c r="E113" s="92" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F113" s="87"/>
       <c r="G113" s="36" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="45" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C114" s="87" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D114" s="82" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E114" s="30"/>
       <c r="F114" s="83" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="45" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C115" s="87" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D115" s="82" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E115" s="30"/>
       <c r="F115" s="83" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G115" s="40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H115" s="40" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="45" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C116" s="87" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D116" s="82" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="83" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G116" s="35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H116" s="35" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="45" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C117" s="87" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D117" s="82" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="83" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="G117" s="35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H117" s="35" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="45" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C118" s="87" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D118" s="82" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E118" s="30"/>
       <c r="F118" s="83" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H118" s="36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="45" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C119" s="87" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D119" s="82" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E119" s="30"/>
       <c r="F119" s="83" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G119" s="35" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H119" s="35" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="45" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C120" s="87" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D120" s="82" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E120" s="30"/>
       <c r="F120" s="83" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="G120" s="38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="H120" s="38" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="45" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C121" s="87" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D121" s="82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E121" s="30"/>
       <c r="F121" s="83" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G121" s="35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H121" s="36" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="45" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C122" s="87" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D122" s="82" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E122" s="30"/>
       <c r="F122" s="83" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G122" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H122" s="36" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="45" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C123" s="87"/>
       <c r="D123" s="82"/>
@@ -14175,61 +14145,61 @@
     </row>
     <row r="124">
       <c r="A124" s="45" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C124" s="87" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D124" s="82" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="83" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G124" s="35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H124" s="36" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="45" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C125" s="93" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D125" s="94" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E125" s="62"/>
       <c r="F125" s="95" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G125" s="54" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H125" s="96" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="45" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C126" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D126" s="82"/>
       <c r="E126" s="30"/>
@@ -14239,74 +14209,74 @@
     </row>
     <row r="127">
       <c r="A127" s="45" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C127" s="82" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D127" s="82" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E127" s="30"/>
       <c r="F127" s="83" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G127" s="36" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="H127" s="36" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="45" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C128" s="82" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D128" s="82" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E128" s="52"/>
       <c r="F128" s="83" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G128" s="36" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H128" s="36" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="45" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C129" s="82" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D129" s="82" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E129" s="30"/>
       <c r="F129" s="83" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H129" s="36" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="130">
@@ -14317,10 +14287,10 @@
       <c r="E130" s="52"/>
       <c r="F130" s="83"/>
       <c r="G130" s="36" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H130" s="36" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
     </row>
     <row r="131">
@@ -14331,67 +14301,67 @@
       <c r="E131" s="52"/>
       <c r="F131" s="83"/>
       <c r="G131" s="36" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H131" s="36" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="45" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C132" s="82" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D132" s="82" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E132" s="30"/>
       <c r="F132" s="83" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G132" s="36" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="H132" s="36" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="45" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C133" s="97" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D133" s="82"/>
       <c r="E133" s="52"/>
       <c r="F133" s="98" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G133" s="36" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="H133" s="36" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="45" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C134" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D134" s="82"/>
       <c r="E134" s="30"/>
@@ -14401,60 +14371,60 @@
     </row>
     <row r="135">
       <c r="A135" s="45" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C135" s="94" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D135" s="94" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E135" s="62"/>
       <c r="F135" s="95" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="G135" s="54" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H135" s="54" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="B136" s="35" t="s">
+        <v>653</v>
+      </c>
+      <c r="C136" s="82" t="s">
+        <v>654</v>
+      </c>
+      <c r="D136" s="82" t="s">
+        <v>655</v>
+      </c>
+      <c r="E136" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="F136" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="G136" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="H136" s="36" t="s">
         <v>657</v>
-      </c>
-      <c r="B136" s="35" t="s">
-        <v>658</v>
-      </c>
-      <c r="C136" s="82" t="s">
-        <v>659</v>
-      </c>
-      <c r="D136" s="82" t="s">
-        <v>660</v>
-      </c>
-      <c r="E136" s="36" t="s">
-        <v>531</v>
-      </c>
-      <c r="F136" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="G136" s="36" t="s">
-        <v>661</v>
-      </c>
-      <c r="H136" s="36" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="45" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C137" s="82"/>
       <c r="D137" s="82"/>
@@ -14464,85 +14434,85 @@
     </row>
     <row r="138">
       <c r="A138" s="45" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C138" s="97" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="D138" s="82"/>
       <c r="E138" s="52"/>
       <c r="F138" s="83" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G138" s="68" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H138" s="36" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="45" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C139" s="82" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="D139" s="82" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E139" s="52"/>
       <c r="F139" s="83" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G139" s="68" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="H139" s="36" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="45" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C140" s="82" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D140" s="82" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E140" s="52"/>
       <c r="F140" s="83" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G140" s="68" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H140" s="36" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="45" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B141" s="35" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C141" s="99"/>
       <c r="D141" s="100"/>
       <c r="E141" s="101" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F141" s="99"/>
       <c r="G141" s="100"/>
@@ -14550,35 +14520,35 @@
     </row>
     <row r="142">
       <c r="A142" s="45" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="B142" s="35" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C142" s="82" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D142" s="100"/>
       <c r="E142" s="100"/>
       <c r="F142" s="102" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G142" s="103" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="H142" s="104" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="45" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="B143" s="35" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C143" s="86" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D143" s="100"/>
       <c r="E143" s="100"/>
@@ -14588,764 +14558,764 @@
     </row>
     <row r="144">
       <c r="A144" s="45" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B144" s="35" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C144" s="106" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D144" s="100"/>
       <c r="E144" s="100"/>
       <c r="F144" s="87"/>
       <c r="G144" s="36" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="H144" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="45" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B145" s="35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C145" s="82" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D145" s="82" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E145" s="100"/>
       <c r="F145" s="83" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G145" s="107" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H145" s="107" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="45" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C146" s="82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D146" s="82" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E146" s="100"/>
       <c r="F146" s="83" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G146" s="107" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H146" s="107" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="45" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="B147" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C147" s="82" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D147" s="82" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E147" s="100"/>
       <c r="F147" s="83" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G147" s="107" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H147" s="107" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="45" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B148" s="35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C148" s="82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D148" s="82" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E148" s="100"/>
       <c r="F148" s="83" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G148" s="108" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H148" s="108" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="45" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="B149" s="35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C149" s="82" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D149" s="82" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E149" s="100"/>
       <c r="F149" s="83" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G149" s="109" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H149" s="109" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="45" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="B150" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C150" s="82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D150" s="82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E150" s="100"/>
       <c r="F150" s="83" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="G150" s="107" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H150" s="110" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="45" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="B151" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C151" s="82" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D151" s="82" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E151" s="100"/>
       <c r="F151" s="83" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G151" s="108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H151" s="83" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="45" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C152" s="82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D152" s="82" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E152" s="100"/>
       <c r="F152" s="83" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G152" s="38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H152" s="40" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="45" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C153" s="82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D153" s="82" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E153" s="100"/>
       <c r="F153" s="83" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G153" s="108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H153" s="83" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="45" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B154" s="35" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C154" s="106" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D154" s="111"/>
       <c r="E154" s="100"/>
       <c r="F154" s="87"/>
       <c r="G154" s="36" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H154" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="45" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C155" s="82" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D155" s="82" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E155" s="100"/>
       <c r="F155" s="83" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G155" s="107" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H155" s="107" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="45" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B156" s="35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C156" s="82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D156" s="82" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E156" s="100"/>
       <c r="F156" s="83" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="G156" s="107" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H156" s="107" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="45" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B157" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C157" s="82" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D157" s="82" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E157" s="100"/>
       <c r="F157" s="83" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="G157" s="107" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H157" s="107" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="45" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C158" s="82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D158" s="82" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E158" s="100"/>
       <c r="F158" s="83" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="G158" s="108" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H158" s="108" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="45" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C159" s="82" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D159" s="82" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E159" s="100"/>
       <c r="F159" s="83" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G159" s="112" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H159" s="112" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="45" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C160" s="82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D160" s="82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E160" s="100"/>
       <c r="F160" s="83" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G160" s="107" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H160" s="110" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="45" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B161" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C161" s="82" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D161" s="82" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E161" s="100"/>
       <c r="F161" s="83" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G161" s="108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H161" s="83" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="45" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B162" s="35" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C162" s="82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D162" s="82" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E162" s="100"/>
       <c r="F162" s="83" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G162" s="38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H162" s="40" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="45" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B163" s="35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C163" s="82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D163" s="82" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E163" s="100"/>
       <c r="F163" s="83" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G163" s="108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H163" s="83" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="45" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="C164" s="82" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="D164" s="82" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E164" s="82"/>
       <c r="F164" s="113" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="G164" s="114" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="H164" s="114" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="45" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B165" s="35" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="C165" s="99"/>
       <c r="D165" s="99"/>
       <c r="E165" s="100"/>
       <c r="F165" s="87"/>
       <c r="G165" s="36" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="H165" s="36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="45" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="B166" s="35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C166" s="82" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D166" s="82" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E166" s="100"/>
       <c r="F166" s="83" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="G166" s="107" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H166" s="107" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="45" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B167" s="35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C167" s="82" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D167" s="82" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E167" s="100"/>
       <c r="F167" s="83" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G167" s="107" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H167" s="107" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="45" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="B168" s="35" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C168" s="82" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D168" s="82" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E168" s="100"/>
       <c r="F168" s="83" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="G168" s="107" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H168" s="107" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="45" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="B169" s="35" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C169" s="82" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D169" s="82" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E169" s="100"/>
       <c r="F169" s="83" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G169" s="108" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H169" s="108" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="45" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="B170" s="35" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C170" s="82" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D170" s="82" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E170" s="100"/>
       <c r="F170" s="83" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G170" s="109" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H170" s="109" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="45" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C171" s="82" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D171" s="82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E171" s="100"/>
       <c r="F171" s="83" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="G171" s="107" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H171" s="110" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="45" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B172" s="35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C172" s="82" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D172" s="82" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E172" s="100"/>
       <c r="F172" s="83" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G172" s="108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H172" s="83" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="45" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C173" s="82" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D173" s="82" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E173" s="100"/>
       <c r="F173" s="83" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="G173" s="38" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="H173" s="40" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="45" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B174" s="35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C174" s="82" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D174" s="82" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E174" s="100"/>
       <c r="F174" s="83" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="G174" s="108" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H174" s="83" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="45" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="B175" s="35" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="C175" s="115" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="D175" s="115" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E175" s="100"/>
       <c r="F175" s="116" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="G175" s="104" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="H175" s="104" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="45" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B176" s="35" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E176" s="30"/>
       <c r="G176" s="30"/>
@@ -15353,10 +15323,10 @@
     </row>
     <row r="177">
       <c r="A177" s="45" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B177" s="35" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E177" s="30"/>
       <c r="G177" s="30"/>
@@ -15364,10 +15334,10 @@
     </row>
     <row r="178">
       <c r="A178" s="45" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B178" s="35" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="E178" s="30"/>
       <c r="G178" s="30"/>
@@ -15375,10 +15345,10 @@
     </row>
     <row r="179">
       <c r="A179" s="45" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B179" s="35" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E179" s="30"/>
       <c r="G179" s="30"/>
@@ -15386,10 +15356,10 @@
     </row>
     <row r="180">
       <c r="A180" s="45" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B180" s="35" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E180" s="30"/>
       <c r="G180" s="30"/>
@@ -15397,10 +15367,10 @@
     </row>
     <row r="181">
       <c r="A181" s="45" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B181" s="35" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="E181" s="30"/>
       <c r="G181" s="30"/>
@@ -15408,10 +15378,10 @@
     </row>
     <row r="182">
       <c r="A182" s="45" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="B182" s="35" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E182" s="30"/>
       <c r="G182" s="30"/>
@@ -15419,10 +15389,10 @@
     </row>
     <row r="183">
       <c r="A183" s="45" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="B183" s="35" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E183" s="30"/>
       <c r="G183" s="30"/>
@@ -15430,10 +15400,10 @@
     </row>
     <row r="184">
       <c r="A184" s="45" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="B184" s="35" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E184" s="30"/>
       <c r="G184" s="30"/>
@@ -15441,10 +15411,10 @@
     </row>
     <row r="185">
       <c r="A185" s="45" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="B185" s="35" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E185" s="30"/>
       <c r="G185" s="30"/>
@@ -15452,10 +15422,10 @@
     </row>
     <row r="186">
       <c r="A186" s="45" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B186" s="35" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="E186" s="30"/>
       <c r="G186" s="30"/>
@@ -15463,10 +15433,10 @@
     </row>
     <row r="187">
       <c r="A187" s="45" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B187" s="35" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="E187" s="30"/>
       <c r="G187" s="30"/>
@@ -15474,10 +15444,10 @@
     </row>
     <row r="188">
       <c r="A188" s="45" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="B188" s="35" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E188" s="30"/>
       <c r="G188" s="30"/>
@@ -15485,10 +15455,10 @@
     </row>
     <row r="189">
       <c r="A189" s="45" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B189" s="35" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="E189" s="30"/>
       <c r="G189" s="30"/>
@@ -15496,10 +15466,10 @@
     </row>
     <row r="190">
       <c r="A190" s="45" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B190" s="35" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="E190" s="30"/>
       <c r="G190" s="30"/>
@@ -15507,10 +15477,10 @@
     </row>
     <row r="191">
       <c r="A191" s="45" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B191" s="35" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E191" s="30"/>
       <c r="G191" s="30"/>
@@ -15518,10 +15488,10 @@
     </row>
     <row r="192">
       <c r="A192" s="45" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="B192" s="50" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E192" s="30"/>
       <c r="G192" s="30"/>
@@ -15529,10 +15499,10 @@
     </row>
     <row r="193">
       <c r="A193" s="45" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="B193" s="50" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E193" s="30"/>
       <c r="G193" s="30"/>
@@ -15540,10 +15510,10 @@
     </row>
     <row r="194">
       <c r="A194" s="45" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B194" s="50" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="E194" s="30"/>
       <c r="G194" s="30"/>
@@ -15551,10 +15521,10 @@
     </row>
     <row r="195">
       <c r="A195" s="45" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="B195" s="50" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="E195" s="30"/>
       <c r="G195" s="30"/>
@@ -15562,10 +15532,10 @@
     </row>
     <row r="196">
       <c r="A196" s="45" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B196" s="50" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E196" s="30"/>
       <c r="G196" s="30"/>
@@ -15573,10 +15543,10 @@
     </row>
     <row r="197">
       <c r="A197" s="45" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B197" s="50" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="E197" s="30"/>
       <c r="G197" s="30"/>
@@ -20517,36 +20487,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="117" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="118" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="119" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8">
@@ -20557,41 +20527,41 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="120" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="34"/>
       <c r="B13" s="121" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="122" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="123" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="124" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17">
@@ -20600,24 +20570,24 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="B19" s="125"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="B21" s="73" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -20649,17 +20619,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="27" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="28"/>
       <c r="E1" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F1" s="28"/>
       <c r="G1" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H1" s="28"/>
       <c r="I1" s="35"/>
@@ -20685,34 +20655,34 @@
     </row>
     <row r="2">
       <c r="A2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="G2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="H2" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="I2" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="J2" s="33" t="s">
         <v>57</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>62</v>
       </c>
       <c r="K2" s="35"/>
       <c r="L2" s="35"/>
@@ -20735,34 +20705,34 @@
     </row>
     <row r="5">
       <c r="A5" s="126" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B5" s="126" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C5" s="126" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" s="126" t="s">
+        <v>856</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>857</v>
+      </c>
+      <c r="F5" s="127" t="s">
+        <v>858</v>
+      </c>
+      <c r="G5" s="127" t="s">
+        <v>859</v>
+      </c>
+      <c r="H5" s="127" t="s">
+        <v>860</v>
+      </c>
+      <c r="I5" s="126" t="s">
         <v>861</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="J5" s="126" t="s">
         <v>862</v>
-      </c>
-      <c r="F5" s="127" t="s">
-        <v>863</v>
-      </c>
-      <c r="G5" s="127" t="s">
-        <v>864</v>
-      </c>
-      <c r="H5" s="127" t="s">
-        <v>865</v>
-      </c>
-      <c r="I5" s="126" t="s">
-        <v>866</v>
-      </c>
-      <c r="J5" s="126" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="6">
@@ -20794,76 +20764,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -20890,31 +20860,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -20941,15 +20911,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="128" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -31,15 +31,15 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="I165">
+    <comment authorId="0" ref="C64">
       <text>
-        <t xml:space="preserve">is it a isSubjectToLotSpecificTerm? (new epo)
+        <t xml:space="preserve">It should be /P and no /p/FT/@TYPE?
 	-ibrahim dellal</t>
       </text>
     </comment>
     <comment authorId="0" ref="I92">
       <text>
-        <t xml:space="preserve">isCompetitionTermination is deleted
+        <t xml:space="preserve">isCompetitionTermination is deleted. Changed name =&gt; XXXX on the XXXX class
 	-ibrahim dellal</t>
       </text>
     </comment>
@@ -782,7 +782,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasTelephone ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:telephone ?</t>
     </r>
     <r>
       <rPr>
@@ -839,7 +839,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasEmail ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:email ?</t>
     </r>
     <r>
       <rPr>
@@ -1829,7 +1829,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:isSubjectToLotTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
+      <t xml:space="preserve"> epo:isSubjectToLotSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
     </r>
     <r>
       <rPr>
@@ -1859,7 +1859,7 @@
     <t>epo:Lot / epo:ContractTerm / dct:Location / locn:Address / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
   </si>
   <si>
     <t>II.2.4</t>
@@ -2571,7 +2571,7 @@
   <si>
     <r>
       <rPr/>
-      <t>?this epo:isSubjectToLotTerm / epo:hasFrameworkAgreementType &lt;</t>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasFrameworkAgreementType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -3709,7 +3709,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasEmail ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:email ?</t>
     </r>
     <r>
       <rPr>
@@ -3754,7 +3754,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasTelephone ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:telephone ?</t>
     </r>
     <r>
       <rPr>
@@ -4675,7 +4675,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasEmail ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:email ?</t>
     </r>
     <r>
       <rPr>
@@ -4725,7 +4725,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasTelephone ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:telephone ?</t>
     </r>
     <r>
       <rPr>
@@ -5132,7 +5132,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasEmail ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:email ?</t>
     </r>
     <r>
       <rPr>
@@ -5182,7 +5182,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasTelephone ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:telephone ?</t>
     </r>
     <r>
       <rPr>
@@ -5316,7 +5316,7 @@
     <t>epo:Lot / epo:ReviewTerm</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotTerm / epo:hasReviewDeadlineInformation ?value .</t>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasReviewDeadlineInformation ?value .</t>
   </si>
   <si>
     <t>VI.4.4</t>
@@ -5607,7 +5607,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasEmail ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:email ?</t>
     </r>
     <r>
       <rPr>
@@ -5657,7 +5657,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:hasTelephone ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:telephone ?</t>
     </r>
     <r>
       <rPr>
@@ -6427,7 +6427,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6774,13 +6774,10 @@
     <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7228,7 +7225,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -7263,7 +7260,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -7298,7 +7295,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -7333,7 +7330,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -7368,7 +7365,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -7403,7 +7400,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -15039,21 +15036,21 @@
       <c r="B165" s="36" t="s">
         <v>768</v>
       </c>
-      <c r="C165" s="124" t="s">
+      <c r="C165" s="95" t="s">
         <v>769</v>
       </c>
-      <c r="D165" s="124" t="s">
+      <c r="D165" s="95" t="s">
         <v>770</v>
       </c>
-      <c r="E165" s="124"/>
-      <c r="F165" s="125" t="s">
+      <c r="E165" s="95"/>
+      <c r="F165" s="96" t="s">
         <v>771</v>
       </c>
-      <c r="G165" s="125"/>
-      <c r="H165" s="126" t="s">
+      <c r="G165" s="124"/>
+      <c r="H165" s="125" t="s">
         <v>772</v>
       </c>
-      <c r="I165" s="126" t="s">
+      <c r="I165" s="125" t="s">
         <v>773</v>
       </c>
     </row>
@@ -15308,17 +15305,17 @@
       <c r="B176" s="36" t="s">
         <v>805</v>
       </c>
-      <c r="C176" s="127" t="s">
+      <c r="C176" s="126" t="s">
         <v>806</v>
       </c>
-      <c r="D176" s="127" t="s">
+      <c r="D176" s="126" t="s">
         <v>807</v>
       </c>
       <c r="E176" s="109"/>
-      <c r="F176" s="128" t="s">
+      <c r="F176" s="127" t="s">
         <v>808</v>
       </c>
-      <c r="G176" s="128"/>
+      <c r="G176" s="127"/>
       <c r="H176" s="113" t="s">
         <v>809</v>
       </c>
@@ -20499,7 +20496,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="128" t="s">
         <v>853</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -20507,7 +20504,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="129" t="s">
         <v>855</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -20515,7 +20512,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="130" t="s">
         <v>857</v>
       </c>
     </row>
@@ -20552,28 +20549,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="131" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="35"/>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="132" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="133" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="135" t="s">
+      <c r="B15" s="134" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="136" t="s">
+      <c r="B16" s="135" t="s">
         <v>868</v>
       </c>
     </row>
@@ -20593,7 +20590,7 @@
       <c r="A19" s="10" t="s">
         <v>871</v>
       </c>
-      <c r="B19" s="137"/>
+      <c r="B19" s="136"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -20717,34 +20714,34 @@
       <c r="AB2" s="32"/>
     </row>
     <row r="5">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="137" t="s">
         <v>288</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="138" t="s">
+      <c r="D5" s="137" t="s">
         <v>874</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="138" t="s">
         <v>875</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="F5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="G5" s="138" t="s">
         <v>876</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="H5" s="138" t="s">
         <v>877</v>
       </c>
-      <c r="I5" s="138" t="s">
+      <c r="I5" s="137" t="s">
         <v>878</v>
       </c>
-      <c r="J5" s="138" t="s">
+      <c r="J5" s="137" t="s">
         <v>879</v>
       </c>
     </row>
@@ -20776,7 +20773,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -20872,7 +20869,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>
@@ -20923,7 +20920,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="139" t="s">
         <v>880</v>
       </c>
     </row>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1332" uniqueCount="964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="966">
   <si>
     <t>Field</t>
   </si>
@@ -2297,6 +2297,15 @@
   </si>
   <si>
     <t>Procedure</t>
+  </si>
+  <si>
+    <t>PROCEDURE</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:Lot</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot ?value</t>
   </si>
   <si>
     <t>IV.1</t>
@@ -5888,9 +5897,6 @@
   </si>
   <si>
     <t>Direct Award Justification Code</t>
-  </si>
-  <si>
-    <t>PROCEDURE</t>
   </si>
   <si>
     <t>epo:Procedure / epo:DirectAwardTerm / at-voc:direct-award-justification</t>
@@ -10557,15 +10563,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -10592,15 +10598,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -10627,15 +10633,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -10662,15 +10668,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -10697,15 +10703,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -10732,15 +10738,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -12973,14 +12979,20 @@
       <c r="C67" s="65"/>
       <c r="D67" s="65"/>
       <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
+      <c r="F67" s="22" t="s">
+        <v>372</v>
+      </c>
       <c r="G67" s="65"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="H67" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="42" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>8</v>
@@ -12995,298 +13007,298 @@
     </row>
     <row r="69">
       <c r="A69" s="42" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
     </row>
     <row r="70">
       <c r="A70" s="71" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E70" s="66"/>
       <c r="F70" s="66" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G70" s="66"/>
       <c r="H70" s="33" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I70" s="73" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="71" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="66" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G71" s="66"/>
       <c r="H71" s="33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I71" s="33" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="71" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E72" s="66"/>
       <c r="F72" s="66" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G72" s="66"/>
       <c r="H72" s="33" t="s">
         <v>177</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="42" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D73" s="66" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E73" s="66"/>
       <c r="F73" s="66" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G73" s="66"/>
       <c r="H73" s="33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I73" s="33" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="42" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E74" s="66"/>
       <c r="F74" s="66" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G74" s="66"/>
       <c r="H74" s="33" t="s">
         <v>177</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="42" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E75" s="66"/>
       <c r="F75" s="66" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G75" s="66"/>
       <c r="H75" s="33" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I75" s="64" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="42" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E76" s="66"/>
       <c r="F76" s="66" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G76" s="66"/>
       <c r="H76" s="33" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I76" s="33" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="42" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E77" s="66"/>
       <c r="F77" s="66" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G77" s="66"/>
       <c r="H77" s="33" t="s">
         <v>177</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="42" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E78" s="66"/>
       <c r="F78" s="66" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="G78" s="66"/>
       <c r="H78" s="33" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I78" s="64" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="42" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E79" s="66"/>
       <c r="F79" s="66" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G79" s="66"/>
       <c r="H79" s="33" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I79" s="73" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="42" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G80" s="66"/>
       <c r="H80" s="33" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I80" s="73" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="42" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C81" s="74" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D81" s="75"/>
       <c r="E81" s="75"/>
@@ -13297,63 +13309,63 @@
     </row>
     <row r="82">
       <c r="A82" s="42" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C82" s="66" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D82" s="66" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E82" s="66"/>
       <c r="F82" s="66" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="G82" s="66"/>
       <c r="H82" s="33" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="I82" s="73" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="42" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B83" s="32" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C83" s="66" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="D83" s="66" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E83" s="66"/>
       <c r="F83" s="66" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="G83" s="66"/>
       <c r="H83" s="33" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="I83" s="73" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="42" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B84" s="32" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F84" s="65"/>
       <c r="G84" s="65"/>
@@ -13362,62 +13374,62 @@
     </row>
     <row r="85">
       <c r="A85" s="42" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C85" s="66" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D85" s="66" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E85" s="66"/>
       <c r="F85" s="66" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="G85" s="66"/>
       <c r="H85" s="33" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="I85" s="73" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="42" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B86" s="32" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C86" s="66" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D86" s="66" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E86" s="66"/>
       <c r="F86" s="33" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="G86" s="62" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="H86" s="33" t="s">
         <v>353</v>
       </c>
       <c r="I86" s="33" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="42" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B87" s="32" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F87" s="65"/>
       <c r="G87" s="65"/>
@@ -13426,74 +13438,74 @@
     </row>
     <row r="88">
       <c r="A88" s="42" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C88" s="77" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="D88" s="77" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E88" s="77"/>
       <c r="F88" s="78" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G88" s="77"/>
       <c r="H88" s="79" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="I88" s="80" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="42" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B89" s="32" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F89" s="65"/>
       <c r="G89" s="65"/>
       <c r="H89" s="32" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="I89" s="28"/>
     </row>
     <row r="90">
       <c r="A90" s="42" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C90" s="66" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E90" s="33"/>
       <c r="F90" s="66" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="G90" s="66"/>
       <c r="H90" s="33" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="I90" s="33" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="42" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B91" s="32" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C91" s="21"/>
       <c r="F91" s="65"/>
@@ -13503,261 +13515,261 @@
     </row>
     <row r="92">
       <c r="A92" s="42" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="C92" s="66" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D92" s="66" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E92" s="66"/>
       <c r="F92" s="66" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G92" s="66"/>
       <c r="H92" s="33" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="I92" s="33" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="42" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B93" s="32" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G93" s="81"/>
       <c r="H93" s="32" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I93" s="32" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="42" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B94" s="32"/>
       <c r="C94" s="82"/>
       <c r="D94" s="82"/>
       <c r="E94" s="82"/>
       <c r="F94" s="22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G94" s="83"/>
       <c r="H94" s="32" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="I94" s="32" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="42" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B95" s="32"/>
       <c r="C95" s="82"/>
       <c r="D95" s="82"/>
       <c r="E95" s="82"/>
       <c r="F95" s="22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G95" s="83"/>
       <c r="H95" s="32" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I95" s="32" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="42" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B96" s="32" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C96" s="82" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D96" s="82" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E96" s="82"/>
       <c r="F96" s="83" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G96" s="83"/>
       <c r="H96" s="32" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="I96" s="32" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="42" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B97" s="32" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C97" s="82" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D97" s="82" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="E97" s="82"/>
       <c r="F97" s="83" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G97" s="83"/>
       <c r="H97" s="84" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="I97" s="32" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="42" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B98" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="82" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D98" s="82" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E98" s="82"/>
       <c r="F98" s="83" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="G98" s="83"/>
       <c r="H98" s="32" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I98" s="32" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="42" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B99" s="32"/>
       <c r="C99" s="82"/>
       <c r="D99" s="82"/>
       <c r="E99" s="82"/>
       <c r="F99" s="22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G99" s="85"/>
       <c r="H99" s="33" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="I99" s="86" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="42" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B100" s="32" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C100" s="82" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D100" s="82" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E100" s="82"/>
       <c r="F100" s="85" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="G100" s="85" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H100" s="33" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I100" s="86" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="42" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B101" s="32"/>
       <c r="C101" s="82"/>
       <c r="D101" s="82"/>
       <c r="E101" s="82"/>
       <c r="F101" s="79" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G101" s="79" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H101" s="33" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="I101" s="86" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="42" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B102" s="32" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C102" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D102" s="82"/>
       <c r="E102" s="82"/>
       <c r="F102" s="79" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G102" s="79" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="I102" s="86" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="42" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C103" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D103" s="82"/>
       <c r="E103" s="82"/>
@@ -13768,86 +13780,86 @@
     </row>
     <row r="104">
       <c r="A104" s="42" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C104" s="82" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E104" s="82"/>
       <c r="F104" s="83" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="G104" s="83"/>
       <c r="H104" s="32" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="I104" s="89" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="42" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B105" s="32" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C105" s="82" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E105" s="82"/>
       <c r="F105" s="83" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="G105" s="83"/>
       <c r="H105" s="32" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="I105" s="89" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="42" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C106" s="90" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D106" s="82"/>
       <c r="E106" s="82"/>
       <c r="F106" s="83" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G106" s="83"/>
       <c r="H106" s="33" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="I106" s="86" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="42" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="C107" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D107" s="82"/>
       <c r="E107" s="82"/>
@@ -13858,41 +13870,41 @@
     </row>
     <row r="108">
       <c r="A108" s="42" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C108" s="82" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="D108" s="82" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E108" s="82"/>
       <c r="F108" s="83" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G108" s="83"/>
       <c r="H108" s="22" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="I108" s="32" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="42" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B109" s="32" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="C109" s="82"/>
       <c r="D109" s="82"/>
       <c r="E109" s="82"/>
       <c r="F109" s="22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G109" s="91"/>
       <c r="H109" s="64" t="s">
@@ -13904,172 +13916,172 @@
     </row>
     <row r="110">
       <c r="A110" s="42" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="C110" s="82" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="D110" s="82" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="E110" s="82"/>
       <c r="F110" s="83" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G110" s="83"/>
       <c r="H110" s="32" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="I110" s="32" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="42" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B111" s="32" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="C111" s="82" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D111" s="82" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E111" s="82"/>
       <c r="F111" s="83" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="G111" s="83"/>
       <c r="H111" s="32" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I111" s="32" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="42" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B112" s="32" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="C112" s="82" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D112" s="82" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E112" s="82"/>
       <c r="F112" s="83" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G112" s="83"/>
       <c r="H112" s="32" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I112" s="32" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="42" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="C113" s="82" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D113" s="82" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E113" s="82"/>
       <c r="F113" s="83" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G113" s="83"/>
       <c r="H113" s="32" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="42" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="C114" s="82" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="D114" s="82" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E114" s="82"/>
       <c r="F114" s="83" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G114" s="83"/>
       <c r="H114" s="32" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="I114" s="32" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="42" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C115" s="92" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D115" s="82"/>
       <c r="E115" s="82"/>
       <c r="F115" s="83" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="G115" s="62" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H115" s="33" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I115" s="33" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="42" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B116" s="32" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C116" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D116" s="82"/>
       <c r="E116" s="82"/>
       <c r="F116" s="22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G116" s="88"/>
       <c r="H116" s="33" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I116" s="33" t="s">
         <v>48</v>
@@ -14077,28 +14089,28 @@
     </row>
     <row r="117">
       <c r="A117" s="42" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B117" s="32"/>
       <c r="C117" s="88"/>
       <c r="D117" s="82"/>
       <c r="E117" s="82"/>
       <c r="F117" s="79" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G117" s="79" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H117" s="33" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I117" s="86" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="42" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B118" s="32" t="s">
         <v>50</v>
@@ -14111,19 +14123,19 @@
       </c>
       <c r="E118" s="82"/>
       <c r="F118" s="83" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G118" s="83"/>
       <c r="H118" s="35" t="s">
         <v>54</v>
       </c>
       <c r="I118" s="35" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="42" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B119" s="32" t="s">
         <v>57</v>
@@ -14136,19 +14148,19 @@
       </c>
       <c r="E119" s="82"/>
       <c r="F119" s="83" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G119" s="83"/>
       <c r="H119" s="36" t="s">
         <v>61</v>
       </c>
       <c r="I119" s="36" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="42" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B120" s="32" t="s">
         <v>64</v>
@@ -14161,19 +14173,19 @@
       </c>
       <c r="E120" s="82"/>
       <c r="F120" s="83" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G120" s="83"/>
       <c r="H120" s="32" t="s">
         <v>68</v>
       </c>
       <c r="I120" s="32" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="42" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B121" s="32" t="s">
         <v>71</v>
@@ -14186,19 +14198,19 @@
       </c>
       <c r="E121" s="82"/>
       <c r="F121" s="83" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G121" s="83"/>
       <c r="H121" s="32" t="s">
         <v>68</v>
       </c>
       <c r="I121" s="32" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="42" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B122" s="32" t="s">
         <v>77</v>
@@ -14211,21 +14223,21 @@
       </c>
       <c r="E122" s="82"/>
       <c r="F122" s="83" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G122" s="83" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H122" s="33" t="s">
         <v>82</v>
       </c>
       <c r="I122" s="33" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="42" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B123" s="32" t="s">
         <v>85</v>
@@ -14234,23 +14246,23 @@
         <v>86</v>
       </c>
       <c r="D123" s="82" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E123" s="82"/>
       <c r="F123" s="83" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G123" s="83"/>
       <c r="H123" s="32" t="s">
         <v>88</v>
       </c>
       <c r="I123" s="32" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="42" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B124" s="32" t="s">
         <v>91</v>
@@ -14263,19 +14275,19 @@
       </c>
       <c r="E124" s="82"/>
       <c r="F124" s="83" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G124" s="83"/>
       <c r="H124" s="35" t="s">
         <v>95</v>
       </c>
       <c r="I124" s="35" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="42" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B125" s="32" t="s">
         <v>111</v>
@@ -14288,19 +14300,19 @@
       </c>
       <c r="E125" s="82"/>
       <c r="F125" s="83" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G125" s="83"/>
       <c r="H125" s="32" t="s">
         <v>115</v>
       </c>
       <c r="I125" s="33" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="42" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B126" s="32" t="s">
         <v>105</v>
@@ -14313,22 +14325,22 @@
       </c>
       <c r="E126" s="82"/>
       <c r="F126" s="83" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G126" s="83"/>
       <c r="H126" s="32" t="s">
         <v>102</v>
       </c>
       <c r="I126" s="33" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="42" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="C127" s="88"/>
       <c r="D127" s="82"/>
@@ -14340,7 +14352,7 @@
     </row>
     <row r="128">
       <c r="A128" s="42" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B128" s="32" t="s">
         <v>118</v>
@@ -14353,52 +14365,52 @@
       </c>
       <c r="E128" s="82"/>
       <c r="F128" s="83" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="G128" s="83"/>
       <c r="H128" s="32" t="s">
         <v>102</v>
       </c>
       <c r="I128" s="33" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="42" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C129" s="88" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D129" s="82" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E129" s="82"/>
       <c r="F129" s="83" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G129" s="83" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="H129" s="33" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="I129" s="93" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="42" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="C130" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D130" s="82"/>
       <c r="E130" s="82"/>
@@ -14409,10 +14421,10 @@
     </row>
     <row r="131">
       <c r="A131" s="42" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="C131" s="82" t="s">
         <v>225</v>
@@ -14422,44 +14434,44 @@
       </c>
       <c r="E131" s="82"/>
       <c r="F131" s="83" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G131" s="83"/>
       <c r="H131" s="33" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="I131" s="33" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="42" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="C132" s="82" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="D132" s="82" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E132" s="82"/>
       <c r="F132" s="83" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="G132" s="83"/>
       <c r="H132" s="33" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="I132" s="33" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="42" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B133" s="32" t="s">
         <v>231</v>
@@ -14472,42 +14484,42 @@
       </c>
       <c r="E133" s="82"/>
       <c r="F133" s="83" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="G133" s="83"/>
       <c r="H133" s="33" t="s">
         <v>235</v>
       </c>
       <c r="I133" s="33" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="42" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B134" s="32" t="s">
         <v>244</v>
       </c>
       <c r="C134" s="94" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D134" s="82"/>
       <c r="E134" s="82"/>
       <c r="F134" s="83" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G134" s="83"/>
       <c r="H134" s="33" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I134" s="33" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="42" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B135" s="32" t="s">
         <v>238</v>
@@ -14520,48 +14532,48 @@
       </c>
       <c r="E135" s="82"/>
       <c r="F135" s="83" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="33" t="s">
         <v>235</v>
       </c>
       <c r="I135" s="33" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="42" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B136" s="32" t="s">
         <v>244</v>
       </c>
       <c r="C136" s="94" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D136" s="82"/>
       <c r="E136" s="82"/>
       <c r="F136" s="83" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G136" s="83"/>
       <c r="H136" s="33" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="42" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="C137" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D137" s="82"/>
       <c r="E137" s="82"/>
@@ -14572,60 +14584,60 @@
     </row>
     <row r="138">
       <c r="A138" s="42" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="C138" s="82" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="D138" s="82" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E138" s="82"/>
       <c r="F138" s="83" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G138" s="83"/>
       <c r="H138" s="33" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="I138" s="33" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="42" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="C139" s="82" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D139" s="82" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E139" s="82"/>
       <c r="F139" s="83" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G139" s="83"/>
       <c r="H139" s="33" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="I139" s="33" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="42" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C140" s="82"/>
       <c r="D140" s="82"/>
@@ -14636,83 +14648,83 @@
     </row>
     <row r="141">
       <c r="A141" s="42" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B141" s="32" t="s">
         <v>244</v>
       </c>
       <c r="C141" s="94" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D141" s="82"/>
       <c r="E141" s="82"/>
       <c r="F141" s="83" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G141" s="83"/>
       <c r="H141" s="64" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="I141" s="33" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="42" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="C142" s="82" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="D142" s="82" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E142" s="82"/>
       <c r="F142" s="83" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="G142" s="83"/>
       <c r="H142" s="64" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="I142" s="33" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="42" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C143" s="82" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="D143" s="82" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E143" s="82"/>
       <c r="F143" s="83" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="G143" s="83"/>
       <c r="H143" s="64" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="I143" s="33" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="42" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C144" s="95"/>
       <c r="D144" s="96"/>
@@ -14724,7 +14736,7 @@
     </row>
     <row r="145">
       <c r="A145" s="42" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B145" s="32" t="s">
         <v>365</v>
@@ -14735,25 +14747,25 @@
       <c r="D145" s="96"/>
       <c r="E145" s="96"/>
       <c r="F145" s="97" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="G145" s="97"/>
       <c r="H145" s="98" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="I145" s="99" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="42" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="C146" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D146" s="96"/>
       <c r="E146" s="96"/>
@@ -14764,22 +14776,22 @@
     </row>
     <row r="147">
       <c r="A147" s="42" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="C147" s="101" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D147" s="96"/>
       <c r="E147" s="96"/>
       <c r="F147" s="22" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="G147" s="88"/>
       <c r="H147" s="33" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="I147" s="33" t="s">
         <v>48</v>
@@ -14787,7 +14799,7 @@
     </row>
     <row r="148">
       <c r="A148" s="42" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B148" s="32" t="s">
         <v>50</v>
@@ -14800,19 +14812,19 @@
       </c>
       <c r="E148" s="82"/>
       <c r="F148" s="83" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="G148" s="83"/>
       <c r="H148" s="102" t="s">
         <v>54</v>
       </c>
       <c r="I148" s="103" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="42" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B149" s="32" t="s">
         <v>64</v>
@@ -14825,19 +14837,19 @@
       </c>
       <c r="E149" s="82"/>
       <c r="F149" s="83" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G149" s="83"/>
       <c r="H149" s="102" t="s">
         <v>68</v>
       </c>
       <c r="I149" s="103" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="42" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B150" s="32" t="s">
         <v>71</v>
@@ -14850,19 +14862,19 @@
       </c>
       <c r="E150" s="82"/>
       <c r="F150" s="83" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="G150" s="83"/>
       <c r="H150" s="102" t="s">
         <v>68</v>
       </c>
       <c r="I150" s="103" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="42" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B151" s="32" t="s">
         <v>85</v>
@@ -14871,23 +14883,23 @@
         <v>86</v>
       </c>
       <c r="D151" s="82" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E151" s="82"/>
       <c r="F151" s="83" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="G151" s="83"/>
       <c r="H151" s="104" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="I151" s="104" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="42" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>91</v>
@@ -14900,19 +14912,19 @@
       </c>
       <c r="E152" s="82"/>
       <c r="F152" s="83" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="G152" s="83"/>
       <c r="H152" s="105" t="s">
         <v>82</v>
       </c>
       <c r="I152" s="106" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="42" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>111</v>
@@ -14925,19 +14937,19 @@
       </c>
       <c r="E153" s="82"/>
       <c r="F153" s="83" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G153" s="83"/>
       <c r="H153" s="102" t="s">
         <v>115</v>
       </c>
       <c r="I153" s="105" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="42" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>105</v>
@@ -14950,22 +14962,22 @@
       </c>
       <c r="E154" s="82"/>
       <c r="F154" s="83" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="G154" s="83"/>
       <c r="H154" s="104" t="s">
         <v>102</v>
       </c>
       <c r="I154" s="83" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="42" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B155" s="32" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C155" s="82" t="s">
         <v>127</v>
@@ -14975,19 +14987,19 @@
       </c>
       <c r="E155" s="82"/>
       <c r="F155" s="83" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="G155" s="83"/>
       <c r="H155" s="35" t="s">
         <v>130</v>
       </c>
       <c r="I155" s="36" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="42" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B156" s="32" t="s">
         <v>118</v>
@@ -15000,34 +15012,34 @@
       </c>
       <c r="E156" s="82"/>
       <c r="F156" s="83" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G156" s="83"/>
       <c r="H156" s="104" t="s">
         <v>102</v>
       </c>
       <c r="I156" s="83" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="42" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="C157" s="101" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D157" s="107"/>
       <c r="E157" s="107"/>
       <c r="F157" s="22" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="G157" s="88"/>
       <c r="H157" s="33" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="I157" s="33" t="s">
         <v>48</v>
@@ -15035,7 +15047,7 @@
     </row>
     <row r="158">
       <c r="A158" s="42" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B158" s="32" t="s">
         <v>50</v>
@@ -15048,19 +15060,19 @@
       </c>
       <c r="E158" s="82"/>
       <c r="F158" s="83" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G158" s="83"/>
       <c r="H158" s="102" t="s">
         <v>54</v>
       </c>
       <c r="I158" s="103" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="42" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B159" s="32" t="s">
         <v>64</v>
@@ -15073,19 +15085,19 @@
       </c>
       <c r="E159" s="82"/>
       <c r="F159" s="83" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="G159" s="83"/>
       <c r="H159" s="102" t="s">
         <v>68</v>
       </c>
       <c r="I159" s="103" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="42" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B160" s="32" t="s">
         <v>71</v>
@@ -15098,19 +15110,19 @@
       </c>
       <c r="E160" s="82"/>
       <c r="F160" s="83" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G160" s="83"/>
       <c r="H160" s="102" t="s">
         <v>68</v>
       </c>
       <c r="I160" s="103" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="42" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B161" s="32" t="s">
         <v>85</v>
@@ -15119,23 +15131,23 @@
         <v>86</v>
       </c>
       <c r="D161" s="82" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E161" s="82"/>
       <c r="F161" s="83" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="G161" s="83"/>
       <c r="H161" s="104" t="s">
         <v>88</v>
       </c>
       <c r="I161" s="104" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="42" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B162" s="32" t="s">
         <v>91</v>
@@ -15148,19 +15160,19 @@
       </c>
       <c r="E162" s="82"/>
       <c r="F162" s="83" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G162" s="83"/>
       <c r="H162" s="102" t="s">
         <v>82</v>
       </c>
       <c r="I162" s="103" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="42" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B163" s="32" t="s">
         <v>111</v>
@@ -15173,19 +15185,19 @@
       </c>
       <c r="E163" s="82"/>
       <c r="F163" s="83" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="G163" s="83"/>
       <c r="H163" s="102" t="s">
         <v>115</v>
       </c>
       <c r="I163" s="105" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="42" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B164" s="32" t="s">
         <v>105</v>
@@ -15198,22 +15210,22 @@
       </c>
       <c r="E164" s="82"/>
       <c r="F164" s="83" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="G164" s="83"/>
       <c r="H164" s="104" t="s">
         <v>102</v>
       </c>
       <c r="I164" s="83" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="42" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B165" s="32" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C165" s="82" t="s">
         <v>127</v>
@@ -15223,19 +15235,19 @@
       </c>
       <c r="E165" s="82"/>
       <c r="F165" s="83" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="G165" s="83"/>
       <c r="H165" s="35" t="s">
         <v>130</v>
       </c>
       <c r="I165" s="36" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="42" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B166" s="32" t="s">
         <v>118</v>
@@ -15248,57 +15260,57 @@
       </c>
       <c r="E166" s="82"/>
       <c r="F166" s="83" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G166" s="83"/>
       <c r="H166" s="104" t="s">
         <v>102</v>
       </c>
       <c r="I166" s="83" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="42" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B167" s="32" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="C167" s="82" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="D167" s="82" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="E167" s="82"/>
       <c r="F167" s="83" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="G167" s="108"/>
       <c r="H167" s="109" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="I167" s="109" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="42" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B168" s="32" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C168" s="95"/>
       <c r="D168" s="95"/>
       <c r="E168" s="95"/>
       <c r="F168" s="22" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="G168" s="88"/>
       <c r="H168" s="33" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="I168" s="33" t="s">
         <v>48</v>
@@ -15306,7 +15318,7 @@
     </row>
     <row r="169">
       <c r="A169" s="42" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B169" s="32" t="s">
         <v>50</v>
@@ -15319,19 +15331,19 @@
       </c>
       <c r="E169" s="82"/>
       <c r="F169" s="83" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="G169" s="83"/>
       <c r="H169" s="102" t="s">
         <v>54</v>
       </c>
       <c r="I169" s="103" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="42" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B170" s="32" t="s">
         <v>64</v>
@@ -15344,19 +15356,19 @@
       </c>
       <c r="E170" s="82"/>
       <c r="F170" s="83" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="G170" s="83"/>
       <c r="H170" s="102" t="s">
         <v>68</v>
       </c>
       <c r="I170" s="103" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="42" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B171" s="32" t="s">
         <v>71</v>
@@ -15369,19 +15381,19 @@
       </c>
       <c r="E171" s="82"/>
       <c r="F171" s="83" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G171" s="83"/>
       <c r="H171" s="102" t="s">
         <v>68</v>
       </c>
       <c r="I171" s="103" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="42" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B172" s="32" t="s">
         <v>85</v>
@@ -15390,23 +15402,23 @@
         <v>86</v>
       </c>
       <c r="D172" s="82" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E172" s="82"/>
       <c r="F172" s="83" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="G172" s="83"/>
       <c r="H172" s="104" t="s">
         <v>88</v>
       </c>
       <c r="I172" s="104" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="42" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>91</v>
@@ -15419,19 +15431,19 @@
       </c>
       <c r="E173" s="82"/>
       <c r="F173" s="83" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="105" t="s">
         <v>82</v>
       </c>
       <c r="I173" s="106" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="42" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B174" s="32" t="s">
         <v>111</v>
@@ -15444,19 +15456,19 @@
       </c>
       <c r="E174" s="82"/>
       <c r="F174" s="83" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G174" s="83"/>
       <c r="H174" s="102" t="s">
         <v>115</v>
       </c>
       <c r="I174" s="105" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="42" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B175" s="32" t="s">
         <v>105</v>
@@ -15469,22 +15481,22 @@
       </c>
       <c r="E175" s="82"/>
       <c r="F175" s="83" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G175" s="83"/>
       <c r="H175" s="104" t="s">
         <v>102</v>
       </c>
       <c r="I175" s="83" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B176" s="32" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C176" s="82" t="s">
         <v>127</v>
@@ -15494,19 +15506,19 @@
       </c>
       <c r="E176" s="82"/>
       <c r="F176" s="83" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G176" s="83"/>
       <c r="H176" s="35" t="s">
         <v>130</v>
       </c>
       <c r="I176" s="36" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B177" s="32" t="s">
         <v>118</v>
@@ -15519,176 +15531,176 @@
       </c>
       <c r="E177" s="82"/>
       <c r="F177" s="83" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G177" s="83"/>
       <c r="H177" s="104" t="s">
         <v>102</v>
       </c>
       <c r="I177" s="83" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="42" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B178" s="32" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="C178" s="110" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="D178" s="110" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="E178" s="110"/>
       <c r="F178" s="111" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="G178" s="111"/>
       <c r="H178" s="99" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="I178" s="99" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="42" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B179" s="32" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="H179" s="28"/>
       <c r="I179" s="28"/>
     </row>
     <row r="180">
       <c r="A180" s="42" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B180" s="32" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C180" s="112" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D180" s="88"/>
       <c r="E180" s="88"/>
       <c r="F180" s="83" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
     </row>
     <row r="181">
       <c r="A181" s="42" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B181" s="32" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="C181" s="87" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D181" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E181" s="82"/>
       <c r="F181" s="22" t="s">
-        <v>826</v>
+        <v>372</v>
       </c>
       <c r="H181" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I181" s="89" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="42" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B182" s="32" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C182" s="113" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D182" s="113" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E182" s="113"/>
       <c r="F182" s="114" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="G182" s="57"/>
       <c r="H182" s="115" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I182" s="51" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="42" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B183" s="32" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C183" s="113" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D183" s="113" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="E183" s="113"/>
       <c r="F183" s="114" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G183" s="57"/>
       <c r="H183" s="115" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="I183" s="116" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="42" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C184" s="87" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D184" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E184" s="82"/>
       <c r="F184" s="83" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="H184" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I184" s="89" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="42" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B185" s="32" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="C185" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D185" s="82"/>
       <c r="E185" s="82"/>
@@ -15697,205 +15709,205 @@
     </row>
     <row r="186">
       <c r="A186" s="42" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B186" s="32" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C186" s="82" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D186" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E186" s="82"/>
       <c r="F186" s="83" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="H186" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I186" s="89" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="42" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B187" s="32" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C187" s="82" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D187" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E187" s="82"/>
       <c r="F187" s="83" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="H187" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I187" s="89" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="42" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B188" s="32" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C188" s="82" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D188" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E188" s="82"/>
       <c r="F188" s="83" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="H188" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I188" s="89" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="42" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B189" s="32" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C189" s="87" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D189" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E189" s="82"/>
       <c r="F189" s="83" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="H189" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I189" s="89" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="42" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B190" s="32" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="C190" s="87" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D190" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E190" s="82"/>
       <c r="F190" s="83" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I190" s="89" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="42" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B191" s="32" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C191" s="87" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D191" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E191" s="82"/>
       <c r="F191" s="83" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="H191" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I191" s="89" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="42" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B192" s="32" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C192" s="87" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D192" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E192" s="82"/>
       <c r="F192" s="83" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="H192" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I192" s="89" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="42" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="B193" s="32" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="C193" s="87" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D193" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E193" s="82"/>
       <c r="F193" s="83" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="H193" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I193" s="89" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="42" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="B194" s="32" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="C194" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D194" s="82"/>
       <c r="E194" s="82"/>
@@ -15904,61 +15916,61 @@
     </row>
     <row r="195">
       <c r="A195" s="42" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B195" s="47" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C195" s="82" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D195" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E195" s="82"/>
       <c r="F195" s="83" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="H195" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I195" s="89" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="42" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B196" s="47" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="C196" s="82" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="D196" s="82" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E196" s="82"/>
       <c r="F196" s="83" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="H196" s="32" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I196" s="89" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="42" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B197" s="47" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C197" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D197" s="88"/>
       <c r="E197" s="88"/>
@@ -15967,35 +15979,35 @@
     </row>
     <row r="198">
       <c r="A198" s="42" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B198" s="47" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C198" s="117" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D198" s="82"/>
       <c r="E198" s="82"/>
       <c r="F198" s="83" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="H198" s="33" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="I198" s="73" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="42" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B199" s="47" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C199" s="87" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D199" s="88"/>
       <c r="E199" s="88"/>
@@ -16004,26 +16016,26 @@
     </row>
     <row r="200">
       <c r="A200" s="42" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B200" s="47" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="C200" s="87" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="D200" s="82" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="E200" s="82"/>
       <c r="F200" s="111" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="H200" s="32" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="I200" s="63" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
     </row>
     <row r="201">
@@ -20160,36 +20172,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="119" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="120" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="121" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="122" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
     </row>
     <row r="8">
@@ -20200,41 +20212,41 @@
     </row>
     <row r="10">
       <c r="A10" s="122" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="122" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="123" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31"/>
       <c r="B13" s="124" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="125" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="126" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="127" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="17">
@@ -20243,24 +20255,24 @@
     </row>
     <row r="18">
       <c r="A18" s="122" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B19" s="128"/>
     </row>
     <row r="21">
       <c r="A21" s="122" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
     </row>
   </sheetData>
@@ -20286,52 +20298,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="122" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="66" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>
@@ -20357,48 +20369,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B1" s="129" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="130" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
   </sheetData>
@@ -20440,76 +20452,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="32" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -20536,31 +20548,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
   </sheetData>
@@ -20587,15 +20599,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -46,7 +46,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H182">
+    <comment authorId="0" ref="H183">
       <text>
         <t xml:space="preserve">Previous Procedure (It sould be already created What is its identifier??? )
 	-ibrahim dellal</t>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1350" uniqueCount="974">
   <si>
     <t>Field</t>
   </si>
@@ -550,6 +550,9 @@
     <t>BT-512</t>
   </si>
   <si>
+    <t>Place Performance Post Code</t>
+  </si>
+  <si>
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/POSTAL_CODE</t>
   </si>
   <si>
@@ -769,9 +772,6 @@
     <t>E-mail</t>
   </si>
   <si>
-    <t>BT-506</t>
-  </si>
-  <si>
     <t>Organisation Contact Email Address</t>
   </si>
   <si>
@@ -1318,6 +1318,9 @@
     <t>OBJECT_CONTRACT/CPV_MAIN/CPV_SUPPLEMENTARY_CODE/@CODE</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:Purpose / at-voc:cpvsuppl (from CL7)</t>
+  </si>
+  <si>
     <t>?this epo:hasOverallPurpose / epo:hasAdditionalClassification ?value .</t>
   </si>
   <si>
@@ -1752,6 +1755,9 @@
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/CPV_ADDITIONAL/CPV_SUPPLEMENTARY_CODE/@CODE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Purpose / at-voc:cpvsuppl (from CL7)</t>
   </si>
   <si>
     <t>?this epo:hasPurpose / epo:hasAdditionalClassification ?value .</t>
@@ -2188,6 +2194,12 @@
     <t>Identification of the project</t>
   </si>
   <si>
+    <t>BT-5011</t>
+  </si>
+  <si>
+    <t>Contract EU Funds Identifier</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED/P/FT/@TYPE</t>
   </si>
   <si>
@@ -2433,6 +2445,38 @@
     </r>
   </si>
   <si>
+    <t>IV.1.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restricted procedure </t>
+  </si>
+  <si>
+    <t>PROCEDURE/PT_RESTRICTED</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/restricted</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>IV.1.1.2.1</t>
   </si>
   <si>
@@ -2451,7 +2495,7 @@
     <t>Competitive procedure with negotiation</t>
   </si>
   <si>
-    <t>PT_COMPETITIVE_NEGOTIATION</t>
+    <t>PROCEDURE/PT_COMPETITIVE_NEGOTIATION</t>
   </si>
   <si>
     <t>?this epo:hasProcedureType &lt;http://publications.europa.eu/resource/authority/procurement-procedure-type/neg-w-call&gt; .</t>
@@ -2460,22 +2504,16 @@
     <t>IV.1.1.3.1</t>
   </si>
   <si>
-    <t>ACCELERATED_PROC</t>
-  </si>
-  <si>
     <t>IV.1.1.3.2</t>
   </si>
   <si>
-    <t>ACCELERATED_PROC/P</t>
-  </si>
-  <si>
     <t>IV.1.1.4</t>
   </si>
   <si>
     <t>Competitive dialogue</t>
   </si>
   <si>
-    <t>PT_COMPETITIVE_DIALOGUE</t>
+    <t>PROCEDURE/PT_COMPETITIVE_DIALOGUE</t>
   </si>
   <si>
     <t>?this epo:hasProcedureType &lt;http://publications.europa.eu/resource/authority/procurement-procedure-type/comp-dial&gt; .</t>
@@ -2487,7 +2525,7 @@
     <t>Innovation partnership</t>
   </si>
   <si>
-    <t>PT_INNOVATION_PARTNERSHIP</t>
+    <t>PROCEDURE/PT_INNOVATION_PARTNERSHIP</t>
   </si>
   <si>
     <r>
@@ -2513,7 +2551,7 @@
     <t>Award of a contract without prior publication of a call for competition in the Official Journal of the European Union in the cases listed below</t>
   </si>
   <si>
-    <t>PT_AWARD_CONTRACT_WITHOUT_CALL</t>
+    <t>PROCEDURE/PT_AWARD_CONTRACT_WITHOUT_CALL</t>
   </si>
   <si>
     <r>
@@ -2712,7 +2750,7 @@
     <t>Administrative information</t>
   </si>
   <si>
-    <t>IV.2.0</t>
+    <t>IV.2.1</t>
   </si>
   <si>
     <t>Previous publication concerning this procedure</t>
@@ -3396,7 +3434,7 @@
     <t>V.2.3.1</t>
   </si>
   <si>
-    <t xml:space="preserve">AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME </t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
   </si>
   <si>
     <r>
@@ -3807,7 +3845,46 @@
     <t>V.2.3.10</t>
   </si>
   <si>
-    <t>Internet address</t>
+    <t>Internet Addresses (URL)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / epo:hasDeliveryGateway / epo:hasURL ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
   </si>
   <si>
     <t>V.2.3.11</t>
@@ -4050,12 +4127,72 @@
     <t>no direct match</t>
   </si>
   <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/@CURRENCY</t>
+  </si>
+  <si>
+    <t>epo:SubmissionStatisticalInformation / MonetaryValue /at-voc:currency (from CL9)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasLowestReceivedTenderValue / epo:hasCurrency ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.4.4</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/HIGH</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.4.5</t>
+  </si>
+  <si>
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_SUBCONTRACTING/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue /at-voc:currency (from CL9)</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -4076,14 +4213,53 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasLowestReceivedTenderValue / epo:hasCurrency ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.4.4</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/HIGH</t>
+      <t xml:space="preserve"> epo:hasHighestReceivedTenderValue / epo:hasCurrency ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.5</t>
+  </si>
+  <si>
+    <t>Information about subcontracting</t>
+  </si>
+  <si>
+    <t>V.2.5.1</t>
+  </si>
+  <si>
+    <t>⃞The contract is likely to be subcontracted</t>
+  </si>
+  <si>
+    <t>BT-773</t>
+  </si>
+  <si>
+    <t>Subcontracting</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/LIKELY_SUBCONTRACTED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Lot / epo:ContractTerm / at-voc:applicability </t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractTerm / epo:hasReservedExecution ?value .</t>
+  </si>
+  <si>
+    <t>V.2.5.2</t>
+  </si>
+  <si>
+    <t>Value or proportion likely to be subcontracted to third parties</t>
+  </si>
+  <si>
+    <t>BT-730; BT-731</t>
+  </si>
+  <si>
+    <t>Subcontracting Value Known; Subcontracting Percentage Known</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_SUBCONTRACTING</t>
+  </si>
+  <si>
+    <t>epo:Tender / epo:SubcontractingEstimate / epo:MonetaryValue / epo:Numeric</t>
   </si>
   <si>
     <r>
@@ -4099,6 +4275,78 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t xml:space="preserve">this epo:foreseesSubcontracting </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>/ epo:hasSubcontractingEstimatedValue / epo:hasAmountValue ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.5.3</t>
+  </si>
+  <si>
+    <t>Value excluding VAT</t>
+  </si>
+  <si>
+    <t>V.2.5.4</t>
+  </si>
+  <si>
+    <t>epo:Tender / epo:SubcontractingEstimate / MonetaryValue /at-voc:currency (from CL9)</t>
+  </si>
+  <si>
+    <t>?this epo:forseesSubcontracting / epo:hasSubcontractingEstimatedValue / epo:hasCurrecy ?value .</t>
+  </si>
+  <si>
+    <t>V.2.5.5</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>BT-555</t>
+  </si>
+  <si>
+    <t>Subcontracting Percentage</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/PCT_SUBCONTRACTING</t>
+  </si>
+  <si>
+    <t>epo:Tender / epo:SubcontractingEstimate / xsd:decimal</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
       <t>this</t>
     </r>
     <r>
@@ -4106,11 +4354,41 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.4.5</t>
+      <t xml:space="preserve"> epo:forseesSubcontracting / epo:hasEstimatedPercentage ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>V.2.5.6</t>
+  </si>
+  <si>
+    <t>Short description of the part of the contract to be subcontracted</t>
+  </si>
+  <si>
+    <t>BT-554</t>
+  </si>
+  <si>
+    <t>Subcontracting Description</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/INFO_ADD_SUBCONTRACTING</t>
+  </si>
+  <si>
+    <t>epo:Tender / epo:SubcontractingEstimate / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -4126,66 +4404,120 @@
         <b/>
         <color theme="1"/>
       </rPr>
+      <t xml:space="preserve">this epo:forseesSubcontracting / </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasDescription ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Section VI</t>
+  </si>
+  <si>
+    <t>Complementary information</t>
+  </si>
+  <si>
+    <t>VI.3</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/INFO_ADD</t>
+  </si>
+  <si>
+    <t>epo:Lot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasHighestReceivedTenderValue / epo:hasCurrency ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.2.5</t>
-  </si>
-  <si>
-    <t>Information about subcontracting</t>
-  </si>
-  <si>
-    <t>V.2.5.1</t>
-  </si>
-  <si>
-    <t>⃞The contract is likely to be subcontracted</t>
-  </si>
-  <si>
-    <t>BT-773</t>
-  </si>
-  <si>
-    <t>Subcontracting</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/LIKELY_SUBCONTRACTED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">epo:Lot / epo:ContractTerm / at-voc:applicability </t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractTerm / epo:hasReservedExecution ?value .</t>
-  </si>
-  <si>
-    <t>V.2.5.2</t>
-  </si>
-  <si>
-    <t>Value or proportion likely to be subcontracted to third parties</t>
-  </si>
-  <si>
-    <t>BT-730; BT-731</t>
-  </si>
-  <si>
-    <t>Subcontracting Value Known; Subcontracting Percentage Known</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRAC/VAL_SUBCONTRACTING</t>
-  </si>
-  <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / epo:MonetaryValue / epo:Numeric</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> epo:hasAdditionalInformation ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>VI.4</t>
+  </si>
+  <si>
+    <t>Procedures for review</t>
+  </si>
+  <si>
+    <t>VI.4.1</t>
+  </si>
+  <si>
+    <t>Review body</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO</t>
+  </si>
+  <si>
+    <t>epo:ResultNotice / epo:Reviewer</t>
+  </si>
+  <si>
+    <t>VI.4.1.1</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/OFFICIALNAME</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4194,21 +4526,24 @@
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">this epo:foreseesSubcontracting </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>/ epo:hasSubcontractingEstimatedValue / epo:hasAmountValue ?</t>
+        <sz val="10.0"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t>value</t>
     </r>
@@ -4216,51 +4551,23 @@
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
   </si>
   <si>
-    <t>V.2.5.3</t>
-  </si>
-  <si>
-    <t>Value excluding VAT</t>
-  </si>
-  <si>
-    <t>V.2.5.4</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRAC/VAL_SUBCONTRACTING/@CURRENCY</t>
-  </si>
-  <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / MonetaryValue /at-voc:currency (from CL9)</t>
-  </si>
-  <si>
-    <t>?this epo:forseesSubcontracting / epo:hasSubcontractingEstimatedValue / epo:hasCurrecy ?value .</t>
-  </si>
-  <si>
-    <t>V.2.5.5</t>
-  </si>
-  <si>
-    <t>Proportion</t>
-  </si>
-  <si>
-    <t>BT-555</t>
-  </si>
-  <si>
-    <t>Subcontracting Percentage</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRAC/PCT_SUBCONTRACTING</t>
-  </si>
-  <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / xsd:decimal</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+    <t>VI.4.1.2</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/ADDRESS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4269,6 +4576,7 @@
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t>this</t>
     </r>
@@ -4276,14 +4584,16 @@
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:forseesSubcontracting / epo:hasEstimatedPercentage ?</t>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t>value</t>
     </r>
@@ -4291,33 +4601,23 @@
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
   </si>
   <si>
-    <t>V.2.5.6</t>
-  </si>
-  <si>
-    <t>Short description of the part of the contract to be subcontracted</t>
-  </si>
-  <si>
-    <t>BT-554</t>
-  </si>
-  <si>
-    <t>Subcontracting Description</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRAC/INFO_ADD_SUBCONTRACTING</t>
-  </si>
-  <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
+    <t>VI.4.1.3</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/TOWN</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t>?</t>
     </r>
@@ -4326,21 +4626,24 @@
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">this epo:forseesSubcontracting / </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasDescription ?</t>
+        <sz val="10.0"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
+      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <b/>
         <color theme="1"/>
+        <sz val="10.0"/>
       </rPr>
       <t>value</t>
     </r>
@@ -4348,32 +4651,27 @@
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Section VI</t>
-  </si>
-  <si>
-    <t>Complementary information</t>
-  </si>
-  <si>
-    <t>VI.3</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/INFO_ADD</t>
-  </si>
-  <si>
-    <t>epo:Lot</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>VI.4.1.4</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>epo:Role (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+        <sz val="10.0"/>
+      </rPr>
       <t>?</t>
     </r>
     <r>
@@ -4391,7 +4689,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasAdditionalInformation ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4412,28 +4710,10 @@
     </r>
   </si>
   <si>
-    <t>VI.4</t>
-  </si>
-  <si>
-    <t>Procedures for review</t>
-  </si>
-  <si>
-    <t>VI.4.1</t>
-  </si>
-  <si>
-    <t>Review body</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO</t>
-  </si>
-  <si>
-    <t>epo:ResultNotice / epo:Reviewer</t>
-  </si>
-  <si>
-    <t>VI.4.1.1</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/OFFICIALNAME</t>
+    <t>VI.4.1.5</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/COUNTRY</t>
   </si>
   <si>
     <r>
@@ -4459,7 +4739,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:adminUnitL2 ?</t>
     </r>
     <r>
       <rPr>
@@ -4480,10 +4760,10 @@
     </r>
   </si>
   <si>
-    <t>VI.4.1.2</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/ADDRESS</t>
+    <t>VI.4.1.6</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/E_MAIL</t>
   </si>
   <si>
     <r>
@@ -4509,7 +4789,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:email ?</t>
     </r>
     <r>
       <rPr>
@@ -4530,10 +4810,10 @@
     </r>
   </si>
   <si>
-    <t>VI.4.1.3</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/TOWN</t>
+    <t>VI.4.1.7</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/PHONE</t>
   </si>
   <si>
     <r>
@@ -4559,7 +4839,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:telephone ?</t>
     </r>
     <r>
       <rPr>
@@ -4580,213 +4860,7 @@
     </r>
   </si>
   <si>
-    <t>VI.4.1.4</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>epo:Role (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>VI.4.1.5</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/COUNTRY</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:adminUnitL2 ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>VI.4.1.6</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/E_MAIL</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:email ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>VI.4.1.7</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/PHONE</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasPrimaryContactPoint  / cpov:telephone ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="10.0"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
     <t>VI.4.1.8</t>
-  </si>
-  <si>
-    <t>Internet Addresses (URL)</t>
   </si>
   <si>
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/URL</t>
@@ -6317,7 +6391,36 @@
     <t>epo:Procedure / epo:DirectAwardTerm / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasJustification ?vaule</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm / epo:hasJustification ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>value</t>
+    </r>
   </si>
   <si>
     <t>Property path</t>
@@ -6414,6 +6517,9 @@
     <t>legal_basis.json</t>
   </si>
   <si>
+    <t>cpvsuppl.json</t>
+  </si>
+  <si>
     <t>Comment (optional)</t>
   </si>
   <si>
@@ -6438,7 +6544,10 @@
     <t>s6_complementary_information.rml.ttl</t>
   </si>
   <si>
-    <t>annexe_d1.rml.ttl</t>
+    <t>annex_d1.rml.ttl</t>
+  </si>
+  <si>
+    <t>result_notice.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>
@@ -7033,6 +7142,9 @@
     <xf borderId="0" fillId="3" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -7071,9 +7183,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -10563,15 +10672,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10598,15 +10707,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10633,15 +10742,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10668,15 +10777,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10703,15 +10812,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -10738,15 +10847,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>
@@ -11121,18 +11230,18 @@
         <v>86</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E10" s="32"/>
       <c r="F10" s="32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I10" s="32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" s="32"/>
       <c r="K10" s="32"/>
@@ -11147,27 +11256,27 @@
     </row>
     <row r="11">
       <c r="A11" s="45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E11" s="46"/>
       <c r="F11" s="35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G11" s="35"/>
       <c r="H11" s="35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
@@ -11190,27 +11299,27 @@
     </row>
     <row r="12">
       <c r="A12" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="21"/>
       <c r="F12" s="32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J12" s="32"/>
       <c r="K12" s="32"/>
@@ -11225,27 +11334,27 @@
     </row>
     <row r="13">
       <c r="A13" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E13" s="32"/>
       <c r="F13" s="32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J13" s="32"/>
       <c r="K13" s="32"/>
@@ -11260,13 +11369,13 @@
     </row>
     <row r="14">
       <c r="A14" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>113</v>
@@ -11312,7 +11421,7 @@
       </c>
       <c r="G15" s="32"/>
       <c r="H15" s="32" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>122</v>
@@ -11813,10 +11922,10 @@
       </c>
       <c r="G30" s="32"/>
       <c r="H30" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="I30" s="51" t="s">
         <v>199</v>
+      </c>
+      <c r="I30" s="33" t="s">
+        <v>200</v>
       </c>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
@@ -11831,27 +11940,27 @@
     </row>
     <row r="31">
       <c r="A31" s="31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E31" s="32"/>
       <c r="F31" s="32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G31" s="32"/>
       <c r="H31" s="32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
@@ -11866,27 +11975,27 @@
     </row>
     <row r="32">
       <c r="A32" s="31" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C32" s="33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D32" s="56" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="56"/>
       <c r="F32" s="33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="33" t="s">
         <v>177</v>
       </c>
       <c r="I32" s="33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J32" s="28"/>
       <c r="K32" s="28"/>
@@ -11901,10 +12010,10 @@
     </row>
     <row r="33">
       <c r="A33" s="31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="28"/>
@@ -11926,21 +12035,21 @@
     </row>
     <row r="34">
       <c r="A34" s="48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="57"/>
       <c r="F34" s="51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G34" s="51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H34" s="58"/>
       <c r="I34" s="58"/>
@@ -11957,10 +12066,10 @@
     </row>
     <row r="35">
       <c r="A35" s="31" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C35" s="32"/>
       <c r="D35" s="32"/>
@@ -11970,10 +12079,10 @@
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I35" s="33" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="28"/>
@@ -11988,27 +12097,27 @@
     </row>
     <row r="36">
       <c r="A36" s="31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B36" s="51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="33" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G36" s="33"/>
       <c r="H36" s="33" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I36" s="33" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="28"/>
@@ -12023,27 +12132,27 @@
     </row>
     <row r="37">
       <c r="A37" s="31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E37" s="33"/>
       <c r="F37" s="33" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G37" s="33"/>
       <c r="H37" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J37" s="28"/>
       <c r="K37" s="28"/>
@@ -12058,27 +12167,27 @@
     </row>
     <row r="38">
       <c r="A38" s="31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G38" s="33"/>
       <c r="H38" s="33" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J38" s="28"/>
       <c r="K38" s="28"/>
@@ -12093,23 +12202,23 @@
     </row>
     <row r="39">
       <c r="A39" s="31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="49"/>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
       <c r="F39" s="33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G39" s="33"/>
       <c r="H39" s="33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I39" s="33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J39" s="28"/>
       <c r="K39" s="28"/>
@@ -12124,7 +12233,7 @@
     </row>
     <row r="40">
       <c r="A40" s="31" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>8</v>
@@ -12137,10 +12246,10 @@
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="32" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
@@ -12155,7 +12264,7 @@
     </row>
     <row r="41">
       <c r="A41" s="31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>6</v>
@@ -12168,14 +12277,14 @@
       </c>
       <c r="E41" s="33"/>
       <c r="F41" s="33" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="33" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I41" s="33" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J41" s="28"/>
       <c r="K41" s="28"/>
@@ -12190,27 +12299,27 @@
     </row>
     <row r="42">
       <c r="A42" s="31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E42" s="33"/>
       <c r="F42" s="33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G42" s="33"/>
       <c r="H42" s="33" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I42" s="33" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="J42" s="28"/>
       <c r="K42" s="28"/>
@@ -12225,10 +12334,10 @@
     </row>
     <row r="43">
       <c r="A43" s="31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32"/>
@@ -12250,7 +12359,7 @@
     </row>
     <row r="44">
       <c r="A44" s="31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B44" s="32" t="s">
         <v>188</v>
@@ -12263,14 +12372,14 @@
       </c>
       <c r="E44" s="32"/>
       <c r="F44" s="32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G44" s="32"/>
       <c r="H44" s="32" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I44" s="32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
@@ -12285,7 +12394,7 @@
     </row>
     <row r="45">
       <c r="A45" s="31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>195</v>
@@ -12298,14 +12407,14 @@
       </c>
       <c r="E45" s="32"/>
       <c r="F45" s="32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G45" s="32"/>
       <c r="H45" s="32" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J45" s="28"/>
       <c r="K45" s="28"/>
@@ -12320,10 +12429,10 @@
     </row>
     <row r="46">
       <c r="A46" s="31" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C46" s="32"/>
       <c r="D46" s="32"/>
@@ -12345,29 +12454,29 @@
     </row>
     <row r="47">
       <c r="A47" s="31" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B47" s="32" t="s">
         <v>77</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D47" s="32" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E47" s="32"/>
       <c r="F47" s="32" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H47" s="33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J47" s="28"/>
       <c r="K47" s="28"/>
@@ -12382,27 +12491,27 @@
     </row>
     <row r="48">
       <c r="A48" s="31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D48" s="33" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E48" s="33"/>
       <c r="F48" s="32" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G48" s="32"/>
       <c r="H48" s="33" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J48" s="28"/>
       <c r="K48" s="28"/>
@@ -12417,27 +12526,27 @@
     </row>
     <row r="49">
       <c r="A49" s="31" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D49" s="33" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="33"/>
       <c r="F49" s="32" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G49" s="32"/>
       <c r="H49" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="J49" s="28"/>
       <c r="K49" s="28"/>
@@ -12452,10 +12561,10 @@
     </row>
     <row r="50">
       <c r="A50" s="31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -12465,10 +12574,10 @@
       </c>
       <c r="G50" s="49"/>
       <c r="H50" s="33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I50" s="33" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J50" s="28"/>
       <c r="K50" s="28"/>
@@ -12483,27 +12592,27 @@
     </row>
     <row r="51">
       <c r="A51" s="31" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E51" s="32"/>
       <c r="F51" s="33" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G51" s="33"/>
       <c r="H51" s="32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I51" s="60" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="J51" s="28"/>
       <c r="K51" s="28"/>
@@ -12518,27 +12627,27 @@
     </row>
     <row r="52">
       <c r="A52" s="61" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E52" s="33"/>
       <c r="F52" s="62" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G52" s="33"/>
       <c r="H52" s="32" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I52" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J52" s="28"/>
       <c r="K52" s="28"/>
@@ -12553,27 +12662,27 @@
     </row>
     <row r="53">
       <c r="A53" s="61" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="62" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G53" s="33"/>
       <c r="H53" s="32" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I53" s="63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J53" s="28"/>
       <c r="K53" s="28"/>
@@ -12588,27 +12697,27 @@
     </row>
     <row r="54">
       <c r="A54" s="31" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E54" s="32"/>
       <c r="F54" s="33" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G54" s="33"/>
       <c r="H54" s="32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I54" s="60" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J54" s="28"/>
       <c r="K54" s="28"/>
@@ -12623,27 +12732,27 @@
     </row>
     <row r="55">
       <c r="A55" s="61" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D55" s="33" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="62" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="32" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I55" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J55" s="28"/>
       <c r="K55" s="28"/>
@@ -12658,27 +12767,27 @@
     </row>
     <row r="56">
       <c r="A56" s="61" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="62" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="32" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I56" s="63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J56" s="28"/>
       <c r="K56" s="28"/>
@@ -12693,27 +12802,27 @@
     </row>
     <row r="57">
       <c r="A57" s="31" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E57" s="32"/>
       <c r="F57" s="33" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G57" s="33"/>
       <c r="H57" s="32" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="I57" s="60" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="J57" s="28"/>
       <c r="K57" s="28"/>
@@ -12728,27 +12837,27 @@
     </row>
     <row r="58">
       <c r="A58" s="61" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="62" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G58" s="49"/>
       <c r="H58" s="32" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I58" s="63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J58" s="28"/>
       <c r="K58" s="28"/>
@@ -12763,10 +12872,10 @@
     </row>
     <row r="59">
       <c r="A59" s="31" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
@@ -12788,29 +12897,29 @@
     </row>
     <row r="60">
       <c r="A60" s="31" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B60" s="32" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E60" s="33"/>
       <c r="F60" s="33" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="I60" s="33" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J60" s="28"/>
       <c r="K60" s="28"/>
@@ -12825,27 +12934,27 @@
     </row>
     <row r="61">
       <c r="A61" s="31" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B61" s="32" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E61" s="33"/>
       <c r="F61" s="33" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G61" s="33"/>
       <c r="H61" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I61" s="64" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J61" s="28"/>
       <c r="K61" s="28"/>
@@ -12860,10 +12969,10 @@
     </row>
     <row r="62">
       <c r="A62" s="42" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C62" s="21"/>
       <c r="D62" s="21"/>
@@ -12875,124 +12984,124 @@
     </row>
     <row r="63">
       <c r="A63" s="42" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C63" s="66" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D63" s="66" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E63" s="66"/>
       <c r="F63" s="33" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H63" s="33" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="I63" s="33" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="42" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D64" s="67" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E64" s="67"/>
       <c r="F64" s="68" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G64" s="67"/>
       <c r="H64" s="69" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I64" s="68" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="42" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B65" s="32"/>
       <c r="C65" s="21"/>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="33" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G65" s="66"/>
       <c r="H65" s="70" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="I65" s="33" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="42" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B66" s="32" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="E66" s="21"/>
       <c r="F66" s="32" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I66" s="32" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="42" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C67" s="65"/>
       <c r="D67" s="65"/>
       <c r="E67" s="65"/>
       <c r="F67" s="22" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G67" s="65"/>
       <c r="H67" s="32" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="I67" s="32" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="42" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B68" s="32" t="s">
         <v>8</v>
@@ -13007,649 +13116,649 @@
     </row>
     <row r="69">
       <c r="A69" s="42" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H69" s="28"/>
       <c r="I69" s="28"/>
     </row>
     <row r="70">
       <c r="A70" s="71" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B70" s="72" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C70" s="66" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D70" s="66" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E70" s="66"/>
       <c r="F70" s="66" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G70" s="66"/>
       <c r="H70" s="33" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I70" s="73" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="71" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C71" s="66" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D71" s="66" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E71" s="66"/>
       <c r="F71" s="66" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="G71" s="66"/>
       <c r="H71" s="33" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="I71" s="33" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="71" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B72" s="72" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C72" s="66" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="D72" s="66" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="E72" s="66"/>
       <c r="F72" s="66" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G72" s="66"/>
       <c r="H72" s="33" t="s">
         <v>177</v>
       </c>
       <c r="I72" s="33" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="42" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D73" s="66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E73" s="66"/>
       <c r="F73" s="66" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="G73" s="66"/>
       <c r="H73" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="I73" s="33" t="s">
-        <v>399</v>
+        <v>177</v>
+      </c>
+      <c r="I73" s="73" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="42" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C74" s="66" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D74" s="66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E74" s="66"/>
       <c r="F74" s="66" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G74" s="66"/>
       <c r="H74" s="33" t="s">
-        <v>177</v>
+        <v>394</v>
       </c>
       <c r="I74" s="33" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="42" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B75" s="32" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C75" s="66" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D75" s="66" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="E75" s="66"/>
       <c r="F75" s="66" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G75" s="66"/>
       <c r="H75" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="I75" s="64" t="s">
-        <v>405</v>
+        <v>177</v>
+      </c>
+      <c r="I75" s="33" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="42" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B76" s="32" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D76" s="66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E76" s="66"/>
       <c r="F76" s="66" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G76" s="66"/>
       <c r="H76" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="I76" s="33" t="s">
-        <v>399</v>
+        <v>387</v>
+      </c>
+      <c r="I76" s="64" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="42" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B77" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C77" s="66" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D77" s="66" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E77" s="66"/>
       <c r="F77" s="66" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="G77" s="66"/>
       <c r="H77" s="33" t="s">
-        <v>177</v>
+        <v>394</v>
       </c>
       <c r="I77" s="33" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="42" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B78" s="32" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>380</v>
+        <v>398</v>
       </c>
       <c r="D78" s="66" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
       <c r="E78" s="66"/>
       <c r="F78" s="66" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G78" s="66"/>
       <c r="H78" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="I78" s="64" t="s">
-        <v>413</v>
+        <v>177</v>
+      </c>
+      <c r="I78" s="33" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="42" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B79" s="32" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C79" s="66" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D79" s="66" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E79" s="66"/>
       <c r="F79" s="66" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G79" s="66"/>
       <c r="H79" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="I79" s="73" t="s">
-        <v>417</v>
+        <v>387</v>
+      </c>
+      <c r="I79" s="64" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="42" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B80" s="32" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C80" s="66" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D80" s="66" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E80" s="66"/>
       <c r="F80" s="66" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G80" s="66"/>
       <c r="H80" s="33" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="I80" s="73" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="42" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B81" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="C81" s="74" t="s">
-        <v>424</v>
-      </c>
-      <c r="D81" s="75"/>
-      <c r="E81" s="75"/>
-      <c r="F81" s="65"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
+        <v>425</v>
+      </c>
+      <c r="C81" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="D81" s="66" t="s">
+        <v>385</v>
+      </c>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66" t="s">
+        <v>426</v>
+      </c>
+      <c r="G81" s="66"/>
+      <c r="H81" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="I81" s="73" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="42" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B82" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="C82" s="66" t="s">
-        <v>427</v>
-      </c>
-      <c r="D82" s="66" t="s">
-        <v>428</v>
-      </c>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="G82" s="66"/>
-      <c r="H82" s="33" t="s">
+      <c r="C82" s="74" t="s">
         <v>430</v>
       </c>
-      <c r="I82" s="73" t="s">
-        <v>431</v>
-      </c>
+      <c r="D82" s="75"/>
+      <c r="E82" s="75"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
     </row>
     <row r="83">
       <c r="A83" s="42" t="s">
+        <v>431</v>
+      </c>
+      <c r="B83" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="B83" s="32" t="s">
+      <c r="C83" s="66" t="s">
         <v>433</v>
       </c>
-      <c r="C83" s="66" t="s">
+      <c r="D83" s="66" t="s">
         <v>434</v>
-      </c>
-      <c r="D83" s="66" t="s">
-        <v>435</v>
       </c>
       <c r="E83" s="66"/>
       <c r="F83" s="66" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G83" s="66"/>
       <c r="H83" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="I83" s="73" t="s">
         <v>437</v>
-      </c>
-      <c r="I83" s="73" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="42" t="s">
+        <v>438</v>
+      </c>
+      <c r="B84" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="C84" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="C84" s="21" t="s">
-        <v>424</v>
-      </c>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
+      <c r="D84" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="G84" s="66"/>
+      <c r="H84" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="I84" s="73" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="42" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B85" s="32" t="s">
-        <v>442</v>
-      </c>
-      <c r="C85" s="66" t="s">
-        <v>443</v>
-      </c>
-      <c r="D85" s="66" t="s">
-        <v>444</v>
-      </c>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66" t="s">
-        <v>445</v>
-      </c>
-      <c r="G85" s="66"/>
-      <c r="H85" s="33" t="s">
         <v>446</v>
       </c>
-      <c r="I85" s="73" t="s">
-        <v>447</v>
-      </c>
+      <c r="C85" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
     </row>
     <row r="86">
       <c r="A86" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="B86" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="B86" s="32" t="s">
+      <c r="C86" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="C86" s="66" t="s">
+      <c r="D86" s="66" t="s">
         <v>450</v>
       </c>
-      <c r="D86" s="66" t="s">
+      <c r="E86" s="66"/>
+      <c r="F86" s="66" t="s">
         <v>451</v>
       </c>
-      <c r="E86" s="66"/>
-      <c r="F86" s="33" t="s">
+      <c r="G86" s="66"/>
+      <c r="H86" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="G86" s="62" t="s">
+      <c r="I86" s="73" t="s">
         <v>453</v>
-      </c>
-      <c r="H86" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="I86" s="33" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="B87" s="32" t="s">
         <v>455</v>
       </c>
-      <c r="B87" s="32" t="s">
+      <c r="C87" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="F87" s="65"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
+      <c r="D87" s="66" t="s">
+        <v>457</v>
+      </c>
+      <c r="E87" s="66"/>
+      <c r="F87" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="G87" s="62" t="s">
+        <v>459</v>
+      </c>
+      <c r="H87" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="I87" s="33" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="B88" s="76" t="s">
-        <v>458</v>
-      </c>
-      <c r="C88" s="77" t="s">
-        <v>459</v>
-      </c>
-      <c r="D88" s="77" t="s">
-        <v>460</v>
-      </c>
-      <c r="E88" s="77"/>
-      <c r="F88" s="78" t="s">
         <v>461</v>
       </c>
-      <c r="G88" s="77"/>
-      <c r="H88" s="79" t="s">
+      <c r="B88" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="I88" s="80" t="s">
-        <v>463</v>
-      </c>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="28"/>
     </row>
     <row r="89">
       <c r="A89" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B89" s="76" t="s">
         <v>464</v>
       </c>
-      <c r="B89" s="32" t="s">
+      <c r="C89" s="77" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="65"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="32" t="s">
+      <c r="D89" s="77" t="s">
         <v>466</v>
       </c>
-      <c r="I89" s="28"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="78" t="s">
+        <v>467</v>
+      </c>
+      <c r="G89" s="77"/>
+      <c r="H89" s="79" t="s">
+        <v>468</v>
+      </c>
+      <c r="I89" s="80" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="42" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B90" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="C90" s="66" t="s">
-        <v>469</v>
-      </c>
-      <c r="D90" s="33" t="s">
-        <v>470</v>
-      </c>
-      <c r="E90" s="33"/>
-      <c r="F90" s="66" t="s">
         <v>471</v>
       </c>
-      <c r="G90" s="66"/>
-      <c r="H90" s="33" t="s">
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="I90" s="33" t="s">
-        <v>473</v>
-      </c>
+      <c r="I90" s="28"/>
     </row>
     <row r="91">
       <c r="A91" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="B91" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="B91" s="32" t="s">
+      <c r="C91" s="66" t="s">
         <v>475</v>
       </c>
-      <c r="C91" s="21"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
+      <c r="D91" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="E91" s="33"/>
+      <c r="F91" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="G91" s="66"/>
+      <c r="H91" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="I91" s="33" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="42" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B92" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="C92" s="66" t="s">
-        <v>478</v>
-      </c>
-      <c r="D92" s="66" t="s">
-        <v>479</v>
-      </c>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66" t="s">
-        <v>480</v>
-      </c>
-      <c r="G92" s="66"/>
-      <c r="H92" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="I92" s="33" t="s">
-        <v>482</v>
-      </c>
+      <c r="C92" s="21"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="28"/>
+      <c r="I92" s="28"/>
     </row>
     <row r="93">
       <c r="A93" s="42" t="s">
+        <v>482</v>
+      </c>
+      <c r="B93" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="B93" s="32" t="s">
+      <c r="C93" s="66" t="s">
         <v>484</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="D93" s="66" t="s">
         <v>485</v>
       </c>
-      <c r="G93" s="81"/>
-      <c r="H93" s="32" t="s">
+      <c r="E93" s="66"/>
+      <c r="F93" s="66" t="s">
         <v>486</v>
       </c>
-      <c r="I93" s="32" t="s">
+      <c r="G93" s="66"/>
+      <c r="H93" s="33" t="s">
         <v>487</v>
+      </c>
+      <c r="I93" s="33" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="42" t="s">
-        <v>488</v>
-      </c>
-      <c r="B94" s="32"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
+        <v>489</v>
+      </c>
+      <c r="B94" s="32" t="s">
+        <v>490</v>
+      </c>
       <c r="F94" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="G94" s="83"/>
+        <v>491</v>
+      </c>
+      <c r="G94" s="81"/>
       <c r="H94" s="32" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="I94" s="32" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="42" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B95" s="32"/>
       <c r="C95" s="82"/>
       <c r="D95" s="82"/>
       <c r="E95" s="82"/>
       <c r="F95" s="22" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G95" s="83"/>
       <c r="H95" s="32" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I95" s="32" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="42" t="s">
-        <v>494</v>
-      </c>
-      <c r="B96" s="32" t="s">
-        <v>495</v>
-      </c>
-      <c r="C96" s="82" t="s">
-        <v>496</v>
-      </c>
-      <c r="D96" s="82" t="s">
         <v>497</v>
       </c>
+      <c r="B96" s="32"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
       <c r="E96" s="82"/>
-      <c r="F96" s="83" t="s">
-        <v>498</v>
+      <c r="F96" s="22" t="s">
+        <v>491</v>
       </c>
       <c r="G96" s="83"/>
       <c r="H96" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="I96" s="32" t="s">
         <v>499</v>
-      </c>
-      <c r="I96" s="32" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="B97" s="32" t="s">
         <v>501</v>
       </c>
-      <c r="B97" s="32" t="s">
+      <c r="C97" s="82" t="s">
         <v>502</v>
       </c>
-      <c r="C97" s="82" t="s">
+      <c r="D97" s="82" t="s">
         <v>503</v>
-      </c>
-      <c r="D97" s="82" t="s">
-        <v>504</v>
       </c>
       <c r="E97" s="82"/>
       <c r="F97" s="83" t="s">
+        <v>504</v>
+      </c>
+      <c r="G97" s="83"/>
+      <c r="H97" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="G97" s="83"/>
-      <c r="H97" s="84" t="s">
+      <c r="I97" s="32" t="s">
         <v>506</v>
-      </c>
-      <c r="I97" s="32" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="42" t="s">
+        <v>507</v>
+      </c>
+      <c r="B98" s="32" t="s">
         <v>508</v>
-      </c>
-      <c r="B98" s="32" t="s">
-        <v>6</v>
       </c>
       <c r="C98" s="82" t="s">
         <v>509</v>
@@ -13662,7 +13771,7 @@
         <v>511</v>
       </c>
       <c r="G98" s="83"/>
-      <c r="H98" s="32" t="s">
+      <c r="H98" s="84" t="s">
         <v>512</v>
       </c>
       <c r="I98" s="32" t="s">
@@ -13673,181 +13782,183 @@
       <c r="A99" s="42" t="s">
         <v>514</v>
       </c>
-      <c r="B99" s="32"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
+      <c r="B99" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="82" t="s">
+        <v>515</v>
+      </c>
+      <c r="D99" s="82" t="s">
+        <v>516</v>
+      </c>
       <c r="E99" s="82"/>
-      <c r="F99" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="G99" s="85"/>
-      <c r="H99" s="33" t="s">
-        <v>515</v>
-      </c>
-      <c r="I99" s="86" t="s">
-        <v>516</v>
+      <c r="F99" s="83" t="s">
+        <v>517</v>
+      </c>
+      <c r="G99" s="83"/>
+      <c r="H99" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="I99" s="32" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="42" t="s">
-        <v>517</v>
-      </c>
-      <c r="B100" s="32" t="s">
-        <v>518</v>
-      </c>
-      <c r="C100" s="82" t="s">
-        <v>519</v>
-      </c>
-      <c r="D100" s="82" t="s">
         <v>520</v>
       </c>
+      <c r="B100" s="32"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
       <c r="E100" s="82"/>
-      <c r="F100" s="85" t="s">
+      <c r="F100" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="G100" s="85"/>
+      <c r="H100" s="33" t="s">
         <v>521</v>
       </c>
-      <c r="G100" s="85" t="s">
+      <c r="I100" s="86" t="s">
         <v>522</v>
-      </c>
-      <c r="H100" s="33" t="s">
-        <v>523</v>
-      </c>
-      <c r="I100" s="86" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="42" t="s">
+        <v>523</v>
+      </c>
+      <c r="B101" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="C101" s="82" t="s">
         <v>525</v>
       </c>
-      <c r="B101" s="32"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="82"/>
+      <c r="D101" s="82" t="s">
+        <v>526</v>
+      </c>
       <c r="E101" s="82"/>
-      <c r="F101" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="G101" s="79" t="s">
+      <c r="F101" s="85" t="s">
         <v>527</v>
       </c>
+      <c r="G101" s="85" t="s">
+        <v>528</v>
+      </c>
       <c r="H101" s="33" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I101" s="86" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="42" t="s">
-        <v>530</v>
-      </c>
-      <c r="B102" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="C102" s="87" t="s">
-        <v>424</v>
-      </c>
+      <c r="B102" s="32"/>
+      <c r="C102" s="82"/>
       <c r="D102" s="82"/>
       <c r="E102" s="82"/>
       <c r="F102" s="79" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="G102" s="79" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="H102" s="33" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I102" s="86" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="42" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B103" s="32" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C103" s="87" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D103" s="82"/>
       <c r="E103" s="82"/>
-      <c r="F103" s="88"/>
-      <c r="G103" s="88"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
+      <c r="F103" s="79" t="s">
+        <v>532</v>
+      </c>
+      <c r="G103" s="79" t="s">
+        <v>533</v>
+      </c>
+      <c r="H103" s="33" t="s">
+        <v>538</v>
+      </c>
+      <c r="I103" s="86" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="42" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B104" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="C104" s="82" t="s">
-        <v>537</v>
-      </c>
-      <c r="D104" s="82" t="s">
-        <v>538</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="C104" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D104" s="82"/>
       <c r="E104" s="82"/>
-      <c r="F104" s="83" t="s">
-        <v>539</v>
-      </c>
-      <c r="G104" s="83"/>
-      <c r="H104" s="32" t="s">
-        <v>540</v>
-      </c>
-      <c r="I104" s="89" t="s">
-        <v>541</v>
-      </c>
+      <c r="F104" s="88"/>
+      <c r="G104" s="88"/>
+      <c r="H104" s="28"/>
+      <c r="I104" s="28"/>
     </row>
     <row r="105">
       <c r="A105" s="42" t="s">
+        <v>541</v>
+      </c>
+      <c r="B105" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="B105" s="32" t="s">
+      <c r="C105" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="C105" s="82" t="s">
-        <v>537</v>
-      </c>
       <c r="D105" s="82" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="E105" s="82"/>
       <c r="F105" s="83" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G105" s="83"/>
       <c r="H105" s="32" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="I105" s="89" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="42" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B106" s="32" t="s">
-        <v>548</v>
-      </c>
-      <c r="C106" s="90" t="s">
         <v>549</v>
       </c>
-      <c r="D106" s="82"/>
+      <c r="C106" s="82" t="s">
+        <v>543</v>
+      </c>
+      <c r="D106" s="82" t="s">
+        <v>544</v>
+      </c>
       <c r="E106" s="82"/>
       <c r="F106" s="83" t="s">
         <v>550</v>
       </c>
       <c r="G106" s="83"/>
-      <c r="H106" s="33" t="s">
+      <c r="H106" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="I106" s="86" t="s">
+      <c r="I106" s="89" t="s">
         <v>552</v>
       </c>
     </row>
@@ -13856,42 +13967,40 @@
         <v>553</v>
       </c>
       <c r="B107" s="32" t="s">
-        <v>484</v>
-      </c>
-      <c r="C107" s="87" t="s">
-        <v>424</v>
+        <v>554</v>
+      </c>
+      <c r="C107" s="90" t="s">
+        <v>555</v>
       </c>
       <c r="D107" s="82"/>
       <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
+      <c r="F107" s="83" t="s">
+        <v>556</v>
+      </c>
+      <c r="G107" s="83"/>
+      <c r="H107" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="I107" s="86" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="42" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B108" s="32" t="s">
-        <v>555</v>
-      </c>
-      <c r="C108" s="82" t="s">
-        <v>556</v>
-      </c>
-      <c r="D108" s="82" t="s">
-        <v>557</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="C108" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D108" s="82"/>
       <c r="E108" s="82"/>
-      <c r="F108" s="83" t="s">
-        <v>558</v>
-      </c>
-      <c r="G108" s="83"/>
-      <c r="H108" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="I108" s="32" t="s">
-        <v>559</v>
-      </c>
+      <c r="F108" s="82"/>
+      <c r="G108" s="82"/>
+      <c r="H108" s="28"/>
+      <c r="I108" s="28"/>
     </row>
     <row r="109">
       <c r="A109" s="42" t="s">
@@ -13900,562 +14009,572 @@
       <c r="B109" s="32" t="s">
         <v>561</v>
       </c>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
+      <c r="C109" s="82" t="s">
+        <v>562</v>
+      </c>
+      <c r="D109" s="82" t="s">
+        <v>563</v>
+      </c>
       <c r="E109" s="82"/>
-      <c r="F109" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="G109" s="91"/>
-      <c r="H109" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="I109" s="33" t="s">
-        <v>222</v>
+      <c r="F109" s="83" t="s">
+        <v>564</v>
+      </c>
+      <c r="G109" s="83"/>
+      <c r="H109" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="I109" s="32" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="42" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B110" s="32" t="s">
-        <v>563</v>
-      </c>
-      <c r="C110" s="82" t="s">
-        <v>564</v>
-      </c>
-      <c r="D110" s="82" t="s">
-        <v>565</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
       <c r="E110" s="82"/>
-      <c r="F110" s="83" t="s">
-        <v>566</v>
-      </c>
-      <c r="G110" s="83"/>
-      <c r="H110" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="I110" s="32" t="s">
-        <v>568</v>
+      <c r="F110" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="G110" s="91"/>
+      <c r="H110" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="I110" s="33" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="B111" s="32" t="s">
         <v>569</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="C111" s="82" t="s">
         <v>570</v>
       </c>
-      <c r="C111" s="82" t="s">
+      <c r="D111" s="82" t="s">
         <v>571</v>
-      </c>
-      <c r="D111" s="82" t="s">
-        <v>572</v>
       </c>
       <c r="E111" s="82"/>
       <c r="F111" s="83" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G111" s="83"/>
       <c r="H111" s="32" t="s">
+        <v>573</v>
+      </c>
+      <c r="I111" s="32" t="s">
         <v>574</v>
-      </c>
-      <c r="I111" s="32" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="B112" s="32" t="s">
         <v>576</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="C112" s="82" t="s">
         <v>577</v>
       </c>
-      <c r="C112" s="82" t="s">
-        <v>571</v>
-      </c>
       <c r="D112" s="82" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E112" s="82"/>
       <c r="F112" s="83" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G112" s="83"/>
       <c r="H112" s="32" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="I112" s="32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="42" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B113" s="32" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C113" s="82" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D113" s="82" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E113" s="82"/>
       <c r="F113" s="83" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G113" s="83"/>
       <c r="H113" s="32" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="I113" s="32" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="42" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B114" s="32" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C114" s="82" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="D114" s="82" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="E114" s="82"/>
       <c r="F114" s="83" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G114" s="83"/>
       <c r="H114" s="32" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="I114" s="32" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="42" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B115" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="C115" s="92" t="s">
-        <v>589</v>
-      </c>
-      <c r="D115" s="82"/>
+        <v>591</v>
+      </c>
+      <c r="C115" s="82" t="s">
+        <v>577</v>
+      </c>
+      <c r="D115" s="82" t="s">
+        <v>578</v>
+      </c>
       <c r="E115" s="82"/>
       <c r="F115" s="83" t="s">
-        <v>590</v>
-      </c>
-      <c r="G115" s="62" t="s">
-        <v>591</v>
-      </c>
-      <c r="H115" s="33" t="s">
         <v>592</v>
       </c>
-      <c r="I115" s="33" t="s">
-        <v>593</v>
+      <c r="G115" s="83"/>
+      <c r="H115" s="32" t="s">
+        <v>580</v>
+      </c>
+      <c r="I115" s="32" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="42" t="s">
+        <v>593</v>
+      </c>
+      <c r="B116" s="32" t="s">
         <v>594</v>
       </c>
-      <c r="B116" s="32" t="s">
+      <c r="C116" s="92" t="s">
         <v>595</v>
-      </c>
-      <c r="C116" s="87" t="s">
-        <v>424</v>
       </c>
       <c r="D116" s="82"/>
       <c r="E116" s="82"/>
-      <c r="F116" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="G116" s="88"/>
+      <c r="F116" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="G116" s="62" t="s">
+        <v>597</v>
+      </c>
       <c r="H116" s="33" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="I116" s="33" t="s">
-        <v>48</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="42" t="s">
-        <v>597</v>
-      </c>
-      <c r="B117" s="32"/>
-      <c r="C117" s="88"/>
+        <v>600</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="C117" s="87" t="s">
+        <v>430</v>
+      </c>
       <c r="D117" s="82"/>
       <c r="E117" s="82"/>
-      <c r="F117" s="79" t="s">
-        <v>526</v>
-      </c>
-      <c r="G117" s="79" t="s">
-        <v>527</v>
-      </c>
+      <c r="F117" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="G117" s="88"/>
       <c r="H117" s="33" t="s">
-        <v>598</v>
-      </c>
-      <c r="I117" s="86" t="s">
-        <v>599</v>
+        <v>602</v>
+      </c>
+      <c r="I117" s="33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="42" t="s">
-        <v>600</v>
-      </c>
-      <c r="B118" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C118" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="D118" s="82" t="s">
-        <v>52</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="B118" s="32"/>
+      <c r="C118" s="88"/>
+      <c r="D118" s="82"/>
       <c r="E118" s="82"/>
-      <c r="F118" s="83" t="s">
-        <v>601</v>
-      </c>
-      <c r="G118" s="83"/>
-      <c r="H118" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="I118" s="35" t="s">
-        <v>602</v>
+      <c r="F118" s="79" t="s">
+        <v>532</v>
+      </c>
+      <c r="G118" s="79" t="s">
+        <v>533</v>
+      </c>
+      <c r="H118" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="I118" s="86" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="42" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B119" s="32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C119" s="88" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D119" s="82" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E119" s="82"/>
       <c r="F119" s="83" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="G119" s="83"/>
-      <c r="H119" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="I119" s="36" t="s">
-        <v>605</v>
+      <c r="H119" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="I119" s="35" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="42" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C120" s="88" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D120" s="82" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E120" s="82"/>
       <c r="F120" s="83" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="G120" s="83"/>
-      <c r="H120" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="I120" s="32" t="s">
-        <v>608</v>
+      <c r="H120" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I120" s="36" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="42" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C121" s="88" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D121" s="82" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E121" s="82"/>
       <c r="F121" s="83" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G121" s="83"/>
       <c r="H121" s="32" t="s">
         <v>68</v>
       </c>
       <c r="I121" s="32" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="42" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C122" s="88" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D122" s="82" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E122" s="82"/>
       <c r="F122" s="83" t="s">
-        <v>613</v>
-      </c>
-      <c r="G122" s="83" t="s">
-        <v>614</v>
-      </c>
-      <c r="H122" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I122" s="33" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="G122" s="83"/>
+      <c r="H122" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="I122" s="32" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="42" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B123" s="32" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C123" s="88" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D123" s="82" t="s">
-        <v>617</v>
+        <v>79</v>
       </c>
       <c r="E123" s="82"/>
       <c r="F123" s="83" t="s">
-        <v>618</v>
-      </c>
-      <c r="G123" s="83"/>
-      <c r="H123" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="I123" s="32" t="s">
         <v>619</v>
+      </c>
+      <c r="G123" s="83" t="s">
+        <v>620</v>
+      </c>
+      <c r="H123" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="I123" s="33" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="42" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C124" s="88" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D124" s="82" t="s">
-        <v>93</v>
+        <v>623</v>
       </c>
       <c r="E124" s="82"/>
       <c r="F124" s="83" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="G124" s="83"/>
-      <c r="H124" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="I124" s="35" t="s">
-        <v>622</v>
+      <c r="H124" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I124" s="32" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="42" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C125" s="88" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D125" s="82" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E125" s="82"/>
       <c r="F125" s="83" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="G125" s="83"/>
-      <c r="H125" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="I125" s="33" t="s">
-        <v>625</v>
+      <c r="H125" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I125" s="35" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="42" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B126" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C126" s="88" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="C126" s="93" t="s">
+        <v>100</v>
       </c>
       <c r="D126" s="82" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E126" s="82"/>
       <c r="F126" s="83" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G126" s="83"/>
       <c r="H126" s="32" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="I126" s="33" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="42" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B127" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="C127" s="88"/>
-      <c r="D127" s="82"/>
+        <v>106</v>
+      </c>
+      <c r="C127" s="88" t="s">
+        <v>107</v>
+      </c>
+      <c r="D127" s="82" t="s">
+        <v>108</v>
+      </c>
       <c r="E127" s="82"/>
-      <c r="F127" s="83"/>
+      <c r="F127" s="83" t="s">
+        <v>633</v>
+      </c>
       <c r="G127" s="83"/>
-      <c r="H127" s="32"/>
-      <c r="I127" s="32"/>
+      <c r="H127" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I127" s="33" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="42" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B128" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C128" s="88" t="s">
-        <v>119</v>
+        <v>636</v>
+      </c>
+      <c r="C128" s="82" t="s">
+        <v>127</v>
       </c>
       <c r="D128" s="82" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E128" s="82"/>
       <c r="F128" s="83" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G128" s="83"/>
-      <c r="H128" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I128" s="33" t="s">
-        <v>633</v>
+      <c r="H128" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I128" s="36" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="42" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>635</v>
+        <v>118</v>
       </c>
       <c r="C129" s="88" t="s">
-        <v>636</v>
+        <v>119</v>
       </c>
       <c r="D129" s="82" t="s">
-        <v>637</v>
+        <v>120</v>
       </c>
       <c r="E129" s="82"/>
       <c r="F129" s="83" t="s">
-        <v>638</v>
-      </c>
-      <c r="G129" s="83" t="s">
         <v>639</v>
       </c>
-      <c r="H129" s="33" t="s">
+      <c r="G129" s="83"/>
+      <c r="H129" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I129" s="33" t="s">
         <v>640</v>
-      </c>
-      <c r="I129" s="93" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="42" t="s">
+        <v>641</v>
+      </c>
+      <c r="B130" s="32" t="s">
         <v>642</v>
       </c>
-      <c r="B130" s="32" t="s">
+      <c r="C130" s="88" t="s">
         <v>643</v>
       </c>
-      <c r="C130" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="D130" s="82"/>
+      <c r="D130" s="82" t="s">
+        <v>644</v>
+      </c>
       <c r="E130" s="82"/>
-      <c r="F130" s="88"/>
-      <c r="G130" s="88"/>
-      <c r="H130" s="32"/>
-      <c r="I130" s="32"/>
+      <c r="F130" s="83" t="s">
+        <v>645</v>
+      </c>
+      <c r="G130" s="83" t="s">
+        <v>646</v>
+      </c>
+      <c r="H130" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="I130" s="94" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="42" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="C131" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="D131" s="82" t="s">
-        <v>226</v>
-      </c>
+        <v>650</v>
+      </c>
+      <c r="C131" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D131" s="82"/>
       <c r="E131" s="82"/>
-      <c r="F131" s="83" t="s">
-        <v>646</v>
-      </c>
-      <c r="G131" s="83"/>
-      <c r="H131" s="33" t="s">
-        <v>647</v>
-      </c>
-      <c r="I131" s="33" t="s">
-        <v>648</v>
-      </c>
+      <c r="F131" s="88"/>
+      <c r="G131" s="88"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
     </row>
     <row r="132">
       <c r="A132" s="42" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C132" s="82" t="s">
-        <v>651</v>
+        <v>226</v>
       </c>
       <c r="D132" s="82" t="s">
-        <v>652</v>
+        <v>227</v>
       </c>
       <c r="E132" s="82"/>
       <c r="F132" s="83" t="s">
@@ -14474,217 +14593,217 @@
         <v>656</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>231</v>
+        <v>657</v>
       </c>
       <c r="C133" s="82" t="s">
-        <v>232</v>
+        <v>658</v>
       </c>
       <c r="D133" s="82" t="s">
-        <v>233</v>
+        <v>659</v>
       </c>
       <c r="E133" s="82"/>
       <c r="F133" s="83" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G133" s="83"/>
       <c r="H133" s="33" t="s">
-        <v>235</v>
+        <v>661</v>
       </c>
       <c r="I133" s="33" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="42" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C134" s="94" t="s">
-        <v>660</v>
-      </c>
-      <c r="D134" s="82"/>
+        <v>232</v>
+      </c>
+      <c r="C134" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="D134" s="82" t="s">
+        <v>234</v>
+      </c>
       <c r="E134" s="82"/>
       <c r="F134" s="83" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="G134" s="83"/>
       <c r="H134" s="33" t="s">
-        <v>662</v>
+        <v>236</v>
       </c>
       <c r="I134" s="33" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="42" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="C135" s="82" t="s">
-        <v>239</v>
-      </c>
-      <c r="D135" s="82" t="s">
-        <v>240</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C135" s="95" t="s">
+        <v>667</v>
+      </c>
+      <c r="D135" s="82"/>
       <c r="E135" s="82"/>
       <c r="F135" s="83" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="G135" s="83"/>
       <c r="H135" s="33" t="s">
-        <v>235</v>
+        <v>669</v>
       </c>
       <c r="I135" s="33" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="42" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C136" s="94" t="s">
-        <v>660</v>
-      </c>
-      <c r="D136" s="82"/>
+        <v>239</v>
+      </c>
+      <c r="C136" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D136" s="82" t="s">
+        <v>241</v>
+      </c>
       <c r="E136" s="82"/>
       <c r="F136" s="83" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="G136" s="83"/>
       <c r="H136" s="33" t="s">
-        <v>662</v>
+        <v>236</v>
       </c>
       <c r="I136" s="33" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="42" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B137" s="32" t="s">
-        <v>670</v>
-      </c>
-      <c r="C137" s="87" t="s">
-        <v>424</v>
+        <v>245</v>
+      </c>
+      <c r="C137" s="95" t="s">
+        <v>667</v>
       </c>
       <c r="D137" s="82"/>
       <c r="E137" s="82"/>
-      <c r="F137" s="88"/>
-      <c r="G137" s="88"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
+      <c r="F137" s="83" t="s">
+        <v>675</v>
+      </c>
+      <c r="G137" s="83"/>
+      <c r="H137" s="33" t="s">
+        <v>669</v>
+      </c>
+      <c r="I137" s="33" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="42" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>672</v>
-      </c>
-      <c r="C138" s="82" t="s">
-        <v>673</v>
-      </c>
-      <c r="D138" s="82" t="s">
-        <v>674</v>
-      </c>
+        <v>678</v>
+      </c>
+      <c r="C138" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D138" s="82"/>
       <c r="E138" s="82"/>
-      <c r="F138" s="83" t="s">
-        <v>675</v>
-      </c>
-      <c r="G138" s="83"/>
-      <c r="H138" s="33" t="s">
-        <v>676</v>
-      </c>
-      <c r="I138" s="33" t="s">
-        <v>677</v>
-      </c>
+      <c r="F138" s="88"/>
+      <c r="G138" s="88"/>
+      <c r="H138" s="28"/>
+      <c r="I138" s="28"/>
     </row>
     <row r="139">
       <c r="A139" s="42" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C139" s="82" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D139" s="82" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E139" s="82"/>
       <c r="F139" s="83" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="G139" s="83"/>
       <c r="H139" s="33" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I139" s="33" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="42" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>686</v>
-      </c>
-      <c r="C140" s="82"/>
-      <c r="D140" s="82"/>
+        <v>687</v>
+      </c>
+      <c r="C140" s="82" t="s">
+        <v>688</v>
+      </c>
+      <c r="D140" s="82" t="s">
+        <v>689</v>
+      </c>
       <c r="E140" s="82"/>
-      <c r="F140" s="82"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="14"/>
+      <c r="F140" s="83" t="s">
+        <v>690</v>
+      </c>
+      <c r="G140" s="83"/>
+      <c r="H140" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="I140" s="33" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="42" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="C141" s="94" t="s">
-        <v>660</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="C141" s="82"/>
       <c r="D141" s="82"/>
       <c r="E141" s="82"/>
-      <c r="F141" s="83" t="s">
-        <v>688</v>
-      </c>
-      <c r="G141" s="83"/>
-      <c r="H141" s="64" t="s">
-        <v>689</v>
-      </c>
-      <c r="I141" s="33" t="s">
-        <v>690</v>
-      </c>
+      <c r="F141" s="82"/>
+      <c r="G141" s="82"/>
+      <c r="H141" s="14"/>
     </row>
     <row r="142">
       <c r="A142" s="42" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>692</v>
-      </c>
-      <c r="C142" s="82" t="s">
-        <v>693</v>
-      </c>
-      <c r="D142" s="82" t="s">
-        <v>694</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="C142" s="95" t="s">
+        <v>667</v>
+      </c>
+      <c r="D142" s="82"/>
       <c r="E142" s="82"/>
       <c r="F142" s="83" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="G142" s="83"/>
       <c r="H142" s="64" t="s">
@@ -14726,920 +14845,922 @@
       <c r="B144" s="32" t="s">
         <v>706</v>
       </c>
-      <c r="C144" s="95"/>
-      <c r="D144" s="96"/>
-      <c r="E144" s="96"/>
-      <c r="F144" s="95"/>
-      <c r="G144" s="95"/>
-      <c r="H144" s="96"/>
-      <c r="I144" s="96"/>
+      <c r="C144" s="82" t="s">
+        <v>707</v>
+      </c>
+      <c r="D144" s="82" t="s">
+        <v>708</v>
+      </c>
+      <c r="E144" s="82"/>
+      <c r="F144" s="83" t="s">
+        <v>709</v>
+      </c>
+      <c r="G144" s="83"/>
+      <c r="H144" s="64" t="s">
+        <v>710</v>
+      </c>
+      <c r="I144" s="33" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="42" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="C145" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="D145" s="96"/>
-      <c r="E145" s="96"/>
-      <c r="F145" s="97" t="s">
-        <v>708</v>
-      </c>
-      <c r="G145" s="97"/>
-      <c r="H145" s="98" t="s">
-        <v>709</v>
-      </c>
-      <c r="I145" s="99" t="s">
-        <v>710</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="C145" s="96"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="96"/>
+      <c r="G145" s="96"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
     </row>
     <row r="146">
       <c r="A146" s="42" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>712</v>
-      </c>
-      <c r="C146" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="D146" s="96"/>
-      <c r="E146" s="96"/>
-      <c r="F146" s="100"/>
-      <c r="G146" s="100"/>
-      <c r="H146" s="96"/>
-      <c r="I146" s="96"/>
+        <v>369</v>
+      </c>
+      <c r="C146" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="E146" s="97"/>
+      <c r="F146" s="98" t="s">
+        <v>715</v>
+      </c>
+      <c r="G146" s="98"/>
+      <c r="H146" s="99" t="s">
+        <v>716</v>
+      </c>
+      <c r="I146" s="100" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="42" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>714</v>
-      </c>
-      <c r="C147" s="101" t="s">
-        <v>424</v>
-      </c>
-      <c r="D147" s="96"/>
-      <c r="E147" s="96"/>
-      <c r="F147" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="G147" s="88"/>
-      <c r="H147" s="33" t="s">
-        <v>716</v>
-      </c>
-      <c r="I147" s="33" t="s">
-        <v>48</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="C147" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="101"/>
+      <c r="G147" s="101"/>
+      <c r="H147" s="97"/>
+      <c r="I147" s="97"/>
     </row>
     <row r="148">
       <c r="A148" s="42" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C148" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D148" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="E148" s="82"/>
-      <c r="F148" s="83" t="s">
-        <v>718</v>
-      </c>
-      <c r="G148" s="83"/>
-      <c r="H148" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="I148" s="103" t="s">
-        <v>719</v>
+        <v>721</v>
+      </c>
+      <c r="C148" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
+      <c r="F148" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="G148" s="88"/>
+      <c r="H148" s="33" t="s">
+        <v>723</v>
+      </c>
+      <c r="I148" s="33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="42" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C149" s="82" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D149" s="82" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E149" s="82"/>
       <c r="F149" s="83" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="G149" s="83"/>
-      <c r="H149" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="I149" s="103" t="s">
-        <v>722</v>
+      <c r="H149" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="I149" s="104" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="42" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B150" s="32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C150" s="82" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D150" s="82" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E150" s="82"/>
       <c r="F150" s="83" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="G150" s="83"/>
-      <c r="H150" s="102" t="s">
+      <c r="H150" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="I150" s="103" t="s">
-        <v>725</v>
+      <c r="I150" s="104" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="42" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C151" s="82" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D151" s="82" t="s">
-        <v>617</v>
+        <v>73</v>
       </c>
       <c r="E151" s="82"/>
       <c r="F151" s="83" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="G151" s="83"/>
-      <c r="H151" s="104" t="s">
-        <v>728</v>
+      <c r="H151" s="103" t="s">
+        <v>68</v>
       </c>
       <c r="I151" s="104" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="42" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C152" s="82" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D152" s="82" t="s">
-        <v>93</v>
+        <v>623</v>
       </c>
       <c r="E152" s="82"/>
       <c r="F152" s="83" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G152" s="83"/>
       <c r="H152" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="I152" s="106" t="s">
-        <v>732</v>
+        <v>735</v>
+      </c>
+      <c r="I152" s="105" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="42" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C153" s="82" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D153" s="82" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E153" s="82"/>
       <c r="F153" s="83" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="G153" s="83"/>
-      <c r="H153" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="I153" s="105" t="s">
-        <v>735</v>
+      <c r="H153" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="I153" s="107" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="42" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C154" s="82" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="C154" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="D154" s="82" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E154" s="82"/>
       <c r="F154" s="83" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="G154" s="83"/>
-      <c r="H154" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="I154" s="83" t="s">
-        <v>738</v>
+      <c r="H154" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="I154" s="106" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="42" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B155" s="32" t="s">
-        <v>740</v>
+        <v>106</v>
       </c>
       <c r="C155" s="82" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D155" s="82" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E155" s="82"/>
       <c r="F155" s="83" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="G155" s="83"/>
-      <c r="H155" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="I155" s="36" t="s">
-        <v>742</v>
+      <c r="H155" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="I155" s="83" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="42" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>118</v>
+        <v>636</v>
       </c>
       <c r="C156" s="82" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D156" s="82" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E156" s="82"/>
       <c r="F156" s="83" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="G156" s="83"/>
-      <c r="H156" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="I156" s="83" t="s">
-        <v>745</v>
+      <c r="H156" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I156" s="36" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="42" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>747</v>
-      </c>
-      <c r="C157" s="101" t="s">
-        <v>424</v>
-      </c>
-      <c r="D157" s="107"/>
-      <c r="E157" s="107"/>
-      <c r="F157" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="G157" s="88"/>
-      <c r="H157" s="33" t="s">
-        <v>748</v>
-      </c>
-      <c r="I157" s="33" t="s">
-        <v>48</v>
+        <v>118</v>
+      </c>
+      <c r="C157" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D157" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" s="82"/>
+      <c r="F157" s="83" t="s">
+        <v>750</v>
+      </c>
+      <c r="G157" s="83"/>
+      <c r="H157" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="I157" s="83" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="42" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C158" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D158" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="E158" s="82"/>
-      <c r="F158" s="83" t="s">
-        <v>750</v>
-      </c>
-      <c r="G158" s="83"/>
-      <c r="H158" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="I158" s="103" t="s">
-        <v>751</v>
+        <v>753</v>
+      </c>
+      <c r="C158" s="102" t="s">
+        <v>430</v>
+      </c>
+      <c r="D158" s="108"/>
+      <c r="E158" s="108"/>
+      <c r="F158" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="G158" s="88"/>
+      <c r="H158" s="33" t="s">
+        <v>754</v>
+      </c>
+      <c r="I158" s="33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="42" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B159" s="32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C159" s="82" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D159" s="82" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E159" s="82"/>
       <c r="F159" s="83" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="G159" s="83"/>
-      <c r="H159" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="I159" s="103" t="s">
-        <v>754</v>
+      <c r="H159" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="I159" s="104" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="42" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C160" s="82" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D160" s="82" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E160" s="82"/>
       <c r="F160" s="83" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="G160" s="83"/>
-      <c r="H160" s="102" t="s">
+      <c r="H160" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="I160" s="103" t="s">
-        <v>757</v>
+      <c r="I160" s="104" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="42" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B161" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C161" s="82" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D161" s="82" t="s">
-        <v>617</v>
+        <v>73</v>
       </c>
       <c r="E161" s="82"/>
       <c r="F161" s="83" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="G161" s="83"/>
-      <c r="H161" s="104" t="s">
-        <v>88</v>
+      <c r="H161" s="103" t="s">
+        <v>68</v>
       </c>
       <c r="I161" s="104" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="42" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B162" s="32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C162" s="82" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D162" s="82" t="s">
-        <v>93</v>
+        <v>623</v>
       </c>
       <c r="E162" s="82"/>
       <c r="F162" s="83" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="G162" s="83"/>
-      <c r="H162" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="I162" s="103" t="s">
-        <v>763</v>
+      <c r="H162" s="105" t="s">
+        <v>89</v>
+      </c>
+      <c r="I162" s="105" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="42" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C163" s="82" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D163" s="82" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E163" s="82"/>
       <c r="F163" s="83" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="G163" s="83"/>
-      <c r="H163" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="I163" s="105" t="s">
-        <v>766</v>
+      <c r="H163" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="I163" s="104" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="42" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B164" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C164" s="82" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="C164" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="D164" s="82" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E164" s="82"/>
       <c r="F164" s="83" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="G164" s="83"/>
-      <c r="H164" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="I164" s="83" t="s">
-        <v>769</v>
+      <c r="H164" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="I164" s="106" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="42" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B165" s="32" t="s">
-        <v>740</v>
+        <v>106</v>
       </c>
       <c r="C165" s="82" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D165" s="82" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E165" s="82"/>
       <c r="F165" s="83" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="G165" s="83"/>
-      <c r="H165" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="I165" s="36" t="s">
-        <v>772</v>
+      <c r="H165" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="I165" s="83" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="42" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B166" s="32" t="s">
-        <v>118</v>
+        <v>636</v>
       </c>
       <c r="C166" s="82" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D166" s="82" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E166" s="82"/>
       <c r="F166" s="83" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="G166" s="83"/>
-      <c r="H166" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="I166" s="83" t="s">
-        <v>775</v>
+      <c r="H166" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I166" s="36" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="42" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B167" s="32" t="s">
-        <v>777</v>
+        <v>118</v>
       </c>
       <c r="C167" s="82" t="s">
-        <v>778</v>
+        <v>119</v>
       </c>
       <c r="D167" s="82" t="s">
-        <v>779</v>
+        <v>120</v>
       </c>
       <c r="E167" s="82"/>
       <c r="F167" s="83" t="s">
         <v>780</v>
       </c>
-      <c r="G167" s="108"/>
-      <c r="H167" s="109" t="s">
+      <c r="G167" s="83"/>
+      <c r="H167" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="I167" s="83" t="s">
         <v>781</v>
-      </c>
-      <c r="I167" s="109" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="42" t="s">
+        <v>782</v>
+      </c>
+      <c r="B168" s="32" t="s">
         <v>783</v>
       </c>
-      <c r="B168" s="32" t="s">
+      <c r="C168" s="82" t="s">
         <v>784</v>
       </c>
-      <c r="C168" s="95"/>
-      <c r="D168" s="95"/>
-      <c r="E168" s="95"/>
-      <c r="F168" s="22" t="s">
-        <v>715</v>
-      </c>
-      <c r="G168" s="88"/>
-      <c r="H168" s="33" t="s">
+      <c r="D168" s="82" t="s">
         <v>785</v>
       </c>
-      <c r="I168" s="33" t="s">
-        <v>48</v>
+      <c r="E168" s="82"/>
+      <c r="F168" s="83" t="s">
+        <v>786</v>
+      </c>
+      <c r="G168" s="93"/>
+      <c r="H168" s="109" t="s">
+        <v>787</v>
+      </c>
+      <c r="I168" s="109" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="42" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B169" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C169" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="D169" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="E169" s="82"/>
-      <c r="F169" s="83" t="s">
-        <v>787</v>
-      </c>
-      <c r="G169" s="83"/>
-      <c r="H169" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="I169" s="103" t="s">
-        <v>788</v>
+        <v>790</v>
+      </c>
+      <c r="C169" s="96"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="96"/>
+      <c r="F169" s="22" t="s">
+        <v>722</v>
+      </c>
+      <c r="G169" s="88"/>
+      <c r="H169" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="I169" s="33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="42" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B170" s="32" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C170" s="82" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D170" s="82" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="E170" s="82"/>
       <c r="F170" s="83" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G170" s="83"/>
-      <c r="H170" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="I170" s="103" t="s">
-        <v>791</v>
+      <c r="H170" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="I170" s="104" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="42" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B171" s="32" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C171" s="82" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D171" s="82" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E171" s="82"/>
       <c r="F171" s="83" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="G171" s="83"/>
-      <c r="H171" s="102" t="s">
+      <c r="H171" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="I171" s="103" t="s">
-        <v>794</v>
+      <c r="I171" s="104" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="42" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B172" s="32" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C172" s="82" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D172" s="82" t="s">
-        <v>617</v>
+        <v>73</v>
       </c>
       <c r="E172" s="82"/>
       <c r="F172" s="83" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="G172" s="83"/>
-      <c r="H172" s="104" t="s">
-        <v>88</v>
+      <c r="H172" s="103" t="s">
+        <v>68</v>
       </c>
       <c r="I172" s="104" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="42" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B173" s="32" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C173" s="82" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D173" s="82" t="s">
-        <v>93</v>
+        <v>623</v>
       </c>
       <c r="E173" s="82"/>
       <c r="F173" s="83" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G173" s="83"/>
       <c r="H173" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="I173" s="106" t="s">
-        <v>800</v>
+        <v>89</v>
+      </c>
+      <c r="I173" s="105" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="42" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B174" s="32" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C174" s="82" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D174" s="82" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="E174" s="82"/>
       <c r="F174" s="83" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="G174" s="83"/>
-      <c r="H174" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="I174" s="105" t="s">
-        <v>803</v>
+      <c r="H174" s="106" t="s">
+        <v>82</v>
+      </c>
+      <c r="I174" s="107" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="42" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B175" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C175" s="82" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="C175" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="D175" s="82" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E175" s="82"/>
       <c r="F175" s="83" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G175" s="83"/>
-      <c r="H175" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="I175" s="83" t="s">
-        <v>806</v>
+      <c r="H175" s="103" t="s">
+        <v>115</v>
+      </c>
+      <c r="I175" s="106" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="42" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B176" s="32" t="s">
-        <v>740</v>
+        <v>106</v>
       </c>
       <c r="C176" s="82" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D176" s="82" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="E176" s="82"/>
       <c r="F176" s="83" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="G176" s="83"/>
-      <c r="H176" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="I176" s="36" t="s">
-        <v>809</v>
+      <c r="H176" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="I176" s="83" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="42" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B177" s="32" t="s">
-        <v>118</v>
+        <v>636</v>
       </c>
       <c r="C177" s="82" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D177" s="82" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E177" s="82"/>
       <c r="F177" s="83" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G177" s="83"/>
-      <c r="H177" s="104" t="s">
-        <v>102</v>
-      </c>
-      <c r="I177" s="83" t="s">
-        <v>812</v>
+      <c r="H177" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I177" s="36" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="42" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B178" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="C178" s="110" t="s">
-        <v>815</v>
-      </c>
-      <c r="D178" s="110" t="s">
-        <v>816</v>
-      </c>
-      <c r="E178" s="110"/>
-      <c r="F178" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="C178" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D178" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E178" s="82"/>
+      <c r="F178" s="83" t="s">
         <v>817</v>
       </c>
-      <c r="G178" s="111"/>
-      <c r="H178" s="99" t="s">
+      <c r="G178" s="83"/>
+      <c r="H178" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="I178" s="83" t="s">
         <v>818</v>
-      </c>
-      <c r="I178" s="99" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="42" t="s">
+        <v>819</v>
+      </c>
+      <c r="B179" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="B179" s="32" t="s">
+      <c r="C179" s="110" t="s">
         <v>821</v>
       </c>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
+      <c r="D179" s="110" t="s">
+        <v>822</v>
+      </c>
+      <c r="E179" s="110"/>
+      <c r="F179" s="111" t="s">
+        <v>823</v>
+      </c>
+      <c r="G179" s="111"/>
+      <c r="H179" s="100" t="s">
+        <v>824</v>
+      </c>
+      <c r="I179" s="100" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="42" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B180" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="C180" s="112" t="s">
-        <v>424</v>
-      </c>
-      <c r="D180" s="88"/>
-      <c r="E180" s="88"/>
-      <c r="F180" s="83" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="H180" s="28"/>
       <c r="I180" s="28"/>
     </row>
     <row r="181">
       <c r="A181" s="42" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B181" s="32" t="s">
-        <v>826</v>
-      </c>
-      <c r="C181" s="87" t="s">
-        <v>827</v>
-      </c>
-      <c r="D181" s="82" t="s">
-        <v>828</v>
-      </c>
-      <c r="E181" s="82"/>
-      <c r="F181" s="22" t="s">
-        <v>372</v>
-      </c>
-      <c r="H181" s="32" t="s">
         <v>829</v>
       </c>
-      <c r="I181" s="89" t="s">
+      <c r="C181" s="112" t="s">
+        <v>430</v>
+      </c>
+      <c r="D181" s="88"/>
+      <c r="E181" s="88"/>
+      <c r="F181" s="83" t="s">
         <v>830</v>
       </c>
+      <c r="H181" s="28"/>
+      <c r="I181" s="28"/>
     </row>
     <row r="182">
       <c r="A182" s="42" t="s">
         <v>831</v>
       </c>
       <c r="B182" s="32" t="s">
-        <v>379</v>
-      </c>
-      <c r="C182" s="113" t="s">
         <v>832</v>
       </c>
-      <c r="D182" s="113" t="s">
+      <c r="C182" s="87" t="s">
         <v>833</v>
       </c>
-      <c r="E182" s="113"/>
-      <c r="F182" s="114" t="s">
+      <c r="D182" s="82" t="s">
         <v>834</v>
       </c>
-      <c r="G182" s="57"/>
-      <c r="H182" s="115" t="s">
+      <c r="E182" s="82"/>
+      <c r="F182" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H182" s="32" t="s">
         <v>835</v>
       </c>
-      <c r="I182" s="51" t="s">
+      <c r="I182" s="89" t="s">
         <v>836</v>
       </c>
     </row>
@@ -15648,400 +15769,420 @@
         <v>837</v>
       </c>
       <c r="B183" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C183" s="113" t="s">
         <v>838</v>
       </c>
-      <c r="C183" s="113" t="s">
-        <v>832</v>
-      </c>
       <c r="D183" s="113" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="E183" s="113"/>
       <c r="F183" s="114" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G183" s="57"/>
       <c r="H183" s="115" t="s">
-        <v>835</v>
-      </c>
-      <c r="I183" s="116" t="s">
-        <v>840</v>
+        <v>841</v>
+      </c>
+      <c r="I183" s="51" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="42" t="s">
+        <v>843</v>
+      </c>
+      <c r="B184" s="32" t="s">
+        <v>844</v>
+      </c>
+      <c r="C184" s="113" t="s">
+        <v>838</v>
+      </c>
+      <c r="D184" s="113" t="s">
+        <v>839</v>
+      </c>
+      <c r="E184" s="113"/>
+      <c r="F184" s="114" t="s">
+        <v>845</v>
+      </c>
+      <c r="G184" s="57"/>
+      <c r="H184" s="115" t="s">
         <v>841</v>
       </c>
-      <c r="B184" s="32" t="s">
-        <v>842</v>
-      </c>
-      <c r="C184" s="87" t="s">
-        <v>827</v>
-      </c>
-      <c r="D184" s="82" t="s">
-        <v>828</v>
-      </c>
-      <c r="E184" s="82"/>
-      <c r="F184" s="83" t="s">
-        <v>843</v>
-      </c>
-      <c r="H184" s="32" t="s">
-        <v>829</v>
-      </c>
-      <c r="I184" s="89" t="s">
-        <v>844</v>
+      <c r="I184" s="116" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="42" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B185" s="32" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C185" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="D185" s="82"/>
+        <v>833</v>
+      </c>
+      <c r="D185" s="82" t="s">
+        <v>834</v>
+      </c>
       <c r="E185" s="82"/>
-      <c r="F185" s="82"/>
-      <c r="I185" s="28"/>
+      <c r="F185" s="83" t="s">
+        <v>849</v>
+      </c>
+      <c r="H185" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="I185" s="89" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="42" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B186" s="32" t="s">
-        <v>848</v>
-      </c>
-      <c r="C186" s="82" t="s">
-        <v>827</v>
-      </c>
-      <c r="D186" s="82" t="s">
-        <v>828</v>
-      </c>
+        <v>852</v>
+      </c>
+      <c r="C186" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D186" s="82"/>
       <c r="E186" s="82"/>
-      <c r="F186" s="83" t="s">
-        <v>849</v>
-      </c>
-      <c r="H186" s="32" t="s">
-        <v>829</v>
-      </c>
-      <c r="I186" s="89" t="s">
-        <v>850</v>
-      </c>
+      <c r="F186" s="82"/>
+      <c r="I186" s="28"/>
     </row>
     <row r="187">
       <c r="A187" s="42" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B187" s="32" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C187" s="82" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D187" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E187" s="82"/>
       <c r="F187" s="83" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="H187" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I187" s="89" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="42" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B188" s="32" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C188" s="82" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D188" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E188" s="82"/>
       <c r="F188" s="83" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H188" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I188" s="89" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="42" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B189" s="32" t="s">
-        <v>860</v>
-      </c>
-      <c r="C189" s="87" t="s">
-        <v>827</v>
+        <v>862</v>
+      </c>
+      <c r="C189" s="82" t="s">
+        <v>833</v>
       </c>
       <c r="D189" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E189" s="82"/>
       <c r="F189" s="83" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="H189" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I189" s="89" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="42" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B190" s="32" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C190" s="87" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D190" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E190" s="82"/>
       <c r="F190" s="83" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I190" s="89" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="42" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B191" s="32" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="C191" s="87" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D191" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E191" s="82"/>
       <c r="F191" s="83" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="H191" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I191" s="89" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="42" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B192" s="32" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="C192" s="87" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D192" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E192" s="82"/>
       <c r="F192" s="83" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="H192" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I192" s="89" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="42" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="B193" s="32" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C193" s="87" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D193" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E193" s="82"/>
       <c r="F193" s="83" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="H193" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I193" s="89" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="42" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B194" s="32" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="C194" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="D194" s="82"/>
+        <v>833</v>
+      </c>
+      <c r="D194" s="82" t="s">
+        <v>834</v>
+      </c>
       <c r="E194" s="82"/>
-      <c r="F194" s="82"/>
-      <c r="I194" s="28"/>
+      <c r="F194" s="83" t="s">
+        <v>883</v>
+      </c>
+      <c r="H194" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="I194" s="89" t="s">
+        <v>884</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="42" t="s">
-        <v>881</v>
-      </c>
-      <c r="B195" s="47" t="s">
-        <v>882</v>
-      </c>
-      <c r="C195" s="82" t="s">
-        <v>827</v>
-      </c>
-      <c r="D195" s="82" t="s">
-        <v>828</v>
-      </c>
+        <v>885</v>
+      </c>
+      <c r="B195" s="32" t="s">
+        <v>886</v>
+      </c>
+      <c r="C195" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D195" s="82"/>
       <c r="E195" s="82"/>
-      <c r="F195" s="83" t="s">
-        <v>883</v>
-      </c>
-      <c r="H195" s="32" t="s">
-        <v>829</v>
-      </c>
-      <c r="I195" s="89" t="s">
-        <v>884</v>
-      </c>
+      <c r="F195" s="82"/>
+      <c r="I195" s="28"/>
     </row>
     <row r="196">
       <c r="A196" s="42" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B196" s="47" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="C196" s="82" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="D196" s="82" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="E196" s="82"/>
       <c r="F196" s="83" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="H196" s="32" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="I196" s="89" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="42" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B197" s="47" t="s">
-        <v>890</v>
-      </c>
-      <c r="C197" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="D197" s="88"/>
-      <c r="E197" s="88"/>
-      <c r="F197" s="82"/>
-      <c r="I197" s="28"/>
+        <v>892</v>
+      </c>
+      <c r="C197" s="82" t="s">
+        <v>833</v>
+      </c>
+      <c r="D197" s="82" t="s">
+        <v>834</v>
+      </c>
+      <c r="E197" s="82"/>
+      <c r="F197" s="83" t="s">
+        <v>893</v>
+      </c>
+      <c r="H197" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="I197" s="89" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="42" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B198" s="47" t="s">
-        <v>892</v>
-      </c>
-      <c r="C198" s="117" t="s">
-        <v>549</v>
-      </c>
-      <c r="D198" s="82"/>
-      <c r="E198" s="82"/>
-      <c r="F198" s="83" t="s">
-        <v>893</v>
-      </c>
-      <c r="H198" s="33" t="s">
-        <v>829</v>
-      </c>
-      <c r="I198" s="73" t="s">
-        <v>894</v>
-      </c>
+        <v>896</v>
+      </c>
+      <c r="C198" s="87" t="s">
+        <v>430</v>
+      </c>
+      <c r="D198" s="88"/>
+      <c r="E198" s="88"/>
+      <c r="F198" s="82"/>
+      <c r="I198" s="28"/>
     </row>
     <row r="199">
       <c r="A199" s="42" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B199" s="47" t="s">
-        <v>896</v>
-      </c>
-      <c r="C199" s="87" t="s">
-        <v>424</v>
-      </c>
-      <c r="D199" s="88"/>
-      <c r="E199" s="88"/>
-      <c r="F199" s="82"/>
-      <c r="I199" s="28"/>
+        <v>898</v>
+      </c>
+      <c r="C199" s="117" t="s">
+        <v>555</v>
+      </c>
+      <c r="D199" s="82"/>
+      <c r="E199" s="82"/>
+      <c r="F199" s="83" t="s">
+        <v>899</v>
+      </c>
+      <c r="H199" s="33" t="s">
+        <v>835</v>
+      </c>
+      <c r="I199" s="73" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="42" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B200" s="47" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C200" s="87" t="s">
-        <v>899</v>
-      </c>
-      <c r="D200" s="82" t="s">
-        <v>900</v>
-      </c>
-      <c r="E200" s="82"/>
-      <c r="F200" s="111" t="s">
-        <v>901</v>
-      </c>
-      <c r="H200" s="32" t="s">
-        <v>902</v>
-      </c>
-      <c r="I200" s="63" t="s">
+        <v>430</v>
+      </c>
+      <c r="D200" s="88"/>
+      <c r="E200" s="88"/>
+      <c r="F200" s="82"/>
+      <c r="I200" s="28"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="42" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="118"/>
-      <c r="H201" s="28"/>
-      <c r="I201" s="28"/>
+      <c r="B201" s="47" t="s">
+        <v>904</v>
+      </c>
+      <c r="C201" s="87" t="s">
+        <v>905</v>
+      </c>
+      <c r="D201" s="82" t="s">
+        <v>906</v>
+      </c>
+      <c r="E201" s="82"/>
+      <c r="F201" s="111" t="s">
+        <v>907</v>
+      </c>
+      <c r="H201" s="32" t="s">
+        <v>908</v>
+      </c>
+      <c r="I201" s="63" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="118"/>
@@ -20092,33 +20233,38 @@
       <c r="A1011" s="118"/>
       <c r="H1011" s="28"/>
       <c r="I1011" s="28"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="118"/>
+      <c r="H1012" s="28"/>
+      <c r="I1012" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:B200">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>REGEXMATCH($A3,"^[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B200">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B200">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B200">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B200">
+  <conditionalFormatting sqref="A3:B201">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
@@ -20128,18 +20274,18 @@
     <hyperlink r:id="rId3" ref="I54"/>
     <hyperlink r:id="rId4" ref="I57"/>
     <hyperlink r:id="rId5" ref="I70"/>
-    <hyperlink r:id="rId6" ref="I79"/>
+    <hyperlink r:id="rId6" ref="I73"/>
     <hyperlink r:id="rId7" ref="I80"/>
-    <hyperlink r:id="rId8" ref="I82"/>
+    <hyperlink r:id="rId8" ref="I81"/>
     <hyperlink r:id="rId9" ref="I83"/>
-    <hyperlink r:id="rId10" ref="I85"/>
-    <hyperlink r:id="rId11" ref="I104"/>
+    <hyperlink r:id="rId10" ref="I84"/>
+    <hyperlink r:id="rId11" ref="I86"/>
     <hyperlink r:id="rId12" ref="I105"/>
-    <hyperlink r:id="rId13" ref="I129"/>
-    <hyperlink r:id="rId14" ref="I181"/>
-    <hyperlink r:id="rId15" ref="I183"/>
+    <hyperlink r:id="rId13" ref="I106"/>
+    <hyperlink r:id="rId14" ref="I130"/>
+    <hyperlink r:id="rId15" ref="I182"/>
     <hyperlink r:id="rId16" ref="I184"/>
-    <hyperlink r:id="rId17" ref="I186"/>
+    <hyperlink r:id="rId17" ref="I185"/>
     <hyperlink r:id="rId18" ref="I187"/>
     <hyperlink r:id="rId19" ref="I188"/>
     <hyperlink r:id="rId20" ref="I189"/>
@@ -20147,12 +20293,13 @@
     <hyperlink r:id="rId22" ref="I191"/>
     <hyperlink r:id="rId23" ref="I192"/>
     <hyperlink r:id="rId24" ref="I193"/>
-    <hyperlink r:id="rId25" ref="I195"/>
+    <hyperlink r:id="rId25" ref="I194"/>
     <hyperlink r:id="rId26" ref="I196"/>
-    <hyperlink r:id="rId27" ref="I198"/>
+    <hyperlink r:id="rId27" ref="I197"/>
+    <hyperlink r:id="rId28" ref="I199"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <drawing r:id="rId29"/>
+  <legacyDrawing r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -20172,36 +20319,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="119" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="120" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="121" t="s">
-        <v>908</v>
+        <v>914</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="122" t="s">
-        <v>909</v>
+        <v>915</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>910</v>
+        <v>916</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
     </row>
     <row r="8">
@@ -20212,41 +20359,41 @@
     </row>
     <row r="10">
       <c r="A10" s="122" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="122" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="123" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31"/>
       <c r="B13" s="124" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="125" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="126" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="127" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
     </row>
     <row r="17">
@@ -20255,24 +20402,24 @@
     </row>
     <row r="18">
       <c r="A18" s="122" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="B19" s="128"/>
     </row>
     <row r="21">
       <c r="A21" s="122" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
     </row>
   </sheetData>
@@ -20298,52 +20445,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="122" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="66" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="66" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>934</v>
+        <v>940</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
+        <v>941</v>
       </c>
     </row>
   </sheetData>
@@ -20369,48 +20521,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="B1" s="129" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="130" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>943</v>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="21" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -20452,76 +20609,76 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>949</v>
+        <v>957</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="32" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -20548,31 +20705,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -20599,15 +20756,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="131" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="122" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="B2" s="122" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -2194,7 +2194,7 @@
     <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / epo:Numeric</t>
   </si>
   <si>
-    <t>?this epo:describesResultNotice / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
+    <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
   </si>
   <si>
     <t>II.1.7.2</t>
@@ -2232,7 +2232,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:describesResultNotice / epo:hasProcurementLowestReceivedTenderValue / epo:hasAmountValue ?</t>
+      <t xml:space="preserve"> epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -2266,7 +2266,7 @@
     <t>OBJECT_CONTRACT/VAL_RANGE_TOTAL/HIGH</t>
   </si>
   <si>
-    <t>?this epo:describesResultNotice / epo:hasProcurementHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
+    <t>?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasAmountValue ?value .</t>
   </si>
   <si>
     <t>II.1.7.4</t>
@@ -2294,7 +2294,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">?this epo:describesResultNotice / epo:hasTotalAwardedValue / epo:hasCurrency </t>
+      <t xml:space="preserve">?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasCurrency </t>
     </r>
     <r>
       <rPr>
@@ -2309,7 +2309,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> } UNION { ?this epo:describesResultNotice / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:describesResultNotice / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } UNION </t>
+      <t xml:space="preserve"> } UNION { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } UNION </t>
     </r>
   </si>
   <si>
@@ -3258,7 +3258,7 @@
     <t>epo:Procedure /  epo:FrameworkAgreementTechniqueUsage</t>
   </si>
   <si>
-    <t>?this epo:usesTechnique ?this</t>
+    <t>?this epo:usesTechnique ?value .</t>
   </si>
   <si>
     <t>IV.1.3.2</t>
@@ -4801,7 +4801,7 @@
     <t>epo:Tender / epo:SubcontractingEstimate / MonetaryValue /at-voc:currency (from currency.json)</t>
   </si>
   <si>
-    <t>?this epo:forseesSubcontracting / epo:hasSubcontractingEstimatedValue / epo:hasCurrency ?value .</t>
+    <t>?this epo:foreseesSubcontracting / epo:hasSubcontractingEstimatedValue / epo:hasCurrency ?value .</t>
   </si>
   <si>
     <t>V.2.5.5</t>
@@ -4842,7 +4842,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:forseesSubcontracting / epo:hasEstimatedPercentage ?</t>
+      <t xml:space="preserve"> epo:foreseesSubcontracting / epo:hasEstimatedPercentage ?</t>
     </r>
     <r>
       <rPr>
@@ -4892,7 +4892,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">this epo:forseesSubcontracting / </t>
+      <t xml:space="preserve">this epo:foreseesSubcontracting / </t>
     </r>
     <r>
       <rPr>
@@ -6630,7 +6630,7 @@
     <t>AgentInRole === section 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Winner </t>
+    <t>Winner  AND Tenderer</t>
   </si>
   <si>
     <t>AgentInRole === section 6 Review body</t>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -106,7 +106,7 @@
 	-ibrahim dellal</t>
       </text>
     </comment>
-    <comment authorId="0" ref="G202">
+    <comment authorId="0" ref="G201">
       <text>
         <t xml:space="preserve">Previous Procedure (It should be already created What is its identifier??? )
 	-ibrahim dellal
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="994">
   <si>
     <t>Field</t>
   </si>
@@ -184,7 +184,7 @@
     <t>EPO version</t>
   </si>
   <si>
-    <t>3.0.0.beta</t>
+    <t>3.0.1.beta</t>
   </si>
   <si>
     <r>
@@ -364,7 +364,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
     <r>
       <rPr>
@@ -1105,7 +1105,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
     <t>CONTRACTING_BODY/PROCUREMENT_LAW</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Procedure / epo:ProcedureTerm / rdf:langString</t>
+    <t>epo:ResultNotice / epo:Procedure / epo:ProcedureSpecificTerm / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -2494,7 +2494,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:foreseesContractTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
+      <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / epo:hasNutsCode </t>
     </r>
     <r>
       <rPr>
@@ -2524,7 +2524,7 @@
     <t>epo:Lot / epo:ContractTerm / dct:Location / locn:Address / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:foreseesContractTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
+    <t>?this epo:foreseesContractSpecificTerm / epo:definesSpecificPlaceOfPerformance / locn:address / locn:fullAddress ?value .</t>
   </si>
   <si>
     <t>II.2.4</t>
@@ -2811,7 +2811,7 @@
     <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
   </si>
   <si>
-    <t>?this epo:foreseesContractTerm / epo:hasOptions ?value .</t>
+    <t>?this epo:foreseesContractSpecificTerm / epo:hasOptions ?value .</t>
   </si>
   <si>
     <t>II.2.11.2</t>
@@ -2832,7 +2832,7 @@
     <t>epo:Lot / epo:ContractTerm / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:foreseesContractTerm / epo:hasOptionsDescription ?value .</t>
+    <t>?this epo:foreseesContractSpecificTerm / epo:hasOptionsDescription ?value .</t>
   </si>
   <si>
     <t>II.2.13</t>
@@ -3630,15 +3630,6 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
-  </si>
-  <si>
-    <t>V.0.5</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:LotAwardOutcome</t>
-  </si>
-  <si>
-    <t>?this epo:describesLot ?value</t>
   </si>
   <si>
     <t>V.0.6</t>
@@ -3687,6 +3678,9 @@
     <t>epo:LotAwardOutcome / epo:Lot</t>
   </si>
   <si>
+    <t>?this epo:describesLot ?value</t>
+  </si>
+  <si>
     <t>V.1.1.1</t>
   </si>
   <si>
@@ -4059,7 +4053,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
     <r>
       <rPr>
@@ -5027,7 +5021,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
     <r>
       <rPr>
@@ -5337,7 +5331,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
     <r>
       <rPr>
@@ -5665,7 +5659,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasName ?</t>
+      <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
     <r>
       <rPr>
@@ -6630,7 +6624,7 @@
     <t>AgentInRole === section 5</t>
   </si>
   <si>
-    <t>Winner  AND Tenderer</t>
+    <t xml:space="preserve">Winner </t>
   </si>
   <si>
     <t>AgentInRole === section 6 Review body</t>
@@ -14135,679 +14129,677 @@
       <c r="A119" s="42" t="s">
         <v>553</v>
       </c>
-      <c r="B119" s="32"/>
-      <c r="C119" s="82"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="F119" s="85"/>
+      <c r="B119" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="C119" s="82" t="s">
+        <v>555</v>
+      </c>
+      <c r="D119" s="82" t="s">
+        <v>556</v>
+      </c>
+      <c r="E119" s="85" t="s">
+        <v>557</v>
+      </c>
+      <c r="F119" s="85" t="s">
+        <v>558</v>
+      </c>
       <c r="G119" s="34" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H119" s="48" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="42" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B120" s="32" t="s">
-        <v>557</v>
-      </c>
-      <c r="C120" s="82" t="s">
-        <v>558</v>
-      </c>
-      <c r="D120" s="82" t="s">
-        <v>559</v>
-      </c>
-      <c r="E120" s="85" t="s">
-        <v>560</v>
-      </c>
-      <c r="F120" s="85" t="s">
-        <v>561</v>
-      </c>
-      <c r="G120" s="34" t="s">
         <v>562</v>
       </c>
-      <c r="H120" s="48" t="s">
-        <v>563</v>
-      </c>
+      <c r="C120" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="D120" s="82"/>
     </row>
     <row r="121">
       <c r="A121" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B121" s="32" t="s">
         <v>564</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>565</v>
       </c>
       <c r="C121" s="86" t="s">
         <v>462</v>
       </c>
       <c r="D121" s="82"/>
+      <c r="E121" s="87"/>
+      <c r="F121" s="87"/>
+      <c r="G121" s="34" t="s">
+        <v>565</v>
+      </c>
+      <c r="H121" s="34" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="42" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B122" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="C122" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D122" s="82"/>
-      <c r="E122" s="87"/>
-      <c r="F122" s="87"/>
+        <v>568</v>
+      </c>
+      <c r="C122" s="82" t="s">
+        <v>569</v>
+      </c>
+      <c r="D122" s="82" t="s">
+        <v>570</v>
+      </c>
+      <c r="E122" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="F122" s="83"/>
       <c r="G122" s="34" t="s">
-        <v>568</v>
-      </c>
-      <c r="H122" s="34" t="s">
-        <v>555</v>
+        <v>572</v>
+      </c>
+      <c r="H122" s="73" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>575</v>
+      </c>
+      <c r="C123" s="82" t="s">
         <v>569</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="D123" s="82" t="s">
         <v>570</v>
       </c>
-      <c r="C123" s="82" t="s">
-        <v>571</v>
-      </c>
-      <c r="D123" s="82" t="s">
+      <c r="E123" s="83" t="s">
+        <v>576</v>
+      </c>
+      <c r="F123" s="83"/>
+      <c r="G123" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="E123" s="83" t="s">
-        <v>573</v>
-      </c>
-      <c r="F123" s="83"/>
-      <c r="G123" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="H123" s="73" t="s">
-        <v>575</v>
+      <c r="H123" s="88" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="42" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B124" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="C124" s="82" t="s">
-        <v>571</v>
-      </c>
-      <c r="D124" s="82" t="s">
-        <v>572</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="C124" s="89" t="s">
+        <v>580</v>
+      </c>
+      <c r="D124" s="82"/>
       <c r="E124" s="83" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F124" s="83"/>
-      <c r="G124" s="32" t="s">
-        <v>574</v>
-      </c>
-      <c r="H124" s="88" t="s">
-        <v>579</v>
+      <c r="G124" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="42" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B125" s="32" t="s">
-        <v>581</v>
-      </c>
-      <c r="C125" s="89" t="s">
-        <v>582</v>
+        <v>525</v>
+      </c>
+      <c r="C125" s="86" t="s">
+        <v>462</v>
       </c>
       <c r="D125" s="82"/>
-      <c r="E125" s="83" t="s">
-        <v>583</v>
-      </c>
-      <c r="F125" s="83"/>
-      <c r="G125" s="34" t="s">
-        <v>584</v>
-      </c>
-      <c r="H125" s="48" t="s">
-        <v>585</v>
-      </c>
+      <c r="E125" s="82"/>
+      <c r="F125" s="82"/>
+      <c r="G125" s="28"/>
+      <c r="H125" s="28"/>
     </row>
     <row r="126">
       <c r="A126" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="B126" s="32"/>
+      <c r="C126" s="82"/>
+      <c r="E126" s="79" t="s">
         <v>586</v>
       </c>
-      <c r="B126" s="32" t="s">
-        <v>525</v>
-      </c>
-      <c r="C126" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D126" s="82"/>
-      <c r="E126" s="82"/>
-      <c r="F126" s="82"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
+      <c r="F126" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G126" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="H126" s="48" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="42" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B127" s="32"/>
       <c r="C127" s="82"/>
       <c r="E127" s="79" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F127" s="79" t="s">
-        <v>257</v>
+        <v>589</v>
       </c>
       <c r="G127" s="34" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="42" t="s">
-        <v>587</v>
-      </c>
-      <c r="B128" s="32"/>
-      <c r="C128" s="82"/>
-      <c r="E128" s="79" t="s">
-        <v>588</v>
-      </c>
-      <c r="F128" s="79" t="s">
-        <v>591</v>
-      </c>
-      <c r="G128" s="34" t="s">
         <v>592</v>
       </c>
-      <c r="H128" s="48" t="s">
+      <c r="B128" s="32" t="s">
         <v>593</v>
+      </c>
+      <c r="C128" s="82" t="s">
+        <v>594</v>
+      </c>
+      <c r="D128" s="82" t="s">
+        <v>595</v>
+      </c>
+      <c r="E128" s="83" t="s">
+        <v>596</v>
+      </c>
+      <c r="F128" s="83"/>
+      <c r="G128" s="22" t="s">
+        <v>551</v>
+      </c>
+      <c r="H128" s="32" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="42" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B129" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="C129" s="82" t="s">
-        <v>596</v>
-      </c>
-      <c r="D129" s="82" t="s">
-        <v>597</v>
-      </c>
-      <c r="E129" s="83" t="s">
-        <v>598</v>
-      </c>
-      <c r="F129" s="83"/>
-      <c r="G129" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="H129" s="32" t="s">
         <v>599</v>
+      </c>
+      <c r="C129" s="82"/>
+      <c r="D129" s="82"/>
+      <c r="E129" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="F129" s="90"/>
+      <c r="G129" s="67" t="s">
+        <v>600</v>
+      </c>
+      <c r="H129" s="34" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="42" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B130" s="32" t="s">
-        <v>601</v>
-      </c>
-      <c r="C130" s="82"/>
-      <c r="D130" s="82"/>
-      <c r="E130" s="22" t="s">
-        <v>526</v>
-      </c>
-      <c r="F130" s="90"/>
-      <c r="G130" s="67" t="s">
-        <v>602</v>
+        <v>603</v>
+      </c>
+      <c r="C130" s="82" t="s">
+        <v>604</v>
+      </c>
+      <c r="D130" s="82" t="s">
+        <v>605</v>
+      </c>
+      <c r="E130" s="83" t="s">
+        <v>606</v>
+      </c>
+      <c r="F130" s="83"/>
+      <c r="G130" s="34" t="s">
+        <v>607</v>
       </c>
       <c r="H130" s="34" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="42" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B131" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="C131" s="82" t="s">
-        <v>606</v>
-      </c>
-      <c r="D131" s="82" t="s">
-        <v>607</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C131" s="82"/>
+      <c r="D131" s="82"/>
       <c r="E131" s="83" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F131" s="83"/>
-      <c r="G131" s="34" t="s">
-        <v>609</v>
-      </c>
-      <c r="H131" s="34" t="s">
-        <v>610</v>
+      <c r="G131" s="32" t="s">
+        <v>612</v>
+      </c>
+      <c r="H131" s="32" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="42" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B132" s="32" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C132" s="82"/>
       <c r="D132" s="82"/>
       <c r="E132" s="83" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="F132" s="83"/>
       <c r="G132" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H132" s="32" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="42" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B133" s="32" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C133" s="82"/>
       <c r="D133" s="82"/>
       <c r="E133" s="83" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F133" s="83"/>
       <c r="G133" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H133" s="32" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="42" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B134" s="32" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C134" s="82"/>
       <c r="D134" s="82"/>
       <c r="E134" s="83" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="F134" s="83"/>
       <c r="G134" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H134" s="32" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="42" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B135" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="C135" s="82"/>
+        <v>627</v>
+      </c>
+      <c r="C135" s="91" t="s">
+        <v>628</v>
+      </c>
       <c r="D135" s="82"/>
       <c r="E135" s="83" t="s">
-        <v>626</v>
-      </c>
-      <c r="F135" s="83"/>
-      <c r="G135" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="H135" s="32" t="s">
-        <v>627</v>
+        <v>629</v>
+      </c>
+      <c r="F135" s="47"/>
+      <c r="G135" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H135" s="48" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="42" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B136" s="32" t="s">
-        <v>629</v>
-      </c>
-      <c r="C136" s="91" t="s">
-        <v>630</v>
+        <v>631</v>
+      </c>
+      <c r="C136" s="86" t="s">
+        <v>462</v>
       </c>
       <c r="D136" s="82"/>
-      <c r="E136" s="83" t="s">
-        <v>631</v>
-      </c>
-      <c r="F136" s="47"/>
-      <c r="G136" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="H136" s="48" t="s">
-        <v>146</v>
-      </c>
+      <c r="E136" s="22"/>
+      <c r="F136" s="87"/>
+      <c r="G136" s="34"/>
+      <c r="H136" s="34"/>
     </row>
     <row r="137">
       <c r="A137" s="42" t="s">
         <v>632</v>
       </c>
       <c r="B137" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C137" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E137" s="83" t="s">
         <v>633</v>
       </c>
-      <c r="C137" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D137" s="82"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="87"/>
-      <c r="G137" s="34"/>
-      <c r="H137" s="34"/>
+      <c r="F137" s="83"/>
+      <c r="G137" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H137" s="37" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="42" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B138" s="32" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C138" s="87" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D138" s="82" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E138" s="83" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F138" s="83"/>
-      <c r="G138" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="H138" s="37" t="s">
-        <v>636</v>
+      <c r="G138" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="H138" s="40" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="42" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B139" s="32" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C139" s="87" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D139" s="82" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E139" s="83" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F139" s="83"/>
-      <c r="G139" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="H139" s="40" t="s">
-        <v>639</v>
+      <c r="G139" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H139" s="32" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="42" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B140" s="32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C140" s="87" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D140" s="82" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E140" s="83" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F140" s="83"/>
       <c r="G140" s="32" t="s">
         <v>71</v>
       </c>
       <c r="H140" s="32" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="42" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B141" s="32" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C141" s="87" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D141" s="82" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E141" s="83" t="s">
-        <v>644</v>
-      </c>
-      <c r="F141" s="83"/>
-      <c r="G141" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H141" s="32" t="s">
         <v>645</v>
+      </c>
+      <c r="F141" s="83" t="s">
+        <v>646</v>
+      </c>
+      <c r="G141" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H141" s="34" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="42" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B142" s="32" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C142" s="87" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D142" s="82" t="s">
-        <v>82</v>
+        <v>649</v>
       </c>
       <c r="E142" s="83" t="s">
-        <v>647</v>
-      </c>
-      <c r="F142" s="83" t="s">
-        <v>648</v>
-      </c>
-      <c r="G142" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="H142" s="34" t="s">
-        <v>649</v>
+        <v>650</v>
+      </c>
+      <c r="F142" s="83"/>
+      <c r="G142" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H142" s="32" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="42" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B143" s="32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C143" s="87" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D143" s="82" t="s">
-        <v>651</v>
+        <v>97</v>
       </c>
       <c r="E143" s="83" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F143" s="83"/>
-      <c r="G143" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="H143" s="32" t="s">
-        <v>653</v>
+      <c r="G143" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="H143" s="37" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="42" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B144" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C144" s="87" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="C144" s="92" t="s">
+        <v>116</v>
       </c>
       <c r="D144" s="82" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E144" s="83" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F144" s="83"/>
-      <c r="G144" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H144" s="37" t="s">
-        <v>656</v>
+      <c r="G144" s="93" t="s">
+        <v>657</v>
+      </c>
+      <c r="H144" s="93" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="42" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B145" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" s="92" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="C145" s="87" t="s">
+        <v>110</v>
       </c>
       <c r="D145" s="82" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E145" s="83" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F145" s="83"/>
       <c r="G145" s="93" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H145" s="93" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="42" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B146" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C146" s="87" t="s">
-        <v>110</v>
+        <v>664</v>
+      </c>
+      <c r="C146" s="82" t="s">
+        <v>131</v>
       </c>
       <c r="D146" s="82" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E146" s="83" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F146" s="83"/>
-      <c r="G146" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H146" s="93" t="s">
-        <v>664</v>
+      <c r="G146" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="H146" s="40" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="42" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B147" s="32" t="s">
-        <v>666</v>
-      </c>
-      <c r="C147" s="82" t="s">
-        <v>131</v>
+        <v>122</v>
+      </c>
+      <c r="C147" s="87" t="s">
+        <v>123</v>
       </c>
       <c r="D147" s="82" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E147" s="83" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F147" s="83"/>
-      <c r="G147" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="H147" s="40" t="s">
-        <v>668</v>
+      <c r="G147" s="93" t="s">
+        <v>661</v>
+      </c>
+      <c r="H147" s="93" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="42" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B148" s="32" t="s">
-        <v>122</v>
+        <v>671</v>
       </c>
       <c r="C148" s="87" t="s">
-        <v>123</v>
+        <v>672</v>
       </c>
       <c r="D148" s="82" t="s">
-        <v>124</v>
+        <v>673</v>
       </c>
       <c r="E148" s="83" t="s">
-        <v>670</v>
-      </c>
-      <c r="F148" s="83"/>
-      <c r="G148" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H148" s="93" t="s">
-        <v>671</v>
+        <v>674</v>
+      </c>
+      <c r="F148" s="83" t="s">
+        <v>257</v>
+      </c>
+      <c r="G148" s="34" t="s">
+        <v>675</v>
+      </c>
+      <c r="H148" s="94" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="42" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B149" s="32" t="s">
-        <v>673</v>
-      </c>
-      <c r="C149" s="87" t="s">
-        <v>674</v>
-      </c>
-      <c r="D149" s="82" t="s">
-        <v>675</v>
-      </c>
-      <c r="E149" s="83" t="s">
-        <v>676</v>
-      </c>
-      <c r="F149" s="83" t="s">
-        <v>257</v>
-      </c>
-      <c r="G149" s="34" t="s">
-        <v>677</v>
-      </c>
-      <c r="H149" s="94" t="s">
         <v>678</v>
       </c>
+      <c r="C149" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="D149" s="82"/>
+      <c r="E149" s="87"/>
+      <c r="F149" s="87"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
     </row>
     <row r="150">
       <c r="A150" s="42" t="s">
@@ -14816,128 +14808,134 @@
       <c r="B150" s="32" t="s">
         <v>680</v>
       </c>
-      <c r="C150" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D150" s="82"/>
-      <c r="E150" s="87"/>
-      <c r="F150" s="87"/>
-      <c r="G150" s="32"/>
-      <c r="H150" s="32"/>
+      <c r="C150" s="82" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="E150" s="83" t="s">
+        <v>681</v>
+      </c>
+      <c r="F150" s="83"/>
+      <c r="G150" s="34" t="s">
+        <v>682</v>
+      </c>
+      <c r="H150" s="34" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="42" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="C151" s="82" t="s">
-        <v>265</v>
+        <v>686</v>
       </c>
       <c r="D151" s="82" t="s">
-        <v>266</v>
+        <v>687</v>
       </c>
       <c r="E151" s="83" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="F151" s="83"/>
       <c r="G151" s="34" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="H151" s="34" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="42" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B152" s="32" t="s">
-        <v>687</v>
+        <v>271</v>
       </c>
       <c r="C152" s="82" t="s">
-        <v>688</v>
+        <v>272</v>
       </c>
       <c r="D152" s="82" t="s">
-        <v>689</v>
+        <v>273</v>
       </c>
       <c r="E152" s="83" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="F152" s="83"/>
       <c r="G152" s="34" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H152" s="34" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="42" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B153" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="C153" s="82" t="s">
-        <v>272</v>
-      </c>
-      <c r="D153" s="82" t="s">
-        <v>273</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C153" s="95" t="s">
+        <v>696</v>
+      </c>
+      <c r="D153" s="82"/>
       <c r="E153" s="83" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F153" s="83"/>
       <c r="G153" s="34" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H153" s="34" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="42" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B154" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C154" s="95" t="s">
-        <v>698</v>
-      </c>
-      <c r="D154" s="82"/>
+        <v>277</v>
+      </c>
+      <c r="C154" s="82" t="s">
+        <v>278</v>
+      </c>
+      <c r="D154" s="82" t="s">
+        <v>279</v>
+      </c>
       <c r="E154" s="83" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F154" s="83"/>
       <c r="G154" s="34" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="42" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B155" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="C155" s="82" t="s">
-        <v>278</v>
-      </c>
-      <c r="D155" s="82" t="s">
-        <v>279</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C155" s="95" t="s">
+        <v>696</v>
+      </c>
+      <c r="D155" s="82"/>
       <c r="E155" s="83" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="F155" s="83"/>
       <c r="G155" s="34" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H155" s="34" t="s">
         <v>704</v>
@@ -14948,22 +14946,16 @@
         <v>705</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C156" s="95" t="s">
-        <v>698</v>
+        <v>706</v>
+      </c>
+      <c r="C156" s="86" t="s">
+        <v>462</v>
       </c>
       <c r="D156" s="82"/>
-      <c r="E156" s="83" t="s">
-        <v>699</v>
-      </c>
-      <c r="F156" s="83"/>
-      <c r="G156" s="34" t="s">
-        <v>700</v>
-      </c>
-      <c r="H156" s="34" t="s">
-        <v>706</v>
-      </c>
+      <c r="E156" s="87"/>
+      <c r="F156" s="87"/>
+      <c r="G156" s="28"/>
+      <c r="H156" s="28"/>
     </row>
     <row r="157">
       <c r="A157" s="42" t="s">
@@ -14972,36 +14964,28 @@
       <c r="B157" s="32" t="s">
         <v>708</v>
       </c>
-      <c r="C157" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D157" s="82"/>
-      <c r="E157" s="87"/>
-      <c r="F157" s="87"/>
-      <c r="G157" s="28"/>
-      <c r="H157" s="28"/>
+      <c r="C157" s="82" t="s">
+        <v>709</v>
+      </c>
+      <c r="D157" s="82" t="s">
+        <v>710</v>
+      </c>
+      <c r="E157" s="83" t="s">
+        <v>711</v>
+      </c>
+      <c r="F157" s="83"/>
+      <c r="G157" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="H157" s="96" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="42" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>710</v>
-      </c>
-      <c r="C158" s="82" t="s">
-        <v>711</v>
-      </c>
-      <c r="D158" s="82" t="s">
-        <v>712</v>
-      </c>
-      <c r="E158" s="83" t="s">
-        <v>713</v>
-      </c>
-      <c r="F158" s="83"/>
-      <c r="G158" s="67" t="s">
-        <v>714</v>
-      </c>
-      <c r="H158" s="96" t="s">
         <v>715</v>
       </c>
     </row>
@@ -15012,138 +14996,146 @@
       <c r="B159" s="32" t="s">
         <v>717</v>
       </c>
+      <c r="C159" s="83" t="s">
+        <v>718</v>
+      </c>
+      <c r="D159" s="83" t="s">
+        <v>719</v>
+      </c>
+      <c r="E159" s="83" t="s">
+        <v>720</v>
+      </c>
+      <c r="F159" s="83"/>
+      <c r="G159" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="H159" s="34" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="42" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B160" s="32" t="s">
-        <v>719</v>
-      </c>
-      <c r="C160" s="83" t="s">
-        <v>720</v>
-      </c>
-      <c r="D160" s="83" t="s">
-        <v>721</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C160" s="95" t="s">
+        <v>696</v>
+      </c>
+      <c r="D160" s="82"/>
       <c r="E160" s="83" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="F160" s="83"/>
-      <c r="G160" s="34" t="s">
-        <v>723</v>
+      <c r="G160" s="67" t="s">
+        <v>725</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="42" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B161" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C161" s="95" t="s">
-        <v>698</v>
-      </c>
-      <c r="D161" s="82"/>
+        <v>728</v>
+      </c>
+      <c r="C161" s="82" t="s">
+        <v>729</v>
+      </c>
+      <c r="D161" s="82" t="s">
+        <v>730</v>
+      </c>
       <c r="E161" s="83" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="F161" s="83"/>
       <c r="G161" s="67" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="42" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B162" s="32" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C162" s="82" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="D162" s="82" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="E162" s="83" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="F162" s="83"/>
       <c r="G162" s="67" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="H162" s="34" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="42" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>737</v>
-      </c>
-      <c r="C163" s="82" t="s">
-        <v>738</v>
-      </c>
-      <c r="D163" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="E163" s="83" t="s">
-        <v>740</v>
-      </c>
-      <c r="F163" s="83"/>
-      <c r="G163" s="67" t="s">
-        <v>741</v>
-      </c>
-      <c r="H163" s="34" t="s">
         <v>742</v>
       </c>
+      <c r="C163" s="97"/>
+      <c r="D163" s="98"/>
+      <c r="E163" s="97"/>
+      <c r="F163" s="97"/>
+      <c r="G163" s="98"/>
+      <c r="H163" s="98"/>
     </row>
     <row r="164">
       <c r="A164" s="42" t="s">
         <v>743</v>
       </c>
       <c r="B164" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C164" s="82" t="s">
+        <v>402</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="E164" s="99" t="s">
         <v>744</v>
       </c>
-      <c r="C164" s="97"/>
-      <c r="D164" s="98"/>
-      <c r="E164" s="97"/>
-      <c r="F164" s="97"/>
-      <c r="G164" s="98"/>
-      <c r="H164" s="98"/>
+      <c r="F164" s="99"/>
+      <c r="G164" s="100" t="s">
+        <v>745</v>
+      </c>
+      <c r="H164" s="100" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="42" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B165" s="32" t="s">
-        <v>401</v>
-      </c>
-      <c r="C165" s="82" t="s">
-        <v>402</v>
-      </c>
-      <c r="D165" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="E165" s="99" t="s">
-        <v>746</v>
-      </c>
-      <c r="F165" s="99"/>
-      <c r="G165" s="100" t="s">
-        <v>747</v>
-      </c>
-      <c r="H165" s="100" t="s">
         <v>748</v>
       </c>
+      <c r="C165" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="D165" s="98"/>
+      <c r="E165" s="101"/>
+      <c r="F165" s="101"/>
+      <c r="G165" s="98"/>
+      <c r="H165" s="98"/>
     </row>
     <row r="166">
       <c r="A166" s="42" t="s">
@@ -15152,155 +15144,163 @@
       <c r="B166" s="32" t="s">
         <v>750</v>
       </c>
-      <c r="C166" s="86" t="s">
+      <c r="C166" s="102" t="s">
         <v>462</v>
       </c>
       <c r="D166" s="98"/>
-      <c r="E166" s="101"/>
-      <c r="F166" s="101"/>
-      <c r="G166" s="98"/>
-      <c r="H166" s="98"/>
+      <c r="E166" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="F166" s="87"/>
+      <c r="G166" s="34" t="s">
+        <v>752</v>
+      </c>
+      <c r="H166" s="34" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="42" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B167" s="32" t="s">
-        <v>752</v>
-      </c>
-      <c r="C167" s="102" t="s">
-        <v>462</v>
-      </c>
-      <c r="D167" s="98"/>
-      <c r="E167" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="F167" s="87"/>
-      <c r="G167" s="34" t="s">
-        <v>754</v>
-      </c>
-      <c r="H167" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C167" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D167" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E167" s="83" t="s">
         <v>755</v>
+      </c>
+      <c r="F167" s="83"/>
+      <c r="G167" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H167" s="103" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="42" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B168" s="32" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C168" s="82" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D168" s="82" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E168" s="83" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F168" s="83"/>
       <c r="G168" s="103" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H168" s="104" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="42" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B169" s="32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C169" s="82" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D169" s="82" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E169" s="83" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F169" s="83"/>
       <c r="G169" s="103" t="s">
         <v>71</v>
       </c>
       <c r="H169" s="104" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="42" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B170" s="32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C170" s="82" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D170" s="82" t="s">
-        <v>76</v>
+        <v>649</v>
       </c>
       <c r="E170" s="83" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F170" s="83"/>
-      <c r="G170" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="H170" s="104" t="s">
-        <v>764</v>
+      <c r="G170" s="105" t="s">
+        <v>765</v>
+      </c>
+      <c r="H170" s="105" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="42" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B171" s="32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C171" s="82" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D171" s="82" t="s">
-        <v>651</v>
+        <v>97</v>
       </c>
       <c r="E171" s="83" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="F171" s="83"/>
-      <c r="G171" s="105" t="s">
-        <v>767</v>
-      </c>
-      <c r="H171" s="105" t="s">
-        <v>768</v>
+      <c r="G171" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="H171" s="106" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="42" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B172" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C172" s="82" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="C172" s="83" t="s">
+        <v>116</v>
       </c>
       <c r="D172" s="82" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E172" s="83" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F172" s="83"/>
-      <c r="G172" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="H172" s="106" t="s">
-        <v>771</v>
+      <c r="G172" s="93" t="s">
+        <v>657</v>
+      </c>
+      <c r="H172" s="93" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="173">
@@ -15308,23 +15308,23 @@
         <v>772</v>
       </c>
       <c r="B173" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C173" s="83" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="C173" s="82" t="s">
+        <v>110</v>
       </c>
       <c r="D173" s="82" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E173" s="83" t="s">
         <v>773</v>
       </c>
       <c r="F173" s="83"/>
       <c r="G173" s="93" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H173" s="93" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="174">
@@ -15332,47 +15332,47 @@
         <v>774</v>
       </c>
       <c r="B174" s="32" t="s">
-        <v>109</v>
+        <v>664</v>
       </c>
       <c r="C174" s="82" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D174" s="82" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E174" s="83" t="s">
         <v>775</v>
       </c>
       <c r="F174" s="83"/>
-      <c r="G174" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H174" s="93" t="s">
-        <v>664</v>
+      <c r="G174" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="H174" s="40" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="42" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B175" s="32" t="s">
-        <v>666</v>
+        <v>122</v>
       </c>
       <c r="C175" s="82" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D175" s="82" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E175" s="83" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F175" s="83"/>
-      <c r="G175" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="H175" s="40" t="s">
-        <v>778</v>
+      <c r="G175" s="93" t="s">
+        <v>661</v>
+      </c>
+      <c r="H175" s="93" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="176">
@@ -15380,165 +15380,165 @@
         <v>779</v>
       </c>
       <c r="B176" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C176" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D176" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="E176" s="83" t="s">
         <v>780</v>
       </c>
-      <c r="F176" s="83"/>
-      <c r="G176" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H176" s="93" t="s">
-        <v>671</v>
+      <c r="C176" s="102" t="s">
+        <v>462</v>
+      </c>
+      <c r="D176" s="107"/>
+      <c r="E176" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="F176" s="87"/>
+      <c r="G176" s="34" t="s">
+        <v>781</v>
+      </c>
+      <c r="H176" s="34" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="42" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B177" s="32" t="s">
-        <v>782</v>
-      </c>
-      <c r="C177" s="102" t="s">
-        <v>462</v>
-      </c>
-      <c r="D177" s="107"/>
-      <c r="E177" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="F177" s="87"/>
-      <c r="G177" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C177" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D177" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" s="83" t="s">
         <v>783</v>
       </c>
-      <c r="H177" s="34" t="s">
-        <v>755</v>
+      <c r="F177" s="83"/>
+      <c r="G177" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H177" s="103" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="42" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B178" s="32" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C178" s="82" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D178" s="82" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E178" s="83" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F178" s="83"/>
       <c r="G178" s="103" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H178" s="104" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="42" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B179" s="32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C179" s="82" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D179" s="82" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E179" s="83" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F179" s="83"/>
       <c r="G179" s="103" t="s">
         <v>71</v>
       </c>
       <c r="H179" s="104" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="42" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B180" s="32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C180" s="82" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D180" s="82" t="s">
-        <v>76</v>
+        <v>649</v>
       </c>
       <c r="E180" s="83" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F180" s="83"/>
-      <c r="G180" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="H180" s="104" t="s">
-        <v>792</v>
+      <c r="G180" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H180" s="105" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="42" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B181" s="32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C181" s="82" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D181" s="82" t="s">
-        <v>651</v>
+        <v>97</v>
       </c>
       <c r="E181" s="83" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F181" s="83"/>
-      <c r="G181" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="H181" s="105" t="s">
-        <v>795</v>
+      <c r="G181" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="H181" s="103" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="42" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B182" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C182" s="82" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="C182" s="83" t="s">
+        <v>116</v>
       </c>
       <c r="D182" s="82" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E182" s="83" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F182" s="83"/>
-      <c r="G182" s="103" t="s">
-        <v>85</v>
-      </c>
-      <c r="H182" s="103" t="s">
-        <v>798</v>
+      <c r="G182" s="93" t="s">
+        <v>657</v>
+      </c>
+      <c r="H182" s="93" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="183">
@@ -15546,23 +15546,23 @@
         <v>799</v>
       </c>
       <c r="B183" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C183" s="83" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="C183" s="82" t="s">
+        <v>110</v>
       </c>
       <c r="D183" s="82" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E183" s="83" t="s">
         <v>800</v>
       </c>
       <c r="F183" s="83"/>
       <c r="G183" s="93" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H183" s="93" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="184">
@@ -15570,47 +15570,47 @@
         <v>801</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>109</v>
+        <v>664</v>
       </c>
       <c r="C184" s="82" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D184" s="82" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E184" s="83" t="s">
         <v>802</v>
       </c>
       <c r="F184" s="83"/>
-      <c r="G184" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H184" s="93" t="s">
-        <v>664</v>
+      <c r="G184" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="H184" s="40" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="42" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B185" s="32" t="s">
-        <v>666</v>
+        <v>122</v>
       </c>
       <c r="C185" s="82" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D185" s="82" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E185" s="83" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F185" s="83"/>
-      <c r="G185" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="H185" s="40" t="s">
-        <v>805</v>
+      <c r="G185" s="93" t="s">
+        <v>661</v>
+      </c>
+      <c r="H185" s="93" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="186">
@@ -15618,187 +15618,187 @@
         <v>806</v>
       </c>
       <c r="B186" s="32" t="s">
-        <v>122</v>
+        <v>807</v>
       </c>
       <c r="C186" s="82" t="s">
-        <v>123</v>
+        <v>808</v>
       </c>
       <c r="D186" s="82" t="s">
-        <v>124</v>
+        <v>809</v>
       </c>
       <c r="E186" s="83" t="s">
-        <v>807</v>
-      </c>
-      <c r="F186" s="83"/>
-      <c r="G186" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H186" s="93" t="s">
-        <v>671</v>
+        <v>810</v>
+      </c>
+      <c r="F186" s="92"/>
+      <c r="G186" s="100" t="s">
+        <v>811</v>
+      </c>
+      <c r="H186" s="100" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="42" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B187" s="32" t="s">
-        <v>809</v>
-      </c>
-      <c r="C187" s="82" t="s">
-        <v>810</v>
-      </c>
-      <c r="D187" s="82" t="s">
-        <v>811</v>
-      </c>
-      <c r="E187" s="83" t="s">
-        <v>812</v>
-      </c>
-      <c r="F187" s="92"/>
-      <c r="G187" s="100" t="s">
-        <v>813</v>
-      </c>
-      <c r="H187" s="100" t="s">
         <v>814</v>
+      </c>
+      <c r="C187" s="97"/>
+      <c r="D187" s="97"/>
+      <c r="E187" s="22" t="s">
+        <v>751</v>
+      </c>
+      <c r="F187" s="87"/>
+      <c r="G187" s="34" t="s">
+        <v>815</v>
+      </c>
+      <c r="H187" s="34" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="42" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B188" s="32" t="s">
-        <v>816</v>
-      </c>
-      <c r="C188" s="97"/>
-      <c r="D188" s="97"/>
-      <c r="E188" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="F188" s="87"/>
-      <c r="G188" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C188" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D188" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="E188" s="83" t="s">
         <v>817</v>
       </c>
-      <c r="H188" s="34" t="s">
-        <v>755</v>
+      <c r="F188" s="83"/>
+      <c r="G188" s="103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H188" s="103" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="42" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B189" s="32" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C189" s="82" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D189" s="82" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E189" s="83" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="F189" s="83"/>
       <c r="G189" s="103" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H189" s="104" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="42" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B190" s="32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C190" s="82" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D190" s="82" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E190" s="83" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="F190" s="83"/>
       <c r="G190" s="103" t="s">
         <v>71</v>
       </c>
       <c r="H190" s="104" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="42" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B191" s="32" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C191" s="82" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D191" s="82" t="s">
-        <v>76</v>
+        <v>649</v>
       </c>
       <c r="E191" s="83" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F191" s="83"/>
-      <c r="G191" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="H191" s="104" t="s">
-        <v>826</v>
+      <c r="G191" s="105" t="s">
+        <v>92</v>
+      </c>
+      <c r="H191" s="105" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="42" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B192" s="32" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C192" s="82" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D192" s="82" t="s">
-        <v>651</v>
+        <v>97</v>
       </c>
       <c r="E192" s="83" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="F192" s="83"/>
-      <c r="G192" s="105" t="s">
-        <v>92</v>
-      </c>
-      <c r="H192" s="105" t="s">
-        <v>829</v>
+      <c r="G192" s="106" t="s">
+        <v>85</v>
+      </c>
+      <c r="H192" s="106" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="42" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B193" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C193" s="82" t="s">
-        <v>96</v>
+        <v>115</v>
+      </c>
+      <c r="C193" s="83" t="s">
+        <v>116</v>
       </c>
       <c r="D193" s="82" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E193" s="83" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F193" s="83"/>
-      <c r="G193" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="H193" s="106" t="s">
-        <v>832</v>
+      <c r="G193" s="93" t="s">
+        <v>657</v>
+      </c>
+      <c r="H193" s="93" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="194">
@@ -15806,23 +15806,23 @@
         <v>833</v>
       </c>
       <c r="B194" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C194" s="83" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="C194" s="82" t="s">
+        <v>110</v>
       </c>
       <c r="D194" s="82" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E194" s="83" t="s">
         <v>834</v>
       </c>
       <c r="F194" s="83"/>
       <c r="G194" s="93" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H194" s="93" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="195">
@@ -15830,47 +15830,47 @@
         <v>835</v>
       </c>
       <c r="B195" s="32" t="s">
-        <v>109</v>
+        <v>664</v>
       </c>
       <c r="C195" s="82" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="D195" s="82" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="E195" s="83" t="s">
         <v>836</v>
       </c>
       <c r="F195" s="83"/>
-      <c r="G195" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H195" s="93" t="s">
-        <v>664</v>
+      <c r="G195" s="40" t="s">
+        <v>657</v>
+      </c>
+      <c r="H195" s="40" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="42" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B196" s="32" t="s">
-        <v>666</v>
+        <v>122</v>
       </c>
       <c r="C196" s="82" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D196" s="82" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E196" s="83" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F196" s="83"/>
-      <c r="G196" s="40" t="s">
-        <v>659</v>
-      </c>
-      <c r="H196" s="40" t="s">
-        <v>839</v>
+      <c r="G196" s="93" t="s">
+        <v>661</v>
+      </c>
+      <c r="H196" s="93" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="197">
@@ -15878,48 +15878,34 @@
         <v>840</v>
       </c>
       <c r="B197" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C197" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="D197" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="E197" s="83" t="s">
         <v>841</v>
       </c>
-      <c r="F197" s="83"/>
-      <c r="G197" s="93" t="s">
-        <v>663</v>
-      </c>
-      <c r="H197" s="93" t="s">
-        <v>671</v>
+      <c r="C197" s="108" t="s">
+        <v>842</v>
+      </c>
+      <c r="D197" s="108" t="s">
+        <v>843</v>
+      </c>
+      <c r="E197" s="109" t="s">
+        <v>844</v>
+      </c>
+      <c r="F197" s="109"/>
+      <c r="G197" s="110" t="s">
+        <v>845</v>
+      </c>
+      <c r="H197" s="110" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="42" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="B198" s="32" t="s">
-        <v>843</v>
-      </c>
-      <c r="C198" s="108" t="s">
-        <v>844</v>
-      </c>
-      <c r="D198" s="108" t="s">
-        <v>845</v>
-      </c>
-      <c r="E198" s="109" t="s">
-        <v>846</v>
-      </c>
-      <c r="F198" s="109"/>
-      <c r="G198" s="110" t="s">
-        <v>847</v>
-      </c>
-      <c r="H198" s="110" t="s">
         <v>848</v>
       </c>
+      <c r="G198" s="28"/>
+      <c r="H198" s="28"/>
     </row>
     <row r="199">
       <c r="A199" s="42" t="s">
@@ -15928,119 +15914,123 @@
       <c r="B199" s="32" t="s">
         <v>850</v>
       </c>
+      <c r="C199" s="111" t="s">
+        <v>462</v>
+      </c>
+      <c r="D199" s="87"/>
+      <c r="E199" s="83" t="s">
+        <v>851</v>
+      </c>
       <c r="G199" s="28"/>
       <c r="H199" s="28"/>
     </row>
     <row r="200">
       <c r="A200" s="42" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B200" s="32" t="s">
-        <v>852</v>
-      </c>
-      <c r="C200" s="111" t="s">
-        <v>462</v>
-      </c>
-      <c r="D200" s="87"/>
-      <c r="E200" s="83" t="s">
         <v>853</v>
       </c>
-      <c r="G200" s="28"/>
-      <c r="H200" s="28"/>
+      <c r="C200" s="86" t="s">
+        <v>854</v>
+      </c>
+      <c r="D200" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E200" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="G200" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="H200" s="88" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="42" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B201" s="32" t="s">
-        <v>855</v>
-      </c>
-      <c r="C201" s="86" t="s">
-        <v>856</v>
-      </c>
-      <c r="D201" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E201" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="G201" s="32" t="s">
-        <v>858</v>
-      </c>
-      <c r="H201" s="88" t="s">
+        <v>415</v>
+      </c>
+      <c r="C201" s="112" t="s">
         <v>859</v>
+      </c>
+      <c r="D201" s="112" t="s">
+        <v>860</v>
+      </c>
+      <c r="E201" s="113" t="s">
+        <v>861</v>
+      </c>
+      <c r="F201" s="61"/>
+      <c r="G201" s="114" t="s">
+        <v>862</v>
+      </c>
+      <c r="H201" s="55" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="42" t="s">
+        <v>864</v>
+      </c>
+      <c r="B202" s="32" t="s">
+        <v>865</v>
+      </c>
+      <c r="C202" s="112" t="s">
+        <v>859</v>
+      </c>
+      <c r="D202" s="112" t="s">
         <v>860</v>
       </c>
-      <c r="B202" s="32" t="s">
-        <v>415</v>
-      </c>
-      <c r="C202" s="112" t="s">
-        <v>861</v>
-      </c>
-      <c r="D202" s="112" t="s">
-        <v>862</v>
-      </c>
       <c r="E202" s="113" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="F202" s="61"/>
       <c r="G202" s="114" t="s">
-        <v>864</v>
-      </c>
-      <c r="H202" s="55" t="s">
-        <v>865</v>
+        <v>862</v>
+      </c>
+      <c r="H202" s="115" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="42" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>867</v>
-      </c>
-      <c r="C203" s="112" t="s">
-        <v>861</v>
-      </c>
-      <c r="D203" s="112" t="s">
-        <v>862</v>
-      </c>
-      <c r="E203" s="113" t="s">
-        <v>868</v>
-      </c>
-      <c r="F203" s="61"/>
-      <c r="G203" s="114" t="s">
-        <v>864</v>
-      </c>
-      <c r="H203" s="115" t="s">
         <v>869</v>
+      </c>
+      <c r="C203" s="86" t="s">
+        <v>854</v>
+      </c>
+      <c r="D203" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E203" s="83" t="s">
+        <v>870</v>
+      </c>
+      <c r="G203" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="H203" s="88" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="42" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C204" s="86" t="s">
-        <v>856</v>
-      </c>
-      <c r="D204" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E204" s="83" t="s">
-        <v>872</v>
-      </c>
-      <c r="G204" s="32" t="s">
-        <v>858</v>
-      </c>
-      <c r="H204" s="88" t="s">
-        <v>873</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="D204" s="82"/>
+      <c r="E204" s="82"/>
+      <c r="H204" s="28"/>
     </row>
     <row r="205">
       <c r="A205" s="42" t="s">
@@ -16049,256 +16039,256 @@
       <c r="B205" s="32" t="s">
         <v>875</v>
       </c>
-      <c r="C205" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D205" s="82"/>
-      <c r="E205" s="82"/>
-      <c r="H205" s="28"/>
+      <c r="C205" s="82" t="s">
+        <v>854</v>
+      </c>
+      <c r="D205" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E205" s="83" t="s">
+        <v>876</v>
+      </c>
+      <c r="G205" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="H205" s="88" t="s">
+        <v>877</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="42" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B206" s="32" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="C206" s="82" t="s">
+        <v>854</v>
+      </c>
+      <c r="D206" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E206" s="83" t="s">
+        <v>880</v>
+      </c>
+      <c r="G206" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D206" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E206" s="83" t="s">
-        <v>878</v>
-      </c>
-      <c r="G206" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H206" s="88" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="42" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B207" s="32" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C207" s="82" t="s">
+        <v>854</v>
+      </c>
+      <c r="D207" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E207" s="83" t="s">
+        <v>884</v>
+      </c>
+      <c r="G207" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D207" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E207" s="83" t="s">
-        <v>882</v>
-      </c>
-      <c r="G207" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H207" s="88" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="42" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>885</v>
-      </c>
-      <c r="C208" s="82" t="s">
+        <v>887</v>
+      </c>
+      <c r="C208" s="86" t="s">
+        <v>854</v>
+      </c>
+      <c r="D208" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E208" s="83" t="s">
+        <v>888</v>
+      </c>
+      <c r="G208" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D208" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E208" s="83" t="s">
-        <v>886</v>
-      </c>
-      <c r="G208" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H208" s="88" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="42" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B209" s="32" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="C209" s="86" t="s">
+        <v>854</v>
+      </c>
+      <c r="D209" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E209" s="83" t="s">
+        <v>892</v>
+      </c>
+      <c r="G209" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D209" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E209" s="83" t="s">
-        <v>890</v>
-      </c>
-      <c r="G209" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H209" s="88" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="42" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B210" s="32" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="C210" s="86" t="s">
+        <v>854</v>
+      </c>
+      <c r="D210" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E210" s="83" t="s">
+        <v>896</v>
+      </c>
+      <c r="G210" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D210" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E210" s="83" t="s">
-        <v>894</v>
-      </c>
-      <c r="G210" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H210" s="88" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="42" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B211" s="32" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C211" s="86" t="s">
+        <v>854</v>
+      </c>
+      <c r="D211" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E211" s="83" t="s">
+        <v>900</v>
+      </c>
+      <c r="G211" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D211" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E211" s="83" t="s">
-        <v>898</v>
-      </c>
-      <c r="G211" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H211" s="88" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="42" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B212" s="32" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C212" s="86" t="s">
+        <v>854</v>
+      </c>
+      <c r="D212" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E212" s="83" t="s">
+        <v>904</v>
+      </c>
+      <c r="G212" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D212" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E212" s="83" t="s">
-        <v>902</v>
-      </c>
-      <c r="G212" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H212" s="88" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="42" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B213" s="32" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C213" s="86" t="s">
-        <v>856</v>
-      </c>
-      <c r="D213" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E213" s="83" t="s">
-        <v>906</v>
-      </c>
-      <c r="G213" s="32" t="s">
-        <v>858</v>
-      </c>
-      <c r="H213" s="88" t="s">
-        <v>907</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="D213" s="82"/>
+      <c r="E213" s="82"/>
+      <c r="H213" s="28"/>
     </row>
     <row r="214">
       <c r="A214" s="42" t="s">
         <v>908</v>
       </c>
-      <c r="B214" s="32" t="s">
+      <c r="B214" s="51" t="s">
         <v>909</v>
       </c>
-      <c r="C214" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D214" s="82"/>
-      <c r="E214" s="82"/>
-      <c r="H214" s="28"/>
+      <c r="C214" s="82" t="s">
+        <v>854</v>
+      </c>
+      <c r="D214" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E214" s="83" t="s">
+        <v>910</v>
+      </c>
+      <c r="G214" s="32" t="s">
+        <v>856</v>
+      </c>
+      <c r="H214" s="88" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="42" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B215" s="51" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="C215" s="82" t="s">
+        <v>854</v>
+      </c>
+      <c r="D215" s="82" t="s">
+        <v>855</v>
+      </c>
+      <c r="E215" s="83" t="s">
+        <v>914</v>
+      </c>
+      <c r="G215" s="32" t="s">
         <v>856</v>
       </c>
-      <c r="D215" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E215" s="83" t="s">
-        <v>912</v>
-      </c>
-      <c r="G215" s="32" t="s">
-        <v>858</v>
-      </c>
       <c r="H215" s="88" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="42" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B216" s="51" t="s">
-        <v>915</v>
-      </c>
-      <c r="C216" s="82" t="s">
-        <v>856</v>
-      </c>
-      <c r="D216" s="82" t="s">
-        <v>857</v>
-      </c>
-      <c r="E216" s="83" t="s">
-        <v>916</v>
-      </c>
-      <c r="G216" s="32" t="s">
-        <v>858</v>
-      </c>
-      <c r="H216" s="88" t="s">
         <v>917</v>
       </c>
+      <c r="C216" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="D216" s="87"/>
+      <c r="E216" s="82"/>
+      <c r="H216" s="28"/>
     </row>
     <row r="217">
       <c r="A217" s="42" t="s">
@@ -16307,33 +16297,33 @@
       <c r="B217" s="51" t="s">
         <v>919</v>
       </c>
-      <c r="C217" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D217" s="87"/>
-      <c r="E217" s="82"/>
-      <c r="H217" s="28"/>
+      <c r="C217" s="116" t="s">
+        <v>580</v>
+      </c>
+      <c r="D217" s="82"/>
+      <c r="E217" s="83" t="s">
+        <v>920</v>
+      </c>
+      <c r="G217" s="34" t="s">
+        <v>856</v>
+      </c>
+      <c r="H217" s="73" t="s">
+        <v>921</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="42" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B218" s="51" t="s">
-        <v>921</v>
-      </c>
-      <c r="C218" s="116" t="s">
-        <v>582</v>
-      </c>
-      <c r="D218" s="82"/>
-      <c r="E218" s="83" t="s">
-        <v>922</v>
-      </c>
-      <c r="G218" s="34" t="s">
-        <v>858</v>
-      </c>
-      <c r="H218" s="73" t="s">
         <v>923</v>
       </c>
+      <c r="C218" s="86" t="s">
+        <v>462</v>
+      </c>
+      <c r="D218" s="87"/>
+      <c r="E218" s="82"/>
+      <c r="H218" s="28"/>
     </row>
     <row r="219">
       <c r="A219" s="42" t="s">
@@ -16343,34 +16333,25 @@
         <v>925</v>
       </c>
       <c r="C219" s="86" t="s">
-        <v>462</v>
-      </c>
-      <c r="D219" s="87"/>
-      <c r="E219" s="82"/>
-      <c r="H219" s="28"/>
+        <v>926</v>
+      </c>
+      <c r="D219" s="82" t="s">
+        <v>927</v>
+      </c>
+      <c r="E219" s="109" t="s">
+        <v>928</v>
+      </c>
+      <c r="G219" s="32" t="s">
+        <v>929</v>
+      </c>
+      <c r="H219" s="66" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="42" t="s">
-        <v>926</v>
-      </c>
-      <c r="B220" s="51" t="s">
-        <v>927</v>
-      </c>
-      <c r="C220" s="86" t="s">
-        <v>928</v>
-      </c>
-      <c r="D220" s="82" t="s">
-        <v>929</v>
-      </c>
-      <c r="E220" s="109" t="s">
-        <v>930</v>
-      </c>
-      <c r="G220" s="32" t="s">
-        <v>931</v>
-      </c>
-      <c r="H220" s="66" t="s">
-        <v>932</v>
-      </c>
+      <c r="A220" s="117"/>
+      <c r="G220" s="28"/>
+      <c r="H220" s="28"/>
     </row>
     <row r="221">
       <c r="A221" s="117"/>
@@ -20421,38 +20402,33 @@
       <c r="A1030" s="117"/>
       <c r="G1030" s="28"/>
       <c r="H1030" s="28"/>
-    </row>
-    <row r="1031">
-      <c r="A1031" s="117"/>
-      <c r="G1031" s="28"/>
-      <c r="H1031" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:B220">
+  <conditionalFormatting sqref="A3:B219">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>REGEXMATCH($A3,"^[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B220">
+  <conditionalFormatting sqref="A3:B219">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B220">
+  <conditionalFormatting sqref="A3:B219">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B220">
+  <conditionalFormatting sqref="A3:B219">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:B220">
+  <conditionalFormatting sqref="A3:B219">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>REGEXMATCH($A3,"^[^.]+\.[^.]+\.[^.]+\.[^.]+\.[^.]+$")</formula>
     </cfRule>
@@ -20465,23 +20441,23 @@
     <hyperlink r:id="rId6" ref="H91"/>
     <hyperlink r:id="rId7" ref="H98"/>
     <hyperlink r:id="rId8" ref="H99"/>
-    <hyperlink r:id="rId9" ref="H123"/>
-    <hyperlink r:id="rId10" ref="H124"/>
-    <hyperlink r:id="rId11" ref="H149"/>
-    <hyperlink r:id="rId12" ref="H201"/>
-    <hyperlink r:id="rId13" ref="H203"/>
-    <hyperlink r:id="rId14" ref="H204"/>
-    <hyperlink r:id="rId15" ref="H206"/>
-    <hyperlink r:id="rId16" ref="H207"/>
-    <hyperlink r:id="rId17" ref="H208"/>
-    <hyperlink r:id="rId18" ref="H209"/>
-    <hyperlink r:id="rId19" ref="H210"/>
-    <hyperlink r:id="rId20" ref="H211"/>
-    <hyperlink r:id="rId21" ref="H212"/>
-    <hyperlink r:id="rId22" ref="H213"/>
-    <hyperlink r:id="rId23" ref="H215"/>
-    <hyperlink r:id="rId24" ref="H216"/>
-    <hyperlink r:id="rId25" ref="H218"/>
+    <hyperlink r:id="rId9" ref="H122"/>
+    <hyperlink r:id="rId10" ref="H123"/>
+    <hyperlink r:id="rId11" ref="H148"/>
+    <hyperlink r:id="rId12" ref="H200"/>
+    <hyperlink r:id="rId13" ref="H202"/>
+    <hyperlink r:id="rId14" ref="H203"/>
+    <hyperlink r:id="rId15" ref="H205"/>
+    <hyperlink r:id="rId16" ref="H206"/>
+    <hyperlink r:id="rId17" ref="H207"/>
+    <hyperlink r:id="rId18" ref="H208"/>
+    <hyperlink r:id="rId19" ref="H209"/>
+    <hyperlink r:id="rId20" ref="H210"/>
+    <hyperlink r:id="rId21" ref="H211"/>
+    <hyperlink r:id="rId22" ref="H212"/>
+    <hyperlink r:id="rId23" ref="H214"/>
+    <hyperlink r:id="rId24" ref="H215"/>
+    <hyperlink r:id="rId25" ref="H217"/>
   </hyperlinks>
   <drawing r:id="rId26"/>
   <legacyDrawing r:id="rId27"/>
@@ -20504,36 +20480,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="118" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="119" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="120" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="121" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8">
@@ -20544,41 +20520,41 @@
     </row>
     <row r="10">
       <c r="A10" s="121" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="121" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="122" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31"/>
       <c r="B13" s="123" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="124" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="125" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="126" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17">
@@ -20587,24 +20563,24 @@
     </row>
     <row r="18">
       <c r="A18" s="121" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B19" s="127"/>
     </row>
     <row r="21">
       <c r="A21" s="121" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -20630,57 +20606,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="121" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="69" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="69" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -20706,53 +20682,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B1" s="128" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="129" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -20794,71 +20770,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="130" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="121" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="32" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -20885,31 +20861,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="130" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="121" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -3944,7 +3944,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasEEAReceivedTenders ?</t>
+      <t xml:space="preserve"> epo:hasEUReceivedTenders  ?</t>
     </r>
     <r>
       <rPr>
@@ -3985,7 +3985,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>epo:hasReceivedNonEEATenders ?</t>
+      <t>epo:hasReceivedNonEUTenders ?</t>
     </r>
     <r>
       <rPr>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="995">
   <si>
     <t>Field</t>
   </si>
@@ -478,7 +478,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -532,7 +532,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -592,7 +592,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -649,7 +649,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -706,7 +706,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -851,7 +851,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/E_MAIL</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / cpov:ContactPoint / epo:URI</t>
+    <t>epo:AgentInRole (from CL1) / cpov:ContactPoint / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -1022,7 +1022,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / epo:URI</t>
+    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -1189,7 +1189,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -1231,7 +1231,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -1273,7 +1273,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1315,7 +1315,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1357,7 +1357,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1754,7 +1754,7 @@
     <t>epo:AwardingCentralPurchasingBody / epo:OrganisationGroup</t>
   </si>
   <si>
-    <t>?this rdf:type epo:AwardingCentralPurchasingBody / epo:playedBy ?value</t>
+    <t>?this epo:playedBy ?value</t>
   </si>
   <si>
     <r>
@@ -1868,7 +1868,7 @@
     <t>CONTRACTING_BODY/CA_ACTIVITY</t>
   </si>
   <si>
-    <t>org:Organisation / at-voc:main-activity (from main_activity.csv)</t>
+    <t>org:Organization / at-voc:main-activity (from main_activity.csv)</t>
   </si>
   <si>
     <r>
@@ -2182,7 +2182,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>BT-27</t>
+    <t>BT-161</t>
   </si>
   <si>
     <t>Estimated Value</t>
@@ -2191,7 +2191,7 @@
     <t>OBJECT_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / epo:Numeric</t>
+    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
@@ -2309,7 +2309,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> } UNION { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } UNION </t>
+      <t xml:space="preserve"> } UNION { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementLowestReceivedTenderValue / epo:hasCurrency ?value } UNION  { ?this epo:announcesNoticeAwardInformation / epo:hasProcurementHighestReceivedTenderValue / epo:hasCurrency ?value } </t>
     </r>
   </si>
   <si>
@@ -4143,7 +4143,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4188,7 +4188,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4236,7 +4236,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4284,7 +4284,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4329,7 +4329,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4354,7 +4354,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / epo:URI</t>
+    <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasPrimaryContactPoint / cpov:email ?value .</t>
@@ -4460,10 +4460,13 @@
     <t>Initial estimated total value of the contract/lot</t>
   </si>
   <si>
+    <t>BT-27</t>
+  </si>
+  <si>
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL</t>
   </si>
   <si>
-    <t>epo:Lot / epo:MonetaryValue / epo:Numeric</t>
+    <t>epo:Lot / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -4520,7 +4523,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL</t>
   </si>
   <si>
-    <t>epo:Tender / epo:MonetaryValue / epo:Numeric</t>
+    <t>epo:Tender / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -4561,7 +4564,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/LOW</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue / epo:Numeric</t>
+    <t>epo:SubmissionStatisticalInformation / MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -4744,7 +4747,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_SUBCONTRACTING</t>
   </si>
   <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / epo:MonetaryValue / epo:Numeric</t>
+    <t>epo:Tender / epo:SubcontractingEstimate / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -5071,7 +5074,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5121,7 +5124,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5174,7 +5177,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5224,7 +5227,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5381,7 +5384,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5431,7 +5434,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5481,7 +5484,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5531,7 +5534,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5709,7 +5712,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5759,7 +5762,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5809,7 +5812,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5859,7 +5862,7 @@
         <color theme="1"/>
         <sz val="10.0"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / epo:hasRegisteredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6925,7 +6928,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7215,9 +7218,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -14809,49 +14809,49 @@
         <v>680</v>
       </c>
       <c r="C150" s="82" t="s">
-        <v>265</v>
+        <v>681</v>
       </c>
       <c r="D150" s="82" t="s">
         <v>266</v>
       </c>
       <c r="E150" s="83" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F150" s="83"/>
       <c r="G150" s="34" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H150" s="34" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="42" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B151" s="32" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C151" s="82" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D151" s="82" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E151" s="83" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F151" s="83"/>
       <c r="G151" s="34" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H151" s="34" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="42" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B152" s="32" t="s">
         <v>271</v>
@@ -14863,41 +14863,41 @@
         <v>273</v>
       </c>
       <c r="E152" s="83" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F152" s="83"/>
       <c r="G152" s="34" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H152" s="34" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="42" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B153" s="32" t="s">
         <v>283</v>
       </c>
       <c r="C153" s="95" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D153" s="82"/>
       <c r="E153" s="83" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F153" s="83"/>
       <c r="G153" s="34" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H153" s="34" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="42" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B154" s="32" t="s">
         <v>277</v>
@@ -14909,44 +14909,44 @@
         <v>279</v>
       </c>
       <c r="E154" s="83" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F154" s="83"/>
       <c r="G154" s="34" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H154" s="34" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="42" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B155" s="32" t="s">
         <v>283</v>
       </c>
       <c r="C155" s="95" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D155" s="82"/>
       <c r="E155" s="83" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F155" s="83"/>
       <c r="G155" s="34" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H155" s="34" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="42" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B156" s="32" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C156" s="86" t="s">
         <v>462</v>
@@ -14959,136 +14959,136 @@
     </row>
     <row r="157">
       <c r="A157" s="42" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B157" s="32" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C157" s="82" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D157" s="82" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E157" s="83" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F157" s="83"/>
       <c r="G157" s="67" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H157" s="96" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="42" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B158" s="32" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="42" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B159" s="32" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C159" s="83" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D159" s="83" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E159" s="83" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="F159" s="83"/>
       <c r="G159" s="34" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="H159" s="34" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="42" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B160" s="32" t="s">
         <v>283</v>
       </c>
       <c r="C160" s="95" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D160" s="82"/>
       <c r="E160" s="83" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F160" s="83"/>
       <c r="G160" s="67" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H160" s="34" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="42" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B161" s="32" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C161" s="82" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D161" s="82" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E161" s="83" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F161" s="83"/>
       <c r="G161" s="67" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H161" s="34" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="42" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B162" s="32" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C162" s="82" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D162" s="82" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E162" s="83" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F162" s="83"/>
       <c r="G162" s="67" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H162" s="34" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="42" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B163" s="32" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C163" s="97"/>
       <c r="D163" s="98"/>
@@ -15099,7 +15099,7 @@
     </row>
     <row r="164">
       <c r="A164" s="42" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B164" s="32" t="s">
         <v>401</v>
@@ -15111,22 +15111,22 @@
         <v>403</v>
       </c>
       <c r="E164" s="99" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F164" s="99"/>
       <c r="G164" s="100" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="H164" s="100" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="42" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B165" s="32" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C165" s="86" t="s">
         <v>462</v>
@@ -15139,29 +15139,29 @@
     </row>
     <row r="166">
       <c r="A166" s="42" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B166" s="32" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C166" s="102" t="s">
         <v>462</v>
       </c>
       <c r="D166" s="98"/>
       <c r="E166" s="22" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F166" s="87"/>
       <c r="G166" s="34" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H166" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="42" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B167" s="32" t="s">
         <v>53</v>
@@ -15173,19 +15173,19 @@
         <v>55</v>
       </c>
       <c r="E167" s="83" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F167" s="83"/>
       <c r="G167" s="103" t="s">
         <v>57</v>
       </c>
       <c r="H167" s="103" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="42" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B168" s="32" t="s">
         <v>67</v>
@@ -15197,19 +15197,19 @@
         <v>69</v>
       </c>
       <c r="E168" s="83" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F168" s="83"/>
       <c r="G168" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H168" s="104" t="s">
-        <v>759</v>
+      <c r="H168" s="103" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="42" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B169" s="32" t="s">
         <v>74</v>
@@ -15221,19 +15221,19 @@
         <v>76</v>
       </c>
       <c r="E169" s="83" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F169" s="83"/>
       <c r="G169" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H169" s="104" t="s">
-        <v>762</v>
+      <c r="H169" s="103" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="42" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B170" s="32" t="s">
         <v>88</v>
@@ -15245,19 +15245,19 @@
         <v>649</v>
       </c>
       <c r="E170" s="83" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F170" s="83"/>
-      <c r="G170" s="105" t="s">
-        <v>765</v>
-      </c>
-      <c r="H170" s="105" t="s">
+      <c r="G170" s="104" t="s">
         <v>766</v>
+      </c>
+      <c r="H170" s="104" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="42" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B171" s="32" t="s">
         <v>95</v>
@@ -15269,19 +15269,19 @@
         <v>97</v>
       </c>
       <c r="E171" s="83" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F171" s="83"/>
-      <c r="G171" s="106" t="s">
+      <c r="G171" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="H171" s="106" t="s">
-        <v>769</v>
+      <c r="H171" s="105" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="42" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B172" s="32" t="s">
         <v>115</v>
@@ -15293,7 +15293,7 @@
         <v>117</v>
       </c>
       <c r="E172" s="83" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F172" s="83"/>
       <c r="G172" s="93" t="s">
@@ -15305,7 +15305,7 @@
     </row>
     <row r="173">
       <c r="A173" s="42" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>109</v>
@@ -15317,7 +15317,7 @@
         <v>111</v>
       </c>
       <c r="E173" s="83" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F173" s="83"/>
       <c r="G173" s="93" t="s">
@@ -15329,7 +15329,7 @@
     </row>
     <row r="174">
       <c r="A174" s="42" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B174" s="32" t="s">
         <v>664</v>
@@ -15341,19 +15341,19 @@
         <v>132</v>
       </c>
       <c r="E174" s="83" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F174" s="83"/>
       <c r="G174" s="40" t="s">
         <v>657</v>
       </c>
       <c r="H174" s="40" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="42" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B175" s="32" t="s">
         <v>122</v>
@@ -15365,7 +15365,7 @@
         <v>124</v>
       </c>
       <c r="E175" s="83" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F175" s="83"/>
       <c r="G175" s="93" t="s">
@@ -15377,29 +15377,29 @@
     </row>
     <row r="176">
       <c r="A176" s="42" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B176" s="32" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C176" s="102" t="s">
         <v>462</v>
       </c>
-      <c r="D176" s="107"/>
+      <c r="D176" s="106"/>
       <c r="E176" s="22" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F176" s="87"/>
       <c r="G176" s="34" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H176" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="42" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B177" s="32" t="s">
         <v>53</v>
@@ -15411,19 +15411,19 @@
         <v>55</v>
       </c>
       <c r="E177" s="83" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F177" s="83"/>
       <c r="G177" s="103" t="s">
         <v>57</v>
       </c>
       <c r="H177" s="103" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="42" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B178" s="32" t="s">
         <v>67</v>
@@ -15435,19 +15435,19 @@
         <v>69</v>
       </c>
       <c r="E178" s="83" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F178" s="83"/>
       <c r="G178" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H178" s="104" t="s">
-        <v>787</v>
+      <c r="H178" s="103" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="42" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B179" s="32" t="s">
         <v>74</v>
@@ -15459,19 +15459,19 @@
         <v>76</v>
       </c>
       <c r="E179" s="83" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F179" s="83"/>
       <c r="G179" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H179" s="104" t="s">
-        <v>790</v>
+      <c r="H179" s="103" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="42" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B180" s="32" t="s">
         <v>88</v>
@@ -15483,19 +15483,19 @@
         <v>649</v>
       </c>
       <c r="E180" s="83" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F180" s="83"/>
-      <c r="G180" s="105" t="s">
+      <c r="G180" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="H180" s="105" t="s">
-        <v>793</v>
+      <c r="H180" s="104" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="42" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B181" s="32" t="s">
         <v>95</v>
@@ -15507,19 +15507,19 @@
         <v>97</v>
       </c>
       <c r="E181" s="83" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F181" s="83"/>
       <c r="G181" s="103" t="s">
         <v>85</v>
       </c>
       <c r="H181" s="103" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="42" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B182" s="32" t="s">
         <v>115</v>
@@ -15531,7 +15531,7 @@
         <v>117</v>
       </c>
       <c r="E182" s="83" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F182" s="83"/>
       <c r="G182" s="93" t="s">
@@ -15543,7 +15543,7 @@
     </row>
     <row r="183">
       <c r="A183" s="42" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B183" s="32" t="s">
         <v>109</v>
@@ -15555,7 +15555,7 @@
         <v>111</v>
       </c>
       <c r="E183" s="83" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F183" s="83"/>
       <c r="G183" s="93" t="s">
@@ -15567,7 +15567,7 @@
     </row>
     <row r="184">
       <c r="A184" s="42" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B184" s="32" t="s">
         <v>664</v>
@@ -15579,19 +15579,19 @@
         <v>132</v>
       </c>
       <c r="E184" s="83" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F184" s="83"/>
       <c r="G184" s="40" t="s">
         <v>657</v>
       </c>
       <c r="H184" s="40" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="42" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B185" s="32" t="s">
         <v>122</v>
@@ -15603,7 +15603,7 @@
         <v>124</v>
       </c>
       <c r="E185" s="83" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F185" s="83"/>
       <c r="G185" s="93" t="s">
@@ -15615,51 +15615,51 @@
     </row>
     <row r="186">
       <c r="A186" s="42" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B186" s="32" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C186" s="82" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D186" s="82" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E186" s="83" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F186" s="92"/>
       <c r="G186" s="100" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="H186" s="100" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="42" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B187" s="32" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C187" s="97"/>
       <c r="D187" s="97"/>
       <c r="E187" s="22" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F187" s="87"/>
       <c r="G187" s="34" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="H187" s="34" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="42" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B188" s="32" t="s">
         <v>53</v>
@@ -15671,19 +15671,19 @@
         <v>55</v>
       </c>
       <c r="E188" s="83" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F188" s="83"/>
       <c r="G188" s="103" t="s">
         <v>57</v>
       </c>
       <c r="H188" s="103" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="42" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B189" s="32" t="s">
         <v>67</v>
@@ -15695,19 +15695,19 @@
         <v>69</v>
       </c>
       <c r="E189" s="83" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F189" s="83"/>
       <c r="G189" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H189" s="104" t="s">
-        <v>821</v>
+      <c r="H189" s="103" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="42" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B190" s="32" t="s">
         <v>74</v>
@@ -15719,19 +15719,19 @@
         <v>76</v>
       </c>
       <c r="E190" s="83" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F190" s="83"/>
       <c r="G190" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="H190" s="104" t="s">
-        <v>824</v>
+      <c r="H190" s="103" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="42" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B191" s="32" t="s">
         <v>88</v>
@@ -15743,19 +15743,19 @@
         <v>649</v>
       </c>
       <c r="E191" s="83" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F191" s="83"/>
-      <c r="G191" s="105" t="s">
+      <c r="G191" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="H191" s="105" t="s">
-        <v>827</v>
+      <c r="H191" s="104" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="42" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B192" s="32" t="s">
         <v>95</v>
@@ -15767,19 +15767,19 @@
         <v>97</v>
       </c>
       <c r="E192" s="83" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F192" s="83"/>
-      <c r="G192" s="106" t="s">
+      <c r="G192" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="H192" s="106" t="s">
-        <v>830</v>
+      <c r="H192" s="105" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="42" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B193" s="32" t="s">
         <v>115</v>
@@ -15791,7 +15791,7 @@
         <v>117</v>
       </c>
       <c r="E193" s="83" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F193" s="83"/>
       <c r="G193" s="93" t="s">
@@ -15803,7 +15803,7 @@
     </row>
     <row r="194">
       <c r="A194" s="42" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B194" s="32" t="s">
         <v>109</v>
@@ -15815,7 +15815,7 @@
         <v>111</v>
       </c>
       <c r="E194" s="83" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F194" s="83"/>
       <c r="G194" s="93" t="s">
@@ -15827,7 +15827,7 @@
     </row>
     <row r="195">
       <c r="A195" s="42" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B195" s="32" t="s">
         <v>664</v>
@@ -15839,19 +15839,19 @@
         <v>132</v>
       </c>
       <c r="E195" s="83" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F195" s="83"/>
       <c r="G195" s="40" t="s">
         <v>657</v>
       </c>
       <c r="H195" s="40" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="42" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B196" s="32" t="s">
         <v>122</v>
@@ -15863,7 +15863,7 @@
         <v>124</v>
       </c>
       <c r="E196" s="83" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F196" s="83"/>
       <c r="G196" s="93" t="s">
@@ -15875,155 +15875,155 @@
     </row>
     <row r="197">
       <c r="A197" s="42" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B197" s="32" t="s">
-        <v>841</v>
-      </c>
-      <c r="C197" s="108" t="s">
         <v>842</v>
       </c>
-      <c r="D197" s="108" t="s">
+      <c r="C197" s="107" t="s">
         <v>843</v>
       </c>
-      <c r="E197" s="109" t="s">
+      <c r="D197" s="107" t="s">
         <v>844</v>
       </c>
-      <c r="F197" s="109"/>
-      <c r="G197" s="110" t="s">
+      <c r="E197" s="108" t="s">
         <v>845</v>
       </c>
-      <c r="H197" s="110" t="s">
+      <c r="F197" s="108"/>
+      <c r="G197" s="109" t="s">
         <v>846</v>
+      </c>
+      <c r="H197" s="109" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="42" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B198" s="32" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G198" s="28"/>
       <c r="H198" s="28"/>
     </row>
     <row r="199">
       <c r="A199" s="42" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B199" s="32" t="s">
-        <v>850</v>
-      </c>
-      <c r="C199" s="111" t="s">
+        <v>851</v>
+      </c>
+      <c r="C199" s="110" t="s">
         <v>462</v>
       </c>
       <c r="D199" s="87"/>
       <c r="E199" s="83" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G199" s="28"/>
       <c r="H199" s="28"/>
     </row>
     <row r="200">
       <c r="A200" s="42" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B200" s="32" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C200" s="86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D200" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E200" s="22" t="s">
         <v>408</v>
       </c>
       <c r="G200" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H200" s="88" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="42" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B201" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="C201" s="112" t="s">
-        <v>859</v>
-      </c>
-      <c r="D201" s="112" t="s">
+      <c r="C201" s="111" t="s">
         <v>860</v>
       </c>
-      <c r="E201" s="113" t="s">
+      <c r="D201" s="111" t="s">
         <v>861</v>
       </c>
+      <c r="E201" s="112" t="s">
+        <v>862</v>
+      </c>
       <c r="F201" s="61"/>
-      <c r="G201" s="114" t="s">
-        <v>862</v>
+      <c r="G201" s="113" t="s">
+        <v>863</v>
       </c>
       <c r="H201" s="55" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="42" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B202" s="32" t="s">
-        <v>865</v>
-      </c>
-      <c r="C202" s="112" t="s">
-        <v>859</v>
-      </c>
-      <c r="D202" s="112" t="s">
+        <v>866</v>
+      </c>
+      <c r="C202" s="111" t="s">
         <v>860</v>
       </c>
-      <c r="E202" s="113" t="s">
-        <v>866</v>
+      <c r="D202" s="111" t="s">
+        <v>861</v>
+      </c>
+      <c r="E202" s="112" t="s">
+        <v>867</v>
       </c>
       <c r="F202" s="61"/>
-      <c r="G202" s="114" t="s">
-        <v>862</v>
-      </c>
-      <c r="H202" s="115" t="s">
-        <v>867</v>
+      <c r="G202" s="113" t="s">
+        <v>863</v>
+      </c>
+      <c r="H202" s="114" t="s">
+        <v>868</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="42" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C203" s="86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D203" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E203" s="83" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G203" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H203" s="88" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="42" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C204" s="86" t="s">
         <v>462</v>
@@ -16034,194 +16034,194 @@
     </row>
     <row r="205">
       <c r="A205" s="42" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B205" s="32" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C205" s="82" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D205" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E205" s="83" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G205" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H205" s="88" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="42" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B206" s="32" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C206" s="82" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D206" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E206" s="83" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G206" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H206" s="88" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="42" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B207" s="32" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C207" s="82" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D207" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E207" s="83" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G207" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H207" s="88" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="42" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C208" s="86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D208" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E208" s="83" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="G208" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H208" s="88" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="42" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B209" s="32" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C209" s="86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D209" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E209" s="83" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G209" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H209" s="88" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="42" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B210" s="32" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C210" s="86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D210" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E210" s="83" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G210" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H210" s="88" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="42" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B211" s="32" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C211" s="86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D211" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E211" s="83" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G211" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H211" s="88" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="42" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B212" s="32" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C212" s="86" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D212" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E212" s="83" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G212" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H212" s="88" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="42" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B213" s="32" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C213" s="86" t="s">
         <v>462</v>
@@ -16232,56 +16232,56 @@
     </row>
     <row r="214">
       <c r="A214" s="42" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B214" s="51" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C214" s="82" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D214" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E214" s="83" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G214" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H214" s="88" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="42" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B215" s="51" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C215" s="82" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="D215" s="82" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E215" s="83" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G215" s="32" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H215" s="88" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="42" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B216" s="51" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C216" s="86" t="s">
         <v>462</v>
@@ -16292,31 +16292,31 @@
     </row>
     <row r="217">
       <c r="A217" s="42" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B217" s="51" t="s">
-        <v>919</v>
-      </c>
-      <c r="C217" s="116" t="s">
+        <v>920</v>
+      </c>
+      <c r="C217" s="115" t="s">
         <v>580</v>
       </c>
       <c r="D217" s="82"/>
       <c r="E217" s="83" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G217" s="34" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H217" s="73" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="42" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B218" s="51" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C218" s="86" t="s">
         <v>462</v>
@@ -16327,4079 +16327,4079 @@
     </row>
     <row r="219">
       <c r="A219" s="42" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B219" s="51" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C219" s="86" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>927</v>
-      </c>
-      <c r="E219" s="109" t="s">
         <v>928</v>
       </c>
+      <c r="E219" s="108" t="s">
+        <v>929</v>
+      </c>
       <c r="G219" s="32" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="H219" s="66" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="117"/>
+      <c r="A220" s="116"/>
       <c r="G220" s="28"/>
       <c r="H220" s="28"/>
     </row>
     <row r="221">
-      <c r="A221" s="117"/>
+      <c r="A221" s="116"/>
       <c r="G221" s="28"/>
       <c r="H221" s="28"/>
     </row>
     <row r="222">
-      <c r="A222" s="117"/>
+      <c r="A222" s="116"/>
       <c r="G222" s="28"/>
       <c r="H222" s="28"/>
     </row>
     <row r="223">
-      <c r="A223" s="117"/>
+      <c r="A223" s="116"/>
       <c r="G223" s="28"/>
       <c r="H223" s="28"/>
     </row>
     <row r="224">
-      <c r="A224" s="117"/>
+      <c r="A224" s="116"/>
       <c r="G224" s="28"/>
       <c r="H224" s="28"/>
     </row>
     <row r="225">
-      <c r="A225" s="117"/>
+      <c r="A225" s="116"/>
       <c r="G225" s="28"/>
       <c r="H225" s="28"/>
     </row>
     <row r="226">
-      <c r="A226" s="117"/>
+      <c r="A226" s="116"/>
       <c r="G226" s="28"/>
       <c r="H226" s="28"/>
     </row>
     <row r="227">
-      <c r="A227" s="117"/>
+      <c r="A227" s="116"/>
       <c r="G227" s="28"/>
       <c r="H227" s="28"/>
     </row>
     <row r="228">
-      <c r="A228" s="117"/>
+      <c r="A228" s="116"/>
       <c r="G228" s="28"/>
       <c r="H228" s="28"/>
     </row>
     <row r="229">
-      <c r="A229" s="117"/>
+      <c r="A229" s="116"/>
       <c r="G229" s="28"/>
       <c r="H229" s="28"/>
     </row>
     <row r="230">
-      <c r="A230" s="117"/>
+      <c r="A230" s="116"/>
       <c r="G230" s="28"/>
       <c r="H230" s="28"/>
     </row>
     <row r="231">
-      <c r="A231" s="117"/>
+      <c r="A231" s="116"/>
       <c r="G231" s="28"/>
       <c r="H231" s="28"/>
     </row>
     <row r="232">
-      <c r="A232" s="117"/>
+      <c r="A232" s="116"/>
       <c r="G232" s="28"/>
       <c r="H232" s="28"/>
     </row>
     <row r="233">
-      <c r="A233" s="117"/>
+      <c r="A233" s="116"/>
       <c r="G233" s="28"/>
       <c r="H233" s="28"/>
     </row>
     <row r="234">
-      <c r="A234" s="117"/>
+      <c r="A234" s="116"/>
       <c r="G234" s="28"/>
       <c r="H234" s="28"/>
     </row>
     <row r="235">
-      <c r="A235" s="117"/>
+      <c r="A235" s="116"/>
       <c r="G235" s="28"/>
       <c r="H235" s="28"/>
     </row>
     <row r="236">
-      <c r="A236" s="117"/>
+      <c r="A236" s="116"/>
       <c r="G236" s="28"/>
       <c r="H236" s="28"/>
     </row>
     <row r="237">
-      <c r="A237" s="117"/>
+      <c r="A237" s="116"/>
       <c r="G237" s="28"/>
       <c r="H237" s="28"/>
     </row>
     <row r="238">
-      <c r="A238" s="117"/>
+      <c r="A238" s="116"/>
       <c r="G238" s="28"/>
       <c r="H238" s="28"/>
     </row>
     <row r="239">
-      <c r="A239" s="117"/>
+      <c r="A239" s="116"/>
       <c r="G239" s="28"/>
       <c r="H239" s="28"/>
     </row>
     <row r="240">
-      <c r="A240" s="117"/>
+      <c r="A240" s="116"/>
       <c r="G240" s="28"/>
       <c r="H240" s="28"/>
     </row>
     <row r="241">
-      <c r="A241" s="117"/>
+      <c r="A241" s="116"/>
       <c r="G241" s="28"/>
       <c r="H241" s="28"/>
     </row>
     <row r="242">
-      <c r="A242" s="117"/>
+      <c r="A242" s="116"/>
       <c r="G242" s="28"/>
       <c r="H242" s="28"/>
     </row>
     <row r="243">
-      <c r="A243" s="117"/>
+      <c r="A243" s="116"/>
       <c r="G243" s="28"/>
       <c r="H243" s="28"/>
     </row>
     <row r="244">
-      <c r="A244" s="117"/>
+      <c r="A244" s="116"/>
       <c r="G244" s="28"/>
       <c r="H244" s="28"/>
     </row>
     <row r="245">
-      <c r="A245" s="117"/>
+      <c r="A245" s="116"/>
       <c r="G245" s="28"/>
       <c r="H245" s="28"/>
     </row>
     <row r="246">
-      <c r="A246" s="117"/>
+      <c r="A246" s="116"/>
       <c r="G246" s="28"/>
       <c r="H246" s="28"/>
     </row>
     <row r="247">
-      <c r="A247" s="117"/>
+      <c r="A247" s="116"/>
       <c r="G247" s="28"/>
       <c r="H247" s="28"/>
     </row>
     <row r="248">
-      <c r="A248" s="117"/>
+      <c r="A248" s="116"/>
       <c r="G248" s="28"/>
       <c r="H248" s="28"/>
     </row>
     <row r="249">
-      <c r="A249" s="117"/>
+      <c r="A249" s="116"/>
       <c r="G249" s="28"/>
       <c r="H249" s="28"/>
     </row>
     <row r="250">
-      <c r="A250" s="117"/>
+      <c r="A250" s="116"/>
       <c r="G250" s="28"/>
       <c r="H250" s="28"/>
     </row>
     <row r="251">
-      <c r="A251" s="117"/>
+      <c r="A251" s="116"/>
       <c r="G251" s="28"/>
       <c r="H251" s="28"/>
     </row>
     <row r="252">
-      <c r="A252" s="117"/>
+      <c r="A252" s="116"/>
       <c r="G252" s="28"/>
       <c r="H252" s="28"/>
     </row>
     <row r="253">
-      <c r="A253" s="117"/>
+      <c r="A253" s="116"/>
       <c r="G253" s="28"/>
       <c r="H253" s="28"/>
     </row>
     <row r="254">
-      <c r="A254" s="117"/>
+      <c r="A254" s="116"/>
       <c r="G254" s="28"/>
       <c r="H254" s="28"/>
     </row>
     <row r="255">
-      <c r="A255" s="117"/>
+      <c r="A255" s="116"/>
       <c r="G255" s="28"/>
       <c r="H255" s="28"/>
     </row>
     <row r="256">
-      <c r="A256" s="117"/>
+      <c r="A256" s="116"/>
       <c r="G256" s="28"/>
       <c r="H256" s="28"/>
     </row>
     <row r="257">
-      <c r="A257" s="117"/>
+      <c r="A257" s="116"/>
       <c r="G257" s="28"/>
       <c r="H257" s="28"/>
     </row>
     <row r="258">
-      <c r="A258" s="117"/>
+      <c r="A258" s="116"/>
       <c r="G258" s="28"/>
       <c r="H258" s="28"/>
     </row>
     <row r="259">
-      <c r="A259" s="117"/>
+      <c r="A259" s="116"/>
       <c r="G259" s="28"/>
       <c r="H259" s="28"/>
     </row>
     <row r="260">
-      <c r="A260" s="117"/>
+      <c r="A260" s="116"/>
       <c r="G260" s="28"/>
       <c r="H260" s="28"/>
     </row>
     <row r="261">
-      <c r="A261" s="117"/>
+      <c r="A261" s="116"/>
       <c r="G261" s="28"/>
       <c r="H261" s="28"/>
     </row>
     <row r="262">
-      <c r="A262" s="117"/>
+      <c r="A262" s="116"/>
       <c r="G262" s="28"/>
       <c r="H262" s="28"/>
     </row>
     <row r="263">
-      <c r="A263" s="117"/>
+      <c r="A263" s="116"/>
       <c r="G263" s="28"/>
       <c r="H263" s="28"/>
     </row>
     <row r="264">
-      <c r="A264" s="117"/>
+      <c r="A264" s="116"/>
       <c r="G264" s="28"/>
       <c r="H264" s="28"/>
     </row>
     <row r="265">
-      <c r="A265" s="117"/>
+      <c r="A265" s="116"/>
       <c r="G265" s="28"/>
       <c r="H265" s="28"/>
     </row>
     <row r="266">
-      <c r="A266" s="117"/>
+      <c r="A266" s="116"/>
       <c r="G266" s="28"/>
       <c r="H266" s="28"/>
     </row>
     <row r="267">
-      <c r="A267" s="117"/>
+      <c r="A267" s="116"/>
       <c r="G267" s="28"/>
       <c r="H267" s="28"/>
     </row>
     <row r="268">
-      <c r="A268" s="117"/>
+      <c r="A268" s="116"/>
       <c r="G268" s="28"/>
       <c r="H268" s="28"/>
     </row>
     <row r="269">
-      <c r="A269" s="117"/>
+      <c r="A269" s="116"/>
       <c r="G269" s="28"/>
       <c r="H269" s="28"/>
     </row>
     <row r="270">
-      <c r="A270" s="117"/>
+      <c r="A270" s="116"/>
       <c r="G270" s="28"/>
       <c r="H270" s="28"/>
     </row>
     <row r="271">
-      <c r="A271" s="117"/>
+      <c r="A271" s="116"/>
       <c r="G271" s="28"/>
       <c r="H271" s="28"/>
     </row>
     <row r="272">
-      <c r="A272" s="117"/>
+      <c r="A272" s="116"/>
       <c r="G272" s="28"/>
       <c r="H272" s="28"/>
     </row>
     <row r="273">
-      <c r="A273" s="117"/>
+      <c r="A273" s="116"/>
       <c r="G273" s="28"/>
       <c r="H273" s="28"/>
     </row>
     <row r="274">
-      <c r="A274" s="117"/>
+      <c r="A274" s="116"/>
       <c r="G274" s="28"/>
       <c r="H274" s="28"/>
     </row>
     <row r="275">
-      <c r="A275" s="117"/>
+      <c r="A275" s="116"/>
       <c r="G275" s="28"/>
       <c r="H275" s="28"/>
     </row>
     <row r="276">
-      <c r="A276" s="117"/>
+      <c r="A276" s="116"/>
       <c r="G276" s="28"/>
       <c r="H276" s="28"/>
     </row>
     <row r="277">
-      <c r="A277" s="117"/>
+      <c r="A277" s="116"/>
       <c r="G277" s="28"/>
       <c r="H277" s="28"/>
     </row>
     <row r="278">
-      <c r="A278" s="117"/>
+      <c r="A278" s="116"/>
       <c r="G278" s="28"/>
       <c r="H278" s="28"/>
     </row>
     <row r="279">
-      <c r="A279" s="117"/>
+      <c r="A279" s="116"/>
       <c r="G279" s="28"/>
       <c r="H279" s="28"/>
     </row>
     <row r="280">
-      <c r="A280" s="117"/>
+      <c r="A280" s="116"/>
       <c r="G280" s="28"/>
       <c r="H280" s="28"/>
     </row>
     <row r="281">
-      <c r="A281" s="117"/>
+      <c r="A281" s="116"/>
       <c r="G281" s="28"/>
       <c r="H281" s="28"/>
     </row>
     <row r="282">
-      <c r="A282" s="117"/>
+      <c r="A282" s="116"/>
       <c r="G282" s="28"/>
       <c r="H282" s="28"/>
     </row>
     <row r="283">
-      <c r="A283" s="117"/>
+      <c r="A283" s="116"/>
       <c r="G283" s="28"/>
       <c r="H283" s="28"/>
     </row>
     <row r="284">
-      <c r="A284" s="117"/>
+      <c r="A284" s="116"/>
       <c r="G284" s="28"/>
       <c r="H284" s="28"/>
     </row>
     <row r="285">
-      <c r="A285" s="117"/>
+      <c r="A285" s="116"/>
       <c r="G285" s="28"/>
       <c r="H285" s="28"/>
     </row>
     <row r="286">
-      <c r="A286" s="117"/>
+      <c r="A286" s="116"/>
       <c r="G286" s="28"/>
       <c r="H286" s="28"/>
     </row>
     <row r="287">
-      <c r="A287" s="117"/>
+      <c r="A287" s="116"/>
       <c r="G287" s="28"/>
       <c r="H287" s="28"/>
     </row>
     <row r="288">
-      <c r="A288" s="117"/>
+      <c r="A288" s="116"/>
       <c r="G288" s="28"/>
       <c r="H288" s="28"/>
     </row>
     <row r="289">
-      <c r="A289" s="117"/>
+      <c r="A289" s="116"/>
       <c r="G289" s="28"/>
       <c r="H289" s="28"/>
     </row>
     <row r="290">
-      <c r="A290" s="117"/>
+      <c r="A290" s="116"/>
       <c r="G290" s="28"/>
       <c r="H290" s="28"/>
     </row>
     <row r="291">
-      <c r="A291" s="117"/>
+      <c r="A291" s="116"/>
       <c r="G291" s="28"/>
       <c r="H291" s="28"/>
     </row>
     <row r="292">
-      <c r="A292" s="117"/>
+      <c r="A292" s="116"/>
       <c r="G292" s="28"/>
       <c r="H292" s="28"/>
     </row>
     <row r="293">
-      <c r="A293" s="117"/>
+      <c r="A293" s="116"/>
       <c r="G293" s="28"/>
       <c r="H293" s="28"/>
     </row>
     <row r="294">
-      <c r="A294" s="117"/>
+      <c r="A294" s="116"/>
       <c r="G294" s="28"/>
       <c r="H294" s="28"/>
     </row>
     <row r="295">
-      <c r="A295" s="117"/>
+      <c r="A295" s="116"/>
       <c r="G295" s="28"/>
       <c r="H295" s="28"/>
     </row>
     <row r="296">
-      <c r="A296" s="117"/>
+      <c r="A296" s="116"/>
       <c r="G296" s="28"/>
       <c r="H296" s="28"/>
     </row>
     <row r="297">
-      <c r="A297" s="117"/>
+      <c r="A297" s="116"/>
       <c r="G297" s="28"/>
       <c r="H297" s="28"/>
     </row>
     <row r="298">
-      <c r="A298" s="117"/>
+      <c r="A298" s="116"/>
       <c r="G298" s="28"/>
       <c r="H298" s="28"/>
     </row>
     <row r="299">
-      <c r="A299" s="117"/>
+      <c r="A299" s="116"/>
       <c r="G299" s="28"/>
       <c r="H299" s="28"/>
     </row>
     <row r="300">
-      <c r="A300" s="117"/>
+      <c r="A300" s="116"/>
       <c r="G300" s="28"/>
       <c r="H300" s="28"/>
     </row>
     <row r="301">
-      <c r="A301" s="117"/>
+      <c r="A301" s="116"/>
       <c r="G301" s="28"/>
       <c r="H301" s="28"/>
     </row>
     <row r="302">
-      <c r="A302" s="117"/>
+      <c r="A302" s="116"/>
       <c r="G302" s="28"/>
       <c r="H302" s="28"/>
     </row>
     <row r="303">
-      <c r="A303" s="117"/>
+      <c r="A303" s="116"/>
       <c r="G303" s="28"/>
       <c r="H303" s="28"/>
     </row>
     <row r="304">
-      <c r="A304" s="117"/>
+      <c r="A304" s="116"/>
       <c r="G304" s="28"/>
       <c r="H304" s="28"/>
     </row>
     <row r="305">
-      <c r="A305" s="117"/>
+      <c r="A305" s="116"/>
       <c r="G305" s="28"/>
       <c r="H305" s="28"/>
     </row>
     <row r="306">
-      <c r="A306" s="117"/>
+      <c r="A306" s="116"/>
       <c r="G306" s="28"/>
       <c r="H306" s="28"/>
     </row>
     <row r="307">
-      <c r="A307" s="117"/>
+      <c r="A307" s="116"/>
       <c r="G307" s="28"/>
       <c r="H307" s="28"/>
     </row>
     <row r="308">
-      <c r="A308" s="117"/>
+      <c r="A308" s="116"/>
       <c r="G308" s="28"/>
       <c r="H308" s="28"/>
     </row>
     <row r="309">
-      <c r="A309" s="117"/>
+      <c r="A309" s="116"/>
       <c r="G309" s="28"/>
       <c r="H309" s="28"/>
     </row>
     <row r="310">
-      <c r="A310" s="117"/>
+      <c r="A310" s="116"/>
       <c r="G310" s="28"/>
       <c r="H310" s="28"/>
     </row>
     <row r="311">
-      <c r="A311" s="117"/>
+      <c r="A311" s="116"/>
       <c r="G311" s="28"/>
       <c r="H311" s="28"/>
     </row>
     <row r="312">
-      <c r="A312" s="117"/>
+      <c r="A312" s="116"/>
       <c r="G312" s="28"/>
       <c r="H312" s="28"/>
     </row>
     <row r="313">
-      <c r="A313" s="117"/>
+      <c r="A313" s="116"/>
       <c r="G313" s="28"/>
       <c r="H313" s="28"/>
     </row>
     <row r="314">
-      <c r="A314" s="117"/>
+      <c r="A314" s="116"/>
       <c r="G314" s="28"/>
       <c r="H314" s="28"/>
     </row>
     <row r="315">
-      <c r="A315" s="117"/>
+      <c r="A315" s="116"/>
       <c r="G315" s="28"/>
       <c r="H315" s="28"/>
     </row>
     <row r="316">
-      <c r="A316" s="117"/>
+      <c r="A316" s="116"/>
       <c r="G316" s="28"/>
       <c r="H316" s="28"/>
     </row>
     <row r="317">
-      <c r="A317" s="117"/>
+      <c r="A317" s="116"/>
       <c r="G317" s="28"/>
       <c r="H317" s="28"/>
     </row>
     <row r="318">
-      <c r="A318" s="117"/>
+      <c r="A318" s="116"/>
       <c r="G318" s="28"/>
       <c r="H318" s="28"/>
     </row>
     <row r="319">
-      <c r="A319" s="117"/>
+      <c r="A319" s="116"/>
       <c r="G319" s="28"/>
       <c r="H319" s="28"/>
     </row>
     <row r="320">
-      <c r="A320" s="117"/>
+      <c r="A320" s="116"/>
       <c r="G320" s="28"/>
       <c r="H320" s="28"/>
     </row>
     <row r="321">
-      <c r="A321" s="117"/>
+      <c r="A321" s="116"/>
       <c r="G321" s="28"/>
       <c r="H321" s="28"/>
     </row>
     <row r="322">
-      <c r="A322" s="117"/>
+      <c r="A322" s="116"/>
       <c r="G322" s="28"/>
       <c r="H322" s="28"/>
     </row>
     <row r="323">
-      <c r="A323" s="117"/>
+      <c r="A323" s="116"/>
       <c r="G323" s="28"/>
       <c r="H323" s="28"/>
     </row>
     <row r="324">
-      <c r="A324" s="117"/>
+      <c r="A324" s="116"/>
       <c r="G324" s="28"/>
       <c r="H324" s="28"/>
     </row>
     <row r="325">
-      <c r="A325" s="117"/>
+      <c r="A325" s="116"/>
       <c r="G325" s="28"/>
       <c r="H325" s="28"/>
     </row>
     <row r="326">
-      <c r="A326" s="117"/>
+      <c r="A326" s="116"/>
       <c r="G326" s="28"/>
       <c r="H326" s="28"/>
     </row>
     <row r="327">
-      <c r="A327" s="117"/>
+      <c r="A327" s="116"/>
       <c r="G327" s="28"/>
       <c r="H327" s="28"/>
     </row>
     <row r="328">
-      <c r="A328" s="117"/>
+      <c r="A328" s="116"/>
       <c r="G328" s="28"/>
       <c r="H328" s="28"/>
     </row>
     <row r="329">
-      <c r="A329" s="117"/>
+      <c r="A329" s="116"/>
       <c r="G329" s="28"/>
       <c r="H329" s="28"/>
     </row>
     <row r="330">
-      <c r="A330" s="117"/>
+      <c r="A330" s="116"/>
       <c r="G330" s="28"/>
       <c r="H330" s="28"/>
     </row>
     <row r="331">
-      <c r="A331" s="117"/>
+      <c r="A331" s="116"/>
       <c r="G331" s="28"/>
       <c r="H331" s="28"/>
     </row>
     <row r="332">
-      <c r="A332" s="117"/>
+      <c r="A332" s="116"/>
       <c r="G332" s="28"/>
       <c r="H332" s="28"/>
     </row>
     <row r="333">
-      <c r="A333" s="117"/>
+      <c r="A333" s="116"/>
       <c r="G333" s="28"/>
       <c r="H333" s="28"/>
     </row>
     <row r="334">
-      <c r="A334" s="117"/>
+      <c r="A334" s="116"/>
       <c r="G334" s="28"/>
       <c r="H334" s="28"/>
     </row>
     <row r="335">
-      <c r="A335" s="117"/>
+      <c r="A335" s="116"/>
       <c r="G335" s="28"/>
       <c r="H335" s="28"/>
     </row>
     <row r="336">
-      <c r="A336" s="117"/>
+      <c r="A336" s="116"/>
       <c r="G336" s="28"/>
       <c r="H336" s="28"/>
     </row>
     <row r="337">
-      <c r="A337" s="117"/>
+      <c r="A337" s="116"/>
       <c r="G337" s="28"/>
       <c r="H337" s="28"/>
     </row>
     <row r="338">
-      <c r="A338" s="117"/>
+      <c r="A338" s="116"/>
       <c r="G338" s="28"/>
       <c r="H338" s="28"/>
     </row>
     <row r="339">
-      <c r="A339" s="117"/>
+      <c r="A339" s="116"/>
       <c r="G339" s="28"/>
       <c r="H339" s="28"/>
     </row>
     <row r="340">
-      <c r="A340" s="117"/>
+      <c r="A340" s="116"/>
       <c r="G340" s="28"/>
       <c r="H340" s="28"/>
     </row>
     <row r="341">
-      <c r="A341" s="117"/>
+      <c r="A341" s="116"/>
       <c r="G341" s="28"/>
       <c r="H341" s="28"/>
     </row>
     <row r="342">
-      <c r="A342" s="117"/>
+      <c r="A342" s="116"/>
       <c r="G342" s="28"/>
       <c r="H342" s="28"/>
     </row>
     <row r="343">
-      <c r="A343" s="117"/>
+      <c r="A343" s="116"/>
       <c r="G343" s="28"/>
       <c r="H343" s="28"/>
     </row>
     <row r="344">
-      <c r="A344" s="117"/>
+      <c r="A344" s="116"/>
       <c r="G344" s="28"/>
       <c r="H344" s="28"/>
     </row>
     <row r="345">
-      <c r="A345" s="117"/>
+      <c r="A345" s="116"/>
       <c r="G345" s="28"/>
       <c r="H345" s="28"/>
     </row>
     <row r="346">
-      <c r="A346" s="117"/>
+      <c r="A346" s="116"/>
       <c r="G346" s="28"/>
       <c r="H346" s="28"/>
     </row>
     <row r="347">
-      <c r="A347" s="117"/>
+      <c r="A347" s="116"/>
       <c r="G347" s="28"/>
       <c r="H347" s="28"/>
     </row>
     <row r="348">
-      <c r="A348" s="117"/>
+      <c r="A348" s="116"/>
       <c r="G348" s="28"/>
       <c r="H348" s="28"/>
     </row>
     <row r="349">
-      <c r="A349" s="117"/>
+      <c r="A349" s="116"/>
       <c r="G349" s="28"/>
       <c r="H349" s="28"/>
     </row>
     <row r="350">
-      <c r="A350" s="117"/>
+      <c r="A350" s="116"/>
       <c r="G350" s="28"/>
       <c r="H350" s="28"/>
     </row>
     <row r="351">
-      <c r="A351" s="117"/>
+      <c r="A351" s="116"/>
       <c r="G351" s="28"/>
       <c r="H351" s="28"/>
     </row>
     <row r="352">
-      <c r="A352" s="117"/>
+      <c r="A352" s="116"/>
       <c r="G352" s="28"/>
       <c r="H352" s="28"/>
     </row>
     <row r="353">
-      <c r="A353" s="117"/>
+      <c r="A353" s="116"/>
       <c r="G353" s="28"/>
       <c r="H353" s="28"/>
     </row>
     <row r="354">
-      <c r="A354" s="117"/>
+      <c r="A354" s="116"/>
       <c r="G354" s="28"/>
       <c r="H354" s="28"/>
     </row>
     <row r="355">
-      <c r="A355" s="117"/>
+      <c r="A355" s="116"/>
       <c r="G355" s="28"/>
       <c r="H355" s="28"/>
     </row>
     <row r="356">
-      <c r="A356" s="117"/>
+      <c r="A356" s="116"/>
       <c r="G356" s="28"/>
       <c r="H356" s="28"/>
     </row>
     <row r="357">
-      <c r="A357" s="117"/>
+      <c r="A357" s="116"/>
       <c r="G357" s="28"/>
       <c r="H357" s="28"/>
     </row>
     <row r="358">
-      <c r="A358" s="117"/>
+      <c r="A358" s="116"/>
       <c r="G358" s="28"/>
       <c r="H358" s="28"/>
     </row>
     <row r="359">
-      <c r="A359" s="117"/>
+      <c r="A359" s="116"/>
       <c r="G359" s="28"/>
       <c r="H359" s="28"/>
     </row>
     <row r="360">
-      <c r="A360" s="117"/>
+      <c r="A360" s="116"/>
       <c r="G360" s="28"/>
       <c r="H360" s="28"/>
     </row>
     <row r="361">
-      <c r="A361" s="117"/>
+      <c r="A361" s="116"/>
       <c r="G361" s="28"/>
       <c r="H361" s="28"/>
     </row>
     <row r="362">
-      <c r="A362" s="117"/>
+      <c r="A362" s="116"/>
       <c r="G362" s="28"/>
       <c r="H362" s="28"/>
     </row>
     <row r="363">
-      <c r="A363" s="117"/>
+      <c r="A363" s="116"/>
       <c r="G363" s="28"/>
       <c r="H363" s="28"/>
     </row>
     <row r="364">
-      <c r="A364" s="117"/>
+      <c r="A364" s="116"/>
       <c r="G364" s="28"/>
       <c r="H364" s="28"/>
     </row>
     <row r="365">
-      <c r="A365" s="117"/>
+      <c r="A365" s="116"/>
       <c r="G365" s="28"/>
       <c r="H365" s="28"/>
     </row>
     <row r="366">
-      <c r="A366" s="117"/>
+      <c r="A366" s="116"/>
       <c r="G366" s="28"/>
       <c r="H366" s="28"/>
     </row>
     <row r="367">
-      <c r="A367" s="117"/>
+      <c r="A367" s="116"/>
       <c r="G367" s="28"/>
       <c r="H367" s="28"/>
     </row>
     <row r="368">
-      <c r="A368" s="117"/>
+      <c r="A368" s="116"/>
       <c r="G368" s="28"/>
       <c r="H368" s="28"/>
     </row>
     <row r="369">
-      <c r="A369" s="117"/>
+      <c r="A369" s="116"/>
       <c r="G369" s="28"/>
       <c r="H369" s="28"/>
     </row>
     <row r="370">
-      <c r="A370" s="117"/>
+      <c r="A370" s="116"/>
       <c r="G370" s="28"/>
       <c r="H370" s="28"/>
     </row>
     <row r="371">
-      <c r="A371" s="117"/>
+      <c r="A371" s="116"/>
       <c r="G371" s="28"/>
       <c r="H371" s="28"/>
     </row>
     <row r="372">
-      <c r="A372" s="117"/>
+      <c r="A372" s="116"/>
       <c r="G372" s="28"/>
       <c r="H372" s="28"/>
     </row>
     <row r="373">
-      <c r="A373" s="117"/>
+      <c r="A373" s="116"/>
       <c r="G373" s="28"/>
       <c r="H373" s="28"/>
     </row>
     <row r="374">
-      <c r="A374" s="117"/>
+      <c r="A374" s="116"/>
       <c r="G374" s="28"/>
       <c r="H374" s="28"/>
     </row>
     <row r="375">
-      <c r="A375" s="117"/>
+      <c r="A375" s="116"/>
       <c r="G375" s="28"/>
       <c r="H375" s="28"/>
     </row>
     <row r="376">
-      <c r="A376" s="117"/>
+      <c r="A376" s="116"/>
       <c r="G376" s="28"/>
       <c r="H376" s="28"/>
     </row>
     <row r="377">
-      <c r="A377" s="117"/>
+      <c r="A377" s="116"/>
       <c r="G377" s="28"/>
       <c r="H377" s="28"/>
     </row>
     <row r="378">
-      <c r="A378" s="117"/>
+      <c r="A378" s="116"/>
       <c r="G378" s="28"/>
       <c r="H378" s="28"/>
     </row>
     <row r="379">
-      <c r="A379" s="117"/>
+      <c r="A379" s="116"/>
       <c r="G379" s="28"/>
       <c r="H379" s="28"/>
     </row>
     <row r="380">
-      <c r="A380" s="117"/>
+      <c r="A380" s="116"/>
       <c r="G380" s="28"/>
       <c r="H380" s="28"/>
     </row>
     <row r="381">
-      <c r="A381" s="117"/>
+      <c r="A381" s="116"/>
       <c r="G381" s="28"/>
       <c r="H381" s="28"/>
     </row>
     <row r="382">
-      <c r="A382" s="117"/>
+      <c r="A382" s="116"/>
       <c r="G382" s="28"/>
       <c r="H382" s="28"/>
     </row>
     <row r="383">
-      <c r="A383" s="117"/>
+      <c r="A383" s="116"/>
       <c r="G383" s="28"/>
       <c r="H383" s="28"/>
     </row>
     <row r="384">
-      <c r="A384" s="117"/>
+      <c r="A384" s="116"/>
       <c r="G384" s="28"/>
       <c r="H384" s="28"/>
     </row>
     <row r="385">
-      <c r="A385" s="117"/>
+      <c r="A385" s="116"/>
       <c r="G385" s="28"/>
       <c r="H385" s="28"/>
     </row>
     <row r="386">
-      <c r="A386" s="117"/>
+      <c r="A386" s="116"/>
       <c r="G386" s="28"/>
       <c r="H386" s="28"/>
     </row>
     <row r="387">
-      <c r="A387" s="117"/>
+      <c r="A387" s="116"/>
       <c r="G387" s="28"/>
       <c r="H387" s="28"/>
     </row>
     <row r="388">
-      <c r="A388" s="117"/>
+      <c r="A388" s="116"/>
       <c r="G388" s="28"/>
       <c r="H388" s="28"/>
     </row>
     <row r="389">
-      <c r="A389" s="117"/>
+      <c r="A389" s="116"/>
       <c r="G389" s="28"/>
       <c r="H389" s="28"/>
     </row>
     <row r="390">
-      <c r="A390" s="117"/>
+      <c r="A390" s="116"/>
       <c r="G390" s="28"/>
       <c r="H390" s="28"/>
     </row>
     <row r="391">
-      <c r="A391" s="117"/>
+      <c r="A391" s="116"/>
       <c r="G391" s="28"/>
       <c r="H391" s="28"/>
     </row>
     <row r="392">
-      <c r="A392" s="117"/>
+      <c r="A392" s="116"/>
       <c r="G392" s="28"/>
       <c r="H392" s="28"/>
     </row>
     <row r="393">
-      <c r="A393" s="117"/>
+      <c r="A393" s="116"/>
       <c r="G393" s="28"/>
       <c r="H393" s="28"/>
     </row>
     <row r="394">
-      <c r="A394" s="117"/>
+      <c r="A394" s="116"/>
       <c r="G394" s="28"/>
       <c r="H394" s="28"/>
     </row>
     <row r="395">
-      <c r="A395" s="117"/>
+      <c r="A395" s="116"/>
       <c r="G395" s="28"/>
       <c r="H395" s="28"/>
     </row>
     <row r="396">
-      <c r="A396" s="117"/>
+      <c r="A396" s="116"/>
       <c r="G396" s="28"/>
       <c r="H396" s="28"/>
     </row>
     <row r="397">
-      <c r="A397" s="117"/>
+      <c r="A397" s="116"/>
       <c r="G397" s="28"/>
       <c r="H397" s="28"/>
     </row>
     <row r="398">
-      <c r="A398" s="117"/>
+      <c r="A398" s="116"/>
       <c r="G398" s="28"/>
       <c r="H398" s="28"/>
     </row>
     <row r="399">
-      <c r="A399" s="117"/>
+      <c r="A399" s="116"/>
       <c r="G399" s="28"/>
       <c r="H399" s="28"/>
     </row>
     <row r="400">
-      <c r="A400" s="117"/>
+      <c r="A400" s="116"/>
       <c r="G400" s="28"/>
       <c r="H400" s="28"/>
     </row>
     <row r="401">
-      <c r="A401" s="117"/>
+      <c r="A401" s="116"/>
       <c r="G401" s="28"/>
       <c r="H401" s="28"/>
     </row>
     <row r="402">
-      <c r="A402" s="117"/>
+      <c r="A402" s="116"/>
       <c r="G402" s="28"/>
       <c r="H402" s="28"/>
     </row>
     <row r="403">
-      <c r="A403" s="117"/>
+      <c r="A403" s="116"/>
       <c r="G403" s="28"/>
       <c r="H403" s="28"/>
     </row>
     <row r="404">
-      <c r="A404" s="117"/>
+      <c r="A404" s="116"/>
       <c r="G404" s="28"/>
       <c r="H404" s="28"/>
     </row>
     <row r="405">
-      <c r="A405" s="117"/>
+      <c r="A405" s="116"/>
       <c r="G405" s="28"/>
       <c r="H405" s="28"/>
     </row>
     <row r="406">
-      <c r="A406" s="117"/>
+      <c r="A406" s="116"/>
       <c r="G406" s="28"/>
       <c r="H406" s="28"/>
     </row>
     <row r="407">
-      <c r="A407" s="117"/>
+      <c r="A407" s="116"/>
       <c r="G407" s="28"/>
       <c r="H407" s="28"/>
     </row>
     <row r="408">
-      <c r="A408" s="117"/>
+      <c r="A408" s="116"/>
       <c r="G408" s="28"/>
       <c r="H408" s="28"/>
     </row>
     <row r="409">
-      <c r="A409" s="117"/>
+      <c r="A409" s="116"/>
       <c r="G409" s="28"/>
       <c r="H409" s="28"/>
     </row>
     <row r="410">
-      <c r="A410" s="117"/>
+      <c r="A410" s="116"/>
       <c r="G410" s="28"/>
       <c r="H410" s="28"/>
     </row>
     <row r="411">
-      <c r="A411" s="117"/>
+      <c r="A411" s="116"/>
       <c r="G411" s="28"/>
       <c r="H411" s="28"/>
     </row>
     <row r="412">
-      <c r="A412" s="117"/>
+      <c r="A412" s="116"/>
       <c r="G412" s="28"/>
       <c r="H412" s="28"/>
     </row>
     <row r="413">
-      <c r="A413" s="117"/>
+      <c r="A413" s="116"/>
       <c r="G413" s="28"/>
       <c r="H413" s="28"/>
     </row>
     <row r="414">
-      <c r="A414" s="117"/>
+      <c r="A414" s="116"/>
       <c r="G414" s="28"/>
       <c r="H414" s="28"/>
     </row>
     <row r="415">
-      <c r="A415" s="117"/>
+      <c r="A415" s="116"/>
       <c r="G415" s="28"/>
       <c r="H415" s="28"/>
     </row>
     <row r="416">
-      <c r="A416" s="117"/>
+      <c r="A416" s="116"/>
       <c r="G416" s="28"/>
       <c r="H416" s="28"/>
     </row>
     <row r="417">
-      <c r="A417" s="117"/>
+      <c r="A417" s="116"/>
       <c r="G417" s="28"/>
       <c r="H417" s="28"/>
     </row>
     <row r="418">
-      <c r="A418" s="117"/>
+      <c r="A418" s="116"/>
       <c r="G418" s="28"/>
       <c r="H418" s="28"/>
     </row>
     <row r="419">
-      <c r="A419" s="117"/>
+      <c r="A419" s="116"/>
       <c r="G419" s="28"/>
       <c r="H419" s="28"/>
     </row>
     <row r="420">
-      <c r="A420" s="117"/>
+      <c r="A420" s="116"/>
       <c r="G420" s="28"/>
       <c r="H420" s="28"/>
     </row>
     <row r="421">
-      <c r="A421" s="117"/>
+      <c r="A421" s="116"/>
       <c r="G421" s="28"/>
       <c r="H421" s="28"/>
     </row>
     <row r="422">
-      <c r="A422" s="117"/>
+      <c r="A422" s="116"/>
       <c r="G422" s="28"/>
       <c r="H422" s="28"/>
     </row>
     <row r="423">
-      <c r="A423" s="117"/>
+      <c r="A423" s="116"/>
       <c r="G423" s="28"/>
       <c r="H423" s="28"/>
     </row>
     <row r="424">
-      <c r="A424" s="117"/>
+      <c r="A424" s="116"/>
       <c r="G424" s="28"/>
       <c r="H424" s="28"/>
     </row>
     <row r="425">
-      <c r="A425" s="117"/>
+      <c r="A425" s="116"/>
       <c r="G425" s="28"/>
       <c r="H425" s="28"/>
     </row>
     <row r="426">
-      <c r="A426" s="117"/>
+      <c r="A426" s="116"/>
       <c r="G426" s="28"/>
       <c r="H426" s="28"/>
     </row>
     <row r="427">
-      <c r="A427" s="117"/>
+      <c r="A427" s="116"/>
       <c r="G427" s="28"/>
       <c r="H427" s="28"/>
     </row>
     <row r="428">
-      <c r="A428" s="117"/>
+      <c r="A428" s="116"/>
       <c r="G428" s="28"/>
       <c r="H428" s="28"/>
     </row>
     <row r="429">
-      <c r="A429" s="117"/>
+      <c r="A429" s="116"/>
       <c r="G429" s="28"/>
       <c r="H429" s="28"/>
     </row>
     <row r="430">
-      <c r="A430" s="117"/>
+      <c r="A430" s="116"/>
       <c r="G430" s="28"/>
       <c r="H430" s="28"/>
     </row>
     <row r="431">
-      <c r="A431" s="117"/>
+      <c r="A431" s="116"/>
       <c r="G431" s="28"/>
       <c r="H431" s="28"/>
     </row>
     <row r="432">
-      <c r="A432" s="117"/>
+      <c r="A432" s="116"/>
       <c r="G432" s="28"/>
       <c r="H432" s="28"/>
     </row>
     <row r="433">
-      <c r="A433" s="117"/>
+      <c r="A433" s="116"/>
       <c r="G433" s="28"/>
       <c r="H433" s="28"/>
     </row>
     <row r="434">
-      <c r="A434" s="117"/>
+      <c r="A434" s="116"/>
       <c r="G434" s="28"/>
       <c r="H434" s="28"/>
     </row>
     <row r="435">
-      <c r="A435" s="117"/>
+      <c r="A435" s="116"/>
       <c r="G435" s="28"/>
       <c r="H435" s="28"/>
     </row>
     <row r="436">
-      <c r="A436" s="117"/>
+      <c r="A436" s="116"/>
       <c r="G436" s="28"/>
       <c r="H436" s="28"/>
     </row>
     <row r="437">
-      <c r="A437" s="117"/>
+      <c r="A437" s="116"/>
       <c r="G437" s="28"/>
       <c r="H437" s="28"/>
     </row>
     <row r="438">
-      <c r="A438" s="117"/>
+      <c r="A438" s="116"/>
       <c r="G438" s="28"/>
       <c r="H438" s="28"/>
     </row>
     <row r="439">
-      <c r="A439" s="117"/>
+      <c r="A439" s="116"/>
       <c r="G439" s="28"/>
       <c r="H439" s="28"/>
     </row>
     <row r="440">
-      <c r="A440" s="117"/>
+      <c r="A440" s="116"/>
       <c r="G440" s="28"/>
       <c r="H440" s="28"/>
     </row>
     <row r="441">
-      <c r="A441" s="117"/>
+      <c r="A441" s="116"/>
       <c r="G441" s="28"/>
       <c r="H441" s="28"/>
     </row>
     <row r="442">
-      <c r="A442" s="117"/>
+      <c r="A442" s="116"/>
       <c r="G442" s="28"/>
       <c r="H442" s="28"/>
     </row>
     <row r="443">
-      <c r="A443" s="117"/>
+      <c r="A443" s="116"/>
       <c r="G443" s="28"/>
       <c r="H443" s="28"/>
     </row>
     <row r="444">
-      <c r="A444" s="117"/>
+      <c r="A444" s="116"/>
       <c r="G444" s="28"/>
       <c r="H444" s="28"/>
     </row>
     <row r="445">
-      <c r="A445" s="117"/>
+      <c r="A445" s="116"/>
       <c r="G445" s="28"/>
       <c r="H445" s="28"/>
     </row>
     <row r="446">
-      <c r="A446" s="117"/>
+      <c r="A446" s="116"/>
       <c r="G446" s="28"/>
       <c r="H446" s="28"/>
     </row>
     <row r="447">
-      <c r="A447" s="117"/>
+      <c r="A447" s="116"/>
       <c r="G447" s="28"/>
       <c r="H447" s="28"/>
     </row>
     <row r="448">
-      <c r="A448" s="117"/>
+      <c r="A448" s="116"/>
       <c r="G448" s="28"/>
       <c r="H448" s="28"/>
     </row>
     <row r="449">
-      <c r="A449" s="117"/>
+      <c r="A449" s="116"/>
       <c r="G449" s="28"/>
       <c r="H449" s="28"/>
     </row>
     <row r="450">
-      <c r="A450" s="117"/>
+      <c r="A450" s="116"/>
       <c r="G450" s="28"/>
       <c r="H450" s="28"/>
     </row>
     <row r="451">
-      <c r="A451" s="117"/>
+      <c r="A451" s="116"/>
       <c r="G451" s="28"/>
       <c r="H451" s="28"/>
     </row>
     <row r="452">
-      <c r="A452" s="117"/>
+      <c r="A452" s="116"/>
       <c r="G452" s="28"/>
       <c r="H452" s="28"/>
     </row>
     <row r="453">
-      <c r="A453" s="117"/>
+      <c r="A453" s="116"/>
       <c r="G453" s="28"/>
       <c r="H453" s="28"/>
     </row>
     <row r="454">
-      <c r="A454" s="117"/>
+      <c r="A454" s="116"/>
       <c r="G454" s="28"/>
       <c r="H454" s="28"/>
     </row>
     <row r="455">
-      <c r="A455" s="117"/>
+      <c r="A455" s="116"/>
       <c r="G455" s="28"/>
       <c r="H455" s="28"/>
     </row>
     <row r="456">
-      <c r="A456" s="117"/>
+      <c r="A456" s="116"/>
       <c r="G456" s="28"/>
       <c r="H456" s="28"/>
     </row>
     <row r="457">
-      <c r="A457" s="117"/>
+      <c r="A457" s="116"/>
       <c r="G457" s="28"/>
       <c r="H457" s="28"/>
     </row>
     <row r="458">
-      <c r="A458" s="117"/>
+      <c r="A458" s="116"/>
       <c r="G458" s="28"/>
       <c r="H458" s="28"/>
     </row>
     <row r="459">
-      <c r="A459" s="117"/>
+      <c r="A459" s="116"/>
       <c r="G459" s="28"/>
       <c r="H459" s="28"/>
     </row>
     <row r="460">
-      <c r="A460" s="117"/>
+      <c r="A460" s="116"/>
       <c r="G460" s="28"/>
       <c r="H460" s="28"/>
     </row>
     <row r="461">
-      <c r="A461" s="117"/>
+      <c r="A461" s="116"/>
       <c r="G461" s="28"/>
       <c r="H461" s="28"/>
     </row>
     <row r="462">
-      <c r="A462" s="117"/>
+      <c r="A462" s="116"/>
       <c r="G462" s="28"/>
       <c r="H462" s="28"/>
     </row>
     <row r="463">
-      <c r="A463" s="117"/>
+      <c r="A463" s="116"/>
       <c r="G463" s="28"/>
       <c r="H463" s="28"/>
     </row>
     <row r="464">
-      <c r="A464" s="117"/>
+      <c r="A464" s="116"/>
       <c r="G464" s="28"/>
       <c r="H464" s="28"/>
     </row>
     <row r="465">
-      <c r="A465" s="117"/>
+      <c r="A465" s="116"/>
       <c r="G465" s="28"/>
       <c r="H465" s="28"/>
     </row>
     <row r="466">
-      <c r="A466" s="117"/>
+      <c r="A466" s="116"/>
       <c r="G466" s="28"/>
       <c r="H466" s="28"/>
     </row>
     <row r="467">
-      <c r="A467" s="117"/>
+      <c r="A467" s="116"/>
       <c r="G467" s="28"/>
       <c r="H467" s="28"/>
     </row>
     <row r="468">
-      <c r="A468" s="117"/>
+      <c r="A468" s="116"/>
       <c r="G468" s="28"/>
       <c r="H468" s="28"/>
     </row>
     <row r="469">
-      <c r="A469" s="117"/>
+      <c r="A469" s="116"/>
       <c r="G469" s="28"/>
       <c r="H469" s="28"/>
     </row>
     <row r="470">
-      <c r="A470" s="117"/>
+      <c r="A470" s="116"/>
       <c r="G470" s="28"/>
       <c r="H470" s="28"/>
     </row>
     <row r="471">
-      <c r="A471" s="117"/>
+      <c r="A471" s="116"/>
       <c r="G471" s="28"/>
       <c r="H471" s="28"/>
     </row>
     <row r="472">
-      <c r="A472" s="117"/>
+      <c r="A472" s="116"/>
       <c r="G472" s="28"/>
       <c r="H472" s="28"/>
     </row>
     <row r="473">
-      <c r="A473" s="117"/>
+      <c r="A473" s="116"/>
       <c r="G473" s="28"/>
       <c r="H473" s="28"/>
     </row>
     <row r="474">
-      <c r="A474" s="117"/>
+      <c r="A474" s="116"/>
       <c r="G474" s="28"/>
       <c r="H474" s="28"/>
     </row>
     <row r="475">
-      <c r="A475" s="117"/>
+      <c r="A475" s="116"/>
       <c r="G475" s="28"/>
       <c r="H475" s="28"/>
     </row>
     <row r="476">
-      <c r="A476" s="117"/>
+      <c r="A476" s="116"/>
       <c r="G476" s="28"/>
       <c r="H476" s="28"/>
     </row>
     <row r="477">
-      <c r="A477" s="117"/>
+      <c r="A477" s="116"/>
       <c r="G477" s="28"/>
       <c r="H477" s="28"/>
     </row>
     <row r="478">
-      <c r="A478" s="117"/>
+      <c r="A478" s="116"/>
       <c r="G478" s="28"/>
       <c r="H478" s="28"/>
     </row>
     <row r="479">
-      <c r="A479" s="117"/>
+      <c r="A479" s="116"/>
       <c r="G479" s="28"/>
       <c r="H479" s="28"/>
     </row>
     <row r="480">
-      <c r="A480" s="117"/>
+      <c r="A480" s="116"/>
       <c r="G480" s="28"/>
       <c r="H480" s="28"/>
     </row>
     <row r="481">
-      <c r="A481" s="117"/>
+      <c r="A481" s="116"/>
       <c r="G481" s="28"/>
       <c r="H481" s="28"/>
     </row>
     <row r="482">
-      <c r="A482" s="117"/>
+      <c r="A482" s="116"/>
       <c r="G482" s="28"/>
       <c r="H482" s="28"/>
     </row>
     <row r="483">
-      <c r="A483" s="117"/>
+      <c r="A483" s="116"/>
       <c r="G483" s="28"/>
       <c r="H483" s="28"/>
     </row>
     <row r="484">
-      <c r="A484" s="117"/>
+      <c r="A484" s="116"/>
       <c r="G484" s="28"/>
       <c r="H484" s="28"/>
     </row>
     <row r="485">
-      <c r="A485" s="117"/>
+      <c r="A485" s="116"/>
       <c r="G485" s="28"/>
       <c r="H485" s="28"/>
     </row>
     <row r="486">
-      <c r="A486" s="117"/>
+      <c r="A486" s="116"/>
       <c r="G486" s="28"/>
       <c r="H486" s="28"/>
     </row>
     <row r="487">
-      <c r="A487" s="117"/>
+      <c r="A487" s="116"/>
       <c r="G487" s="28"/>
       <c r="H487" s="28"/>
     </row>
     <row r="488">
-      <c r="A488" s="117"/>
+      <c r="A488" s="116"/>
       <c r="G488" s="28"/>
       <c r="H488" s="28"/>
     </row>
     <row r="489">
-      <c r="A489" s="117"/>
+      <c r="A489" s="116"/>
       <c r="G489" s="28"/>
       <c r="H489" s="28"/>
     </row>
     <row r="490">
-      <c r="A490" s="117"/>
+      <c r="A490" s="116"/>
       <c r="G490" s="28"/>
       <c r="H490" s="28"/>
     </row>
     <row r="491">
-      <c r="A491" s="117"/>
+      <c r="A491" s="116"/>
       <c r="G491" s="28"/>
       <c r="H491" s="28"/>
     </row>
     <row r="492">
-      <c r="A492" s="117"/>
+      <c r="A492" s="116"/>
       <c r="G492" s="28"/>
       <c r="H492" s="28"/>
     </row>
     <row r="493">
-      <c r="A493" s="117"/>
+      <c r="A493" s="116"/>
       <c r="G493" s="28"/>
       <c r="H493" s="28"/>
     </row>
     <row r="494">
-      <c r="A494" s="117"/>
+      <c r="A494" s="116"/>
       <c r="G494" s="28"/>
       <c r="H494" s="28"/>
     </row>
     <row r="495">
-      <c r="A495" s="117"/>
+      <c r="A495" s="116"/>
       <c r="G495" s="28"/>
       <c r="H495" s="28"/>
     </row>
     <row r="496">
-      <c r="A496" s="117"/>
+      <c r="A496" s="116"/>
       <c r="G496" s="28"/>
       <c r="H496" s="28"/>
     </row>
     <row r="497">
-      <c r="A497" s="117"/>
+      <c r="A497" s="116"/>
       <c r="G497" s="28"/>
       <c r="H497" s="28"/>
     </row>
     <row r="498">
-      <c r="A498" s="117"/>
+      <c r="A498" s="116"/>
       <c r="G498" s="28"/>
       <c r="H498" s="28"/>
     </row>
     <row r="499">
-      <c r="A499" s="117"/>
+      <c r="A499" s="116"/>
       <c r="G499" s="28"/>
       <c r="H499" s="28"/>
     </row>
     <row r="500">
-      <c r="A500" s="117"/>
+      <c r="A500" s="116"/>
       <c r="G500" s="28"/>
       <c r="H500" s="28"/>
     </row>
     <row r="501">
-      <c r="A501" s="117"/>
+      <c r="A501" s="116"/>
       <c r="G501" s="28"/>
       <c r="H501" s="28"/>
     </row>
     <row r="502">
-      <c r="A502" s="117"/>
+      <c r="A502" s="116"/>
       <c r="G502" s="28"/>
       <c r="H502" s="28"/>
     </row>
     <row r="503">
-      <c r="A503" s="117"/>
+      <c r="A503" s="116"/>
       <c r="G503" s="28"/>
       <c r="H503" s="28"/>
     </row>
     <row r="504">
-      <c r="A504" s="117"/>
+      <c r="A504" s="116"/>
       <c r="G504" s="28"/>
       <c r="H504" s="28"/>
     </row>
     <row r="505">
-      <c r="A505" s="117"/>
+      <c r="A505" s="116"/>
       <c r="G505" s="28"/>
       <c r="H505" s="28"/>
     </row>
     <row r="506">
-      <c r="A506" s="117"/>
+      <c r="A506" s="116"/>
       <c r="G506" s="28"/>
       <c r="H506" s="28"/>
     </row>
     <row r="507">
-      <c r="A507" s="117"/>
+      <c r="A507" s="116"/>
       <c r="G507" s="28"/>
       <c r="H507" s="28"/>
     </row>
     <row r="508">
-      <c r="A508" s="117"/>
+      <c r="A508" s="116"/>
       <c r="G508" s="28"/>
       <c r="H508" s="28"/>
     </row>
     <row r="509">
-      <c r="A509" s="117"/>
+      <c r="A509" s="116"/>
       <c r="G509" s="28"/>
       <c r="H509" s="28"/>
     </row>
     <row r="510">
-      <c r="A510" s="117"/>
+      <c r="A510" s="116"/>
       <c r="G510" s="28"/>
       <c r="H510" s="28"/>
     </row>
     <row r="511">
-      <c r="A511" s="117"/>
+      <c r="A511" s="116"/>
       <c r="G511" s="28"/>
       <c r="H511" s="28"/>
     </row>
     <row r="512">
-      <c r="A512" s="117"/>
+      <c r="A512" s="116"/>
       <c r="G512" s="28"/>
       <c r="H512" s="28"/>
     </row>
     <row r="513">
-      <c r="A513" s="117"/>
+      <c r="A513" s="116"/>
       <c r="G513" s="28"/>
       <c r="H513" s="28"/>
     </row>
     <row r="514">
-      <c r="A514" s="117"/>
+      <c r="A514" s="116"/>
       <c r="G514" s="28"/>
       <c r="H514" s="28"/>
     </row>
     <row r="515">
-      <c r="A515" s="117"/>
+      <c r="A515" s="116"/>
       <c r="G515" s="28"/>
       <c r="H515" s="28"/>
     </row>
     <row r="516">
-      <c r="A516" s="117"/>
+      <c r="A516" s="116"/>
       <c r="G516" s="28"/>
       <c r="H516" s="28"/>
     </row>
     <row r="517">
-      <c r="A517" s="117"/>
+      <c r="A517" s="116"/>
       <c r="G517" s="28"/>
       <c r="H517" s="28"/>
     </row>
     <row r="518">
-      <c r="A518" s="117"/>
+      <c r="A518" s="116"/>
       <c r="G518" s="28"/>
       <c r="H518" s="28"/>
     </row>
     <row r="519">
-      <c r="A519" s="117"/>
+      <c r="A519" s="116"/>
       <c r="G519" s="28"/>
       <c r="H519" s="28"/>
     </row>
     <row r="520">
-      <c r="A520" s="117"/>
+      <c r="A520" s="116"/>
       <c r="G520" s="28"/>
       <c r="H520" s="28"/>
     </row>
     <row r="521">
-      <c r="A521" s="117"/>
+      <c r="A521" s="116"/>
       <c r="G521" s="28"/>
       <c r="H521" s="28"/>
     </row>
     <row r="522">
-      <c r="A522" s="117"/>
+      <c r="A522" s="116"/>
       <c r="G522" s="28"/>
       <c r="H522" s="28"/>
     </row>
     <row r="523">
-      <c r="A523" s="117"/>
+      <c r="A523" s="116"/>
       <c r="G523" s="28"/>
       <c r="H523" s="28"/>
     </row>
     <row r="524">
-      <c r="A524" s="117"/>
+      <c r="A524" s="116"/>
       <c r="G524" s="28"/>
       <c r="H524" s="28"/>
     </row>
     <row r="525">
-      <c r="A525" s="117"/>
+      <c r="A525" s="116"/>
       <c r="G525" s="28"/>
       <c r="H525" s="28"/>
     </row>
     <row r="526">
-      <c r="A526" s="117"/>
+      <c r="A526" s="116"/>
       <c r="G526" s="28"/>
       <c r="H526" s="28"/>
     </row>
     <row r="527">
-      <c r="A527" s="117"/>
+      <c r="A527" s="116"/>
       <c r="G527" s="28"/>
       <c r="H527" s="28"/>
     </row>
     <row r="528">
-      <c r="A528" s="117"/>
+      <c r="A528" s="116"/>
       <c r="G528" s="28"/>
       <c r="H528" s="28"/>
     </row>
     <row r="529">
-      <c r="A529" s="117"/>
+      <c r="A529" s="116"/>
       <c r="G529" s="28"/>
       <c r="H529" s="28"/>
     </row>
     <row r="530">
-      <c r="A530" s="117"/>
+      <c r="A530" s="116"/>
       <c r="G530" s="28"/>
       <c r="H530" s="28"/>
     </row>
     <row r="531">
-      <c r="A531" s="117"/>
+      <c r="A531" s="116"/>
       <c r="G531" s="28"/>
       <c r="H531" s="28"/>
     </row>
     <row r="532">
-      <c r="A532" s="117"/>
+      <c r="A532" s="116"/>
       <c r="G532" s="28"/>
       <c r="H532" s="28"/>
     </row>
     <row r="533">
-      <c r="A533" s="117"/>
+      <c r="A533" s="116"/>
       <c r="G533" s="28"/>
       <c r="H533" s="28"/>
     </row>
     <row r="534">
-      <c r="A534" s="117"/>
+      <c r="A534" s="116"/>
       <c r="G534" s="28"/>
       <c r="H534" s="28"/>
     </row>
     <row r="535">
-      <c r="A535" s="117"/>
+      <c r="A535" s="116"/>
       <c r="G535" s="28"/>
       <c r="H535" s="28"/>
     </row>
     <row r="536">
-      <c r="A536" s="117"/>
+      <c r="A536" s="116"/>
       <c r="G536" s="28"/>
       <c r="H536" s="28"/>
     </row>
     <row r="537">
-      <c r="A537" s="117"/>
+      <c r="A537" s="116"/>
       <c r="G537" s="28"/>
       <c r="H537" s="28"/>
     </row>
     <row r="538">
-      <c r="A538" s="117"/>
+      <c r="A538" s="116"/>
       <c r="G538" s="28"/>
       <c r="H538" s="28"/>
     </row>
     <row r="539">
-      <c r="A539" s="117"/>
+      <c r="A539" s="116"/>
       <c r="G539" s="28"/>
       <c r="H539" s="28"/>
     </row>
     <row r="540">
-      <c r="A540" s="117"/>
+      <c r="A540" s="116"/>
       <c r="G540" s="28"/>
       <c r="H540" s="28"/>
     </row>
     <row r="541">
-      <c r="A541" s="117"/>
+      <c r="A541" s="116"/>
       <c r="G541" s="28"/>
       <c r="H541" s="28"/>
     </row>
     <row r="542">
-      <c r="A542" s="117"/>
+      <c r="A542" s="116"/>
       <c r="G542" s="28"/>
       <c r="H542" s="28"/>
     </row>
     <row r="543">
-      <c r="A543" s="117"/>
+      <c r="A543" s="116"/>
       <c r="G543" s="28"/>
       <c r="H543" s="28"/>
     </row>
     <row r="544">
-      <c r="A544" s="117"/>
+      <c r="A544" s="116"/>
       <c r="G544" s="28"/>
       <c r="H544" s="28"/>
     </row>
     <row r="545">
-      <c r="A545" s="117"/>
+      <c r="A545" s="116"/>
       <c r="G545" s="28"/>
       <c r="H545" s="28"/>
     </row>
     <row r="546">
-      <c r="A546" s="117"/>
+      <c r="A546" s="116"/>
       <c r="G546" s="28"/>
       <c r="H546" s="28"/>
     </row>
     <row r="547">
-      <c r="A547" s="117"/>
+      <c r="A547" s="116"/>
       <c r="G547" s="28"/>
       <c r="H547" s="28"/>
     </row>
     <row r="548">
-      <c r="A548" s="117"/>
+      <c r="A548" s="116"/>
       <c r="G548" s="28"/>
       <c r="H548" s="28"/>
     </row>
     <row r="549">
-      <c r="A549" s="117"/>
+      <c r="A549" s="116"/>
       <c r="G549" s="28"/>
       <c r="H549" s="28"/>
     </row>
     <row r="550">
-      <c r="A550" s="117"/>
+      <c r="A550" s="116"/>
       <c r="G550" s="28"/>
       <c r="H550" s="28"/>
     </row>
     <row r="551">
-      <c r="A551" s="117"/>
+      <c r="A551" s="116"/>
       <c r="G551" s="28"/>
       <c r="H551" s="28"/>
     </row>
     <row r="552">
-      <c r="A552" s="117"/>
+      <c r="A552" s="116"/>
       <c r="G552" s="28"/>
       <c r="H552" s="28"/>
     </row>
     <row r="553">
-      <c r="A553" s="117"/>
+      <c r="A553" s="116"/>
       <c r="G553" s="28"/>
       <c r="H553" s="28"/>
     </row>
     <row r="554">
-      <c r="A554" s="117"/>
+      <c r="A554" s="116"/>
       <c r="G554" s="28"/>
       <c r="H554" s="28"/>
     </row>
     <row r="555">
-      <c r="A555" s="117"/>
+      <c r="A555" s="116"/>
       <c r="G555" s="28"/>
       <c r="H555" s="28"/>
     </row>
     <row r="556">
-      <c r="A556" s="117"/>
+      <c r="A556" s="116"/>
       <c r="G556" s="28"/>
       <c r="H556" s="28"/>
     </row>
     <row r="557">
-      <c r="A557" s="117"/>
+      <c r="A557" s="116"/>
       <c r="G557" s="28"/>
       <c r="H557" s="28"/>
     </row>
     <row r="558">
-      <c r="A558" s="117"/>
+      <c r="A558" s="116"/>
       <c r="G558" s="28"/>
       <c r="H558" s="28"/>
     </row>
     <row r="559">
-      <c r="A559" s="117"/>
+      <c r="A559" s="116"/>
       <c r="G559" s="28"/>
       <c r="H559" s="28"/>
     </row>
     <row r="560">
-      <c r="A560" s="117"/>
+      <c r="A560" s="116"/>
       <c r="G560" s="28"/>
       <c r="H560" s="28"/>
     </row>
     <row r="561">
-      <c r="A561" s="117"/>
+      <c r="A561" s="116"/>
       <c r="G561" s="28"/>
       <c r="H561" s="28"/>
     </row>
     <row r="562">
-      <c r="A562" s="117"/>
+      <c r="A562" s="116"/>
       <c r="G562" s="28"/>
       <c r="H562" s="28"/>
     </row>
     <row r="563">
-      <c r="A563" s="117"/>
+      <c r="A563" s="116"/>
       <c r="G563" s="28"/>
       <c r="H563" s="28"/>
     </row>
     <row r="564">
-      <c r="A564" s="117"/>
+      <c r="A564" s="116"/>
       <c r="G564" s="28"/>
       <c r="H564" s="28"/>
     </row>
     <row r="565">
-      <c r="A565" s="117"/>
+      <c r="A565" s="116"/>
       <c r="G565" s="28"/>
       <c r="H565" s="28"/>
     </row>
     <row r="566">
-      <c r="A566" s="117"/>
+      <c r="A566" s="116"/>
       <c r="G566" s="28"/>
       <c r="H566" s="28"/>
     </row>
     <row r="567">
-      <c r="A567" s="117"/>
+      <c r="A567" s="116"/>
       <c r="G567" s="28"/>
       <c r="H567" s="28"/>
     </row>
     <row r="568">
-      <c r="A568" s="117"/>
+      <c r="A568" s="116"/>
       <c r="G568" s="28"/>
       <c r="H568" s="28"/>
     </row>
     <row r="569">
-      <c r="A569" s="117"/>
+      <c r="A569" s="116"/>
       <c r="G569" s="28"/>
       <c r="H569" s="28"/>
     </row>
     <row r="570">
-      <c r="A570" s="117"/>
+      <c r="A570" s="116"/>
       <c r="G570" s="28"/>
       <c r="H570" s="28"/>
     </row>
     <row r="571">
-      <c r="A571" s="117"/>
+      <c r="A571" s="116"/>
       <c r="G571" s="28"/>
       <c r="H571" s="28"/>
     </row>
     <row r="572">
-      <c r="A572" s="117"/>
+      <c r="A572" s="116"/>
       <c r="G572" s="28"/>
       <c r="H572" s="28"/>
     </row>
     <row r="573">
-      <c r="A573" s="117"/>
+      <c r="A573" s="116"/>
       <c r="G573" s="28"/>
       <c r="H573" s="28"/>
     </row>
     <row r="574">
-      <c r="A574" s="117"/>
+      <c r="A574" s="116"/>
       <c r="G574" s="28"/>
       <c r="H574" s="28"/>
     </row>
     <row r="575">
-      <c r="A575" s="117"/>
+      <c r="A575" s="116"/>
       <c r="G575" s="28"/>
       <c r="H575" s="28"/>
     </row>
     <row r="576">
-      <c r="A576" s="117"/>
+      <c r="A576" s="116"/>
       <c r="G576" s="28"/>
       <c r="H576" s="28"/>
     </row>
     <row r="577">
-      <c r="A577" s="117"/>
+      <c r="A577" s="116"/>
       <c r="G577" s="28"/>
       <c r="H577" s="28"/>
     </row>
     <row r="578">
-      <c r="A578" s="117"/>
+      <c r="A578" s="116"/>
       <c r="G578" s="28"/>
       <c r="H578" s="28"/>
     </row>
     <row r="579">
-      <c r="A579" s="117"/>
+      <c r="A579" s="116"/>
       <c r="G579" s="28"/>
       <c r="H579" s="28"/>
     </row>
     <row r="580">
-      <c r="A580" s="117"/>
+      <c r="A580" s="116"/>
       <c r="G580" s="28"/>
       <c r="H580" s="28"/>
     </row>
     <row r="581">
-      <c r="A581" s="117"/>
+      <c r="A581" s="116"/>
       <c r="G581" s="28"/>
       <c r="H581" s="28"/>
     </row>
     <row r="582">
-      <c r="A582" s="117"/>
+      <c r="A582" s="116"/>
       <c r="G582" s="28"/>
       <c r="H582" s="28"/>
     </row>
     <row r="583">
-      <c r="A583" s="117"/>
+      <c r="A583" s="116"/>
       <c r="G583" s="28"/>
       <c r="H583" s="28"/>
     </row>
     <row r="584">
-      <c r="A584" s="117"/>
+      <c r="A584" s="116"/>
       <c r="G584" s="28"/>
       <c r="H584" s="28"/>
     </row>
     <row r="585">
-      <c r="A585" s="117"/>
+      <c r="A585" s="116"/>
       <c r="G585" s="28"/>
       <c r="H585" s="28"/>
     </row>
     <row r="586">
-      <c r="A586" s="117"/>
+      <c r="A586" s="116"/>
       <c r="G586" s="28"/>
       <c r="H586" s="28"/>
     </row>
     <row r="587">
-      <c r="A587" s="117"/>
+      <c r="A587" s="116"/>
       <c r="G587" s="28"/>
       <c r="H587" s="28"/>
     </row>
     <row r="588">
-      <c r="A588" s="117"/>
+      <c r="A588" s="116"/>
       <c r="G588" s="28"/>
       <c r="H588" s="28"/>
     </row>
     <row r="589">
-      <c r="A589" s="117"/>
+      <c r="A589" s="116"/>
       <c r="G589" s="28"/>
       <c r="H589" s="28"/>
     </row>
     <row r="590">
-      <c r="A590" s="117"/>
+      <c r="A590" s="116"/>
       <c r="G590" s="28"/>
       <c r="H590" s="28"/>
     </row>
     <row r="591">
-      <c r="A591" s="117"/>
+      <c r="A591" s="116"/>
       <c r="G591" s="28"/>
       <c r="H591" s="28"/>
     </row>
     <row r="592">
-      <c r="A592" s="117"/>
+      <c r="A592" s="116"/>
       <c r="G592" s="28"/>
       <c r="H592" s="28"/>
     </row>
     <row r="593">
-      <c r="A593" s="117"/>
+      <c r="A593" s="116"/>
       <c r="G593" s="28"/>
       <c r="H593" s="28"/>
     </row>
     <row r="594">
-      <c r="A594" s="117"/>
+      <c r="A594" s="116"/>
       <c r="G594" s="28"/>
       <c r="H594" s="28"/>
     </row>
     <row r="595">
-      <c r="A595" s="117"/>
+      <c r="A595" s="116"/>
       <c r="G595" s="28"/>
       <c r="H595" s="28"/>
     </row>
     <row r="596">
-      <c r="A596" s="117"/>
+      <c r="A596" s="116"/>
       <c r="G596" s="28"/>
       <c r="H596" s="28"/>
     </row>
     <row r="597">
-      <c r="A597" s="117"/>
+      <c r="A597" s="116"/>
       <c r="G597" s="28"/>
       <c r="H597" s="28"/>
     </row>
     <row r="598">
-      <c r="A598" s="117"/>
+      <c r="A598" s="116"/>
       <c r="G598" s="28"/>
       <c r="H598" s="28"/>
     </row>
     <row r="599">
-      <c r="A599" s="117"/>
+      <c r="A599" s="116"/>
       <c r="G599" s="28"/>
       <c r="H599" s="28"/>
     </row>
     <row r="600">
-      <c r="A600" s="117"/>
+      <c r="A600" s="116"/>
       <c r="G600" s="28"/>
       <c r="H600" s="28"/>
     </row>
     <row r="601">
-      <c r="A601" s="117"/>
+      <c r="A601" s="116"/>
       <c r="G601" s="28"/>
       <c r="H601" s="28"/>
     </row>
     <row r="602">
-      <c r="A602" s="117"/>
+      <c r="A602" s="116"/>
       <c r="G602" s="28"/>
       <c r="H602" s="28"/>
     </row>
     <row r="603">
-      <c r="A603" s="117"/>
+      <c r="A603" s="116"/>
       <c r="G603" s="28"/>
       <c r="H603" s="28"/>
     </row>
     <row r="604">
-      <c r="A604" s="117"/>
+      <c r="A604" s="116"/>
       <c r="G604" s="28"/>
       <c r="H604" s="28"/>
     </row>
     <row r="605">
-      <c r="A605" s="117"/>
+      <c r="A605" s="116"/>
       <c r="G605" s="28"/>
       <c r="H605" s="28"/>
     </row>
     <row r="606">
-      <c r="A606" s="117"/>
+      <c r="A606" s="116"/>
       <c r="G606" s="28"/>
       <c r="H606" s="28"/>
     </row>
     <row r="607">
-      <c r="A607" s="117"/>
+      <c r="A607" s="116"/>
       <c r="G607" s="28"/>
       <c r="H607" s="28"/>
     </row>
     <row r="608">
-      <c r="A608" s="117"/>
+      <c r="A608" s="116"/>
       <c r="G608" s="28"/>
       <c r="H608" s="28"/>
     </row>
     <row r="609">
-      <c r="A609" s="117"/>
+      <c r="A609" s="116"/>
       <c r="G609" s="28"/>
       <c r="H609" s="28"/>
     </row>
     <row r="610">
-      <c r="A610" s="117"/>
+      <c r="A610" s="116"/>
       <c r="G610" s="28"/>
       <c r="H610" s="28"/>
     </row>
     <row r="611">
-      <c r="A611" s="117"/>
+      <c r="A611" s="116"/>
       <c r="G611" s="28"/>
       <c r="H611" s="28"/>
     </row>
     <row r="612">
-      <c r="A612" s="117"/>
+      <c r="A612" s="116"/>
       <c r="G612" s="28"/>
       <c r="H612" s="28"/>
     </row>
     <row r="613">
-      <c r="A613" s="117"/>
+      <c r="A613" s="116"/>
       <c r="G613" s="28"/>
       <c r="H613" s="28"/>
     </row>
     <row r="614">
-      <c r="A614" s="117"/>
+      <c r="A614" s="116"/>
       <c r="G614" s="28"/>
       <c r="H614" s="28"/>
     </row>
     <row r="615">
-      <c r="A615" s="117"/>
+      <c r="A615" s="116"/>
       <c r="G615" s="28"/>
       <c r="H615" s="28"/>
     </row>
     <row r="616">
-      <c r="A616" s="117"/>
+      <c r="A616" s="116"/>
       <c r="G616" s="28"/>
       <c r="H616" s="28"/>
     </row>
     <row r="617">
-      <c r="A617" s="117"/>
+      <c r="A617" s="116"/>
       <c r="G617" s="28"/>
       <c r="H617" s="28"/>
     </row>
     <row r="618">
-      <c r="A618" s="117"/>
+      <c r="A618" s="116"/>
       <c r="G618" s="28"/>
       <c r="H618" s="28"/>
     </row>
     <row r="619">
-      <c r="A619" s="117"/>
+      <c r="A619" s="116"/>
       <c r="G619" s="28"/>
       <c r="H619" s="28"/>
     </row>
     <row r="620">
-      <c r="A620" s="117"/>
+      <c r="A620" s="116"/>
       <c r="G620" s="28"/>
       <c r="H620" s="28"/>
     </row>
     <row r="621">
-      <c r="A621" s="117"/>
+      <c r="A621" s="116"/>
       <c r="G621" s="28"/>
       <c r="H621" s="28"/>
     </row>
     <row r="622">
-      <c r="A622" s="117"/>
+      <c r="A622" s="116"/>
       <c r="G622" s="28"/>
       <c r="H622" s="28"/>
     </row>
     <row r="623">
-      <c r="A623" s="117"/>
+      <c r="A623" s="116"/>
       <c r="G623" s="28"/>
       <c r="H623" s="28"/>
     </row>
     <row r="624">
-      <c r="A624" s="117"/>
+      <c r="A624" s="116"/>
       <c r="G624" s="28"/>
       <c r="H624" s="28"/>
     </row>
     <row r="625">
-      <c r="A625" s="117"/>
+      <c r="A625" s="116"/>
       <c r="G625" s="28"/>
       <c r="H625" s="28"/>
     </row>
     <row r="626">
-      <c r="A626" s="117"/>
+      <c r="A626" s="116"/>
       <c r="G626" s="28"/>
       <c r="H626" s="28"/>
     </row>
     <row r="627">
-      <c r="A627" s="117"/>
+      <c r="A627" s="116"/>
       <c r="G627" s="28"/>
       <c r="H627" s="28"/>
     </row>
     <row r="628">
-      <c r="A628" s="117"/>
+      <c r="A628" s="116"/>
       <c r="G628" s="28"/>
       <c r="H628" s="28"/>
     </row>
     <row r="629">
-      <c r="A629" s="117"/>
+      <c r="A629" s="116"/>
       <c r="G629" s="28"/>
       <c r="H629" s="28"/>
     </row>
     <row r="630">
-      <c r="A630" s="117"/>
+      <c r="A630" s="116"/>
       <c r="G630" s="28"/>
       <c r="H630" s="28"/>
     </row>
     <row r="631">
-      <c r="A631" s="117"/>
+      <c r="A631" s="116"/>
       <c r="G631" s="28"/>
       <c r="H631" s="28"/>
     </row>
     <row r="632">
-      <c r="A632" s="117"/>
+      <c r="A632" s="116"/>
       <c r="G632" s="28"/>
       <c r="H632" s="28"/>
     </row>
     <row r="633">
-      <c r="A633" s="117"/>
+      <c r="A633" s="116"/>
       <c r="G633" s="28"/>
       <c r="H633" s="28"/>
     </row>
     <row r="634">
-      <c r="A634" s="117"/>
+      <c r="A634" s="116"/>
       <c r="G634" s="28"/>
       <c r="H634" s="28"/>
     </row>
     <row r="635">
-      <c r="A635" s="117"/>
+      <c r="A635" s="116"/>
       <c r="G635" s="28"/>
       <c r="H635" s="28"/>
     </row>
     <row r="636">
-      <c r="A636" s="117"/>
+      <c r="A636" s="116"/>
       <c r="G636" s="28"/>
       <c r="H636" s="28"/>
     </row>
     <row r="637">
-      <c r="A637" s="117"/>
+      <c r="A637" s="116"/>
       <c r="G637" s="28"/>
       <c r="H637" s="28"/>
     </row>
     <row r="638">
-      <c r="A638" s="117"/>
+      <c r="A638" s="116"/>
       <c r="G638" s="28"/>
       <c r="H638" s="28"/>
     </row>
     <row r="639">
-      <c r="A639" s="117"/>
+      <c r="A639" s="116"/>
       <c r="G639" s="28"/>
       <c r="H639" s="28"/>
     </row>
     <row r="640">
-      <c r="A640" s="117"/>
+      <c r="A640" s="116"/>
       <c r="G640" s="28"/>
       <c r="H640" s="28"/>
     </row>
     <row r="641">
-      <c r="A641" s="117"/>
+      <c r="A641" s="116"/>
       <c r="G641" s="28"/>
       <c r="H641" s="28"/>
     </row>
     <row r="642">
-      <c r="A642" s="117"/>
+      <c r="A642" s="116"/>
       <c r="G642" s="28"/>
       <c r="H642" s="28"/>
     </row>
     <row r="643">
-      <c r="A643" s="117"/>
+      <c r="A643" s="116"/>
       <c r="G643" s="28"/>
       <c r="H643" s="28"/>
     </row>
     <row r="644">
-      <c r="A644" s="117"/>
+      <c r="A644" s="116"/>
       <c r="G644" s="28"/>
       <c r="H644" s="28"/>
     </row>
     <row r="645">
-      <c r="A645" s="117"/>
+      <c r="A645" s="116"/>
       <c r="G645" s="28"/>
       <c r="H645" s="28"/>
     </row>
     <row r="646">
-      <c r="A646" s="117"/>
+      <c r="A646" s="116"/>
       <c r="G646" s="28"/>
       <c r="H646" s="28"/>
     </row>
     <row r="647">
-      <c r="A647" s="117"/>
+      <c r="A647" s="116"/>
       <c r="G647" s="28"/>
       <c r="H647" s="28"/>
     </row>
     <row r="648">
-      <c r="A648" s="117"/>
+      <c r="A648" s="116"/>
       <c r="G648" s="28"/>
       <c r="H648" s="28"/>
     </row>
     <row r="649">
-      <c r="A649" s="117"/>
+      <c r="A649" s="116"/>
       <c r="G649" s="28"/>
       <c r="H649" s="28"/>
     </row>
     <row r="650">
-      <c r="A650" s="117"/>
+      <c r="A650" s="116"/>
       <c r="G650" s="28"/>
       <c r="H650" s="28"/>
     </row>
     <row r="651">
-      <c r="A651" s="117"/>
+      <c r="A651" s="116"/>
       <c r="G651" s="28"/>
       <c r="H651" s="28"/>
     </row>
     <row r="652">
-      <c r="A652" s="117"/>
+      <c r="A652" s="116"/>
       <c r="G652" s="28"/>
       <c r="H652" s="28"/>
     </row>
     <row r="653">
-      <c r="A653" s="117"/>
+      <c r="A653" s="116"/>
       <c r="G653" s="28"/>
       <c r="H653" s="28"/>
     </row>
     <row r="654">
-      <c r="A654" s="117"/>
+      <c r="A654" s="116"/>
       <c r="G654" s="28"/>
       <c r="H654" s="28"/>
     </row>
     <row r="655">
-      <c r="A655" s="117"/>
+      <c r="A655" s="116"/>
       <c r="G655" s="28"/>
       <c r="H655" s="28"/>
     </row>
     <row r="656">
-      <c r="A656" s="117"/>
+      <c r="A656" s="116"/>
       <c r="G656" s="28"/>
       <c r="H656" s="28"/>
     </row>
     <row r="657">
-      <c r="A657" s="117"/>
+      <c r="A657" s="116"/>
       <c r="G657" s="28"/>
       <c r="H657" s="28"/>
     </row>
     <row r="658">
-      <c r="A658" s="117"/>
+      <c r="A658" s="116"/>
       <c r="G658" s="28"/>
       <c r="H658" s="28"/>
     </row>
     <row r="659">
-      <c r="A659" s="117"/>
+      <c r="A659" s="116"/>
       <c r="G659" s="28"/>
       <c r="H659" s="28"/>
     </row>
     <row r="660">
-      <c r="A660" s="117"/>
+      <c r="A660" s="116"/>
       <c r="G660" s="28"/>
       <c r="H660" s="28"/>
     </row>
     <row r="661">
-      <c r="A661" s="117"/>
+      <c r="A661" s="116"/>
       <c r="G661" s="28"/>
       <c r="H661" s="28"/>
     </row>
     <row r="662">
-      <c r="A662" s="117"/>
+      <c r="A662" s="116"/>
       <c r="G662" s="28"/>
       <c r="H662" s="28"/>
     </row>
     <row r="663">
-      <c r="A663" s="117"/>
+      <c r="A663" s="116"/>
       <c r="G663" s="28"/>
       <c r="H663" s="28"/>
     </row>
     <row r="664">
-      <c r="A664" s="117"/>
+      <c r="A664" s="116"/>
       <c r="G664" s="28"/>
       <c r="H664" s="28"/>
     </row>
     <row r="665">
-      <c r="A665" s="117"/>
+      <c r="A665" s="116"/>
       <c r="G665" s="28"/>
       <c r="H665" s="28"/>
     </row>
     <row r="666">
-      <c r="A666" s="117"/>
+      <c r="A666" s="116"/>
       <c r="G666" s="28"/>
       <c r="H666" s="28"/>
     </row>
     <row r="667">
-      <c r="A667" s="117"/>
+      <c r="A667" s="116"/>
       <c r="G667" s="28"/>
       <c r="H667" s="28"/>
     </row>
     <row r="668">
-      <c r="A668" s="117"/>
+      <c r="A668" s="116"/>
       <c r="G668" s="28"/>
       <c r="H668" s="28"/>
     </row>
     <row r="669">
-      <c r="A669" s="117"/>
+      <c r="A669" s="116"/>
       <c r="G669" s="28"/>
       <c r="H669" s="28"/>
     </row>
     <row r="670">
-      <c r="A670" s="117"/>
+      <c r="A670" s="116"/>
       <c r="G670" s="28"/>
       <c r="H670" s="28"/>
     </row>
     <row r="671">
-      <c r="A671" s="117"/>
+      <c r="A671" s="116"/>
       <c r="G671" s="28"/>
       <c r="H671" s="28"/>
     </row>
     <row r="672">
-      <c r="A672" s="117"/>
+      <c r="A672" s="116"/>
       <c r="G672" s="28"/>
       <c r="H672" s="28"/>
     </row>
     <row r="673">
-      <c r="A673" s="117"/>
+      <c r="A673" s="116"/>
       <c r="G673" s="28"/>
       <c r="H673" s="28"/>
     </row>
     <row r="674">
-      <c r="A674" s="117"/>
+      <c r="A674" s="116"/>
       <c r="G674" s="28"/>
       <c r="H674" s="28"/>
     </row>
     <row r="675">
-      <c r="A675" s="117"/>
+      <c r="A675" s="116"/>
       <c r="G675" s="28"/>
       <c r="H675" s="28"/>
     </row>
     <row r="676">
-      <c r="A676" s="117"/>
+      <c r="A676" s="116"/>
       <c r="G676" s="28"/>
       <c r="H676" s="28"/>
     </row>
     <row r="677">
-      <c r="A677" s="117"/>
+      <c r="A677" s="116"/>
       <c r="G677" s="28"/>
       <c r="H677" s="28"/>
     </row>
     <row r="678">
-      <c r="A678" s="117"/>
+      <c r="A678" s="116"/>
       <c r="G678" s="28"/>
       <c r="H678" s="28"/>
     </row>
     <row r="679">
-      <c r="A679" s="117"/>
+      <c r="A679" s="116"/>
       <c r="G679" s="28"/>
       <c r="H679" s="28"/>
     </row>
     <row r="680">
-      <c r="A680" s="117"/>
+      <c r="A680" s="116"/>
       <c r="G680" s="28"/>
       <c r="H680" s="28"/>
     </row>
     <row r="681">
-      <c r="A681" s="117"/>
+      <c r="A681" s="116"/>
       <c r="G681" s="28"/>
       <c r="H681" s="28"/>
     </row>
     <row r="682">
-      <c r="A682" s="117"/>
+      <c r="A682" s="116"/>
       <c r="G682" s="28"/>
       <c r="H682" s="28"/>
     </row>
     <row r="683">
-      <c r="A683" s="117"/>
+      <c r="A683" s="116"/>
       <c r="G683" s="28"/>
       <c r="H683" s="28"/>
     </row>
     <row r="684">
-      <c r="A684" s="117"/>
+      <c r="A684" s="116"/>
       <c r="G684" s="28"/>
       <c r="H684" s="28"/>
     </row>
     <row r="685">
-      <c r="A685" s="117"/>
+      <c r="A685" s="116"/>
       <c r="G685" s="28"/>
       <c r="H685" s="28"/>
     </row>
     <row r="686">
-      <c r="A686" s="117"/>
+      <c r="A686" s="116"/>
       <c r="G686" s="28"/>
       <c r="H686" s="28"/>
     </row>
     <row r="687">
-      <c r="A687" s="117"/>
+      <c r="A687" s="116"/>
       <c r="G687" s="28"/>
       <c r="H687" s="28"/>
     </row>
     <row r="688">
-      <c r="A688" s="117"/>
+      <c r="A688" s="116"/>
       <c r="G688" s="28"/>
       <c r="H688" s="28"/>
     </row>
     <row r="689">
-      <c r="A689" s="117"/>
+      <c r="A689" s="116"/>
       <c r="G689" s="28"/>
       <c r="H689" s="28"/>
     </row>
     <row r="690">
-      <c r="A690" s="117"/>
+      <c r="A690" s="116"/>
       <c r="G690" s="28"/>
       <c r="H690" s="28"/>
     </row>
     <row r="691">
-      <c r="A691" s="117"/>
+      <c r="A691" s="116"/>
       <c r="G691" s="28"/>
       <c r="H691" s="28"/>
     </row>
     <row r="692">
-      <c r="A692" s="117"/>
+      <c r="A692" s="116"/>
       <c r="G692" s="28"/>
       <c r="H692" s="28"/>
     </row>
     <row r="693">
-      <c r="A693" s="117"/>
+      <c r="A693" s="116"/>
       <c r="G693" s="28"/>
       <c r="H693" s="28"/>
     </row>
     <row r="694">
-      <c r="A694" s="117"/>
+      <c r="A694" s="116"/>
       <c r="G694" s="28"/>
       <c r="H694" s="28"/>
     </row>
     <row r="695">
-      <c r="A695" s="117"/>
+      <c r="A695" s="116"/>
       <c r="G695" s="28"/>
       <c r="H695" s="28"/>
     </row>
     <row r="696">
-      <c r="A696" s="117"/>
+      <c r="A696" s="116"/>
       <c r="G696" s="28"/>
       <c r="H696" s="28"/>
     </row>
     <row r="697">
-      <c r="A697" s="117"/>
+      <c r="A697" s="116"/>
       <c r="G697" s="28"/>
       <c r="H697" s="28"/>
     </row>
     <row r="698">
-      <c r="A698" s="117"/>
+      <c r="A698" s="116"/>
       <c r="G698" s="28"/>
       <c r="H698" s="28"/>
     </row>
     <row r="699">
-      <c r="A699" s="117"/>
+      <c r="A699" s="116"/>
       <c r="G699" s="28"/>
       <c r="H699" s="28"/>
     </row>
     <row r="700">
-      <c r="A700" s="117"/>
+      <c r="A700" s="116"/>
       <c r="G700" s="28"/>
       <c r="H700" s="28"/>
     </row>
     <row r="701">
-      <c r="A701" s="117"/>
+      <c r="A701" s="116"/>
       <c r="G701" s="28"/>
       <c r="H701" s="28"/>
     </row>
     <row r="702">
-      <c r="A702" s="117"/>
+      <c r="A702" s="116"/>
       <c r="G702" s="28"/>
       <c r="H702" s="28"/>
     </row>
     <row r="703">
-      <c r="A703" s="117"/>
+      <c r="A703" s="116"/>
       <c r="G703" s="28"/>
       <c r="H703" s="28"/>
     </row>
     <row r="704">
-      <c r="A704" s="117"/>
+      <c r="A704" s="116"/>
       <c r="G704" s="28"/>
       <c r="H704" s="28"/>
     </row>
     <row r="705">
-      <c r="A705" s="117"/>
+      <c r="A705" s="116"/>
       <c r="G705" s="28"/>
       <c r="H705" s="28"/>
     </row>
     <row r="706">
-      <c r="A706" s="117"/>
+      <c r="A706" s="116"/>
       <c r="G706" s="28"/>
       <c r="H706" s="28"/>
     </row>
     <row r="707">
-      <c r="A707" s="117"/>
+      <c r="A707" s="116"/>
       <c r="G707" s="28"/>
       <c r="H707" s="28"/>
     </row>
     <row r="708">
-      <c r="A708" s="117"/>
+      <c r="A708" s="116"/>
       <c r="G708" s="28"/>
       <c r="H708" s="28"/>
     </row>
     <row r="709">
-      <c r="A709" s="117"/>
+      <c r="A709" s="116"/>
       <c r="G709" s="28"/>
       <c r="H709" s="28"/>
     </row>
     <row r="710">
-      <c r="A710" s="117"/>
+      <c r="A710" s="116"/>
       <c r="G710" s="28"/>
       <c r="H710" s="28"/>
     </row>
     <row r="711">
-      <c r="A711" s="117"/>
+      <c r="A711" s="116"/>
       <c r="G711" s="28"/>
       <c r="H711" s="28"/>
     </row>
     <row r="712">
-      <c r="A712" s="117"/>
+      <c r="A712" s="116"/>
       <c r="G712" s="28"/>
       <c r="H712" s="28"/>
     </row>
     <row r="713">
-      <c r="A713" s="117"/>
+      <c r="A713" s="116"/>
       <c r="G713" s="28"/>
       <c r="H713" s="28"/>
     </row>
     <row r="714">
-      <c r="A714" s="117"/>
+      <c r="A714" s="116"/>
       <c r="G714" s="28"/>
       <c r="H714" s="28"/>
     </row>
     <row r="715">
-      <c r="A715" s="117"/>
+      <c r="A715" s="116"/>
       <c r="G715" s="28"/>
       <c r="H715" s="28"/>
     </row>
     <row r="716">
-      <c r="A716" s="117"/>
+      <c r="A716" s="116"/>
       <c r="G716" s="28"/>
       <c r="H716" s="28"/>
     </row>
     <row r="717">
-      <c r="A717" s="117"/>
+      <c r="A717" s="116"/>
       <c r="G717" s="28"/>
       <c r="H717" s="28"/>
     </row>
     <row r="718">
-      <c r="A718" s="117"/>
+      <c r="A718" s="116"/>
       <c r="G718" s="28"/>
       <c r="H718" s="28"/>
     </row>
     <row r="719">
-      <c r="A719" s="117"/>
+      <c r="A719" s="116"/>
       <c r="G719" s="28"/>
       <c r="H719" s="28"/>
     </row>
     <row r="720">
-      <c r="A720" s="117"/>
+      <c r="A720" s="116"/>
       <c r="G720" s="28"/>
       <c r="H720" s="28"/>
     </row>
     <row r="721">
-      <c r="A721" s="117"/>
+      <c r="A721" s="116"/>
       <c r="G721" s="28"/>
       <c r="H721" s="28"/>
     </row>
     <row r="722">
-      <c r="A722" s="117"/>
+      <c r="A722" s="116"/>
       <c r="G722" s="28"/>
       <c r="H722" s="28"/>
     </row>
     <row r="723">
-      <c r="A723" s="117"/>
+      <c r="A723" s="116"/>
       <c r="G723" s="28"/>
       <c r="H723" s="28"/>
     </row>
     <row r="724">
-      <c r="A724" s="117"/>
+      <c r="A724" s="116"/>
       <c r="G724" s="28"/>
       <c r="H724" s="28"/>
     </row>
     <row r="725">
-      <c r="A725" s="117"/>
+      <c r="A725" s="116"/>
       <c r="G725" s="28"/>
       <c r="H725" s="28"/>
     </row>
     <row r="726">
-      <c r="A726" s="117"/>
+      <c r="A726" s="116"/>
       <c r="G726" s="28"/>
       <c r="H726" s="28"/>
     </row>
     <row r="727">
-      <c r="A727" s="117"/>
+      <c r="A727" s="116"/>
       <c r="G727" s="28"/>
       <c r="H727" s="28"/>
     </row>
     <row r="728">
-      <c r="A728" s="117"/>
+      <c r="A728" s="116"/>
       <c r="G728" s="28"/>
       <c r="H728" s="28"/>
     </row>
     <row r="729">
-      <c r="A729" s="117"/>
+      <c r="A729" s="116"/>
       <c r="G729" s="28"/>
       <c r="H729" s="28"/>
     </row>
     <row r="730">
-      <c r="A730" s="117"/>
+      <c r="A730" s="116"/>
       <c r="G730" s="28"/>
       <c r="H730" s="28"/>
     </row>
     <row r="731">
-      <c r="A731" s="117"/>
+      <c r="A731" s="116"/>
       <c r="G731" s="28"/>
       <c r="H731" s="28"/>
     </row>
     <row r="732">
-      <c r="A732" s="117"/>
+      <c r="A732" s="116"/>
       <c r="G732" s="28"/>
       <c r="H732" s="28"/>
     </row>
     <row r="733">
-      <c r="A733" s="117"/>
+      <c r="A733" s="116"/>
       <c r="G733" s="28"/>
       <c r="H733" s="28"/>
     </row>
     <row r="734">
-      <c r="A734" s="117"/>
+      <c r="A734" s="116"/>
       <c r="G734" s="28"/>
       <c r="H734" s="28"/>
     </row>
     <row r="735">
-      <c r="A735" s="117"/>
+      <c r="A735" s="116"/>
       <c r="G735" s="28"/>
       <c r="H735" s="28"/>
     </row>
     <row r="736">
-      <c r="A736" s="117"/>
+      <c r="A736" s="116"/>
       <c r="G736" s="28"/>
       <c r="H736" s="28"/>
     </row>
     <row r="737">
-      <c r="A737" s="117"/>
+      <c r="A737" s="116"/>
       <c r="G737" s="28"/>
       <c r="H737" s="28"/>
     </row>
     <row r="738">
-      <c r="A738" s="117"/>
+      <c r="A738" s="116"/>
       <c r="G738" s="28"/>
       <c r="H738" s="28"/>
     </row>
     <row r="739">
-      <c r="A739" s="117"/>
+      <c r="A739" s="116"/>
       <c r="G739" s="28"/>
       <c r="H739" s="28"/>
     </row>
     <row r="740">
-      <c r="A740" s="117"/>
+      <c r="A740" s="116"/>
       <c r="G740" s="28"/>
       <c r="H740" s="28"/>
     </row>
     <row r="741">
-      <c r="A741" s="117"/>
+      <c r="A741" s="116"/>
       <c r="G741" s="28"/>
       <c r="H741" s="28"/>
     </row>
     <row r="742">
-      <c r="A742" s="117"/>
+      <c r="A742" s="116"/>
       <c r="G742" s="28"/>
       <c r="H742" s="28"/>
     </row>
     <row r="743">
-      <c r="A743" s="117"/>
+      <c r="A743" s="116"/>
       <c r="G743" s="28"/>
       <c r="H743" s="28"/>
     </row>
     <row r="744">
-      <c r="A744" s="117"/>
+      <c r="A744" s="116"/>
       <c r="G744" s="28"/>
       <c r="H744" s="28"/>
     </row>
     <row r="745">
-      <c r="A745" s="117"/>
+      <c r="A745" s="116"/>
       <c r="G745" s="28"/>
       <c r="H745" s="28"/>
     </row>
     <row r="746">
-      <c r="A746" s="117"/>
+      <c r="A746" s="116"/>
       <c r="G746" s="28"/>
       <c r="H746" s="28"/>
     </row>
     <row r="747">
-      <c r="A747" s="117"/>
+      <c r="A747" s="116"/>
       <c r="G747" s="28"/>
       <c r="H747" s="28"/>
     </row>
     <row r="748">
-      <c r="A748" s="117"/>
+      <c r="A748" s="116"/>
       <c r="G748" s="28"/>
       <c r="H748" s="28"/>
     </row>
     <row r="749">
-      <c r="A749" s="117"/>
+      <c r="A749" s="116"/>
       <c r="G749" s="28"/>
       <c r="H749" s="28"/>
     </row>
     <row r="750">
-      <c r="A750" s="117"/>
+      <c r="A750" s="116"/>
       <c r="G750" s="28"/>
       <c r="H750" s="28"/>
     </row>
     <row r="751">
-      <c r="A751" s="117"/>
+      <c r="A751" s="116"/>
       <c r="G751" s="28"/>
       <c r="H751" s="28"/>
     </row>
     <row r="752">
-      <c r="A752" s="117"/>
+      <c r="A752" s="116"/>
       <c r="G752" s="28"/>
       <c r="H752" s="28"/>
     </row>
     <row r="753">
-      <c r="A753" s="117"/>
+      <c r="A753" s="116"/>
       <c r="G753" s="28"/>
       <c r="H753" s="28"/>
     </row>
     <row r="754">
-      <c r="A754" s="117"/>
+      <c r="A754" s="116"/>
       <c r="G754" s="28"/>
       <c r="H754" s="28"/>
     </row>
     <row r="755">
-      <c r="A755" s="117"/>
+      <c r="A755" s="116"/>
       <c r="G755" s="28"/>
       <c r="H755" s="28"/>
     </row>
     <row r="756">
-      <c r="A756" s="117"/>
+      <c r="A756" s="116"/>
       <c r="G756" s="28"/>
       <c r="H756" s="28"/>
     </row>
     <row r="757">
-      <c r="A757" s="117"/>
+      <c r="A757" s="116"/>
       <c r="G757" s="28"/>
       <c r="H757" s="28"/>
     </row>
     <row r="758">
-      <c r="A758" s="117"/>
+      <c r="A758" s="116"/>
       <c r="G758" s="28"/>
       <c r="H758" s="28"/>
     </row>
     <row r="759">
-      <c r="A759" s="117"/>
+      <c r="A759" s="116"/>
       <c r="G759" s="28"/>
       <c r="H759" s="28"/>
     </row>
     <row r="760">
-      <c r="A760" s="117"/>
+      <c r="A760" s="116"/>
       <c r="G760" s="28"/>
       <c r="H760" s="28"/>
     </row>
     <row r="761">
-      <c r="A761" s="117"/>
+      <c r="A761" s="116"/>
       <c r="G761" s="28"/>
       <c r="H761" s="28"/>
     </row>
     <row r="762">
-      <c r="A762" s="117"/>
+      <c r="A762" s="116"/>
       <c r="G762" s="28"/>
       <c r="H762" s="28"/>
     </row>
     <row r="763">
-      <c r="A763" s="117"/>
+      <c r="A763" s="116"/>
       <c r="G763" s="28"/>
       <c r="H763" s="28"/>
     </row>
     <row r="764">
-      <c r="A764" s="117"/>
+      <c r="A764" s="116"/>
       <c r="G764" s="28"/>
       <c r="H764" s="28"/>
     </row>
     <row r="765">
-      <c r="A765" s="117"/>
+      <c r="A765" s="116"/>
       <c r="G765" s="28"/>
       <c r="H765" s="28"/>
     </row>
     <row r="766">
-      <c r="A766" s="117"/>
+      <c r="A766" s="116"/>
       <c r="G766" s="28"/>
       <c r="H766" s="28"/>
     </row>
     <row r="767">
-      <c r="A767" s="117"/>
+      <c r="A767" s="116"/>
       <c r="G767" s="28"/>
       <c r="H767" s="28"/>
     </row>
     <row r="768">
-      <c r="A768" s="117"/>
+      <c r="A768" s="116"/>
       <c r="G768" s="28"/>
       <c r="H768" s="28"/>
     </row>
     <row r="769">
-      <c r="A769" s="117"/>
+      <c r="A769" s="116"/>
       <c r="G769" s="28"/>
       <c r="H769" s="28"/>
     </row>
     <row r="770">
-      <c r="A770" s="117"/>
+      <c r="A770" s="116"/>
       <c r="G770" s="28"/>
       <c r="H770" s="28"/>
     </row>
     <row r="771">
-      <c r="A771" s="117"/>
+      <c r="A771" s="116"/>
       <c r="G771" s="28"/>
       <c r="H771" s="28"/>
     </row>
     <row r="772">
-      <c r="A772" s="117"/>
+      <c r="A772" s="116"/>
       <c r="G772" s="28"/>
       <c r="H772" s="28"/>
     </row>
     <row r="773">
-      <c r="A773" s="117"/>
+      <c r="A773" s="116"/>
       <c r="G773" s="28"/>
       <c r="H773" s="28"/>
     </row>
     <row r="774">
-      <c r="A774" s="117"/>
+      <c r="A774" s="116"/>
       <c r="G774" s="28"/>
       <c r="H774" s="28"/>
     </row>
     <row r="775">
-      <c r="A775" s="117"/>
+      <c r="A775" s="116"/>
       <c r="G775" s="28"/>
       <c r="H775" s="28"/>
     </row>
     <row r="776">
-      <c r="A776" s="117"/>
+      <c r="A776" s="116"/>
       <c r="G776" s="28"/>
       <c r="H776" s="28"/>
     </row>
     <row r="777">
-      <c r="A777" s="117"/>
+      <c r="A777" s="116"/>
       <c r="G777" s="28"/>
       <c r="H777" s="28"/>
     </row>
     <row r="778">
-      <c r="A778" s="117"/>
+      <c r="A778" s="116"/>
       <c r="G778" s="28"/>
       <c r="H778" s="28"/>
     </row>
     <row r="779">
-      <c r="A779" s="117"/>
+      <c r="A779" s="116"/>
       <c r="G779" s="28"/>
       <c r="H779" s="28"/>
     </row>
     <row r="780">
-      <c r="A780" s="117"/>
+      <c r="A780" s="116"/>
       <c r="G780" s="28"/>
       <c r="H780" s="28"/>
     </row>
     <row r="781">
-      <c r="A781" s="117"/>
+      <c r="A781" s="116"/>
       <c r="G781" s="28"/>
       <c r="H781" s="28"/>
     </row>
     <row r="782">
-      <c r="A782" s="117"/>
+      <c r="A782" s="116"/>
       <c r="G782" s="28"/>
       <c r="H782" s="28"/>
     </row>
     <row r="783">
-      <c r="A783" s="117"/>
+      <c r="A783" s="116"/>
       <c r="G783" s="28"/>
       <c r="H783" s="28"/>
     </row>
     <row r="784">
-      <c r="A784" s="117"/>
+      <c r="A784" s="116"/>
       <c r="G784" s="28"/>
       <c r="H784" s="28"/>
     </row>
     <row r="785">
-      <c r="A785" s="117"/>
+      <c r="A785" s="116"/>
       <c r="G785" s="28"/>
       <c r="H785" s="28"/>
     </row>
     <row r="786">
-      <c r="A786" s="117"/>
+      <c r="A786" s="116"/>
       <c r="G786" s="28"/>
       <c r="H786" s="28"/>
     </row>
     <row r="787">
-      <c r="A787" s="117"/>
+      <c r="A787" s="116"/>
       <c r="G787" s="28"/>
       <c r="H787" s="28"/>
     </row>
     <row r="788">
-      <c r="A788" s="117"/>
+      <c r="A788" s="116"/>
       <c r="G788" s="28"/>
       <c r="H788" s="28"/>
     </row>
     <row r="789">
-      <c r="A789" s="117"/>
+      <c r="A789" s="116"/>
       <c r="G789" s="28"/>
       <c r="H789" s="28"/>
     </row>
     <row r="790">
-      <c r="A790" s="117"/>
+      <c r="A790" s="116"/>
       <c r="G790" s="28"/>
       <c r="H790" s="28"/>
     </row>
     <row r="791">
-      <c r="A791" s="117"/>
+      <c r="A791" s="116"/>
       <c r="G791" s="28"/>
       <c r="H791" s="28"/>
     </row>
     <row r="792">
-      <c r="A792" s="117"/>
+      <c r="A792" s="116"/>
       <c r="G792" s="28"/>
       <c r="H792" s="28"/>
     </row>
     <row r="793">
-      <c r="A793" s="117"/>
+      <c r="A793" s="116"/>
       <c r="G793" s="28"/>
       <c r="H793" s="28"/>
     </row>
     <row r="794">
-      <c r="A794" s="117"/>
+      <c r="A794" s="116"/>
       <c r="G794" s="28"/>
       <c r="H794" s="28"/>
     </row>
     <row r="795">
-      <c r="A795" s="117"/>
+      <c r="A795" s="116"/>
       <c r="G795" s="28"/>
       <c r="H795" s="28"/>
     </row>
     <row r="796">
-      <c r="A796" s="117"/>
+      <c r="A796" s="116"/>
       <c r="G796" s="28"/>
       <c r="H796" s="28"/>
     </row>
     <row r="797">
-      <c r="A797" s="117"/>
+      <c r="A797" s="116"/>
       <c r="G797" s="28"/>
       <c r="H797" s="28"/>
     </row>
     <row r="798">
-      <c r="A798" s="117"/>
+      <c r="A798" s="116"/>
       <c r="G798" s="28"/>
       <c r="H798" s="28"/>
     </row>
     <row r="799">
-      <c r="A799" s="117"/>
+      <c r="A799" s="116"/>
       <c r="G799" s="28"/>
       <c r="H799" s="28"/>
     </row>
     <row r="800">
-      <c r="A800" s="117"/>
+      <c r="A800" s="116"/>
       <c r="G800" s="28"/>
       <c r="H800" s="28"/>
     </row>
     <row r="801">
-      <c r="A801" s="117"/>
+      <c r="A801" s="116"/>
       <c r="G801" s="28"/>
       <c r="H801" s="28"/>
     </row>
     <row r="802">
-      <c r="A802" s="117"/>
+      <c r="A802" s="116"/>
       <c r="G802" s="28"/>
       <c r="H802" s="28"/>
     </row>
     <row r="803">
-      <c r="A803" s="117"/>
+      <c r="A803" s="116"/>
       <c r="G803" s="28"/>
       <c r="H803" s="28"/>
     </row>
     <row r="804">
-      <c r="A804" s="117"/>
+      <c r="A804" s="116"/>
       <c r="G804" s="28"/>
       <c r="H804" s="28"/>
     </row>
     <row r="805">
-      <c r="A805" s="117"/>
+      <c r="A805" s="116"/>
       <c r="G805" s="28"/>
       <c r="H805" s="28"/>
     </row>
     <row r="806">
-      <c r="A806" s="117"/>
+      <c r="A806" s="116"/>
       <c r="G806" s="28"/>
       <c r="H806" s="28"/>
     </row>
     <row r="807">
-      <c r="A807" s="117"/>
+      <c r="A807" s="116"/>
       <c r="G807" s="28"/>
       <c r="H807" s="28"/>
     </row>
     <row r="808">
-      <c r="A808" s="117"/>
+      <c r="A808" s="116"/>
       <c r="G808" s="28"/>
       <c r="H808" s="28"/>
     </row>
     <row r="809">
-      <c r="A809" s="117"/>
+      <c r="A809" s="116"/>
       <c r="G809" s="28"/>
       <c r="H809" s="28"/>
     </row>
     <row r="810">
-      <c r="A810" s="117"/>
+      <c r="A810" s="116"/>
       <c r="G810" s="28"/>
       <c r="H810" s="28"/>
     </row>
     <row r="811">
-      <c r="A811" s="117"/>
+      <c r="A811" s="116"/>
       <c r="G811" s="28"/>
       <c r="H811" s="28"/>
     </row>
     <row r="812">
-      <c r="A812" s="117"/>
+      <c r="A812" s="116"/>
       <c r="G812" s="28"/>
       <c r="H812" s="28"/>
     </row>
     <row r="813">
-      <c r="A813" s="117"/>
+      <c r="A813" s="116"/>
       <c r="G813" s="28"/>
       <c r="H813" s="28"/>
     </row>
     <row r="814">
-      <c r="A814" s="117"/>
+      <c r="A814" s="116"/>
       <c r="G814" s="28"/>
       <c r="H814" s="28"/>
     </row>
     <row r="815">
-      <c r="A815" s="117"/>
+      <c r="A815" s="116"/>
       <c r="G815" s="28"/>
       <c r="H815" s="28"/>
     </row>
     <row r="816">
-      <c r="A816" s="117"/>
+      <c r="A816" s="116"/>
       <c r="G816" s="28"/>
       <c r="H816" s="28"/>
     </row>
     <row r="817">
-      <c r="A817" s="117"/>
+      <c r="A817" s="116"/>
       <c r="G817" s="28"/>
       <c r="H817" s="28"/>
     </row>
     <row r="818">
-      <c r="A818" s="117"/>
+      <c r="A818" s="116"/>
       <c r="G818" s="28"/>
       <c r="H818" s="28"/>
     </row>
     <row r="819">
-      <c r="A819" s="117"/>
+      <c r="A819" s="116"/>
       <c r="G819" s="28"/>
       <c r="H819" s="28"/>
     </row>
     <row r="820">
-      <c r="A820" s="117"/>
+      <c r="A820" s="116"/>
       <c r="G820" s="28"/>
       <c r="H820" s="28"/>
     </row>
     <row r="821">
-      <c r="A821" s="117"/>
+      <c r="A821" s="116"/>
       <c r="G821" s="28"/>
       <c r="H821" s="28"/>
     </row>
     <row r="822">
-      <c r="A822" s="117"/>
+      <c r="A822" s="116"/>
       <c r="G822" s="28"/>
       <c r="H822" s="28"/>
     </row>
     <row r="823">
-      <c r="A823" s="117"/>
+      <c r="A823" s="116"/>
       <c r="G823" s="28"/>
       <c r="H823" s="28"/>
     </row>
     <row r="824">
-      <c r="A824" s="117"/>
+      <c r="A824" s="116"/>
       <c r="G824" s="28"/>
       <c r="H824" s="28"/>
     </row>
     <row r="825">
-      <c r="A825" s="117"/>
+      <c r="A825" s="116"/>
       <c r="G825" s="28"/>
       <c r="H825" s="28"/>
     </row>
     <row r="826">
-      <c r="A826" s="117"/>
+      <c r="A826" s="116"/>
       <c r="G826" s="28"/>
       <c r="H826" s="28"/>
     </row>
     <row r="827">
-      <c r="A827" s="117"/>
+      <c r="A827" s="116"/>
       <c r="G827" s="28"/>
       <c r="H827" s="28"/>
     </row>
     <row r="828">
-      <c r="A828" s="117"/>
+      <c r="A828" s="116"/>
       <c r="G828" s="28"/>
       <c r="H828" s="28"/>
     </row>
     <row r="829">
-      <c r="A829" s="117"/>
+      <c r="A829" s="116"/>
       <c r="G829" s="28"/>
       <c r="H829" s="28"/>
     </row>
     <row r="830">
-      <c r="A830" s="117"/>
+      <c r="A830" s="116"/>
       <c r="G830" s="28"/>
       <c r="H830" s="28"/>
     </row>
     <row r="831">
-      <c r="A831" s="117"/>
+      <c r="A831" s="116"/>
       <c r="G831" s="28"/>
       <c r="H831" s="28"/>
     </row>
     <row r="832">
-      <c r="A832" s="117"/>
+      <c r="A832" s="116"/>
       <c r="G832" s="28"/>
       <c r="H832" s="28"/>
     </row>
     <row r="833">
-      <c r="A833" s="117"/>
+      <c r="A833" s="116"/>
       <c r="G833" s="28"/>
       <c r="H833" s="28"/>
     </row>
     <row r="834">
-      <c r="A834" s="117"/>
+      <c r="A834" s="116"/>
       <c r="G834" s="28"/>
       <c r="H834" s="28"/>
     </row>
     <row r="835">
-      <c r="A835" s="117"/>
+      <c r="A835" s="116"/>
       <c r="G835" s="28"/>
       <c r="H835" s="28"/>
     </row>
     <row r="836">
-      <c r="A836" s="117"/>
+      <c r="A836" s="116"/>
       <c r="G836" s="28"/>
       <c r="H836" s="28"/>
     </row>
     <row r="837">
-      <c r="A837" s="117"/>
+      <c r="A837" s="116"/>
       <c r="G837" s="28"/>
       <c r="H837" s="28"/>
     </row>
     <row r="838">
-      <c r="A838" s="117"/>
+      <c r="A838" s="116"/>
       <c r="G838" s="28"/>
       <c r="H838" s="28"/>
     </row>
     <row r="839">
-      <c r="A839" s="117"/>
+      <c r="A839" s="116"/>
       <c r="G839" s="28"/>
       <c r="H839" s="28"/>
     </row>
     <row r="840">
-      <c r="A840" s="117"/>
+      <c r="A840" s="116"/>
       <c r="G840" s="28"/>
       <c r="H840" s="28"/>
     </row>
     <row r="841">
-      <c r="A841" s="117"/>
+      <c r="A841" s="116"/>
       <c r="G841" s="28"/>
       <c r="H841" s="28"/>
     </row>
     <row r="842">
-      <c r="A842" s="117"/>
+      <c r="A842" s="116"/>
       <c r="G842" s="28"/>
       <c r="H842" s="28"/>
     </row>
     <row r="843">
-      <c r="A843" s="117"/>
+      <c r="A843" s="116"/>
       <c r="G843" s="28"/>
       <c r="H843" s="28"/>
     </row>
     <row r="844">
-      <c r="A844" s="117"/>
+      <c r="A844" s="116"/>
       <c r="G844" s="28"/>
       <c r="H844" s="28"/>
     </row>
     <row r="845">
-      <c r="A845" s="117"/>
+      <c r="A845" s="116"/>
       <c r="G845" s="28"/>
       <c r="H845" s="28"/>
     </row>
     <row r="846">
-      <c r="A846" s="117"/>
+      <c r="A846" s="116"/>
       <c r="G846" s="28"/>
       <c r="H846" s="28"/>
     </row>
     <row r="847">
-      <c r="A847" s="117"/>
+      <c r="A847" s="116"/>
       <c r="G847" s="28"/>
       <c r="H847" s="28"/>
     </row>
     <row r="848">
-      <c r="A848" s="117"/>
+      <c r="A848" s="116"/>
       <c r="G848" s="28"/>
       <c r="H848" s="28"/>
     </row>
     <row r="849">
-      <c r="A849" s="117"/>
+      <c r="A849" s="116"/>
       <c r="G849" s="28"/>
       <c r="H849" s="28"/>
     </row>
     <row r="850">
-      <c r="A850" s="117"/>
+      <c r="A850" s="116"/>
       <c r="G850" s="28"/>
       <c r="H850" s="28"/>
     </row>
     <row r="851">
-      <c r="A851" s="117"/>
+      <c r="A851" s="116"/>
       <c r="G851" s="28"/>
       <c r="H851" s="28"/>
     </row>
     <row r="852">
-      <c r="A852" s="117"/>
+      <c r="A852" s="116"/>
       <c r="G852" s="28"/>
       <c r="H852" s="28"/>
     </row>
     <row r="853">
-      <c r="A853" s="117"/>
+      <c r="A853" s="116"/>
       <c r="G853" s="28"/>
       <c r="H853" s="28"/>
     </row>
     <row r="854">
-      <c r="A854" s="117"/>
+      <c r="A854" s="116"/>
       <c r="G854" s="28"/>
       <c r="H854" s="28"/>
     </row>
     <row r="855">
-      <c r="A855" s="117"/>
+      <c r="A855" s="116"/>
       <c r="G855" s="28"/>
       <c r="H855" s="28"/>
     </row>
     <row r="856">
-      <c r="A856" s="117"/>
+      <c r="A856" s="116"/>
       <c r="G856" s="28"/>
       <c r="H856" s="28"/>
     </row>
     <row r="857">
-      <c r="A857" s="117"/>
+      <c r="A857" s="116"/>
       <c r="G857" s="28"/>
       <c r="H857" s="28"/>
     </row>
     <row r="858">
-      <c r="A858" s="117"/>
+      <c r="A858" s="116"/>
       <c r="G858" s="28"/>
       <c r="H858" s="28"/>
     </row>
     <row r="859">
-      <c r="A859" s="117"/>
+      <c r="A859" s="116"/>
       <c r="G859" s="28"/>
       <c r="H859" s="28"/>
     </row>
     <row r="860">
-      <c r="A860" s="117"/>
+      <c r="A860" s="116"/>
       <c r="G860" s="28"/>
       <c r="H860" s="28"/>
     </row>
     <row r="861">
-      <c r="A861" s="117"/>
+      <c r="A861" s="116"/>
       <c r="G861" s="28"/>
       <c r="H861" s="28"/>
     </row>
     <row r="862">
-      <c r="A862" s="117"/>
+      <c r="A862" s="116"/>
       <c r="G862" s="28"/>
       <c r="H862" s="28"/>
     </row>
     <row r="863">
-      <c r="A863" s="117"/>
+      <c r="A863" s="116"/>
       <c r="G863" s="28"/>
       <c r="H863" s="28"/>
     </row>
     <row r="864">
-      <c r="A864" s="117"/>
+      <c r="A864" s="116"/>
       <c r="G864" s="28"/>
       <c r="H864" s="28"/>
     </row>
     <row r="865">
-      <c r="A865" s="117"/>
+      <c r="A865" s="116"/>
       <c r="G865" s="28"/>
       <c r="H865" s="28"/>
     </row>
     <row r="866">
-      <c r="A866" s="117"/>
+      <c r="A866" s="116"/>
       <c r="G866" s="28"/>
       <c r="H866" s="28"/>
     </row>
     <row r="867">
-      <c r="A867" s="117"/>
+      <c r="A867" s="116"/>
       <c r="G867" s="28"/>
       <c r="H867" s="28"/>
     </row>
     <row r="868">
-      <c r="A868" s="117"/>
+      <c r="A868" s="116"/>
       <c r="G868" s="28"/>
       <c r="H868" s="28"/>
     </row>
     <row r="869">
-      <c r="A869" s="117"/>
+      <c r="A869" s="116"/>
       <c r="G869" s="28"/>
       <c r="H869" s="28"/>
     </row>
     <row r="870">
-      <c r="A870" s="117"/>
+      <c r="A870" s="116"/>
       <c r="G870" s="28"/>
       <c r="H870" s="28"/>
     </row>
     <row r="871">
-      <c r="A871" s="117"/>
+      <c r="A871" s="116"/>
       <c r="G871" s="28"/>
       <c r="H871" s="28"/>
     </row>
     <row r="872">
-      <c r="A872" s="117"/>
+      <c r="A872" s="116"/>
       <c r="G872" s="28"/>
       <c r="H872" s="28"/>
     </row>
     <row r="873">
-      <c r="A873" s="117"/>
+      <c r="A873" s="116"/>
       <c r="G873" s="28"/>
       <c r="H873" s="28"/>
     </row>
     <row r="874">
-      <c r="A874" s="117"/>
+      <c r="A874" s="116"/>
       <c r="G874" s="28"/>
       <c r="H874" s="28"/>
     </row>
     <row r="875">
-      <c r="A875" s="117"/>
+      <c r="A875" s="116"/>
       <c r="G875" s="28"/>
       <c r="H875" s="28"/>
     </row>
     <row r="876">
-      <c r="A876" s="117"/>
+      <c r="A876" s="116"/>
       <c r="G876" s="28"/>
       <c r="H876" s="28"/>
     </row>
     <row r="877">
-      <c r="A877" s="117"/>
+      <c r="A877" s="116"/>
       <c r="G877" s="28"/>
       <c r="H877" s="28"/>
     </row>
     <row r="878">
-      <c r="A878" s="117"/>
+      <c r="A878" s="116"/>
       <c r="G878" s="28"/>
       <c r="H878" s="28"/>
     </row>
     <row r="879">
-      <c r="A879" s="117"/>
+      <c r="A879" s="116"/>
       <c r="G879" s="28"/>
       <c r="H879" s="28"/>
     </row>
     <row r="880">
-      <c r="A880" s="117"/>
+      <c r="A880" s="116"/>
       <c r="G880" s="28"/>
       <c r="H880" s="28"/>
     </row>
     <row r="881">
-      <c r="A881" s="117"/>
+      <c r="A881" s="116"/>
       <c r="G881" s="28"/>
       <c r="H881" s="28"/>
     </row>
     <row r="882">
-      <c r="A882" s="117"/>
+      <c r="A882" s="116"/>
       <c r="G882" s="28"/>
       <c r="H882" s="28"/>
     </row>
     <row r="883">
-      <c r="A883" s="117"/>
+      <c r="A883" s="116"/>
       <c r="G883" s="28"/>
       <c r="H883" s="28"/>
     </row>
     <row r="884">
-      <c r="A884" s="117"/>
+      <c r="A884" s="116"/>
       <c r="G884" s="28"/>
       <c r="H884" s="28"/>
     </row>
     <row r="885">
-      <c r="A885" s="117"/>
+      <c r="A885" s="116"/>
       <c r="G885" s="28"/>
       <c r="H885" s="28"/>
     </row>
     <row r="886">
-      <c r="A886" s="117"/>
+      <c r="A886" s="116"/>
       <c r="G886" s="28"/>
       <c r="H886" s="28"/>
     </row>
     <row r="887">
-      <c r="A887" s="117"/>
+      <c r="A887" s="116"/>
       <c r="G887" s="28"/>
       <c r="H887" s="28"/>
     </row>
     <row r="888">
-      <c r="A888" s="117"/>
+      <c r="A888" s="116"/>
       <c r="G888" s="28"/>
       <c r="H888" s="28"/>
     </row>
     <row r="889">
-      <c r="A889" s="117"/>
+      <c r="A889" s="116"/>
       <c r="G889" s="28"/>
       <c r="H889" s="28"/>
     </row>
     <row r="890">
-      <c r="A890" s="117"/>
+      <c r="A890" s="116"/>
       <c r="G890" s="28"/>
       <c r="H890" s="28"/>
     </row>
     <row r="891">
-      <c r="A891" s="117"/>
+      <c r="A891" s="116"/>
       <c r="G891" s="28"/>
       <c r="H891" s="28"/>
     </row>
     <row r="892">
-      <c r="A892" s="117"/>
+      <c r="A892" s="116"/>
       <c r="G892" s="28"/>
       <c r="H892" s="28"/>
     </row>
     <row r="893">
-      <c r="A893" s="117"/>
+      <c r="A893" s="116"/>
       <c r="G893" s="28"/>
       <c r="H893" s="28"/>
     </row>
     <row r="894">
-      <c r="A894" s="117"/>
+      <c r="A894" s="116"/>
       <c r="G894" s="28"/>
       <c r="H894" s="28"/>
     </row>
     <row r="895">
-      <c r="A895" s="117"/>
+      <c r="A895" s="116"/>
       <c r="G895" s="28"/>
       <c r="H895" s="28"/>
     </row>
     <row r="896">
-      <c r="A896" s="117"/>
+      <c r="A896" s="116"/>
       <c r="G896" s="28"/>
       <c r="H896" s="28"/>
     </row>
     <row r="897">
-      <c r="A897" s="117"/>
+      <c r="A897" s="116"/>
       <c r="G897" s="28"/>
       <c r="H897" s="28"/>
     </row>
     <row r="898">
-      <c r="A898" s="117"/>
+      <c r="A898" s="116"/>
       <c r="G898" s="28"/>
       <c r="H898" s="28"/>
     </row>
     <row r="899">
-      <c r="A899" s="117"/>
+      <c r="A899" s="116"/>
       <c r="G899" s="28"/>
       <c r="H899" s="28"/>
     </row>
     <row r="900">
-      <c r="A900" s="117"/>
+      <c r="A900" s="116"/>
       <c r="G900" s="28"/>
       <c r="H900" s="28"/>
     </row>
     <row r="901">
-      <c r="A901" s="117"/>
+      <c r="A901" s="116"/>
       <c r="G901" s="28"/>
       <c r="H901" s="28"/>
     </row>
     <row r="902">
-      <c r="A902" s="117"/>
+      <c r="A902" s="116"/>
       <c r="G902" s="28"/>
       <c r="H902" s="28"/>
     </row>
     <row r="903">
-      <c r="A903" s="117"/>
+      <c r="A903" s="116"/>
       <c r="G903" s="28"/>
       <c r="H903" s="28"/>
     </row>
     <row r="904">
-      <c r="A904" s="117"/>
+      <c r="A904" s="116"/>
       <c r="G904" s="28"/>
       <c r="H904" s="28"/>
     </row>
     <row r="905">
-      <c r="A905" s="117"/>
+      <c r="A905" s="116"/>
       <c r="G905" s="28"/>
       <c r="H905" s="28"/>
     </row>
     <row r="906">
-      <c r="A906" s="117"/>
+      <c r="A906" s="116"/>
       <c r="G906" s="28"/>
       <c r="H906" s="28"/>
     </row>
     <row r="907">
-      <c r="A907" s="117"/>
+      <c r="A907" s="116"/>
       <c r="G907" s="28"/>
       <c r="H907" s="28"/>
     </row>
     <row r="908">
-      <c r="A908" s="117"/>
+      <c r="A908" s="116"/>
       <c r="G908" s="28"/>
       <c r="H908" s="28"/>
     </row>
     <row r="909">
-      <c r="A909" s="117"/>
+      <c r="A909" s="116"/>
       <c r="G909" s="28"/>
       <c r="H909" s="28"/>
     </row>
     <row r="910">
-      <c r="A910" s="117"/>
+      <c r="A910" s="116"/>
       <c r="G910" s="28"/>
       <c r="H910" s="28"/>
     </row>
     <row r="911">
-      <c r="A911" s="117"/>
+      <c r="A911" s="116"/>
       <c r="G911" s="28"/>
       <c r="H911" s="28"/>
     </row>
     <row r="912">
-      <c r="A912" s="117"/>
+      <c r="A912" s="116"/>
       <c r="G912" s="28"/>
       <c r="H912" s="28"/>
     </row>
     <row r="913">
-      <c r="A913" s="117"/>
+      <c r="A913" s="116"/>
       <c r="G913" s="28"/>
       <c r="H913" s="28"/>
     </row>
     <row r="914">
-      <c r="A914" s="117"/>
+      <c r="A914" s="116"/>
       <c r="G914" s="28"/>
       <c r="H914" s="28"/>
     </row>
     <row r="915">
-      <c r="A915" s="117"/>
+      <c r="A915" s="116"/>
       <c r="G915" s="28"/>
       <c r="H915" s="28"/>
     </row>
     <row r="916">
-      <c r="A916" s="117"/>
+      <c r="A916" s="116"/>
       <c r="G916" s="28"/>
       <c r="H916" s="28"/>
     </row>
     <row r="917">
-      <c r="A917" s="117"/>
+      <c r="A917" s="116"/>
       <c r="G917" s="28"/>
       <c r="H917" s="28"/>
     </row>
     <row r="918">
-      <c r="A918" s="117"/>
+      <c r="A918" s="116"/>
       <c r="G918" s="28"/>
       <c r="H918" s="28"/>
     </row>
     <row r="919">
-      <c r="A919" s="117"/>
+      <c r="A919" s="116"/>
       <c r="G919" s="28"/>
       <c r="H919" s="28"/>
     </row>
     <row r="920">
-      <c r="A920" s="117"/>
+      <c r="A920" s="116"/>
       <c r="G920" s="28"/>
       <c r="H920" s="28"/>
     </row>
     <row r="921">
-      <c r="A921" s="117"/>
+      <c r="A921" s="116"/>
       <c r="G921" s="28"/>
       <c r="H921" s="28"/>
     </row>
     <row r="922">
-      <c r="A922" s="117"/>
+      <c r="A922" s="116"/>
       <c r="G922" s="28"/>
       <c r="H922" s="28"/>
     </row>
     <row r="923">
-      <c r="A923" s="117"/>
+      <c r="A923" s="116"/>
       <c r="G923" s="28"/>
       <c r="H923" s="28"/>
     </row>
     <row r="924">
-      <c r="A924" s="117"/>
+      <c r="A924" s="116"/>
       <c r="G924" s="28"/>
       <c r="H924" s="28"/>
     </row>
     <row r="925">
-      <c r="A925" s="117"/>
+      <c r="A925" s="116"/>
       <c r="G925" s="28"/>
       <c r="H925" s="28"/>
     </row>
     <row r="926">
-      <c r="A926" s="117"/>
+      <c r="A926" s="116"/>
       <c r="G926" s="28"/>
       <c r="H926" s="28"/>
     </row>
     <row r="927">
-      <c r="A927" s="117"/>
+      <c r="A927" s="116"/>
       <c r="G927" s="28"/>
       <c r="H927" s="28"/>
     </row>
     <row r="928">
-      <c r="A928" s="117"/>
+      <c r="A928" s="116"/>
       <c r="G928" s="28"/>
       <c r="H928" s="28"/>
     </row>
     <row r="929">
-      <c r="A929" s="117"/>
+      <c r="A929" s="116"/>
       <c r="G929" s="28"/>
       <c r="H929" s="28"/>
     </row>
     <row r="930">
-      <c r="A930" s="117"/>
+      <c r="A930" s="116"/>
       <c r="G930" s="28"/>
       <c r="H930" s="28"/>
     </row>
     <row r="931">
-      <c r="A931" s="117"/>
+      <c r="A931" s="116"/>
       <c r="G931" s="28"/>
       <c r="H931" s="28"/>
     </row>
     <row r="932">
-      <c r="A932" s="117"/>
+      <c r="A932" s="116"/>
       <c r="G932" s="28"/>
       <c r="H932" s="28"/>
     </row>
     <row r="933">
-      <c r="A933" s="117"/>
+      <c r="A933" s="116"/>
       <c r="G933" s="28"/>
       <c r="H933" s="28"/>
     </row>
     <row r="934">
-      <c r="A934" s="117"/>
+      <c r="A934" s="116"/>
       <c r="G934" s="28"/>
       <c r="H934" s="28"/>
     </row>
     <row r="935">
-      <c r="A935" s="117"/>
+      <c r="A935" s="116"/>
       <c r="G935" s="28"/>
       <c r="H935" s="28"/>
     </row>
     <row r="936">
-      <c r="A936" s="117"/>
+      <c r="A936" s="116"/>
       <c r="G936" s="28"/>
       <c r="H936" s="28"/>
     </row>
     <row r="937">
-      <c r="A937" s="117"/>
+      <c r="A937" s="116"/>
       <c r="G937" s="28"/>
       <c r="H937" s="28"/>
     </row>
     <row r="938">
-      <c r="A938" s="117"/>
+      <c r="A938" s="116"/>
       <c r="G938" s="28"/>
       <c r="H938" s="28"/>
     </row>
     <row r="939">
-      <c r="A939" s="117"/>
+      <c r="A939" s="116"/>
       <c r="G939" s="28"/>
       <c r="H939" s="28"/>
     </row>
     <row r="940">
-      <c r="A940" s="117"/>
+      <c r="A940" s="116"/>
       <c r="G940" s="28"/>
       <c r="H940" s="28"/>
     </row>
     <row r="941">
-      <c r="A941" s="117"/>
+      <c r="A941" s="116"/>
       <c r="G941" s="28"/>
       <c r="H941" s="28"/>
     </row>
     <row r="942">
-      <c r="A942" s="117"/>
+      <c r="A942" s="116"/>
       <c r="G942" s="28"/>
       <c r="H942" s="28"/>
     </row>
     <row r="943">
-      <c r="A943" s="117"/>
+      <c r="A943" s="116"/>
       <c r="G943" s="28"/>
       <c r="H943" s="28"/>
     </row>
     <row r="944">
-      <c r="A944" s="117"/>
+      <c r="A944" s="116"/>
       <c r="G944" s="28"/>
       <c r="H944" s="28"/>
     </row>
     <row r="945">
-      <c r="A945" s="117"/>
+      <c r="A945" s="116"/>
       <c r="G945" s="28"/>
       <c r="H945" s="28"/>
     </row>
     <row r="946">
-      <c r="A946" s="117"/>
+      <c r="A946" s="116"/>
       <c r="G946" s="28"/>
       <c r="H946" s="28"/>
     </row>
     <row r="947">
-      <c r="A947" s="117"/>
+      <c r="A947" s="116"/>
       <c r="G947" s="28"/>
       <c r="H947" s="28"/>
     </row>
     <row r="948">
-      <c r="A948" s="117"/>
+      <c r="A948" s="116"/>
       <c r="G948" s="28"/>
       <c r="H948" s="28"/>
     </row>
     <row r="949">
-      <c r="A949" s="117"/>
+      <c r="A949" s="116"/>
       <c r="G949" s="28"/>
       <c r="H949" s="28"/>
     </row>
     <row r="950">
-      <c r="A950" s="117"/>
+      <c r="A950" s="116"/>
       <c r="G950" s="28"/>
       <c r="H950" s="28"/>
     </row>
     <row r="951">
-      <c r="A951" s="117"/>
+      <c r="A951" s="116"/>
       <c r="G951" s="28"/>
       <c r="H951" s="28"/>
     </row>
     <row r="952">
-      <c r="A952" s="117"/>
+      <c r="A952" s="116"/>
       <c r="G952" s="28"/>
       <c r="H952" s="28"/>
     </row>
     <row r="953">
-      <c r="A953" s="117"/>
+      <c r="A953" s="116"/>
       <c r="G953" s="28"/>
       <c r="H953" s="28"/>
     </row>
     <row r="954">
-      <c r="A954" s="117"/>
+      <c r="A954" s="116"/>
       <c r="G954" s="28"/>
       <c r="H954" s="28"/>
     </row>
     <row r="955">
-      <c r="A955" s="117"/>
+      <c r="A955" s="116"/>
       <c r="G955" s="28"/>
       <c r="H955" s="28"/>
     </row>
     <row r="956">
-      <c r="A956" s="117"/>
+      <c r="A956" s="116"/>
       <c r="G956" s="28"/>
       <c r="H956" s="28"/>
     </row>
     <row r="957">
-      <c r="A957" s="117"/>
+      <c r="A957" s="116"/>
       <c r="G957" s="28"/>
       <c r="H957" s="28"/>
     </row>
     <row r="958">
-      <c r="A958" s="117"/>
+      <c r="A958" s="116"/>
       <c r="G958" s="28"/>
       <c r="H958" s="28"/>
     </row>
     <row r="959">
-      <c r="A959" s="117"/>
+      <c r="A959" s="116"/>
       <c r="G959" s="28"/>
       <c r="H959" s="28"/>
     </row>
     <row r="960">
-      <c r="A960" s="117"/>
+      <c r="A960" s="116"/>
       <c r="G960" s="28"/>
       <c r="H960" s="28"/>
     </row>
     <row r="961">
-      <c r="A961" s="117"/>
+      <c r="A961" s="116"/>
       <c r="G961" s="28"/>
       <c r="H961" s="28"/>
     </row>
     <row r="962">
-      <c r="A962" s="117"/>
+      <c r="A962" s="116"/>
       <c r="G962" s="28"/>
       <c r="H962" s="28"/>
     </row>
     <row r="963">
-      <c r="A963" s="117"/>
+      <c r="A963" s="116"/>
       <c r="G963" s="28"/>
       <c r="H963" s="28"/>
     </row>
     <row r="964">
-      <c r="A964" s="117"/>
+      <c r="A964" s="116"/>
       <c r="G964" s="28"/>
       <c r="H964" s="28"/>
     </row>
     <row r="965">
-      <c r="A965" s="117"/>
+      <c r="A965" s="116"/>
       <c r="G965" s="28"/>
       <c r="H965" s="28"/>
     </row>
     <row r="966">
-      <c r="A966" s="117"/>
+      <c r="A966" s="116"/>
       <c r="G966" s="28"/>
       <c r="H966" s="28"/>
     </row>
     <row r="967">
-      <c r="A967" s="117"/>
+      <c r="A967" s="116"/>
       <c r="G967" s="28"/>
       <c r="H967" s="28"/>
     </row>
     <row r="968">
-      <c r="A968" s="117"/>
+      <c r="A968" s="116"/>
       <c r="G968" s="28"/>
       <c r="H968" s="28"/>
     </row>
     <row r="969">
-      <c r="A969" s="117"/>
+      <c r="A969" s="116"/>
       <c r="G969" s="28"/>
       <c r="H969" s="28"/>
     </row>
     <row r="970">
-      <c r="A970" s="117"/>
+      <c r="A970" s="116"/>
       <c r="G970" s="28"/>
       <c r="H970" s="28"/>
     </row>
     <row r="971">
-      <c r="A971" s="117"/>
+      <c r="A971" s="116"/>
       <c r="G971" s="28"/>
       <c r="H971" s="28"/>
     </row>
     <row r="972">
-      <c r="A972" s="117"/>
+      <c r="A972" s="116"/>
       <c r="G972" s="28"/>
       <c r="H972" s="28"/>
     </row>
     <row r="973">
-      <c r="A973" s="117"/>
+      <c r="A973" s="116"/>
       <c r="G973" s="28"/>
       <c r="H973" s="28"/>
     </row>
     <row r="974">
-      <c r="A974" s="117"/>
+      <c r="A974" s="116"/>
       <c r="G974" s="28"/>
       <c r="H974" s="28"/>
     </row>
     <row r="975">
-      <c r="A975" s="117"/>
+      <c r="A975" s="116"/>
       <c r="G975" s="28"/>
       <c r="H975" s="28"/>
     </row>
     <row r="976">
-      <c r="A976" s="117"/>
+      <c r="A976" s="116"/>
       <c r="G976" s="28"/>
       <c r="H976" s="28"/>
     </row>
     <row r="977">
-      <c r="A977" s="117"/>
+      <c r="A977" s="116"/>
       <c r="G977" s="28"/>
       <c r="H977" s="28"/>
     </row>
     <row r="978">
-      <c r="A978" s="117"/>
+      <c r="A978" s="116"/>
       <c r="G978" s="28"/>
       <c r="H978" s="28"/>
     </row>
     <row r="979">
-      <c r="A979" s="117"/>
+      <c r="A979" s="116"/>
       <c r="G979" s="28"/>
       <c r="H979" s="28"/>
     </row>
     <row r="980">
-      <c r="A980" s="117"/>
+      <c r="A980" s="116"/>
       <c r="G980" s="28"/>
       <c r="H980" s="28"/>
     </row>
     <row r="981">
-      <c r="A981" s="117"/>
+      <c r="A981" s="116"/>
       <c r="G981" s="28"/>
       <c r="H981" s="28"/>
     </row>
     <row r="982">
-      <c r="A982" s="117"/>
+      <c r="A982" s="116"/>
       <c r="G982" s="28"/>
       <c r="H982" s="28"/>
     </row>
     <row r="983">
-      <c r="A983" s="117"/>
+      <c r="A983" s="116"/>
       <c r="G983" s="28"/>
       <c r="H983" s="28"/>
     </row>
     <row r="984">
-      <c r="A984" s="117"/>
+      <c r="A984" s="116"/>
       <c r="G984" s="28"/>
       <c r="H984" s="28"/>
     </row>
     <row r="985">
-      <c r="A985" s="117"/>
+      <c r="A985" s="116"/>
       <c r="G985" s="28"/>
       <c r="H985" s="28"/>
     </row>
     <row r="986">
-      <c r="A986" s="117"/>
+      <c r="A986" s="116"/>
       <c r="G986" s="28"/>
       <c r="H986" s="28"/>
     </row>
     <row r="987">
-      <c r="A987" s="117"/>
+      <c r="A987" s="116"/>
       <c r="G987" s="28"/>
       <c r="H987" s="28"/>
     </row>
     <row r="988">
-      <c r="A988" s="117"/>
+      <c r="A988" s="116"/>
       <c r="G988" s="28"/>
       <c r="H988" s="28"/>
     </row>
     <row r="989">
-      <c r="A989" s="117"/>
+      <c r="A989" s="116"/>
       <c r="G989" s="28"/>
       <c r="H989" s="28"/>
     </row>
     <row r="990">
-      <c r="A990" s="117"/>
+      <c r="A990" s="116"/>
       <c r="G990" s="28"/>
       <c r="H990" s="28"/>
     </row>
     <row r="991">
-      <c r="A991" s="117"/>
+      <c r="A991" s="116"/>
       <c r="G991" s="28"/>
       <c r="H991" s="28"/>
     </row>
     <row r="992">
-      <c r="A992" s="117"/>
+      <c r="A992" s="116"/>
       <c r="G992" s="28"/>
       <c r="H992" s="28"/>
     </row>
     <row r="993">
-      <c r="A993" s="117"/>
+      <c r="A993" s="116"/>
       <c r="G993" s="28"/>
       <c r="H993" s="28"/>
     </row>
     <row r="994">
-      <c r="A994" s="117"/>
+      <c r="A994" s="116"/>
       <c r="G994" s="28"/>
       <c r="H994" s="28"/>
     </row>
     <row r="995">
-      <c r="A995" s="117"/>
+      <c r="A995" s="116"/>
       <c r="G995" s="28"/>
       <c r="H995" s="28"/>
     </row>
     <row r="996">
-      <c r="A996" s="117"/>
+      <c r="A996" s="116"/>
       <c r="G996" s="28"/>
       <c r="H996" s="28"/>
     </row>
     <row r="997">
-      <c r="A997" s="117"/>
+      <c r="A997" s="116"/>
       <c r="G997" s="28"/>
       <c r="H997" s="28"/>
     </row>
     <row r="998">
-      <c r="A998" s="117"/>
+      <c r="A998" s="116"/>
       <c r="G998" s="28"/>
       <c r="H998" s="28"/>
     </row>
     <row r="999">
-      <c r="A999" s="117"/>
+      <c r="A999" s="116"/>
       <c r="G999" s="28"/>
       <c r="H999" s="28"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="117"/>
+      <c r="A1000" s="116"/>
       <c r="G1000" s="28"/>
       <c r="H1000" s="28"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="117"/>
+      <c r="A1001" s="116"/>
       <c r="G1001" s="28"/>
       <c r="H1001" s="28"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="117"/>
+      <c r="A1002" s="116"/>
       <c r="G1002" s="28"/>
       <c r="H1002" s="28"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="117"/>
+      <c r="A1003" s="116"/>
       <c r="G1003" s="28"/>
       <c r="H1003" s="28"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="117"/>
+      <c r="A1004" s="116"/>
       <c r="G1004" s="28"/>
       <c r="H1004" s="28"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="117"/>
+      <c r="A1005" s="116"/>
       <c r="G1005" s="28"/>
       <c r="H1005" s="28"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="117"/>
+      <c r="A1006" s="116"/>
       <c r="G1006" s="28"/>
       <c r="H1006" s="28"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="117"/>
+      <c r="A1007" s="116"/>
       <c r="G1007" s="28"/>
       <c r="H1007" s="28"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="117"/>
+      <c r="A1008" s="116"/>
       <c r="G1008" s="28"/>
       <c r="H1008" s="28"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="117"/>
+      <c r="A1009" s="116"/>
       <c r="G1009" s="28"/>
       <c r="H1009" s="28"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="117"/>
+      <c r="A1010" s="116"/>
       <c r="G1010" s="28"/>
       <c r="H1010" s="28"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="117"/>
+      <c r="A1011" s="116"/>
       <c r="G1011" s="28"/>
       <c r="H1011" s="28"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="117"/>
+      <c r="A1012" s="116"/>
       <c r="G1012" s="28"/>
       <c r="H1012" s="28"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="117"/>
+      <c r="A1013" s="116"/>
       <c r="G1013" s="28"/>
       <c r="H1013" s="28"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="117"/>
+      <c r="A1014" s="116"/>
       <c r="G1014" s="28"/>
       <c r="H1014" s="28"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="117"/>
+      <c r="A1015" s="116"/>
       <c r="G1015" s="28"/>
       <c r="H1015" s="28"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="117"/>
+      <c r="A1016" s="116"/>
       <c r="G1016" s="28"/>
       <c r="H1016" s="28"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="117"/>
+      <c r="A1017" s="116"/>
       <c r="G1017" s="28"/>
       <c r="H1017" s="28"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="117"/>
+      <c r="A1018" s="116"/>
       <c r="G1018" s="28"/>
       <c r="H1018" s="28"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="117"/>
+      <c r="A1019" s="116"/>
       <c r="G1019" s="28"/>
       <c r="H1019" s="28"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="117"/>
+      <c r="A1020" s="116"/>
       <c r="G1020" s="28"/>
       <c r="H1020" s="28"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="117"/>
+      <c r="A1021" s="116"/>
       <c r="G1021" s="28"/>
       <c r="H1021" s="28"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="117"/>
+      <c r="A1022" s="116"/>
       <c r="G1022" s="28"/>
       <c r="H1022" s="28"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="117"/>
+      <c r="A1023" s="116"/>
       <c r="G1023" s="28"/>
       <c r="H1023" s="28"/>
     </row>
     <row r="1024">
-      <c r="A1024" s="117"/>
+      <c r="A1024" s="116"/>
       <c r="G1024" s="28"/>
       <c r="H1024" s="28"/>
     </row>
     <row r="1025">
-      <c r="A1025" s="117"/>
+      <c r="A1025" s="116"/>
       <c r="G1025" s="28"/>
       <c r="H1025" s="28"/>
     </row>
     <row r="1026">
-      <c r="A1026" s="117"/>
+      <c r="A1026" s="116"/>
       <c r="G1026" s="28"/>
       <c r="H1026" s="28"/>
     </row>
     <row r="1027">
-      <c r="A1027" s="117"/>
+      <c r="A1027" s="116"/>
       <c r="G1027" s="28"/>
       <c r="H1027" s="28"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="117"/>
+      <c r="A1028" s="116"/>
       <c r="G1028" s="28"/>
       <c r="H1028" s="28"/>
     </row>
     <row r="1029">
-      <c r="A1029" s="117"/>
+      <c r="A1029" s="116"/>
       <c r="G1029" s="28"/>
       <c r="H1029" s="28"/>
     </row>
     <row r="1030">
-      <c r="A1030" s="117"/>
+      <c r="A1030" s="116"/>
       <c r="G1030" s="28"/>
       <c r="H1030" s="28"/>
     </row>
@@ -20479,37 +20479,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="118" t="s">
-        <v>931</v>
+      <c r="A2" s="117" t="s">
+        <v>932</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="119" t="s">
-        <v>933</v>
+      <c r="A3" s="118" t="s">
+        <v>934</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="120" t="s">
-        <v>935</v>
+      <c r="A4" s="119" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="121" t="s">
-        <v>936</v>
+      <c r="A6" s="120" t="s">
+        <v>937</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8">
@@ -20519,68 +20519,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="121" t="s">
-        <v>939</v>
+      <c r="A10" s="120" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="121" t="s">
-        <v>940</v>
+      <c r="A11" s="120" t="s">
+        <v>941</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="122" t="s">
-        <v>942</v>
+      <c r="B12" s="121" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31"/>
-      <c r="B13" s="123" t="s">
-        <v>943</v>
+      <c r="B13" s="122" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="124" t="s">
-        <v>944</v>
+      <c r="B14" s="123" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="125" t="s">
-        <v>945</v>
+      <c r="B15" s="124" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="126" t="s">
-        <v>946</v>
+      <c r="B16" s="125" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="121"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="121" t="s">
-        <v>947</v>
+      <c r="A18" s="120" t="s">
+        <v>948</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>949</v>
-      </c>
-      <c r="B19" s="127"/>
+        <v>950</v>
+      </c>
+      <c r="B19" s="126"/>
     </row>
     <row r="21">
-      <c r="A21" s="121" t="s">
-        <v>950</v>
+      <c r="A21" s="120" t="s">
+        <v>951</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
   </sheetData>
@@ -20605,58 +20605,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="121" t="s">
-        <v>952</v>
+      <c r="A1" s="120" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="69" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="69" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
   </sheetData>
@@ -20682,53 +20682,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="B1" s="128" t="s">
-        <v>963</v>
+        <v>953</v>
+      </c>
+      <c r="B1" s="127" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="129" t="s">
-        <v>964</v>
+      <c r="A2" s="128" t="s">
+        <v>965</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
   </sheetData>
@@ -20769,72 +20769,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="130" t="s">
-        <v>973</v>
+      <c r="A1" s="129" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="121" t="s">
-        <v>974</v>
-      </c>
-      <c r="B2" s="121" t="s">
+      <c r="A2" s="120" t="s">
         <v>975</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="32" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -20860,32 +20860,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="130" t="s">
-        <v>973</v>
+      <c r="A1" s="129" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="121" t="s">
-        <v>974</v>
-      </c>
-      <c r="B2" s="121" t="s">
+      <c r="A2" s="120" t="s">
         <v>975</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="996">
   <si>
     <t>Field</t>
   </si>
@@ -160,7 +160,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.1</t>
+    <t>2.2.2</t>
   </si>
   <si>
     <r>
@@ -6020,6 +6020,9 @@
     <t>Direct Award Justification Code</t>
   </si>
   <si>
+    <t>if(exists (PT_AWARD_CONTRACT_WITHOUT_CALL/D_ACCORDANCE_ARTICLE/D_PROC_OPE) or exists (PT_AWARD_CONTRACT_WITHOUT_CALL/D_ACCORDANCE_ARTICLE/D_PROC_RESTRICTE) )</t>
+  </si>
+  <si>
     <t>epo:Procedure / epo:DirectAwardTerm / at-voc:direct-award-justification</t>
   </si>
   <si>
@@ -6055,7 +6058,21 @@
     <t>epo:DirectAwardTerm / epo:Procedure / at-voc:procurement-procedure-type</t>
   </si>
   <si>
-    <t>?this epo:refersToPreviousProcedure / epo:hasProcedureType &lt;http://publications.europa.eu/resource/authority/procurement-procedure-type/open&gt; .</t>
+    <r>
+      <rPr/>
+      <t>?this epo:refersToPreviousProcedure / epo:hasProcedureType &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/procurement-procedure-type/open</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>D1.1.1.2</t>
@@ -6667,7 +6684,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -6786,10 +6803,6 @@
       <sz val="10.0"/>
       <color rgb="FF231F20"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <i/>
@@ -6928,7 +6941,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="126">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7240,18 +7253,6 @@
     <xf quotePrefix="1" borderId="1" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="3" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -7292,7 +7293,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -15940,67 +15941,70 @@
       <c r="E200" s="22" t="s">
         <v>408</v>
       </c>
+      <c r="F200" s="32" t="s">
+        <v>857</v>
+      </c>
       <c r="G200" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H200" s="88" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="42" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B201" s="32" t="s">
         <v>415</v>
       </c>
-      <c r="C201" s="111" t="s">
-        <v>860</v>
-      </c>
-      <c r="D201" s="111" t="s">
+      <c r="C201" s="82" t="s">
         <v>861</v>
       </c>
-      <c r="E201" s="112" t="s">
+      <c r="D201" s="82" t="s">
         <v>862</v>
       </c>
-      <c r="F201" s="61"/>
-      <c r="G201" s="113" t="s">
+      <c r="E201" s="83" t="s">
         <v>863</v>
       </c>
-      <c r="H201" s="55" t="s">
+      <c r="F201" s="14"/>
+      <c r="G201" s="67" t="s">
         <v>864</v>
+      </c>
+      <c r="H201" s="73" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="42" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B202" s="32" t="s">
-        <v>866</v>
-      </c>
-      <c r="C202" s="111" t="s">
-        <v>860</v>
-      </c>
-      <c r="D202" s="111" t="s">
+        <v>867</v>
+      </c>
+      <c r="C202" s="82" t="s">
         <v>861</v>
       </c>
-      <c r="E202" s="112" t="s">
-        <v>867</v>
-      </c>
-      <c r="F202" s="61"/>
-      <c r="G202" s="113" t="s">
-        <v>863</v>
-      </c>
-      <c r="H202" s="114" t="s">
+      <c r="D202" s="82" t="s">
+        <v>862</v>
+      </c>
+      <c r="E202" s="83" t="s">
         <v>868</v>
+      </c>
+      <c r="F202" s="14"/>
+      <c r="G202" s="67" t="s">
+        <v>864</v>
+      </c>
+      <c r="H202" s="73" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="42" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C203" s="86" t="s">
         <v>855</v>
@@ -16009,21 +16013,21 @@
         <v>856</v>
       </c>
       <c r="E203" s="83" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G203" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H203" s="88" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="42" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B204" s="32" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C204" s="86" t="s">
         <v>462</v>
@@ -16034,10 +16038,10 @@
     </row>
     <row r="205">
       <c r="A205" s="42" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B205" s="32" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C205" s="82" t="s">
         <v>855</v>
@@ -16046,21 +16050,21 @@
         <v>856</v>
       </c>
       <c r="E205" s="83" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G205" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H205" s="88" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="42" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B206" s="32" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C206" s="82" t="s">
         <v>855</v>
@@ -16069,21 +16073,21 @@
         <v>856</v>
       </c>
       <c r="E206" s="83" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G206" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H206" s="88" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="42" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B207" s="32" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C207" s="82" t="s">
         <v>855</v>
@@ -16092,21 +16096,21 @@
         <v>856</v>
       </c>
       <c r="E207" s="83" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G207" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H207" s="88" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="42" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C208" s="86" t="s">
         <v>855</v>
@@ -16115,21 +16119,21 @@
         <v>856</v>
       </c>
       <c r="E208" s="83" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G208" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H208" s="88" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="42" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B209" s="32" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C209" s="86" t="s">
         <v>855</v>
@@ -16138,21 +16142,21 @@
         <v>856</v>
       </c>
       <c r="E209" s="83" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G209" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H209" s="88" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="42" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B210" s="32" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C210" s="86" t="s">
         <v>855</v>
@@ -16161,21 +16165,21 @@
         <v>856</v>
       </c>
       <c r="E210" s="83" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G210" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H210" s="88" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="42" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B211" s="32" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C211" s="86" t="s">
         <v>855</v>
@@ -16184,21 +16188,21 @@
         <v>856</v>
       </c>
       <c r="E211" s="83" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="G211" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H211" s="88" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="42" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B212" s="32" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C212" s="86" t="s">
         <v>855</v>
@@ -16207,21 +16211,21 @@
         <v>856</v>
       </c>
       <c r="E212" s="83" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G212" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H212" s="88" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="42" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B213" s="32" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C213" s="86" t="s">
         <v>462</v>
@@ -16232,10 +16236,10 @@
     </row>
     <row r="214">
       <c r="A214" s="42" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B214" s="51" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C214" s="82" t="s">
         <v>855</v>
@@ -16244,21 +16248,21 @@
         <v>856</v>
       </c>
       <c r="E214" s="83" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G214" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H214" s="88" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="42" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B215" s="51" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C215" s="82" t="s">
         <v>855</v>
@@ -16267,21 +16271,21 @@
         <v>856</v>
       </c>
       <c r="E215" s="83" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G215" s="32" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H215" s="88" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="42" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B216" s="51" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C216" s="86" t="s">
         <v>462</v>
@@ -16292,31 +16296,31 @@
     </row>
     <row r="217">
       <c r="A217" s="42" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B217" s="51" t="s">
-        <v>920</v>
-      </c>
-      <c r="C217" s="115" t="s">
+        <v>921</v>
+      </c>
+      <c r="C217" s="111" t="s">
         <v>580</v>
       </c>
       <c r="D217" s="82"/>
       <c r="E217" s="83" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G217" s="34" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="H217" s="73" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="42" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B218" s="51" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C218" s="86" t="s">
         <v>462</v>
@@ -16327,4081 +16331,431 @@
     </row>
     <row r="219">
       <c r="A219" s="42" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B219" s="51" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C219" s="86" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D219" s="82" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E219" s="108" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G219" s="32" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H219" s="66" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="116"/>
+      <c r="A220" s="112"/>
       <c r="G220" s="28"/>
       <c r="H220" s="28"/>
     </row>
     <row r="221">
-      <c r="A221" s="116"/>
+      <c r="A221" s="112"/>
       <c r="G221" s="28"/>
       <c r="H221" s="28"/>
     </row>
     <row r="222">
-      <c r="A222" s="116"/>
+      <c r="A222" s="112"/>
       <c r="G222" s="28"/>
       <c r="H222" s="28"/>
     </row>
     <row r="223">
-      <c r="A223" s="116"/>
+      <c r="A223" s="112"/>
       <c r="G223" s="28"/>
       <c r="H223" s="28"/>
     </row>
     <row r="224">
-      <c r="A224" s="116"/>
+      <c r="A224" s="112"/>
       <c r="G224" s="28"/>
       <c r="H224" s="28"/>
     </row>
     <row r="225">
-      <c r="A225" s="116"/>
+      <c r="A225" s="112"/>
       <c r="G225" s="28"/>
       <c r="H225" s="28"/>
     </row>
     <row r="226">
-      <c r="A226" s="116"/>
+      <c r="A226" s="112"/>
       <c r="G226" s="28"/>
       <c r="H226" s="28"/>
     </row>
     <row r="227">
-      <c r="A227" s="116"/>
+      <c r="A227" s="112"/>
       <c r="G227" s="28"/>
       <c r="H227" s="28"/>
     </row>
     <row r="228">
-      <c r="A228" s="116"/>
+      <c r="A228" s="112"/>
       <c r="G228" s="28"/>
       <c r="H228" s="28"/>
     </row>
     <row r="229">
-      <c r="A229" s="116"/>
+      <c r="A229" s="112"/>
       <c r="G229" s="28"/>
       <c r="H229" s="28"/>
     </row>
     <row r="230">
-      <c r="A230" s="116"/>
+      <c r="A230" s="112"/>
       <c r="G230" s="28"/>
       <c r="H230" s="28"/>
     </row>
     <row r="231">
-      <c r="A231" s="116"/>
+      <c r="A231" s="112"/>
       <c r="G231" s="28"/>
       <c r="H231" s="28"/>
     </row>
     <row r="232">
-      <c r="A232" s="116"/>
+      <c r="A232" s="112"/>
       <c r="G232" s="28"/>
       <c r="H232" s="28"/>
     </row>
     <row r="233">
-      <c r="A233" s="116"/>
+      <c r="A233" s="112"/>
       <c r="G233" s="28"/>
       <c r="H233" s="28"/>
     </row>
     <row r="234">
-      <c r="A234" s="116"/>
+      <c r="A234" s="112"/>
       <c r="G234" s="28"/>
       <c r="H234" s="28"/>
     </row>
     <row r="235">
-      <c r="A235" s="116"/>
+      <c r="A235" s="112"/>
       <c r="G235" s="28"/>
       <c r="H235" s="28"/>
     </row>
     <row r="236">
-      <c r="A236" s="116"/>
+      <c r="A236" s="112"/>
       <c r="G236" s="28"/>
       <c r="H236" s="28"/>
     </row>
     <row r="237">
-      <c r="A237" s="116"/>
+      <c r="A237" s="112"/>
       <c r="G237" s="28"/>
       <c r="H237" s="28"/>
     </row>
     <row r="238">
-      <c r="A238" s="116"/>
+      <c r="A238" s="112"/>
       <c r="G238" s="28"/>
       <c r="H238" s="28"/>
     </row>
     <row r="239">
-      <c r="A239" s="116"/>
+      <c r="A239" s="112"/>
       <c r="G239" s="28"/>
       <c r="H239" s="28"/>
     </row>
     <row r="240">
-      <c r="A240" s="116"/>
+      <c r="A240" s="112"/>
       <c r="G240" s="28"/>
       <c r="H240" s="28"/>
     </row>
     <row r="241">
-      <c r="A241" s="116"/>
+      <c r="A241" s="112"/>
       <c r="G241" s="28"/>
       <c r="H241" s="28"/>
     </row>
     <row r="242">
-      <c r="A242" s="116"/>
+      <c r="A242" s="112"/>
       <c r="G242" s="28"/>
       <c r="H242" s="28"/>
     </row>
     <row r="243">
-      <c r="A243" s="116"/>
+      <c r="A243" s="112"/>
       <c r="G243" s="28"/>
       <c r="H243" s="28"/>
     </row>
     <row r="244">
-      <c r="A244" s="116"/>
+      <c r="A244" s="112"/>
       <c r="G244" s="28"/>
       <c r="H244" s="28"/>
     </row>
     <row r="245">
-      <c r="A245" s="116"/>
+      <c r="A245" s="112"/>
       <c r="G245" s="28"/>
       <c r="H245" s="28"/>
     </row>
     <row r="246">
-      <c r="A246" s="116"/>
+      <c r="A246" s="112"/>
       <c r="G246" s="28"/>
       <c r="H246" s="28"/>
     </row>
     <row r="247">
-      <c r="A247" s="116"/>
+      <c r="A247" s="112"/>
       <c r="G247" s="28"/>
       <c r="H247" s="28"/>
     </row>
     <row r="248">
-      <c r="A248" s="116"/>
+      <c r="A248" s="112"/>
       <c r="G248" s="28"/>
       <c r="H248" s="28"/>
     </row>
     <row r="249">
-      <c r="A249" s="116"/>
+      <c r="A249" s="112"/>
       <c r="G249" s="28"/>
       <c r="H249" s="28"/>
     </row>
     <row r="250">
-      <c r="A250" s="116"/>
+      <c r="A250" s="112"/>
       <c r="G250" s="28"/>
       <c r="H250" s="28"/>
     </row>
     <row r="251">
-      <c r="A251" s="116"/>
+      <c r="A251" s="112"/>
       <c r="G251" s="28"/>
       <c r="H251" s="28"/>
     </row>
     <row r="252">
-      <c r="A252" s="116"/>
+      <c r="A252" s="112"/>
       <c r="G252" s="28"/>
       <c r="H252" s="28"/>
     </row>
     <row r="253">
-      <c r="A253" s="116"/>
+      <c r="A253" s="112"/>
       <c r="G253" s="28"/>
       <c r="H253" s="28"/>
     </row>
     <row r="254">
-      <c r="A254" s="116"/>
+      <c r="A254" s="112"/>
       <c r="G254" s="28"/>
       <c r="H254" s="28"/>
     </row>
     <row r="255">
-      <c r="A255" s="116"/>
+      <c r="A255" s="112"/>
       <c r="G255" s="28"/>
       <c r="H255" s="28"/>
     </row>
     <row r="256">
-      <c r="A256" s="116"/>
+      <c r="A256" s="112"/>
       <c r="G256" s="28"/>
       <c r="H256" s="28"/>
     </row>
     <row r="257">
-      <c r="A257" s="116"/>
+      <c r="A257" s="112"/>
       <c r="G257" s="28"/>
       <c r="H257" s="28"/>
     </row>
     <row r="258">
-      <c r="A258" s="116"/>
+      <c r="A258" s="112"/>
       <c r="G258" s="28"/>
       <c r="H258" s="28"/>
     </row>
     <row r="259">
-      <c r="A259" s="116"/>
+      <c r="A259" s="112"/>
       <c r="G259" s="28"/>
       <c r="H259" s="28"/>
     </row>
     <row r="260">
-      <c r="A260" s="116"/>
+      <c r="A260" s="112"/>
       <c r="G260" s="28"/>
       <c r="H260" s="28"/>
     </row>
     <row r="261">
-      <c r="A261" s="116"/>
+      <c r="A261" s="112"/>
       <c r="G261" s="28"/>
       <c r="H261" s="28"/>
     </row>
     <row r="262">
-      <c r="A262" s="116"/>
+      <c r="A262" s="112"/>
       <c r="G262" s="28"/>
       <c r="H262" s="28"/>
     </row>
     <row r="263">
-      <c r="A263" s="116"/>
+      <c r="A263" s="112"/>
       <c r="G263" s="28"/>
       <c r="H263" s="28"/>
     </row>
     <row r="264">
-      <c r="A264" s="116"/>
+      <c r="A264" s="112"/>
       <c r="G264" s="28"/>
       <c r="H264" s="28"/>
     </row>
     <row r="265">
-      <c r="A265" s="116"/>
+      <c r="A265" s="112"/>
       <c r="G265" s="28"/>
       <c r="H265" s="28"/>
     </row>
     <row r="266">
-      <c r="A266" s="116"/>
+      <c r="A266" s="112"/>
       <c r="G266" s="28"/>
       <c r="H266" s="28"/>
     </row>
     <row r="267">
-      <c r="A267" s="116"/>
+      <c r="A267" s="112"/>
       <c r="G267" s="28"/>
       <c r="H267" s="28"/>
     </row>
     <row r="268">
-      <c r="A268" s="116"/>
+      <c r="A268" s="112"/>
       <c r="G268" s="28"/>
       <c r="H268" s="28"/>
     </row>
     <row r="269">
-      <c r="A269" s="116"/>
+      <c r="A269" s="112"/>
       <c r="G269" s="28"/>
       <c r="H269" s="28"/>
     </row>
     <row r="270">
-      <c r="A270" s="116"/>
+      <c r="A270" s="112"/>
       <c r="G270" s="28"/>
       <c r="H270" s="28"/>
     </row>
     <row r="271">
-      <c r="A271" s="116"/>
+      <c r="A271" s="112"/>
       <c r="G271" s="28"/>
       <c r="H271" s="28"/>
     </row>
     <row r="272">
-      <c r="A272" s="116"/>
+      <c r="A272" s="112"/>
       <c r="G272" s="28"/>
       <c r="H272" s="28"/>
     </row>
     <row r="273">
-      <c r="A273" s="116"/>
+      <c r="A273" s="112"/>
       <c r="G273" s="28"/>
       <c r="H273" s="28"/>
     </row>
     <row r="274">
-      <c r="A274" s="116"/>
+      <c r="A274" s="112"/>
       <c r="G274" s="28"/>
       <c r="H274" s="28"/>
     </row>
     <row r="275">
-      <c r="A275" s="116"/>
+      <c r="A275" s="112"/>
       <c r="G275" s="28"/>
       <c r="H275" s="28"/>
     </row>
     <row r="276">
-      <c r="A276" s="116"/>
+      <c r="A276" s="112"/>
       <c r="G276" s="28"/>
       <c r="H276" s="28"/>
     </row>
     <row r="277">
-      <c r="A277" s="116"/>
+      <c r="A277" s="112"/>
       <c r="G277" s="28"/>
       <c r="H277" s="28"/>
     </row>
     <row r="278">
-      <c r="A278" s="116"/>
+      <c r="A278" s="112"/>
       <c r="G278" s="28"/>
       <c r="H278" s="28"/>
     </row>
     <row r="279">
-      <c r="A279" s="116"/>
+      <c r="A279" s="112"/>
       <c r="G279" s="28"/>
       <c r="H279" s="28"/>
     </row>
     <row r="280">
-      <c r="A280" s="116"/>
+      <c r="A280" s="112"/>
       <c r="G280" s="28"/>
       <c r="H280" s="28"/>
     </row>
     <row r="281">
-      <c r="A281" s="116"/>
+      <c r="A281" s="112"/>
       <c r="G281" s="28"/>
       <c r="H281" s="28"/>
     </row>
     <row r="282">
-      <c r="A282" s="116"/>
+      <c r="A282" s="112"/>
       <c r="G282" s="28"/>
       <c r="H282" s="28"/>
     </row>
     <row r="283">
-      <c r="A283" s="116"/>
+      <c r="A283" s="112"/>
       <c r="G283" s="28"/>
       <c r="H283" s="28"/>
     </row>
     <row r="284">
-      <c r="A284" s="116"/>
+      <c r="A284" s="112"/>
       <c r="G284" s="28"/>
       <c r="H284" s="28"/>
     </row>
     <row r="285">
-      <c r="A285" s="116"/>
+      <c r="A285" s="112"/>
       <c r="G285" s="28"/>
       <c r="H285" s="28"/>
     </row>
     <row r="286">
-      <c r="A286" s="116"/>
+      <c r="A286" s="112"/>
       <c r="G286" s="28"/>
       <c r="H286" s="28"/>
     </row>
     <row r="287">
-      <c r="A287" s="116"/>
+      <c r="A287" s="112"/>
       <c r="G287" s="28"/>
       <c r="H287" s="28"/>
     </row>
     <row r="288">
-      <c r="A288" s="116"/>
+      <c r="A288" s="112"/>
       <c r="G288" s="28"/>
       <c r="H288" s="28"/>
     </row>
     <row r="289">
-      <c r="A289" s="116"/>
+      <c r="A289" s="112"/>
       <c r="G289" s="28"/>
       <c r="H289" s="28"/>
     </row>
     <row r="290">
-      <c r="A290" s="116"/>
+      <c r="A290" s="112"/>
       <c r="G290" s="28"/>
       <c r="H290" s="28"/>
     </row>
     <row r="291">
-      <c r="A291" s="116"/>
+      <c r="A291" s="112"/>
       <c r="G291" s="28"/>
       <c r="H291" s="28"/>
     </row>
     <row r="292">
-      <c r="A292" s="116"/>
+      <c r="A292" s="112"/>
       <c r="G292" s="28"/>
       <c r="H292" s="28"/>
     </row>
     <row r="293">
-      <c r="A293" s="116"/>
+      <c r="A293" s="112"/>
       <c r="G293" s="28"/>
       <c r="H293" s="28"/>
     </row>
     <row r="294">
-      <c r="A294" s="116"/>
+      <c r="A294" s="112"/>
       <c r="G294" s="28"/>
       <c r="H294" s="28"/>
     </row>
     <row r="295">
-      <c r="A295" s="116"/>
+      <c r="A295" s="112"/>
       <c r="G295" s="28"/>
       <c r="H295" s="28"/>
     </row>
     <row r="296">
-      <c r="A296" s="116"/>
+      <c r="A296" s="112"/>
       <c r="G296" s="28"/>
       <c r="H296" s="28"/>
     </row>
     <row r="297">
-      <c r="A297" s="116"/>
+      <c r="A297" s="112"/>
       <c r="G297" s="28"/>
       <c r="H297" s="28"/>
     </row>
     <row r="298">
-      <c r="A298" s="116"/>
+      <c r="A298" s="112"/>
       <c r="G298" s="28"/>
       <c r="H298" s="28"/>
     </row>
     <row r="299">
-      <c r="A299" s="116"/>
+      <c r="A299" s="112"/>
       <c r="G299" s="28"/>
       <c r="H299" s="28"/>
     </row>
     <row r="300">
-      <c r="A300" s="116"/>
+      <c r="A300" s="112"/>
       <c r="G300" s="28"/>
       <c r="H300" s="28"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="116"/>
-      <c r="G301" s="28"/>
-      <c r="H301" s="28"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="116"/>
-      <c r="G302" s="28"/>
-      <c r="H302" s="28"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="116"/>
-      <c r="G303" s="28"/>
-      <c r="H303" s="28"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="116"/>
-      <c r="G304" s="28"/>
-      <c r="H304" s="28"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="116"/>
-      <c r="G305" s="28"/>
-      <c r="H305" s="28"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="116"/>
-      <c r="G306" s="28"/>
-      <c r="H306" s="28"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="116"/>
-      <c r="G307" s="28"/>
-      <c r="H307" s="28"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="116"/>
-      <c r="G308" s="28"/>
-      <c r="H308" s="28"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="116"/>
-      <c r="G309" s="28"/>
-      <c r="H309" s="28"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="116"/>
-      <c r="G310" s="28"/>
-      <c r="H310" s="28"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="116"/>
-      <c r="G311" s="28"/>
-      <c r="H311" s="28"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="116"/>
-      <c r="G312" s="28"/>
-      <c r="H312" s="28"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="116"/>
-      <c r="G313" s="28"/>
-      <c r="H313" s="28"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="116"/>
-      <c r="G314" s="28"/>
-      <c r="H314" s="28"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="116"/>
-      <c r="G315" s="28"/>
-      <c r="H315" s="28"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="116"/>
-      <c r="G316" s="28"/>
-      <c r="H316" s="28"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="116"/>
-      <c r="G317" s="28"/>
-      <c r="H317" s="28"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="116"/>
-      <c r="G318" s="28"/>
-      <c r="H318" s="28"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="116"/>
-      <c r="G319" s="28"/>
-      <c r="H319" s="28"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="116"/>
-      <c r="G320" s="28"/>
-      <c r="H320" s="28"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="116"/>
-      <c r="G321" s="28"/>
-      <c r="H321" s="28"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="116"/>
-      <c r="G322" s="28"/>
-      <c r="H322" s="28"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="116"/>
-      <c r="G323" s="28"/>
-      <c r="H323" s="28"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="116"/>
-      <c r="G324" s="28"/>
-      <c r="H324" s="28"/>
-    </row>
-    <row r="325">
-      <c r="A325" s="116"/>
-      <c r="G325" s="28"/>
-      <c r="H325" s="28"/>
-    </row>
-    <row r="326">
-      <c r="A326" s="116"/>
-      <c r="G326" s="28"/>
-      <c r="H326" s="28"/>
-    </row>
-    <row r="327">
-      <c r="A327" s="116"/>
-      <c r="G327" s="28"/>
-      <c r="H327" s="28"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="116"/>
-      <c r="G328" s="28"/>
-      <c r="H328" s="28"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="116"/>
-      <c r="G329" s="28"/>
-      <c r="H329" s="28"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="116"/>
-      <c r="G330" s="28"/>
-      <c r="H330" s="28"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="116"/>
-      <c r="G331" s="28"/>
-      <c r="H331" s="28"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="116"/>
-      <c r="G332" s="28"/>
-      <c r="H332" s="28"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="116"/>
-      <c r="G333" s="28"/>
-      <c r="H333" s="28"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="116"/>
-      <c r="G334" s="28"/>
-      <c r="H334" s="28"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="116"/>
-      <c r="G335" s="28"/>
-      <c r="H335" s="28"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="116"/>
-      <c r="G336" s="28"/>
-      <c r="H336" s="28"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="116"/>
-      <c r="G337" s="28"/>
-      <c r="H337" s="28"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="116"/>
-      <c r="G338" s="28"/>
-      <c r="H338" s="28"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="116"/>
-      <c r="G339" s="28"/>
-      <c r="H339" s="28"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="116"/>
-      <c r="G340" s="28"/>
-      <c r="H340" s="28"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="116"/>
-      <c r="G341" s="28"/>
-      <c r="H341" s="28"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="116"/>
-      <c r="G342" s="28"/>
-      <c r="H342" s="28"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="116"/>
-      <c r="G343" s="28"/>
-      <c r="H343" s="28"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="116"/>
-      <c r="G344" s="28"/>
-      <c r="H344" s="28"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="116"/>
-      <c r="G345" s="28"/>
-      <c r="H345" s="28"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="116"/>
-      <c r="G346" s="28"/>
-      <c r="H346" s="28"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="116"/>
-      <c r="G347" s="28"/>
-      <c r="H347" s="28"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="116"/>
-      <c r="G348" s="28"/>
-      <c r="H348" s="28"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="116"/>
-      <c r="G349" s="28"/>
-      <c r="H349" s="28"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="116"/>
-      <c r="G350" s="28"/>
-      <c r="H350" s="28"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="116"/>
-      <c r="G351" s="28"/>
-      <c r="H351" s="28"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="116"/>
-      <c r="G352" s="28"/>
-      <c r="H352" s="28"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="116"/>
-      <c r="G353" s="28"/>
-      <c r="H353" s="28"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="116"/>
-      <c r="G354" s="28"/>
-      <c r="H354" s="28"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="116"/>
-      <c r="G355" s="28"/>
-      <c r="H355" s="28"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="116"/>
-      <c r="G356" s="28"/>
-      <c r="H356" s="28"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="116"/>
-      <c r="G357" s="28"/>
-      <c r="H357" s="28"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="116"/>
-      <c r="G358" s="28"/>
-      <c r="H358" s="28"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="116"/>
-      <c r="G359" s="28"/>
-      <c r="H359" s="28"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="116"/>
-      <c r="G360" s="28"/>
-      <c r="H360" s="28"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="116"/>
-      <c r="G361" s="28"/>
-      <c r="H361" s="28"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="116"/>
-      <c r="G362" s="28"/>
-      <c r="H362" s="28"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="116"/>
-      <c r="G363" s="28"/>
-      <c r="H363" s="28"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="116"/>
-      <c r="G364" s="28"/>
-      <c r="H364" s="28"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="116"/>
-      <c r="G365" s="28"/>
-      <c r="H365" s="28"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="116"/>
-      <c r="G366" s="28"/>
-      <c r="H366" s="28"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="116"/>
-      <c r="G367" s="28"/>
-      <c r="H367" s="28"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="116"/>
-      <c r="G368" s="28"/>
-      <c r="H368" s="28"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="116"/>
-      <c r="G369" s="28"/>
-      <c r="H369" s="28"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="116"/>
-      <c r="G370" s="28"/>
-      <c r="H370" s="28"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="116"/>
-      <c r="G371" s="28"/>
-      <c r="H371" s="28"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="116"/>
-      <c r="G372" s="28"/>
-      <c r="H372" s="28"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="116"/>
-      <c r="G373" s="28"/>
-      <c r="H373" s="28"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="116"/>
-      <c r="G374" s="28"/>
-      <c r="H374" s="28"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="116"/>
-      <c r="G375" s="28"/>
-      <c r="H375" s="28"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="116"/>
-      <c r="G376" s="28"/>
-      <c r="H376" s="28"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="116"/>
-      <c r="G377" s="28"/>
-      <c r="H377" s="28"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="116"/>
-      <c r="G378" s="28"/>
-      <c r="H378" s="28"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="116"/>
-      <c r="G379" s="28"/>
-      <c r="H379" s="28"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="116"/>
-      <c r="G380" s="28"/>
-      <c r="H380" s="28"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="116"/>
-      <c r="G381" s="28"/>
-      <c r="H381" s="28"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="116"/>
-      <c r="G382" s="28"/>
-      <c r="H382" s="28"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="116"/>
-      <c r="G383" s="28"/>
-      <c r="H383" s="28"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="116"/>
-      <c r="G384" s="28"/>
-      <c r="H384" s="28"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="116"/>
-      <c r="G385" s="28"/>
-      <c r="H385" s="28"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="116"/>
-      <c r="G386" s="28"/>
-      <c r="H386" s="28"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="116"/>
-      <c r="G387" s="28"/>
-      <c r="H387" s="28"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="116"/>
-      <c r="G388" s="28"/>
-      <c r="H388" s="28"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="116"/>
-      <c r="G389" s="28"/>
-      <c r="H389" s="28"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="116"/>
-      <c r="G390" s="28"/>
-      <c r="H390" s="28"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="116"/>
-      <c r="G391" s="28"/>
-      <c r="H391" s="28"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="116"/>
-      <c r="G392" s="28"/>
-      <c r="H392" s="28"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="116"/>
-      <c r="G393" s="28"/>
-      <c r="H393" s="28"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="116"/>
-      <c r="G394" s="28"/>
-      <c r="H394" s="28"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="116"/>
-      <c r="G395" s="28"/>
-      <c r="H395" s="28"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="116"/>
-      <c r="G396" s="28"/>
-      <c r="H396" s="28"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="116"/>
-      <c r="G397" s="28"/>
-      <c r="H397" s="28"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="116"/>
-      <c r="G398" s="28"/>
-      <c r="H398" s="28"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="116"/>
-      <c r="G399" s="28"/>
-      <c r="H399" s="28"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="116"/>
-      <c r="G400" s="28"/>
-      <c r="H400" s="28"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="116"/>
-      <c r="G401" s="28"/>
-      <c r="H401" s="28"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="116"/>
-      <c r="G402" s="28"/>
-      <c r="H402" s="28"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="116"/>
-      <c r="G403" s="28"/>
-      <c r="H403" s="28"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="116"/>
-      <c r="G404" s="28"/>
-      <c r="H404" s="28"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="116"/>
-      <c r="G405" s="28"/>
-      <c r="H405" s="28"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="116"/>
-      <c r="G406" s="28"/>
-      <c r="H406" s="28"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="116"/>
-      <c r="G407" s="28"/>
-      <c r="H407" s="28"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="116"/>
-      <c r="G408" s="28"/>
-      <c r="H408" s="28"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="116"/>
-      <c r="G409" s="28"/>
-      <c r="H409" s="28"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="116"/>
-      <c r="G410" s="28"/>
-      <c r="H410" s="28"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="116"/>
-      <c r="G411" s="28"/>
-      <c r="H411" s="28"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="116"/>
-      <c r="G412" s="28"/>
-      <c r="H412" s="28"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="116"/>
-      <c r="G413" s="28"/>
-      <c r="H413" s="28"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="116"/>
-      <c r="G414" s="28"/>
-      <c r="H414" s="28"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="116"/>
-      <c r="G415" s="28"/>
-      <c r="H415" s="28"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="116"/>
-      <c r="G416" s="28"/>
-      <c r="H416" s="28"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="116"/>
-      <c r="G417" s="28"/>
-      <c r="H417" s="28"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="116"/>
-      <c r="G418" s="28"/>
-      <c r="H418" s="28"/>
-    </row>
-    <row r="419">
-      <c r="A419" s="116"/>
-      <c r="G419" s="28"/>
-      <c r="H419" s="28"/>
-    </row>
-    <row r="420">
-      <c r="A420" s="116"/>
-      <c r="G420" s="28"/>
-      <c r="H420" s="28"/>
-    </row>
-    <row r="421">
-      <c r="A421" s="116"/>
-      <c r="G421" s="28"/>
-      <c r="H421" s="28"/>
-    </row>
-    <row r="422">
-      <c r="A422" s="116"/>
-      <c r="G422" s="28"/>
-      <c r="H422" s="28"/>
-    </row>
-    <row r="423">
-      <c r="A423" s="116"/>
-      <c r="G423" s="28"/>
-      <c r="H423" s="28"/>
-    </row>
-    <row r="424">
-      <c r="A424" s="116"/>
-      <c r="G424" s="28"/>
-      <c r="H424" s="28"/>
-    </row>
-    <row r="425">
-      <c r="A425" s="116"/>
-      <c r="G425" s="28"/>
-      <c r="H425" s="28"/>
-    </row>
-    <row r="426">
-      <c r="A426" s="116"/>
-      <c r="G426" s="28"/>
-      <c r="H426" s="28"/>
-    </row>
-    <row r="427">
-      <c r="A427" s="116"/>
-      <c r="G427" s="28"/>
-      <c r="H427" s="28"/>
-    </row>
-    <row r="428">
-      <c r="A428" s="116"/>
-      <c r="G428" s="28"/>
-      <c r="H428" s="28"/>
-    </row>
-    <row r="429">
-      <c r="A429" s="116"/>
-      <c r="G429" s="28"/>
-      <c r="H429" s="28"/>
-    </row>
-    <row r="430">
-      <c r="A430" s="116"/>
-      <c r="G430" s="28"/>
-      <c r="H430" s="28"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="116"/>
-      <c r="G431" s="28"/>
-      <c r="H431" s="28"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="116"/>
-      <c r="G432" s="28"/>
-      <c r="H432" s="28"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="116"/>
-      <c r="G433" s="28"/>
-      <c r="H433" s="28"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="116"/>
-      <c r="G434" s="28"/>
-      <c r="H434" s="28"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="116"/>
-      <c r="G435" s="28"/>
-      <c r="H435" s="28"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="116"/>
-      <c r="G436" s="28"/>
-      <c r="H436" s="28"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="116"/>
-      <c r="G437" s="28"/>
-      <c r="H437" s="28"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="116"/>
-      <c r="G438" s="28"/>
-      <c r="H438" s="28"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="116"/>
-      <c r="G439" s="28"/>
-      <c r="H439" s="28"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="116"/>
-      <c r="G440" s="28"/>
-      <c r="H440" s="28"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="116"/>
-      <c r="G441" s="28"/>
-      <c r="H441" s="28"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="116"/>
-      <c r="G442" s="28"/>
-      <c r="H442" s="28"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="116"/>
-      <c r="G443" s="28"/>
-      <c r="H443" s="28"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="116"/>
-      <c r="G444" s="28"/>
-      <c r="H444" s="28"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="116"/>
-      <c r="G445" s="28"/>
-      <c r="H445" s="28"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="116"/>
-      <c r="G446" s="28"/>
-      <c r="H446" s="28"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="116"/>
-      <c r="G447" s="28"/>
-      <c r="H447" s="28"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="116"/>
-      <c r="G448" s="28"/>
-      <c r="H448" s="28"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="116"/>
-      <c r="G449" s="28"/>
-      <c r="H449" s="28"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="116"/>
-      <c r="G450" s="28"/>
-      <c r="H450" s="28"/>
-    </row>
-    <row r="451">
-      <c r="A451" s="116"/>
-      <c r="G451" s="28"/>
-      <c r="H451" s="28"/>
-    </row>
-    <row r="452">
-      <c r="A452" s="116"/>
-      <c r="G452" s="28"/>
-      <c r="H452" s="28"/>
-    </row>
-    <row r="453">
-      <c r="A453" s="116"/>
-      <c r="G453" s="28"/>
-      <c r="H453" s="28"/>
-    </row>
-    <row r="454">
-      <c r="A454" s="116"/>
-      <c r="G454" s="28"/>
-      <c r="H454" s="28"/>
-    </row>
-    <row r="455">
-      <c r="A455" s="116"/>
-      <c r="G455" s="28"/>
-      <c r="H455" s="28"/>
-    </row>
-    <row r="456">
-      <c r="A456" s="116"/>
-      <c r="G456" s="28"/>
-      <c r="H456" s="28"/>
-    </row>
-    <row r="457">
-      <c r="A457" s="116"/>
-      <c r="G457" s="28"/>
-      <c r="H457" s="28"/>
-    </row>
-    <row r="458">
-      <c r="A458" s="116"/>
-      <c r="G458" s="28"/>
-      <c r="H458" s="28"/>
-    </row>
-    <row r="459">
-      <c r="A459" s="116"/>
-      <c r="G459" s="28"/>
-      <c r="H459" s="28"/>
-    </row>
-    <row r="460">
-      <c r="A460" s="116"/>
-      <c r="G460" s="28"/>
-      <c r="H460" s="28"/>
-    </row>
-    <row r="461">
-      <c r="A461" s="116"/>
-      <c r="G461" s="28"/>
-      <c r="H461" s="28"/>
-    </row>
-    <row r="462">
-      <c r="A462" s="116"/>
-      <c r="G462" s="28"/>
-      <c r="H462" s="28"/>
-    </row>
-    <row r="463">
-      <c r="A463" s="116"/>
-      <c r="G463" s="28"/>
-      <c r="H463" s="28"/>
-    </row>
-    <row r="464">
-      <c r="A464" s="116"/>
-      <c r="G464" s="28"/>
-      <c r="H464" s="28"/>
-    </row>
-    <row r="465">
-      <c r="A465" s="116"/>
-      <c r="G465" s="28"/>
-      <c r="H465" s="28"/>
-    </row>
-    <row r="466">
-      <c r="A466" s="116"/>
-      <c r="G466" s="28"/>
-      <c r="H466" s="28"/>
-    </row>
-    <row r="467">
-      <c r="A467" s="116"/>
-      <c r="G467" s="28"/>
-      <c r="H467" s="28"/>
-    </row>
-    <row r="468">
-      <c r="A468" s="116"/>
-      <c r="G468" s="28"/>
-      <c r="H468" s="28"/>
-    </row>
-    <row r="469">
-      <c r="A469" s="116"/>
-      <c r="G469" s="28"/>
-      <c r="H469" s="28"/>
-    </row>
-    <row r="470">
-      <c r="A470" s="116"/>
-      <c r="G470" s="28"/>
-      <c r="H470" s="28"/>
-    </row>
-    <row r="471">
-      <c r="A471" s="116"/>
-      <c r="G471" s="28"/>
-      <c r="H471" s="28"/>
-    </row>
-    <row r="472">
-      <c r="A472" s="116"/>
-      <c r="G472" s="28"/>
-      <c r="H472" s="28"/>
-    </row>
-    <row r="473">
-      <c r="A473" s="116"/>
-      <c r="G473" s="28"/>
-      <c r="H473" s="28"/>
-    </row>
-    <row r="474">
-      <c r="A474" s="116"/>
-      <c r="G474" s="28"/>
-      <c r="H474" s="28"/>
-    </row>
-    <row r="475">
-      <c r="A475" s="116"/>
-      <c r="G475" s="28"/>
-      <c r="H475" s="28"/>
-    </row>
-    <row r="476">
-      <c r="A476" s="116"/>
-      <c r="G476" s="28"/>
-      <c r="H476" s="28"/>
-    </row>
-    <row r="477">
-      <c r="A477" s="116"/>
-      <c r="G477" s="28"/>
-      <c r="H477" s="28"/>
-    </row>
-    <row r="478">
-      <c r="A478" s="116"/>
-      <c r="G478" s="28"/>
-      <c r="H478" s="28"/>
-    </row>
-    <row r="479">
-      <c r="A479" s="116"/>
-      <c r="G479" s="28"/>
-      <c r="H479" s="28"/>
-    </row>
-    <row r="480">
-      <c r="A480" s="116"/>
-      <c r="G480" s="28"/>
-      <c r="H480" s="28"/>
-    </row>
-    <row r="481">
-      <c r="A481" s="116"/>
-      <c r="G481" s="28"/>
-      <c r="H481" s="28"/>
-    </row>
-    <row r="482">
-      <c r="A482" s="116"/>
-      <c r="G482" s="28"/>
-      <c r="H482" s="28"/>
-    </row>
-    <row r="483">
-      <c r="A483" s="116"/>
-      <c r="G483" s="28"/>
-      <c r="H483" s="28"/>
-    </row>
-    <row r="484">
-      <c r="A484" s="116"/>
-      <c r="G484" s="28"/>
-      <c r="H484" s="28"/>
-    </row>
-    <row r="485">
-      <c r="A485" s="116"/>
-      <c r="G485" s="28"/>
-      <c r="H485" s="28"/>
-    </row>
-    <row r="486">
-      <c r="A486" s="116"/>
-      <c r="G486" s="28"/>
-      <c r="H486" s="28"/>
-    </row>
-    <row r="487">
-      <c r="A487" s="116"/>
-      <c r="G487" s="28"/>
-      <c r="H487" s="28"/>
-    </row>
-    <row r="488">
-      <c r="A488" s="116"/>
-      <c r="G488" s="28"/>
-      <c r="H488" s="28"/>
-    </row>
-    <row r="489">
-      <c r="A489" s="116"/>
-      <c r="G489" s="28"/>
-      <c r="H489" s="28"/>
-    </row>
-    <row r="490">
-      <c r="A490" s="116"/>
-      <c r="G490" s="28"/>
-      <c r="H490" s="28"/>
-    </row>
-    <row r="491">
-      <c r="A491" s="116"/>
-      <c r="G491" s="28"/>
-      <c r="H491" s="28"/>
-    </row>
-    <row r="492">
-      <c r="A492" s="116"/>
-      <c r="G492" s="28"/>
-      <c r="H492" s="28"/>
-    </row>
-    <row r="493">
-      <c r="A493" s="116"/>
-      <c r="G493" s="28"/>
-      <c r="H493" s="28"/>
-    </row>
-    <row r="494">
-      <c r="A494" s="116"/>
-      <c r="G494" s="28"/>
-      <c r="H494" s="28"/>
-    </row>
-    <row r="495">
-      <c r="A495" s="116"/>
-      <c r="G495" s="28"/>
-      <c r="H495" s="28"/>
-    </row>
-    <row r="496">
-      <c r="A496" s="116"/>
-      <c r="G496" s="28"/>
-      <c r="H496" s="28"/>
-    </row>
-    <row r="497">
-      <c r="A497" s="116"/>
-      <c r="G497" s="28"/>
-      <c r="H497" s="28"/>
-    </row>
-    <row r="498">
-      <c r="A498" s="116"/>
-      <c r="G498" s="28"/>
-      <c r="H498" s="28"/>
-    </row>
-    <row r="499">
-      <c r="A499" s="116"/>
-      <c r="G499" s="28"/>
-      <c r="H499" s="28"/>
-    </row>
-    <row r="500">
-      <c r="A500" s="116"/>
-      <c r="G500" s="28"/>
-      <c r="H500" s="28"/>
-    </row>
-    <row r="501">
-      <c r="A501" s="116"/>
-      <c r="G501" s="28"/>
-      <c r="H501" s="28"/>
-    </row>
-    <row r="502">
-      <c r="A502" s="116"/>
-      <c r="G502" s="28"/>
-      <c r="H502" s="28"/>
-    </row>
-    <row r="503">
-      <c r="A503" s="116"/>
-      <c r="G503" s="28"/>
-      <c r="H503" s="28"/>
-    </row>
-    <row r="504">
-      <c r="A504" s="116"/>
-      <c r="G504" s="28"/>
-      <c r="H504" s="28"/>
-    </row>
-    <row r="505">
-      <c r="A505" s="116"/>
-      <c r="G505" s="28"/>
-      <c r="H505" s="28"/>
-    </row>
-    <row r="506">
-      <c r="A506" s="116"/>
-      <c r="G506" s="28"/>
-      <c r="H506" s="28"/>
-    </row>
-    <row r="507">
-      <c r="A507" s="116"/>
-      <c r="G507" s="28"/>
-      <c r="H507" s="28"/>
-    </row>
-    <row r="508">
-      <c r="A508" s="116"/>
-      <c r="G508" s="28"/>
-      <c r="H508" s="28"/>
-    </row>
-    <row r="509">
-      <c r="A509" s="116"/>
-      <c r="G509" s="28"/>
-      <c r="H509" s="28"/>
-    </row>
-    <row r="510">
-      <c r="A510" s="116"/>
-      <c r="G510" s="28"/>
-      <c r="H510" s="28"/>
-    </row>
-    <row r="511">
-      <c r="A511" s="116"/>
-      <c r="G511" s="28"/>
-      <c r="H511" s="28"/>
-    </row>
-    <row r="512">
-      <c r="A512" s="116"/>
-      <c r="G512" s="28"/>
-      <c r="H512" s="28"/>
-    </row>
-    <row r="513">
-      <c r="A513" s="116"/>
-      <c r="G513" s="28"/>
-      <c r="H513" s="28"/>
-    </row>
-    <row r="514">
-      <c r="A514" s="116"/>
-      <c r="G514" s="28"/>
-      <c r="H514" s="28"/>
-    </row>
-    <row r="515">
-      <c r="A515" s="116"/>
-      <c r="G515" s="28"/>
-      <c r="H515" s="28"/>
-    </row>
-    <row r="516">
-      <c r="A516" s="116"/>
-      <c r="G516" s="28"/>
-      <c r="H516" s="28"/>
-    </row>
-    <row r="517">
-      <c r="A517" s="116"/>
-      <c r="G517" s="28"/>
-      <c r="H517" s="28"/>
-    </row>
-    <row r="518">
-      <c r="A518" s="116"/>
-      <c r="G518" s="28"/>
-      <c r="H518" s="28"/>
-    </row>
-    <row r="519">
-      <c r="A519" s="116"/>
-      <c r="G519" s="28"/>
-      <c r="H519" s="28"/>
-    </row>
-    <row r="520">
-      <c r="A520" s="116"/>
-      <c r="G520" s="28"/>
-      <c r="H520" s="28"/>
-    </row>
-    <row r="521">
-      <c r="A521" s="116"/>
-      <c r="G521" s="28"/>
-      <c r="H521" s="28"/>
-    </row>
-    <row r="522">
-      <c r="A522" s="116"/>
-      <c r="G522" s="28"/>
-      <c r="H522" s="28"/>
-    </row>
-    <row r="523">
-      <c r="A523" s="116"/>
-      <c r="G523" s="28"/>
-      <c r="H523" s="28"/>
-    </row>
-    <row r="524">
-      <c r="A524" s="116"/>
-      <c r="G524" s="28"/>
-      <c r="H524" s="28"/>
-    </row>
-    <row r="525">
-      <c r="A525" s="116"/>
-      <c r="G525" s="28"/>
-      <c r="H525" s="28"/>
-    </row>
-    <row r="526">
-      <c r="A526" s="116"/>
-      <c r="G526" s="28"/>
-      <c r="H526" s="28"/>
-    </row>
-    <row r="527">
-      <c r="A527" s="116"/>
-      <c r="G527" s="28"/>
-      <c r="H527" s="28"/>
-    </row>
-    <row r="528">
-      <c r="A528" s="116"/>
-      <c r="G528" s="28"/>
-      <c r="H528" s="28"/>
-    </row>
-    <row r="529">
-      <c r="A529" s="116"/>
-      <c r="G529" s="28"/>
-      <c r="H529" s="28"/>
-    </row>
-    <row r="530">
-      <c r="A530" s="116"/>
-      <c r="G530" s="28"/>
-      <c r="H530" s="28"/>
-    </row>
-    <row r="531">
-      <c r="A531" s="116"/>
-      <c r="G531" s="28"/>
-      <c r="H531" s="28"/>
-    </row>
-    <row r="532">
-      <c r="A532" s="116"/>
-      <c r="G532" s="28"/>
-      <c r="H532" s="28"/>
-    </row>
-    <row r="533">
-      <c r="A533" s="116"/>
-      <c r="G533" s="28"/>
-      <c r="H533" s="28"/>
-    </row>
-    <row r="534">
-      <c r="A534" s="116"/>
-      <c r="G534" s="28"/>
-      <c r="H534" s="28"/>
-    </row>
-    <row r="535">
-      <c r="A535" s="116"/>
-      <c r="G535" s="28"/>
-      <c r="H535" s="28"/>
-    </row>
-    <row r="536">
-      <c r="A536" s="116"/>
-      <c r="G536" s="28"/>
-      <c r="H536" s="28"/>
-    </row>
-    <row r="537">
-      <c r="A537" s="116"/>
-      <c r="G537" s="28"/>
-      <c r="H537" s="28"/>
-    </row>
-    <row r="538">
-      <c r="A538" s="116"/>
-      <c r="G538" s="28"/>
-      <c r="H538" s="28"/>
-    </row>
-    <row r="539">
-      <c r="A539" s="116"/>
-      <c r="G539" s="28"/>
-      <c r="H539" s="28"/>
-    </row>
-    <row r="540">
-      <c r="A540" s="116"/>
-      <c r="G540" s="28"/>
-      <c r="H540" s="28"/>
-    </row>
-    <row r="541">
-      <c r="A541" s="116"/>
-      <c r="G541" s="28"/>
-      <c r="H541" s="28"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="116"/>
-      <c r="G542" s="28"/>
-      <c r="H542" s="28"/>
-    </row>
-    <row r="543">
-      <c r="A543" s="116"/>
-      <c r="G543" s="28"/>
-      <c r="H543" s="28"/>
-    </row>
-    <row r="544">
-      <c r="A544" s="116"/>
-      <c r="G544" s="28"/>
-      <c r="H544" s="28"/>
-    </row>
-    <row r="545">
-      <c r="A545" s="116"/>
-      <c r="G545" s="28"/>
-      <c r="H545" s="28"/>
-    </row>
-    <row r="546">
-      <c r="A546" s="116"/>
-      <c r="G546" s="28"/>
-      <c r="H546" s="28"/>
-    </row>
-    <row r="547">
-      <c r="A547" s="116"/>
-      <c r="G547" s="28"/>
-      <c r="H547" s="28"/>
-    </row>
-    <row r="548">
-      <c r="A548" s="116"/>
-      <c r="G548" s="28"/>
-      <c r="H548" s="28"/>
-    </row>
-    <row r="549">
-      <c r="A549" s="116"/>
-      <c r="G549" s="28"/>
-      <c r="H549" s="28"/>
-    </row>
-    <row r="550">
-      <c r="A550" s="116"/>
-      <c r="G550" s="28"/>
-      <c r="H550" s="28"/>
-    </row>
-    <row r="551">
-      <c r="A551" s="116"/>
-      <c r="G551" s="28"/>
-      <c r="H551" s="28"/>
-    </row>
-    <row r="552">
-      <c r="A552" s="116"/>
-      <c r="G552" s="28"/>
-      <c r="H552" s="28"/>
-    </row>
-    <row r="553">
-      <c r="A553" s="116"/>
-      <c r="G553" s="28"/>
-      <c r="H553" s="28"/>
-    </row>
-    <row r="554">
-      <c r="A554" s="116"/>
-      <c r="G554" s="28"/>
-      <c r="H554" s="28"/>
-    </row>
-    <row r="555">
-      <c r="A555" s="116"/>
-      <c r="G555" s="28"/>
-      <c r="H555" s="28"/>
-    </row>
-    <row r="556">
-      <c r="A556" s="116"/>
-      <c r="G556" s="28"/>
-      <c r="H556" s="28"/>
-    </row>
-    <row r="557">
-      <c r="A557" s="116"/>
-      <c r="G557" s="28"/>
-      <c r="H557" s="28"/>
-    </row>
-    <row r="558">
-      <c r="A558" s="116"/>
-      <c r="G558" s="28"/>
-      <c r="H558" s="28"/>
-    </row>
-    <row r="559">
-      <c r="A559" s="116"/>
-      <c r="G559" s="28"/>
-      <c r="H559" s="28"/>
-    </row>
-    <row r="560">
-      <c r="A560" s="116"/>
-      <c r="G560" s="28"/>
-      <c r="H560" s="28"/>
-    </row>
-    <row r="561">
-      <c r="A561" s="116"/>
-      <c r="G561" s="28"/>
-      <c r="H561" s="28"/>
-    </row>
-    <row r="562">
-      <c r="A562" s="116"/>
-      <c r="G562" s="28"/>
-      <c r="H562" s="28"/>
-    </row>
-    <row r="563">
-      <c r="A563" s="116"/>
-      <c r="G563" s="28"/>
-      <c r="H563" s="28"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="116"/>
-      <c r="G564" s="28"/>
-      <c r="H564" s="28"/>
-    </row>
-    <row r="565">
-      <c r="A565" s="116"/>
-      <c r="G565" s="28"/>
-      <c r="H565" s="28"/>
-    </row>
-    <row r="566">
-      <c r="A566" s="116"/>
-      <c r="G566" s="28"/>
-      <c r="H566" s="28"/>
-    </row>
-    <row r="567">
-      <c r="A567" s="116"/>
-      <c r="G567" s="28"/>
-      <c r="H567" s="28"/>
-    </row>
-    <row r="568">
-      <c r="A568" s="116"/>
-      <c r="G568" s="28"/>
-      <c r="H568" s="28"/>
-    </row>
-    <row r="569">
-      <c r="A569" s="116"/>
-      <c r="G569" s="28"/>
-      <c r="H569" s="28"/>
-    </row>
-    <row r="570">
-      <c r="A570" s="116"/>
-      <c r="G570" s="28"/>
-      <c r="H570" s="28"/>
-    </row>
-    <row r="571">
-      <c r="A571" s="116"/>
-      <c r="G571" s="28"/>
-      <c r="H571" s="28"/>
-    </row>
-    <row r="572">
-      <c r="A572" s="116"/>
-      <c r="G572" s="28"/>
-      <c r="H572" s="28"/>
-    </row>
-    <row r="573">
-      <c r="A573" s="116"/>
-      <c r="G573" s="28"/>
-      <c r="H573" s="28"/>
-    </row>
-    <row r="574">
-      <c r="A574" s="116"/>
-      <c r="G574" s="28"/>
-      <c r="H574" s="28"/>
-    </row>
-    <row r="575">
-      <c r="A575" s="116"/>
-      <c r="G575" s="28"/>
-      <c r="H575" s="28"/>
-    </row>
-    <row r="576">
-      <c r="A576" s="116"/>
-      <c r="G576" s="28"/>
-      <c r="H576" s="28"/>
-    </row>
-    <row r="577">
-      <c r="A577" s="116"/>
-      <c r="G577" s="28"/>
-      <c r="H577" s="28"/>
-    </row>
-    <row r="578">
-      <c r="A578" s="116"/>
-      <c r="G578" s="28"/>
-      <c r="H578" s="28"/>
-    </row>
-    <row r="579">
-      <c r="A579" s="116"/>
-      <c r="G579" s="28"/>
-      <c r="H579" s="28"/>
-    </row>
-    <row r="580">
-      <c r="A580" s="116"/>
-      <c r="G580" s="28"/>
-      <c r="H580" s="28"/>
-    </row>
-    <row r="581">
-      <c r="A581" s="116"/>
-      <c r="G581" s="28"/>
-      <c r="H581" s="28"/>
-    </row>
-    <row r="582">
-      <c r="A582" s="116"/>
-      <c r="G582" s="28"/>
-      <c r="H582" s="28"/>
-    </row>
-    <row r="583">
-      <c r="A583" s="116"/>
-      <c r="G583" s="28"/>
-      <c r="H583" s="28"/>
-    </row>
-    <row r="584">
-      <c r="A584" s="116"/>
-      <c r="G584" s="28"/>
-      <c r="H584" s="28"/>
-    </row>
-    <row r="585">
-      <c r="A585" s="116"/>
-      <c r="G585" s="28"/>
-      <c r="H585" s="28"/>
-    </row>
-    <row r="586">
-      <c r="A586" s="116"/>
-      <c r="G586" s="28"/>
-      <c r="H586" s="28"/>
-    </row>
-    <row r="587">
-      <c r="A587" s="116"/>
-      <c r="G587" s="28"/>
-      <c r="H587" s="28"/>
-    </row>
-    <row r="588">
-      <c r="A588" s="116"/>
-      <c r="G588" s="28"/>
-      <c r="H588" s="28"/>
-    </row>
-    <row r="589">
-      <c r="A589" s="116"/>
-      <c r="G589" s="28"/>
-      <c r="H589" s="28"/>
-    </row>
-    <row r="590">
-      <c r="A590" s="116"/>
-      <c r="G590" s="28"/>
-      <c r="H590" s="28"/>
-    </row>
-    <row r="591">
-      <c r="A591" s="116"/>
-      <c r="G591" s="28"/>
-      <c r="H591" s="28"/>
-    </row>
-    <row r="592">
-      <c r="A592" s="116"/>
-      <c r="G592" s="28"/>
-      <c r="H592" s="28"/>
-    </row>
-    <row r="593">
-      <c r="A593" s="116"/>
-      <c r="G593" s="28"/>
-      <c r="H593" s="28"/>
-    </row>
-    <row r="594">
-      <c r="A594" s="116"/>
-      <c r="G594" s="28"/>
-      <c r="H594" s="28"/>
-    </row>
-    <row r="595">
-      <c r="A595" s="116"/>
-      <c r="G595" s="28"/>
-      <c r="H595" s="28"/>
-    </row>
-    <row r="596">
-      <c r="A596" s="116"/>
-      <c r="G596" s="28"/>
-      <c r="H596" s="28"/>
-    </row>
-    <row r="597">
-      <c r="A597" s="116"/>
-      <c r="G597" s="28"/>
-      <c r="H597" s="28"/>
-    </row>
-    <row r="598">
-      <c r="A598" s="116"/>
-      <c r="G598" s="28"/>
-      <c r="H598" s="28"/>
-    </row>
-    <row r="599">
-      <c r="A599" s="116"/>
-      <c r="G599" s="28"/>
-      <c r="H599" s="28"/>
-    </row>
-    <row r="600">
-      <c r="A600" s="116"/>
-      <c r="G600" s="28"/>
-      <c r="H600" s="28"/>
-    </row>
-    <row r="601">
-      <c r="A601" s="116"/>
-      <c r="G601" s="28"/>
-      <c r="H601" s="28"/>
-    </row>
-    <row r="602">
-      <c r="A602" s="116"/>
-      <c r="G602" s="28"/>
-      <c r="H602" s="28"/>
-    </row>
-    <row r="603">
-      <c r="A603" s="116"/>
-      <c r="G603" s="28"/>
-      <c r="H603" s="28"/>
-    </row>
-    <row r="604">
-      <c r="A604" s="116"/>
-      <c r="G604" s="28"/>
-      <c r="H604" s="28"/>
-    </row>
-    <row r="605">
-      <c r="A605" s="116"/>
-      <c r="G605" s="28"/>
-      <c r="H605" s="28"/>
-    </row>
-    <row r="606">
-      <c r="A606" s="116"/>
-      <c r="G606" s="28"/>
-      <c r="H606" s="28"/>
-    </row>
-    <row r="607">
-      <c r="A607" s="116"/>
-      <c r="G607" s="28"/>
-      <c r="H607" s="28"/>
-    </row>
-    <row r="608">
-      <c r="A608" s="116"/>
-      <c r="G608" s="28"/>
-      <c r="H608" s="28"/>
-    </row>
-    <row r="609">
-      <c r="A609" s="116"/>
-      <c r="G609" s="28"/>
-      <c r="H609" s="28"/>
-    </row>
-    <row r="610">
-      <c r="A610" s="116"/>
-      <c r="G610" s="28"/>
-      <c r="H610" s="28"/>
-    </row>
-    <row r="611">
-      <c r="A611" s="116"/>
-      <c r="G611" s="28"/>
-      <c r="H611" s="28"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="116"/>
-      <c r="G612" s="28"/>
-      <c r="H612" s="28"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="116"/>
-      <c r="G613" s="28"/>
-      <c r="H613" s="28"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="116"/>
-      <c r="G614" s="28"/>
-      <c r="H614" s="28"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="116"/>
-      <c r="G615" s="28"/>
-      <c r="H615" s="28"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="116"/>
-      <c r="G616" s="28"/>
-      <c r="H616" s="28"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="116"/>
-      <c r="G617" s="28"/>
-      <c r="H617" s="28"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="116"/>
-      <c r="G618" s="28"/>
-      <c r="H618" s="28"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="116"/>
-      <c r="G619" s="28"/>
-      <c r="H619" s="28"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="116"/>
-      <c r="G620" s="28"/>
-      <c r="H620" s="28"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="116"/>
-      <c r="G621" s="28"/>
-      <c r="H621" s="28"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="116"/>
-      <c r="G622" s="28"/>
-      <c r="H622" s="28"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="116"/>
-      <c r="G623" s="28"/>
-      <c r="H623" s="28"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="116"/>
-      <c r="G624" s="28"/>
-      <c r="H624" s="28"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="116"/>
-      <c r="G625" s="28"/>
-      <c r="H625" s="28"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="116"/>
-      <c r="G626" s="28"/>
-      <c r="H626" s="28"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="116"/>
-      <c r="G627" s="28"/>
-      <c r="H627" s="28"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="116"/>
-      <c r="G628" s="28"/>
-      <c r="H628" s="28"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="116"/>
-      <c r="G629" s="28"/>
-      <c r="H629" s="28"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="116"/>
-      <c r="G630" s="28"/>
-      <c r="H630" s="28"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="116"/>
-      <c r="G631" s="28"/>
-      <c r="H631" s="28"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="116"/>
-      <c r="G632" s="28"/>
-      <c r="H632" s="28"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="116"/>
-      <c r="G633" s="28"/>
-      <c r="H633" s="28"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="116"/>
-      <c r="G634" s="28"/>
-      <c r="H634" s="28"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="116"/>
-      <c r="G635" s="28"/>
-      <c r="H635" s="28"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="116"/>
-      <c r="G636" s="28"/>
-      <c r="H636" s="28"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="116"/>
-      <c r="G637" s="28"/>
-      <c r="H637" s="28"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="116"/>
-      <c r="G638" s="28"/>
-      <c r="H638" s="28"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="116"/>
-      <c r="G639" s="28"/>
-      <c r="H639" s="28"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="116"/>
-      <c r="G640" s="28"/>
-      <c r="H640" s="28"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="116"/>
-      <c r="G641" s="28"/>
-      <c r="H641" s="28"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="116"/>
-      <c r="G642" s="28"/>
-      <c r="H642" s="28"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="116"/>
-      <c r="G643" s="28"/>
-      <c r="H643" s="28"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="116"/>
-      <c r="G644" s="28"/>
-      <c r="H644" s="28"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="116"/>
-      <c r="G645" s="28"/>
-      <c r="H645" s="28"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="116"/>
-      <c r="G646" s="28"/>
-      <c r="H646" s="28"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="116"/>
-      <c r="G647" s="28"/>
-      <c r="H647" s="28"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="116"/>
-      <c r="G648" s="28"/>
-      <c r="H648" s="28"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="116"/>
-      <c r="G649" s="28"/>
-      <c r="H649" s="28"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="116"/>
-      <c r="G650" s="28"/>
-      <c r="H650" s="28"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="116"/>
-      <c r="G651" s="28"/>
-      <c r="H651" s="28"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="116"/>
-      <c r="G652" s="28"/>
-      <c r="H652" s="28"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="116"/>
-      <c r="G653" s="28"/>
-      <c r="H653" s="28"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="116"/>
-      <c r="G654" s="28"/>
-      <c r="H654" s="28"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="116"/>
-      <c r="G655" s="28"/>
-      <c r="H655" s="28"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="116"/>
-      <c r="G656" s="28"/>
-      <c r="H656" s="28"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="116"/>
-      <c r="G657" s="28"/>
-      <c r="H657" s="28"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="116"/>
-      <c r="G658" s="28"/>
-      <c r="H658" s="28"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="116"/>
-      <c r="G659" s="28"/>
-      <c r="H659" s="28"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="116"/>
-      <c r="G660" s="28"/>
-      <c r="H660" s="28"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="116"/>
-      <c r="G661" s="28"/>
-      <c r="H661" s="28"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="116"/>
-      <c r="G662" s="28"/>
-      <c r="H662" s="28"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="116"/>
-      <c r="G663" s="28"/>
-      <c r="H663" s="28"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="116"/>
-      <c r="G664" s="28"/>
-      <c r="H664" s="28"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="116"/>
-      <c r="G665" s="28"/>
-      <c r="H665" s="28"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="116"/>
-      <c r="G666" s="28"/>
-      <c r="H666" s="28"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="116"/>
-      <c r="G667" s="28"/>
-      <c r="H667" s="28"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="116"/>
-      <c r="G668" s="28"/>
-      <c r="H668" s="28"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="116"/>
-      <c r="G669" s="28"/>
-      <c r="H669" s="28"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="116"/>
-      <c r="G670" s="28"/>
-      <c r="H670" s="28"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="116"/>
-      <c r="G671" s="28"/>
-      <c r="H671" s="28"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="116"/>
-      <c r="G672" s="28"/>
-      <c r="H672" s="28"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="116"/>
-      <c r="G673" s="28"/>
-      <c r="H673" s="28"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="116"/>
-      <c r="G674" s="28"/>
-      <c r="H674" s="28"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="116"/>
-      <c r="G675" s="28"/>
-      <c r="H675" s="28"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="116"/>
-      <c r="G676" s="28"/>
-      <c r="H676" s="28"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="116"/>
-      <c r="G677" s="28"/>
-      <c r="H677" s="28"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="116"/>
-      <c r="G678" s="28"/>
-      <c r="H678" s="28"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="116"/>
-      <c r="G679" s="28"/>
-      <c r="H679" s="28"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="116"/>
-      <c r="G680" s="28"/>
-      <c r="H680" s="28"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="116"/>
-      <c r="G681" s="28"/>
-      <c r="H681" s="28"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="116"/>
-      <c r="G682" s="28"/>
-      <c r="H682" s="28"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="116"/>
-      <c r="G683" s="28"/>
-      <c r="H683" s="28"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="116"/>
-      <c r="G684" s="28"/>
-      <c r="H684" s="28"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="116"/>
-      <c r="G685" s="28"/>
-      <c r="H685" s="28"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="116"/>
-      <c r="G686" s="28"/>
-      <c r="H686" s="28"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="116"/>
-      <c r="G687" s="28"/>
-      <c r="H687" s="28"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="116"/>
-      <c r="G688" s="28"/>
-      <c r="H688" s="28"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="116"/>
-      <c r="G689" s="28"/>
-      <c r="H689" s="28"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="116"/>
-      <c r="G690" s="28"/>
-      <c r="H690" s="28"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="116"/>
-      <c r="G691" s="28"/>
-      <c r="H691" s="28"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="116"/>
-      <c r="G692" s="28"/>
-      <c r="H692" s="28"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="116"/>
-      <c r="G693" s="28"/>
-      <c r="H693" s="28"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="116"/>
-      <c r="G694" s="28"/>
-      <c r="H694" s="28"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="116"/>
-      <c r="G695" s="28"/>
-      <c r="H695" s="28"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="116"/>
-      <c r="G696" s="28"/>
-      <c r="H696" s="28"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="116"/>
-      <c r="G697" s="28"/>
-      <c r="H697" s="28"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="116"/>
-      <c r="G698" s="28"/>
-      <c r="H698" s="28"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="116"/>
-      <c r="G699" s="28"/>
-      <c r="H699" s="28"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="116"/>
-      <c r="G700" s="28"/>
-      <c r="H700" s="28"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="116"/>
-      <c r="G701" s="28"/>
-      <c r="H701" s="28"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="116"/>
-      <c r="G702" s="28"/>
-      <c r="H702" s="28"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="116"/>
-      <c r="G703" s="28"/>
-      <c r="H703" s="28"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="116"/>
-      <c r="G704" s="28"/>
-      <c r="H704" s="28"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="116"/>
-      <c r="G705" s="28"/>
-      <c r="H705" s="28"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="116"/>
-      <c r="G706" s="28"/>
-      <c r="H706" s="28"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="116"/>
-      <c r="G707" s="28"/>
-      <c r="H707" s="28"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="116"/>
-      <c r="G708" s="28"/>
-      <c r="H708" s="28"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="116"/>
-      <c r="G709" s="28"/>
-      <c r="H709" s="28"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="116"/>
-      <c r="G710" s="28"/>
-      <c r="H710" s="28"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="116"/>
-      <c r="G711" s="28"/>
-      <c r="H711" s="28"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="116"/>
-      <c r="G712" s="28"/>
-      <c r="H712" s="28"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="116"/>
-      <c r="G713" s="28"/>
-      <c r="H713" s="28"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="116"/>
-      <c r="G714" s="28"/>
-      <c r="H714" s="28"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="116"/>
-      <c r="G715" s="28"/>
-      <c r="H715" s="28"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="116"/>
-      <c r="G716" s="28"/>
-      <c r="H716" s="28"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="116"/>
-      <c r="G717" s="28"/>
-      <c r="H717" s="28"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="116"/>
-      <c r="G718" s="28"/>
-      <c r="H718" s="28"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="116"/>
-      <c r="G719" s="28"/>
-      <c r="H719" s="28"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="116"/>
-      <c r="G720" s="28"/>
-      <c r="H720" s="28"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="116"/>
-      <c r="G721" s="28"/>
-      <c r="H721" s="28"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="116"/>
-      <c r="G722" s="28"/>
-      <c r="H722" s="28"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="116"/>
-      <c r="G723" s="28"/>
-      <c r="H723" s="28"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="116"/>
-      <c r="G724" s="28"/>
-      <c r="H724" s="28"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="116"/>
-      <c r="G725" s="28"/>
-      <c r="H725" s="28"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="116"/>
-      <c r="G726" s="28"/>
-      <c r="H726" s="28"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="116"/>
-      <c r="G727" s="28"/>
-      <c r="H727" s="28"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="116"/>
-      <c r="G728" s="28"/>
-      <c r="H728" s="28"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="116"/>
-      <c r="G729" s="28"/>
-      <c r="H729" s="28"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="116"/>
-      <c r="G730" s="28"/>
-      <c r="H730" s="28"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="116"/>
-      <c r="G731" s="28"/>
-      <c r="H731" s="28"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="116"/>
-      <c r="G732" s="28"/>
-      <c r="H732" s="28"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="116"/>
-      <c r="G733" s="28"/>
-      <c r="H733" s="28"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="116"/>
-      <c r="G734" s="28"/>
-      <c r="H734" s="28"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="116"/>
-      <c r="G735" s="28"/>
-      <c r="H735" s="28"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="116"/>
-      <c r="G736" s="28"/>
-      <c r="H736" s="28"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="116"/>
-      <c r="G737" s="28"/>
-      <c r="H737" s="28"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="116"/>
-      <c r="G738" s="28"/>
-      <c r="H738" s="28"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="116"/>
-      <c r="G739" s="28"/>
-      <c r="H739" s="28"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="116"/>
-      <c r="G740" s="28"/>
-      <c r="H740" s="28"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="116"/>
-      <c r="G741" s="28"/>
-      <c r="H741" s="28"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="116"/>
-      <c r="G742" s="28"/>
-      <c r="H742" s="28"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="116"/>
-      <c r="G743" s="28"/>
-      <c r="H743" s="28"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="116"/>
-      <c r="G744" s="28"/>
-      <c r="H744" s="28"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="116"/>
-      <c r="G745" s="28"/>
-      <c r="H745" s="28"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="116"/>
-      <c r="G746" s="28"/>
-      <c r="H746" s="28"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="116"/>
-      <c r="G747" s="28"/>
-      <c r="H747" s="28"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="116"/>
-      <c r="G748" s="28"/>
-      <c r="H748" s="28"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="116"/>
-      <c r="G749" s="28"/>
-      <c r="H749" s="28"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="116"/>
-      <c r="G750" s="28"/>
-      <c r="H750" s="28"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="116"/>
-      <c r="G751" s="28"/>
-      <c r="H751" s="28"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="116"/>
-      <c r="G752" s="28"/>
-      <c r="H752" s="28"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="116"/>
-      <c r="G753" s="28"/>
-      <c r="H753" s="28"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="116"/>
-      <c r="G754" s="28"/>
-      <c r="H754" s="28"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="116"/>
-      <c r="G755" s="28"/>
-      <c r="H755" s="28"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="116"/>
-      <c r="G756" s="28"/>
-      <c r="H756" s="28"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="116"/>
-      <c r="G757" s="28"/>
-      <c r="H757" s="28"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="116"/>
-      <c r="G758" s="28"/>
-      <c r="H758" s="28"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="116"/>
-      <c r="G759" s="28"/>
-      <c r="H759" s="28"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="116"/>
-      <c r="G760" s="28"/>
-      <c r="H760" s="28"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="116"/>
-      <c r="G761" s="28"/>
-      <c r="H761" s="28"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="116"/>
-      <c r="G762" s="28"/>
-      <c r="H762" s="28"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="116"/>
-      <c r="G763" s="28"/>
-      <c r="H763" s="28"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="116"/>
-      <c r="G764" s="28"/>
-      <c r="H764" s="28"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="116"/>
-      <c r="G765" s="28"/>
-      <c r="H765" s="28"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="116"/>
-      <c r="G766" s="28"/>
-      <c r="H766" s="28"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="116"/>
-      <c r="G767" s="28"/>
-      <c r="H767" s="28"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="116"/>
-      <c r="G768" s="28"/>
-      <c r="H768" s="28"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="116"/>
-      <c r="G769" s="28"/>
-      <c r="H769" s="28"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="116"/>
-      <c r="G770" s="28"/>
-      <c r="H770" s="28"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="116"/>
-      <c r="G771" s="28"/>
-      <c r="H771" s="28"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="116"/>
-      <c r="G772" s="28"/>
-      <c r="H772" s="28"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="116"/>
-      <c r="G773" s="28"/>
-      <c r="H773" s="28"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="116"/>
-      <c r="G774" s="28"/>
-      <c r="H774" s="28"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="116"/>
-      <c r="G775" s="28"/>
-      <c r="H775" s="28"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="116"/>
-      <c r="G776" s="28"/>
-      <c r="H776" s="28"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="116"/>
-      <c r="G777" s="28"/>
-      <c r="H777" s="28"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="116"/>
-      <c r="G778" s="28"/>
-      <c r="H778" s="28"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="116"/>
-      <c r="G779" s="28"/>
-      <c r="H779" s="28"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="116"/>
-      <c r="G780" s="28"/>
-      <c r="H780" s="28"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="116"/>
-      <c r="G781" s="28"/>
-      <c r="H781" s="28"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="116"/>
-      <c r="G782" s="28"/>
-      <c r="H782" s="28"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="116"/>
-      <c r="G783" s="28"/>
-      <c r="H783" s="28"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="116"/>
-      <c r="G784" s="28"/>
-      <c r="H784" s="28"/>
-    </row>
-    <row r="785">
-      <c r="A785" s="116"/>
-      <c r="G785" s="28"/>
-      <c r="H785" s="28"/>
-    </row>
-    <row r="786">
-      <c r="A786" s="116"/>
-      <c r="G786" s="28"/>
-      <c r="H786" s="28"/>
-    </row>
-    <row r="787">
-      <c r="A787" s="116"/>
-      <c r="G787" s="28"/>
-      <c r="H787" s="28"/>
-    </row>
-    <row r="788">
-      <c r="A788" s="116"/>
-      <c r="G788" s="28"/>
-      <c r="H788" s="28"/>
-    </row>
-    <row r="789">
-      <c r="A789" s="116"/>
-      <c r="G789" s="28"/>
-      <c r="H789" s="28"/>
-    </row>
-    <row r="790">
-      <c r="A790" s="116"/>
-      <c r="G790" s="28"/>
-      <c r="H790" s="28"/>
-    </row>
-    <row r="791">
-      <c r="A791" s="116"/>
-      <c r="G791" s="28"/>
-      <c r="H791" s="28"/>
-    </row>
-    <row r="792">
-      <c r="A792" s="116"/>
-      <c r="G792" s="28"/>
-      <c r="H792" s="28"/>
-    </row>
-    <row r="793">
-      <c r="A793" s="116"/>
-      <c r="G793" s="28"/>
-      <c r="H793" s="28"/>
-    </row>
-    <row r="794">
-      <c r="A794" s="116"/>
-      <c r="G794" s="28"/>
-      <c r="H794" s="28"/>
-    </row>
-    <row r="795">
-      <c r="A795" s="116"/>
-      <c r="G795" s="28"/>
-      <c r="H795" s="28"/>
-    </row>
-    <row r="796">
-      <c r="A796" s="116"/>
-      <c r="G796" s="28"/>
-      <c r="H796" s="28"/>
-    </row>
-    <row r="797">
-      <c r="A797" s="116"/>
-      <c r="G797" s="28"/>
-      <c r="H797" s="28"/>
-    </row>
-    <row r="798">
-      <c r="A798" s="116"/>
-      <c r="G798" s="28"/>
-      <c r="H798" s="28"/>
-    </row>
-    <row r="799">
-      <c r="A799" s="116"/>
-      <c r="G799" s="28"/>
-      <c r="H799" s="28"/>
-    </row>
-    <row r="800">
-      <c r="A800" s="116"/>
-      <c r="G800" s="28"/>
-      <c r="H800" s="28"/>
-    </row>
-    <row r="801">
-      <c r="A801" s="116"/>
-      <c r="G801" s="28"/>
-      <c r="H801" s="28"/>
-    </row>
-    <row r="802">
-      <c r="A802" s="116"/>
-      <c r="G802" s="28"/>
-      <c r="H802" s="28"/>
-    </row>
-    <row r="803">
-      <c r="A803" s="116"/>
-      <c r="G803" s="28"/>
-      <c r="H803" s="28"/>
-    </row>
-    <row r="804">
-      <c r="A804" s="116"/>
-      <c r="G804" s="28"/>
-      <c r="H804" s="28"/>
-    </row>
-    <row r="805">
-      <c r="A805" s="116"/>
-      <c r="G805" s="28"/>
-      <c r="H805" s="28"/>
-    </row>
-    <row r="806">
-      <c r="A806" s="116"/>
-      <c r="G806" s="28"/>
-      <c r="H806" s="28"/>
-    </row>
-    <row r="807">
-      <c r="A807" s="116"/>
-      <c r="G807" s="28"/>
-      <c r="H807" s="28"/>
-    </row>
-    <row r="808">
-      <c r="A808" s="116"/>
-      <c r="G808" s="28"/>
-      <c r="H808" s="28"/>
-    </row>
-    <row r="809">
-      <c r="A809" s="116"/>
-      <c r="G809" s="28"/>
-      <c r="H809" s="28"/>
-    </row>
-    <row r="810">
-      <c r="A810" s="116"/>
-      <c r="G810" s="28"/>
-      <c r="H810" s="28"/>
-    </row>
-    <row r="811">
-      <c r="A811" s="116"/>
-      <c r="G811" s="28"/>
-      <c r="H811" s="28"/>
-    </row>
-    <row r="812">
-      <c r="A812" s="116"/>
-      <c r="G812" s="28"/>
-      <c r="H812" s="28"/>
-    </row>
-    <row r="813">
-      <c r="A813" s="116"/>
-      <c r="G813" s="28"/>
-      <c r="H813" s="28"/>
-    </row>
-    <row r="814">
-      <c r="A814" s="116"/>
-      <c r="G814" s="28"/>
-      <c r="H814" s="28"/>
-    </row>
-    <row r="815">
-      <c r="A815" s="116"/>
-      <c r="G815" s="28"/>
-      <c r="H815" s="28"/>
-    </row>
-    <row r="816">
-      <c r="A816" s="116"/>
-      <c r="G816" s="28"/>
-      <c r="H816" s="28"/>
-    </row>
-    <row r="817">
-      <c r="A817" s="116"/>
-      <c r="G817" s="28"/>
-      <c r="H817" s="28"/>
-    </row>
-    <row r="818">
-      <c r="A818" s="116"/>
-      <c r="G818" s="28"/>
-      <c r="H818" s="28"/>
-    </row>
-    <row r="819">
-      <c r="A819" s="116"/>
-      <c r="G819" s="28"/>
-      <c r="H819" s="28"/>
-    </row>
-    <row r="820">
-      <c r="A820" s="116"/>
-      <c r="G820" s="28"/>
-      <c r="H820" s="28"/>
-    </row>
-    <row r="821">
-      <c r="A821" s="116"/>
-      <c r="G821" s="28"/>
-      <c r="H821" s="28"/>
-    </row>
-    <row r="822">
-      <c r="A822" s="116"/>
-      <c r="G822" s="28"/>
-      <c r="H822" s="28"/>
-    </row>
-    <row r="823">
-      <c r="A823" s="116"/>
-      <c r="G823" s="28"/>
-      <c r="H823" s="28"/>
-    </row>
-    <row r="824">
-      <c r="A824" s="116"/>
-      <c r="G824" s="28"/>
-      <c r="H824" s="28"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="116"/>
-      <c r="G825" s="28"/>
-      <c r="H825" s="28"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="116"/>
-      <c r="G826" s="28"/>
-      <c r="H826" s="28"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="116"/>
-      <c r="G827" s="28"/>
-      <c r="H827" s="28"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="116"/>
-      <c r="G828" s="28"/>
-      <c r="H828" s="28"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="116"/>
-      <c r="G829" s="28"/>
-      <c r="H829" s="28"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="116"/>
-      <c r="G830" s="28"/>
-      <c r="H830" s="28"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="116"/>
-      <c r="G831" s="28"/>
-      <c r="H831" s="28"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="116"/>
-      <c r="G832" s="28"/>
-      <c r="H832" s="28"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="116"/>
-      <c r="G833" s="28"/>
-      <c r="H833" s="28"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="116"/>
-      <c r="G834" s="28"/>
-      <c r="H834" s="28"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="116"/>
-      <c r="G835" s="28"/>
-      <c r="H835" s="28"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="116"/>
-      <c r="G836" s="28"/>
-      <c r="H836" s="28"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="116"/>
-      <c r="G837" s="28"/>
-      <c r="H837" s="28"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="116"/>
-      <c r="G838" s="28"/>
-      <c r="H838" s="28"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="116"/>
-      <c r="G839" s="28"/>
-      <c r="H839" s="28"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="116"/>
-      <c r="G840" s="28"/>
-      <c r="H840" s="28"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="116"/>
-      <c r="G841" s="28"/>
-      <c r="H841" s="28"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="116"/>
-      <c r="G842" s="28"/>
-      <c r="H842" s="28"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="116"/>
-      <c r="G843" s="28"/>
-      <c r="H843" s="28"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="116"/>
-      <c r="G844" s="28"/>
-      <c r="H844" s="28"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="116"/>
-      <c r="G845" s="28"/>
-      <c r="H845" s="28"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="116"/>
-      <c r="G846" s="28"/>
-      <c r="H846" s="28"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="116"/>
-      <c r="G847" s="28"/>
-      <c r="H847" s="28"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="116"/>
-      <c r="G848" s="28"/>
-      <c r="H848" s="28"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="116"/>
-      <c r="G849" s="28"/>
-      <c r="H849" s="28"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="116"/>
-      <c r="G850" s="28"/>
-      <c r="H850" s="28"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="116"/>
-      <c r="G851" s="28"/>
-      <c r="H851" s="28"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="116"/>
-      <c r="G852" s="28"/>
-      <c r="H852" s="28"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="116"/>
-      <c r="G853" s="28"/>
-      <c r="H853" s="28"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="116"/>
-      <c r="G854" s="28"/>
-      <c r="H854" s="28"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="116"/>
-      <c r="G855" s="28"/>
-      <c r="H855" s="28"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="116"/>
-      <c r="G856" s="28"/>
-      <c r="H856" s="28"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="116"/>
-      <c r="G857" s="28"/>
-      <c r="H857" s="28"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="116"/>
-      <c r="G858" s="28"/>
-      <c r="H858" s="28"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="116"/>
-      <c r="G859" s="28"/>
-      <c r="H859" s="28"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="116"/>
-      <c r="G860" s="28"/>
-      <c r="H860" s="28"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="116"/>
-      <c r="G861" s="28"/>
-      <c r="H861" s="28"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="116"/>
-      <c r="G862" s="28"/>
-      <c r="H862" s="28"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="116"/>
-      <c r="G863" s="28"/>
-      <c r="H863" s="28"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="116"/>
-      <c r="G864" s="28"/>
-      <c r="H864" s="28"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="116"/>
-      <c r="G865" s="28"/>
-      <c r="H865" s="28"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="116"/>
-      <c r="G866" s="28"/>
-      <c r="H866" s="28"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="116"/>
-      <c r="G867" s="28"/>
-      <c r="H867" s="28"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="116"/>
-      <c r="G868" s="28"/>
-      <c r="H868" s="28"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="116"/>
-      <c r="G869" s="28"/>
-      <c r="H869" s="28"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="116"/>
-      <c r="G870" s="28"/>
-      <c r="H870" s="28"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="116"/>
-      <c r="G871" s="28"/>
-      <c r="H871" s="28"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="116"/>
-      <c r="G872" s="28"/>
-      <c r="H872" s="28"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="116"/>
-      <c r="G873" s="28"/>
-      <c r="H873" s="28"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="116"/>
-      <c r="G874" s="28"/>
-      <c r="H874" s="28"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="116"/>
-      <c r="G875" s="28"/>
-      <c r="H875" s="28"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="116"/>
-      <c r="G876" s="28"/>
-      <c r="H876" s="28"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="116"/>
-      <c r="G877" s="28"/>
-      <c r="H877" s="28"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="116"/>
-      <c r="G878" s="28"/>
-      <c r="H878" s="28"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="116"/>
-      <c r="G879" s="28"/>
-      <c r="H879" s="28"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="116"/>
-      <c r="G880" s="28"/>
-      <c r="H880" s="28"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="116"/>
-      <c r="G881" s="28"/>
-      <c r="H881" s="28"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="116"/>
-      <c r="G882" s="28"/>
-      <c r="H882" s="28"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="116"/>
-      <c r="G883" s="28"/>
-      <c r="H883" s="28"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="116"/>
-      <c r="G884" s="28"/>
-      <c r="H884" s="28"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="116"/>
-      <c r="G885" s="28"/>
-      <c r="H885" s="28"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="116"/>
-      <c r="G886" s="28"/>
-      <c r="H886" s="28"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="116"/>
-      <c r="G887" s="28"/>
-      <c r="H887" s="28"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="116"/>
-      <c r="G888" s="28"/>
-      <c r="H888" s="28"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="116"/>
-      <c r="G889" s="28"/>
-      <c r="H889" s="28"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="116"/>
-      <c r="G890" s="28"/>
-      <c r="H890" s="28"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="116"/>
-      <c r="G891" s="28"/>
-      <c r="H891" s="28"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="116"/>
-      <c r="G892" s="28"/>
-      <c r="H892" s="28"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="116"/>
-      <c r="G893" s="28"/>
-      <c r="H893" s="28"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="116"/>
-      <c r="G894" s="28"/>
-      <c r="H894" s="28"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="116"/>
-      <c r="G895" s="28"/>
-      <c r="H895" s="28"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="116"/>
-      <c r="G896" s="28"/>
-      <c r="H896" s="28"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="116"/>
-      <c r="G897" s="28"/>
-      <c r="H897" s="28"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="116"/>
-      <c r="G898" s="28"/>
-      <c r="H898" s="28"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="116"/>
-      <c r="G899" s="28"/>
-      <c r="H899" s="28"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="116"/>
-      <c r="G900" s="28"/>
-      <c r="H900" s="28"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="116"/>
-      <c r="G901" s="28"/>
-      <c r="H901" s="28"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="116"/>
-      <c r="G902" s="28"/>
-      <c r="H902" s="28"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="116"/>
-      <c r="G903" s="28"/>
-      <c r="H903" s="28"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="116"/>
-      <c r="G904" s="28"/>
-      <c r="H904" s="28"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="116"/>
-      <c r="G905" s="28"/>
-      <c r="H905" s="28"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="116"/>
-      <c r="G906" s="28"/>
-      <c r="H906" s="28"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="116"/>
-      <c r="G907" s="28"/>
-      <c r="H907" s="28"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="116"/>
-      <c r="G908" s="28"/>
-      <c r="H908" s="28"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="116"/>
-      <c r="G909" s="28"/>
-      <c r="H909" s="28"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="116"/>
-      <c r="G910" s="28"/>
-      <c r="H910" s="28"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="116"/>
-      <c r="G911" s="28"/>
-      <c r="H911" s="28"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="116"/>
-      <c r="G912" s="28"/>
-      <c r="H912" s="28"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="116"/>
-      <c r="G913" s="28"/>
-      <c r="H913" s="28"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="116"/>
-      <c r="G914" s="28"/>
-      <c r="H914" s="28"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="116"/>
-      <c r="G915" s="28"/>
-      <c r="H915" s="28"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="116"/>
-      <c r="G916" s="28"/>
-      <c r="H916" s="28"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="116"/>
-      <c r="G917" s="28"/>
-      <c r="H917" s="28"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="116"/>
-      <c r="G918" s="28"/>
-      <c r="H918" s="28"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="116"/>
-      <c r="G919" s="28"/>
-      <c r="H919" s="28"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="116"/>
-      <c r="G920" s="28"/>
-      <c r="H920" s="28"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="116"/>
-      <c r="G921" s="28"/>
-      <c r="H921" s="28"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="116"/>
-      <c r="G922" s="28"/>
-      <c r="H922" s="28"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="116"/>
-      <c r="G923" s="28"/>
-      <c r="H923" s="28"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="116"/>
-      <c r="G924" s="28"/>
-      <c r="H924" s="28"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="116"/>
-      <c r="G925" s="28"/>
-      <c r="H925" s="28"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="116"/>
-      <c r="G926" s="28"/>
-      <c r="H926" s="28"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="116"/>
-      <c r="G927" s="28"/>
-      <c r="H927" s="28"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="116"/>
-      <c r="G928" s="28"/>
-      <c r="H928" s="28"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="116"/>
-      <c r="G929" s="28"/>
-      <c r="H929" s="28"/>
-    </row>
-    <row r="930">
-      <c r="A930" s="116"/>
-      <c r="G930" s="28"/>
-      <c r="H930" s="28"/>
-    </row>
-    <row r="931">
-      <c r="A931" s="116"/>
-      <c r="G931" s="28"/>
-      <c r="H931" s="28"/>
-    </row>
-    <row r="932">
-      <c r="A932" s="116"/>
-      <c r="G932" s="28"/>
-      <c r="H932" s="28"/>
-    </row>
-    <row r="933">
-      <c r="A933" s="116"/>
-      <c r="G933" s="28"/>
-      <c r="H933" s="28"/>
-    </row>
-    <row r="934">
-      <c r="A934" s="116"/>
-      <c r="G934" s="28"/>
-      <c r="H934" s="28"/>
-    </row>
-    <row r="935">
-      <c r="A935" s="116"/>
-      <c r="G935" s="28"/>
-      <c r="H935" s="28"/>
-    </row>
-    <row r="936">
-      <c r="A936" s="116"/>
-      <c r="G936" s="28"/>
-      <c r="H936" s="28"/>
-    </row>
-    <row r="937">
-      <c r="A937" s="116"/>
-      <c r="G937" s="28"/>
-      <c r="H937" s="28"/>
-    </row>
-    <row r="938">
-      <c r="A938" s="116"/>
-      <c r="G938" s="28"/>
-      <c r="H938" s="28"/>
-    </row>
-    <row r="939">
-      <c r="A939" s="116"/>
-      <c r="G939" s="28"/>
-      <c r="H939" s="28"/>
-    </row>
-    <row r="940">
-      <c r="A940" s="116"/>
-      <c r="G940" s="28"/>
-      <c r="H940" s="28"/>
-    </row>
-    <row r="941">
-      <c r="A941" s="116"/>
-      <c r="G941" s="28"/>
-      <c r="H941" s="28"/>
-    </row>
-    <row r="942">
-      <c r="A942" s="116"/>
-      <c r="G942" s="28"/>
-      <c r="H942" s="28"/>
-    </row>
-    <row r="943">
-      <c r="A943" s="116"/>
-      <c r="G943" s="28"/>
-      <c r="H943" s="28"/>
-    </row>
-    <row r="944">
-      <c r="A944" s="116"/>
-      <c r="G944" s="28"/>
-      <c r="H944" s="28"/>
-    </row>
-    <row r="945">
-      <c r="A945" s="116"/>
-      <c r="G945" s="28"/>
-      <c r="H945" s="28"/>
-    </row>
-    <row r="946">
-      <c r="A946" s="116"/>
-      <c r="G946" s="28"/>
-      <c r="H946" s="28"/>
-    </row>
-    <row r="947">
-      <c r="A947" s="116"/>
-      <c r="G947" s="28"/>
-      <c r="H947" s="28"/>
-    </row>
-    <row r="948">
-      <c r="A948" s="116"/>
-      <c r="G948" s="28"/>
-      <c r="H948" s="28"/>
-    </row>
-    <row r="949">
-      <c r="A949" s="116"/>
-      <c r="G949" s="28"/>
-      <c r="H949" s="28"/>
-    </row>
-    <row r="950">
-      <c r="A950" s="116"/>
-      <c r="G950" s="28"/>
-      <c r="H950" s="28"/>
-    </row>
-    <row r="951">
-      <c r="A951" s="116"/>
-      <c r="G951" s="28"/>
-      <c r="H951" s="28"/>
-    </row>
-    <row r="952">
-      <c r="A952" s="116"/>
-      <c r="G952" s="28"/>
-      <c r="H952" s="28"/>
-    </row>
-    <row r="953">
-      <c r="A953" s="116"/>
-      <c r="G953" s="28"/>
-      <c r="H953" s="28"/>
-    </row>
-    <row r="954">
-      <c r="A954" s="116"/>
-      <c r="G954" s="28"/>
-      <c r="H954" s="28"/>
-    </row>
-    <row r="955">
-      <c r="A955" s="116"/>
-      <c r="G955" s="28"/>
-      <c r="H955" s="28"/>
-    </row>
-    <row r="956">
-      <c r="A956" s="116"/>
-      <c r="G956" s="28"/>
-      <c r="H956" s="28"/>
-    </row>
-    <row r="957">
-      <c r="A957" s="116"/>
-      <c r="G957" s="28"/>
-      <c r="H957" s="28"/>
-    </row>
-    <row r="958">
-      <c r="A958" s="116"/>
-      <c r="G958" s="28"/>
-      <c r="H958" s="28"/>
-    </row>
-    <row r="959">
-      <c r="A959" s="116"/>
-      <c r="G959" s="28"/>
-      <c r="H959" s="28"/>
-    </row>
-    <row r="960">
-      <c r="A960" s="116"/>
-      <c r="G960" s="28"/>
-      <c r="H960" s="28"/>
-    </row>
-    <row r="961">
-      <c r="A961" s="116"/>
-      <c r="G961" s="28"/>
-      <c r="H961" s="28"/>
-    </row>
-    <row r="962">
-      <c r="A962" s="116"/>
-      <c r="G962" s="28"/>
-      <c r="H962" s="28"/>
-    </row>
-    <row r="963">
-      <c r="A963" s="116"/>
-      <c r="G963" s="28"/>
-      <c r="H963" s="28"/>
-    </row>
-    <row r="964">
-      <c r="A964" s="116"/>
-      <c r="G964" s="28"/>
-      <c r="H964" s="28"/>
-    </row>
-    <row r="965">
-      <c r="A965" s="116"/>
-      <c r="G965" s="28"/>
-      <c r="H965" s="28"/>
-    </row>
-    <row r="966">
-      <c r="A966" s="116"/>
-      <c r="G966" s="28"/>
-      <c r="H966" s="28"/>
-    </row>
-    <row r="967">
-      <c r="A967" s="116"/>
-      <c r="G967" s="28"/>
-      <c r="H967" s="28"/>
-    </row>
-    <row r="968">
-      <c r="A968" s="116"/>
-      <c r="G968" s="28"/>
-      <c r="H968" s="28"/>
-    </row>
-    <row r="969">
-      <c r="A969" s="116"/>
-      <c r="G969" s="28"/>
-      <c r="H969" s="28"/>
-    </row>
-    <row r="970">
-      <c r="A970" s="116"/>
-      <c r="G970" s="28"/>
-      <c r="H970" s="28"/>
-    </row>
-    <row r="971">
-      <c r="A971" s="116"/>
-      <c r="G971" s="28"/>
-      <c r="H971" s="28"/>
-    </row>
-    <row r="972">
-      <c r="A972" s="116"/>
-      <c r="G972" s="28"/>
-      <c r="H972" s="28"/>
-    </row>
-    <row r="973">
-      <c r="A973" s="116"/>
-      <c r="G973" s="28"/>
-      <c r="H973" s="28"/>
-    </row>
-    <row r="974">
-      <c r="A974" s="116"/>
-      <c r="G974" s="28"/>
-      <c r="H974" s="28"/>
-    </row>
-    <row r="975">
-      <c r="A975" s="116"/>
-      <c r="G975" s="28"/>
-      <c r="H975" s="28"/>
-    </row>
-    <row r="976">
-      <c r="A976" s="116"/>
-      <c r="G976" s="28"/>
-      <c r="H976" s="28"/>
-    </row>
-    <row r="977">
-      <c r="A977" s="116"/>
-      <c r="G977" s="28"/>
-      <c r="H977" s="28"/>
-    </row>
-    <row r="978">
-      <c r="A978" s="116"/>
-      <c r="G978" s="28"/>
-      <c r="H978" s="28"/>
-    </row>
-    <row r="979">
-      <c r="A979" s="116"/>
-      <c r="G979" s="28"/>
-      <c r="H979" s="28"/>
-    </row>
-    <row r="980">
-      <c r="A980" s="116"/>
-      <c r="G980" s="28"/>
-      <c r="H980" s="28"/>
-    </row>
-    <row r="981">
-      <c r="A981" s="116"/>
-      <c r="G981" s="28"/>
-      <c r="H981" s="28"/>
-    </row>
-    <row r="982">
-      <c r="A982" s="116"/>
-      <c r="G982" s="28"/>
-      <c r="H982" s="28"/>
-    </row>
-    <row r="983">
-      <c r="A983" s="116"/>
-      <c r="G983" s="28"/>
-      <c r="H983" s="28"/>
-    </row>
-    <row r="984">
-      <c r="A984" s="116"/>
-      <c r="G984" s="28"/>
-      <c r="H984" s="28"/>
-    </row>
-    <row r="985">
-      <c r="A985" s="116"/>
-      <c r="G985" s="28"/>
-      <c r="H985" s="28"/>
-    </row>
-    <row r="986">
-      <c r="A986" s="116"/>
-      <c r="G986" s="28"/>
-      <c r="H986" s="28"/>
-    </row>
-    <row r="987">
-      <c r="A987" s="116"/>
-      <c r="G987" s="28"/>
-      <c r="H987" s="28"/>
-    </row>
-    <row r="988">
-      <c r="A988" s="116"/>
-      <c r="G988" s="28"/>
-      <c r="H988" s="28"/>
-    </row>
-    <row r="989">
-      <c r="A989" s="116"/>
-      <c r="G989" s="28"/>
-      <c r="H989" s="28"/>
-    </row>
-    <row r="990">
-      <c r="A990" s="116"/>
-      <c r="G990" s="28"/>
-      <c r="H990" s="28"/>
-    </row>
-    <row r="991">
-      <c r="A991" s="116"/>
-      <c r="G991" s="28"/>
-      <c r="H991" s="28"/>
-    </row>
-    <row r="992">
-      <c r="A992" s="116"/>
-      <c r="G992" s="28"/>
-      <c r="H992" s="28"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="116"/>
-      <c r="G993" s="28"/>
-      <c r="H993" s="28"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="116"/>
-      <c r="G994" s="28"/>
-      <c r="H994" s="28"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="116"/>
-      <c r="G995" s="28"/>
-      <c r="H995" s="28"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="116"/>
-      <c r="G996" s="28"/>
-      <c r="H996" s="28"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="116"/>
-      <c r="G997" s="28"/>
-      <c r="H997" s="28"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="116"/>
-      <c r="G998" s="28"/>
-      <c r="H998" s="28"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="116"/>
-      <c r="G999" s="28"/>
-      <c r="H999" s="28"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="116"/>
-      <c r="G1000" s="28"/>
-      <c r="H1000" s="28"/>
-    </row>
-    <row r="1001">
-      <c r="A1001" s="116"/>
-      <c r="G1001" s="28"/>
-      <c r="H1001" s="28"/>
-    </row>
-    <row r="1002">
-      <c r="A1002" s="116"/>
-      <c r="G1002" s="28"/>
-      <c r="H1002" s="28"/>
-    </row>
-    <row r="1003">
-      <c r="A1003" s="116"/>
-      <c r="G1003" s="28"/>
-      <c r="H1003" s="28"/>
-    </row>
-    <row r="1004">
-      <c r="A1004" s="116"/>
-      <c r="G1004" s="28"/>
-      <c r="H1004" s="28"/>
-    </row>
-    <row r="1005">
-      <c r="A1005" s="116"/>
-      <c r="G1005" s="28"/>
-      <c r="H1005" s="28"/>
-    </row>
-    <row r="1006">
-      <c r="A1006" s="116"/>
-      <c r="G1006" s="28"/>
-      <c r="H1006" s="28"/>
-    </row>
-    <row r="1007">
-      <c r="A1007" s="116"/>
-      <c r="G1007" s="28"/>
-      <c r="H1007" s="28"/>
-    </row>
-    <row r="1008">
-      <c r="A1008" s="116"/>
-      <c r="G1008" s="28"/>
-      <c r="H1008" s="28"/>
-    </row>
-    <row r="1009">
-      <c r="A1009" s="116"/>
-      <c r="G1009" s="28"/>
-      <c r="H1009" s="28"/>
-    </row>
-    <row r="1010">
-      <c r="A1010" s="116"/>
-      <c r="G1010" s="28"/>
-      <c r="H1010" s="28"/>
-    </row>
-    <row r="1011">
-      <c r="A1011" s="116"/>
-      <c r="G1011" s="28"/>
-      <c r="H1011" s="28"/>
-    </row>
-    <row r="1012">
-      <c r="A1012" s="116"/>
-      <c r="G1012" s="28"/>
-      <c r="H1012" s="28"/>
-    </row>
-    <row r="1013">
-      <c r="A1013" s="116"/>
-      <c r="G1013" s="28"/>
-      <c r="H1013" s="28"/>
-    </row>
-    <row r="1014">
-      <c r="A1014" s="116"/>
-      <c r="G1014" s="28"/>
-      <c r="H1014" s="28"/>
-    </row>
-    <row r="1015">
-      <c r="A1015" s="116"/>
-      <c r="G1015" s="28"/>
-      <c r="H1015" s="28"/>
-    </row>
-    <row r="1016">
-      <c r="A1016" s="116"/>
-      <c r="G1016" s="28"/>
-      <c r="H1016" s="28"/>
-    </row>
-    <row r="1017">
-      <c r="A1017" s="116"/>
-      <c r="G1017" s="28"/>
-      <c r="H1017" s="28"/>
-    </row>
-    <row r="1018">
-      <c r="A1018" s="116"/>
-      <c r="G1018" s="28"/>
-      <c r="H1018" s="28"/>
-    </row>
-    <row r="1019">
-      <c r="A1019" s="116"/>
-      <c r="G1019" s="28"/>
-      <c r="H1019" s="28"/>
-    </row>
-    <row r="1020">
-      <c r="A1020" s="116"/>
-      <c r="G1020" s="28"/>
-      <c r="H1020" s="28"/>
-    </row>
-    <row r="1021">
-      <c r="A1021" s="116"/>
-      <c r="G1021" s="28"/>
-      <c r="H1021" s="28"/>
-    </row>
-    <row r="1022">
-      <c r="A1022" s="116"/>
-      <c r="G1022" s="28"/>
-      <c r="H1022" s="28"/>
-    </row>
-    <row r="1023">
-      <c r="A1023" s="116"/>
-      <c r="G1023" s="28"/>
-      <c r="H1023" s="28"/>
-    </row>
-    <row r="1024">
-      <c r="A1024" s="116"/>
-      <c r="G1024" s="28"/>
-      <c r="H1024" s="28"/>
-    </row>
-    <row r="1025">
-      <c r="A1025" s="116"/>
-      <c r="G1025" s="28"/>
-      <c r="H1025" s="28"/>
-    </row>
-    <row r="1026">
-      <c r="A1026" s="116"/>
-      <c r="G1026" s="28"/>
-      <c r="H1026" s="28"/>
-    </row>
-    <row r="1027">
-      <c r="A1027" s="116"/>
-      <c r="G1027" s="28"/>
-      <c r="H1027" s="28"/>
-    </row>
-    <row r="1028">
-      <c r="A1028" s="116"/>
-      <c r="G1028" s="28"/>
-      <c r="H1028" s="28"/>
-    </row>
-    <row r="1029">
-      <c r="A1029" s="116"/>
-      <c r="G1029" s="28"/>
-      <c r="H1029" s="28"/>
-    </row>
-    <row r="1030">
-      <c r="A1030" s="116"/>
-      <c r="G1030" s="28"/>
-      <c r="H1030" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -20445,22 +16799,23 @@
     <hyperlink r:id="rId10" ref="H123"/>
     <hyperlink r:id="rId11" ref="H148"/>
     <hyperlink r:id="rId12" ref="H200"/>
-    <hyperlink r:id="rId13" ref="H202"/>
-    <hyperlink r:id="rId14" ref="H203"/>
-    <hyperlink r:id="rId15" ref="H205"/>
-    <hyperlink r:id="rId16" ref="H206"/>
-    <hyperlink r:id="rId17" ref="H207"/>
-    <hyperlink r:id="rId18" ref="H208"/>
-    <hyperlink r:id="rId19" ref="H209"/>
-    <hyperlink r:id="rId20" ref="H210"/>
-    <hyperlink r:id="rId21" ref="H211"/>
-    <hyperlink r:id="rId22" ref="H212"/>
-    <hyperlink r:id="rId23" ref="H214"/>
-    <hyperlink r:id="rId24" ref="H215"/>
-    <hyperlink r:id="rId25" ref="H217"/>
+    <hyperlink r:id="rId13" ref="H201"/>
+    <hyperlink r:id="rId14" ref="H202"/>
+    <hyperlink r:id="rId15" ref="H203"/>
+    <hyperlink r:id="rId16" ref="H205"/>
+    <hyperlink r:id="rId17" ref="H206"/>
+    <hyperlink r:id="rId18" ref="H207"/>
+    <hyperlink r:id="rId19" ref="H208"/>
+    <hyperlink r:id="rId20" ref="H209"/>
+    <hyperlink r:id="rId21" ref="H210"/>
+    <hyperlink r:id="rId22" ref="H211"/>
+    <hyperlink r:id="rId23" ref="H212"/>
+    <hyperlink r:id="rId24" ref="H214"/>
+    <hyperlink r:id="rId25" ref="H215"/>
+    <hyperlink r:id="rId26" ref="H217"/>
   </hyperlinks>
-  <drawing r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <drawing r:id="rId27"/>
+  <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -20479,37 +16834,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="117" t="s">
-        <v>932</v>
+      <c r="A2" s="113" t="s">
+        <v>933</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="118" t="s">
-        <v>934</v>
+      <c r="A3" s="114" t="s">
+        <v>935</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="119" t="s">
-        <v>936</v>
+      <c r="A4" s="115" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="120" t="s">
-        <v>937</v>
+      <c r="A6" s="116" t="s">
+        <v>938</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="8">
@@ -20519,68 +16874,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="120" t="s">
-        <v>940</v>
+      <c r="A10" s="116" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="120" t="s">
-        <v>941</v>
+      <c r="A11" s="116" t="s">
+        <v>942</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="121" t="s">
-        <v>943</v>
+      <c r="B12" s="117" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="31"/>
-      <c r="B13" s="122" t="s">
-        <v>944</v>
+      <c r="B13" s="118" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="123" t="s">
-        <v>945</v>
+      <c r="B14" s="119" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="124" t="s">
-        <v>946</v>
+      <c r="B15" s="120" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="125" t="s">
-        <v>947</v>
+      <c r="B16" s="121" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="120"/>
+      <c r="A17" s="116"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="120" t="s">
-        <v>948</v>
+      <c r="A18" s="116" t="s">
+        <v>949</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="B19" s="126"/>
+        <v>951</v>
+      </c>
+      <c r="B19" s="122"/>
     </row>
     <row r="21">
-      <c r="A21" s="120" t="s">
-        <v>951</v>
+      <c r="A21" s="116" t="s">
+        <v>952</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
   </sheetData>
@@ -20605,58 +16960,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="120" t="s">
-        <v>953</v>
+      <c r="A1" s="116" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="69" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="69" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
   </sheetData>
@@ -20682,53 +17037,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="B1" s="127" t="s">
-        <v>964</v>
+        <v>954</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="128" t="s">
-        <v>965</v>
+      <c r="A2" s="124" t="s">
+        <v>966</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -20769,72 +17124,72 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="129" t="s">
-        <v>974</v>
+      <c r="A1" s="125" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="120" t="s">
-        <v>975</v>
-      </c>
-      <c r="B2" s="120" t="s">
+      <c r="A2" s="116" t="s">
         <v>976</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="32" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="32" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="32" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -20860,32 +17215,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="129" t="s">
-        <v>974</v>
+      <c r="A1" s="125" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="120" t="s">
-        <v>975</v>
-      </c>
-      <c r="B2" s="120" t="s">
+      <c r="A2" s="116" t="s">
         <v>976</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1028">
   <si>
     <t>Field</t>
   </si>
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.5.0</t>
+    <t>2.5.1</t>
   </si>
   <si>
     <r>
@@ -14239,7 +14239,9 @@
         <v>380</v>
       </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="36"/>
+      <c r="G84" s="36" t="s">
+        <v>378</v>
+      </c>
       <c r="H84" s="52" t="s">
         <v>381</v>
       </c>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.5.1</t>
+    <t>2.6.0</t>
   </si>
   <si>
     <r>
@@ -5771,7 +5771,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6053,7 +6053,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6356,7 +6356,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -16494,7 +16494,7 @@
       </c>
       <c r="F178" s="52"/>
       <c r="G178" s="52" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H178" s="52" t="s">
         <v>773</v>
@@ -16752,7 +16752,7 @@
       </c>
       <c r="F188" s="52"/>
       <c r="G188" s="50" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H188" s="50" t="s">
         <v>800</v>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="F199" s="52"/>
       <c r="G199" s="52" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H199" s="52" t="s">
         <v>834</v>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1517" uniqueCount="1028">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1026">
   <si>
     <t>Field</t>
   </si>
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.6.0</t>
+    <t>2.6.1</t>
   </si>
   <si>
     <r>
@@ -4076,10 +4076,69 @@
     <t>?this epo:announcesContract ?value</t>
   </si>
   <si>
+    <t>epo:Contract / epo:Lot</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">?this </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="0"/>
+        <color theme="1"/>
+      </rPr>
+      <t>epo:includesLot</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> ?value .</t>
+    </r>
+  </si>
+  <si>
     <t>V.0.1</t>
   </si>
   <si>
-    <t>epo:Contract / epo:Lot</t>
+    <t>Contract No</t>
+  </si>
+  <si>
+    <t>BT-150</t>
+  </si>
+  <si>
+    <t>Contract Identifier</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/CONTRACT_NO</t>
+  </si>
+  <si>
+    <t>epo:Contract / epo:Identifier / xsd:string</t>
+  </si>
+  <si>
+    <t>?this epo:hasID / epo:hasIdentifierValue ?value .</t>
+  </si>
+  <si>
+    <t>V.0.3</t>
+  </si>
+  <si>
+    <t>BT-721</t>
+  </si>
+  <si>
+    <t>Contract Title</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/TITLE</t>
+  </si>
+  <si>
+    <t>epo:Contract / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -4088,15 +4147,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve">?this </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color theme="1"/>
-      </rPr>
-      <t>epo:includesLot</t>
+      <t>?this</t>
     </r>
     <r>
       <rPr>
@@ -4104,109 +4155,75 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> ?value .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.0.2</t>
-  </si>
-  <si>
-    <t>Contract No</t>
-  </si>
-  <si>
-    <t>BT-150</t>
-  </si>
-  <si>
-    <t>Contract Identifier</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/CONTRACT_NO</t>
-  </si>
-  <si>
-    <t>epo:Contract / epo:Identifier / xsd:string</t>
-  </si>
-  <si>
-    <t>?this epo:hasID / epo:hasIdentifierValue ?value .</t>
+      <t xml:space="preserve"> epo:hasTitle </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
   </si>
   <si>
     <t>V.0.4</t>
   </si>
   <si>
-    <t>BT-721</t>
-  </si>
-  <si>
-    <t>Contract Title</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/TITLE</t>
-  </si>
-  <si>
-    <t>epo:Contract / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
+    <t>A contract/lot is awarded</t>
+  </si>
+  <si>
+    <t>BT-142</t>
+  </si>
+  <si>
+    <t>Winner Chosen</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
       </rPr>
       <t>?this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasTitle </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
-    <t>V.0.6</t>
-  </si>
-  <si>
-    <t>A contract/lot is awarded</t>
-  </si>
-  <si>
-    <t>BT-142</t>
-  </si>
-  <si>
-    <t>Winner Chosen</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT
-AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
-  </si>
-  <si>
-    <t>1. *[matches(name(),'AWARDED_CONTRACT')]
-2. *[matches(name(),'NO_AWARDED_CONTRACT')]</t>
-  </si>
-  <si>
-    <t>epo:Contract / epo:LotAwardOutcome /at-voc:winner-selection-status (we need to add logic on the file parser to handle the OR)</t>
-  </si>
-  <si>
-    <t>{
-  ?this epo:includesLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .
-} UNION
-{
-  ?this epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .
-}</t>
+      </rPr>
+      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> .
+</t>
+    </r>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
+  </si>
+  <si>
+    <t>?this epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .</t>
   </si>
   <si>
     <t>V.1</t>
@@ -4322,9 +4339,6 @@
     <t>V.2.0.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT</t>
-  </si>
-  <si>
     <t>if(exists(.)) then 'true' else 'false'</t>
   </si>
   <si>
@@ -4943,6 +4957,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasInternetAddress ?</t>
     </r>
@@ -4950,12 +4965,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -6745,7 +6762,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>http://publications.europa.eu/resource/authority/direct-award-justification/other-exclusive</t>
+      <t>http://publications.europa.eu/resource/authority/direct-award-justification/exclusive</t>
     </r>
     <r>
       <rPr>
@@ -7094,9 +7111,6 @@
 We can infer it from the RDF data, by checking if there is only one lot in the notice (e.g. COUNT(epo:Lot = 1)).</t>
   </si>
   <si>
-    <t>V.0.3</t>
-  </si>
-  <si>
     <t>Lot No</t>
   </si>
   <si>
@@ -7113,7 +7127,7 @@
 The LOT_NO that is specified in Section V is used in the technical mapping to connect the contract to the right lot (which was created in Section II).</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
+    <t>V.0.6</t>
   </si>
   <si>
     <t>If the NO_AWARDED_CONTRACT XML element is present in a particular AWARD_CONTRACT element, then there will be no Contract instance created for this case. We can infer the non-awarded lot (for which there is no contract signed) with a SPARQL query.</t>
@@ -7355,7 +7369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="31">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7447,11 +7461,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -7671,7 +7680,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="161">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7964,7 +7973,19 @@
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7985,14 +8006,8 @@
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -8015,10 +8030,19 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8039,7 +8063,7 @@
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8051,30 +8075,27 @@
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8104,7 +8125,7 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8116,7 +8137,7 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8128,7 +8149,7 @@
     <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -11529,7 +11550,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="10.38"/>
     <col customWidth="1" min="2" max="2" width="24.25"/>
-    <col customWidth="1" min="4" max="4" width="22.5"/>
+    <col hidden="1" min="3" max="3" width="12.63"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="22.5"/>
     <col customWidth="1" min="5" max="6" width="34.75"/>
     <col customWidth="1" min="7" max="7" width="24.0"/>
     <col customWidth="1" min="8" max="8" width="32.88"/>
@@ -15137,10 +15159,12 @@
       <c r="J121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="B122" s="49"/>
+      <c r="A122" s="100" t="s">
+        <v>531</v>
+      </c>
+      <c r="B122" s="101" t="s">
+        <v>532</v>
+      </c>
       <c r="C122" s="62"/>
       <c r="D122" s="62"/>
       <c r="E122" s="52" t="s">
@@ -15150,166 +15174,168 @@
         <v>534</v>
       </c>
       <c r="G122" s="52" t="s">
+        <v>537</v>
+      </c>
+      <c r="H122" s="102" t="s">
         <v>538</v>
-      </c>
-      <c r="H122" s="100" t="s">
-        <v>539</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
     </row>
     <row r="123">
       <c r="A123" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="B123" s="49" t="s">
         <v>540</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="C123" s="62" t="s">
         <v>541</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="D123" s="62" t="s">
         <v>542</v>
       </c>
-      <c r="D123" s="62" t="s">
+      <c r="E123" s="52" t="s">
         <v>543</v>
       </c>
-      <c r="E123" s="52" t="s">
+      <c r="F123" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="F123" s="52"/>
-      <c r="G123" s="4" t="s">
+      <c r="H123" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
     </row>
     <row r="124">
       <c r="A124" s="51" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B124" s="49" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="D124" s="62" t="s">
         <v>548</v>
       </c>
-      <c r="D124" s="62" t="s">
+      <c r="E124" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="E124" s="52" t="s">
+      <c r="F124" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="F124" s="52"/>
-      <c r="G124" s="4" t="s">
+      <c r="H124" s="102" t="s">
         <v>551</v>
-      </c>
-      <c r="H124" s="100" t="s">
-        <v>552</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
     </row>
     <row r="125">
       <c r="A125" s="51" t="s">
+        <v>552</v>
+      </c>
+      <c r="B125" s="49" t="s">
         <v>553</v>
       </c>
-      <c r="B125" s="49" t="s">
+      <c r="C125" s="62" t="s">
         <v>554</v>
       </c>
-      <c r="C125" s="62" t="s">
+      <c r="D125" s="62" t="s">
         <v>555</v>
       </c>
-      <c r="D125" s="62" t="s">
+      <c r="E125" s="41" t="s">
         <v>556</v>
       </c>
-      <c r="E125" s="41" t="s">
+      <c r="F125" s="70"/>
+      <c r="G125" s="41" t="s">
         <v>557</v>
       </c>
-      <c r="F125" s="41" t="s">
+      <c r="H125" s="76" t="s">
         <v>558</v>
-      </c>
-      <c r="G125" s="41" t="s">
-        <v>559</v>
-      </c>
-      <c r="H125" s="76" t="s">
-        <v>560</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="64" t="s">
-        <v>561</v>
-      </c>
-      <c r="B126" s="39" t="s">
-        <v>562</v>
-      </c>
-      <c r="C126" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="D126" s="62"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
+      <c r="A126" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="B126" s="95" t="s">
+        <v>553</v>
+      </c>
+      <c r="C126" s="103" t="s">
+        <v>554</v>
+      </c>
+      <c r="D126" s="103" t="s">
+        <v>555</v>
+      </c>
+      <c r="E126" s="104" t="s">
+        <v>559</v>
+      </c>
+      <c r="F126" s="99"/>
+      <c r="G126" s="104" t="s">
+        <v>557</v>
+      </c>
+      <c r="H126" s="104" t="s">
+        <v>560</v>
+      </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="51" t="s">
-        <v>563</v>
-      </c>
-      <c r="B127" s="49" t="s">
-        <v>564</v>
-      </c>
-      <c r="C127" s="101" t="s">
+      <c r="A127" s="64" t="s">
+        <v>561</v>
+      </c>
+      <c r="B127" s="39" t="s">
+        <v>562</v>
+      </c>
+      <c r="C127" s="105" t="s">
         <v>467</v>
       </c>
       <c r="D127" s="62"/>
-      <c r="E127" s="62"/>
-      <c r="F127" s="62"/>
-      <c r="G127" s="36" t="s">
-        <v>565</v>
-      </c>
-      <c r="H127" s="91" t="s">
-        <v>566</v>
-      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
       <c r="I127" s="7"/>
       <c r="J127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="80" t="s">
-        <v>567</v>
-      </c>
-      <c r="B128" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="C128" s="62" t="s">
-        <v>569</v>
-      </c>
-      <c r="D128" s="62" t="s">
-        <v>570</v>
-      </c>
-      <c r="E128" s="52" t="s">
-        <v>571</v>
-      </c>
-      <c r="F128" s="52"/>
+      <c r="A128" s="51" t="s">
+        <v>563</v>
+      </c>
+      <c r="B128" s="49" t="s">
+        <v>564</v>
+      </c>
+      <c r="C128" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D128" s="62"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="36"/>
       <c r="G128" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="H128" s="92" t="s">
-        <v>573</v>
+        <v>565</v>
+      </c>
+      <c r="H128" s="91" t="s">
+        <v>566</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
     </row>
     <row r="129">
       <c r="A129" s="80" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B129" s="58" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C129" s="62" t="s">
         <v>569</v>
@@ -15318,79 +15344,83 @@
         <v>570</v>
       </c>
       <c r="E129" s="52" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F129" s="52"/>
-      <c r="G129" s="4" t="s">
+      <c r="G129" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="H129" s="75" t="s">
-        <v>577</v>
+      <c r="H129" s="92" t="s">
+        <v>573</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="80" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B130" s="58" t="s">
-        <v>579</v>
-      </c>
-      <c r="C130" s="102" t="s">
-        <v>580</v>
-      </c>
-      <c r="D130" s="62"/>
+        <v>575</v>
+      </c>
+      <c r="C130" s="62" t="s">
+        <v>569</v>
+      </c>
+      <c r="D130" s="62" t="s">
+        <v>570</v>
+      </c>
       <c r="E130" s="52" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F130" s="52"/>
-      <c r="G130" s="36" t="s">
-        <v>582</v>
-      </c>
-      <c r="H130" s="52" t="s">
-        <v>583</v>
+      <c r="G130" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="H130" s="75" t="s">
+        <v>577</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="64" t="s">
-        <v>584</v>
-      </c>
-      <c r="B131" s="39" t="s">
-        <v>532</v>
-      </c>
-      <c r="C131" s="101" t="s">
-        <v>467</v>
+      <c r="A131" s="80" t="s">
+        <v>578</v>
+      </c>
+      <c r="B131" s="58" t="s">
+        <v>579</v>
+      </c>
+      <c r="C131" s="106" t="s">
+        <v>580</v>
       </c>
       <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="E131" s="68" t="s">
+        <v>581</v>
+      </c>
+      <c r="F131" s="68"/>
+      <c r="G131" s="62" t="s">
+        <v>582</v>
+      </c>
+      <c r="H131" s="68" t="s">
+        <v>583</v>
+      </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="80" t="s">
-        <v>585</v>
-      </c>
-      <c r="B132" s="58"/>
-      <c r="C132" s="62"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="52" t="s">
-        <v>586</v>
-      </c>
-      <c r="F132" s="52" t="s">
-        <v>587</v>
-      </c>
-      <c r="G132" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="H132" s="52" t="s">
-        <v>589</v>
-      </c>
+      <c r="A132" s="64" t="s">
+        <v>584</v>
+      </c>
+      <c r="B132" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="C132" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D132" s="62"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
     </row>
@@ -15398,1810 +15428,1812 @@
       <c r="A133" s="80" t="s">
         <v>585</v>
       </c>
-      <c r="B133" s="103"/>
+      <c r="B133" s="58"/>
       <c r="C133" s="62"/>
       <c r="D133" s="7"/>
       <c r="E133" s="52" t="s">
+        <v>556</v>
+      </c>
+      <c r="F133" s="52" t="s">
         <v>586</v>
       </c>
-      <c r="F133" s="52" t="s">
-        <v>590</v>
-      </c>
       <c r="G133" s="36" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H133" s="52" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="51" t="s">
-        <v>593</v>
-      </c>
-      <c r="B134" s="49" t="s">
-        <v>594</v>
-      </c>
-      <c r="C134" s="62" t="s">
-        <v>595</v>
-      </c>
-      <c r="D134" s="62" t="s">
-        <v>596</v>
-      </c>
+      <c r="A134" s="80" t="s">
+        <v>585</v>
+      </c>
+      <c r="B134" s="107"/>
+      <c r="C134" s="62"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="52" t="s">
-        <v>597</v>
-      </c>
-      <c r="F134" s="52"/>
-      <c r="G134" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="H134" s="50" t="s">
-        <v>598</v>
+        <v>556</v>
+      </c>
+      <c r="F134" s="52" t="s">
+        <v>589</v>
+      </c>
+      <c r="G134" s="36" t="s">
+        <v>590</v>
+      </c>
+      <c r="H134" s="52" t="s">
+        <v>591</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135">
       <c r="A135" s="51" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B135" s="49" t="s">
-        <v>600</v>
-      </c>
-      <c r="C135" s="104"/>
-      <c r="D135" s="104"/>
-      <c r="E135" s="71" t="s">
-        <v>586</v>
-      </c>
-      <c r="F135" s="105"/>
-      <c r="G135" s="52" t="s">
-        <v>601</v>
-      </c>
-      <c r="H135" s="36" t="s">
-        <v>602</v>
+        <v>593</v>
+      </c>
+      <c r="C135" s="62" t="s">
+        <v>594</v>
+      </c>
+      <c r="D135" s="62" t="s">
+        <v>595</v>
+      </c>
+      <c r="E135" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="F135" s="52"/>
+      <c r="G135" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="H135" s="50" t="s">
+        <v>597</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="80" t="s">
-        <v>603</v>
-      </c>
-      <c r="B136" s="58" t="s">
-        <v>604</v>
-      </c>
-      <c r="C136" s="62" t="s">
-        <v>605</v>
-      </c>
-      <c r="D136" s="62" t="s">
-        <v>606</v>
-      </c>
-      <c r="E136" s="52" t="s">
-        <v>607</v>
-      </c>
-      <c r="F136" s="52"/>
-      <c r="G136" s="36" t="s">
-        <v>608</v>
+      <c r="A136" s="51" t="s">
+        <v>598</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>599</v>
+      </c>
+      <c r="C136" s="108"/>
+      <c r="D136" s="108"/>
+      <c r="E136" s="71" t="s">
+        <v>556</v>
+      </c>
+      <c r="F136" s="109"/>
+      <c r="G136" s="52" t="s">
+        <v>600</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="80" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>611</v>
-      </c>
-      <c r="C137" s="62"/>
-      <c r="D137" s="62"/>
+        <v>603</v>
+      </c>
+      <c r="C137" s="62" t="s">
+        <v>604</v>
+      </c>
+      <c r="D137" s="62" t="s">
+        <v>605</v>
+      </c>
       <c r="E137" s="52" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="F137" s="52"/>
-      <c r="G137" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="H137" s="50" t="s">
-        <v>614</v>
+      <c r="G137" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="H137" s="36" t="s">
+        <v>608</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138">
       <c r="A138" s="80" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="C138" s="62"/>
       <c r="D138" s="62"/>
       <c r="E138" s="52" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F138" s="52"/>
       <c r="G138" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H138" s="50" t="s">
         <v>613</v>
-      </c>
-      <c r="H138" s="50" t="s">
-        <v>618</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139">
       <c r="A139" s="80" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C139" s="62"/>
       <c r="D139" s="62"/>
       <c r="E139" s="52" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F139" s="52"/>
       <c r="G139" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H139" s="50" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="80" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C140" s="62"/>
       <c r="D140" s="62"/>
       <c r="E140" s="52" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F140" s="52"/>
       <c r="G140" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="H140" s="4" t="s">
-        <v>626</v>
+        <v>612</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>621</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
     </row>
     <row r="141">
       <c r="A141" s="80" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>628</v>
-      </c>
-      <c r="C141" s="106" t="s">
-        <v>629</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="C141" s="36"/>
       <c r="D141" s="62"/>
       <c r="E141" s="52" t="s">
-        <v>630</v>
-      </c>
-      <c r="F141" s="50"/>
-      <c r="G141" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="H141" s="52" t="s">
-        <v>147</v>
+        <v>624</v>
+      </c>
+      <c r="F141" s="52"/>
+      <c r="G141" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>625</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="51" t="s">
-        <v>631</v>
-      </c>
-      <c r="B142" s="49" t="s">
-        <v>632</v>
-      </c>
-      <c r="C142" s="101" t="s">
-        <v>467</v>
+      <c r="A142" s="80" t="s">
+        <v>626</v>
+      </c>
+      <c r="B142" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="C142" s="110" t="s">
+        <v>628</v>
       </c>
       <c r="D142" s="62"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="62"/>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
+      <c r="E142" s="52" t="s">
+        <v>629</v>
+      </c>
+      <c r="F142" s="81"/>
+      <c r="G142" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H142" s="52" t="s">
+        <v>147</v>
+      </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="80" t="s">
-        <v>633</v>
-      </c>
-      <c r="B143" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D143" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E143" s="52" t="s">
-        <v>634</v>
-      </c>
-      <c r="F143" s="52"/>
-      <c r="G143" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H143" s="44" t="s">
-        <v>635</v>
-      </c>
+      <c r="A143" s="51" t="s">
+        <v>630</v>
+      </c>
+      <c r="B143" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="C143" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D143" s="62"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="36"/>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
       <c r="I143" s="7"/>
       <c r="J143" s="7"/>
     </row>
     <row r="144">
       <c r="A144" s="80" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C144" s="62" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D144" s="62" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E144" s="52" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F144" s="52"/>
-      <c r="G144" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="H144" s="46" t="s">
-        <v>638</v>
+      <c r="G144" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H144" s="44" t="s">
+        <v>634</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
     </row>
     <row r="145">
       <c r="A145" s="80" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B145" s="58" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C145" s="62" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D145" s="62" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E145" s="52" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="F145" s="52"/>
-      <c r="G145" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H145" s="50" t="s">
-        <v>641</v>
+      <c r="G145" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H145" s="46" t="s">
+        <v>637</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
     </row>
     <row r="146">
       <c r="A146" s="80" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B146" s="58" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C146" s="62" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D146" s="62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E146" s="52" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F146" s="52"/>
       <c r="G146" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H146" s="50" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
     </row>
     <row r="147">
       <c r="A147" s="80" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B147" s="58" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C147" s="62" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D147" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="E147" s="41" t="s">
-        <v>646</v>
-      </c>
-      <c r="F147" s="41" t="s">
-        <v>647</v>
-      </c>
-      <c r="G147" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="H147" s="52" t="s">
-        <v>648</v>
+        <v>77</v>
+      </c>
+      <c r="E147" s="52" t="s">
+        <v>642</v>
+      </c>
+      <c r="F147" s="52"/>
+      <c r="G147" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" s="50" t="s">
+        <v>643</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
     </row>
     <row r="148">
       <c r="A148" s="80" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B148" s="58" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C148" s="62" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D148" s="62" t="s">
-        <v>650</v>
-      </c>
-      <c r="E148" s="52" t="s">
-        <v>651</v>
-      </c>
-      <c r="F148" s="52"/>
-      <c r="G148" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H148" s="50" t="s">
-        <v>652</v>
+        <v>83</v>
+      </c>
+      <c r="E148" s="41" t="s">
+        <v>645</v>
+      </c>
+      <c r="F148" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="G148" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H148" s="52" t="s">
+        <v>647</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
     </row>
     <row r="149">
       <c r="A149" s="80" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B149" s="58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C149" s="62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D149" s="62" t="s">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="E149" s="52" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F149" s="52"/>
-      <c r="G149" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="H149" s="44" t="s">
-        <v>655</v>
+      <c r="G149" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H149" s="50" t="s">
+        <v>651</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
     </row>
     <row r="150">
       <c r="A150" s="80" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B150" s="58" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="D150" s="62" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E150" s="52" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F150" s="52"/>
-      <c r="G150" s="52" t="s">
-        <v>658</v>
-      </c>
-      <c r="H150" s="52" t="s">
-        <v>659</v>
+      <c r="G150" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H150" s="44" t="s">
+        <v>654</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
     </row>
     <row r="151">
       <c r="A151" s="80" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B151" s="58" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C151" s="62" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D151" s="62" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E151" s="52" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F151" s="52"/>
       <c r="G151" s="52" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H151" s="92" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
     </row>
     <row r="152">
       <c r="A152" s="80" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B152" s="58" t="s">
-        <v>665</v>
+        <v>110</v>
       </c>
       <c r="C152" s="62" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D152" s="62" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E152" s="52" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="F152" s="52"/>
-      <c r="G152" s="46" t="s">
-        <v>658</v>
-      </c>
-      <c r="H152" s="107" t="s">
-        <v>667</v>
+      <c r="G152" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H152" s="92" t="s">
+        <v>662</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
     </row>
     <row r="153">
       <c r="A153" s="80" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B153" s="58" t="s">
-        <v>123</v>
+        <v>664</v>
       </c>
       <c r="C153" s="62" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D153" s="62" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E153" s="52" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F153" s="52"/>
-      <c r="G153" s="52" t="s">
-        <v>662</v>
-      </c>
-      <c r="H153" s="52" t="s">
-        <v>670</v>
+      <c r="G153" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="H153" s="46" t="s">
+        <v>666</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
     </row>
     <row r="154">
       <c r="A154" s="80" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="B154" s="58" t="s">
-        <v>672</v>
+        <v>123</v>
       </c>
       <c r="C154" s="62" t="s">
-        <v>673</v>
+        <v>124</v>
       </c>
       <c r="D154" s="62" t="s">
-        <v>674</v>
+        <v>125</v>
       </c>
       <c r="E154" s="52" t="s">
-        <v>675</v>
-      </c>
-      <c r="F154" s="41" t="s">
-        <v>676</v>
-      </c>
-      <c r="G154" s="41" t="s">
-        <v>677</v>
-      </c>
-      <c r="H154" s="108" t="s">
-        <v>678</v>
+        <v>668</v>
+      </c>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H154" s="92" t="s">
+        <v>669</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="65"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="62"/>
+      <c r="A155" s="80" t="s">
+        <v>670</v>
+      </c>
+      <c r="B155" s="58" t="s">
+        <v>671</v>
+      </c>
+      <c r="C155" s="62" t="s">
+        <v>672</v>
+      </c>
+      <c r="D155" s="62" t="s">
+        <v>673</v>
+      </c>
       <c r="E155" s="52" t="s">
+        <v>674</v>
+      </c>
+      <c r="F155" s="41" t="s">
         <v>675</v>
       </c>
-      <c r="F155" s="41" t="s">
+      <c r="G155" s="41" t="s">
         <v>676</v>
       </c>
-      <c r="G155" s="63" t="s">
-        <v>679</v>
-      </c>
-      <c r="H155" s="63" t="s">
-        <v>680</v>
+      <c r="H155" s="111" t="s">
+        <v>677</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="51" t="s">
-        <v>681</v>
-      </c>
-      <c r="B156" s="49" t="s">
-        <v>682</v>
-      </c>
-      <c r="C156" s="101" t="s">
-        <v>467</v>
-      </c>
+      <c r="A156" s="65"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="62"/>
       <c r="D156" s="62"/>
-      <c r="E156" s="62"/>
-      <c r="F156" s="62"/>
-      <c r="G156" s="4"/>
-      <c r="H156" s="4"/>
+      <c r="E156" s="68" t="s">
+        <v>674</v>
+      </c>
+      <c r="F156" s="104" t="s">
+        <v>675</v>
+      </c>
+      <c r="G156" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="H156" s="63" t="s">
+        <v>679</v>
+      </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="80" t="s">
-        <v>683</v>
-      </c>
-      <c r="B157" s="58" t="s">
-        <v>684</v>
-      </c>
-      <c r="C157" s="62" t="s">
-        <v>685</v>
-      </c>
-      <c r="D157" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="E157" s="52" t="s">
-        <v>686</v>
-      </c>
-      <c r="F157" s="52"/>
-      <c r="G157" s="36" t="s">
-        <v>687</v>
-      </c>
-      <c r="H157" s="52" t="s">
-        <v>688</v>
-      </c>
+      <c r="A157" s="51" t="s">
+        <v>680</v>
+      </c>
+      <c r="B157" s="49" t="s">
+        <v>681</v>
+      </c>
+      <c r="C157" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D157" s="62"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="36"/>
+      <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
     </row>
     <row r="158">
       <c r="A158" s="80" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B158" s="58" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C158" s="62" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D158" s="62" t="s">
-        <v>692</v>
+        <v>266</v>
       </c>
       <c r="E158" s="52" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F158" s="52"/>
       <c r="G158" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="H158" s="50" t="s">
-        <v>695</v>
+        <v>686</v>
+      </c>
+      <c r="H158" s="52" t="s">
+        <v>687</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
     </row>
     <row r="159">
       <c r="A159" s="80" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B159" s="58" t="s">
-        <v>271</v>
+        <v>689</v>
       </c>
       <c r="C159" s="62" t="s">
-        <v>272</v>
+        <v>690</v>
       </c>
       <c r="D159" s="62" t="s">
-        <v>273</v>
+        <v>691</v>
       </c>
       <c r="E159" s="52" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F159" s="52"/>
       <c r="G159" s="36" t="s">
-        <v>698</v>
-      </c>
-      <c r="H159" s="52" t="s">
-        <v>699</v>
+        <v>693</v>
+      </c>
+      <c r="H159" s="50" t="s">
+        <v>694</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
     </row>
     <row r="160">
-      <c r="A160" s="73" t="s">
-        <v>700</v>
-      </c>
-      <c r="B160" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="C160" s="109" t="s">
-        <v>701</v>
-      </c>
-      <c r="D160" s="62"/>
+      <c r="A160" s="80" t="s">
+        <v>695</v>
+      </c>
+      <c r="B160" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C160" s="62" t="s">
+        <v>272</v>
+      </c>
+      <c r="D160" s="62" t="s">
+        <v>273</v>
+      </c>
       <c r="E160" s="52" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="F160" s="52"/>
       <c r="G160" s="36" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H160" s="52" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
     </row>
     <row r="161">
-      <c r="A161" s="80" t="s">
-        <v>705</v>
-      </c>
-      <c r="B161" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C161" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="D161" s="62" t="s">
-        <v>279</v>
-      </c>
+      <c r="A161" s="73" t="s">
+        <v>699</v>
+      </c>
+      <c r="B161" s="74" t="s">
+        <v>283</v>
+      </c>
+      <c r="C161" s="110" t="s">
+        <v>700</v>
+      </c>
+      <c r="D161" s="62"/>
       <c r="E161" s="52" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F161" s="52"/>
       <c r="G161" s="36" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="H161" s="52" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
     </row>
     <row r="162">
       <c r="A162" s="80" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B162" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="C162" s="109" t="s">
-        <v>701</v>
-      </c>
-      <c r="D162" s="62"/>
+        <v>277</v>
+      </c>
+      <c r="C162" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="D162" s="62" t="s">
+        <v>279</v>
+      </c>
       <c r="E162" s="52" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F162" s="52"/>
       <c r="G162" s="36" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="H162" s="52" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="51" t="s">
-        <v>710</v>
-      </c>
-      <c r="B163" s="49" t="s">
-        <v>711</v>
-      </c>
-      <c r="C163" s="101" t="s">
-        <v>467</v>
+      <c r="A163" s="80" t="s">
+        <v>707</v>
+      </c>
+      <c r="B163" s="58" t="s">
+        <v>283</v>
+      </c>
+      <c r="C163" s="110" t="s">
+        <v>700</v>
       </c>
       <c r="D163" s="62"/>
-      <c r="E163" s="62"/>
-      <c r="F163" s="62"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
+      <c r="E163" s="68" t="s">
+        <v>701</v>
+      </c>
+      <c r="F163" s="68"/>
+      <c r="G163" s="62" t="s">
+        <v>702</v>
+      </c>
+      <c r="H163" s="68" t="s">
+        <v>708</v>
+      </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
     </row>
     <row r="164">
-      <c r="A164" s="80" t="s">
-        <v>712</v>
-      </c>
-      <c r="B164" s="58" t="s">
-        <v>713</v>
-      </c>
-      <c r="C164" s="62" t="s">
-        <v>714</v>
-      </c>
-      <c r="D164" s="62" t="s">
-        <v>715</v>
-      </c>
-      <c r="E164" s="52" t="s">
-        <v>716</v>
-      </c>
-      <c r="F164" s="52"/>
-      <c r="G164" s="52" t="s">
-        <v>717</v>
-      </c>
-      <c r="H164" s="110" t="s">
-        <v>718</v>
-      </c>
+      <c r="A164" s="51" t="s">
+        <v>709</v>
+      </c>
+      <c r="B164" s="49" t="s">
+        <v>710</v>
+      </c>
+      <c r="C164" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D164" s="62"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
     </row>
     <row r="165">
       <c r="A165" s="80" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B165" s="58" t="s">
-        <v>720</v>
-      </c>
-      <c r="C165" s="7"/>
-      <c r="D165" s="7"/>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="7"/>
-      <c r="H165" s="7"/>
+        <v>712</v>
+      </c>
+      <c r="C165" s="62" t="s">
+        <v>713</v>
+      </c>
+      <c r="D165" s="62" t="s">
+        <v>714</v>
+      </c>
+      <c r="E165" s="68" t="s">
+        <v>715</v>
+      </c>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68" t="s">
+        <v>716</v>
+      </c>
+      <c r="H165" s="112" t="s">
+        <v>717</v>
+      </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
     </row>
     <row r="166">
       <c r="A166" s="80" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B166" s="58" t="s">
-        <v>722</v>
-      </c>
-      <c r="C166" s="52" t="s">
-        <v>723</v>
-      </c>
-      <c r="D166" s="52" t="s">
-        <v>724</v>
-      </c>
-      <c r="E166" s="52" t="s">
-        <v>725</v>
-      </c>
-      <c r="F166" s="52"/>
-      <c r="G166" s="36" t="s">
-        <v>726</v>
-      </c>
-      <c r="H166" s="52" t="s">
-        <v>727</v>
-      </c>
+        <v>719</v>
+      </c>
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
     </row>
     <row r="167">
       <c r="A167" s="80" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="B167" s="58" t="s">
-        <v>283</v>
-      </c>
-      <c r="C167" s="109" t="s">
-        <v>701</v>
-      </c>
-      <c r="D167" s="62"/>
+        <v>721</v>
+      </c>
+      <c r="C167" s="68" t="s">
+        <v>722</v>
+      </c>
+      <c r="D167" s="68" t="s">
+        <v>723</v>
+      </c>
       <c r="E167" s="52" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F167" s="52"/>
-      <c r="G167" s="52" t="s">
-        <v>730</v>
-      </c>
-      <c r="H167" s="36" t="s">
-        <v>731</v>
+      <c r="G167" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="H167" s="52" t="s">
+        <v>726</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
     </row>
     <row r="168">
       <c r="A168" s="80" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B168" s="58" t="s">
-        <v>733</v>
-      </c>
-      <c r="C168" s="62" t="s">
-        <v>734</v>
-      </c>
-      <c r="D168" s="62" t="s">
-        <v>735</v>
-      </c>
-      <c r="E168" s="111" t="s">
-        <v>736</v>
-      </c>
-      <c r="F168" s="111"/>
+        <v>283</v>
+      </c>
+      <c r="C168" s="110" t="s">
+        <v>700</v>
+      </c>
+      <c r="D168" s="62"/>
+      <c r="E168" s="113" t="s">
+        <v>728</v>
+      </c>
+      <c r="F168" s="113"/>
       <c r="G168" s="52" t="s">
-        <v>737</v>
-      </c>
-      <c r="H168" s="52" t="s">
-        <v>738</v>
+        <v>729</v>
+      </c>
+      <c r="H168" s="36" t="s">
+        <v>730</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
     </row>
     <row r="169">
       <c r="A169" s="80" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="B169" s="58" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="C169" s="62" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="D169" s="62" t="s">
-        <v>742</v>
-      </c>
-      <c r="E169" s="111" t="s">
-        <v>743</v>
-      </c>
-      <c r="F169" s="111"/>
+        <v>734</v>
+      </c>
+      <c r="E169" s="113" t="s">
+        <v>735</v>
+      </c>
+      <c r="F169" s="113"/>
       <c r="G169" s="52" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="H169" s="52" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
     </row>
     <row r="170">
-      <c r="A170" s="88" t="s">
-        <v>746</v>
-      </c>
-      <c r="B170" s="34" t="s">
-        <v>747</v>
-      </c>
-      <c r="C170" s="7"/>
-      <c r="D170" s="7"/>
-      <c r="E170" s="65"/>
-      <c r="F170" s="65"/>
-      <c r="G170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="A170" s="80" t="s">
+        <v>738</v>
+      </c>
+      <c r="B170" s="58" t="s">
+        <v>739</v>
+      </c>
+      <c r="C170" s="62" t="s">
+        <v>740</v>
+      </c>
+      <c r="D170" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="E170" s="113" t="s">
+        <v>742</v>
+      </c>
+      <c r="F170" s="113"/>
+      <c r="G170" s="68" t="s">
+        <v>743</v>
+      </c>
+      <c r="H170" s="68" t="s">
+        <v>744</v>
+      </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="64" t="s">
-        <v>748</v>
-      </c>
-      <c r="B171" s="39" t="s">
-        <v>408</v>
-      </c>
-      <c r="C171" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="E171" s="111" t="s">
-        <v>749</v>
-      </c>
-      <c r="F171" s="111"/>
-      <c r="G171" s="112" t="s">
-        <v>221</v>
-      </c>
-      <c r="H171" s="113" t="s">
-        <v>750</v>
-      </c>
+      <c r="A171" s="88" t="s">
+        <v>745</v>
+      </c>
+      <c r="B171" s="34" t="s">
+        <v>746</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
     </row>
     <row r="172">
       <c r="A172" s="64" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B172" s="39" t="s">
-        <v>752</v>
-      </c>
-      <c r="C172" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="D172" s="7"/>
-      <c r="E172" s="114"/>
-      <c r="F172" s="114"/>
-      <c r="G172" s="7"/>
-      <c r="H172" s="7"/>
+        <v>408</v>
+      </c>
+      <c r="C172" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E172" s="113" t="s">
+        <v>748</v>
+      </c>
+      <c r="F172" s="113"/>
+      <c r="G172" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="H172" s="115" t="s">
+        <v>749</v>
+      </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="51" t="s">
-        <v>753</v>
-      </c>
-      <c r="B173" s="49" t="s">
-        <v>754</v>
-      </c>
-      <c r="C173" s="115" t="s">
+      <c r="A173" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="B173" s="39" t="s">
+        <v>751</v>
+      </c>
+      <c r="C173" s="105" t="s">
         <v>467</v>
       </c>
       <c r="D173" s="7"/>
-      <c r="E173" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="F173" s="62"/>
-      <c r="G173" s="36" t="s">
-        <v>756</v>
-      </c>
-      <c r="H173" s="36" t="s">
-        <v>757</v>
-      </c>
+      <c r="E173" s="116"/>
+      <c r="F173" s="116"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="80" t="s">
-        <v>758</v>
-      </c>
-      <c r="B174" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C174" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D174" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E174" s="52" t="s">
-        <v>759</v>
-      </c>
-      <c r="F174" s="52"/>
-      <c r="G174" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H174" s="50" t="s">
-        <v>760</v>
+      <c r="A174" s="51" t="s">
+        <v>752</v>
+      </c>
+      <c r="B174" s="49" t="s">
+        <v>753</v>
+      </c>
+      <c r="C174" s="117" t="s">
+        <v>467</v>
+      </c>
+      <c r="D174" s="7"/>
+      <c r="E174" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F174" s="36"/>
+      <c r="G174" s="36" t="s">
+        <v>755</v>
+      </c>
+      <c r="H174" s="36" t="s">
+        <v>756</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
     </row>
     <row r="175">
       <c r="A175" s="80" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B175" s="58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C175" s="62" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D175" s="62" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E175" s="52" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F175" s="52"/>
       <c r="G175" s="50" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H175" s="50" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
     </row>
     <row r="176">
       <c r="A176" s="80" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="B176" s="58" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C176" s="62" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D176" s="62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E176" s="52" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="F176" s="52"/>
       <c r="G176" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H176" s="50" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
     </row>
     <row r="177">
       <c r="A177" s="80" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="B177" s="58" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C177" s="62" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D177" s="62" t="s">
-        <v>650</v>
+        <v>77</v>
       </c>
       <c r="E177" s="52" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="F177" s="52"/>
       <c r="G177" s="50" t="s">
-        <v>769</v>
+        <v>72</v>
       </c>
       <c r="H177" s="50" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
     </row>
     <row r="178">
       <c r="A178" s="80" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B178" s="58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C178" s="62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D178" s="62" t="s">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="E178" s="52" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F178" s="52"/>
-      <c r="G178" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H178" s="52" t="s">
-        <v>773</v>
+      <c r="G178" s="50" t="s">
+        <v>768</v>
+      </c>
+      <c r="H178" s="50" t="s">
+        <v>769</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
     </row>
     <row r="179">
       <c r="A179" s="80" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="B179" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C179" s="52" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="C179" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="D179" s="62" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="F179" s="52"/>
       <c r="G179" s="52" t="s">
-        <v>658</v>
+        <v>100</v>
       </c>
       <c r="H179" s="52" t="s">
-        <v>659</v>
+        <v>772</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
     </row>
     <row r="180">
       <c r="A180" s="80" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B180" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C180" s="62" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C180" s="68" t="s">
+        <v>117</v>
       </c>
       <c r="D180" s="62" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E180" s="52" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F180" s="52"/>
       <c r="G180" s="52" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H180" s="52" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
     </row>
     <row r="181">
       <c r="A181" s="80" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B181" s="58" t="s">
-        <v>665</v>
+        <v>110</v>
       </c>
       <c r="C181" s="62" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D181" s="62" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E181" s="52" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="F181" s="52"/>
-      <c r="G181" s="46" t="s">
-        <v>658</v>
-      </c>
-      <c r="H181" s="46" t="s">
-        <v>780</v>
+      <c r="G181" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H181" s="52" t="s">
+        <v>662</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
     </row>
     <row r="182">
       <c r="A182" s="80" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>123</v>
+        <v>664</v>
       </c>
       <c r="C182" s="62" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D182" s="62" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E182" s="52" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F182" s="52"/>
-      <c r="G182" s="52" t="s">
-        <v>662</v>
-      </c>
-      <c r="H182" s="52" t="s">
-        <v>670</v>
+      <c r="G182" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="H182" s="46" t="s">
+        <v>779</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="51" t="s">
-        <v>783</v>
-      </c>
-      <c r="B183" s="49" t="s">
-        <v>784</v>
-      </c>
-      <c r="C183" s="115" t="s">
-        <v>467</v>
-      </c>
-      <c r="D183" s="116"/>
-      <c r="E183" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="F183" s="62"/>
-      <c r="G183" s="36" t="s">
-        <v>785</v>
-      </c>
-      <c r="H183" s="36" t="s">
-        <v>757</v>
+      <c r="A183" s="80" t="s">
+        <v>780</v>
+      </c>
+      <c r="B183" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C183" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="D183" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E183" s="52" t="s">
+        <v>781</v>
+      </c>
+      <c r="F183" s="68"/>
+      <c r="G183" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H183" s="52" t="s">
+        <v>669</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="80" t="s">
-        <v>786</v>
-      </c>
-      <c r="B184" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C184" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D184" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E184" s="52" t="s">
-        <v>787</v>
-      </c>
-      <c r="F184" s="52"/>
-      <c r="G184" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H184" s="50" t="s">
-        <v>788</v>
+      <c r="A184" s="51" t="s">
+        <v>782</v>
+      </c>
+      <c r="B184" s="49" t="s">
+        <v>783</v>
+      </c>
+      <c r="C184" s="117" t="s">
+        <v>467</v>
+      </c>
+      <c r="D184" s="118"/>
+      <c r="E184" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F184" s="36"/>
+      <c r="G184" s="36" t="s">
+        <v>784</v>
+      </c>
+      <c r="H184" s="36" t="s">
+        <v>756</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
     </row>
     <row r="185">
       <c r="A185" s="80" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B185" s="58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C185" s="62" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D185" s="62" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E185" s="52" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F185" s="52"/>
       <c r="G185" s="50" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
     </row>
     <row r="186">
       <c r="A186" s="80" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B186" s="58" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C186" s="62" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D186" s="62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E186" s="52" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F186" s="52"/>
       <c r="G186" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H186" s="50" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
     </row>
     <row r="187">
       <c r="A187" s="80" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="B187" s="58" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C187" s="62" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D187" s="62" t="s">
-        <v>650</v>
+        <v>77</v>
       </c>
       <c r="E187" s="52" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="F187" s="52"/>
       <c r="G187" s="50" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H187" s="50" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188">
       <c r="A188" s="80" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B188" s="58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C188" s="62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D188" s="62" t="s">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="E188" s="52" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F188" s="52"/>
       <c r="G188" s="50" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H188" s="50" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
     </row>
     <row r="189">
       <c r="A189" s="80" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="B189" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C189" s="52" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="D189" s="62" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E189" s="52" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="F189" s="52"/>
-      <c r="G189" s="52" t="s">
-        <v>658</v>
-      </c>
-      <c r="H189" s="52" t="s">
-        <v>659</v>
+      <c r="G189" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="H189" s="50" t="s">
+        <v>799</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
     </row>
     <row r="190">
       <c r="A190" s="80" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="B190" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C190" s="62" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C190" s="68" t="s">
+        <v>117</v>
       </c>
       <c r="D190" s="62" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E190" s="52" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F190" s="52"/>
       <c r="G190" s="52" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H190" s="52" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
     </row>
     <row r="191">
       <c r="A191" s="80" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B191" s="58" t="s">
-        <v>665</v>
+        <v>110</v>
       </c>
       <c r="C191" s="62" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D191" s="62" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E191" s="52" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F191" s="52"/>
-      <c r="G191" s="46" t="s">
-        <v>658</v>
-      </c>
-      <c r="H191" s="46" t="s">
-        <v>807</v>
+      <c r="G191" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H191" s="52" t="s">
+        <v>662</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="80" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="B192" s="58" t="s">
-        <v>123</v>
+        <v>664</v>
       </c>
       <c r="C192" s="62" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D192" s="62" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E192" s="52" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="F192" s="52"/>
-      <c r="G192" s="52" t="s">
-        <v>662</v>
-      </c>
-      <c r="H192" s="52" t="s">
-        <v>670</v>
+      <c r="G192" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="H192" s="46" t="s">
+        <v>806</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="51" t="s">
-        <v>810</v>
-      </c>
-      <c r="B193" s="49" t="s">
-        <v>811</v>
+      <c r="A193" s="80" t="s">
+        <v>807</v>
+      </c>
+      <c r="B193" s="58" t="s">
+        <v>123</v>
       </c>
       <c r="C193" s="62" t="s">
-        <v>812</v>
+        <v>124</v>
       </c>
       <c r="D193" s="62" t="s">
-        <v>813</v>
+        <v>125</v>
       </c>
       <c r="E193" s="52" t="s">
-        <v>814</v>
-      </c>
-      <c r="F193" s="36"/>
-      <c r="G193" s="112" t="s">
-        <v>815</v>
-      </c>
-      <c r="H193" s="113" t="s">
-        <v>816</v>
+        <v>808</v>
+      </c>
+      <c r="F193" s="52"/>
+      <c r="G193" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H193" s="52" t="s">
+        <v>669</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
     </row>
     <row r="194">
       <c r="A194" s="51" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B194" s="49" t="s">
-        <v>818</v>
-      </c>
-      <c r="C194" s="7"/>
-      <c r="D194" s="7"/>
-      <c r="E194" s="4" t="s">
-        <v>755</v>
+        <v>810</v>
+      </c>
+      <c r="C194" s="62" t="s">
+        <v>811</v>
+      </c>
+      <c r="D194" s="62" t="s">
+        <v>812</v>
+      </c>
+      <c r="E194" s="52" t="s">
+        <v>813</v>
       </c>
       <c r="F194" s="62"/>
-      <c r="G194" s="36" t="s">
-        <v>819</v>
-      </c>
-      <c r="H194" s="36" t="s">
-        <v>757</v>
+      <c r="G194" s="119" t="s">
+        <v>814</v>
+      </c>
+      <c r="H194" s="120" t="s">
+        <v>815</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="80" t="s">
-        <v>820</v>
-      </c>
-      <c r="B195" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="C195" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="E195" s="52" t="s">
-        <v>821</v>
-      </c>
-      <c r="F195" s="52"/>
-      <c r="G195" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="H195" s="50" t="s">
-        <v>822</v>
+      <c r="A195" s="51" t="s">
+        <v>816</v>
+      </c>
+      <c r="B195" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F195" s="36"/>
+      <c r="G195" s="36" t="s">
+        <v>818</v>
+      </c>
+      <c r="H195" s="36" t="s">
+        <v>756</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
     </row>
     <row r="196">
       <c r="A196" s="80" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="B196" s="58" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C196" s="62" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D196" s="62" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E196" s="52" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F196" s="52"/>
       <c r="G196" s="50" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
     </row>
     <row r="197">
       <c r="A197" s="80" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B197" s="58" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C197" s="62" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D197" s="62" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E197" s="52" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F197" s="52"/>
       <c r="G197" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H197" s="50" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
     </row>
     <row r="198">
       <c r="A198" s="80" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B198" s="58" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="C198" s="62" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D198" s="62" t="s">
-        <v>650</v>
+        <v>77</v>
       </c>
       <c r="E198" s="52" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="F198" s="52"/>
       <c r="G198" s="50" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H198" s="50" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
     </row>
     <row r="199">
       <c r="A199" s="80" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="B199" s="58" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C199" s="62" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D199" s="62" t="s">
-        <v>98</v>
+        <v>649</v>
       </c>
       <c r="E199" s="52" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F199" s="52"/>
-      <c r="G199" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="H199" s="52" t="s">
-        <v>834</v>
+      <c r="G199" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="H199" s="50" t="s">
+        <v>830</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
     </row>
     <row r="200">
       <c r="A200" s="80" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="B200" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C200" s="52" t="s">
-        <v>117</v>
+        <v>96</v>
+      </c>
+      <c r="C200" s="36" t="s">
+        <v>97</v>
       </c>
       <c r="D200" s="62" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E200" s="52" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F200" s="52"/>
       <c r="G200" s="52" t="s">
-        <v>658</v>
+        <v>100</v>
       </c>
       <c r="H200" s="52" t="s">
-        <v>659</v>
+        <v>833</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
     </row>
     <row r="201">
       <c r="A201" s="80" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B201" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="C201" s="62" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="C201" s="68" t="s">
+        <v>117</v>
       </c>
       <c r="D201" s="62" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E201" s="52" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F201" s="52"/>
       <c r="G201" s="52" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H201" s="52" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
     </row>
     <row r="202">
       <c r="A202" s="80" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B202" s="58" t="s">
-        <v>665</v>
+        <v>110</v>
       </c>
       <c r="C202" s="62" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="D202" s="62" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="E202" s="52" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F202" s="52"/>
-      <c r="G202" s="46" t="s">
-        <v>658</v>
-      </c>
-      <c r="H202" s="46" t="s">
-        <v>841</v>
+      <c r="G202" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H202" s="52" t="s">
+        <v>662</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
     </row>
     <row r="203">
       <c r="A203" s="80" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="B203" s="58" t="s">
-        <v>123</v>
+        <v>664</v>
       </c>
       <c r="C203" s="62" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D203" s="62" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E203" s="52" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F203" s="52"/>
-      <c r="G203" s="52" t="s">
-        <v>662</v>
-      </c>
-      <c r="H203" s="52" t="s">
-        <v>670</v>
+      <c r="G203" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="H203" s="46" t="s">
+        <v>840</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="64" t="s">
-        <v>844</v>
-      </c>
-      <c r="B204" s="39" t="s">
-        <v>845</v>
-      </c>
-      <c r="C204" s="117" t="s">
-        <v>846</v>
-      </c>
-      <c r="D204" s="117" t="s">
-        <v>847</v>
-      </c>
-      <c r="E204" s="118" t="s">
-        <v>848</v>
-      </c>
-      <c r="F204" s="118"/>
-      <c r="G204" s="119" t="s">
-        <v>849</v>
-      </c>
-      <c r="H204" s="119" t="s">
-        <v>850</v>
+      <c r="A204" s="80" t="s">
+        <v>841</v>
+      </c>
+      <c r="B204" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C204" s="121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D204" s="121" t="s">
+        <v>125</v>
+      </c>
+      <c r="E204" s="52" t="s">
+        <v>842</v>
+      </c>
+      <c r="F204" s="52"/>
+      <c r="G204" s="52" t="s">
+        <v>661</v>
+      </c>
+      <c r="H204" s="52" t="s">
+        <v>669</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="88" t="s">
-        <v>851</v>
-      </c>
-      <c r="B205" s="34" t="s">
-        <v>852</v>
-      </c>
-      <c r="C205" s="120"/>
-      <c r="D205" s="7"/>
-      <c r="E205" s="7"/>
-      <c r="F205" s="7"/>
-      <c r="G205" s="7"/>
-      <c r="H205" s="7"/>
+      <c r="A205" s="64" t="s">
+        <v>843</v>
+      </c>
+      <c r="B205" s="39" t="s">
+        <v>844</v>
+      </c>
+      <c r="C205" s="122" t="s">
+        <v>845</v>
+      </c>
+      <c r="D205" s="122" t="s">
+        <v>846</v>
+      </c>
+      <c r="E205" s="123" t="s">
+        <v>847</v>
+      </c>
+      <c r="F205" s="123"/>
+      <c r="G205" s="124" t="s">
+        <v>848</v>
+      </c>
+      <c r="H205" s="124" t="s">
+        <v>849</v>
+      </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
     </row>
     <row r="206">
-      <c r="A206" s="64" t="s">
-        <v>853</v>
-      </c>
-      <c r="B206" s="121" t="s">
-        <v>854</v>
-      </c>
-      <c r="C206" s="122" t="s">
-        <v>467</v>
-      </c>
-      <c r="D206" s="62"/>
-      <c r="E206" s="52" t="s">
-        <v>855</v>
-      </c>
+      <c r="A206" s="88" t="s">
+        <v>850</v>
+      </c>
+      <c r="B206" s="34" t="s">
+        <v>851</v>
+      </c>
+      <c r="C206" s="125"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="4"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
@@ -17209,19 +17241,19 @@
       <c r="J206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="51" t="s">
-        <v>856</v>
-      </c>
-      <c r="B207" s="49" t="s">
-        <v>857</v>
-      </c>
-      <c r="C207" s="101" t="s">
-        <v>858</v>
-      </c>
-      <c r="D207" s="62" t="s">
-        <v>859</v>
-      </c>
-      <c r="E207" s="4"/>
+      <c r="A207" s="64" t="s">
+        <v>852</v>
+      </c>
+      <c r="B207" s="126" t="s">
+        <v>853</v>
+      </c>
+      <c r="C207" s="127" t="s">
+        <v>467</v>
+      </c>
+      <c r="D207" s="62"/>
+      <c r="E207" s="52" t="s">
+        <v>854</v>
+      </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
       <c r="H207" s="4"/>
@@ -17229,903 +17261,918 @@
       <c r="J207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="80" t="s">
-        <v>860</v>
-      </c>
-      <c r="B208" s="58" t="s">
-        <v>420</v>
-      </c>
-      <c r="C208" s="62" t="s">
-        <v>861</v>
+      <c r="A208" s="51" t="s">
+        <v>855</v>
+      </c>
+      <c r="B208" s="49" t="s">
+        <v>856</v>
+      </c>
+      <c r="C208" s="105" t="s">
+        <v>857</v>
       </c>
       <c r="D208" s="62" t="s">
-        <v>862</v>
-      </c>
-      <c r="E208" s="52" t="s">
-        <v>863</v>
-      </c>
-      <c r="F208" s="62" t="s">
-        <v>864</v>
-      </c>
-      <c r="G208" s="50" t="s">
-        <v>865</v>
-      </c>
-      <c r="H208" s="75" t="s">
-        <v>866</v>
-      </c>
+        <v>858</v>
+      </c>
+      <c r="E208" s="4"/>
+      <c r="F208" s="7"/>
+      <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="123" t="s">
+      <c r="A209" s="80" t="s">
+        <v>859</v>
+      </c>
+      <c r="B209" s="58" t="s">
+        <v>420</v>
+      </c>
+      <c r="C209" s="62" t="s">
         <v>860</v>
       </c>
-      <c r="B209" s="78" t="s">
-        <v>420</v>
-      </c>
-      <c r="C209" s="124" t="s">
+      <c r="D209" s="62" t="s">
         <v>861</v>
       </c>
-      <c r="D209" s="124" t="s">
+      <c r="E209" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="E209" s="52" t="s">
+      <c r="F209" s="62" t="s">
         <v>863</v>
       </c>
-      <c r="F209" s="62"/>
-      <c r="G209" s="4" t="s">
-        <v>867</v>
+      <c r="G209" s="50" t="s">
+        <v>864</v>
       </c>
       <c r="H209" s="75" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="80" t="s">
-        <v>869</v>
-      </c>
-      <c r="B210" s="58" t="s">
-        <v>870</v>
-      </c>
-      <c r="C210" s="62" t="s">
+      <c r="A210" s="128" t="s">
+        <v>859</v>
+      </c>
+      <c r="B210" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="C210" s="129" t="s">
+        <v>860</v>
+      </c>
+      <c r="D210" s="129" t="s">
         <v>861</v>
       </c>
-      <c r="D210" s="62" t="s">
+      <c r="E210" s="52" t="s">
         <v>862</v>
       </c>
-      <c r="E210" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="F210" s="62" t="s">
-        <v>864</v>
-      </c>
-      <c r="G210" s="50" t="s">
-        <v>865</v>
+      <c r="F210" s="62"/>
+      <c r="G210" s="4" t="s">
+        <v>866</v>
       </c>
       <c r="H210" s="75" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="123" t="s">
+      <c r="A211" s="80" t="s">
+        <v>868</v>
+      </c>
+      <c r="B211" s="58" t="s">
         <v>869</v>
       </c>
-      <c r="B211" s="78" t="s">
+      <c r="C211" s="62" t="s">
+        <v>860</v>
+      </c>
+      <c r="D211" s="62" t="s">
+        <v>861</v>
+      </c>
+      <c r="E211" s="68" t="s">
         <v>870</v>
       </c>
-      <c r="C211" s="124" t="s">
-        <v>861</v>
-      </c>
-      <c r="D211" s="124" t="s">
-        <v>862</v>
-      </c>
-      <c r="E211" s="68" t="s">
+      <c r="F211" s="62" t="s">
+        <v>863</v>
+      </c>
+      <c r="G211" s="81" t="s">
+        <v>864</v>
+      </c>
+      <c r="H211" s="130" t="s">
         <v>871</v>
-      </c>
-      <c r="F211" s="62"/>
-      <c r="G211" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="H211" s="125" t="s">
-        <v>873</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="51" t="s">
-        <v>874</v>
-      </c>
-      <c r="B212" s="49" t="s">
-        <v>875</v>
-      </c>
-      <c r="C212" s="101" t="s">
-        <v>858</v>
-      </c>
-      <c r="D212" s="62" t="s">
-        <v>859</v>
+      <c r="A212" s="128" t="s">
+        <v>868</v>
+      </c>
+      <c r="B212" s="78" t="s">
+        <v>869</v>
+      </c>
+      <c r="C212" s="129" t="s">
+        <v>860</v>
+      </c>
+      <c r="D212" s="129" t="s">
+        <v>861</v>
       </c>
       <c r="E212" s="52" t="s">
-        <v>876</v>
-      </c>
-      <c r="F212" s="7"/>
+        <v>870</v>
+      </c>
+      <c r="F212" s="62"/>
       <c r="G212" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H212" s="75" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
     </row>
     <row r="213">
       <c r="A213" s="51" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="B213" s="49" t="s">
-        <v>879</v>
-      </c>
-      <c r="C213" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="D213" s="62"/>
-      <c r="E213" s="36"/>
+        <v>874</v>
+      </c>
+      <c r="C213" s="105" t="s">
+        <v>857</v>
+      </c>
+      <c r="D213" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="E213" s="52" t="s">
+        <v>875</v>
+      </c>
       <c r="F213" s="7"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="4"/>
+      <c r="G213" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="H213" s="75" t="s">
+        <v>876</v>
+      </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="80" t="s">
-        <v>880</v>
-      </c>
-      <c r="B214" s="58" t="s">
-        <v>881</v>
-      </c>
-      <c r="C214" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="D214" s="62" t="s">
-        <v>859</v>
-      </c>
-      <c r="E214" s="52" t="s">
-        <v>882</v>
-      </c>
+      <c r="A214" s="51" t="s">
+        <v>877</v>
+      </c>
+      <c r="B214" s="49" t="s">
+        <v>878</v>
+      </c>
+      <c r="C214" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D214" s="62"/>
+      <c r="E214" s="36"/>
       <c r="F214" s="7"/>
-      <c r="G214" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="H214" s="75" t="s">
-        <v>883</v>
-      </c>
+      <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="80" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B215" s="58" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C215" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="D215" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D215" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E215" s="52" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H215" s="75" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
     </row>
     <row r="216">
       <c r="A216" s="80" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B216" s="58" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="C216" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="D216" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D216" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E216" s="52" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H216" s="75" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="51" t="s">
-        <v>892</v>
-      </c>
-      <c r="B217" s="49" t="s">
-        <v>893</v>
-      </c>
-      <c r="C217" s="101" t="s">
+      <c r="A217" s="80" t="s">
+        <v>887</v>
+      </c>
+      <c r="B217" s="58" t="s">
+        <v>888</v>
+      </c>
+      <c r="C217" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="D217" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D217" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E217" s="52" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H217" s="75" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
     </row>
     <row r="218">
       <c r="A218" s="51" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="B218" s="49" t="s">
-        <v>897</v>
-      </c>
-      <c r="C218" s="101" t="s">
+        <v>892</v>
+      </c>
+      <c r="C218" s="105" t="s">
+        <v>857</v>
+      </c>
+      <c r="D218" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D218" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E218" s="52" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H218" s="75" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
     </row>
     <row r="219">
       <c r="A219" s="51" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B219" s="49" t="s">
-        <v>901</v>
-      </c>
-      <c r="C219" s="101" t="s">
+        <v>896</v>
+      </c>
+      <c r="C219" s="105" t="s">
+        <v>857</v>
+      </c>
+      <c r="D219" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D219" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E219" s="52" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H219" s="75" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
     </row>
     <row r="220">
       <c r="A220" s="51" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B220" s="49" t="s">
-        <v>905</v>
-      </c>
-      <c r="C220" s="101" t="s">
+        <v>900</v>
+      </c>
+      <c r="C220" s="105" t="s">
+        <v>857</v>
+      </c>
+      <c r="D220" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D220" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E220" s="68" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="H220" s="125" t="s">
-        <v>907</v>
+        <v>866</v>
+      </c>
+      <c r="H220" s="130" t="s">
+        <v>902</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
     </row>
     <row r="221">
       <c r="A221" s="51" t="s">
-        <v>908</v>
-      </c>
-      <c r="B221" s="126" t="s">
-        <v>909</v>
-      </c>
-      <c r="C221" s="101" t="s">
+        <v>903</v>
+      </c>
+      <c r="B221" s="131" t="s">
+        <v>904</v>
+      </c>
+      <c r="C221" s="105" t="s">
+        <v>857</v>
+      </c>
+      <c r="D221" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D221" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E221" s="52" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H221" s="75" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
     </row>
     <row r="222">
       <c r="A222" s="51" t="s">
-        <v>912</v>
-      </c>
-      <c r="B222" s="126" t="s">
-        <v>913</v>
-      </c>
-      <c r="C222" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="D222" s="62"/>
-      <c r="E222" s="36"/>
+        <v>907</v>
+      </c>
+      <c r="B222" s="131" t="s">
+        <v>908</v>
+      </c>
+      <c r="C222" s="105" t="s">
+        <v>857</v>
+      </c>
+      <c r="D222" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="E222" s="52" t="s">
+        <v>909</v>
+      </c>
       <c r="F222" s="7"/>
-      <c r="G222" s="4"/>
-      <c r="H222" s="4"/>
+      <c r="G222" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="H222" s="75" t="s">
+        <v>910</v>
+      </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="80" t="s">
-        <v>914</v>
-      </c>
-      <c r="B223" s="127" t="s">
-        <v>915</v>
-      </c>
-      <c r="C223" s="62" t="s">
-        <v>858</v>
-      </c>
-      <c r="D223" s="62" t="s">
-        <v>859</v>
-      </c>
-      <c r="E223" s="68" t="s">
-        <v>916</v>
-      </c>
+      <c r="A223" s="51" t="s">
+        <v>911</v>
+      </c>
+      <c r="B223" s="131" t="s">
+        <v>912</v>
+      </c>
+      <c r="C223" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D223" s="62"/>
+      <c r="E223" s="62"/>
       <c r="F223" s="7"/>
-      <c r="G223" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="H223" s="125" t="s">
-        <v>917</v>
-      </c>
+      <c r="G223" s="7"/>
+      <c r="H223" s="7"/>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
     </row>
     <row r="224">
       <c r="A224" s="80" t="s">
-        <v>918</v>
-      </c>
-      <c r="B224" s="127" t="s">
-        <v>919</v>
+        <v>913</v>
+      </c>
+      <c r="B224" s="132" t="s">
+        <v>914</v>
       </c>
       <c r="C224" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="D224" s="62" t="s">
         <v>858</v>
       </c>
-      <c r="D224" s="62" t="s">
-        <v>859</v>
-      </c>
       <c r="E224" s="52" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H224" s="75" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="64" t="s">
-        <v>922</v>
-      </c>
-      <c r="B225" s="61" t="s">
-        <v>923</v>
-      </c>
-      <c r="C225" s="101" t="s">
-        <v>467</v>
-      </c>
-      <c r="D225" s="62"/>
-      <c r="E225" s="62"/>
+      <c r="A225" s="80" t="s">
+        <v>917</v>
+      </c>
+      <c r="B225" s="132" t="s">
+        <v>918</v>
+      </c>
+      <c r="C225" s="62" t="s">
+        <v>857</v>
+      </c>
+      <c r="D225" s="62" t="s">
+        <v>858</v>
+      </c>
+      <c r="E225" s="68" t="s">
+        <v>919</v>
+      </c>
       <c r="F225" s="7"/>
-      <c r="G225" s="7"/>
-      <c r="H225" s="7"/>
+      <c r="G225" s="7" t="s">
+        <v>866</v>
+      </c>
+      <c r="H225" s="130" t="s">
+        <v>920</v>
+      </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="51" t="s">
-        <v>924</v>
-      </c>
-      <c r="B226" s="126" t="s">
-        <v>925</v>
-      </c>
-      <c r="C226" s="128" t="s">
-        <v>580</v>
+      <c r="A226" s="64" t="s">
+        <v>921</v>
+      </c>
+      <c r="B226" s="61" t="s">
+        <v>922</v>
+      </c>
+      <c r="C226" s="105" t="s">
+        <v>467</v>
       </c>
       <c r="D226" s="62"/>
-      <c r="E226" s="68" t="s">
-        <v>926</v>
-      </c>
+      <c r="E226" s="62"/>
       <c r="F226" s="7"/>
-      <c r="G226" s="62" t="s">
-        <v>867</v>
-      </c>
-      <c r="H226" s="129" t="s">
-        <v>927</v>
-      </c>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="64" t="s">
-        <v>928</v>
-      </c>
-      <c r="B227" s="61" t="s">
-        <v>929</v>
-      </c>
-      <c r="C227" s="101" t="s">
-        <v>467</v>
+      <c r="A227" s="51" t="s">
+        <v>923</v>
+      </c>
+      <c r="B227" s="131" t="s">
+        <v>924</v>
+      </c>
+      <c r="C227" s="133" t="s">
+        <v>580</v>
       </c>
       <c r="D227" s="62"/>
-      <c r="E227" s="62"/>
+      <c r="E227" s="68" t="s">
+        <v>925</v>
+      </c>
       <c r="F227" s="7"/>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7"/>
+      <c r="G227" s="62" t="s">
+        <v>866</v>
+      </c>
+      <c r="H227" s="134" t="s">
+        <v>926</v>
+      </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="51" t="s">
-        <v>930</v>
-      </c>
-      <c r="B228" s="126" t="s">
-        <v>931</v>
-      </c>
-      <c r="C228" s="101" t="s">
-        <v>932</v>
-      </c>
-      <c r="D228" s="62" t="s">
-        <v>933</v>
-      </c>
-      <c r="E228" s="130" t="s">
-        <v>934</v>
-      </c>
+      <c r="A228" s="64" t="s">
+        <v>927</v>
+      </c>
+      <c r="B228" s="61" t="s">
+        <v>928</v>
+      </c>
+      <c r="C228" s="105" t="s">
+        <v>467</v>
+      </c>
+      <c r="D228" s="62"/>
+      <c r="E228" s="62"/>
       <c r="F228" s="7"/>
-      <c r="G228" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="H228" s="81" t="s">
-        <v>936</v>
-      </c>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="131"/>
-      <c r="G229" s="29"/>
-      <c r="H229" s="29"/>
+      <c r="A229" s="51" t="s">
+        <v>929</v>
+      </c>
+      <c r="B229" s="131" t="s">
+        <v>930</v>
+      </c>
+      <c r="C229" s="105" t="s">
+        <v>931</v>
+      </c>
+      <c r="D229" s="62" t="s">
+        <v>932</v>
+      </c>
+      <c r="E229" s="123" t="s">
+        <v>933</v>
+      </c>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="H229" s="81" t="s">
+        <v>935</v>
+      </c>
+      <c r="I229" s="7"/>
+      <c r="J229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="131"/>
+      <c r="A230" s="135"/>
       <c r="G230" s="29"/>
       <c r="H230" s="29"/>
     </row>
     <row r="231">
-      <c r="A231" s="131"/>
+      <c r="A231" s="135"/>
       <c r="G231" s="29"/>
       <c r="H231" s="29"/>
     </row>
     <row r="232">
-      <c r="A232" s="131"/>
+      <c r="A232" s="135"/>
       <c r="G232" s="29"/>
       <c r="H232" s="29"/>
     </row>
     <row r="233">
-      <c r="A233" s="131"/>
+      <c r="A233" s="135"/>
       <c r="G233" s="29"/>
       <c r="H233" s="29"/>
     </row>
     <row r="234">
-      <c r="A234" s="131"/>
+      <c r="A234" s="135"/>
       <c r="G234" s="29"/>
       <c r="H234" s="29"/>
     </row>
     <row r="235">
-      <c r="A235" s="131"/>
+      <c r="A235" s="135"/>
       <c r="G235" s="29"/>
       <c r="H235" s="29"/>
     </row>
     <row r="236">
-      <c r="A236" s="131"/>
+      <c r="A236" s="135"/>
       <c r="G236" s="29"/>
       <c r="H236" s="29"/>
     </row>
     <row r="237">
-      <c r="A237" s="131"/>
+      <c r="A237" s="135"/>
       <c r="G237" s="29"/>
       <c r="H237" s="29"/>
     </row>
     <row r="238">
-      <c r="A238" s="131"/>
+      <c r="A238" s="135"/>
       <c r="G238" s="29"/>
       <c r="H238" s="29"/>
     </row>
     <row r="239">
-      <c r="A239" s="131"/>
+      <c r="A239" s="135"/>
       <c r="G239" s="29"/>
       <c r="H239" s="29"/>
     </row>
     <row r="240">
-      <c r="A240" s="131"/>
+      <c r="A240" s="135"/>
       <c r="G240" s="29"/>
       <c r="H240" s="29"/>
     </row>
     <row r="241">
-      <c r="A241" s="131"/>
+      <c r="A241" s="135"/>
       <c r="G241" s="29"/>
       <c r="H241" s="29"/>
     </row>
     <row r="242">
-      <c r="A242" s="131"/>
+      <c r="A242" s="135"/>
       <c r="G242" s="29"/>
       <c r="H242" s="29"/>
     </row>
     <row r="243">
-      <c r="A243" s="131"/>
+      <c r="A243" s="135"/>
       <c r="G243" s="29"/>
       <c r="H243" s="29"/>
     </row>
     <row r="244">
-      <c r="A244" s="131"/>
+      <c r="A244" s="135"/>
       <c r="G244" s="29"/>
       <c r="H244" s="29"/>
     </row>
     <row r="245">
-      <c r="A245" s="131"/>
+      <c r="A245" s="135"/>
       <c r="G245" s="29"/>
       <c r="H245" s="29"/>
     </row>
     <row r="246">
-      <c r="A246" s="131"/>
+      <c r="A246" s="135"/>
       <c r="G246" s="29"/>
       <c r="H246" s="29"/>
     </row>
     <row r="247">
-      <c r="A247" s="131"/>
+      <c r="A247" s="135"/>
       <c r="G247" s="29"/>
       <c r="H247" s="29"/>
     </row>
     <row r="248">
-      <c r="A248" s="131"/>
+      <c r="A248" s="135"/>
       <c r="G248" s="29"/>
       <c r="H248" s="29"/>
     </row>
     <row r="249">
-      <c r="A249" s="131"/>
+      <c r="A249" s="135"/>
       <c r="G249" s="29"/>
       <c r="H249" s="29"/>
     </row>
     <row r="250">
-      <c r="A250" s="131"/>
+      <c r="A250" s="135"/>
       <c r="G250" s="29"/>
       <c r="H250" s="29"/>
     </row>
     <row r="251">
-      <c r="A251" s="131"/>
+      <c r="A251" s="135"/>
       <c r="G251" s="29"/>
       <c r="H251" s="29"/>
     </row>
     <row r="252">
-      <c r="A252" s="131"/>
+      <c r="A252" s="135"/>
       <c r="G252" s="29"/>
       <c r="H252" s="29"/>
     </row>
     <row r="253">
-      <c r="A253" s="131"/>
+      <c r="A253" s="135"/>
       <c r="G253" s="29"/>
       <c r="H253" s="29"/>
     </row>
     <row r="254">
-      <c r="A254" s="131"/>
+      <c r="A254" s="135"/>
       <c r="G254" s="29"/>
       <c r="H254" s="29"/>
     </row>
     <row r="255">
-      <c r="A255" s="131"/>
+      <c r="A255" s="135"/>
       <c r="G255" s="29"/>
       <c r="H255" s="29"/>
     </row>
     <row r="256">
-      <c r="A256" s="131"/>
+      <c r="A256" s="135"/>
       <c r="G256" s="29"/>
       <c r="H256" s="29"/>
     </row>
     <row r="257">
-      <c r="A257" s="131"/>
+      <c r="A257" s="135"/>
       <c r="G257" s="29"/>
       <c r="H257" s="29"/>
     </row>
     <row r="258">
-      <c r="A258" s="131"/>
+      <c r="A258" s="135"/>
       <c r="G258" s="29"/>
       <c r="H258" s="29"/>
     </row>
     <row r="259">
-      <c r="A259" s="131"/>
+      <c r="A259" s="135"/>
       <c r="G259" s="29"/>
       <c r="H259" s="29"/>
     </row>
     <row r="260">
-      <c r="A260" s="131"/>
+      <c r="A260" s="135"/>
       <c r="G260" s="29"/>
       <c r="H260" s="29"/>
     </row>
     <row r="261">
-      <c r="A261" s="131"/>
+      <c r="A261" s="135"/>
       <c r="G261" s="29"/>
       <c r="H261" s="29"/>
     </row>
     <row r="262">
-      <c r="A262" s="131"/>
+      <c r="A262" s="135"/>
       <c r="G262" s="29"/>
       <c r="H262" s="29"/>
     </row>
     <row r="263">
-      <c r="A263" s="131"/>
+      <c r="A263" s="135"/>
       <c r="G263" s="29"/>
       <c r="H263" s="29"/>
     </row>
     <row r="264">
-      <c r="A264" s="131"/>
+      <c r="A264" s="135"/>
       <c r="G264" s="29"/>
       <c r="H264" s="29"/>
     </row>
     <row r="265">
-      <c r="A265" s="131"/>
+      <c r="A265" s="135"/>
       <c r="G265" s="29"/>
       <c r="H265" s="29"/>
     </row>
     <row r="266">
-      <c r="A266" s="131"/>
+      <c r="A266" s="135"/>
       <c r="G266" s="29"/>
       <c r="H266" s="29"/>
     </row>
     <row r="267">
-      <c r="A267" s="131"/>
+      <c r="A267" s="135"/>
       <c r="G267" s="29"/>
       <c r="H267" s="29"/>
     </row>
     <row r="268">
-      <c r="A268" s="131"/>
+      <c r="A268" s="135"/>
       <c r="G268" s="29"/>
       <c r="H268" s="29"/>
     </row>
     <row r="269">
-      <c r="A269" s="131"/>
+      <c r="A269" s="135"/>
       <c r="G269" s="29"/>
       <c r="H269" s="29"/>
     </row>
     <row r="270">
-      <c r="A270" s="131"/>
+      <c r="A270" s="135"/>
       <c r="G270" s="29"/>
       <c r="H270" s="29"/>
     </row>
     <row r="271">
-      <c r="A271" s="131"/>
+      <c r="A271" s="135"/>
       <c r="G271" s="29"/>
       <c r="H271" s="29"/>
     </row>
     <row r="272">
-      <c r="A272" s="131"/>
+      <c r="A272" s="135"/>
       <c r="G272" s="29"/>
       <c r="H272" s="29"/>
     </row>
     <row r="273">
-      <c r="A273" s="131"/>
+      <c r="A273" s="135"/>
       <c r="G273" s="29"/>
       <c r="H273" s="29"/>
     </row>
     <row r="274">
-      <c r="A274" s="131"/>
+      <c r="A274" s="135"/>
       <c r="G274" s="29"/>
       <c r="H274" s="29"/>
     </row>
     <row r="275">
-      <c r="A275" s="131"/>
+      <c r="A275" s="135"/>
       <c r="G275" s="29"/>
       <c r="H275" s="29"/>
     </row>
     <row r="276">
-      <c r="A276" s="131"/>
+      <c r="A276" s="135"/>
       <c r="G276" s="29"/>
       <c r="H276" s="29"/>
     </row>
     <row r="277">
-      <c r="A277" s="131"/>
+      <c r="A277" s="135"/>
       <c r="G277" s="29"/>
       <c r="H277" s="29"/>
     </row>
     <row r="278">
-      <c r="A278" s="131"/>
+      <c r="A278" s="135"/>
       <c r="G278" s="29"/>
       <c r="H278" s="29"/>
     </row>
     <row r="279">
-      <c r="A279" s="131"/>
+      <c r="A279" s="135"/>
       <c r="G279" s="29"/>
       <c r="H279" s="29"/>
     </row>
     <row r="280">
-      <c r="A280" s="131"/>
+      <c r="A280" s="135"/>
       <c r="G280" s="29"/>
       <c r="H280" s="29"/>
     </row>
     <row r="281">
-      <c r="A281" s="131"/>
+      <c r="A281" s="135"/>
       <c r="G281" s="29"/>
       <c r="H281" s="29"/>
     </row>
     <row r="282">
-      <c r="A282" s="131"/>
+      <c r="A282" s="135"/>
       <c r="G282" s="29"/>
       <c r="H282" s="29"/>
     </row>
     <row r="283">
-      <c r="A283" s="131"/>
+      <c r="A283" s="135"/>
       <c r="G283" s="29"/>
       <c r="H283" s="29"/>
     </row>
     <row r="284">
-      <c r="A284" s="131"/>
+      <c r="A284" s="135"/>
       <c r="G284" s="29"/>
       <c r="H284" s="29"/>
     </row>
     <row r="285">
-      <c r="A285" s="131"/>
+      <c r="A285" s="135"/>
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
     </row>
     <row r="286">
-      <c r="A286" s="131"/>
+      <c r="A286" s="135"/>
       <c r="G286" s="29"/>
       <c r="H286" s="29"/>
     </row>
     <row r="287">
-      <c r="A287" s="131"/>
+      <c r="A287" s="135"/>
       <c r="G287" s="29"/>
       <c r="H287" s="29"/>
     </row>
     <row r="288">
-      <c r="A288" s="131"/>
+      <c r="A288" s="135"/>
       <c r="G288" s="29"/>
       <c r="H288" s="29"/>
     </row>
     <row r="289">
-      <c r="A289" s="131"/>
+      <c r="A289" s="135"/>
       <c r="G289" s="29"/>
       <c r="H289" s="29"/>
     </row>
     <row r="290">
-      <c r="A290" s="131"/>
+      <c r="A290" s="135"/>
       <c r="G290" s="29"/>
       <c r="H290" s="29"/>
     </row>
     <row r="291">
-      <c r="A291" s="131"/>
+      <c r="A291" s="135"/>
       <c r="G291" s="29"/>
       <c r="H291" s="29"/>
     </row>
     <row r="292">
-      <c r="A292" s="131"/>
+      <c r="A292" s="135"/>
       <c r="G292" s="29"/>
       <c r="H292" s="29"/>
     </row>
     <row r="293">
-      <c r="A293" s="131"/>
+      <c r="A293" s="135"/>
       <c r="G293" s="29"/>
       <c r="H293" s="29"/>
     </row>
     <row r="294">
-      <c r="A294" s="131"/>
+      <c r="A294" s="135"/>
       <c r="G294" s="29"/>
       <c r="H294" s="29"/>
     </row>
     <row r="295">
-      <c r="A295" s="131"/>
+      <c r="A295" s="135"/>
       <c r="G295" s="29"/>
       <c r="H295" s="29"/>
     </row>
     <row r="296">
-      <c r="A296" s="131"/>
+      <c r="A296" s="135"/>
       <c r="G296" s="29"/>
       <c r="H296" s="29"/>
     </row>
     <row r="297">
-      <c r="A297" s="131"/>
+      <c r="A297" s="135"/>
       <c r="G297" s="29"/>
       <c r="H297" s="29"/>
     </row>
     <row r="298">
-      <c r="A298" s="131"/>
+      <c r="A298" s="135"/>
       <c r="G298" s="29"/>
       <c r="H298" s="29"/>
     </row>
     <row r="299">
-      <c r="A299" s="131"/>
+      <c r="A299" s="135"/>
       <c r="G299" s="29"/>
       <c r="H299" s="29"/>
     </row>
     <row r="300">
-      <c r="A300" s="131"/>
+      <c r="A300" s="135"/>
       <c r="G300" s="29"/>
       <c r="H300" s="29"/>
     </row>
     <row r="301">
-      <c r="A301" s="131"/>
+      <c r="A301" s="135"/>
       <c r="G301" s="29"/>
       <c r="H301" s="29"/>
     </row>
     <row r="302">
-      <c r="A302" s="131"/>
+      <c r="A302" s="135"/>
       <c r="G302" s="29"/>
       <c r="H302" s="29"/>
     </row>
     <row r="303">
-      <c r="A303" s="131"/>
+      <c r="A303" s="135"/>
       <c r="G303" s="29"/>
       <c r="H303" s="29"/>
     </row>
     <row r="304">
-      <c r="A304" s="131"/>
+      <c r="A304" s="135"/>
       <c r="G304" s="29"/>
       <c r="H304" s="29"/>
     </row>
     <row r="305">
-      <c r="A305" s="131"/>
+      <c r="A305" s="135"/>
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
     </row>
@@ -18177,18 +18224,18 @@
     <hyperlink r:id="rId16" ref="H104"/>
     <hyperlink r:id="rId17" ref="H105"/>
     <hyperlink r:id="rId18" ref="H125"/>
-    <hyperlink r:id="rId19" ref="H127"/>
-    <hyperlink r:id="rId20" ref="H128"/>
-    <hyperlink r:id="rId21" ref="H129"/>
+    <hyperlink r:id="rId19" ref="H128"/>
+    <hyperlink r:id="rId20" ref="H129"/>
+    <hyperlink r:id="rId21" ref="H130"/>
     <hyperlink r:id="rId22" ref="H151"/>
     <hyperlink r:id="rId23" ref="H152"/>
     <hyperlink r:id="rId24" ref="H154"/>
-    <hyperlink r:id="rId25" ref="H208"/>
+    <hyperlink r:id="rId25" ref="H155"/>
     <hyperlink r:id="rId26" ref="H209"/>
     <hyperlink r:id="rId27" ref="H210"/>
     <hyperlink r:id="rId28" ref="H211"/>
     <hyperlink r:id="rId29" ref="H212"/>
-    <hyperlink r:id="rId30" ref="H214"/>
+    <hyperlink r:id="rId30" ref="H213"/>
     <hyperlink r:id="rId31" ref="H215"/>
     <hyperlink r:id="rId32" ref="H216"/>
     <hyperlink r:id="rId33" ref="H217"/>
@@ -18196,12 +18243,13 @@
     <hyperlink r:id="rId35" ref="H219"/>
     <hyperlink r:id="rId36" ref="H220"/>
     <hyperlink r:id="rId37" ref="H221"/>
-    <hyperlink r:id="rId38" ref="H223"/>
+    <hyperlink r:id="rId38" ref="H222"/>
     <hyperlink r:id="rId39" ref="H224"/>
-    <hyperlink r:id="rId40" ref="H226"/>
+    <hyperlink r:id="rId40" ref="H225"/>
+    <hyperlink r:id="rId41" ref="H227"/>
   </hyperlinks>
-  <drawing r:id="rId41"/>
-  <legacyDrawing r:id="rId42"/>
+  <drawing r:id="rId42"/>
+  <legacyDrawing r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -18216,12 +18264,13 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="35.75"/>
+    <col hidden="1" min="3" max="4" width="12.63"/>
     <col customWidth="1" min="5" max="5" width="40.0"/>
     <col customWidth="1" min="6" max="6" width="58.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="136" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -18242,156 +18291,156 @@
     </row>
     <row r="2">
       <c r="A2" s="65" t="s">
+        <v>936</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>937</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="C2" s="68" t="s">
         <v>938</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>939</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="50" t="s">
+        <v>939</v>
+      </c>
+      <c r="F2" s="50" t="s">
         <v>940</v>
-      </c>
-      <c r="F2" s="50" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
+        <v>936</v>
+      </c>
+      <c r="B3" s="81" t="s">
         <v>937</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="C3" s="68" t="s">
         <v>938</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>939</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="50" t="s">
+        <v>941</v>
+      </c>
+      <c r="F3" s="50" t="s">
         <v>942</v>
-      </c>
-      <c r="F3" s="50" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="65" t="s">
+        <v>546</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>943</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>944</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="D4" s="68" t="s">
         <v>945</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="E4" s="50" t="s">
         <v>946</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="F4" s="50" t="s">
         <v>947</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>948</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>949</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>553</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="C5" s="7" t="s">
         <v>554</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>556</v>
-      </c>
       <c r="E5" s="50" t="s">
-        <v>950</v>
+        <v>559</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>951</v>
-      </c>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="133"/>
-      <c r="N5" s="133"/>
-      <c r="O5" s="133"/>
-      <c r="P5" s="133"/>
-      <c r="Q5" s="133"/>
-      <c r="R5" s="133"/>
-      <c r="S5" s="133"/>
-      <c r="T5" s="133"/>
-      <c r="U5" s="133"/>
-      <c r="V5" s="133"/>
-      <c r="W5" s="133"/>
-      <c r="X5" s="133"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="133"/>
+        <v>949</v>
+      </c>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="137"/>
+      <c r="U5" s="137"/>
+      <c r="V5" s="137"/>
+      <c r="W5" s="137"/>
+      <c r="X5" s="137"/>
+      <c r="Y5" s="137"/>
+      <c r="Z5" s="137"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="81" t="s">
         <v>627</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="C6" s="138" t="s">
         <v>628</v>
-      </c>
-      <c r="C6" s="134" t="s">
-        <v>629</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="50" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>953</v>
-      </c>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
-      <c r="V6" s="133"/>
-      <c r="W6" s="133"/>
-      <c r="X6" s="133"/>
-      <c r="Y6" s="133"/>
-      <c r="Z6" s="133"/>
+        <v>951</v>
+      </c>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
+      <c r="T6" s="137"/>
+      <c r="U6" s="137"/>
+      <c r="V6" s="137"/>
+      <c r="W6" s="137"/>
+      <c r="X6" s="137"/>
+      <c r="Y6" s="137"/>
+      <c r="Z6" s="137"/>
     </row>
     <row r="7">
       <c r="A7" s="65" t="s">
+        <v>670</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>671</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="C7" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>674</v>
-      </c>
       <c r="E7" s="50" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="8">
@@ -22395,37 +22444,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="139" t="s">
+        <v>954</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="140" t="s">
         <v>956</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B3" s="21" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="136" t="s">
+    <row r="4">
+      <c r="A4" s="141" t="s">
         <v>958</v>
       </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="142" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="137" t="s">
+      <c r="B6" s="21" t="s">
         <v>960</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="138" t="s">
-        <v>961</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8">
@@ -22435,68 +22484,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="142" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="142" t="s">
+        <v>963</v>
+      </c>
+      <c r="B11" s="143" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="138" t="s">
+    <row r="12">
+      <c r="B12" s="144" t="s">
         <v>965</v>
       </c>
-      <c r="B11" s="139" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="145"/>
+      <c r="B13" s="146" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="140" t="s">
+    <row r="14">
+      <c r="B14" s="147" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="141"/>
-      <c r="B13" s="142" t="s">
+    <row r="15">
+      <c r="B15" s="148" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="143" t="s">
+    <row r="16">
+      <c r="B16" s="149" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="144" t="s">
+    <row r="17">
+      <c r="A17" s="142"/>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="142" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="145" t="s">
+      <c r="B18" s="150" t="s">
         <v>971</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="138"/>
-      <c r="B17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="138" t="s">
-        <v>972</v>
-      </c>
-      <c r="B18" s="146" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B19" s="151"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="142" t="s">
+        <v>973</v>
+      </c>
+      <c r="B21" s="152" t="s">
         <v>974</v>
-      </c>
-      <c r="B19" s="147"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="138" t="s">
-        <v>975</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -22521,58 +22570,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="138" t="s">
-        <v>977</v>
+      <c r="A1" s="142" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="149" t="s">
-        <v>978</v>
+      <c r="A2" s="153" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="149" t="s">
-        <v>980</v>
+      <c r="A4" s="153" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="149" t="s">
-        <v>984</v>
+      <c r="A8" s="153" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -22598,53 +22647,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>977</v>
-      </c>
-      <c r="B1" s="150" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="154" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="155" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>988</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="151" t="s">
-        <v>989</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -22663,7 +22712,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="139"/>
+      <c r="A1" s="143"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22687,51 +22736,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="156" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="142" t="s">
         <v>998</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="B2" s="142" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="138" t="s">
+      <c r="C2" s="142" t="s">
         <v>1000</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="D2" s="142" t="s">
         <v>1001</v>
       </c>
-      <c r="C2" s="138" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="157" t="s">
         <v>1002</v>
       </c>
-      <c r="D2" s="138" t="s">
+      <c r="B3" s="157" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="153" t="s">
+      <c r="C3" s="21" t="s">
         <v>1004</v>
       </c>
-      <c r="B3" s="153" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D3" s="154" t="str">
+      <c r="D3" s="158" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="153" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B4" s="153" t="s">
+      <c r="A4" s="157" t="s">
         <v>1005</v>
       </c>
+      <c r="B4" s="157" t="s">
+        <v>1003</v>
+      </c>
       <c r="C4" s="21" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D4" s="21" t="str">
         <f t="shared" si="1"/>
@@ -22739,67 +22788,67 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="143" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B5" s="143" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="143" t="s">
         <v>1008</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B6" s="143" t="s">
         <v>1009</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="139" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B6" s="139" t="s">
-        <v>1011</v>
-      </c>
       <c r="C6" s="21" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>1012</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D7" s="155" t="s">
-        <v>1014</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="160" t="s">
         <v>1015</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>1016</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D8" s="156" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>1018</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>1020</v>
       </c>
     </row>
   </sheetData>
@@ -22828,52 +22877,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="156" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="142" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="138" t="s">
+      <c r="B2" s="142" t="s">
+        <v>999</v>
+      </c>
+      <c r="C2" s="142" t="s">
         <v>1000</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="D2" s="142" t="s">
         <v>1001</v>
-      </c>
-      <c r="C2" s="138" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D2" s="138" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C5" s="160" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>1025</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C5" s="156" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1027</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1027">
   <si>
     <t>Field</t>
   </si>
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.6.1</t>
+    <t>2.6.2</t>
   </si>
   <si>
     <r>
@@ -4223,7 +4223,10 @@
     <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
   </si>
   <si>
-    <t>?this epo:includesLotAwardOutcome / epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .</t>
+    <t>epo:LotAwardOutcome / at-voc:winner-selection-status</t>
+  </si>
+  <si>
+    <t>?this epo:hasAwardStatus &lt;http://publications.europa.eu/resource/authority/winner-selection-status/clos-nw&gt; .</t>
   </si>
   <si>
     <t>V.1</t>
@@ -15282,20 +15285,20 @@
       </c>
       <c r="F126" s="99"/>
       <c r="G126" s="104" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H126" s="104" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
     </row>
     <row r="127">
       <c r="A127" s="64" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C127" s="105" t="s">
         <v>467</v>
@@ -15310,10 +15313,10 @@
     </row>
     <row r="128">
       <c r="A128" s="51" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B128" s="49" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C128" s="105" t="s">
         <v>467</v>
@@ -15322,93 +15325,93 @@
       <c r="E128" s="36"/>
       <c r="F128" s="36"/>
       <c r="G128" s="36" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H128" s="91" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
     </row>
     <row r="129">
       <c r="A129" s="80" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B129" s="58" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C129" s="62" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D129" s="62" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E129" s="52" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F129" s="52"/>
       <c r="G129" s="36" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H129" s="92" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
     </row>
     <row r="130">
       <c r="A130" s="80" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B130" s="58" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C130" s="62" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D130" s="62" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E130" s="52" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F130" s="52"/>
       <c r="G130" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="H130" s="75" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="80" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B131" s="58" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C131" s="106" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D131" s="62"/>
       <c r="E131" s="68" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F131" s="68"/>
       <c r="G131" s="62" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H131" s="68" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="64" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B132" s="39" t="s">
         <v>532</v>
@@ -15426,7 +15429,7 @@
     </row>
     <row r="133">
       <c r="A133" s="80" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B133" s="58"/>
       <c r="C133" s="62"/>
@@ -15435,20 +15438,20 @@
         <v>556</v>
       </c>
       <c r="F133" s="52" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G133" s="36" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="H133" s="52" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
     </row>
     <row r="134">
       <c r="A134" s="80" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B134" s="107"/>
       <c r="C134" s="62"/>
@@ -15457,49 +15460,49 @@
         <v>556</v>
       </c>
       <c r="F134" s="52" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G134" s="36" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H134" s="52" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
     </row>
     <row r="135">
       <c r="A135" s="51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B135" s="49" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C135" s="62" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D135" s="62" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E135" s="52" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F135" s="52"/>
       <c r="G135" s="4" t="s">
         <v>550</v>
       </c>
       <c r="H135" s="50" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
     </row>
     <row r="136">
       <c r="A136" s="51" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B136" s="49" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C136" s="108"/>
       <c r="D136" s="108"/>
@@ -15508,141 +15511,141 @@
       </c>
       <c r="F136" s="109"/>
       <c r="G136" s="52" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H136" s="36" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="I136" s="7"/>
       <c r="J136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="80" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B137" s="58" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C137" s="62" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D137" s="62" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E137" s="52" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F137" s="52"/>
       <c r="G137" s="36" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H137" s="36" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
     </row>
     <row r="138">
       <c r="A138" s="80" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B138" s="58" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C138" s="62"/>
       <c r="D138" s="62"/>
       <c r="E138" s="52" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F138" s="52"/>
       <c r="G138" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H138" s="50" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
     </row>
     <row r="139">
       <c r="A139" s="80" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B139" s="58" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C139" s="62"/>
       <c r="D139" s="62"/>
       <c r="E139" s="52" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F139" s="52"/>
       <c r="G139" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H139" s="50" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="80" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B140" s="58" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C140" s="62"/>
       <c r="D140" s="62"/>
       <c r="E140" s="52" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F140" s="52"/>
       <c r="G140" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H140" s="50" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
     </row>
     <row r="141">
       <c r="A141" s="80" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B141" s="58" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C141" s="36"/>
       <c r="D141" s="62"/>
       <c r="E141" s="52" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F141" s="52"/>
       <c r="G141" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
     </row>
     <row r="142">
       <c r="A142" s="80" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B142" s="58" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C142" s="110" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D142" s="62"/>
       <c r="E142" s="52" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F142" s="81"/>
       <c r="G142" s="36" t="s">
@@ -15656,10 +15659,10 @@
     </row>
     <row r="143">
       <c r="A143" s="51" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B143" s="49" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C143" s="105" t="s">
         <v>467</v>
@@ -15674,7 +15677,7 @@
     </row>
     <row r="144">
       <c r="A144" s="80" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B144" s="58" t="s">
         <v>54</v>
@@ -15686,21 +15689,21 @@
         <v>56</v>
       </c>
       <c r="E144" s="52" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F144" s="52"/>
       <c r="G144" s="44" t="s">
         <v>58</v>
       </c>
       <c r="H144" s="44" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
     </row>
     <row r="145">
       <c r="A145" s="80" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B145" s="58" t="s">
         <v>61</v>
@@ -15712,21 +15715,21 @@
         <v>63</v>
       </c>
       <c r="E145" s="52" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F145" s="52"/>
       <c r="G145" s="46" t="s">
         <v>65</v>
       </c>
       <c r="H145" s="46" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
     </row>
     <row r="146">
       <c r="A146" s="80" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B146" s="58" t="s">
         <v>68</v>
@@ -15738,21 +15741,21 @@
         <v>70</v>
       </c>
       <c r="E146" s="52" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F146" s="52"/>
       <c r="G146" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H146" s="50" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
     </row>
     <row r="147">
       <c r="A147" s="80" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B147" s="58" t="s">
         <v>75</v>
@@ -15764,21 +15767,21 @@
         <v>77</v>
       </c>
       <c r="E147" s="52" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F147" s="52"/>
       <c r="G147" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H147" s="50" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
     </row>
     <row r="148">
       <c r="A148" s="80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B148" s="58" t="s">
         <v>81</v>
@@ -15790,23 +15793,23 @@
         <v>83</v>
       </c>
       <c r="E148" s="41" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F148" s="41" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G148" s="36" t="s">
         <v>86</v>
       </c>
       <c r="H148" s="52" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
     </row>
     <row r="149">
       <c r="A149" s="80" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B149" s="58" t="s">
         <v>89</v>
@@ -15815,24 +15818,24 @@
         <v>90</v>
       </c>
       <c r="D149" s="62" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E149" s="52" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F149" s="52"/>
       <c r="G149" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H149" s="50" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
     </row>
     <row r="150">
       <c r="A150" s="80" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B150" s="58" t="s">
         <v>96</v>
@@ -15844,21 +15847,21 @@
         <v>98</v>
       </c>
       <c r="E150" s="52" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F150" s="52"/>
       <c r="G150" s="44" t="s">
         <v>100</v>
       </c>
       <c r="H150" s="44" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
     </row>
     <row r="151">
       <c r="A151" s="80" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B151" s="58" t="s">
         <v>116</v>
@@ -15870,21 +15873,21 @@
         <v>118</v>
       </c>
       <c r="E151" s="52" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F151" s="52"/>
       <c r="G151" s="52" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H151" s="92" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
     </row>
     <row r="152">
       <c r="A152" s="80" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B152" s="58" t="s">
         <v>110</v>
@@ -15896,24 +15899,24 @@
         <v>112</v>
       </c>
       <c r="E152" s="52" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F152" s="52"/>
       <c r="G152" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H152" s="92" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
     </row>
     <row r="153">
       <c r="A153" s="80" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B153" s="58" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C153" s="62" t="s">
         <v>132</v>
@@ -15922,21 +15925,21 @@
         <v>133</v>
       </c>
       <c r="E153" s="52" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F153" s="52"/>
       <c r="G153" s="46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H153" s="46" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
     </row>
     <row r="154">
       <c r="A154" s="80" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B154" s="58" t="s">
         <v>123</v>
@@ -15948,42 +15951,42 @@
         <v>125</v>
       </c>
       <c r="E154" s="52" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="F154" s="52"/>
       <c r="G154" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H154" s="92" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
     </row>
     <row r="155">
       <c r="A155" s="80" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B155" s="58" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C155" s="62" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D155" s="62" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E155" s="52" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F155" s="41" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G155" s="41" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="H155" s="111" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -15994,26 +15997,26 @@
       <c r="C156" s="62"/>
       <c r="D156" s="62"/>
       <c r="E156" s="68" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F156" s="104" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G156" s="63" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H156" s="63" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
     </row>
     <row r="157">
       <c r="A157" s="51" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B157" s="49" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C157" s="105" t="s">
         <v>467</v>
@@ -16028,59 +16031,59 @@
     </row>
     <row r="158">
       <c r="A158" s="80" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B158" s="58" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C158" s="62" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D158" s="62" t="s">
         <v>266</v>
       </c>
       <c r="E158" s="52" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F158" s="52"/>
       <c r="G158" s="36" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H158" s="52" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
     </row>
     <row r="159">
       <c r="A159" s="80" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B159" s="58" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C159" s="62" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D159" s="62" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E159" s="52" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F159" s="52"/>
       <c r="G159" s="36" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
     </row>
     <row r="160">
       <c r="A160" s="80" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B160" s="58" t="s">
         <v>271</v>
@@ -16092,45 +16095,45 @@
         <v>273</v>
       </c>
       <c r="E160" s="52" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F160" s="52"/>
       <c r="G160" s="36" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H160" s="52" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
     </row>
     <row r="161">
       <c r="A161" s="73" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B161" s="74" t="s">
         <v>283</v>
       </c>
       <c r="C161" s="110" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D161" s="62"/>
       <c r="E161" s="52" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F161" s="52"/>
       <c r="G161" s="36" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H161" s="52" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
     </row>
     <row r="162">
       <c r="A162" s="80" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B162" s="58" t="s">
         <v>277</v>
@@ -16142,48 +16145,48 @@
         <v>279</v>
       </c>
       <c r="E162" s="52" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F162" s="52"/>
       <c r="G162" s="36" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H162" s="52" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
     </row>
     <row r="163">
       <c r="A163" s="80" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B163" s="58" t="s">
         <v>283</v>
       </c>
       <c r="C163" s="110" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D163" s="62"/>
       <c r="E163" s="68" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F163" s="68"/>
       <c r="G163" s="62" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="H163" s="68" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
     </row>
     <row r="164">
       <c r="A164" s="51" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B164" s="49" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C164" s="105" t="s">
         <v>467</v>
@@ -16198,36 +16201,36 @@
     </row>
     <row r="165">
       <c r="A165" s="80" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B165" s="58" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C165" s="62" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D165" s="62" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E165" s="68" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F165" s="68"/>
       <c r="G165" s="68" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="H165" s="112" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
     </row>
     <row r="166">
       <c r="A166" s="80" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B166" s="58" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -16240,112 +16243,112 @@
     </row>
     <row r="167">
       <c r="A167" s="80" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B167" s="58" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C167" s="68" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D167" s="68" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E167" s="52" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F167" s="52"/>
       <c r="G167" s="36" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H167" s="52" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
     </row>
     <row r="168">
       <c r="A168" s="80" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B168" s="58" t="s">
         <v>283</v>
       </c>
       <c r="C168" s="110" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D168" s="62"/>
       <c r="E168" s="113" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F168" s="113"/>
       <c r="G168" s="52" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="H168" s="36" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="I168" s="7"/>
       <c r="J168" s="7"/>
     </row>
     <row r="169">
       <c r="A169" s="80" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B169" s="58" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C169" s="62" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D169" s="62" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E169" s="113" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F169" s="113"/>
       <c r="G169" s="52" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="H169" s="52" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
     </row>
     <row r="170">
       <c r="A170" s="80" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B170" s="58" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C170" s="62" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D170" s="62" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E170" s="113" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="F170" s="113"/>
       <c r="G170" s="68" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H170" s="68" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
     </row>
     <row r="171">
       <c r="A171" s="88" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B171" s="34" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C171" s="7"/>
       <c r="D171" s="4"/>
@@ -16358,7 +16361,7 @@
     </row>
     <row r="172">
       <c r="A172" s="64" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B172" s="39" t="s">
         <v>408</v>
@@ -16370,24 +16373,24 @@
         <v>410</v>
       </c>
       <c r="E172" s="113" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F172" s="113"/>
       <c r="G172" s="114" t="s">
         <v>221</v>
       </c>
       <c r="H172" s="115" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
     </row>
     <row r="173">
       <c r="A173" s="64" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B173" s="39" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C173" s="105" t="s">
         <v>467</v>
@@ -16402,31 +16405,31 @@
     </row>
     <row r="174">
       <c r="A174" s="51" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B174" s="49" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C174" s="117" t="s">
         <v>467</v>
       </c>
       <c r="D174" s="7"/>
       <c r="E174" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F174" s="36"/>
       <c r="G174" s="36" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H174" s="36" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
     </row>
     <row r="175">
       <c r="A175" s="80" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B175" s="58" t="s">
         <v>54</v>
@@ -16438,21 +16441,21 @@
         <v>56</v>
       </c>
       <c r="E175" s="52" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F175" s="52"/>
       <c r="G175" s="50" t="s">
         <v>58</v>
       </c>
       <c r="H175" s="50" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="I175" s="7"/>
       <c r="J175" s="7"/>
     </row>
     <row r="176">
       <c r="A176" s="80" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B176" s="58" t="s">
         <v>68</v>
@@ -16464,21 +16467,21 @@
         <v>70</v>
       </c>
       <c r="E176" s="52" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F176" s="52"/>
       <c r="G176" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H176" s="50" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
     </row>
     <row r="177">
       <c r="A177" s="80" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B177" s="58" t="s">
         <v>75</v>
@@ -16490,21 +16493,21 @@
         <v>77</v>
       </c>
       <c r="E177" s="52" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F177" s="52"/>
       <c r="G177" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H177" s="50" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
     </row>
     <row r="178">
       <c r="A178" s="80" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B178" s="58" t="s">
         <v>89</v>
@@ -16513,24 +16516,24 @@
         <v>90</v>
       </c>
       <c r="D178" s="62" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E178" s="52" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F178" s="52"/>
       <c r="G178" s="50" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="H178" s="50" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
     </row>
     <row r="179">
       <c r="A179" s="80" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B179" s="58" t="s">
         <v>96</v>
@@ -16542,21 +16545,21 @@
         <v>98</v>
       </c>
       <c r="E179" s="52" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F179" s="52"/>
       <c r="G179" s="52" t="s">
         <v>100</v>
       </c>
       <c r="H179" s="52" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
     </row>
     <row r="180">
       <c r="A180" s="80" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B180" s="58" t="s">
         <v>116</v>
@@ -16568,21 +16571,21 @@
         <v>118</v>
       </c>
       <c r="E180" s="52" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F180" s="52"/>
       <c r="G180" s="52" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H180" s="52" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
     </row>
     <row r="181">
       <c r="A181" s="80" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B181" s="58" t="s">
         <v>110</v>
@@ -16594,24 +16597,24 @@
         <v>112</v>
       </c>
       <c r="E181" s="52" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F181" s="52"/>
       <c r="G181" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H181" s="52" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
     </row>
     <row r="182">
       <c r="A182" s="80" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B182" s="58" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C182" s="62" t="s">
         <v>132</v>
@@ -16620,21 +16623,21 @@
         <v>133</v>
       </c>
       <c r="E182" s="52" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F182" s="52"/>
       <c r="G182" s="46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H182" s="46" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
     </row>
     <row r="183">
       <c r="A183" s="80" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B183" s="58" t="s">
         <v>123</v>
@@ -16646,45 +16649,45 @@
         <v>125</v>
       </c>
       <c r="E183" s="52" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F183" s="68"/>
       <c r="G183" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H183" s="52" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
     </row>
     <row r="184">
       <c r="A184" s="51" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B184" s="49" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C184" s="117" t="s">
         <v>467</v>
       </c>
       <c r="D184" s="118"/>
       <c r="E184" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F184" s="36"/>
       <c r="G184" s="36" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="H184" s="36" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
     </row>
     <row r="185">
       <c r="A185" s="80" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B185" s="58" t="s">
         <v>54</v>
@@ -16696,21 +16699,21 @@
         <v>56</v>
       </c>
       <c r="E185" s="52" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F185" s="52"/>
       <c r="G185" s="50" t="s">
         <v>58</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
     </row>
     <row r="186">
       <c r="A186" s="80" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B186" s="58" t="s">
         <v>68</v>
@@ -16722,21 +16725,21 @@
         <v>70</v>
       </c>
       <c r="E186" s="52" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="F186" s="52"/>
       <c r="G186" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H186" s="50" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
     </row>
     <row r="187">
       <c r="A187" s="80" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B187" s="58" t="s">
         <v>75</v>
@@ -16748,21 +16751,21 @@
         <v>77</v>
       </c>
       <c r="E187" s="52" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F187" s="52"/>
       <c r="G187" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H187" s="50" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="I187" s="7"/>
       <c r="J187" s="7"/>
     </row>
     <row r="188">
       <c r="A188" s="80" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B188" s="58" t="s">
         <v>89</v>
@@ -16771,24 +16774,24 @@
         <v>90</v>
       </c>
       <c r="D188" s="62" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E188" s="52" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="F188" s="52"/>
       <c r="G188" s="50" t="s">
         <v>93</v>
       </c>
       <c r="H188" s="50" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
     </row>
     <row r="189">
       <c r="A189" s="80" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B189" s="58" t="s">
         <v>96</v>
@@ -16800,21 +16803,21 @@
         <v>98</v>
       </c>
       <c r="E189" s="52" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F189" s="52"/>
       <c r="G189" s="50" t="s">
         <v>100</v>
       </c>
       <c r="H189" s="50" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
     </row>
     <row r="190">
       <c r="A190" s="80" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B190" s="58" t="s">
         <v>116</v>
@@ -16826,21 +16829,21 @@
         <v>118</v>
       </c>
       <c r="E190" s="52" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F190" s="52"/>
       <c r="G190" s="52" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H190" s="52" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
     </row>
     <row r="191">
       <c r="A191" s="80" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B191" s="58" t="s">
         <v>110</v>
@@ -16852,24 +16855,24 @@
         <v>112</v>
       </c>
       <c r="E191" s="52" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F191" s="52"/>
       <c r="G191" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H191" s="52" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="80" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B192" s="58" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C192" s="62" t="s">
         <v>132</v>
@@ -16878,21 +16881,21 @@
         <v>133</v>
       </c>
       <c r="E192" s="52" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F192" s="52"/>
       <c r="G192" s="46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H192" s="46" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
     </row>
     <row r="193">
       <c r="A193" s="80" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B193" s="58" t="s">
         <v>123</v>
@@ -16904,69 +16907,69 @@
         <v>125</v>
       </c>
       <c r="E193" s="52" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F193" s="52"/>
       <c r="G193" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H193" s="52" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
     </row>
     <row r="194">
       <c r="A194" s="51" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B194" s="49" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C194" s="62" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D194" s="62" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E194" s="52" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F194" s="62"/>
       <c r="G194" s="119" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="H194" s="120" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
     </row>
     <row r="195">
       <c r="A195" s="51" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B195" s="49" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C195" s="7"/>
       <c r="D195" s="7"/>
       <c r="E195" s="4" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F195" s="36"/>
       <c r="G195" s="36" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="H195" s="36" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
     </row>
     <row r="196">
       <c r="A196" s="80" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B196" s="58" t="s">
         <v>54</v>
@@ -16978,21 +16981,21 @@
         <v>56</v>
       </c>
       <c r="E196" s="52" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F196" s="52"/>
       <c r="G196" s="50" t="s">
         <v>58</v>
       </c>
       <c r="H196" s="50" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
     </row>
     <row r="197">
       <c r="A197" s="80" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B197" s="58" t="s">
         <v>68</v>
@@ -17004,21 +17007,21 @@
         <v>70</v>
       </c>
       <c r="E197" s="52" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F197" s="52"/>
       <c r="G197" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H197" s="50" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
     </row>
     <row r="198">
       <c r="A198" s="80" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B198" s="58" t="s">
         <v>75</v>
@@ -17030,21 +17033,21 @@
         <v>77</v>
       </c>
       <c r="E198" s="52" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F198" s="52"/>
       <c r="G198" s="50" t="s">
         <v>72</v>
       </c>
       <c r="H198" s="50" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
     </row>
     <row r="199">
       <c r="A199" s="80" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B199" s="58" t="s">
         <v>89</v>
@@ -17053,24 +17056,24 @@
         <v>90</v>
       </c>
       <c r="D199" s="62" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E199" s="52" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F199" s="52"/>
       <c r="G199" s="50" t="s">
         <v>93</v>
       </c>
       <c r="H199" s="50" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
     </row>
     <row r="200">
       <c r="A200" s="80" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B200" s="58" t="s">
         <v>96</v>
@@ -17082,21 +17085,21 @@
         <v>98</v>
       </c>
       <c r="E200" s="52" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F200" s="52"/>
       <c r="G200" s="52" t="s">
         <v>100</v>
       </c>
       <c r="H200" s="52" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
     </row>
     <row r="201">
       <c r="A201" s="80" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B201" s="58" t="s">
         <v>116</v>
@@ -17108,21 +17111,21 @@
         <v>118</v>
       </c>
       <c r="E201" s="52" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F201" s="52"/>
       <c r="G201" s="52" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H201" s="52" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
     </row>
     <row r="202">
       <c r="A202" s="80" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B202" s="58" t="s">
         <v>110</v>
@@ -17134,24 +17137,24 @@
         <v>112</v>
       </c>
       <c r="E202" s="52" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="F202" s="52"/>
       <c r="G202" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H202" s="52" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
     </row>
     <row r="203">
       <c r="A203" s="80" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B203" s="58" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C203" s="62" t="s">
         <v>132</v>
@@ -17160,21 +17163,21 @@
         <v>133</v>
       </c>
       <c r="E203" s="52" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F203" s="52"/>
       <c r="G203" s="46" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H203" s="46" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
     </row>
     <row r="204">
       <c r="A204" s="80" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B204" s="58" t="s">
         <v>123</v>
@@ -17186,50 +17189,50 @@
         <v>125</v>
       </c>
       <c r="E204" s="52" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F204" s="52"/>
       <c r="G204" s="52" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H204" s="52" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
     </row>
     <row r="205">
       <c r="A205" s="64" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B205" s="39" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C205" s="122" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D205" s="122" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E205" s="123" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F205" s="123"/>
       <c r="G205" s="124" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="H205" s="124" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
     </row>
     <row r="206">
       <c r="A206" s="88" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B206" s="34" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C206" s="125"/>
       <c r="D206" s="7"/>
@@ -17242,17 +17245,17 @@
     </row>
     <row r="207">
       <c r="A207" s="64" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B207" s="126" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C207" s="127" t="s">
         <v>467</v>
       </c>
       <c r="D207" s="62"/>
       <c r="E207" s="52" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -17262,16 +17265,16 @@
     </row>
     <row r="208">
       <c r="A208" s="51" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B208" s="49" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C208" s="105" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D208" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E208" s="4"/>
       <c r="F208" s="7"/>
@@ -17282,144 +17285,144 @@
     </row>
     <row r="209">
       <c r="A209" s="80" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B209" s="58" t="s">
         <v>420</v>
       </c>
       <c r="C209" s="62" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D209" s="62" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E209" s="52" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F209" s="62" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G209" s="50" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H209" s="75" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
     </row>
     <row r="210">
       <c r="A210" s="128" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B210" s="78" t="s">
         <v>420</v>
       </c>
       <c r="C210" s="129" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D210" s="129" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E210" s="52" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F210" s="62"/>
       <c r="G210" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H210" s="75" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
     </row>
     <row r="211">
       <c r="A211" s="80" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B211" s="58" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C211" s="62" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D211" s="62" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E211" s="68" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F211" s="62" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G211" s="81" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="H211" s="130" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
     </row>
     <row r="212">
       <c r="A212" s="128" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B212" s="78" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C212" s="129" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D212" s="129" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E212" s="52" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F212" s="62"/>
       <c r="G212" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H212" s="75" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
     </row>
     <row r="213">
       <c r="A213" s="51" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B213" s="49" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C213" s="105" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D213" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E213" s="52" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H213" s="75" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="51" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B214" s="49" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C214" s="105" t="s">
         <v>467</v>
@@ -17434,218 +17437,218 @@
     </row>
     <row r="215">
       <c r="A215" s="80" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B215" s="58" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C215" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D215" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E215" s="52" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H215" s="75" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
     </row>
     <row r="216">
       <c r="A216" s="80" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B216" s="58" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C216" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D216" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E216" s="52" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H216" s="75" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
     </row>
     <row r="217">
       <c r="A217" s="80" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B217" s="58" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C217" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D217" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E217" s="52" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H217" s="75" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
     </row>
     <row r="218">
       <c r="A218" s="51" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B218" s="49" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C218" s="105" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D218" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E218" s="52" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H218" s="75" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
     </row>
     <row r="219">
       <c r="A219" s="51" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B219" s="49" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C219" s="105" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D219" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E219" s="52" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H219" s="75" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
     </row>
     <row r="220">
       <c r="A220" s="51" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B220" s="49" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C220" s="105" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D220" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E220" s="68" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H220" s="130" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
     </row>
     <row r="221">
       <c r="A221" s="51" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B221" s="131" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C221" s="105" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D221" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E221" s="52" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H221" s="75" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
     </row>
     <row r="222">
       <c r="A222" s="51" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B222" s="131" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C222" s="105" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D222" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E222" s="52" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H222" s="75" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
     </row>
     <row r="223">
       <c r="A223" s="51" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B223" s="131" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C223" s="105" t="s">
         <v>467</v>
@@ -17660,62 +17663,62 @@
     </row>
     <row r="224">
       <c r="A224" s="80" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B224" s="132" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C224" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D224" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E224" s="52" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="4" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H224" s="75" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
     </row>
     <row r="225">
       <c r="A225" s="80" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B225" s="132" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C225" s="62" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D225" s="62" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E225" s="68" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="7" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H225" s="130" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
     </row>
     <row r="226">
       <c r="A226" s="64" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B226" s="61" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C226" s="105" t="s">
         <v>467</v>
@@ -17730,34 +17733,34 @@
     </row>
     <row r="227">
       <c r="A227" s="51" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B227" s="131" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C227" s="133" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D227" s="62"/>
       <c r="E227" s="68" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="62" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="H227" s="134" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
     </row>
     <row r="228">
       <c r="A228" s="64" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B228" s="61" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C228" s="105" t="s">
         <v>467</v>
@@ -17772,26 +17775,26 @@
     </row>
     <row r="229">
       <c r="A229" s="51" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B229" s="131" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C229" s="105" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D229" s="62" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E229" s="123" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="7" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H229" s="81" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -18291,38 +18294,38 @@
     </row>
     <row r="2">
       <c r="A2" s="65" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C2" s="68" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D2" s="68"/>
       <c r="E2" s="50" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="65" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D3" s="68"/>
       <c r="E3" s="50" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F3" s="50" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="4">
@@ -18330,24 +18333,24 @@
         <v>546</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D4" s="68" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F4" s="50" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>553</v>
@@ -18362,7 +18365,7 @@
         <v>559</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G5" s="137"/>
       <c r="H5" s="137"/>
@@ -18387,20 +18390,20 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C6" s="138" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="50" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G6" s="137"/>
       <c r="H6" s="137"/>
@@ -18425,22 +18428,22 @@
     </row>
     <row r="7">
       <c r="A7" s="65" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="8">
@@ -22445,36 +22448,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="139" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="140" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="141" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="142" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="8">
@@ -22485,41 +22488,41 @@
     </row>
     <row r="10">
       <c r="A10" s="142" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="142" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B11" s="143" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="144" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="145"/>
       <c r="B13" s="146" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="147" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="148" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="149" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17">
@@ -22528,24 +22531,24 @@
     </row>
     <row r="18">
       <c r="A18" s="142" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B18" s="150" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B19" s="151"/>
     </row>
     <row r="21">
       <c r="A21" s="142" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B21" s="152" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -22571,57 +22574,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="142" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="153" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="153" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="153" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
   </sheetData>
@@ -22647,53 +22650,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B1" s="154" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="155" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
   </sheetData>
@@ -22737,35 +22740,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="156" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C1" s="156" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="142" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="157" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B3" s="157" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D3" s="158" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22774,13 +22777,13 @@
     </row>
     <row r="4">
       <c r="A4" s="157" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>1005</v>
-      </c>
-      <c r="B4" s="157" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>1004</v>
       </c>
       <c r="D4" s="21" t="str">
         <f t="shared" si="1"/>
@@ -22789,66 +22792,66 @@
     </row>
     <row r="5">
       <c r="A5" s="143" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B5" s="143" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="143" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B6" s="143" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D8" s="160" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -22878,51 +22881,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="156" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="142" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B2" s="142" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C5" s="160" t="s">
         <v>1023</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C5" s="160" t="s">
-        <v>1022</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -5,7 +5,7 @@
   <sheets>
     <sheet state="visible" name="Metadata" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Rules" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Unmapped XPaths" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Mapping Remarks" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Legend" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Resources" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="RML_Modules" sheetId="6" r:id="rId9"/>
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="1026">
   <si>
     <t>Field</t>
   </si>
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.6.2</t>
+    <t>2.6.3</t>
   </si>
   <si>
     <r>
@@ -7128,9 +7128,6 @@
   <si>
     <t>We are using the LOT_NO element to create the LotIdentifier value. This is done in Section II.
 The LOT_NO that is specified in Section V is used in the technical mapping to connect the contract to the right lot (which was created in Section II).</t>
-  </si>
-  <si>
-    <t>V.0.6</t>
   </si>
   <si>
     <t>If the NO_AWARDED_CONTRACT XML element is present in a particular AWARD_CONTRACT element, then there will be no Contract instance created for this case. We can infer the non-awarded lot (for which there is no contract signed) with a SPARQL query.</t>
@@ -8085,6 +8082,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -8136,9 +8136,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -18349,8 +18346,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>949</v>
+      <c r="A5" s="137" t="s">
+        <v>552</v>
       </c>
       <c r="B5" s="81" t="s">
         <v>553</v>
@@ -18365,28 +18362,28 @@
         <v>559</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>950</v>
-      </c>
-      <c r="G5" s="137"/>
-      <c r="H5" s="137"/>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="137"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137"/>
-      <c r="S5" s="137"/>
-      <c r="T5" s="137"/>
-      <c r="U5" s="137"/>
-      <c r="V5" s="137"/>
-      <c r="W5" s="137"/>
-      <c r="X5" s="137"/>
-      <c r="Y5" s="137"/>
-      <c r="Z5" s="137"/>
+        <v>949</v>
+      </c>
+      <c r="G5" s="138"/>
+      <c r="H5" s="138"/>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="138"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="138"/>
+      <c r="S5" s="138"/>
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="138"/>
+      <c r="Y5" s="138"/>
+      <c r="Z5" s="138"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
@@ -18395,36 +18392,36 @@
       <c r="B6" s="81" t="s">
         <v>628</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="139" t="s">
         <v>629</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="50" t="s">
+        <v>950</v>
+      </c>
+      <c r="F6" s="50" t="s">
         <v>951</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>952</v>
-      </c>
-      <c r="G6" s="137"/>
-      <c r="H6" s="137"/>
-      <c r="I6" s="137"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="137"/>
-      <c r="L6" s="137"/>
-      <c r="M6" s="137"/>
-      <c r="N6" s="137"/>
-      <c r="O6" s="137"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="137"/>
-      <c r="R6" s="137"/>
-      <c r="S6" s="137"/>
-      <c r="T6" s="137"/>
-      <c r="U6" s="137"/>
-      <c r="V6" s="137"/>
-      <c r="W6" s="137"/>
-      <c r="X6" s="137"/>
-      <c r="Y6" s="137"/>
-      <c r="Z6" s="137"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="138"/>
+      <c r="O6" s="138"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="138"/>
+      <c r="S6" s="138"/>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="138"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="138"/>
+      <c r="Y6" s="138"/>
+      <c r="Z6" s="138"/>
     </row>
     <row r="7">
       <c r="A7" s="65" t="s">
@@ -18440,10 +18437,10 @@
         <v>674</v>
       </c>
       <c r="E7" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="F7" s="50" t="s">
         <v>953</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>954</v>
       </c>
     </row>
     <row r="8">
@@ -22447,37 +22444,37 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
+        <v>954</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>955</v>
       </c>
-      <c r="B2" s="21" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="141" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="140" t="s">
+      <c r="B3" s="21" t="s">
         <v>957</v>
       </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="142" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="141" t="s">
+    <row r="6">
+      <c r="A6" s="143" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="142" t="s">
+      <c r="B6" s="21" t="s">
         <v>960</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="8">
@@ -22487,68 +22484,68 @@
       <c r="B9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="143" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="143" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="142" t="s">
+      <c r="B11" s="144" t="s">
         <v>964</v>
       </c>
-      <c r="B11" s="143" t="s">
+    </row>
+    <row r="12">
+      <c r="B12" s="145" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="144" t="s">
+    <row r="13">
+      <c r="A13" s="146"/>
+      <c r="B13" s="147" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="145"/>
-      <c r="B13" s="146" t="s">
+    <row r="14">
+      <c r="B14" s="148" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="147" t="s">
+    <row r="15">
+      <c r="B15" s="149" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" s="148" t="s">
+    <row r="16">
+      <c r="B16" s="150" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="149" t="s">
+    <row r="17">
+      <c r="A17" s="143"/>
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="143" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="142"/>
-      <c r="B17" s="29"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="142" t="s">
+      <c r="B18" s="151" t="s">
         <v>971</v>
-      </c>
-      <c r="B18" s="150" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="B19" s="152"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="143" t="s">
         <v>973</v>
       </c>
-      <c r="B19" s="151"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="142" t="s">
+      <c r="B21" s="153" t="s">
         <v>974</v>
-      </c>
-      <c r="B21" s="152" t="s">
-        <v>975</v>
       </c>
     </row>
   </sheetData>
@@ -22573,58 +22570,58 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="154" t="s">
         <v>976</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="153" t="s">
-        <v>977</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="154" t="s">
         <v>978</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="153" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="154" t="s">
         <v>982</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="153" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -22650,53 +22647,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>976</v>
-      </c>
-      <c r="B1" s="154" t="s">
+        <v>975</v>
+      </c>
+      <c r="B1" s="155" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="137" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="155" t="s">
+      <c r="B2" s="19" t="s">
         <v>988</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -22715,7 +22712,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="143"/>
+      <c r="A1" s="144"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22740,35 +22737,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="156" t="s">
+        <v>996</v>
+      </c>
+      <c r="C1" s="156" t="s">
         <v>997</v>
       </c>
-      <c r="C1" s="156" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="143" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="142" t="s">
+      <c r="B2" s="143" t="s">
         <v>999</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="C2" s="143" t="s">
         <v>1000</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="D2" s="143" t="s">
         <v>1001</v>
-      </c>
-      <c r="D2" s="142" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="157" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="157" t="s">
         <v>1003</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="C3" s="21" t="s">
         <v>1004</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>1005</v>
       </c>
       <c r="D3" s="158" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22777,13 +22774,13 @@
     </row>
     <row r="4">
       <c r="A4" s="157" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B4" s="157" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>1004</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>1005</v>
       </c>
       <c r="D4" s="21" t="str">
         <f t="shared" si="1"/>
@@ -22791,67 +22788,67 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="144" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B5" s="144" t="s">
         <v>1007</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="C5" s="21" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="144" t="s">
         <v>1008</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="143" t="s">
+      <c r="B6" s="144" t="s">
         <v>1009</v>
       </c>
-      <c r="B6" s="143" t="s">
-        <v>1010</v>
-      </c>
       <c r="C6" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>1011</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="C7" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>1012</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>1014</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D8" s="160" t="s">
         <v>1015</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D8" s="160" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>1017</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="C9" s="21" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>1018</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -22881,51 +22878,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="156" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
+        <v>998</v>
+      </c>
+      <c r="B2" s="143" t="s">
         <v>999</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="C2" s="143" t="s">
         <v>1000</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="D2" s="143" t="s">
         <v>1001</v>
-      </c>
-      <c r="D2" s="142" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>1020</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>1022</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>1024</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="C5" s="160" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>1025</v>
-      </c>
-      <c r="C5" s="160" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Csongor\git\meaningfy-ws\ted-sws-artefacts\mappings\package_F03\transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE98CE77-15C5-4464-8218-FC26F93EB27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6101C80A-9789-4FD4-B3BB-1A9FA493FAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="24450" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="1033">
   <si>
     <t>Field</t>
   </si>
@@ -794,6 +794,9 @@
     <t>Mapping Version</t>
   </si>
   <si>
+    <t>3.8.1</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -885,6 +888,9 @@
     <t>Min XSD Version</t>
   </si>
   <si>
+    <t>R2.0.9.S03.E01</t>
+  </si>
+  <si>
     <t>This fiels to be checked and updated if necessary</t>
   </si>
   <si>
@@ -2640,6 +2646,9 @@
     </r>
   </si>
   <si>
+    <t>I.4.1</t>
+  </si>
+  <si>
     <t>CONTRACTING_BODY/CA_TYPE_OTHER</t>
   </si>
   <si>
@@ -2750,6 +2759,9 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>I.5.1</t>
   </si>
   <si>
     <t>CONTRACTING_BODY/CA_ACTIVITY_OTHER</t>
@@ -4633,7 +4645,32 @@
     <t>epo:ResultNotice / epo:Notice /  epo:Identifier / xsd:string</t>
   </si>
   <si>
-    <t>?this epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue ?value .</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">?this </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">epo:refersToPrevious / epo:hasID / epo:hasIdentifierValue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
   </si>
   <si>
     <t>IV.2.1.0.1</t>
@@ -5909,7 +5946,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL</t>
   </si>
   <si>
-    <t>epo:Tender / epo:MonetaryValue / xsd:decimal</t>
+    <t>epo:LotAwardOutcome / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -5935,7 +5972,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasFinancialOfferValue / epo:hasAmountValue ?</t>
+      <t xml:space="preserve"> epo:hasAwardedValue / epo:hasAmountValue ?</t>
     </r>
     <r>
       <rPr>
@@ -5954,7 +5991,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:Tender / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
+    <t>epo:LotAwardOutcome / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -5980,7 +6017,7 @@
         <color theme="1"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasFinancialOfferValue / epo:hasCurrency ?</t>
+      <t xml:space="preserve"> epo:hasAwardedValue / epo:hasCurrency ?</t>
     </r>
     <r>
       <rPr>
@@ -8047,6 +8084,9 @@
   </si>
   <si>
     <t>D1.3.1</t>
+  </si>
+  <si>
+    <t>Please explain in a clear and comprehensive manner why the award of the contract without prior publication in the Official Journal of the European Union is lawful, by stating the relevant facts and, as appropriate, the conclusions of law in accordance with the directive</t>
   </si>
   <si>
     <t>BT-135</t>
@@ -8369,12 +8409,6 @@
   </si>
   <si>
     <t>SME</t>
-  </si>
-  <si>
-    <t>R2.0.9.S03.E01</t>
-  </si>
-  <si>
-    <t>3.5.0</t>
   </si>
 </sst>
 </file>
@@ -8605,7 +8639,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8664,6 +8698,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAC1ED"/>
         <bgColor rgb="FFDAC1ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor rgb="FFEAD1DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -8788,7 +8828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -8890,6 +8930,9 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8898,7 +8941,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8911,11 +8953,12 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8961,12 +9004,16 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="16" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -8978,7 +9025,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9057,8 +9104,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -9072,10 +9119,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -9088,6 +9135,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9389,15 +9439,15 @@
   </sheetPr>
   <dimension ref="A1:D990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -9450,29 +9500,29 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1029</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -9484,62 +9534,62 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="13">
         <v>29</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>1028</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -12482,39 +12532,39 @@
   </sheetPr>
   <dimension ref="A1:Z235"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="6" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="6" width="34.7109375" customWidth="1"/>
     <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" customWidth="1"/>
-    <col min="9" max="10" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" customWidth="1"/>
+    <col min="9" max="10" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="131" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="133"/>
+      <c r="A1" s="134" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136"/>
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="134" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
+      <c r="G1" s="137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
       <c r="K1" s="3"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
@@ -12534,37 +12584,37 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
@@ -12584,20 +12634,20 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -12612,10 +12662,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -12636,22 +12686,22 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -12666,26 +12716,26 @@
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -12700,26 +12750,26 @@
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H7" s="38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -12734,26 +12784,26 @@
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -12768,26 +12818,26 @@
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -12802,28 +12852,28 @@
     </row>
     <row r="10" spans="1:26">
       <c r="A10" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -12838,26 +12888,26 @@
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H11" s="32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -12872,26 +12922,26 @@
     </row>
     <row r="12" spans="1:26">
       <c r="A12" s="37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -12906,26 +12956,26 @@
     </row>
     <row r="13" spans="1:26">
       <c r="A13" s="41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -12940,26 +12990,26 @@
     </row>
     <row r="14" spans="1:26">
       <c r="A14" s="41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -12974,26 +13024,26 @@
     </row>
     <row r="15" spans="1:26">
       <c r="A15" s="39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -13008,26 +13058,26 @@
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -13042,10 +13092,10 @@
     </row>
     <row r="17" spans="1:26">
       <c r="A17" s="39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -13066,26 +13116,26 @@
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -13100,26 +13150,26 @@
     </row>
     <row r="19" spans="1:26">
       <c r="A19" s="47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -13134,10 +13184,10 @@
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -13158,20 +13208,20 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="32" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -13186,22 +13236,22 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="33" t="s">
-        <v>144</v>
+      <c r="E22" s="49" t="s">
+        <v>146</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H22" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -13216,110 +13266,110 @@
     </row>
     <row r="23" spans="1:26">
       <c r="A23" s="34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" s="36" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="46"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="50"/>
-      <c r="Y23" s="50"/>
-      <c r="Z23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E24" s="38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F24" s="38"/>
       <c r="G24" s="38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
       <c r="K24" s="46"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="50"/>
-      <c r="Y24" s="50"/>
-      <c r="Z24" s="50"/>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="L24" s="50"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+    </row>
+    <row r="25" spans="1:26" ht="38.25">
       <c r="A25" s="39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H25" s="32" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -13332,28 +13382,28 @@
       <c r="Q25" s="20"/>
       <c r="R25" s="20"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" ht="38.25">
       <c r="A26" s="41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H26" s="32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -13366,30 +13416,30 @@
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" ht="38.25">
       <c r="A27" s="41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H27" s="42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -13402,28 +13452,28 @@
       <c r="Q27" s="20"/>
       <c r="R27" s="20"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" ht="38.25">
       <c r="A28" s="41" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H28" s="32" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -13436,70 +13486,70 @@
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
     </row>
-    <row r="29" spans="1:26" ht="66">
+    <row r="29" spans="1:26" ht="63.75">
       <c r="A29" s="37" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I29" s="36"/>
       <c r="J29" s="36"/>
       <c r="K29" s="46"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="50"/>
-      <c r="Y29" s="50"/>
-      <c r="Z29" s="50"/>
-    </row>
-    <row r="30" spans="1:26" ht="26.4">
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+    </row>
+    <row r="30" spans="1:26" ht="25.5">
       <c r="A30" s="41" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -13512,28 +13562,28 @@
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
     </row>
-    <row r="31" spans="1:26" ht="26.4">
+    <row r="31" spans="1:26" ht="25.5">
       <c r="A31" s="41" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -13546,28 +13596,28 @@
       <c r="Q31" s="20"/>
       <c r="R31" s="20"/>
     </row>
-    <row r="32" spans="1:26" ht="26.4">
+    <row r="32" spans="1:26" ht="25.5">
       <c r="A32" s="39" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="28" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H32" s="42" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -13580,28 +13630,28 @@
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
     </row>
-    <row r="33" spans="1:26" ht="26.4">
+    <row r="33" spans="1:26" ht="25.5">
       <c r="A33" s="41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="28" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H33" s="42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -13614,12 +13664,12 @@
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
     </row>
-    <row r="34" spans="1:26" ht="13.2">
+    <row r="34" spans="1:26" ht="12.75">
       <c r="A34" s="39" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -13638,70 +13688,70 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
     </row>
-    <row r="35" spans="1:26" ht="39.6">
+    <row r="35" spans="1:26" ht="38.25">
       <c r="A35" s="44" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I35" s="36"/>
       <c r="J35" s="36"/>
       <c r="K35" s="46"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="50"/>
-      <c r="Y35" s="50"/>
-      <c r="Z35" s="50"/>
-    </row>
-    <row r="36" spans="1:26" ht="26.4">
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+    </row>
+    <row r="36" spans="1:26" ht="25.5">
       <c r="A36" s="47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -13714,12 +13764,12 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
     </row>
-    <row r="37" spans="1:26" ht="13.2">
+    <row r="37" spans="1:26" ht="12.75">
       <c r="A37" s="30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -13738,24 +13788,24 @@
       <c r="Q37" s="20"/>
       <c r="R37" s="20"/>
     </row>
-    <row r="38" spans="1:26" ht="26.4">
+    <row r="38" spans="1:26" ht="25.5">
       <c r="A38" s="39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="28" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -13768,28 +13818,28 @@
       <c r="Q38" s="20"/>
       <c r="R38" s="20"/>
     </row>
-    <row r="39" spans="1:26" ht="66">
+    <row r="39" spans="1:26" ht="63.75">
       <c r="A39" s="47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B39" s="48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F39" s="28"/>
       <c r="G39" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -13802,66 +13852,66 @@
       <c r="Q39" s="20"/>
       <c r="R39" s="20"/>
     </row>
-    <row r="40" spans="1:26" ht="39.6">
+    <row r="40" spans="1:26" ht="38.25">
       <c r="A40" s="34" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H40" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
-      <c r="Q40" s="49"/>
-      <c r="R40" s="49"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="50"/>
-      <c r="Z40" s="50"/>
-    </row>
-    <row r="41" spans="1:26" ht="26.4">
-      <c r="A41" s="51" t="s">
-        <v>193</v>
+      <c r="L40" s="50"/>
+      <c r="M40" s="50"/>
+      <c r="N40" s="50"/>
+      <c r="O40" s="50"/>
+      <c r="P40" s="50"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="50"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+    </row>
+    <row r="41" spans="1:26" ht="25.5">
+      <c r="A41" s="52" t="s">
+        <v>195</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D41" s="29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="H41" s="52" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>201</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -13874,20 +13924,22 @@
       <c r="Q41" s="20"/>
       <c r="R41" s="20"/>
     </row>
-    <row r="42" spans="1:26" ht="39.6">
-      <c r="A42" s="53"/>
-      <c r="B42" s="3"/>
+    <row r="42" spans="1:26" ht="38.25">
+      <c r="A42" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" s="40"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
-      <c r="E42" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="H42" s="52" t="s">
-        <v>202</v>
+      <c r="E42" s="53" t="s">
+        <v>203</v>
+      </c>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" s="53" t="s">
+        <v>205</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
@@ -13900,28 +13952,28 @@
       <c r="Q42" s="20"/>
       <c r="R42" s="20"/>
     </row>
-    <row r="43" spans="1:26" ht="26.4">
-      <c r="A43" s="51" t="s">
-        <v>203</v>
+    <row r="43" spans="1:26" ht="25.5">
+      <c r="A43" s="52" t="s">
+        <v>206</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="H43" s="52" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="H43" s="53" t="s">
+        <v>212</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -13934,20 +13986,22 @@
       <c r="Q43" s="20"/>
       <c r="R43" s="20"/>
     </row>
-    <row r="44" spans="1:26" ht="26.4">
-      <c r="A44" s="53"/>
-      <c r="B44" s="3"/>
+    <row r="44" spans="1:26" ht="25.5">
+      <c r="A44" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="40"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
-      <c r="E44" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="H44" s="52" t="s">
-        <v>211</v>
+      <c r="E44" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53" t="s">
+        <v>204</v>
+      </c>
+      <c r="H44" s="53" t="s">
+        <v>215</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -13960,12 +14014,12 @@
       <c r="Q44" s="20"/>
       <c r="R44" s="20"/>
     </row>
-    <row r="45" spans="1:26" ht="13.2">
+    <row r="45" spans="1:26" ht="12.75">
       <c r="A45" s="25" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -13984,12 +14038,12 @@
       <c r="Q45" s="20"/>
       <c r="R45" s="20"/>
     </row>
-    <row r="46" spans="1:26" ht="13.2">
+    <row r="46" spans="1:26" ht="12.75">
       <c r="A46" s="30" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -14008,34 +14062,34 @@
       <c r="Q46" s="20"/>
       <c r="R46" s="20"/>
     </row>
-    <row r="47" spans="1:26" ht="13.2">
+    <row r="47" spans="1:26" ht="12.75">
       <c r="A47" s="39" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B47" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K47" s="3"/>
       <c r="L47" s="20"/>
@@ -14046,28 +14100,28 @@
       <c r="Q47" s="20"/>
       <c r="R47" s="20"/>
     </row>
-    <row r="48" spans="1:26" ht="39.6">
+    <row r="48" spans="1:26" ht="38.25">
       <c r="A48" s="44" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E48" s="38" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I48" s="46"/>
       <c r="J48" s="46"/>
@@ -14080,70 +14134,70 @@
       <c r="Q48" s="20"/>
       <c r="R48" s="20"/>
     </row>
-    <row r="49" spans="1:26" ht="26.4">
+    <row r="49" spans="1:26" ht="25.5">
       <c r="A49" s="41" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
-      <c r="Q49" s="49"/>
-      <c r="R49" s="49"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
-      <c r="W49" s="50"/>
-      <c r="X49" s="50"/>
-      <c r="Y49" s="50"/>
-      <c r="Z49" s="50"/>
-    </row>
-    <row r="50" spans="1:26" ht="13.2">
+      <c r="L49" s="50"/>
+      <c r="M49" s="50"/>
+      <c r="N49" s="50"/>
+      <c r="O49" s="50"/>
+      <c r="P49" s="50"/>
+      <c r="Q49" s="50"/>
+      <c r="R49" s="50"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+    </row>
+    <row r="50" spans="1:26" ht="12.75">
       <c r="A50" s="47" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B50" s="48" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -14156,28 +14210,28 @@
       <c r="Q50" s="20"/>
       <c r="R50" s="20"/>
     </row>
-    <row r="51" spans="1:26" ht="26.4">
+    <row r="51" spans="1:26" ht="25.5">
       <c r="A51" s="39" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H51" s="32" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -14190,28 +14244,28 @@
       <c r="Q51" s="20"/>
       <c r="R51" s="20"/>
     </row>
-    <row r="52" spans="1:26" ht="13.2">
+    <row r="52" spans="1:26" ht="12.75">
       <c r="A52" s="39" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D52" s="42" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F52" s="28"/>
       <c r="G52" s="28" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H52" s="42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -14224,12 +14278,12 @@
       <c r="Q52" s="20"/>
       <c r="R52" s="20"/>
     </row>
-    <row r="53" spans="1:26" ht="13.2">
+    <row r="53" spans="1:26" ht="12.75">
       <c r="A53" s="39" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -14248,24 +14302,24 @@
       <c r="Q53" s="20"/>
       <c r="R53" s="20"/>
     </row>
-    <row r="54" spans="1:26" ht="39.6">
+    <row r="54" spans="1:26" ht="38.25">
       <c r="A54" s="39" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="32" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="28" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H54" s="28" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
@@ -14278,28 +14332,28 @@
       <c r="Q54" s="20"/>
       <c r="R54" s="20"/>
     </row>
-    <row r="55" spans="1:26" ht="13.2">
+    <row r="55" spans="1:26" ht="12.75">
       <c r="A55" s="47" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H55" s="28" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -14312,28 +14366,28 @@
       <c r="Q55" s="20"/>
       <c r="R55" s="20"/>
     </row>
-    <row r="56" spans="1:26" ht="79.2">
+    <row r="56" spans="1:26" ht="76.5">
       <c r="A56" s="47" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C56" s="28" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D56" s="28" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E56" s="28" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F56" s="28"/>
       <c r="G56" s="28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -14346,28 +14400,28 @@
       <c r="Q56" s="20"/>
       <c r="R56" s="20"/>
     </row>
-    <row r="57" spans="1:26" ht="13.2">
+    <row r="57" spans="1:26" ht="12.75">
       <c r="A57" s="47" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B57" s="48" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E57" s="28" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H57" s="28" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
@@ -14380,24 +14434,24 @@
       <c r="Q57" s="20"/>
       <c r="R57" s="20"/>
     </row>
-    <row r="58" spans="1:26" ht="198">
+    <row r="58" spans="1:26" ht="216.75">
       <c r="A58" s="47" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B58" s="48" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C58" s="28"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F58" s="28"/>
       <c r="G58" s="28" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H58" s="55" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -14410,24 +14464,24 @@
       <c r="Q58" s="20"/>
       <c r="R58" s="20"/>
     </row>
-    <row r="59" spans="1:26" ht="13.2">
+    <row r="59" spans="1:26" ht="12.75">
       <c r="A59" s="30" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B59" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
-      <c r="E59" s="32" t="s">
-        <v>258</v>
+      <c r="E59" s="49" t="s">
+        <v>262</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -14440,24 +14494,24 @@
       <c r="Q59" s="20"/>
       <c r="R59" s="20"/>
     </row>
-    <row r="60" spans="1:26" ht="39.6">
+    <row r="60" spans="1:26" ht="38.25">
       <c r="A60" s="56" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B60" s="57" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
-      <c r="E60" s="32" t="s">
-        <v>258</v>
+      <c r="E60" s="49" t="s">
+        <v>262</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="33" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H60" s="33" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -14470,28 +14524,28 @@
       <c r="Q60" s="20"/>
       <c r="R60" s="20"/>
     </row>
-    <row r="61" spans="1:26" ht="26.4">
+    <row r="61" spans="1:26" ht="25.5">
       <c r="A61" s="39" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B61" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D61" s="42" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="42" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F61" s="42"/>
       <c r="G61" s="28" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H61" s="42" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
@@ -14504,28 +14558,28 @@
       <c r="Q61" s="20"/>
       <c r="R61" s="20"/>
     </row>
-    <row r="62" spans="1:26" ht="26.4">
+    <row r="62" spans="1:26" ht="25.5">
       <c r="A62" s="47" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D62" s="42" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E62" s="42" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F62" s="42"/>
       <c r="G62" s="28" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="H62" s="42" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
@@ -14538,12 +14592,12 @@
       <c r="Q62" s="20"/>
       <c r="R62" s="20"/>
     </row>
-    <row r="63" spans="1:26" ht="13.2">
+    <row r="63" spans="1:26" ht="12.75">
       <c r="A63" s="39" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -14562,28 +14616,28 @@
       <c r="Q63" s="20"/>
       <c r="R63" s="20"/>
     </row>
-    <row r="64" spans="1:26" ht="13.2">
+    <row r="64" spans="1:26" ht="12.75">
       <c r="A64" s="47" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
@@ -14596,28 +14650,28 @@
       <c r="Q64" s="20"/>
       <c r="R64" s="20"/>
     </row>
-    <row r="65" spans="1:18" ht="13.2">
+    <row r="65" spans="1:18" ht="12.75">
       <c r="A65" s="47" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B65" s="48" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -14630,12 +14684,12 @@
       <c r="Q65" s="20"/>
       <c r="R65" s="20"/>
     </row>
-    <row r="66" spans="1:18" ht="13.2">
+    <row r="66" spans="1:18" ht="12.75">
       <c r="A66" s="39" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -14654,30 +14708,30 @@
       <c r="Q66" s="20"/>
       <c r="R66" s="20"/>
     </row>
-    <row r="67" spans="1:18" ht="52.8">
+    <row r="67" spans="1:18" ht="76.5">
       <c r="A67" s="47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B67" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G67" s="28" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H67" s="55" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
@@ -14690,28 +14744,28 @@
       <c r="Q67" s="20"/>
       <c r="R67" s="20"/>
     </row>
-    <row r="68" spans="1:18" ht="26.4">
+    <row r="68" spans="1:18" ht="25.5">
       <c r="A68" s="47" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B68" s="48" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C68" s="28" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="28" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -14724,28 +14778,28 @@
       <c r="Q68" s="20"/>
       <c r="R68" s="20"/>
     </row>
-    <row r="69" spans="1:18" ht="26.4">
+    <row r="69" spans="1:18" ht="25.5">
       <c r="A69" s="39" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D69" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -14758,12 +14812,12 @@
       <c r="Q69" s="20"/>
       <c r="R69" s="20"/>
     </row>
-    <row r="70" spans="1:18" ht="13.2">
+    <row r="70" spans="1:18" ht="12.75">
       <c r="A70" s="39" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C70" s="28"/>
       <c r="D70" s="28"/>
@@ -14782,20 +14836,20 @@
       <c r="Q70" s="20"/>
       <c r="R70" s="20"/>
     </row>
-    <row r="71" spans="1:18" ht="26.4">
-      <c r="A71" s="53"/>
+    <row r="71" spans="1:18" ht="25.5">
+      <c r="A71" s="58"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="32" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F71" s="28"/>
       <c r="G71" s="28" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H71" s="55" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
@@ -14808,28 +14862,28 @@
       <c r="Q71" s="20"/>
       <c r="R71" s="20"/>
     </row>
-    <row r="72" spans="1:18" ht="52.8">
+    <row r="72" spans="1:18" ht="51">
       <c r="A72" s="47" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B72" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" s="49" t="s">
         <v>336</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E72" s="42" t="s">
-        <v>332</v>
       </c>
       <c r="F72" s="42"/>
       <c r="G72" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H72" s="58" t="s">
-        <v>340</v>
+        <v>343</v>
+      </c>
+      <c r="H72" s="59" t="s">
+        <v>344</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -14842,28 +14896,28 @@
       <c r="Q72" s="20"/>
       <c r="R72" s="20"/>
     </row>
-    <row r="73" spans="1:18" ht="26.4">
-      <c r="A73" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="B73" s="60" t="s">
-        <v>342</v>
+    <row r="73" spans="1:18" ht="25.5">
+      <c r="A73" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="61" t="s">
+        <v>346</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D73" s="42" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F73" s="42"/>
       <c r="G73" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>347</v>
+        <v>350</v>
+      </c>
+      <c r="H73" s="62" t="s">
+        <v>351</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
@@ -14876,28 +14930,28 @@
       <c r="Q73" s="20"/>
       <c r="R73" s="20"/>
     </row>
-    <row r="74" spans="1:18" ht="26.4">
-      <c r="A74" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="B74" s="60" t="s">
-        <v>349</v>
+    <row r="74" spans="1:18" ht="25.5">
+      <c r="A74" s="60" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" s="61" t="s">
+        <v>353</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D74" s="42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F74" s="42"/>
       <c r="G74" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H74" s="61" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="H74" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
@@ -14910,20 +14964,20 @@
       <c r="Q74" s="20"/>
       <c r="R74" s="20"/>
     </row>
-    <row r="75" spans="1:18" ht="26.4">
-      <c r="A75" s="53"/>
+    <row r="75" spans="1:18" ht="25.5">
+      <c r="A75" s="58"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="32" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F75" s="28"/>
       <c r="G75" s="28" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H75" s="55" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
@@ -14936,28 +14990,28 @@
       <c r="Q75" s="20"/>
       <c r="R75" s="20"/>
     </row>
-    <row r="76" spans="1:18" ht="52.8">
+    <row r="76" spans="1:18" ht="51">
       <c r="A76" s="47" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B76" s="48" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E76" s="42" t="s">
-        <v>354</v>
+        <v>342</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>358</v>
       </c>
       <c r="F76" s="42"/>
       <c r="G76" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H76" s="58" t="s">
-        <v>358</v>
+        <v>343</v>
+      </c>
+      <c r="H76" s="59" t="s">
+        <v>362</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
@@ -14970,28 +15024,28 @@
       <c r="Q76" s="20"/>
       <c r="R76" s="20"/>
     </row>
-    <row r="77" spans="1:18" ht="26.4">
-      <c r="A77" s="59" t="s">
-        <v>359</v>
-      </c>
-      <c r="B77" s="60" t="s">
-        <v>342</v>
+    <row r="77" spans="1:18" ht="25.5">
+      <c r="A77" s="60" t="s">
+        <v>363</v>
+      </c>
+      <c r="B77" s="61" t="s">
+        <v>346</v>
       </c>
       <c r="C77" s="42" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D77" s="42" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F77" s="42"/>
       <c r="G77" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H77" s="61" t="s">
-        <v>347</v>
+        <v>350</v>
+      </c>
+      <c r="H77" s="62" t="s">
+        <v>351</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
@@ -15004,28 +15058,28 @@
       <c r="Q77" s="20"/>
       <c r="R77" s="20"/>
     </row>
-    <row r="78" spans="1:18" ht="26.4">
-      <c r="A78" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="B78" s="60" t="s">
-        <v>349</v>
+    <row r="78" spans="1:18" ht="25.5">
+      <c r="A78" s="60" t="s">
+        <v>365</v>
+      </c>
+      <c r="B78" s="61" t="s">
+        <v>353</v>
       </c>
       <c r="C78" s="42" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F78" s="42"/>
       <c r="G78" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H78" s="61" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="H78" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
@@ -15038,20 +15092,20 @@
       <c r="Q78" s="20"/>
       <c r="R78" s="20"/>
     </row>
-    <row r="79" spans="1:18" ht="26.4">
-      <c r="A79" s="53"/>
+    <row r="79" spans="1:18" ht="25.5">
+      <c r="A79" s="58"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="32" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F79" s="28"/>
       <c r="G79" s="28" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="H79" s="55" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
@@ -15064,28 +15118,28 @@
       <c r="Q79" s="20"/>
       <c r="R79" s="20"/>
     </row>
-    <row r="80" spans="1:18" ht="52.8">
+    <row r="80" spans="1:18" ht="51">
       <c r="A80" s="47" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B80" s="48" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E80" s="42" t="s">
-        <v>363</v>
+        <v>342</v>
+      </c>
+      <c r="E80" s="49" t="s">
+        <v>367</v>
       </c>
       <c r="F80" s="42"/>
       <c r="G80" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="H80" s="58" t="s">
-        <v>367</v>
+        <v>343</v>
+      </c>
+      <c r="H80" s="59" t="s">
+        <v>371</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
@@ -15098,28 +15152,28 @@
       <c r="Q80" s="20"/>
       <c r="R80" s="20"/>
     </row>
-    <row r="81" spans="1:18" ht="26.4">
-      <c r="A81" s="59" t="s">
-        <v>368</v>
-      </c>
-      <c r="B81" s="60" t="s">
-        <v>349</v>
+    <row r="81" spans="1:18" ht="25.5">
+      <c r="A81" s="60" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" s="61" t="s">
+        <v>353</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D81" s="42" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F81" s="28"/>
       <c r="G81" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H81" s="61" t="s">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="H81" s="62" t="s">
+        <v>357</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
@@ -15132,12 +15186,12 @@
       <c r="Q81" s="20"/>
       <c r="R81" s="20"/>
     </row>
-    <row r="82" spans="1:18" ht="13.2">
+    <row r="82" spans="1:18" ht="12.75">
       <c r="A82" s="39" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C82" s="42"/>
       <c r="D82" s="42"/>
@@ -15156,28 +15210,28 @@
       <c r="Q82" s="20"/>
       <c r="R82" s="20"/>
     </row>
-    <row r="83" spans="1:18" ht="39.6">
+    <row r="83" spans="1:18" ht="38.25">
       <c r="A83" s="47" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B83" s="48" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D83" s="42" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="28" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H83" s="42" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -15190,28 +15244,28 @@
       <c r="Q83" s="20"/>
       <c r="R83" s="20"/>
     </row>
-    <row r="84" spans="1:18" ht="39.6">
-      <c r="A84" s="62" t="s">
-        <v>372</v>
-      </c>
-      <c r="B84" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="C84" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="D84" s="64" t="s">
-        <v>373</v>
+    <row r="84" spans="1:18" ht="38.25">
+      <c r="A84" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="C84" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>377</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F84" s="32"/>
       <c r="G84" s="28" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H84" s="42" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -15224,28 +15278,28 @@
       <c r="Q84" s="20"/>
       <c r="R84" s="20"/>
     </row>
-    <row r="85" spans="1:18" ht="39.6">
+    <row r="85" spans="1:18" ht="38.25">
       <c r="A85" s="47" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B85" s="48" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D85" s="42" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F85" s="42"/>
       <c r="G85" s="42" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="H85" s="42" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
@@ -15258,12 +15312,12 @@
       <c r="Q85" s="20"/>
       <c r="R85" s="20"/>
     </row>
-    <row r="86" spans="1:18" ht="26.4">
+    <row r="86" spans="1:18" ht="25.5">
       <c r="A86" s="41" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -15282,125 +15336,125 @@
       <c r="Q86" s="20"/>
       <c r="R86" s="20"/>
     </row>
-    <row r="87" spans="1:18" ht="52.8">
-      <c r="A87" s="65" t="s">
-        <v>389</v>
+    <row r="87" spans="1:18" ht="51">
+      <c r="A87" s="66" t="s">
+        <v>393</v>
       </c>
       <c r="B87" s="48" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C87" s="28" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D87" s="42" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F87" s="32"/>
       <c r="G87" s="42" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H87" s="43" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="1:18" ht="52.8">
-      <c r="A88" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="B88" s="67" t="s">
-        <v>390</v>
-      </c>
-      <c r="C88" s="68" t="s">
-        <v>391</v>
-      </c>
-      <c r="D88" s="69" t="s">
-        <v>392</v>
+    <row r="88" spans="1:18" ht="51">
+      <c r="A88" s="67" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" s="68" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" s="69" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>396</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="F88" s="32"/>
       <c r="G88" s="42" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H88" s="43" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="1:18" ht="26.4">
-      <c r="A89" s="65" t="s">
-        <v>398</v>
+    <row r="89" spans="1:18" ht="25.5">
+      <c r="A89" s="66" t="s">
+        <v>402</v>
       </c>
       <c r="B89" s="48" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C89" s="28" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F89" s="42"/>
       <c r="G89" s="42" t="s">
-        <v>403</v>
-      </c>
-      <c r="H89" s="70" t="s">
-        <v>404</v>
+        <v>407</v>
+      </c>
+      <c r="H89" s="71" t="s">
+        <v>408</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="1:18" ht="26.4">
+    <row r="90" spans="1:18" ht="38.25">
       <c r="A90" s="41" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F90" s="3"/>
       <c r="G90" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="H90" s="71" t="s">
-        <v>410</v>
+        <v>296</v>
+      </c>
+      <c r="H90" s="72" t="s">
+        <v>414</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="1:18" ht="13.2">
-      <c r="A91" s="72" t="s">
-        <v>411</v>
+    <row r="91" spans="1:18" ht="12.75">
+      <c r="A91" s="73" t="s">
+        <v>415</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="32" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="33"/>
@@ -15409,9 +15463,9 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:18" ht="13.2">
-      <c r="A92" s="51" t="s">
-        <v>414</v>
+    <row r="92" spans="1:18" ht="12.75">
+      <c r="A92" s="52" t="s">
+        <v>418</v>
       </c>
       <c r="B92" s="31" t="s">
         <v>8</v>
@@ -15426,12 +15480,12 @@
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="1:18" ht="13.2">
+    <row r="93" spans="1:18" ht="12.75">
       <c r="A93" s="41" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -15443,339 +15497,339 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="1:18" ht="52.8">
-      <c r="A94" s="65" t="s">
-        <v>417</v>
+    <row r="94" spans="1:18" ht="51">
+      <c r="A94" s="66" t="s">
+        <v>421</v>
       </c>
       <c r="B94" s="48" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C94" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="F94" s="42"/>
       <c r="G94" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="H94" s="73" t="s">
-        <v>423</v>
+        <v>426</v>
+      </c>
+      <c r="H94" s="74" t="s">
+        <v>427</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="1:18" ht="13.2">
-      <c r="A95" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="B95" s="60" t="s">
-        <v>425</v>
+    <row r="95" spans="1:18" ht="12.75">
+      <c r="A95" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="B95" s="61" t="s">
+        <v>429</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D95" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E95" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="F95" s="52"/>
+        <v>431</v>
+      </c>
+      <c r="E95" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="F95" s="53"/>
       <c r="G95" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="H95" s="74" t="s">
-        <v>430</v>
+        <v>433</v>
+      </c>
+      <c r="H95" s="75" t="s">
+        <v>434</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="1:18" ht="39.6">
-      <c r="A96" s="59" t="s">
-        <v>431</v>
-      </c>
-      <c r="B96" s="60" t="s">
-        <v>432</v>
+    <row r="96" spans="1:18" ht="38.25">
+      <c r="A96" s="60" t="s">
+        <v>435</v>
+      </c>
+      <c r="B96" s="61" t="s">
+        <v>436</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D96" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="E96" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="F96" s="52"/>
+        <v>438</v>
+      </c>
+      <c r="E96" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="F96" s="53"/>
       <c r="G96" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H96" s="74" t="s">
-        <v>436</v>
+        <v>223</v>
+      </c>
+      <c r="H96" s="75" t="s">
+        <v>440</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="1:11" ht="52.8">
-      <c r="A97" s="65" t="s">
-        <v>437</v>
+    <row r="97" spans="1:11" ht="51">
+      <c r="A97" s="66" t="s">
+        <v>441</v>
       </c>
       <c r="B97" s="48" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C97" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E97" s="42" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F97" s="42"/>
       <c r="G97" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="H97" s="73" t="s">
-        <v>440</v>
+        <v>426</v>
+      </c>
+      <c r="H97" s="74" t="s">
+        <v>444</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="1:11" ht="13.2">
-      <c r="A98" s="59" t="s">
-        <v>441</v>
-      </c>
-      <c r="B98" s="60" t="s">
-        <v>425</v>
+    <row r="98" spans="1:11" ht="12.75">
+      <c r="A98" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="B98" s="61" t="s">
+        <v>429</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D98" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E98" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="F98" s="52"/>
+        <v>431</v>
+      </c>
+      <c r="E98" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="F98" s="53"/>
       <c r="G98" s="29" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="1:11" ht="13.2">
-      <c r="A99" s="59" t="s">
-        <v>443</v>
-      </c>
-      <c r="B99" s="60" t="s">
-        <v>432</v>
+    <row r="99" spans="1:11" ht="25.5">
+      <c r="A99" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="B99" s="61" t="s">
+        <v>436</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="E99" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="F99" s="52"/>
+        <v>438</v>
+      </c>
+      <c r="E99" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="F99" s="53"/>
       <c r="G99" s="29" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="1:11" ht="52.8">
-      <c r="A100" s="65" t="s">
-        <v>445</v>
+    <row r="100" spans="1:11" ht="51">
+      <c r="A100" s="66" t="s">
+        <v>449</v>
       </c>
       <c r="B100" s="48" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D100" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="E100" s="52" t="s">
-        <v>447</v>
-      </c>
-      <c r="F100" s="52"/>
+        <v>424</v>
+      </c>
+      <c r="E100" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="F100" s="53"/>
       <c r="G100" s="29" t="s">
-        <v>422</v>
-      </c>
-      <c r="H100" s="52" t="s">
-        <v>448</v>
+        <v>426</v>
+      </c>
+      <c r="H100" s="53" t="s">
+        <v>452</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="1:11" ht="13.2">
-      <c r="A101" s="59" t="s">
-        <v>449</v>
-      </c>
-      <c r="B101" s="60" t="s">
-        <v>425</v>
+    <row r="101" spans="1:11" ht="12.75">
+      <c r="A101" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="B101" s="61" t="s">
+        <v>429</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D101" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E101" s="52" t="s">
-        <v>428</v>
-      </c>
-      <c r="F101" s="52"/>
+        <v>431</v>
+      </c>
+      <c r="E101" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="F101" s="53"/>
       <c r="G101" s="29" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="1:11" ht="13.2">
-      <c r="A102" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="B102" s="60" t="s">
-        <v>432</v>
+    <row r="102" spans="1:11" ht="25.5">
+      <c r="A102" s="60" t="s">
+        <v>454</v>
+      </c>
+      <c r="B102" s="61" t="s">
+        <v>436</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D102" s="29" t="s">
-        <v>434</v>
-      </c>
-      <c r="E102" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="F102" s="52"/>
+        <v>438</v>
+      </c>
+      <c r="E102" s="53" t="s">
+        <v>439</v>
+      </c>
+      <c r="F102" s="53"/>
       <c r="G102" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="H102" s="75" t="s">
-        <v>444</v>
+        <v>223</v>
+      </c>
+      <c r="H102" s="76" t="s">
+        <v>448</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="1:11" ht="52.8">
-      <c r="A103" s="65" t="s">
-        <v>451</v>
+    <row r="103" spans="1:11" ht="51">
+      <c r="A103" s="66" t="s">
+        <v>455</v>
       </c>
       <c r="B103" s="48" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C103" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E103" s="42" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="F103" s="42"/>
       <c r="G103" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="H103" s="76" t="s">
-        <v>454</v>
+        <v>426</v>
+      </c>
+      <c r="H103" s="77" t="s">
+        <v>458</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="1:11" ht="52.8">
-      <c r="A104" s="65" t="s">
-        <v>455</v>
+    <row r="104" spans="1:11" ht="51">
+      <c r="A104" s="66" t="s">
+        <v>459</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C104" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="F104" s="42"/>
       <c r="G104" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="H104" s="76" t="s">
-        <v>458</v>
+        <v>426</v>
+      </c>
+      <c r="H104" s="77" t="s">
+        <v>462</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="1:11" ht="79.2">
-      <c r="A105" s="65" t="s">
-        <v>459</v>
+    <row r="105" spans="1:11" ht="76.5">
+      <c r="A105" s="66" t="s">
+        <v>463</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C105" s="28" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F105" s="42"/>
       <c r="G105" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="H105" s="73" t="s">
-        <v>462</v>
+        <v>426</v>
+      </c>
+      <c r="H105" s="74" t="s">
+        <v>466</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="1:11" ht="39.6">
+    <row r="106" spans="1:11" ht="51">
       <c r="A106" s="41" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="C106" s="77" t="s">
-        <v>465</v>
+        <v>468</v>
+      </c>
+      <c r="C106" s="78" t="s">
+        <v>469</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -15786,69 +15840,69 @@
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="1:11" ht="39.6">
-      <c r="A107" s="65" t="s">
-        <v>466</v>
+    <row r="107" spans="1:11" ht="38.25">
+      <c r="A107" s="66" t="s">
+        <v>470</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C107" s="28" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E107" s="42" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F107" s="42"/>
       <c r="G107" s="28" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="H107" s="42" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="1:11" ht="26.4">
-      <c r="A108" s="65" t="s">
-        <v>473</v>
+    <row r="108" spans="1:11" ht="25.5">
+      <c r="A108" s="66" t="s">
+        <v>477</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C108" s="28" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F108" s="42"/>
       <c r="G108" s="28" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H108" s="55" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="1:11" ht="26.4">
+    <row r="109" spans="1:11" ht="25.5">
       <c r="A109" s="41" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B109" s="40" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="D109" s="28"/>
       <c r="E109" s="28"/>
@@ -15859,93 +15913,93 @@
       <c r="J109" s="3"/>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="1:11" ht="26.4">
-      <c r="A110" s="65" t="s">
-        <v>482</v>
+    <row r="110" spans="1:11" ht="25.5">
+      <c r="A110" s="66" t="s">
+        <v>486</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C110" s="28" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F110" s="42"/>
       <c r="G110" s="28" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="H110" s="55" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="1:11" ht="39.6">
+    <row r="111" spans="1:11" ht="38.25">
       <c r="A111" s="41" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C111" s="28" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="E111" s="42" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F111" s="42"/>
       <c r="G111" s="28" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H111" s="55" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="1:11" ht="39.6">
-      <c r="A112" s="78" t="s">
-        <v>489</v>
-      </c>
-      <c r="B112" s="79" t="s">
-        <v>490</v>
-      </c>
-      <c r="C112" s="68" t="s">
-        <v>491</v>
-      </c>
-      <c r="D112" s="69" t="s">
-        <v>492</v>
+    <row r="112" spans="1:11" ht="38.25">
+      <c r="A112" s="79" t="s">
+        <v>493</v>
+      </c>
+      <c r="B112" s="80" t="s">
+        <v>494</v>
+      </c>
+      <c r="C112" s="69" t="s">
+        <v>495</v>
+      </c>
+      <c r="D112" s="70" t="s">
+        <v>496</v>
       </c>
       <c r="E112" s="42" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="F112" s="42"/>
       <c r="G112" s="28" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H112" s="55" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="1:11" ht="13.2">
-      <c r="A113" s="51" t="s">
-        <v>497</v>
+    <row r="113" spans="1:11" ht="12.75">
+      <c r="A113" s="52" t="s">
+        <v>501</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -15957,81 +16011,81 @@
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="1:11" ht="39.6">
+    <row r="114" spans="1:11" ht="38.25">
       <c r="A114" s="41" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="C114" s="28" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D114" s="42" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E114" s="42" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="F114" s="42"/>
       <c r="G114" s="42" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H114" s="55" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="1:11" ht="26.4">
-      <c r="A115" s="59" t="s">
-        <v>506</v>
-      </c>
-      <c r="B115" s="80"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="81"/>
-      <c r="E115" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="F115" s="81"/>
+    <row r="115" spans="1:11" ht="25.5">
+      <c r="A115" s="60" t="s">
+        <v>510</v>
+      </c>
+      <c r="B115" s="81"/>
+      <c r="C115" s="82"/>
+      <c r="D115" s="82"/>
+      <c r="E115" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F115" s="82"/>
       <c r="G115" s="33" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H115" s="28" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="1:11" ht="26.4">
-      <c r="A116" s="59" t="s">
-        <v>509</v>
-      </c>
-      <c r="B116" s="80"/>
-      <c r="C116" s="81"/>
-      <c r="D116" s="81"/>
-      <c r="E116" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="F116" s="81"/>
+    <row r="116" spans="1:11" ht="25.5">
+      <c r="A116" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="B116" s="81"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="F116" s="82"/>
       <c r="G116" s="33" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H116" s="28" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="1:11" ht="39.6">
+    <row r="117" spans="1:11" ht="38.25">
       <c r="A117" s="41" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -16043,39 +16097,39 @@
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="1:11" ht="66">
-      <c r="A118" s="65" t="s">
-        <v>514</v>
+    <row r="118" spans="1:11" ht="63.75">
+      <c r="A118" s="66" t="s">
+        <v>518</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C118" s="28" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E118" s="42" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="F118" s="42"/>
       <c r="G118" s="28" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H118" s="55" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="1:11" ht="52.8">
+    <row r="119" spans="1:11" ht="51">
       <c r="A119" s="41" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -16087,227 +16141,227 @@
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="1:11" ht="66">
-      <c r="A120" s="65" t="s">
-        <v>523</v>
+    <row r="120" spans="1:11" ht="63.75">
+      <c r="A120" s="66" t="s">
+        <v>527</v>
       </c>
       <c r="B120" s="48" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C120" s="28" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E120" s="42" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="F120" s="42"/>
       <c r="G120" s="28" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H120" s="28" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="1:11" ht="13.2">
-      <c r="A121" s="72" t="s">
-        <v>529</v>
+    <row r="121" spans="1:11" ht="12.75">
+      <c r="A121" s="73" t="s">
+        <v>533</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="32" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F121" s="42" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="1:11" ht="13.2">
-      <c r="A122" s="82" t="s">
-        <v>529</v>
-      </c>
-      <c r="B122" s="83" t="s">
-        <v>530</v>
-      </c>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="42" t="s">
-        <v>531</v>
-      </c>
-      <c r="F122" s="42" t="s">
-        <v>532</v>
-      </c>
-      <c r="G122" s="42" t="s">
+    <row r="122" spans="1:11" ht="12.75">
+      <c r="A122" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="B122" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="C122" s="82"/>
+      <c r="D122" s="82"/>
+      <c r="E122" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="F122" s="82" t="s">
         <v>536</v>
+      </c>
+      <c r="G122" s="82" t="s">
+        <v>539</v>
+      </c>
+      <c r="H122" s="85" t="s">
+        <v>540</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="1:11" ht="13.2">
-      <c r="A123" s="82" t="s">
-        <v>529</v>
-      </c>
-      <c r="B123" s="83" t="s">
-        <v>530</v>
+    <row r="123" spans="1:11" ht="12.75">
+      <c r="A123" s="83" t="s">
+        <v>533</v>
+      </c>
+      <c r="B123" s="84" t="s">
+        <v>534</v>
       </c>
       <c r="C123" s="28"/>
       <c r="D123" s="28"/>
-      <c r="E123" s="28" t="s">
-        <v>531</v>
+      <c r="E123" s="86" t="s">
+        <v>535</v>
       </c>
       <c r="F123" s="28"/>
       <c r="G123" s="28" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="H123" s="28" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="1:11" ht="13.2">
+    <row r="124" spans="1:11" ht="12.75">
       <c r="A124" s="41" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B124" s="40" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C124" s="28" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E124" s="42" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="1:11" ht="13.2">
+    <row r="125" spans="1:11" ht="12.75">
       <c r="A125" s="41" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B125" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="28" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E125" s="42" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F125" s="42" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="H125" s="84" t="s">
-        <v>551</v>
+        <v>554</v>
+      </c>
+      <c r="H125" s="87" t="s">
+        <v>555</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="1:11" ht="79.2">
+    <row r="126" spans="1:11" ht="76.5">
       <c r="A126" s="41" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C126" s="28" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E126" s="32" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H126" s="32" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="1:11" ht="52.8">
-      <c r="A127" s="78" t="s">
-        <v>552</v>
-      </c>
-      <c r="B127" s="79" t="s">
-        <v>553</v>
-      </c>
-      <c r="C127" s="69" t="s">
-        <v>554</v>
-      </c>
-      <c r="D127" s="69" t="s">
-        <v>555</v>
+    <row r="127" spans="1:11" ht="51">
+      <c r="A127" s="79" t="s">
+        <v>556</v>
+      </c>
+      <c r="B127" s="80" t="s">
+        <v>557</v>
+      </c>
+      <c r="C127" s="70" t="s">
+        <v>558</v>
+      </c>
+      <c r="D127" s="70" t="s">
+        <v>559</v>
       </c>
       <c r="E127" s="32" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="H127" s="32" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="1:11" ht="13.2">
-      <c r="A128" s="51" t="s">
-        <v>562</v>
+    <row r="128" spans="1:11" ht="12.75">
+      <c r="A128" s="52" t="s">
+        <v>566</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>563</v>
-      </c>
-      <c r="C128" s="85" t="s">
-        <v>465</v>
+        <v>567</v>
+      </c>
+      <c r="C128" s="88" t="s">
+        <v>469</v>
       </c>
       <c r="D128" s="28"/>
       <c r="E128" s="3"/>
@@ -16318,15 +16372,15 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="1:11" ht="26.4">
+    <row r="129" spans="1:11" ht="25.5">
       <c r="A129" s="41" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B129" s="40" t="s">
-        <v>565</v>
-      </c>
-      <c r="C129" s="85" t="s">
-        <v>465</v>
+        <v>569</v>
+      </c>
+      <c r="C129" s="88" t="s">
+        <v>469</v>
       </c>
       <c r="D129" s="28"/>
       <c r="E129" s="28"/>
@@ -16337,94 +16391,94 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="1:11" ht="52.8">
-      <c r="A130" s="65" t="s">
-        <v>566</v>
+    <row r="130" spans="1:11" ht="51">
+      <c r="A130" s="66" t="s">
+        <v>570</v>
       </c>
       <c r="B130" s="48" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C130" s="28" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="F130" s="42"/>
       <c r="G130" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="H130" s="76" t="s">
-        <v>572</v>
+        <v>575</v>
+      </c>
+      <c r="H130" s="77" t="s">
+        <v>576</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="1:11" ht="52.8">
-      <c r="A131" s="65" t="s">
+    <row r="131" spans="1:11" ht="51">
+      <c r="A131" s="66" t="s">
+        <v>577</v>
+      </c>
+      <c r="B131" s="48" t="s">
+        <v>578</v>
+      </c>
+      <c r="C131" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="D131" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="B131" s="48" t="s">
-        <v>574</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="D131" s="28" t="s">
-        <v>569</v>
-      </c>
       <c r="E131" s="42" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F131" s="42"/>
       <c r="G131" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="H131" s="86" t="s">
-        <v>576</v>
+        <v>575</v>
+      </c>
+      <c r="H131" s="89" t="s">
+        <v>580</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="1:11" ht="39.6">
-      <c r="A132" s="65" t="s">
-        <v>577</v>
+    <row r="132" spans="1:11" ht="51">
+      <c r="A132" s="66" t="s">
+        <v>581</v>
       </c>
       <c r="B132" s="48" t="s">
-        <v>578</v>
-      </c>
-      <c r="C132" s="87" t="s">
-        <v>579</v>
+        <v>582</v>
+      </c>
+      <c r="C132" s="90" t="s">
+        <v>583</v>
       </c>
       <c r="D132" s="28"/>
       <c r="E132" s="42" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="F132" s="42"/>
       <c r="G132" s="28" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="H132" s="42" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="1:11" ht="13.2">
-      <c r="A133" s="51" t="s">
-        <v>583</v>
+    <row r="133" spans="1:11" ht="12.75">
+      <c r="A133" s="52" t="s">
+        <v>587</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>530</v>
-      </c>
-      <c r="C133" s="85" t="s">
-        <v>465</v>
+        <v>534</v>
+      </c>
+      <c r="C133" s="88" t="s">
+        <v>469</v>
       </c>
       <c r="D133" s="28"/>
       <c r="E133" s="28"/>
@@ -16435,251 +16489,251 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="1:11" ht="39.6">
-      <c r="A134" s="65" t="s">
-        <v>584</v>
+    <row r="134" spans="1:11" ht="38.25">
+      <c r="A134" s="66" t="s">
+        <v>588</v>
       </c>
       <c r="B134" s="48"/>
       <c r="C134" s="28"/>
       <c r="D134" s="3"/>
-      <c r="E134" s="42" t="s">
-        <v>556</v>
+      <c r="E134" s="49" t="s">
+        <v>560</v>
       </c>
       <c r="F134" s="42"/>
       <c r="G134" s="28" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="H134" s="42" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="1:11" ht="39.6">
-      <c r="A135" s="65" t="s">
-        <v>584</v>
-      </c>
-      <c r="B135" s="88"/>
+    <row r="135" spans="1:11" ht="38.25">
+      <c r="A135" s="66" t="s">
+        <v>588</v>
+      </c>
+      <c r="B135" s="91"/>
       <c r="C135" s="28"/>
       <c r="D135" s="3"/>
-      <c r="E135" s="42" t="s">
-        <v>556</v>
+      <c r="E135" s="49" t="s">
+        <v>560</v>
       </c>
       <c r="F135" s="42"/>
       <c r="G135" s="28" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="H135" s="42" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="1:11" ht="39.6">
+    <row r="136" spans="1:11" ht="38.25">
       <c r="A136" s="41" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C136" s="28" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="E136" s="42" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F136" s="42"/>
       <c r="G136" s="32" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H136" s="32" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="1:11" ht="26.4">
+    <row r="137" spans="1:11" ht="25.5">
       <c r="A137" s="41" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B137" s="40" t="s">
-        <v>596</v>
-      </c>
-      <c r="C137" s="89"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="F137" s="89"/>
+        <v>600</v>
+      </c>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="49" t="s">
+        <v>560</v>
+      </c>
+      <c r="F137" s="92"/>
       <c r="G137" s="42" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="H137" s="28" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="1:11" ht="39.6">
-      <c r="A138" s="65" t="s">
-        <v>599</v>
+    <row r="138" spans="1:11" ht="38.25">
+      <c r="A138" s="66" t="s">
+        <v>603</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C138" s="28" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="F138" s="42"/>
       <c r="G138" s="28" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H138" s="28" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="1:11" ht="39.6">
-      <c r="A139" s="65" t="s">
-        <v>606</v>
+    <row r="139" spans="1:11" ht="38.25">
+      <c r="A139" s="66" t="s">
+        <v>610</v>
       </c>
       <c r="B139" s="48" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C139" s="28"/>
       <c r="D139" s="28"/>
       <c r="E139" s="42" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="F139" s="42"/>
       <c r="G139" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H139" s="32" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="1:11" ht="39.6">
-      <c r="A140" s="65" t="s">
-        <v>611</v>
+    <row r="140" spans="1:11" ht="38.25">
+      <c r="A140" s="66" t="s">
+        <v>615</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C140" s="28"/>
       <c r="D140" s="28"/>
       <c r="E140" s="42" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="F140" s="42"/>
       <c r="G140" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H140" s="32" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="1:11" ht="39.6">
-      <c r="A141" s="65" t="s">
-        <v>615</v>
+    <row r="141" spans="1:11" ht="38.25">
+      <c r="A141" s="66" t="s">
+        <v>619</v>
       </c>
       <c r="B141" s="48" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="C141" s="28"/>
       <c r="D141" s="28"/>
       <c r="E141" s="42" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F141" s="42"/>
       <c r="G141" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H141" s="32" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="1:11" ht="39.6">
-      <c r="A142" s="65" t="s">
-        <v>619</v>
+    <row r="142" spans="1:11" ht="38.25">
+      <c r="A142" s="66" t="s">
+        <v>623</v>
       </c>
       <c r="B142" s="48" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="C142" s="28"/>
       <c r="D142" s="28"/>
       <c r="E142" s="42" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="F142" s="42"/>
       <c r="G142" s="3" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="1:11" ht="39.6">
-      <c r="A143" s="65" t="s">
-        <v>623</v>
+    <row r="143" spans="1:11" ht="38.25">
+      <c r="A143" s="66" t="s">
+        <v>627</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>624</v>
-      </c>
-      <c r="C143" s="90" t="s">
-        <v>625</v>
+        <v>628</v>
+      </c>
+      <c r="C143" s="93" t="s">
+        <v>629</v>
       </c>
       <c r="D143" s="28"/>
       <c r="E143" s="42" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="F143" s="32"/>
       <c r="G143" s="28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H143" s="42" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="1:11" ht="26.4">
+    <row r="144" spans="1:11" ht="25.5">
       <c r="A144" s="41" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B144" s="40" t="s">
-        <v>628</v>
-      </c>
-      <c r="C144" s="85" t="s">
-        <v>465</v>
+        <v>632</v>
+      </c>
+      <c r="C144" s="88" t="s">
+        <v>469</v>
       </c>
       <c r="D144" s="28"/>
       <c r="E144" s="32"/>
@@ -16690,360 +16744,360 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="1:11" ht="52.8">
-      <c r="A145" s="65" t="s">
-        <v>629</v>
+    <row r="145" spans="1:11" ht="51">
+      <c r="A145" s="66" t="s">
+        <v>633</v>
       </c>
       <c r="B145" s="48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C145" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D145" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F145" s="42"/>
       <c r="G145" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H145" s="36" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="1:11" ht="52.8">
-      <c r="A146" s="65" t="s">
-        <v>632</v>
+    <row r="146" spans="1:11" ht="51">
+      <c r="A146" s="66" t="s">
+        <v>636</v>
       </c>
       <c r="B146" s="48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C146" s="28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E146" s="42" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F146" s="42"/>
       <c r="G146" s="38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H146" s="38" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="1:11" ht="39.6">
-      <c r="A147" s="65" t="s">
-        <v>635</v>
+    <row r="147" spans="1:11" ht="51">
+      <c r="A147" s="66" t="s">
+        <v>639</v>
       </c>
       <c r="B147" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C147" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D147" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F147" s="42"/>
       <c r="G147" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H147" s="32" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="1:11" ht="39.6">
-      <c r="A148" s="65" t="s">
-        <v>638</v>
+    <row r="148" spans="1:11" ht="38.25">
+      <c r="A148" s="66" t="s">
+        <v>642</v>
       </c>
       <c r="B148" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C148" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D148" s="28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F148" s="42"/>
       <c r="G148" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H148" s="32" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="1:11" ht="52.8">
-      <c r="A149" s="65" t="s">
-        <v>641</v>
+    <row r="149" spans="1:11" ht="51">
+      <c r="A149" s="66" t="s">
+        <v>645</v>
       </c>
       <c r="B149" s="48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C149" s="28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D149" s="28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F149" s="32" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="G149" s="28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H149" s="42" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="1:11" ht="52.8">
-      <c r="A150" s="65" t="s">
-        <v>645</v>
+    <row r="150" spans="1:11" ht="51">
+      <c r="A150" s="66" t="s">
+        <v>649</v>
       </c>
       <c r="B150" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C150" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D150" s="28" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E150" s="42" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F150" s="42"/>
       <c r="G150" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H150" s="32" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="1:11" ht="66">
-      <c r="A151" s="65" t="s">
-        <v>649</v>
+    <row r="151" spans="1:11" ht="63.75">
+      <c r="A151" s="66" t="s">
+        <v>653</v>
       </c>
       <c r="B151" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C151" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D151" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E151" s="42" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F151" s="42"/>
       <c r="G151" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="H151" s="91" t="s">
-        <v>651</v>
+        <v>101</v>
+      </c>
+      <c r="H151" s="94" t="s">
+        <v>655</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="1:11" ht="66">
-      <c r="A152" s="65" t="s">
-        <v>652</v>
+    <row r="152" spans="1:11" ht="63.75">
+      <c r="A152" s="66" t="s">
+        <v>656</v>
       </c>
       <c r="B152" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C152" s="28" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E152" s="42" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F152" s="42"/>
       <c r="G152" s="42" t="s">
-        <v>654</v>
-      </c>
-      <c r="H152" s="76" t="s">
-        <v>655</v>
+        <v>658</v>
+      </c>
+      <c r="H152" s="77" t="s">
+        <v>659</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="1:11" ht="66">
-      <c r="A153" s="65" t="s">
-        <v>656</v>
+    <row r="153" spans="1:11" ht="63.75">
+      <c r="A153" s="66" t="s">
+        <v>660</v>
       </c>
       <c r="B153" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="F153" s="42"/>
       <c r="G153" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H153" s="42" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="1:11" ht="66">
-      <c r="A154" s="65" t="s">
-        <v>660</v>
+    <row r="154" spans="1:11" ht="63.75">
+      <c r="A154" s="66" t="s">
+        <v>664</v>
       </c>
       <c r="B154" s="48" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C154" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D154" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="F154" s="42"/>
       <c r="G154" s="38" t="s">
-        <v>654</v>
-      </c>
-      <c r="H154" s="92" t="s">
-        <v>663</v>
+        <v>658</v>
+      </c>
+      <c r="H154" s="95" t="s">
+        <v>667</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="1:11" ht="66">
-      <c r="A155" s="65" t="s">
-        <v>664</v>
+    <row r="155" spans="1:11" ht="63.75">
+      <c r="A155" s="66" t="s">
+        <v>668</v>
       </c>
       <c r="B155" s="48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C155" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D155" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F155" s="42"/>
       <c r="G155" s="42" t="s">
-        <v>658</v>
-      </c>
-      <c r="H155" s="76" t="s">
-        <v>666</v>
+        <v>662</v>
+      </c>
+      <c r="H155" s="77" t="s">
+        <v>670</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="1:11" ht="66">
-      <c r="A156" s="65" t="s">
-        <v>667</v>
+    <row r="156" spans="1:11" ht="63.75">
+      <c r="A156" s="66" t="s">
+        <v>671</v>
       </c>
       <c r="B156" s="48" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C156" s="28" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D156" s="28" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E156" s="42" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="H156" s="93" t="s">
-        <v>673</v>
+        <v>676</v>
+      </c>
+      <c r="H156" s="96" t="s">
+        <v>677</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="1:11" ht="39.6">
-      <c r="A157" s="53"/>
+    <row r="157" spans="1:11" ht="38.25">
+      <c r="A157" s="58"/>
       <c r="B157" s="3"/>
       <c r="C157" s="28"/>
       <c r="D157" s="28"/>
-      <c r="E157" s="42" t="s">
-        <v>671</v>
+      <c r="E157" s="49" t="s">
+        <v>675</v>
       </c>
       <c r="F157" s="32"/>
       <c r="G157" s="36" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="H157" s="36" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="1:11" ht="26.4">
+    <row r="158" spans="1:11" ht="38.25">
       <c r="A158" s="41" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B158" s="40" t="s">
-        <v>677</v>
-      </c>
-      <c r="C158" s="85" t="s">
-        <v>465</v>
+        <v>681</v>
+      </c>
+      <c r="C158" s="88" t="s">
+        <v>469</v>
       </c>
       <c r="D158" s="28"/>
       <c r="E158" s="28"/>
@@ -17054,223 +17108,223 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="1:11" ht="39.6">
-      <c r="A159" s="65" t="s">
-        <v>678</v>
+    <row r="159" spans="1:11" ht="38.25">
+      <c r="A159" s="66" t="s">
+        <v>682</v>
       </c>
       <c r="B159" s="48" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C159" s="28" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D159" s="28" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E159" s="42" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F159" s="42"/>
       <c r="G159" s="28" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H159" s="42" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="1:11" ht="39.6">
-      <c r="A160" s="59" t="s">
-        <v>684</v>
-      </c>
-      <c r="B160" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C160" s="90" t="s">
-        <v>685</v>
+    <row r="160" spans="1:11" ht="38.25">
+      <c r="A160" s="60" t="s">
+        <v>688</v>
+      </c>
+      <c r="B160" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C160" s="93" t="s">
+        <v>689</v>
       </c>
       <c r="D160" s="28"/>
       <c r="E160" s="42" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F160" s="42"/>
       <c r="G160" s="28" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="H160" s="42" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="1:11" ht="26.4">
-      <c r="A161" s="65" t="s">
-        <v>689</v>
+    <row r="161" spans="1:11" ht="38.25">
+      <c r="A161" s="66" t="s">
+        <v>693</v>
       </c>
       <c r="B161" s="48" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="C161" s="28" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="D161" s="28" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="F161" s="42"/>
-      <c r="G161" s="28" t="s">
-        <v>694</v>
-      </c>
-      <c r="H161" s="32" t="s">
-        <v>695</v>
+      <c r="G161" s="140" t="s">
+        <v>698</v>
+      </c>
+      <c r="H161" s="140" t="s">
+        <v>699</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="1:11" ht="39.6">
-      <c r="A162" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="B162" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C162" s="90" t="s">
-        <v>685</v>
+    <row r="162" spans="1:11" ht="51">
+      <c r="A162" s="60" t="s">
+        <v>700</v>
+      </c>
+      <c r="B162" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C162" s="93" t="s">
+        <v>689</v>
       </c>
       <c r="D162" s="28"/>
       <c r="E162" s="42" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F162" s="42"/>
-      <c r="G162" s="28" t="s">
-        <v>698</v>
-      </c>
-      <c r="H162" s="32" t="s">
-        <v>699</v>
+      <c r="G162" s="140" t="s">
+        <v>702</v>
+      </c>
+      <c r="H162" s="140" t="s">
+        <v>703</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="1:11" ht="39.6">
-      <c r="A163" s="65" t="s">
-        <v>700</v>
+    <row r="163" spans="1:11" ht="38.25">
+      <c r="A163" s="66" t="s">
+        <v>704</v>
       </c>
       <c r="B163" s="48" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C163" s="28" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D163" s="28" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E163" s="42" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F163" s="42"/>
       <c r="G163" s="28" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H163" s="42" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="1:11" ht="39.6">
-      <c r="A164" s="59" t="s">
-        <v>704</v>
-      </c>
-      <c r="B164" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C164" s="90" t="s">
-        <v>685</v>
+    <row r="164" spans="1:11" ht="38.25">
+      <c r="A164" s="60" t="s">
+        <v>708</v>
+      </c>
+      <c r="B164" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" s="93" t="s">
+        <v>689</v>
       </c>
       <c r="D164" s="28"/>
       <c r="E164" s="42" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="F164" s="42"/>
       <c r="G164" s="28" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="H164" s="42" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="1:11" ht="39.6">
-      <c r="A165" s="65" t="s">
-        <v>708</v>
+    <row r="165" spans="1:11" ht="38.25">
+      <c r="A165" s="66" t="s">
+        <v>712</v>
       </c>
       <c r="B165" s="48" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C165" s="28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D165" s="28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E165" s="42" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="F165" s="42"/>
       <c r="G165" s="28" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H165" s="42" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="1:11" ht="39.6">
-      <c r="A166" s="59" t="s">
-        <v>711</v>
-      </c>
-      <c r="B166" s="60" t="s">
-        <v>281</v>
-      </c>
-      <c r="C166" s="90" t="s">
-        <v>685</v>
+    <row r="166" spans="1:11" ht="38.25">
+      <c r="A166" s="60" t="s">
+        <v>715</v>
+      </c>
+      <c r="B166" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="C166" s="93" t="s">
+        <v>689</v>
       </c>
       <c r="D166" s="28"/>
-      <c r="E166" s="42" t="s">
-        <v>705</v>
+      <c r="E166" s="49" t="s">
+        <v>709</v>
       </c>
       <c r="F166" s="42"/>
       <c r="G166" s="28" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="H166" s="42" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="1:11" ht="26.4">
+    <row r="167" spans="1:11" ht="25.5">
       <c r="A167" s="41" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>714</v>
-      </c>
-      <c r="C167" s="85" t="s">
-        <v>465</v>
+        <v>718</v>
+      </c>
+      <c r="C167" s="88" t="s">
+        <v>469</v>
       </c>
       <c r="D167" s="28"/>
       <c r="E167" s="28"/>
@@ -17281,1081 +17335,1081 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="1:11" ht="26.4">
-      <c r="A168" s="65" t="s">
-        <v>715</v>
+    <row r="168" spans="1:11" ht="38.25">
+      <c r="A168" s="66" t="s">
+        <v>719</v>
       </c>
       <c r="B168" s="48" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="C168" s="28" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D168" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="E168" s="94" t="s">
-        <v>719</v>
-      </c>
-      <c r="F168" s="94"/>
+        <v>722</v>
+      </c>
+      <c r="E168" s="97" t="s">
+        <v>723</v>
+      </c>
+      <c r="F168" s="97"/>
       <c r="G168" s="42" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="H168" s="55" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="1:11" ht="39.6">
-      <c r="A169" s="65" t="s">
-        <v>722</v>
+    <row r="169" spans="1:11" ht="38.25">
+      <c r="A169" s="66" t="s">
+        <v>726</v>
       </c>
       <c r="B169" s="48" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
-      <c r="E169" s="53"/>
-      <c r="F169" s="53"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="1:11" ht="39.6">
-      <c r="A170" s="65" t="s">
-        <v>724</v>
+    <row r="170" spans="1:11" ht="38.25">
+      <c r="A170" s="66" t="s">
+        <v>728</v>
       </c>
       <c r="B170" s="48" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D170" s="42" t="s">
-        <v>727</v>
-      </c>
-      <c r="E170" s="94" t="s">
-        <v>728</v>
-      </c>
-      <c r="F170" s="94"/>
+        <v>731</v>
+      </c>
+      <c r="E170" s="97" t="s">
+        <v>732</v>
+      </c>
+      <c r="F170" s="97"/>
       <c r="G170" s="28" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="H170" s="42" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="1:11" ht="66">
-      <c r="A171" s="65" t="s">
-        <v>731</v>
+    <row r="171" spans="1:11" ht="63.75">
+      <c r="A171" s="66" t="s">
+        <v>735</v>
       </c>
       <c r="B171" s="48" t="s">
-        <v>281</v>
-      </c>
-      <c r="C171" s="90" t="s">
-        <v>685</v>
+        <v>285</v>
+      </c>
+      <c r="C171" s="93" t="s">
+        <v>689</v>
       </c>
       <c r="D171" s="28"/>
-      <c r="E171" s="94" t="s">
-        <v>732</v>
-      </c>
-      <c r="F171" s="94"/>
+      <c r="E171" s="97" t="s">
+        <v>736</v>
+      </c>
+      <c r="F171" s="97"/>
       <c r="G171" s="42" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H171" s="28" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="1:11" ht="39.6">
-      <c r="A172" s="65" t="s">
-        <v>735</v>
+    <row r="172" spans="1:11" ht="38.25">
+      <c r="A172" s="66" t="s">
+        <v>739</v>
       </c>
       <c r="B172" s="48" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="C172" s="28" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D172" s="28" t="s">
-        <v>738</v>
-      </c>
-      <c r="E172" s="94" t="s">
-        <v>739</v>
-      </c>
-      <c r="F172" s="94"/>
+        <v>742</v>
+      </c>
+      <c r="E172" s="97" t="s">
+        <v>743</v>
+      </c>
+      <c r="F172" s="97"/>
       <c r="G172" s="42" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="H172" s="42" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="1:11" ht="39.6">
-      <c r="A173" s="65" t="s">
-        <v>742</v>
+    <row r="173" spans="1:11" ht="38.25">
+      <c r="A173" s="66" t="s">
+        <v>746</v>
       </c>
       <c r="B173" s="48" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C173" s="28" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="D173" s="28" t="s">
-        <v>745</v>
-      </c>
-      <c r="E173" s="94" t="s">
-        <v>746</v>
-      </c>
-      <c r="F173" s="94"/>
+        <v>749</v>
+      </c>
+      <c r="E173" s="97" t="s">
+        <v>750</v>
+      </c>
+      <c r="F173" s="97"/>
       <c r="G173" s="42" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="H173" s="42" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="1:11" ht="13.2">
-      <c r="A174" s="72" t="s">
-        <v>749</v>
+    <row r="174" spans="1:11" ht="12.75">
+      <c r="A174" s="73" t="s">
+        <v>753</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
-      <c r="E174" s="53"/>
-      <c r="F174" s="53"/>
+      <c r="E174" s="58"/>
+      <c r="F174" s="58"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="1:11" ht="26.4">
-      <c r="A175" s="51" t="s">
-        <v>751</v>
+    <row r="175" spans="1:11" ht="25.5">
+      <c r="A175" s="52" t="s">
+        <v>755</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C175" s="28" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E175" s="94" t="s">
-        <v>752</v>
-      </c>
-      <c r="F175" s="94"/>
-      <c r="G175" s="95" t="s">
-        <v>219</v>
-      </c>
-      <c r="H175" s="96" t="s">
-        <v>753</v>
+        <v>412</v>
+      </c>
+      <c r="E175" s="97" t="s">
+        <v>756</v>
+      </c>
+      <c r="F175" s="97"/>
+      <c r="G175" s="98" t="s">
+        <v>223</v>
+      </c>
+      <c r="H175" s="99" t="s">
+        <v>757</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="1:11" ht="13.2">
-      <c r="A176" s="51" t="s">
-        <v>754</v>
+    <row r="176" spans="1:11" ht="12.75">
+      <c r="A176" s="52" t="s">
+        <v>758</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>755</v>
-      </c>
-      <c r="C176" s="85" t="s">
-        <v>465</v>
+        <v>759</v>
+      </c>
+      <c r="C176" s="88" t="s">
+        <v>469</v>
       </c>
       <c r="D176" s="3"/>
-      <c r="E176" s="97"/>
-      <c r="F176" s="97"/>
+      <c r="E176" s="100"/>
+      <c r="F176" s="100"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="1:11" ht="26.4">
+    <row r="177" spans="1:11" ht="25.5">
       <c r="A177" s="41" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B177" s="40" t="s">
-        <v>757</v>
-      </c>
-      <c r="C177" s="98" t="s">
-        <v>465</v>
+        <v>761</v>
+      </c>
+      <c r="C177" s="101" t="s">
+        <v>469</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="32" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="F177" s="42"/>
       <c r="G177" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H177" s="28" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="1:11" ht="39.6">
-      <c r="A178" s="65" t="s">
-        <v>760</v>
+    <row r="178" spans="1:11" ht="38.25">
+      <c r="A178" s="66" t="s">
+        <v>764</v>
       </c>
       <c r="B178" s="48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E178" s="42" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F178" s="42"/>
       <c r="G178" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H178" s="32" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="1:11" ht="52.8">
-      <c r="A179" s="65" t="s">
-        <v>763</v>
+    <row r="179" spans="1:11" ht="51">
+      <c r="A179" s="66" t="s">
+        <v>767</v>
       </c>
       <c r="B179" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C179" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D179" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F179" s="42"/>
       <c r="G179" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H179" s="32" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="1:11" ht="52.8">
-      <c r="A180" s="65" t="s">
-        <v>766</v>
+    <row r="180" spans="1:11" ht="51">
+      <c r="A180" s="66" t="s">
+        <v>770</v>
       </c>
       <c r="B180" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C180" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D180" s="28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F180" s="42"/>
       <c r="G180" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H180" s="32" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="1:11" ht="52.8">
-      <c r="A181" s="65" t="s">
-        <v>769</v>
+    <row r="181" spans="1:11" ht="51">
+      <c r="A181" s="66" t="s">
+        <v>773</v>
       </c>
       <c r="B181" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C181" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E181" s="42" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F181" s="42"/>
       <c r="G181" s="32" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="H181" s="32" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="1:11" ht="66">
-      <c r="A182" s="65" t="s">
-        <v>773</v>
+    <row r="182" spans="1:11" ht="63.75">
+      <c r="A182" s="66" t="s">
+        <v>777</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C182" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D182" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E182" s="42" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="F182" s="42"/>
       <c r="G182" s="42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H182" s="42" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="1:11" ht="66">
-      <c r="A183" s="65" t="s">
-        <v>776</v>
+    <row r="183" spans="1:11" ht="63.75">
+      <c r="A183" s="66" t="s">
+        <v>780</v>
       </c>
       <c r="B183" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C183" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D183" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E183" s="42" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F183" s="42"/>
       <c r="G183" s="42" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H183" s="42" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="1:11" ht="66">
-      <c r="A184" s="65" t="s">
-        <v>778</v>
+    <row r="184" spans="1:11" ht="63.75">
+      <c r="A184" s="66" t="s">
+        <v>782</v>
       </c>
       <c r="B184" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C184" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D184" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E184" s="42" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="F184" s="42"/>
       <c r="G184" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H184" s="42" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="1:11" ht="66">
-      <c r="A185" s="65" t="s">
-        <v>780</v>
+    <row r="185" spans="1:11" ht="63.75">
+      <c r="A185" s="66" t="s">
+        <v>784</v>
       </c>
       <c r="B185" s="48" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D185" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E185" s="42" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="F185" s="42"/>
       <c r="G185" s="38" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H185" s="38" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="1:11" ht="66">
-      <c r="A186" s="65" t="s">
-        <v>783</v>
+    <row r="186" spans="1:11" ht="63.75">
+      <c r="A186" s="66" t="s">
+        <v>787</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C186" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D186" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E186" s="42" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="F186" s="42"/>
       <c r="G186" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H186" s="42" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="1:11" ht="26.4">
+    <row r="187" spans="1:11" ht="25.5">
       <c r="A187" s="41" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B187" s="40" t="s">
-        <v>786</v>
-      </c>
-      <c r="C187" s="98" t="s">
-        <v>465</v>
-      </c>
-      <c r="D187" s="99"/>
+        <v>790</v>
+      </c>
+      <c r="C187" s="101" t="s">
+        <v>469</v>
+      </c>
+      <c r="D187" s="102"/>
       <c r="E187" s="32" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F187" s="28"/>
       <c r="G187" s="28" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="H187" s="28" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="1:11" ht="39.6">
-      <c r="A188" s="65" t="s">
-        <v>789</v>
+    <row r="188" spans="1:11" ht="38.25">
+      <c r="A188" s="66" t="s">
+        <v>793</v>
       </c>
       <c r="B188" s="48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C188" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D188" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E188" s="42" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F188" s="42"/>
       <c r="G188" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H188" s="32" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="1:11" ht="52.8">
-      <c r="A189" s="65" t="s">
-        <v>792</v>
+    <row r="189" spans="1:11" ht="51">
+      <c r="A189" s="66" t="s">
+        <v>796</v>
       </c>
       <c r="B189" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C189" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D189" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E189" s="42" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="F189" s="42"/>
       <c r="G189" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H189" s="32" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="1:11" ht="52.8">
-      <c r="A190" s="65" t="s">
-        <v>795</v>
+    <row r="190" spans="1:11" ht="51">
+      <c r="A190" s="66" t="s">
+        <v>799</v>
       </c>
       <c r="B190" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C190" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E190" s="42" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F190" s="42"/>
       <c r="G190" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H190" s="32" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="1:11" ht="52.8">
-      <c r="A191" s="65" t="s">
-        <v>798</v>
+    <row r="191" spans="1:11" ht="51">
+      <c r="A191" s="66" t="s">
+        <v>802</v>
       </c>
       <c r="B191" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C191" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E191" s="42" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F191" s="42"/>
       <c r="G191" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H191" s="32" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="1:11" ht="66">
-      <c r="A192" s="65" t="s">
-        <v>801</v>
+    <row r="192" spans="1:11" ht="63.75">
+      <c r="A192" s="66" t="s">
+        <v>805</v>
       </c>
       <c r="B192" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C192" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E192" s="42" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F192" s="42"/>
       <c r="G192" s="32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H192" s="32" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="1:11" ht="66">
-      <c r="A193" s="65" t="s">
-        <v>804</v>
+    <row r="193" spans="1:11" ht="63.75">
+      <c r="A193" s="66" t="s">
+        <v>808</v>
       </c>
       <c r="B193" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C193" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F193" s="42"/>
       <c r="G193" s="42" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H193" s="42" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
     </row>
-    <row r="194" spans="1:11" ht="66">
-      <c r="A194" s="65" t="s">
-        <v>806</v>
+    <row r="194" spans="1:11" ht="63.75">
+      <c r="A194" s="66" t="s">
+        <v>810</v>
       </c>
       <c r="B194" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C194" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="F194" s="42"/>
       <c r="G194" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H194" s="42" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
     </row>
-    <row r="195" spans="1:11" ht="66">
-      <c r="A195" s="65" t="s">
-        <v>808</v>
+    <row r="195" spans="1:11" ht="63.75">
+      <c r="A195" s="66" t="s">
+        <v>812</v>
       </c>
       <c r="B195" s="48" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C195" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D195" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="F195" s="42"/>
       <c r="G195" s="38" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H195" s="38" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
     </row>
-    <row r="196" spans="1:11" ht="66">
-      <c r="A196" s="65" t="s">
-        <v>811</v>
+    <row r="196" spans="1:11" ht="63.75">
+      <c r="A196" s="66" t="s">
+        <v>815</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C196" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E196" s="42" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F196" s="42"/>
       <c r="G196" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H196" s="42" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
     </row>
-    <row r="197" spans="1:11" ht="39.6">
+    <row r="197" spans="1:11" ht="38.25">
       <c r="A197" s="41" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B197" s="40" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="E197" s="42" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="F197" s="42"/>
-      <c r="G197" s="95" t="s">
-        <v>818</v>
-      </c>
-      <c r="H197" s="96" t="s">
-        <v>819</v>
+      <c r="G197" s="98" t="s">
+        <v>822</v>
+      </c>
+      <c r="H197" s="99" t="s">
+        <v>823</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
     </row>
-    <row r="198" spans="1:11" ht="39.6">
+    <row r="198" spans="1:11" ht="38.25">
       <c r="A198" s="41" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B198" s="40" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="32" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="F198" s="28"/>
       <c r="G198" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H198" s="28" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="1:11" ht="39.6">
-      <c r="A199" s="65" t="s">
-        <v>823</v>
+    <row r="199" spans="1:11" ht="38.25">
+      <c r="A199" s="66" t="s">
+        <v>827</v>
       </c>
       <c r="B199" s="48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C199" s="28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="F199" s="42"/>
       <c r="G199" s="32" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H199" s="32" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="1:11" ht="52.8">
-      <c r="A200" s="65" t="s">
-        <v>826</v>
+    <row r="200" spans="1:11" ht="51">
+      <c r="A200" s="66" t="s">
+        <v>830</v>
       </c>
       <c r="B200" s="48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C200" s="28" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F200" s="42"/>
       <c r="G200" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H200" s="32" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="1:11" ht="52.8">
-      <c r="A201" s="65" t="s">
-        <v>829</v>
+    <row r="201" spans="1:11" ht="51">
+      <c r="A201" s="66" t="s">
+        <v>833</v>
       </c>
       <c r="B201" s="48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C201" s="28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E201" s="42" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="F201" s="42"/>
       <c r="G201" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H201" s="32" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
     </row>
-    <row r="202" spans="1:11" ht="52.8">
-      <c r="A202" s="65" t="s">
-        <v>832</v>
+    <row r="202" spans="1:11" ht="51">
+      <c r="A202" s="66" t="s">
+        <v>836</v>
       </c>
       <c r="B202" s="48" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="E202" s="42" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F202" s="42"/>
       <c r="G202" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H202" s="32" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="1:11" ht="66">
-      <c r="A203" s="65" t="s">
-        <v>835</v>
+    <row r="203" spans="1:11" ht="63.75">
+      <c r="A203" s="66" t="s">
+        <v>839</v>
       </c>
       <c r="B203" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C203" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E203" s="42" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F203" s="42"/>
       <c r="G203" s="42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H203" s="42" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
-    <row r="204" spans="1:11" ht="66">
-      <c r="A204" s="65" t="s">
-        <v>838</v>
+    <row r="204" spans="1:11" ht="63.75">
+      <c r="A204" s="66" t="s">
+        <v>842</v>
       </c>
       <c r="B204" s="48" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C204" s="42" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E204" s="42" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F204" s="42"/>
       <c r="G204" s="42" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H204" s="42" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
     </row>
-    <row r="205" spans="1:11" ht="66">
-      <c r="A205" s="65" t="s">
-        <v>840</v>
+    <row r="205" spans="1:11" ht="63.75">
+      <c r="A205" s="66" t="s">
+        <v>844</v>
       </c>
       <c r="B205" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C205" s="28" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E205" s="42" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="F205" s="42"/>
       <c r="G205" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H205" s="42" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
-    <row r="206" spans="1:11" ht="66">
-      <c r="A206" s="65" t="s">
-        <v>842</v>
+    <row r="206" spans="1:11" ht="63.75">
+      <c r="A206" s="66" t="s">
+        <v>846</v>
       </c>
       <c r="B206" s="48" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="C206" s="28" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E206" s="42" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F206" s="42"/>
       <c r="G206" s="38" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H206" s="38" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="1:11" ht="66">
-      <c r="A207" s="65" t="s">
-        <v>845</v>
+    <row r="207" spans="1:11" ht="63.75">
+      <c r="A207" s="66" t="s">
+        <v>849</v>
       </c>
       <c r="B207" s="48" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C207" s="28" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D207" s="28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E207" s="42" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F207" s="42"/>
       <c r="G207" s="42" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="H207" s="42" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
     </row>
-    <row r="208" spans="1:11" ht="26.4">
-      <c r="A208" s="51" t="s">
-        <v>847</v>
+    <row r="208" spans="1:11" ht="25.5">
+      <c r="A208" s="52" t="s">
+        <v>851</v>
       </c>
       <c r="B208" s="31" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C208" s="42" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>850</v>
-      </c>
-      <c r="E208" s="100" t="s">
-        <v>851</v>
-      </c>
-      <c r="F208" s="100"/>
-      <c r="G208" s="101" t="s">
-        <v>852</v>
-      </c>
-      <c r="H208" s="101" t="s">
-        <v>853</v>
+        <v>854</v>
+      </c>
+      <c r="E208" s="103" t="s">
+        <v>855</v>
+      </c>
+      <c r="F208" s="103"/>
+      <c r="G208" s="104" t="s">
+        <v>856</v>
+      </c>
+      <c r="H208" s="104" t="s">
+        <v>857</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="1:11" ht="13.2">
-      <c r="A209" s="72" t="s">
-        <v>854</v>
+    <row r="209" spans="1:11" ht="12.75">
+      <c r="A209" s="73" t="s">
+        <v>858</v>
       </c>
       <c r="B209" s="26" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="C209" s="29"/>
       <c r="D209" s="29"/>
@@ -18367,19 +18421,19 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="1:11" ht="79.2">
-      <c r="A210" s="51" t="s">
-        <v>856</v>
+    <row r="210" spans="1:11" ht="76.5">
+      <c r="A210" s="52" t="s">
+        <v>860</v>
       </c>
       <c r="B210" s="31" t="s">
-        <v>857</v>
-      </c>
-      <c r="C210" s="102" t="s">
-        <v>465</v>
-      </c>
-      <c r="D210" s="52"/>
-      <c r="E210" s="52" t="s">
-        <v>858</v>
+        <v>861</v>
+      </c>
+      <c r="C210" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D210" s="53"/>
+      <c r="E210" s="53" t="s">
+        <v>862</v>
       </c>
       <c r="F210" s="29"/>
       <c r="G210" s="29"/>
@@ -18388,18 +18442,18 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="1:11" ht="39.6">
+    <row r="211" spans="1:11" ht="38.25">
       <c r="A211" s="41" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B211" s="40" t="s">
-        <v>860</v>
-      </c>
-      <c r="C211" s="102" t="s">
-        <v>861</v>
-      </c>
-      <c r="D211" s="52" t="s">
-        <v>862</v>
+        <v>864</v>
+      </c>
+      <c r="C211" s="105" t="s">
+        <v>865</v>
+      </c>
+      <c r="D211" s="53" t="s">
+        <v>866</v>
       </c>
       <c r="E211" s="29"/>
       <c r="F211" s="29"/>
@@ -18409,153 +18463,153 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="1:11" ht="66">
-      <c r="A212" s="65" t="s">
-        <v>863</v>
+    <row r="212" spans="1:11" ht="63.75">
+      <c r="A212" s="66" t="s">
+        <v>867</v>
       </c>
       <c r="B212" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="C212" s="52" t="s">
-        <v>864</v>
-      </c>
-      <c r="D212" s="52" t="s">
-        <v>865</v>
-      </c>
-      <c r="E212" s="52" t="s">
-        <v>866</v>
+        <v>422</v>
+      </c>
+      <c r="C212" s="53" t="s">
+        <v>868</v>
+      </c>
+      <c r="D212" s="53" t="s">
+        <v>869</v>
+      </c>
+      <c r="E212" s="53" t="s">
+        <v>870</v>
       </c>
       <c r="F212" s="29"/>
       <c r="G212" s="29" t="s">
-        <v>867</v>
-      </c>
-      <c r="H212" s="103" t="s">
-        <v>868</v>
+        <v>871</v>
+      </c>
+      <c r="H212" s="106" t="s">
+        <v>872</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
-    <row r="213" spans="1:11" ht="79.2">
-      <c r="A213" s="104" t="s">
-        <v>863</v>
-      </c>
-      <c r="B213" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="C213" s="105" t="s">
-        <v>864</v>
-      </c>
-      <c r="D213" s="105" t="s">
-        <v>865</v>
-      </c>
-      <c r="E213" s="52" t="s">
-        <v>866</v>
+    <row r="213" spans="1:11" ht="76.5">
+      <c r="A213" s="107" t="s">
+        <v>867</v>
+      </c>
+      <c r="B213" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="C213" s="108" t="s">
+        <v>868</v>
+      </c>
+      <c r="D213" s="108" t="s">
+        <v>869</v>
+      </c>
+      <c r="E213" s="53" t="s">
+        <v>870</v>
       </c>
       <c r="F213" s="29"/>
       <c r="G213" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H213" s="103" t="s">
-        <v>870</v>
+        <v>873</v>
+      </c>
+      <c r="H213" s="106" t="s">
+        <v>874</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="1:11" ht="66">
-      <c r="A214" s="65" t="s">
-        <v>871</v>
+    <row r="214" spans="1:11" ht="63.75">
+      <c r="A214" s="66" t="s">
+        <v>875</v>
       </c>
       <c r="B214" s="48" t="s">
-        <v>872</v>
-      </c>
-      <c r="C214" s="52" t="s">
-        <v>864</v>
-      </c>
-      <c r="D214" s="52" t="s">
-        <v>865</v>
-      </c>
-      <c r="E214" s="52" t="s">
-        <v>873</v>
+        <v>876</v>
+      </c>
+      <c r="C214" s="53" t="s">
+        <v>868</v>
+      </c>
+      <c r="D214" s="53" t="s">
+        <v>869</v>
+      </c>
+      <c r="E214" s="53" t="s">
+        <v>877</v>
       </c>
       <c r="F214" s="29"/>
       <c r="G214" s="29" t="s">
-        <v>867</v>
-      </c>
-      <c r="H214" s="103" t="s">
-        <v>874</v>
+        <v>871</v>
+      </c>
+      <c r="H214" s="106" t="s">
+        <v>878</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="1:11" ht="79.2">
-      <c r="A215" s="104" t="s">
-        <v>871</v>
-      </c>
-      <c r="B215" s="63" t="s">
-        <v>872</v>
-      </c>
-      <c r="C215" s="105" t="s">
-        <v>864</v>
-      </c>
-      <c r="D215" s="105" t="s">
-        <v>865</v>
-      </c>
-      <c r="E215" s="52" t="s">
-        <v>873</v>
+    <row r="215" spans="1:11" ht="76.5">
+      <c r="A215" s="107" t="s">
+        <v>875</v>
+      </c>
+      <c r="B215" s="64" t="s">
+        <v>876</v>
+      </c>
+      <c r="C215" s="108" t="s">
+        <v>868</v>
+      </c>
+      <c r="D215" s="108" t="s">
+        <v>869</v>
+      </c>
+      <c r="E215" s="53" t="s">
+        <v>877</v>
       </c>
       <c r="F215" s="29"/>
       <c r="G215" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H215" s="103" t="s">
-        <v>875</v>
+        <v>873</v>
+      </c>
+      <c r="H215" s="106" t="s">
+        <v>879</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="1:11" ht="92.4">
+    <row r="216" spans="1:11" ht="89.25">
       <c r="A216" s="41" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>877</v>
-      </c>
-      <c r="C216" s="102" t="s">
-        <v>861</v>
-      </c>
-      <c r="D216" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E216" s="52" t="s">
-        <v>878</v>
+        <v>881</v>
+      </c>
+      <c r="C216" s="105" t="s">
+        <v>865</v>
+      </c>
+      <c r="D216" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E216" s="53" t="s">
+        <v>882</v>
       </c>
       <c r="F216" s="29"/>
       <c r="G216" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H216" s="103" t="s">
-        <v>879</v>
+        <v>873</v>
+      </c>
+      <c r="H216" s="106" t="s">
+        <v>883</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="1:11" ht="66">
+    <row r="217" spans="1:11" ht="63.75">
       <c r="A217" s="41" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B217" s="40" t="s">
-        <v>881</v>
-      </c>
-      <c r="C217" s="102" t="s">
-        <v>465</v>
-      </c>
-      <c r="D217" s="52"/>
-      <c r="E217" s="52"/>
+        <v>885</v>
+      </c>
+      <c r="C217" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D217" s="53"/>
+      <c r="E217" s="53"/>
       <c r="F217" s="29"/>
       <c r="G217" s="29"/>
       <c r="H217" s="29"/>
@@ -18563,234 +18617,234 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="1:11" ht="79.2">
-      <c r="A218" s="65" t="s">
-        <v>882</v>
+    <row r="218" spans="1:11" ht="76.5">
+      <c r="A218" s="66" t="s">
+        <v>886</v>
       </c>
       <c r="B218" s="48" t="s">
-        <v>883</v>
-      </c>
-      <c r="C218" s="52" t="s">
-        <v>861</v>
-      </c>
-      <c r="D218" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E218" s="52" t="s">
-        <v>884</v>
+        <v>887</v>
+      </c>
+      <c r="C218" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="D218" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E218" s="53" t="s">
+        <v>888</v>
       </c>
       <c r="F218" s="29"/>
       <c r="G218" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H218" s="103" t="s">
-        <v>885</v>
+        <v>873</v>
+      </c>
+      <c r="H218" s="106" t="s">
+        <v>889</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="1:11" ht="79.2">
-      <c r="A219" s="65" t="s">
-        <v>886</v>
+    <row r="219" spans="1:11" ht="76.5">
+      <c r="A219" s="66" t="s">
+        <v>890</v>
       </c>
       <c r="B219" s="48" t="s">
-        <v>887</v>
-      </c>
-      <c r="C219" s="52" t="s">
-        <v>861</v>
-      </c>
-      <c r="D219" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E219" s="52" t="s">
-        <v>888</v>
+        <v>891</v>
+      </c>
+      <c r="C219" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="D219" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E219" s="53" t="s">
+        <v>892</v>
       </c>
       <c r="F219" s="29"/>
       <c r="G219" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H219" s="103" t="s">
-        <v>889</v>
+        <v>873</v>
+      </c>
+      <c r="H219" s="106" t="s">
+        <v>893</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="1:11" ht="79.2">
-      <c r="A220" s="65" t="s">
-        <v>890</v>
+    <row r="220" spans="1:11" ht="76.5">
+      <c r="A220" s="66" t="s">
+        <v>894</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>891</v>
-      </c>
-      <c r="C220" s="52" t="s">
-        <v>861</v>
-      </c>
-      <c r="D220" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E220" s="52" t="s">
-        <v>892</v>
+        <v>895</v>
+      </c>
+      <c r="C220" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="D220" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E220" s="53" t="s">
+        <v>896</v>
       </c>
       <c r="F220" s="29"/>
       <c r="G220" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H220" s="106" t="s">
-        <v>893</v>
+        <v>873</v>
+      </c>
+      <c r="H220" s="109" t="s">
+        <v>897</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="1:11" ht="92.4">
+    <row r="221" spans="1:11" ht="89.25">
       <c r="A221" s="41" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B221" s="40" t="s">
-        <v>895</v>
-      </c>
-      <c r="C221" s="102" t="s">
-        <v>861</v>
-      </c>
-      <c r="D221" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E221" s="52" t="s">
-        <v>896</v>
+        <v>899</v>
+      </c>
+      <c r="C221" s="105" t="s">
+        <v>865</v>
+      </c>
+      <c r="D221" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E221" s="53" t="s">
+        <v>900</v>
       </c>
       <c r="F221" s="29"/>
       <c r="G221" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H221" s="103" t="s">
-        <v>897</v>
+        <v>873</v>
+      </c>
+      <c r="H221" s="106" t="s">
+        <v>901</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="1:11" ht="79.2">
+    <row r="222" spans="1:11" ht="76.5">
       <c r="A222" s="41" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="B222" s="40" t="s">
-        <v>899</v>
-      </c>
-      <c r="C222" s="102" t="s">
-        <v>861</v>
-      </c>
-      <c r="D222" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E222" s="52" t="s">
-        <v>900</v>
+        <v>903</v>
+      </c>
+      <c r="C222" s="105" t="s">
+        <v>865</v>
+      </c>
+      <c r="D222" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E222" s="53" t="s">
+        <v>904</v>
       </c>
       <c r="F222" s="29"/>
       <c r="G222" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H222" s="103" t="s">
-        <v>901</v>
+        <v>873</v>
+      </c>
+      <c r="H222" s="106" t="s">
+        <v>905</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="1:11" ht="79.2">
+    <row r="223" spans="1:11" ht="76.5">
       <c r="A223" s="41" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="B223" s="40" t="s">
-        <v>903</v>
-      </c>
-      <c r="C223" s="102" t="s">
-        <v>861</v>
-      </c>
-      <c r="D223" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E223" s="52" t="s">
-        <v>904</v>
+        <v>907</v>
+      </c>
+      <c r="C223" s="105" t="s">
+        <v>865</v>
+      </c>
+      <c r="D223" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E223" s="53" t="s">
+        <v>908</v>
       </c>
       <c r="F223" s="29"/>
       <c r="G223" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H223" s="106" t="s">
-        <v>905</v>
+        <v>873</v>
+      </c>
+      <c r="H223" s="109" t="s">
+        <v>909</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="1:11" ht="79.2">
+    <row r="224" spans="1:11" ht="76.5">
       <c r="A224" s="41" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B224" s="40" t="s">
-        <v>907</v>
-      </c>
-      <c r="C224" s="102" t="s">
-        <v>861</v>
-      </c>
-      <c r="D224" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E224" s="52" t="s">
-        <v>908</v>
+        <v>911</v>
+      </c>
+      <c r="C224" s="105" t="s">
+        <v>865</v>
+      </c>
+      <c r="D224" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E224" s="53" t="s">
+        <v>912</v>
       </c>
       <c r="F224" s="29"/>
       <c r="G224" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H224" s="103" t="s">
-        <v>909</v>
+        <v>873</v>
+      </c>
+      <c r="H224" s="106" t="s">
+        <v>913</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
     </row>
-    <row r="225" spans="1:11" ht="79.2">
+    <row r="225" spans="1:11" ht="76.5">
       <c r="A225" s="41" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="B225" s="40" t="s">
-        <v>911</v>
-      </c>
-      <c r="C225" s="102" t="s">
-        <v>861</v>
-      </c>
-      <c r="D225" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E225" s="52" t="s">
-        <v>912</v>
+        <v>915</v>
+      </c>
+      <c r="C225" s="105" t="s">
+        <v>865</v>
+      </c>
+      <c r="D225" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E225" s="53" t="s">
+        <v>916</v>
       </c>
       <c r="F225" s="29"/>
       <c r="G225" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H225" s="106" t="s">
-        <v>913</v>
+        <v>873</v>
+      </c>
+      <c r="H225" s="109" t="s">
+        <v>917</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="1:11" ht="39.6">
+    <row r="226" spans="1:11" ht="38.25">
       <c r="A226" s="41" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="B226" s="40" t="s">
-        <v>915</v>
-      </c>
-      <c r="C226" s="102" t="s">
-        <v>465</v>
-      </c>
-      <c r="D226" s="52"/>
-      <c r="E226" s="52"/>
+        <v>919</v>
+      </c>
+      <c r="C226" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D226" s="53"/>
+      <c r="E226" s="53"/>
       <c r="F226" s="29"/>
       <c r="G226" s="29"/>
       <c r="H226" s="29"/>
@@ -18798,72 +18852,72 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
-    <row r="227" spans="1:11" ht="79.2">
-      <c r="A227" s="65" t="s">
-        <v>916</v>
+    <row r="227" spans="1:11" ht="76.5">
+      <c r="A227" s="66" t="s">
+        <v>920</v>
       </c>
       <c r="B227" s="48" t="s">
-        <v>917</v>
-      </c>
-      <c r="C227" s="52" t="s">
-        <v>861</v>
-      </c>
-      <c r="D227" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E227" s="52" t="s">
-        <v>918</v>
+        <v>921</v>
+      </c>
+      <c r="C227" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="D227" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E227" s="53" t="s">
+        <v>922</v>
       </c>
       <c r="F227" s="29"/>
       <c r="G227" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H227" s="106" t="s">
-        <v>919</v>
+        <v>873</v>
+      </c>
+      <c r="H227" s="109" t="s">
+        <v>923</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="1:11" ht="79.2">
-      <c r="A228" s="65" t="s">
-        <v>920</v>
+    <row r="228" spans="1:11" ht="76.5">
+      <c r="A228" s="66" t="s">
+        <v>924</v>
       </c>
       <c r="B228" s="48" t="s">
-        <v>921</v>
-      </c>
-      <c r="C228" s="52" t="s">
-        <v>861</v>
-      </c>
-      <c r="D228" s="52" t="s">
-        <v>862</v>
-      </c>
-      <c r="E228" s="52" t="s">
-        <v>922</v>
+        <v>925</v>
+      </c>
+      <c r="C228" s="53" t="s">
+        <v>865</v>
+      </c>
+      <c r="D228" s="53" t="s">
+        <v>866</v>
+      </c>
+      <c r="E228" s="53" t="s">
+        <v>926</v>
       </c>
       <c r="F228" s="29"/>
       <c r="G228" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H228" s="106" t="s">
-        <v>923</v>
+        <v>873</v>
+      </c>
+      <c r="H228" s="109" t="s">
+        <v>927</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
-    <row r="229" spans="1:11" ht="79.2">
-      <c r="A229" s="51" t="s">
-        <v>924</v>
+    <row r="229" spans="1:11" ht="76.5">
+      <c r="A229" s="52" t="s">
+        <v>928</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>925</v>
-      </c>
-      <c r="C229" s="102" t="s">
-        <v>465</v>
-      </c>
-      <c r="D229" s="52"/>
-      <c r="E229" s="52"/>
+        <v>929</v>
+      </c>
+      <c r="C229" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D229" s="53"/>
+      <c r="E229" s="53"/>
       <c r="F229" s="29"/>
       <c r="G229" s="29"/>
       <c r="H229" s="29"/>
@@ -18871,43 +18925,43 @@
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
     </row>
-    <row r="230" spans="1:11" ht="79.2">
+    <row r="230" spans="1:11" ht="76.5">
       <c r="A230" s="41" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="B230" s="40" t="s">
-        <v>927</v>
-      </c>
-      <c r="C230" s="107" t="s">
-        <v>579</v>
-      </c>
-      <c r="D230" s="52"/>
-      <c r="E230" s="52" t="s">
-        <v>928</v>
+        <v>931</v>
+      </c>
+      <c r="C230" s="110" t="s">
+        <v>583</v>
+      </c>
+      <c r="D230" s="53"/>
+      <c r="E230" s="53" t="s">
+        <v>932</v>
       </c>
       <c r="F230" s="29"/>
       <c r="G230" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="H230" s="106" t="s">
-        <v>929</v>
+        <v>873</v>
+      </c>
+      <c r="H230" s="109" t="s">
+        <v>933</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
     </row>
-    <row r="231" spans="1:11" ht="13.2">
-      <c r="A231" s="51" t="s">
-        <v>930</v>
+    <row r="231" spans="1:11" ht="12.75">
+      <c r="A231" s="52" t="s">
+        <v>934</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>931</v>
-      </c>
-      <c r="C231" s="102" t="s">
-        <v>465</v>
-      </c>
-      <c r="D231" s="52"/>
-      <c r="E231" s="52"/>
+        <v>935</v>
+      </c>
+      <c r="C231" s="105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D231" s="53"/>
+      <c r="E231" s="53"/>
       <c r="F231" s="29"/>
       <c r="G231" s="29"/>
       <c r="H231" s="29"/>
@@ -18915,47 +18969,49 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="1:11" ht="39.6">
+    <row r="232" spans="1:11" ht="38.25">
       <c r="A232" s="41" t="s">
-        <v>932</v>
-      </c>
-      <c r="B232" s="108"/>
-      <c r="C232" s="102" t="s">
-        <v>933</v>
-      </c>
-      <c r="D232" s="52" t="s">
-        <v>934</v>
-      </c>
-      <c r="E232" s="109" t="s">
-        <v>935</v>
+        <v>936</v>
+      </c>
+      <c r="B232" s="111" t="s">
+        <v>937</v>
+      </c>
+      <c r="C232" s="105" t="s">
+        <v>938</v>
+      </c>
+      <c r="D232" s="53" t="s">
+        <v>939</v>
+      </c>
+      <c r="E232" s="112" t="s">
+        <v>940</v>
       </c>
       <c r="F232" s="29"/>
       <c r="G232" s="29" t="s">
-        <v>936</v>
-      </c>
-      <c r="H232" s="52" t="s">
-        <v>937</v>
+        <v>941</v>
+      </c>
+      <c r="H232" s="53" t="s">
+        <v>942</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="1:11" ht="13.2">
-      <c r="A233" s="110"/>
+    <row r="233" spans="1:11" ht="12.75">
+      <c r="A233" s="113"/>
       <c r="E233" s="20"/>
       <c r="F233" s="20"/>
       <c r="G233" s="20"/>
       <c r="H233" s="20"/>
     </row>
-    <row r="234" spans="1:11" ht="13.2">
-      <c r="A234" s="110"/>
+    <row r="234" spans="1:11" ht="12.75">
+      <c r="A234" s="113"/>
       <c r="E234" s="20"/>
       <c r="F234" s="20"/>
       <c r="G234" s="20"/>
       <c r="H234" s="20"/>
     </row>
-    <row r="235" spans="1:11" ht="13.2">
-      <c r="A235" s="110"/>
+    <row r="235" spans="1:11" ht="12.75">
+      <c r="A235" s="113"/>
       <c r="E235" s="20"/>
       <c r="F235" s="20"/>
       <c r="G235" s="20"/>
@@ -19047,186 +19103,186 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" hidden="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" hidden="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="111" t="s">
-        <v>30</v>
+      <c r="A1" s="114" t="s">
+        <v>32</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="53" t="s">
-        <v>938</v>
+      <c r="A2" s="58" t="s">
+        <v>943</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D2" s="42"/>
       <c r="E2" s="32" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="53" t="s">
-        <v>938</v>
+      <c r="A3" s="58" t="s">
+        <v>943</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D3" s="42"/>
       <c r="E3" s="32" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="53" t="s">
-        <v>546</v>
+      <c r="A4" s="58" t="s">
+        <v>550</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="3" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>950</v>
-      </c>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="112"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="112"/>
-      <c r="P5" s="112"/>
-      <c r="Q5" s="112"/>
-      <c r="R5" s="112"/>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="112"/>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
+        <v>955</v>
+      </c>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="115"/>
+      <c r="P5" s="115"/>
+      <c r="Q5" s="115"/>
+      <c r="R5" s="115"/>
+      <c r="S5" s="115"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
+      <c r="V5" s="115"/>
+      <c r="W5" s="115"/>
+      <c r="X5" s="115"/>
+      <c r="Y5" s="115"/>
+      <c r="Z5" s="115"/>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="3" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="32" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>952</v>
-      </c>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="112"/>
-      <c r="M6" s="112"/>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="112"/>
-      <c r="T6" s="112"/>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="112"/>
-      <c r="X6" s="112"/>
-      <c r="Y6" s="112"/>
-      <c r="Z6" s="112"/>
+        <v>957</v>
+      </c>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
+      <c r="O6" s="115"/>
+      <c r="P6" s="115"/>
+      <c r="Q6" s="115"/>
+      <c r="R6" s="115"/>
+      <c r="S6" s="115"/>
+      <c r="T6" s="115"/>
+      <c r="U6" s="115"/>
+      <c r="V6" s="115"/>
+      <c r="W6" s="115"/>
+      <c r="X6" s="115"/>
+      <c r="Y6" s="115"/>
+      <c r="Z6" s="115"/>
     </row>
     <row r="7" spans="1:26">
-      <c r="A7" s="53" t="s">
-        <v>667</v>
+      <c r="A7" s="58" t="s">
+        <v>671</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -23224,44 +23280,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="113" t="s">
-        <v>955</v>
+      <c r="A2" s="116" t="s">
+        <v>960</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="114" t="s">
-        <v>957</v>
+      <c r="A3" s="117" t="s">
+        <v>962</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="115" t="s">
-        <v>959</v>
+      <c r="A4" s="118" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="116" t="s">
-        <v>960</v>
+      <c r="A6" s="119" t="s">
+        <v>965</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="17" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -23271,68 +23327,68 @@
       <c r="B9" s="17"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="116" t="s">
-        <v>963</v>
+      <c r="A10" s="119" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="116" t="s">
-        <v>964</v>
+      <c r="A11" s="119" t="s">
+        <v>969</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="117" t="s">
-        <v>966</v>
+      <c r="B12" s="120" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="118"/>
-      <c r="B13" s="119" t="s">
-        <v>967</v>
+      <c r="A13" s="121"/>
+      <c r="B13" s="122" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="120" t="s">
-        <v>968</v>
+      <c r="B14" s="123" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="121" t="s">
-        <v>969</v>
+      <c r="B15" s="124" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="122" t="s">
-        <v>970</v>
+      <c r="B16" s="125" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="116"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="20"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="116" t="s">
-        <v>971</v>
-      </c>
-      <c r="B18" s="123" t="s">
-        <v>972</v>
+      <c r="A18" s="119" t="s">
+        <v>976</v>
+      </c>
+      <c r="B18" s="126" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="B19" s="88"/>
+        <v>978</v>
+      </c>
+      <c r="B19" s="91"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="116" t="s">
-        <v>974</v>
-      </c>
-      <c r="B21" s="124" t="s">
-        <v>975</v>
+      <c r="A21" s="119" t="s">
+        <v>979</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -23352,64 +23408,64 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="116" t="s">
-        <v>976</v>
+      <c r="A1" s="119" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="11" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="17" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="17" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="17" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="17" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="11" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="17" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -23429,60 +23485,60 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="34.21875" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="17" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="17" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="17" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="17" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="17" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="17" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="17" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -23499,7 +23555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="20"/>
@@ -23518,62 +23574,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
-    <col min="2" max="2" width="46.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="135" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="135" t="s">
-        <v>998</v>
-      </c>
-      <c r="D1" s="136"/>
+      <c r="A1" s="138" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1" s="139"/>
+      <c r="C1" s="138" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D1" s="139"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="116" t="s">
-        <v>999</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>1002</v>
+      <c r="A2" s="119" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="119" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="125" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B3" s="125" t="s">
-        <v>1004</v>
+      <c r="A3" s="128" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B3" s="128" t="s">
+        <v>1009</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D3" s="126" t="str">
+        <v>1010</v>
+      </c>
+      <c r="D3" s="129" t="str">
         <f t="shared" ref="D3:D4" si="0">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
         <v>ADDRESS_CONTRACTING_BODY</v>
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="125" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B4" s="125" t="s">
-        <v>1004</v>
+      <c r="A4" s="128" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B4" s="128" t="s">
+        <v>1009</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D4" s="17" t="str">
         <f t="shared" si="0"/>
@@ -23582,92 +23638,92 @@
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="20" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="17" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="B6" s="17" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>1010</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D6" s="127" t="s">
-        <v>1011</v>
+      <c r="D6" s="130" t="s">
+        <v>1016</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="17" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>1014</v>
+        <v>1010</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="17" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="129" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B9" s="130" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C9" s="130" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D9" s="130" t="s">
-        <v>1020</v>
-      </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="130"/>
-      <c r="P9" s="130"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="130"/>
-      <c r="S9" s="130"/>
-      <c r="T9" s="130"/>
-      <c r="U9" s="130"/>
-      <c r="V9" s="130"/>
-      <c r="W9" s="130"/>
-      <c r="X9" s="130"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="130"/>
+      <c r="A9" s="132" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B9" s="133" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="133" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+      <c r="V9" s="133"/>
+      <c r="W9" s="133"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="133"/>
+      <c r="Z9" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23687,62 +23743,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="70.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="70.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="135" t="s">
-        <v>997</v>
-      </c>
-      <c r="B1" s="136"/>
+      <c r="A1" s="138" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B1" s="139"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="116" t="s">
-        <v>999</v>
-      </c>
-      <c r="B2" s="116" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C2" s="116" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D2" s="116" t="s">
-        <v>1002</v>
+      <c r="A2" s="119" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="119" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C2" s="119" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="17" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C5" s="128" t="s">
-        <v>1024</v>
+        <v>1031</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>1029</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>4.2.1</t>
+    <t>5.1.0</t>
   </si>
   <si>
     <r>
@@ -570,7 +570,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:AgentInRole (from CL1)</t>
+    <t>epo:Notice / epo:AgentInRole (from CL1)</t>
   </si>
   <si>
     <t>?this epo:refersToRole ?value</t>
@@ -1893,7 +1893,7 @@
     <t>CONTRACTING_BODY/JOINT_PROCUREMENT_INVOLVED</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Procedure / xsd:boolean</t>
+    <t>epo:Notice / epo:Procedure / xsd:boolean</t>
   </si>
   <si>
     <r>
@@ -1950,7 +1950,7 @@
     <t>CONTRACTING_BODY/PROCUREMENT_LAW</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Procedure / epo:ProcedureSpecificTerm / rdf:langString</t>
+    <t>epo:Notice / epo:Procedure / epo:ProcedureSpecificTerm / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -2001,7 +2001,7 @@
     <t>CONTRACTING_BODY/CENTRAL_PURCHASING</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Procedure / epo:ProcedureSpecificTerm / xsd:boolean</t>
+    <t>epo:Notice / epo:Procedure / epo:ProcedureSpecificTerm / xsd:boolean</t>
   </si>
   <si>
     <r>
@@ -2492,7 +2492,7 @@
     <t>OBJECT_CONTRACT</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation</t>
+    <t>epo:Notice / epo:NoticeAwardInformation</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation ?value .</t>
@@ -2513,7 +2513,7 @@
     <t>OBJECT_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <t>?this epo:announcesNoticeAwardInformation / epo:hasTotalAwardedValue / epo:hasAmountValue ?value .</t>
@@ -2600,7 +2600,7 @@
     <t>OBJECT_CONTRACT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
+    <t>epo:Notice / epo:NoticeAwardInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -2640,7 +2640,7 @@
     <t>II.2</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Lot</t>
+    <t>epo:Notice / epo:Lot</t>
   </si>
   <si>
     <t>?this epo:refersToLot ?value .</t>
@@ -3972,7 +3972,7 @@
     <t>PROCEDURE/NOTICE_NUMBER_OJ</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Notice /  epo:Identifier / xsd:string</t>
+    <t>epo:Notice / epo:Notice /  epo:Identifier / xsd:string</t>
   </si>
   <si>
     <r>
@@ -4087,7 +4087,7 @@
     <t>if(exists(AWARDED_CONTRACT))</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Contract</t>
+    <t>epo:Notice / epo:Contract</t>
   </si>
   <si>
     <t>?this epo:announcesContract ?value</t>
@@ -5966,7 +5966,7 @@
     <t>COMPLEMENTARY_INFO/ADDRESS_MEDIATION_BODY</t>
   </si>
   <si>
-    <t>epo:ResultNotice / epo:Mediator</t>
+    <t>epo:Notice / epo:Mediator</t>
   </si>
   <si>
     <t>VI.4.2.1</t>
@@ -6560,7 +6560,7 @@
     <t>COMPLEMENTARY_INFO/DATE_DISPATCH_NOTICE</t>
   </si>
   <si>
-    <t>epo:ResultNotice</t>
+    <t>epo:Notice</t>
   </si>
   <si>
     <r>
@@ -7368,7 +7368,7 @@
     <t>annex_d1.rml.ttl</t>
   </si>
   <si>
-    <t>result_notice.rml.ttl</t>
+    <t>notice.rml.ttl</t>
   </si>
   <si>
     <t>Informal (if possible to become formal)</t>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.5.0</t>
+    <t>5.6.0</t>
   </si>
   <si>
     <r>
@@ -4442,10 +4442,10 @@
     <t>Information about tenders</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / epo:Lot</t>
-  </si>
-  <si>
-    <t>?this epo:concernsSubmissionsForLot ?value .</t>
+    <t>epo:SubmissionStatisticalInformation / epo:LotAwardOutcome</t>
+  </si>
+  <si>
+    <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
     <t>V.2.2.1</t>
@@ -17259,7 +17259,7 @@
         <v>820</v>
       </c>
       <c r="F196" s="50"/>
-      <c r="G196" s="118" t="s">
+      <c r="G196" s="40" t="s">
         <v>821</v>
       </c>
       <c r="H196" s="119" t="s">

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1557" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="1048">
   <si>
     <t>Field</t>
   </si>
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>5.6.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <r>
@@ -555,6 +555,9 @@
     <t>?this epo:hasLegalBasis ?value</t>
   </si>
   <si>
+    <t>gen_dangling_individuals.ask.rq, gen_empty_individuals.ask.rq</t>
+  </si>
+  <si>
     <t>Section I</t>
   </si>
   <si>
@@ -633,6 +636,9 @@
     </r>
   </si>
   <si>
+    <t>gen_language_tags_exist.ask.rq</t>
+  </si>
+  <si>
     <t>I.1.2</t>
   </si>
   <si>
@@ -690,6 +696,9 @@
     </r>
   </si>
   <si>
+    <t>gen_unique_ids.ask.rq</t>
+  </si>
+  <si>
     <t>I.1.3</t>
   </si>
   <si>
@@ -1992,6 +2001,9 @@
     </r>
   </si>
   <si>
+    <t>iss_gh_map276_language_tag_exists.ask.rq</t>
+  </si>
+  <si>
     <t>I.2.2</t>
   </si>
   <si>
@@ -2275,9 +2287,6 @@
   </si>
   <si>
     <t>?this epo:hasTitle ?value .</t>
-  </si>
-  <si>
-    <t>epo:Procedure epo:hasTitle Text</t>
   </si>
   <si>
     <t>II.1.1.1</t>
@@ -3211,6 +3220,43 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:foreseesContractSpecificTerm / epo:hasOptions </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_OPTIONS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
       <t xml:space="preserve">?this epo:foreseesContractSpecificTerm / epo:hasOptions </t>
@@ -3221,7 +3267,7 @@
         <b/>
         <color theme="1"/>
       </rPr>
-      <t>true</t>
+      <t>false</t>
     </r>
     <r>
       <rPr>
@@ -3232,33 +3278,6 @@
     </r>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_OPTIONS</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">?this epo:foreseesContractSpecificTerm / epo:hasOptions </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>false</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
-  </si>
-  <si>
     <t>II.2.11.2</t>
   </si>
   <si>
@@ -3307,8 +3326,79 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
         <color rgb="FF000000"/>
       </rPr>
+      <t xml:space="preserve">?this </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">epo:isUsingEUFunds </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>true .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve">?this </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>epo:isUsingEUFunds</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t xml:space="preserve"> false .</t>
+    </r>
+  </si>
+  <si>
+    <t>II.2.13.2</t>
+  </si>
+  <si>
+    <t>Identification of the project</t>
+  </si>
+  <si>
+    <t>BT-5011</t>
+  </si>
+  <si>
+    <t>Contract EU Funds Identifier</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:Fund / rdf:langString</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FF000000"/>
+      </rPr>
       <t>?this</t>
     </r>
     <r>
@@ -3317,93 +3407,7 @@
         <b/>
         <color rgb="FF000000"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve">epo:isUsingEUFunds </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>true .</t>
-    </r>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>epo:isUsingEUFunds</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> false .</t>
-    </r>
-  </si>
-  <si>
-    <t>II.2.13.2</t>
-  </si>
-  <si>
-    <t>Identification of the project</t>
-  </si>
-  <si>
-    <t>BT-5011</t>
-  </si>
-  <si>
-    <t>Contract EU Funds Identifier</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED/P</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:Fund / rdf:langString</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>?this epo:isFundedBy /</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasDescription ?</t>
+      <t xml:space="preserve"> epo:isFundedBy / epo:hasDescription ?</t>
     </r>
     <r>
       <rPr>
@@ -3554,7 +3558,21 @@
         <rFont val="Arial"/>
         <b/>
       </rPr>
-      <t xml:space="preserve"> epo:isAccelerated ?value .</t>
+      <t xml:space="preserve"> epo:isAccelerated </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
     </r>
   </si>
   <si>
@@ -3570,9 +3588,6 @@
     <t>Procedure Accelerated Justification</t>
   </si>
   <si>
-    <t>PROCEDURE/ACCELERATED_PROC/P</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -3594,6 +3609,9 @@
       </rPr>
       <t>?value .</t>
     </r>
+  </si>
+  <si>
+    <t>iss_gh_map277_language_tag_exists.ask.rq</t>
   </si>
   <si>
     <t>IV.1.1.2</t>
@@ -3640,7 +3658,38 @@
     <t>IV.1.1.2.1</t>
   </si>
   <si>
-    <t>?this epo:isAccelerated ?value .</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isAccelerated </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
   </si>
   <si>
     <t>IV.1.1.2.2</t>
@@ -3662,6 +3711,40 @@
   </si>
   <si>
     <t>IV.1.1.3.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isAccelerated </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
   </si>
   <si>
     <t>IV.1.1.3.2</t>
@@ -4376,7 +4459,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -4448,6 +4531,9 @@
     <t>?this epo:summarisesInformationForLotAwardOutcome ?value .</t>
   </si>
   <si>
+    <t>iss_gh_map237_submissionStatInfo_relations.ask.rq</t>
+  </si>
+  <si>
     <t>V.2.2.1</t>
   </si>
   <si>
@@ -4616,7 +4702,8 @@
     <t>BT-768</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/AWARDED_TO_GROUP
+AWARD_CONTRACT/AWARDED_CONTRACT/AWARDED_TO_GROUP</t>
   </si>
   <si>
     <t>V.2.3</t>
@@ -4628,7 +4715,8 @@
     <t>V.2.3.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/OFFICIALNAME</t>
   </si>
   <si>
     <r>
@@ -4673,7 +4761,8 @@
     <t>V.2.3.2</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NATIONALID</t>
   </si>
   <si>
     <r>
@@ -4718,7 +4807,8 @@
     <t>V.2.3.3</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/ADDRESS</t>
   </si>
   <si>
     <r>
@@ -4763,7 +4853,8 @@
     <t>V.2.3.4</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/TOWN</t>
   </si>
   <si>
     <r>
@@ -4808,10 +4899,12 @@
     <t>V.2.3.5</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
-  </si>
-  <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/NUTS/@CODE</t>
+  </si>
+  <si>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/*:NUTS/@CODE</t>
   </si>
   <si>
     <r>
@@ -4859,7 +4952,8 @@
     <t>Organisation Post Code</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/POSTAL_CODE</t>
   </si>
   <si>
     <r>
@@ -4904,7 +4998,8 @@
     <t>V.2.3.7</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/COUNTRY</t>
   </si>
   <si>
     <r>
@@ -4949,7 +5044,8 @@
     <t>V.2.3.8</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/E_MAIL</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / xsd:anyURI</t>
@@ -4961,7 +5057,8 @@
     <t>V.2.3.9</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/PHONE</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2) / cpov:ContactPoint / rdf:langString</t>
@@ -4976,7 +5073,8 @@
     <t>Internet Addresses (URL)</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/URL
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/URL</t>
   </si>
   <si>
     <r>
@@ -5006,7 +5104,8 @@
     <t>V.2.3.11</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/ADDRESS_CONTRACTOR/FAX
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/ADDRESS_CONTRACTOR/FAX</t>
   </si>
   <si>
     <t>?this epo:playedBy / epo:hasPrimaryContactPoint / epo:hasFax ?value .</t>
@@ -5024,7 +5123,8 @@
     <t>Winner Size</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR/SME
+AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR/SME</t>
   </si>
   <si>
     <t>epo:AgentInRole (from CL1) / org:Organization (from CL2)  / at-voc:economic-operator-size</t>
@@ -5077,7 +5177,9 @@
     <t>BT-27</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_ESTIMATED_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_ESTIMATED_TOTAL</t>
   </si>
   <si>
     <t>epo:Lot / epo:MonetaryValue / xsd:decimal</t>
@@ -5128,7 +5230,9 @@
     <t>no direct match</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_ESTIMATED_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_ESTIMATED_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_ESTIMATED_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:Lot / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -5185,7 +5289,9 @@
     <t>Tender Value</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / xsd:decimal</t>
@@ -5226,7 +5332,9 @@
     <t>V.2.4.2.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:LotAwardOutcome / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -5267,7 +5375,9 @@
     <t>V.2.4.3</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/LOW</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/LOW
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_RANGE_TOTAL/LOW
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / MonetaryValue / xsd:decimal</t>
@@ -5315,7 +5425,9 @@
     <t>V.2.4.3.1</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/@CURRENCY</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_RANGE_TOTAL/@CURRENCY
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/@CURRENCY</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / MonetaryValue / at-voc:currency (from currency.json)</t>
@@ -5348,7 +5460,9 @@
     <t>V.2.4.4</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/HIGH</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/VALUES/VAL_RANGE_TOTAL/HIGH
+AWARD_CONTRACT/AWARDED_CONTRACT/VALUE/VAL_RANGE_TOTAL/HIGH
+AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/HIGH</t>
   </si>
   <si>
     <r>
@@ -7194,6 +7308,9 @@
       </rPr>
       <t>value</t>
     </r>
+  </si>
+  <si>
+    <t>iss_gh_map275_language_tag_exists.ask.rq</t>
   </si>
   <si>
     <t>II.1.6.1</t>
@@ -7587,12 +7704,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF999999"/>
+      <b/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FF999999"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -8074,25 +8191,25 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="9" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -8107,19 +8224,19 @@
     <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="8" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -8128,10 +8245,10 @@
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -11826,7 +11943,9 @@
       <c r="H3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="7"/>
       <c r="L3" s="29"/>
@@ -11839,10 +11958,10 @@
     </row>
     <row r="4">
       <c r="A4" s="34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -11863,22 +11982,22 @@
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -11893,28 +12012,30 @@
     </row>
     <row r="6">
       <c r="A6" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="7"/>
       <c r="L6" s="29"/>
@@ -11927,28 +12048,30 @@
     </row>
     <row r="7">
       <c r="A7" s="45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F7" s="46"/>
       <c r="G7" s="46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H7" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="7"/>
       <c r="L7" s="29"/>
@@ -11961,26 +12084,26 @@
     </row>
     <row r="8">
       <c r="A8" s="47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -11995,26 +12118,26 @@
     </row>
     <row r="9">
       <c r="A9" s="49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -12029,28 +12152,28 @@
     </row>
     <row r="10">
       <c r="A10" s="49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -12065,26 +12188,26 @@
     </row>
     <row r="11">
       <c r="A11" s="49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -12099,26 +12222,26 @@
     </row>
     <row r="12">
       <c r="A12" s="45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H12" s="46" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -12133,28 +12256,30 @@
     </row>
     <row r="13">
       <c r="A13" s="49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="7"/>
       <c r="L13" s="29"/>
@@ -12167,26 +12292,26 @@
     </row>
     <row r="14">
       <c r="A14" s="49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H14" s="51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -12201,26 +12326,26 @@
     </row>
     <row r="15">
       <c r="A15" s="47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -12235,26 +12360,26 @@
     </row>
     <row r="16">
       <c r="A16" s="49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H16" s="50" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -12269,10 +12394,10 @@
     </row>
     <row r="17">
       <c r="A17" s="47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -12293,26 +12418,26 @@
     </row>
     <row r="18">
       <c r="A18" s="52" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B18" s="53" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F18" s="44"/>
       <c r="G18" s="46" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H18" s="46" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -12327,26 +12452,26 @@
     </row>
     <row r="19">
       <c r="A19" s="55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -12361,10 +12486,10 @@
     </row>
     <row r="20">
       <c r="A20" s="34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -12385,20 +12510,20 @@
     </row>
     <row r="21">
       <c r="A21" s="38" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B21" s="39"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="40" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -12413,22 +12538,22 @@
     </row>
     <row r="22">
       <c r="A22" s="38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -12443,28 +12568,30 @@
     </row>
     <row r="23">
       <c r="A23" s="42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="46"/>
+        <v>153</v>
+      </c>
+      <c r="I23" s="46" t="s">
+        <v>62</v>
+      </c>
       <c r="J23" s="46"/>
       <c r="K23" s="58"/>
       <c r="L23" s="59"/>
@@ -12485,28 +12612,30 @@
     </row>
     <row r="24">
       <c r="A24" s="45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C24" s="46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D24" s="46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="46" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24" s="46"/>
       <c r="G24" s="46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H24" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="I24" s="44"/>
+        <v>155</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="J24" s="44"/>
       <c r="K24" s="58"/>
       <c r="L24" s="59"/>
@@ -12527,26 +12656,26 @@
     </row>
     <row r="25">
       <c r="A25" s="47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -12561,26 +12690,26 @@
     </row>
     <row r="26">
       <c r="A26" s="49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -12595,28 +12724,28 @@
     </row>
     <row r="27">
       <c r="A27" s="49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G27" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H27" s="50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -12631,26 +12760,26 @@
     </row>
     <row r="28">
       <c r="A28" s="49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -12665,26 +12794,26 @@
     </row>
     <row r="29">
       <c r="A29" s="45" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E29" s="44" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
@@ -12707,28 +12836,30 @@
     </row>
     <row r="30">
       <c r="A30" s="49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="I30" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="J30" s="4"/>
       <c r="K30" s="7"/>
       <c r="L30" s="29"/>
@@ -12741,26 +12872,26 @@
     </row>
     <row r="31">
       <c r="A31" s="49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H31" s="51" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -12775,26 +12906,26 @@
     </row>
     <row r="32">
       <c r="A32" s="47" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H32" s="50" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -12809,26 +12940,26 @@
     </row>
     <row r="33">
       <c r="A33" s="49" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B33" s="48" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="37" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H33" s="50" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -12843,10 +12974,10 @@
     </row>
     <row r="34">
       <c r="A34" s="47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -12867,28 +12998,28 @@
     </row>
     <row r="35">
       <c r="A35" s="52" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B35" s="53" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E35" s="44" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F35" s="44"/>
       <c r="G35" s="61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H35" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="I35" s="44"/>
+        <v>176</v>
+      </c>
+      <c r="I35" s="4"/>
       <c r="J35" s="44"/>
       <c r="K35" s="58"/>
       <c r="L35" s="59"/>
@@ -12909,26 +13040,26 @@
     </row>
     <row r="36">
       <c r="A36" s="55" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H36" s="50" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -12943,10 +13074,10 @@
     </row>
     <row r="37">
       <c r="A37" s="38" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B37" s="62" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -12967,22 +13098,22 @@
     </row>
     <row r="38">
       <c r="A38" s="47" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B38" s="48" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="63"/>
       <c r="E38" s="37" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F38" s="44"/>
       <c r="G38" s="37" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H38" s="50" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -12997,28 +13128,30 @@
     </row>
     <row r="39">
       <c r="A39" s="55" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H39" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="I39" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="29"/>
@@ -13031,22 +13164,22 @@
     </row>
     <row r="40">
       <c r="A40" s="42" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C40" s="46"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F40" s="44"/>
       <c r="G40" s="4" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -13069,26 +13202,26 @@
     </row>
     <row r="41">
       <c r="A41" s="64" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -13103,20 +13236,20 @@
     </row>
     <row r="42">
       <c r="A42" s="49" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B42" s="48"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="41" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="41" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -13131,26 +13264,26 @@
     </row>
     <row r="43">
       <c r="A43" s="64" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B43" s="39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="37" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -13165,20 +13298,20 @@
     </row>
     <row r="44">
       <c r="A44" s="49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B44" s="48"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="41" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F44" s="41"/>
       <c r="G44" s="41" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -13193,10 +13326,10 @@
     </row>
     <row r="45">
       <c r="A45" s="34" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B45" s="65" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -13217,10 +13350,10 @@
     </row>
     <row r="46">
       <c r="A46" s="38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -13241,33 +13374,31 @@
     </row>
     <row r="47">
       <c r="A47" s="47" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B47" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="J47" s="4"/>
       <c r="K47" s="7"/>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
@@ -13279,30 +13410,32 @@
     </row>
     <row r="48">
       <c r="A48" s="52" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B48" s="53" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C48" s="46" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E48" s="46" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F48" s="46"/>
       <c r="G48" s="46" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H48" s="46" t="s">
-        <v>232</v>
-      </c>
-      <c r="I48" s="54"/>
+        <v>235</v>
+      </c>
+      <c r="I48" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="J48" s="54"/>
-      <c r="K48" s="58"/>
+      <c r="K48" s="7"/>
       <c r="L48" s="29"/>
       <c r="M48" s="29"/>
       <c r="N48" s="29"/>
@@ -13313,26 +13446,26 @@
     </row>
     <row r="49">
       <c r="A49" s="49" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B49" s="48" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H49" s="41" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -13355,26 +13488,26 @@
     </row>
     <row r="50">
       <c r="A50" s="55" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -13389,26 +13522,26 @@
     </row>
     <row r="51">
       <c r="A51" s="47" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B51" s="48" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H51" s="40" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -13423,28 +13556,30 @@
     </row>
     <row r="52">
       <c r="A52" s="47" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D52" s="50" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="I52" s="7"/>
+        <v>260</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="29"/>
@@ -13457,10 +13592,10 @@
     </row>
     <row r="53">
       <c r="A53" s="47" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B53" s="48" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="7"/>
@@ -13481,22 +13616,22 @@
     </row>
     <row r="54">
       <c r="A54" s="47" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="40" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="63" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H54" s="63" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -13511,26 +13646,26 @@
     </row>
     <row r="55">
       <c r="A55" s="55" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B55" s="56" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D55" s="63" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="63" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H55" s="63" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -13545,26 +13680,26 @@
     </row>
     <row r="56">
       <c r="A56" s="55" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B56" s="56" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H56" s="50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -13579,26 +13714,26 @@
     </row>
     <row r="57">
       <c r="A57" s="55" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B57" s="56" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D57" s="37" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H57" s="37" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -13613,22 +13748,22 @@
     </row>
     <row r="58">
       <c r="A58" s="55" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B58" s="56" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H58" s="67" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -13643,7 +13778,7 @@
     </row>
     <row r="59">
       <c r="A59" s="38" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B59" s="39" t="s">
         <v>8</v>
@@ -13651,14 +13786,14 @@
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="57" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -13673,7 +13808,7 @@
     </row>
     <row r="60">
       <c r="A60" s="68" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B60" s="69" t="s">
         <v>8</v>
@@ -13681,14 +13816,14 @@
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="57" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="41" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="H60" s="41" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -13703,28 +13838,30 @@
     </row>
     <row r="61">
       <c r="A61" s="47" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B61" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C61" s="70" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D61" s="70" t="s">
         <v>6</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F61" s="70"/>
       <c r="G61" s="37" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H61" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="I61" s="7"/>
+        <v>300</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J61" s="7"/>
       <c r="K61" s="7"/>
       <c r="L61" s="29"/>
@@ -13737,28 +13874,30 @@
     </row>
     <row r="62">
       <c r="A62" s="55" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B62" s="56" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C62" s="70" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D62" s="70" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="F62" s="70"/>
       <c r="G62" s="37" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H62" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="I62" s="7"/>
+        <v>307</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J62" s="7"/>
       <c r="K62" s="7"/>
       <c r="L62" s="29"/>
@@ -13771,10 +13910,10 @@
     </row>
     <row r="63">
       <c r="A63" s="47" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B63" s="48" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -13795,26 +13934,26 @@
     </row>
     <row r="64">
       <c r="A64" s="55" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -13829,26 +13968,26 @@
     </row>
     <row r="65">
       <c r="A65" s="55" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B65" s="56" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F65" s="7"/>
       <c r="G65" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H65" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -13863,10 +14002,10 @@
     </row>
     <row r="66">
       <c r="A66" s="47" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B66" s="48" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -13887,28 +14026,28 @@
     </row>
     <row r="67">
       <c r="A67" s="55" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B67" s="56" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G67" s="37" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H67" s="67" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -13923,28 +14062,30 @@
     </row>
     <row r="68">
       <c r="A68" s="55" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B68" s="56" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="63" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H68" s="63" t="s">
-        <v>329</v>
-      </c>
-      <c r="I68" s="7"/>
+        <v>332</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J68" s="7"/>
       <c r="K68" s="7"/>
       <c r="L68" s="29"/>
@@ -13957,28 +14098,30 @@
     </row>
     <row r="69">
       <c r="A69" s="47" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B69" s="48" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H69" s="71" t="s">
-        <v>333</v>
-      </c>
-      <c r="I69" s="7"/>
+        <v>336</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J69" s="7"/>
       <c r="K69" s="7"/>
       <c r="L69" s="29"/>
@@ -13991,10 +14134,10 @@
     </row>
     <row r="70">
       <c r="A70" s="47" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B70" s="48" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
@@ -14019,14 +14162,14 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="40" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H71" s="67" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -14041,26 +14184,26 @@
     </row>
     <row r="72">
       <c r="A72" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E72" s="57" t="s">
         <v>339</v>
-      </c>
-      <c r="B72" s="56" t="s">
-        <v>340</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="E72" s="57" t="s">
-        <v>336</v>
       </c>
       <c r="F72" s="70"/>
       <c r="G72" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H72" s="73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -14075,28 +14218,30 @@
     </row>
     <row r="73">
       <c r="A73" s="74" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B73" s="75" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D73" s="50" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F73" s="70"/>
       <c r="G73" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H73" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="I73" s="7"/>
+        <v>354</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J73" s="7"/>
       <c r="K73" s="7"/>
       <c r="L73" s="29"/>
@@ -14109,28 +14254,30 @@
     </row>
     <row r="74">
       <c r="A74" s="74" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B74" s="75" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C74" s="50" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D74" s="50" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E74" s="40" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F74" s="50"/>
       <c r="G74" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H74" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="I74" s="7"/>
+        <v>360</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J74" s="7"/>
       <c r="K74" s="7"/>
       <c r="L74" s="29"/>
@@ -14147,14 +14294,14 @@
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="40" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H75" s="67" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -14169,26 +14316,26 @@
     </row>
     <row r="76">
       <c r="A76" s="55" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B76" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E76" s="57" t="s">
         <v>361</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E76" s="57" t="s">
-        <v>358</v>
       </c>
       <c r="F76" s="50"/>
       <c r="G76" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H76" s="73" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -14203,28 +14350,30 @@
     </row>
     <row r="77">
       <c r="A77" s="74" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B77" s="75" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D77" s="50" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E77" s="40" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F77" s="70"/>
       <c r="G77" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H77" s="76" t="s">
-        <v>351</v>
-      </c>
-      <c r="I77" s="7"/>
+        <v>354</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J77" s="7"/>
       <c r="K77" s="7"/>
       <c r="L77" s="29"/>
@@ -14237,28 +14386,30 @@
     </row>
     <row r="78">
       <c r="A78" s="74" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B78" s="75" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H78" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="I78" s="7"/>
+        <v>360</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="29"/>
@@ -14275,14 +14426,14 @@
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="40" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H79" s="67" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -14297,26 +14448,26 @@
     </row>
     <row r="80">
       <c r="A80" s="55" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B80" s="56" t="s">
+        <v>373</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E80" s="57" t="s">
         <v>370</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E80" s="57" t="s">
-        <v>367</v>
       </c>
       <c r="F80" s="50"/>
       <c r="G80" s="4" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H80" s="73" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -14331,28 +14482,30 @@
     </row>
     <row r="81">
       <c r="A81" s="74" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B81" s="75" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D81" s="50" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E81" s="40" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F81" s="63"/>
       <c r="G81" s="4" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="H81" s="76" t="s">
-        <v>357</v>
-      </c>
-      <c r="I81" s="7"/>
+        <v>360</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J81" s="7"/>
       <c r="K81" s="7"/>
       <c r="L81" s="29"/>
@@ -14365,10 +14518,10 @@
     </row>
     <row r="82">
       <c r="A82" s="47" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B82" s="48" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C82" s="50"/>
       <c r="D82" s="50"/>
@@ -14389,26 +14542,26 @@
     </row>
     <row r="83">
       <c r="A83" s="55" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B83" s="56" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D83" s="50" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E83" s="50" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F83" s="66"/>
       <c r="G83" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="H83" s="50" t="s">
-        <v>381</v>
+        <v>383</v>
+      </c>
+      <c r="H83" s="67" t="s">
+        <v>384</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -14423,26 +14576,26 @@
     </row>
     <row r="84">
       <c r="A84" s="77" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B84" s="78" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C84" s="79" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D84" s="79" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E84" s="50" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F84" s="40"/>
       <c r="G84" s="37" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H84" s="50" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -14457,28 +14610,30 @@
     </row>
     <row r="85">
       <c r="A85" s="55" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B85" s="56" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C85" s="50" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D85" s="50" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E85" s="50" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F85" s="50"/>
       <c r="G85" s="50" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H85" s="50" t="s">
-        <v>390</v>
-      </c>
-      <c r="I85" s="7"/>
+        <v>393</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J85" s="7"/>
       <c r="K85" s="7"/>
       <c r="L85" s="29"/>
@@ -14491,10 +14646,10 @@
     </row>
     <row r="86">
       <c r="A86" s="49" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B86" s="48" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -14515,26 +14670,26 @@
     </row>
     <row r="87">
       <c r="A87" s="80" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B87" s="56" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D87" s="50" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E87" s="70" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F87" s="66"/>
       <c r="G87" s="70" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H87" s="81" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -14542,26 +14697,26 @@
     </row>
     <row r="88">
       <c r="A88" s="82" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B88" s="83" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C88" s="84" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D88" s="85" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E88" s="50" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F88" s="40"/>
       <c r="G88" s="50" t="s">
-        <v>398</v>
-      </c>
-      <c r="H88" s="51" t="s">
         <v>401</v>
+      </c>
+      <c r="H88" s="86" t="s">
+        <v>404</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -14569,69 +14724,73 @@
     </row>
     <row r="89">
       <c r="A89" s="80" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B89" s="56" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D89" s="50" t="s">
-        <v>405</v>
-      </c>
-      <c r="E89" s="50" t="s">
-        <v>406</v>
+        <v>408</v>
+      </c>
+      <c r="E89" s="57" t="s">
+        <v>400</v>
       </c>
       <c r="F89" s="50"/>
       <c r="G89" s="50" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="H89" s="86" t="s">
-        <v>408</v>
-      </c>
-      <c r="I89" s="7"/>
+        <v>410</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J89" s="7"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
       <c r="A90" s="49" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B90" s="48" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H90" s="87" t="s">
-        <v>414</v>
-      </c>
-      <c r="I90" s="7"/>
+        <v>416</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J90" s="7"/>
       <c r="K90" s="7"/>
     </row>
     <row r="91">
       <c r="A91" s="88" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B91" s="65" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="40" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="41"/>
@@ -14642,7 +14801,7 @@
     </row>
     <row r="92">
       <c r="A92" s="64" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B92" s="39" t="s">
         <v>8</v>
@@ -14659,10 +14818,10 @@
     </row>
     <row r="93">
       <c r="A93" s="49" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B93" s="48" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -14676,26 +14835,26 @@
     </row>
     <row r="94">
       <c r="A94" s="80" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B94" s="56" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E94" s="50" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F94" s="50"/>
       <c r="G94" s="37" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H94" s="89" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
@@ -14703,26 +14862,26 @@
     </row>
     <row r="95">
       <c r="A95" s="74" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B95" s="75" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E95" s="50" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F95" s="50"/>
       <c r="G95" s="37" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H95" s="89" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
@@ -14730,53 +14889,55 @@
     </row>
     <row r="96">
       <c r="A96" s="74" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B96" s="75" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>438</v>
-      </c>
-      <c r="E96" s="50" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="E96" s="57" t="s">
+        <v>434</v>
       </c>
       <c r="F96" s="50"/>
       <c r="G96" s="37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H96" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="I96" s="7"/>
+        <v>441</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="J96" s="7"/>
       <c r="K96" s="7"/>
     </row>
     <row r="97">
       <c r="A97" s="80" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B97" s="56" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E97" s="50" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F97" s="50"/>
       <c r="G97" s="37" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H97" s="89" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
@@ -14784,26 +14945,26 @@
     </row>
     <row r="98">
       <c r="A98" s="74" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B98" s="75" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F98" s="50"/>
       <c r="G98" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="H98" s="37" t="s">
-        <v>446</v>
+        <v>435</v>
+      </c>
+      <c r="H98" s="67" t="s">
+        <v>448</v>
       </c>
       <c r="I98" s="7"/>
       <c r="J98" s="7"/>
@@ -14811,53 +14972,55 @@
     </row>
     <row r="99">
       <c r="A99" s="74" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B99" s="75" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F99" s="50"/>
       <c r="G99" s="37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H99" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="I99" s="7"/>
+        <v>450</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="J99" s="7"/>
       <c r="K99" s="7"/>
     </row>
     <row r="100">
       <c r="A100" s="80" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B100" s="56" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D100" s="37" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E100" s="50" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F100" s="50"/>
       <c r="G100" s="37" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H100" s="50" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="I100" s="7"/>
       <c r="J100" s="7"/>
@@ -14865,26 +15028,26 @@
     </row>
     <row r="101">
       <c r="A101" s="74" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B101" s="75" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D101" s="37" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E101" s="57" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F101" s="50"/>
       <c r="G101" s="37" t="s">
-        <v>433</v>
-      </c>
-      <c r="H101" s="37" t="s">
-        <v>446</v>
+        <v>435</v>
+      </c>
+      <c r="H101" s="67" t="s">
+        <v>456</v>
       </c>
       <c r="I101" s="7"/>
       <c r="J101" s="7"/>
@@ -14892,53 +15055,55 @@
     </row>
     <row r="102">
       <c r="A102" s="74" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B102" s="75" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D102" s="37" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E102" s="57" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F102" s="50"/>
       <c r="G102" s="37" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H102" s="90" t="s">
-        <v>448</v>
-      </c>
-      <c r="I102" s="7"/>
+        <v>450</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>442</v>
+      </c>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
       <c r="A103" s="80" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B103" s="56" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E103" s="50" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F103" s="50"/>
       <c r="G103" s="37" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H103" s="91" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="I103" s="7"/>
       <c r="J103" s="7"/>
@@ -14946,26 +15111,26 @@
     </row>
     <row r="104">
       <c r="A104" s="80" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B104" s="56" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E104" s="50" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F104" s="50"/>
       <c r="G104" s="37" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H104" s="91" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -14973,26 +15138,26 @@
     </row>
     <row r="105">
       <c r="A105" s="80" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B105" s="56" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E105" s="50" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F105" s="50"/>
       <c r="G105" s="37" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H105" s="89" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="I105" s="7"/>
       <c r="J105" s="7"/>
@@ -15000,13 +15165,13 @@
     </row>
     <row r="106">
       <c r="A106" s="49" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C106" s="92" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -15019,26 +15184,26 @@
     </row>
     <row r="107">
       <c r="A107" s="80" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B107" s="56" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="E107" s="50" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F107" s="50"/>
       <c r="G107" s="37" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="H107" s="50" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -15046,26 +15211,26 @@
     </row>
     <row r="108">
       <c r="A108" s="80" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B108" s="56" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E108" s="50" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F108" s="50"/>
       <c r="G108" s="37" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H108" s="67" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="I108" s="7"/>
       <c r="J108" s="7"/>
@@ -15073,13 +15238,13 @@
     </row>
     <row r="109">
       <c r="A109" s="49" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D109" s="63"/>
       <c r="E109" s="63"/>
@@ -15092,26 +15257,26 @@
     </row>
     <row r="110">
       <c r="A110" s="80" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B110" s="56" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E110" s="50" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F110" s="50"/>
       <c r="G110" s="37" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H110" s="67" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
@@ -15119,26 +15284,26 @@
     </row>
     <row r="111">
       <c r="A111" s="49" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E111" s="50" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F111" s="50"/>
       <c r="G111" s="37" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H111" s="67" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -15146,26 +15311,26 @@
     </row>
     <row r="112">
       <c r="A112" s="93" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B112" s="94" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C112" s="95" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D112" s="96" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E112" s="70" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F112" s="70"/>
       <c r="G112" s="63" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H112" s="97" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -15173,10 +15338,10 @@
     </row>
     <row r="113">
       <c r="A113" s="64" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -15190,22 +15355,22 @@
     </row>
     <row r="114">
       <c r="A114" s="49" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B114" s="98"/>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="57" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F114" s="40" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="H114" s="37" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
@@ -15213,33 +15378,35 @@
     </row>
     <row r="115">
       <c r="A115" s="49" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B115" s="98" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
       <c r="E115" s="50" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="50" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="H115" s="67" t="s">
-        <v>511</v>
-      </c>
-      <c r="I115" s="7"/>
+        <v>514</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
       <c r="A116" s="49" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -15253,26 +15420,26 @@
     </row>
     <row r="117">
       <c r="A117" s="80" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B117" s="56" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E117" s="50" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F117" s="50"/>
       <c r="G117" s="37" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H117" s="67" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -15280,10 +15447,10 @@
     </row>
     <row r="118">
       <c r="A118" s="49" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
@@ -15297,26 +15464,26 @@
     </row>
     <row r="119">
       <c r="A119" s="80" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B119" s="56" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="D119" s="37" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E119" s="50" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F119" s="50"/>
       <c r="G119" s="37" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -15324,24 +15491,24 @@
     </row>
     <row r="120">
       <c r="A120" s="88" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="40" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F120" s="50" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -15349,49 +15516,49 @@
     </row>
     <row r="121">
       <c r="A121" s="99" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C121" s="101"/>
       <c r="D121" s="101"/>
       <c r="E121" s="57" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F121" s="41" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H121" s="102" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="99" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B122" s="100" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
       <c r="E122" s="103" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -15399,84 +15566,88 @@
     </row>
     <row r="123">
       <c r="A123" s="49" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B123" s="48" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C123" s="63" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="D123" s="63" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="E123" s="50" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F123" s="50" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="I123" s="7"/>
+        <v>549</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
       <c r="A124" s="49" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B124" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="63" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D124" s="63" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E124" s="50" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F124" s="50" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H124" s="71" t="s">
-        <v>552</v>
-      </c>
-      <c r="I124" s="7"/>
+        <v>555</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
       <c r="A125" s="49" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B125" s="48" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C125" s="63" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D125" s="63" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E125" s="40" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H125" s="76" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -15484,26 +15655,26 @@
     </row>
     <row r="126">
       <c r="A126" s="93" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B126" s="94" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C126" s="96" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D126" s="96" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E126" s="66" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H126" s="66" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
@@ -15511,13 +15682,13 @@
     </row>
     <row r="127">
       <c r="A127" s="64" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="C127" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D127" s="63"/>
       <c r="E127" s="7"/>
@@ -15530,13 +15701,13 @@
     </row>
     <row r="128">
       <c r="A128" s="49" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="C128" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D128" s="63"/>
       <c r="E128" s="37"/>
@@ -15549,26 +15720,26 @@
     </row>
     <row r="129">
       <c r="A129" s="80" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B129" s="56" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="C129" s="63" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D129" s="63" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E129" s="50" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F129" s="50"/>
       <c r="G129" s="37" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H129" s="91" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -15576,26 +15747,26 @@
     </row>
     <row r="130">
       <c r="A130" s="80" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B130" s="56" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="C130" s="63" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D130" s="63" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="E130" s="50" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F130" s="50"/>
       <c r="G130" s="4" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H130" s="76" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -15603,24 +15774,24 @@
     </row>
     <row r="131">
       <c r="A131" s="80" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B131" s="56" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="C131" s="105" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D131" s="63"/>
       <c r="E131" s="106" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="F131" s="106"/>
       <c r="G131" s="106" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H131" s="107" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
@@ -15628,13 +15799,13 @@
     </row>
     <row r="132">
       <c r="A132" s="64" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C132" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D132" s="63"/>
       <c r="E132" s="37"/>
@@ -15647,20 +15818,20 @@
     </row>
     <row r="133">
       <c r="A133" s="80" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B133" s="56"/>
       <c r="C133" s="63"/>
       <c r="D133" s="7"/>
       <c r="E133" s="57" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F133" s="50"/>
       <c r="G133" s="37" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H133" s="50" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -15668,49 +15839,49 @@
     </row>
     <row r="134">
       <c r="A134" s="80" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B134" s="108"/>
       <c r="C134" s="63"/>
       <c r="D134" s="7"/>
       <c r="E134" s="57" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F134" s="50"/>
       <c r="G134" s="37" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H134" s="50" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="49" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B135" s="48" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="C135" s="63" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="D135" s="63" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E135" s="50" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="F135" s="50"/>
       <c r="G135" s="40" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -15718,49 +15889,51 @@
     </row>
     <row r="136">
       <c r="A136" s="49" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="C136" s="109"/>
       <c r="D136" s="109"/>
       <c r="E136" s="57" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F136" s="110"/>
       <c r="G136" s="50" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H136" s="37" t="s">
-        <v>601</v>
-      </c>
-      <c r="I136" s="7"/>
+        <v>604</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>605</v>
+      </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="80" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B137" s="56" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C137" s="63" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D137" s="63" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E137" s="50" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="F137" s="50"/>
       <c r="G137" s="37" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="H137" s="37" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -15768,22 +15941,22 @@
     </row>
     <row r="138">
       <c r="A138" s="80" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B138" s="56" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
       <c r="E138" s="50" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="F138" s="50"/>
       <c r="G138" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -15791,22 +15964,22 @@
     </row>
     <row r="139">
       <c r="A139" s="80" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B139" s="56" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
       <c r="E139" s="50" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="F139" s="50"/>
       <c r="G139" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H139" s="40" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -15814,22 +15987,22 @@
     </row>
     <row r="140">
       <c r="A140" s="80" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B140" s="56" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
       <c r="E140" s="50" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="F140" s="50"/>
       <c r="G140" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H140" s="40" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -15837,22 +16010,22 @@
     </row>
     <row r="141">
       <c r="A141" s="80" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B141" s="56" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="63"/>
       <c r="E141" s="50" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="F141" s="50"/>
       <c r="G141" s="4" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -15860,24 +16033,24 @@
     </row>
     <row r="142">
       <c r="A142" s="80" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B142" s="56" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C142" s="111" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D142" s="63"/>
       <c r="E142" s="50" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="F142" s="66"/>
       <c r="G142" s="37" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H142" s="50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
@@ -15885,13 +16058,13 @@
     </row>
     <row r="143">
       <c r="A143" s="49" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C143" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D143" s="63"/>
       <c r="E143" s="40"/>
@@ -15904,80 +16077,84 @@
     </row>
     <row r="144">
       <c r="A144" s="80" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B144" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C144" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D144" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="F144" s="50"/>
       <c r="G144" s="44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H144" s="44" t="s">
-        <v>634</v>
-      </c>
-      <c r="I144" s="7"/>
+        <v>638</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
       <c r="A145" s="80" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B145" s="56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C145" s="63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D145" s="63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E145" s="50" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F145" s="50"/>
       <c r="G145" s="46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H145" s="46" t="s">
-        <v>637</v>
-      </c>
-      <c r="I145" s="7"/>
+        <v>641</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
       <c r="A146" s="80" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B146" s="56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C146" s="63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D146" s="63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E146" s="50" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F146" s="50"/>
       <c r="G146" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H146" s="40" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -15985,26 +16162,26 @@
     </row>
     <row r="147">
       <c r="A147" s="80" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B147" s="56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C147" s="63" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D147" s="63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E147" s="50" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F147" s="50"/>
       <c r="G147" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H147" s="40" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -16012,28 +16189,28 @@
     </row>
     <row r="148">
       <c r="A148" s="80" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B148" s="56" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C148" s="63" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D148" s="63" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="F148" s="40" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="G148" s="37" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H148" s="50" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -16041,26 +16218,26 @@
     </row>
     <row r="149">
       <c r="A149" s="80" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B149" s="56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C149" s="63" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D149" s="63" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E149" s="50" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="F149" s="50"/>
       <c r="G149" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H149" s="40" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -16068,26 +16245,26 @@
     </row>
     <row r="150">
       <c r="A150" s="80" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B150" s="56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D150" s="63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E150" s="50" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="F150" s="50"/>
       <c r="G150" s="44" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H150" s="44" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -16095,26 +16272,26 @@
     </row>
     <row r="151">
       <c r="A151" s="80" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B151" s="56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C151" s="63" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D151" s="63" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E151" s="50" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="F151" s="50"/>
       <c r="G151" s="50" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H151" s="91" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -16122,26 +16299,26 @@
     </row>
     <row r="152">
       <c r="A152" s="80" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B152" s="56" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C152" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D152" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E152" s="50" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="F152" s="50"/>
       <c r="G152" s="50" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H152" s="91" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -16149,26 +16326,26 @@
     </row>
     <row r="153">
       <c r="A153" s="80" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B153" s="56" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C153" s="63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D153" s="63" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E153" s="50" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F153" s="50"/>
       <c r="G153" s="46" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H153" s="46" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -16176,26 +16353,26 @@
     </row>
     <row r="154">
       <c r="A154" s="80" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B154" s="56" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C154" s="63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D154" s="63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E154" s="50" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F154" s="50"/>
       <c r="G154" s="50" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H154" s="91" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -16203,26 +16380,26 @@
     </row>
     <row r="155">
       <c r="A155" s="80" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B155" s="56" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C155" s="63" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D155" s="63" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E155" s="50" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F155" s="40"/>
       <c r="G155" s="4" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H155" s="112" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -16234,14 +16411,14 @@
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
       <c r="E156" s="113" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F156" s="66"/>
       <c r="G156" s="44" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H156" s="114" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -16249,13 +16426,13 @@
     </row>
     <row r="157">
       <c r="A157" s="49" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="C157" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D157" s="63"/>
       <c r="E157" s="37"/>
@@ -16268,26 +16445,26 @@
     </row>
     <row r="158">
       <c r="A158" s="80" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="B158" s="56" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C158" s="63" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D158" s="63" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E158" s="50" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="F158" s="50"/>
       <c r="G158" s="37" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="H158" s="50" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -16295,24 +16472,24 @@
     </row>
     <row r="159">
       <c r="A159" s="74" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B159" s="75" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C159" s="115" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D159" s="63"/>
       <c r="E159" s="50" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="F159" s="50"/>
       <c r="G159" s="37" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -16320,26 +16497,26 @@
     </row>
     <row r="160">
       <c r="A160" s="80" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B160" s="56" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C160" s="63" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D160" s="63" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="E160" s="50" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="F160" s="50"/>
       <c r="G160" s="4" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="H160" s="40" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -16347,24 +16524,24 @@
     </row>
     <row r="161">
       <c r="A161" s="74" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B161" s="75" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C161" s="115" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D161" s="63"/>
       <c r="E161" s="50" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F161" s="50"/>
       <c r="G161" s="4" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="H161" s="40" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -16372,26 +16549,26 @@
     </row>
     <row r="162">
       <c r="A162" s="80" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B162" s="56" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C162" s="63" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D162" s="63" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E162" s="50" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="F162" s="50"/>
       <c r="G162" s="37" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="H162" s="50" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -16399,24 +16576,24 @@
     </row>
     <row r="163">
       <c r="A163" s="74" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B163" s="75" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C163" s="115" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D163" s="63"/>
       <c r="E163" s="70" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F163" s="70"/>
       <c r="G163" s="63" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H163" s="70" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -16424,26 +16601,26 @@
     </row>
     <row r="164">
       <c r="A164" s="80" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B164" s="56" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C164" s="63" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D164" s="63" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E164" s="50" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="F164" s="50"/>
       <c r="G164" s="37" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="H164" s="50" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
@@ -16451,24 +16628,24 @@
     </row>
     <row r="165">
       <c r="A165" s="74" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B165" s="75" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C165" s="115" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D165" s="63"/>
       <c r="E165" s="113" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="F165" s="70"/>
       <c r="G165" s="63" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="H165" s="70" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -16476,13 +16653,13 @@
     </row>
     <row r="166">
       <c r="A166" s="49" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C166" s="116" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D166" s="37"/>
       <c r="E166" s="37"/>
@@ -16495,26 +16672,26 @@
     </row>
     <row r="167">
       <c r="A167" s="80" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B167" s="56" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C167" s="63" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D167" s="63" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E167" s="50" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F167" s="50"/>
       <c r="G167" s="50" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="H167" s="67" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -16522,10 +16699,10 @@
     </row>
     <row r="168">
       <c r="A168" s="80" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B168" s="56" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -16539,26 +16716,26 @@
     </row>
     <row r="169">
       <c r="A169" s="80" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B169" s="56" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C169" s="70" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D169" s="70" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="E169" s="117" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="F169" s="117"/>
       <c r="G169" s="37" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="H169" s="50" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -16566,24 +16743,24 @@
     </row>
     <row r="170">
       <c r="A170" s="80" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B170" s="56" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C170" s="115" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D170" s="63"/>
       <c r="E170" s="117" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="F170" s="117"/>
       <c r="G170" s="70" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="H170" s="63" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -16591,26 +16768,26 @@
     </row>
     <row r="171">
       <c r="A171" s="80" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B171" s="56" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C171" s="63" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="D171" s="37" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="E171" s="117" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="F171" s="117"/>
       <c r="G171" s="50" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="H171" s="50" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -16618,37 +16795,39 @@
     </row>
     <row r="172">
       <c r="A172" s="80" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B172" s="56" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="C172" s="63" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D172" s="63" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="E172" s="117" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="F172" s="117"/>
       <c r="G172" s="70" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="H172" s="70" t="s">
-        <v>751</v>
-      </c>
-      <c r="I172" s="7"/>
+        <v>755</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
       <c r="A173" s="88" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -16662,40 +16841,42 @@
     </row>
     <row r="174">
       <c r="A174" s="64" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B174" s="39" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C174" s="63" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E174" s="117" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="F174" s="117"/>
       <c r="G174" s="118" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H174" s="119" t="s">
-        <v>756</v>
-      </c>
-      <c r="I174" s="7"/>
+        <v>760</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
       <c r="A175" s="64" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C175" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D175" s="7"/>
       <c r="E175" s="120"/>
@@ -16708,24 +16889,24 @@
     </row>
     <row r="176">
       <c r="A176" s="49" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C176" s="121" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="122" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="F176" s="117"/>
       <c r="G176" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H176" s="37" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16733,53 +16914,55 @@
     </row>
     <row r="177">
       <c r="A177" s="80" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B177" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C177" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D177" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E177" s="50" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="F177" s="50"/>
       <c r="G177" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H177" s="40" t="s">
-        <v>765</v>
-      </c>
-      <c r="I177" s="7"/>
+        <v>769</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
       <c r="A178" s="80" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B178" s="56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C178" s="63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D178" s="63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E178" s="50" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="F178" s="50"/>
       <c r="G178" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H178" s="40" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -16787,26 +16970,26 @@
     </row>
     <row r="179">
       <c r="A179" s="80" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B179" s="56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D179" s="63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E179" s="50" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="F179" s="50"/>
       <c r="G179" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H179" s="40" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -16814,26 +16997,26 @@
     </row>
     <row r="180">
       <c r="A180" s="80" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="B180" s="56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C180" s="63" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D180" s="63" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E180" s="50" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="F180" s="50"/>
       <c r="G180" s="40" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="H180" s="40" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -16841,26 +17024,26 @@
     </row>
     <row r="181">
       <c r="A181" s="80" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="B181" s="56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C181" s="63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D181" s="63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E181" s="50" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="F181" s="50"/>
       <c r="G181" s="50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H181" s="50" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -16868,26 +17051,26 @@
     </row>
     <row r="182">
       <c r="A182" s="80" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B182" s="56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C182" s="70" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D182" s="63" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E182" s="50" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="F182" s="50"/>
       <c r="G182" s="50" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H182" s="50" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -16895,26 +17078,26 @@
     </row>
     <row r="183">
       <c r="A183" s="80" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B183" s="56" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C183" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D183" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E183" s="50" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="F183" s="70"/>
       <c r="G183" s="50" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H183" s="50" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -16922,26 +17105,26 @@
     </row>
     <row r="184">
       <c r="A184" s="80" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B184" s="56" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C184" s="63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D184" s="63" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E184" s="50" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="F184" s="50"/>
       <c r="G184" s="46" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H184" s="46" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -16949,26 +17132,26 @@
     </row>
     <row r="185">
       <c r="A185" s="80" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B185" s="56" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C185" s="63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D185" s="63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E185" s="50" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="F185" s="50"/>
       <c r="G185" s="50" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -16976,24 +17159,24 @@
     </row>
     <row r="186">
       <c r="A186" s="49" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="C186" s="121" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D186" s="123"/>
       <c r="E186" s="40" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="H186" s="37" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -17001,53 +17184,55 @@
     </row>
     <row r="187">
       <c r="A187" s="80" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B187" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C187" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D187" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E187" s="50" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="F187" s="50"/>
       <c r="G187" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H187" s="40" t="s">
-        <v>794</v>
-      </c>
-      <c r="I187" s="7"/>
+        <v>798</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
       <c r="A188" s="80" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B188" s="56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C188" s="63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D188" s="63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E188" s="50" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="F188" s="50"/>
       <c r="G188" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H188" s="40" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -17055,26 +17240,26 @@
     </row>
     <row r="189">
       <c r="A189" s="80" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B189" s="56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D189" s="63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E189" s="50" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F189" s="50"/>
       <c r="G189" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H189" s="40" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -17082,26 +17267,26 @@
     </row>
     <row r="190">
       <c r="A190" s="80" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B190" s="56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C190" s="63" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D190" s="63" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E190" s="50" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="F190" s="50"/>
       <c r="G190" s="40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H190" s="40" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -17109,26 +17294,26 @@
     </row>
     <row r="191">
       <c r="A191" s="80" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B191" s="56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C191" s="63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D191" s="63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E191" s="50" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="F191" s="50"/>
       <c r="G191" s="40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H191" s="40" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -17136,26 +17321,26 @@
     </row>
     <row r="192">
       <c r="A192" s="80" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B192" s="56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C192" s="70" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D192" s="63" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E192" s="50" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="F192" s="50"/>
       <c r="G192" s="50" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H192" s="50" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -17163,26 +17348,26 @@
     </row>
     <row r="193">
       <c r="A193" s="80" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B193" s="56" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C193" s="63" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D193" s="63" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E193" s="50" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="F193" s="50"/>
       <c r="G193" s="50" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H193" s="50" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -17190,26 +17375,26 @@
     </row>
     <row r="194">
       <c r="A194" s="80" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B194" s="56" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C194" s="63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D194" s="63" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E194" s="50" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="F194" s="70"/>
       <c r="G194" s="46" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H194" s="46" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -17217,26 +17402,26 @@
     </row>
     <row r="195">
       <c r="A195" s="80" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="B195" s="56" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C195" s="63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D195" s="63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E195" s="50" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="F195" s="50"/>
       <c r="G195" s="50" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H195" s="50" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
@@ -17244,26 +17429,26 @@
     </row>
     <row r="196">
       <c r="A196" s="49" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B196" s="48" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C196" s="63" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D196" s="63" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="E196" s="50" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="40" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="H196" s="119" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -17271,22 +17456,22 @@
     </row>
     <row r="197">
       <c r="A197" s="49" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="40" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H197" s="37" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -17294,53 +17479,55 @@
     </row>
     <row r="198">
       <c r="A198" s="80" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B198" s="56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C198" s="63" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D198" s="63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H198" s="40" t="s">
-        <v>828</v>
-      </c>
-      <c r="I198" s="7"/>
+        <v>832</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
       <c r="A199" s="80" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B199" s="56" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C199" s="63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D199" s="63" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E199" s="50" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="F199" s="50"/>
       <c r="G199" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H199" s="40" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -17348,26 +17535,26 @@
     </row>
     <row r="200">
       <c r="A200" s="80" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="B200" s="56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C200" s="37" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D200" s="63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="F200" s="50"/>
       <c r="G200" s="40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H200" s="40" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -17375,26 +17562,26 @@
     </row>
     <row r="201">
       <c r="A201" s="80" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B201" s="56" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C201" s="63" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D201" s="63" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H201" s="40" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -17402,26 +17589,26 @@
     </row>
     <row r="202">
       <c r="A202" s="80" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="B202" s="56" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C202" s="63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D202" s="63" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E202" s="50" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="50" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H202" s="50" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -17429,26 +17616,26 @@
     </row>
     <row r="203">
       <c r="A203" s="80" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B203" s="56" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C203" s="70" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D203" s="63" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E203" s="50" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="50" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H203" s="50" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -17456,26 +17643,26 @@
     </row>
     <row r="204">
       <c r="A204" s="80" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B204" s="56" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C204" s="124" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D204" s="124" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E204" s="50" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="50" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H204" s="50" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -17483,26 +17670,26 @@
     </row>
     <row r="205">
       <c r="A205" s="80" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C205" s="63" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D205" s="63" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E205" s="70" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="F205" s="70"/>
       <c r="G205" s="61" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="H205" s="61" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -17510,26 +17697,26 @@
     </row>
     <row r="206">
       <c r="A206" s="80" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B206" s="56" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C206" s="63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D206" s="63" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E206" s="50" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="F206" s="70"/>
       <c r="G206" s="70" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H206" s="70" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
@@ -17537,26 +17724,26 @@
     </row>
     <row r="207">
       <c r="A207" s="64" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B207" s="39" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C207" s="125" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D207" s="125" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="E207" s="126" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="F207" s="126"/>
       <c r="G207" s="40" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="H207" s="127" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -17564,10 +17751,10 @@
     </row>
     <row r="208">
       <c r="A208" s="88" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B208" s="35" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -17581,17 +17768,17 @@
     </row>
     <row r="209">
       <c r="A209" s="64" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B209" s="39" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C209" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="50" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="4"/>
@@ -17602,16 +17789,16 @@
     </row>
     <row r="210">
       <c r="A210" s="49" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B210" s="48" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C210" s="104" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D210" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E210" s="40"/>
       <c r="F210" s="7"/>
@@ -17623,26 +17810,26 @@
     </row>
     <row r="211">
       <c r="A211" s="80" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B211" s="56" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C211" s="63" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D211" s="63" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="E211" s="70" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="F211" s="63"/>
       <c r="G211" s="66" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H211" s="128" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -17650,26 +17837,26 @@
     </row>
     <row r="212">
       <c r="A212" s="129" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B212" s="78" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C212" s="130" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D212" s="130" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="E212" s="57" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="F212" s="63"/>
       <c r="G212" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H212" s="76" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -17677,26 +17864,26 @@
     </row>
     <row r="213">
       <c r="A213" s="80" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B213" s="56" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C213" s="63" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D213" s="63" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="E213" s="50" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="F213" s="63"/>
       <c r="G213" s="40" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H213" s="76" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -17704,26 +17891,26 @@
     </row>
     <row r="214">
       <c r="A214" s="129" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B214" s="78" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="C214" s="130" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="D214" s="130" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="E214" s="57" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="F214" s="63"/>
       <c r="G214" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H214" s="76" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17731,26 +17918,26 @@
     </row>
     <row r="215">
       <c r="A215" s="49" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B215" s="48" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C215" s="104" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D215" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E215" s="50" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H215" s="76" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17758,13 +17945,13 @@
     </row>
     <row r="216">
       <c r="A216" s="49" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C216" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D216" s="63"/>
       <c r="E216" s="37"/>
@@ -17777,26 +17964,26 @@
     </row>
     <row r="217">
       <c r="A217" s="80" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B217" s="56" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C217" s="63" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D217" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E217" s="50" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H217" s="76" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -17804,26 +17991,26 @@
     </row>
     <row r="218">
       <c r="A218" s="80" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B218" s="56" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C218" s="63" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D218" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E218" s="50" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H218" s="76" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -17831,26 +18018,26 @@
     </row>
     <row r="219">
       <c r="A219" s="80" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B219" s="56" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C219" s="63" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D219" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E219" s="50" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H219" s="76" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -17858,26 +18045,26 @@
     </row>
     <row r="220">
       <c r="A220" s="49" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B220" s="48" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C220" s="104" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D220" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E220" s="70" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H220" s="128" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -17885,26 +18072,26 @@
     </row>
     <row r="221">
       <c r="A221" s="49" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B221" s="131" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C221" s="104" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D221" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E221" s="50" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H221" s="76" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -17912,26 +18099,26 @@
     </row>
     <row r="222">
       <c r="A222" s="49" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B222" s="131" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C222" s="104" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D222" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E222" s="50" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H222" s="76" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -17939,26 +18126,26 @@
     </row>
     <row r="223">
       <c r="A223" s="49" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B223" s="131" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C223" s="104" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D223" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E223" s="70" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="7" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H223" s="128" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -17966,26 +18153,26 @@
     </row>
     <row r="224">
       <c r="A224" s="49" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B224" s="131" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C224" s="104" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D224" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E224" s="50" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="4" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H224" s="76" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -17993,13 +18180,13 @@
     </row>
     <row r="225">
       <c r="A225" s="49" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B225" s="131" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C225" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D225" s="63"/>
       <c r="E225" s="63"/>
@@ -18012,26 +18199,26 @@
     </row>
     <row r="226">
       <c r="A226" s="80" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B226" s="132" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C226" s="63" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D226" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E226" s="70" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="7" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H226" s="128" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -18039,26 +18226,26 @@
     </row>
     <row r="227">
       <c r="A227" s="80" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B227" s="132" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C227" s="63" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="D227" s="63" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="E227" s="70" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="7" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H227" s="128" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -18066,13 +18253,13 @@
     </row>
     <row r="228">
       <c r="A228" s="64" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B228" s="62" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C228" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D228" s="63"/>
       <c r="E228" s="63"/>
@@ -18085,24 +18272,24 @@
     </row>
     <row r="229">
       <c r="A229" s="49" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B229" s="131" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C229" s="133" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D229" s="63"/>
       <c r="E229" s="70" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="63" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="H229" s="134" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -18110,13 +18297,13 @@
     </row>
     <row r="230">
       <c r="A230" s="64" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B230" s="62" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C230" s="104" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D230" s="63"/>
       <c r="E230" s="63"/>
@@ -18129,28 +18316,30 @@
     </row>
     <row r="231">
       <c r="A231" s="49" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B231" s="135" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C231" s="104" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="D231" s="63" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="E231" s="136" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="F231" s="7"/>
       <c r="G231" s="7" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="H231" s="66" t="s">
-        <v>941</v>
-      </c>
-      <c r="I231" s="7"/>
+        <v>945</v>
+      </c>
+      <c r="I231" s="7" t="s">
+        <v>946</v>
+      </c>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
@@ -18270,78 +18459,78 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C2" s="70" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="40" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="40" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="C4" s="70" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="D4" s="70" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="138" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="G5" s="139"/>
       <c r="H5" s="139"/>
@@ -18366,20 +18555,20 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="40" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="G6" s="139"/>
       <c r="H6" s="139"/>
@@ -18404,22 +18593,22 @@
     </row>
     <row r="7">
       <c r="A7" s="72" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="8">
@@ -22424,36 +22613,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="141" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="142" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="143" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="144" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="8">
@@ -22464,41 +22653,41 @@
     </row>
     <row r="10">
       <c r="A10" s="144" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="144" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="B11" s="145" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="146" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="147"/>
       <c r="B13" s="148" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="149" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="150" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="151" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="17">
@@ -22507,24 +22696,24 @@
     </row>
     <row r="18">
       <c r="A18" s="144" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="B18" s="152" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="B19" s="153"/>
     </row>
     <row r="21">
       <c r="A21" s="144" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="B21" s="154" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -22550,57 +22739,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="144" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="155" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="155" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="155" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="21" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
   </sheetData>
@@ -22626,53 +22815,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="B1" s="156" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="138" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
   </sheetData>
@@ -22716,35 +22905,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="157" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="C1" s="157" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22753,13 +22942,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D4" s="158" t="str">
         <f t="shared" si="1"/>
@@ -22768,70 +22957,70 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>1009</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D7" s="159" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="160" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="C9" s="161" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D9" s="161" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="E9" s="161"/>
       <c r="F9" s="161"/>
@@ -22858,16 +23047,16 @@
     </row>
     <row r="10">
       <c r="A10" s="160" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="C10" s="161" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="E10" s="162"/>
       <c r="F10" s="162"/>
@@ -22894,16 +23083,16 @@
     </row>
     <row r="11">
       <c r="A11" s="160" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C11" s="161" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D11" s="161" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="162"/>
@@ -22930,16 +23119,16 @@
     </row>
     <row r="12">
       <c r="A12" s="160" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C12" s="161" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D12" s="161" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="E12" s="162"/>
       <c r="F12" s="162"/>
@@ -22966,16 +23155,16 @@
     </row>
     <row r="13">
       <c r="A13" s="160" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="B13" s="160" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C13" s="161" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D13" s="161" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="E13" s="162"/>
       <c r="F13" s="162"/>
@@ -23002,16 +23191,16 @@
     </row>
     <row r="14">
       <c r="A14" s="160" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="C14" s="161" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="E14" s="162"/>
       <c r="F14" s="162"/>
@@ -23063,51 +23252,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="163" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="144" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="B2" s="144" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="C2" s="144" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="D2" s="144" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="C5" s="164" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <r>
@@ -2905,7 +2905,8 @@
     <t>Award criteria</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY
+OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY</t>
   </si>
   <si>
     <t xml:space="preserve">epo:Lot / epo:AwardCriterion </t>
@@ -3003,7 +3004,8 @@
     <t>Award Criterion name</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_CRITERION</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_CRITERION
+OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_CRITERION</t>
   </si>
   <si>
     <t>epo:AwardCriterion / rdf:langString</t>
@@ -3024,13 +3026,15 @@
     <t>Award Criterion complicated</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING
+OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_WEIGHTING</t>
   </si>
   <si>
     <t>?this cccev:weight ?value .</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST
+OBJECT_CONTRACT/OBJECT_DESCR/AC_COST</t>
   </si>
   <si>
     <r>
@@ -3107,16 +3111,19 @@
     <t>II.2.5.2.1</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_CRITERION</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_CRITERION
+OBJECT_CONTRACT/OBJECT_DESCR/AC_COST/AC_CRITERION</t>
   </si>
   <si>
     <t>II.2.5.2.2</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_WEIGHTING</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_COST/AC_WEIGHTING
+OBJECT_CONTRACT/OBJECT_DESCR/AC_COST/AC_WEIGHTING</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE
+OBJECT_CONTRACT/OBJECT_DESCR/AC_PRICE</t>
   </si>
   <si>
     <r>
@@ -3193,7 +3200,8 @@
     <t>II.2.5.3.1</t>
   </si>
   <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE/AC_WEIGHTING</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_PRICE/AC_WEIGHTING
+OBJECT_CONTRACT/OBJECT_DESCR/AC_PRICE/AC_WEIGHTING</t>
   </si>
   <si>
     <t>II.2.11</t>
@@ -4459,7 +4467,7 @@
     <t>?this epo:comprisesTenderAwardOutcome / epo:indicatesAwardOfLotToWinner ?value</t>
   </si>
   <si>
-    <t>Winner is created only if there is a contractor identified through the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` or (in earlier versions of XML) `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR` XPath</t>
+    <t>Winner is created only if there is a contractor identified by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTORS/CONTRACTOR` (or in earlier versions of XML by the `AWARD_CONTRACT/AWARDED_CONTRACT/CONTRACTOR`) XPath</t>
   </si>
   <si>
     <t>V.2.1</t>
@@ -4546,7 +4554,8 @@
     <t>Received Submissions Count</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED</t>
   </si>
   <si>
     <t xml:space="preserve"> epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -4561,7 +4570,8 @@
     <t>Number of tenders received from SMEs</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_SME
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_SME</t>
   </si>
   <si>
     <t>epo:SubmissionStatisticalInformation / xsd:integer</t>
@@ -4605,7 +4615,8 @@
     <t>Number of tenders received from tenderers from other EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_OTHER_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_OTHER_EU</t>
   </si>
   <si>
     <r>
@@ -4646,7 +4657,8 @@
     <t>Number of tenders received from tenderers from non-EU Member States</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_NON_EU
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_NON_EU</t>
   </si>
   <si>
     <r>
@@ -4687,7 +4699,8 @@
     <t>Number of tenders received by electronic means</t>
   </si>
   <si>
-    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS</t>
+    <t>AWARD_CONTRACT/AWARDED_CONTRACT/TENDERS/NB_TENDERS_RECEIVED_EMEANS
+AWARD_CONTRACT/AWARDED_CONTRACT/NB_TENDERS_RECEIVED_EMEANS</t>
   </si>
   <si>
     <t>?this epo:hasElectronicTenders ?value .</t>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1046">
   <si>
     <t>Field</t>
   </si>
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.2.0</t>
   </si>
   <si>
     <r>
@@ -1281,7 +1281,7 @@
     <t>CONTRACTING_BODY/ADDRESS_CONTRACTING_BODY/URL_BUYER</t>
   </si>
   <si>
-    <t>epo:AgentInRole (from CL1) / epo:BuyerProfile / xsd:anyURI</t>
+    <t>epo:AgentInRole (from CL1) / xsd:anyURI</t>
   </si>
   <si>
     <r>
@@ -1304,7 +1304,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -1868,7 +1868,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasBuyerProfile / epo:hasURL ?</t>
+      <t xml:space="preserve"> epo:hasBuyerProfile ?</t>
     </r>
     <r>
       <rPr>
@@ -2198,7 +2198,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:hasMainActivityType ?</t>
+      <t xml:space="preserve"> epo:hasMainActivity ?</t>
     </r>
     <r>
       <rPr>
@@ -2364,7 +2364,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:cpv (from cpv.json)</t>
   </si>
   <si>
-    <t>?this epo:hasOverallPurpose / epo:hasMainClassification ?value .</t>
+    <t>?this epo:hasPurpose / epo:hasMainClassification ?value .</t>
   </si>
   <si>
     <t>II.1.2.1</t>
@@ -2403,43 +2403,7 @@
     <t>epo:Procedure / epo:Purpose / at-voc:contract-nature (from contract_nature.json)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:hasOverallPurpose / epo:hasContractNatureType ?</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> .</t>
-    </r>
+    <t>?this epo:hasPurpose / epo:hasContractNatureType ?value .</t>
   </si>
   <si>
     <t>II.1.4</t>
@@ -4312,31 +4276,7 @@
     <t>epo:Contract / epo:LotAwardOutcome / at-voc:winner-selection-status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> epo:includesLotAwardOutcome / epo:hasAwardStatus   </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>&lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> .
-</t>
-    </r>
+    <t>?this epo:resultsFromLotAwardOutcome / epo:hasAwardStatus   &lt;http://publications.europa.eu/resource/authority/winner-selection-status/selec-w&gt; .</t>
   </si>
   <si>
     <t>AWARD_CONTRACT/NO_AWARDED_CONTRACT</t>
@@ -5393,7 +5333,7 @@
 AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/LOW</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue / xsd:decimal</t>
+    <t>epo:SubmissionStatisticalInformation / epo:MonetaryValue / xsd:decimal</t>
   </si>
   <si>
     <r>
@@ -5443,7 +5383,7 @@
 AWARD_CONTRACT/AWARDED_CONTRACT/VAL_RANGE_TOTAL/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:SubmissionStatisticalInformation / MonetaryValue / at-voc:currency (from currency.json)</t>
+    <t>epo:SubmissionStatisticalInformation / epo:MonetaryValue / at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <r>
@@ -5625,7 +5565,7 @@
     <t>AWARD_CONTRACT/AWARDED_CONTRACT/VAL_SUBCONTRACTING/@CURRENCY</t>
   </si>
   <si>
-    <t>epo:Tender / epo:SubcontractingEstimate / MonetaryValue /at-voc:currency (from currency.json)</t>
+    <t>epo:Tender / epo:SubcontractingEstimate / epo:MonetaryValue /at-voc:currency (from currency.json)</t>
   </si>
   <si>
     <t>?this epo:foreseesSubcontracting / epo:hasSubcontractingEstimatedValue / epo:hasCurrency ?value .</t>
@@ -5953,9 +5893,6 @@
   </si>
   <si>
     <t>COMPLEMENTARY_INFO/ADDRESS_REVIEW_BODY/POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>epo:AgentInRole (from CL1)  / org:Organizationn (from CL2) / locn:Address / rdf:langString</t>
   </si>
   <si>
     <r>
@@ -7466,9 +7403,6 @@
   </si>
   <si>
     <t>buyer_legal_type.csv</t>
-  </si>
-  <si>
-    <t>award_criterion_type.json</t>
   </si>
   <si>
     <t>legal_basis.json</t>
@@ -13553,7 +13487,7 @@
       <c r="G51" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="H51" s="4" t="s">
         <v>255</v>
       </c>
       <c r="I51" s="7"/>
@@ -17026,10 +16960,10 @@
       </c>
       <c r="F180" s="50"/>
       <c r="G180" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="H180" s="40" t="s">
         <v>778</v>
-      </c>
-      <c r="H180" s="40" t="s">
-        <v>779</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -17037,7 +16971,7 @@
     </row>
     <row r="181">
       <c r="A181" s="80" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B181" s="56" t="s">
         <v>100</v>
@@ -17049,14 +16983,14 @@
         <v>102</v>
       </c>
       <c r="E181" s="50" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F181" s="50"/>
       <c r="G181" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H181" s="50" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -17064,7 +16998,7 @@
     </row>
     <row r="182">
       <c r="A182" s="80" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B182" s="56" t="s">
         <v>120</v>
@@ -17076,7 +17010,7 @@
         <v>122</v>
       </c>
       <c r="E182" s="50" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F182" s="50"/>
       <c r="G182" s="50" t="s">
@@ -17091,7 +17025,7 @@
     </row>
     <row r="183">
       <c r="A183" s="80" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B183" s="56" t="s">
         <v>114</v>
@@ -17103,7 +17037,7 @@
         <v>116</v>
       </c>
       <c r="E183" s="50" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F183" s="70"/>
       <c r="G183" s="50" t="s">
@@ -17118,7 +17052,7 @@
     </row>
     <row r="184">
       <c r="A184" s="80" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B184" s="56" t="s">
         <v>668</v>
@@ -17130,14 +17064,14 @@
         <v>137</v>
       </c>
       <c r="E184" s="50" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F184" s="50"/>
       <c r="G184" s="46" t="s">
         <v>661</v>
       </c>
       <c r="H184" s="46" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -17145,7 +17079,7 @@
     </row>
     <row r="185">
       <c r="A185" s="80" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B185" s="56" t="s">
         <v>127</v>
@@ -17157,7 +17091,7 @@
         <v>129</v>
       </c>
       <c r="E185" s="50" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F185" s="50"/>
       <c r="G185" s="50" t="s">
@@ -17172,21 +17106,21 @@
     </row>
     <row r="186">
       <c r="A186" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="B186" s="48" t="s">
         <v>792</v>
-      </c>
-      <c r="B186" s="48" t="s">
-        <v>793</v>
       </c>
       <c r="C186" s="121" t="s">
         <v>472</v>
       </c>
       <c r="D186" s="123"/>
       <c r="E186" s="40" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H186" s="37" t="s">
         <v>766</v>
@@ -17197,7 +17131,7 @@
     </row>
     <row r="187">
       <c r="A187" s="80" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B187" s="56" t="s">
         <v>56</v>
@@ -17209,14 +17143,14 @@
         <v>58</v>
       </c>
       <c r="E187" s="50" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F187" s="50"/>
       <c r="G187" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H187" s="40" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>62</v>
@@ -17226,7 +17160,7 @@
     </row>
     <row r="188">
       <c r="A188" s="80" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B188" s="56" t="s">
         <v>72</v>
@@ -17238,14 +17172,14 @@
         <v>74</v>
       </c>
       <c r="E188" s="50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F188" s="50"/>
       <c r="G188" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H188" s="40" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -17253,7 +17187,7 @@
     </row>
     <row r="189">
       <c r="A189" s="80" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B189" s="56" t="s">
         <v>79</v>
@@ -17265,14 +17199,14 @@
         <v>81</v>
       </c>
       <c r="E189" s="50" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F189" s="50"/>
       <c r="G189" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H189" s="40" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -17280,7 +17214,7 @@
     </row>
     <row r="190">
       <c r="A190" s="80" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B190" s="56" t="s">
         <v>93</v>
@@ -17292,14 +17226,14 @@
         <v>653</v>
       </c>
       <c r="E190" s="50" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F190" s="50"/>
       <c r="G190" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H190" s="40" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -17307,7 +17241,7 @@
     </row>
     <row r="191">
       <c r="A191" s="80" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B191" s="56" t="s">
         <v>100</v>
@@ -17319,14 +17253,14 @@
         <v>102</v>
       </c>
       <c r="E191" s="50" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F191" s="50"/>
       <c r="G191" s="40" t="s">
         <v>104</v>
       </c>
       <c r="H191" s="40" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -17334,7 +17268,7 @@
     </row>
     <row r="192">
       <c r="A192" s="80" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B192" s="56" t="s">
         <v>120</v>
@@ -17346,7 +17280,7 @@
         <v>122</v>
       </c>
       <c r="E192" s="50" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F192" s="50"/>
       <c r="G192" s="50" t="s">
@@ -17361,7 +17295,7 @@
     </row>
     <row r="193">
       <c r="A193" s="80" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B193" s="56" t="s">
         <v>114</v>
@@ -17373,7 +17307,7 @@
         <v>116</v>
       </c>
       <c r="E193" s="50" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F193" s="50"/>
       <c r="G193" s="50" t="s">
@@ -17388,7 +17322,7 @@
     </row>
     <row r="194">
       <c r="A194" s="80" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B194" s="56" t="s">
         <v>668</v>
@@ -17400,14 +17334,14 @@
         <v>137</v>
       </c>
       <c r="E194" s="50" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F194" s="70"/>
       <c r="G194" s="46" t="s">
         <v>661</v>
       </c>
       <c r="H194" s="46" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -17415,7 +17349,7 @@
     </row>
     <row r="195">
       <c r="A195" s="80" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B195" s="56" t="s">
         <v>127</v>
@@ -17427,7 +17361,7 @@
         <v>129</v>
       </c>
       <c r="E195" s="50" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F195" s="50"/>
       <c r="G195" s="50" t="s">
@@ -17442,26 +17376,26 @@
     </row>
     <row r="196">
       <c r="A196" s="49" t="s">
+        <v>819</v>
+      </c>
+      <c r="B196" s="48" t="s">
         <v>820</v>
       </c>
-      <c r="B196" s="48" t="s">
+      <c r="C196" s="63" t="s">
         <v>821</v>
       </c>
-      <c r="C196" s="63" t="s">
+      <c r="D196" s="63" t="s">
         <v>822</v>
       </c>
-      <c r="D196" s="63" t="s">
+      <c r="E196" s="50" t="s">
         <v>823</v>
-      </c>
-      <c r="E196" s="50" t="s">
-        <v>824</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="H196" s="119" t="s">
         <v>825</v>
-      </c>
-      <c r="H196" s="119" t="s">
-        <v>826</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -17469,15 +17403,15 @@
     </row>
     <row r="197">
       <c r="A197" s="49" t="s">
+        <v>826</v>
+      </c>
+      <c r="B197" s="48" t="s">
         <v>827</v>
-      </c>
-      <c r="B197" s="48" t="s">
-        <v>828</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="40" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37" t="s">
@@ -17492,7 +17426,7 @@
     </row>
     <row r="198">
       <c r="A198" s="80" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B198" s="56" t="s">
         <v>56</v>
@@ -17504,14 +17438,14 @@
         <v>58</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H198" s="40" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="I198" s="7" t="s">
         <v>62</v>
@@ -17521,7 +17455,7 @@
     </row>
     <row r="199">
       <c r="A199" s="80" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B199" s="56" t="s">
         <v>72</v>
@@ -17533,14 +17467,14 @@
         <v>74</v>
       </c>
       <c r="E199" s="50" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F199" s="50"/>
       <c r="G199" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H199" s="40" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -17548,7 +17482,7 @@
     </row>
     <row r="200">
       <c r="A200" s="80" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B200" s="56" t="s">
         <v>79</v>
@@ -17560,14 +17494,14 @@
         <v>81</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F200" s="50"/>
       <c r="G200" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H200" s="40" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -17575,7 +17509,7 @@
     </row>
     <row r="201">
       <c r="A201" s="80" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B201" s="56" t="s">
         <v>93</v>
@@ -17587,14 +17521,14 @@
         <v>653</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H201" s="40" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -17602,7 +17536,7 @@
     </row>
     <row r="202">
       <c r="A202" s="80" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B202" s="56" t="s">
         <v>100</v>
@@ -17614,14 +17548,14 @@
         <v>102</v>
       </c>
       <c r="E202" s="50" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H202" s="50" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -17629,7 +17563,7 @@
     </row>
     <row r="203">
       <c r="A203" s="80" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B203" s="56" t="s">
         <v>120</v>
@@ -17641,7 +17575,7 @@
         <v>122</v>
       </c>
       <c r="E203" s="50" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="50" t="s">
@@ -17656,7 +17590,7 @@
     </row>
     <row r="204">
       <c r="A204" s="80" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B204" s="56" t="s">
         <v>114</v>
@@ -17668,7 +17602,7 @@
         <v>116</v>
       </c>
       <c r="E204" s="50" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="50" t="s">
@@ -17683,7 +17617,7 @@
     </row>
     <row r="205">
       <c r="A205" s="80" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B205" s="56" t="s">
         <v>668</v>
@@ -17695,14 +17629,14 @@
         <v>137</v>
       </c>
       <c r="E205" s="70" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F205" s="70"/>
       <c r="G205" s="61" t="s">
         <v>661</v>
       </c>
       <c r="H205" s="61" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -17710,7 +17644,7 @@
     </row>
     <row r="206">
       <c r="A206" s="80" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B206" s="56" t="s">
         <v>127</v>
@@ -17722,7 +17656,7 @@
         <v>129</v>
       </c>
       <c r="E206" s="50" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F206" s="70"/>
       <c r="G206" s="70" t="s">
@@ -17737,26 +17671,26 @@
     </row>
     <row r="207">
       <c r="A207" s="64" t="s">
+        <v>853</v>
+      </c>
+      <c r="B207" s="39" t="s">
         <v>854</v>
       </c>
-      <c r="B207" s="39" t="s">
+      <c r="C207" s="125" t="s">
         <v>855</v>
       </c>
-      <c r="C207" s="125" t="s">
+      <c r="D207" s="125" t="s">
         <v>856</v>
       </c>
-      <c r="D207" s="125" t="s">
+      <c r="E207" s="126" t="s">
         <v>857</v>
-      </c>
-      <c r="E207" s="126" t="s">
-        <v>858</v>
       </c>
       <c r="F207" s="126"/>
       <c r="G207" s="40" t="s">
+        <v>858</v>
+      </c>
+      <c r="H207" s="127" t="s">
         <v>859</v>
-      </c>
-      <c r="H207" s="127" t="s">
-        <v>860</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -17764,10 +17698,10 @@
     </row>
     <row r="208">
       <c r="A208" s="88" t="s">
+        <v>860</v>
+      </c>
+      <c r="B208" s="35" t="s">
         <v>861</v>
-      </c>
-      <c r="B208" s="35" t="s">
-        <v>862</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -17781,17 +17715,17 @@
     </row>
     <row r="209">
       <c r="A209" s="64" t="s">
+        <v>862</v>
+      </c>
+      <c r="B209" s="39" t="s">
         <v>863</v>
-      </c>
-      <c r="B209" s="39" t="s">
-        <v>864</v>
       </c>
       <c r="C209" s="104" t="s">
         <v>472</v>
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="50" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="4"/>
@@ -17802,16 +17736,16 @@
     </row>
     <row r="210">
       <c r="A210" s="49" t="s">
+        <v>865</v>
+      </c>
+      <c r="B210" s="48" t="s">
         <v>866</v>
       </c>
-      <c r="B210" s="48" t="s">
+      <c r="C210" s="104" t="s">
         <v>867</v>
       </c>
-      <c r="C210" s="104" t="s">
+      <c r="D210" s="63" t="s">
         <v>868</v>
-      </c>
-      <c r="D210" s="63" t="s">
-        <v>869</v>
       </c>
       <c r="E210" s="40"/>
       <c r="F210" s="7"/>
@@ -17823,26 +17757,26 @@
     </row>
     <row r="211">
       <c r="A211" s="80" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B211" s="56" t="s">
         <v>424</v>
       </c>
       <c r="C211" s="63" t="s">
+        <v>870</v>
+      </c>
+      <c r="D211" s="63" t="s">
         <v>871</v>
       </c>
-      <c r="D211" s="63" t="s">
+      <c r="E211" s="70" t="s">
         <v>872</v>
-      </c>
-      <c r="E211" s="70" t="s">
-        <v>873</v>
       </c>
       <c r="F211" s="63"/>
       <c r="G211" s="66" t="s">
+        <v>873</v>
+      </c>
+      <c r="H211" s="128" t="s">
         <v>874</v>
-      </c>
-      <c r="H211" s="128" t="s">
-        <v>875</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -17850,26 +17784,26 @@
     </row>
     <row r="212">
       <c r="A212" s="129" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B212" s="78" t="s">
         <v>424</v>
       </c>
       <c r="C212" s="130" t="s">
+        <v>870</v>
+      </c>
+      <c r="D212" s="130" t="s">
         <v>871</v>
       </c>
-      <c r="D212" s="130" t="s">
+      <c r="E212" s="57" t="s">
         <v>872</v>
-      </c>
-      <c r="E212" s="57" t="s">
-        <v>873</v>
       </c>
       <c r="F212" s="63"/>
       <c r="G212" s="4" t="s">
+        <v>875</v>
+      </c>
+      <c r="H212" s="76" t="s">
         <v>876</v>
-      </c>
-      <c r="H212" s="76" t="s">
-        <v>877</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -17877,26 +17811,26 @@
     </row>
     <row r="213">
       <c r="A213" s="80" t="s">
+        <v>877</v>
+      </c>
+      <c r="B213" s="56" t="s">
         <v>878</v>
       </c>
-      <c r="B213" s="56" t="s">
+      <c r="C213" s="63" t="s">
+        <v>870</v>
+      </c>
+      <c r="D213" s="63" t="s">
+        <v>871</v>
+      </c>
+      <c r="E213" s="50" t="s">
         <v>879</v>
-      </c>
-      <c r="C213" s="63" t="s">
-        <v>871</v>
-      </c>
-      <c r="D213" s="63" t="s">
-        <v>872</v>
-      </c>
-      <c r="E213" s="50" t="s">
-        <v>880</v>
       </c>
       <c r="F213" s="63"/>
       <c r="G213" s="40" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H213" s="76" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -17904,26 +17838,26 @@
     </row>
     <row r="214">
       <c r="A214" s="129" t="s">
+        <v>877</v>
+      </c>
+      <c r="B214" s="78" t="s">
         <v>878</v>
       </c>
-      <c r="B214" s="78" t="s">
+      <c r="C214" s="130" t="s">
+        <v>870</v>
+      </c>
+      <c r="D214" s="130" t="s">
+        <v>871</v>
+      </c>
+      <c r="E214" s="57" t="s">
         <v>879</v>
-      </c>
-      <c r="C214" s="130" t="s">
-        <v>871</v>
-      </c>
-      <c r="D214" s="130" t="s">
-        <v>872</v>
-      </c>
-      <c r="E214" s="57" t="s">
-        <v>880</v>
       </c>
       <c r="F214" s="63"/>
       <c r="G214" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H214" s="76" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17931,26 +17865,26 @@
     </row>
     <row r="215">
       <c r="A215" s="49" t="s">
+        <v>882</v>
+      </c>
+      <c r="B215" s="48" t="s">
         <v>883</v>
       </c>
-      <c r="B215" s="48" t="s">
+      <c r="C215" s="104" t="s">
+        <v>867</v>
+      </c>
+      <c r="D215" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E215" s="50" t="s">
         <v>884</v>
-      </c>
-      <c r="C215" s="104" t="s">
-        <v>868</v>
-      </c>
-      <c r="D215" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E215" s="50" t="s">
-        <v>885</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H215" s="76" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17958,10 +17892,10 @@
     </row>
     <row r="216">
       <c r="A216" s="49" t="s">
+        <v>886</v>
+      </c>
+      <c r="B216" s="48" t="s">
         <v>887</v>
-      </c>
-      <c r="B216" s="48" t="s">
-        <v>888</v>
       </c>
       <c r="C216" s="104" t="s">
         <v>472</v>
@@ -17977,26 +17911,26 @@
     </row>
     <row r="217">
       <c r="A217" s="80" t="s">
+        <v>888</v>
+      </c>
+      <c r="B217" s="56" t="s">
         <v>889</v>
       </c>
-      <c r="B217" s="56" t="s">
+      <c r="C217" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="D217" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E217" s="50" t="s">
         <v>890</v>
-      </c>
-      <c r="C217" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="D217" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E217" s="50" t="s">
-        <v>891</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H217" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -18004,26 +17938,26 @@
     </row>
     <row r="218">
       <c r="A218" s="80" t="s">
+        <v>892</v>
+      </c>
+      <c r="B218" s="56" t="s">
         <v>893</v>
       </c>
-      <c r="B218" s="56" t="s">
+      <c r="C218" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="D218" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E218" s="50" t="s">
         <v>894</v>
-      </c>
-      <c r="C218" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="D218" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E218" s="50" t="s">
-        <v>895</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H218" s="76" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -18031,26 +17965,26 @@
     </row>
     <row r="219">
       <c r="A219" s="80" t="s">
+        <v>896</v>
+      </c>
+      <c r="B219" s="56" t="s">
         <v>897</v>
       </c>
-      <c r="B219" s="56" t="s">
+      <c r="C219" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="D219" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E219" s="50" t="s">
         <v>898</v>
-      </c>
-      <c r="C219" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="D219" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E219" s="50" t="s">
-        <v>899</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H219" s="76" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -18058,26 +17992,26 @@
     </row>
     <row r="220">
       <c r="A220" s="49" t="s">
+        <v>900</v>
+      </c>
+      <c r="B220" s="48" t="s">
         <v>901</v>
       </c>
-      <c r="B220" s="48" t="s">
+      <c r="C220" s="104" t="s">
+        <v>867</v>
+      </c>
+      <c r="D220" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E220" s="70" t="s">
         <v>902</v>
-      </c>
-      <c r="C220" s="104" t="s">
-        <v>868</v>
-      </c>
-      <c r="D220" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E220" s="70" t="s">
-        <v>903</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H220" s="128" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -18085,26 +18019,26 @@
     </row>
     <row r="221">
       <c r="A221" s="49" t="s">
+        <v>904</v>
+      </c>
+      <c r="B221" s="131" t="s">
         <v>905</v>
       </c>
-      <c r="B221" s="131" t="s">
+      <c r="C221" s="104" t="s">
+        <v>867</v>
+      </c>
+      <c r="D221" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E221" s="50" t="s">
         <v>906</v>
-      </c>
-      <c r="C221" s="104" t="s">
-        <v>868</v>
-      </c>
-      <c r="D221" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E221" s="50" t="s">
-        <v>907</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H221" s="76" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -18112,26 +18046,26 @@
     </row>
     <row r="222">
       <c r="A222" s="49" t="s">
+        <v>908</v>
+      </c>
+      <c r="B222" s="131" t="s">
         <v>909</v>
       </c>
-      <c r="B222" s="131" t="s">
+      <c r="C222" s="104" t="s">
+        <v>867</v>
+      </c>
+      <c r="D222" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E222" s="50" t="s">
         <v>910</v>
-      </c>
-      <c r="C222" s="104" t="s">
-        <v>868</v>
-      </c>
-      <c r="D222" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E222" s="50" t="s">
-        <v>911</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H222" s="76" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -18139,26 +18073,26 @@
     </row>
     <row r="223">
       <c r="A223" s="49" t="s">
+        <v>912</v>
+      </c>
+      <c r="B223" s="131" t="s">
         <v>913</v>
       </c>
-      <c r="B223" s="131" t="s">
+      <c r="C223" s="104" t="s">
+        <v>867</v>
+      </c>
+      <c r="D223" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E223" s="70" t="s">
         <v>914</v>
-      </c>
-      <c r="C223" s="104" t="s">
-        <v>868</v>
-      </c>
-      <c r="D223" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E223" s="70" t="s">
-        <v>915</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H223" s="128" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -18166,26 +18100,26 @@
     </row>
     <row r="224">
       <c r="A224" s="49" t="s">
+        <v>916</v>
+      </c>
+      <c r="B224" s="131" t="s">
         <v>917</v>
       </c>
-      <c r="B224" s="131" t="s">
+      <c r="C224" s="104" t="s">
+        <v>867</v>
+      </c>
+      <c r="D224" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E224" s="50" t="s">
         <v>918</v>
-      </c>
-      <c r="C224" s="104" t="s">
-        <v>868</v>
-      </c>
-      <c r="D224" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E224" s="50" t="s">
-        <v>919</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H224" s="76" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -18193,10 +18127,10 @@
     </row>
     <row r="225">
       <c r="A225" s="49" t="s">
+        <v>920</v>
+      </c>
+      <c r="B225" s="131" t="s">
         <v>921</v>
-      </c>
-      <c r="B225" s="131" t="s">
-        <v>922</v>
       </c>
       <c r="C225" s="104" t="s">
         <v>472</v>
@@ -18212,26 +18146,26 @@
     </row>
     <row r="226">
       <c r="A226" s="80" t="s">
+        <v>922</v>
+      </c>
+      <c r="B226" s="132" t="s">
         <v>923</v>
       </c>
-      <c r="B226" s="132" t="s">
+      <c r="C226" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="D226" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E226" s="70" t="s">
         <v>924</v>
-      </c>
-      <c r="C226" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="D226" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E226" s="70" t="s">
-        <v>925</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H226" s="128" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -18239,26 +18173,26 @@
     </row>
     <row r="227">
       <c r="A227" s="80" t="s">
+        <v>926</v>
+      </c>
+      <c r="B227" s="132" t="s">
         <v>927</v>
       </c>
-      <c r="B227" s="132" t="s">
+      <c r="C227" s="63" t="s">
+        <v>867</v>
+      </c>
+      <c r="D227" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="E227" s="70" t="s">
         <v>928</v>
-      </c>
-      <c r="C227" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="D227" s="63" t="s">
-        <v>869</v>
-      </c>
-      <c r="E227" s="70" t="s">
-        <v>929</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H227" s="128" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -18266,10 +18200,10 @@
     </row>
     <row r="228">
       <c r="A228" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="B228" s="62" t="s">
         <v>931</v>
-      </c>
-      <c r="B228" s="62" t="s">
-        <v>932</v>
       </c>
       <c r="C228" s="104" t="s">
         <v>472</v>
@@ -18285,24 +18219,24 @@
     </row>
     <row r="229">
       <c r="A229" s="49" t="s">
+        <v>932</v>
+      </c>
+      <c r="B229" s="131" t="s">
         <v>933</v>
-      </c>
-      <c r="B229" s="131" t="s">
-        <v>934</v>
       </c>
       <c r="C229" s="133" t="s">
         <v>583</v>
       </c>
       <c r="D229" s="63"/>
       <c r="E229" s="70" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="63" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H229" s="134" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -18310,10 +18244,10 @@
     </row>
     <row r="230">
       <c r="A230" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="B230" s="62" t="s">
         <v>937</v>
-      </c>
-      <c r="B230" s="62" t="s">
-        <v>938</v>
       </c>
       <c r="C230" s="104" t="s">
         <v>472</v>
@@ -18329,29 +18263,29 @@
     </row>
     <row r="231">
       <c r="A231" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="B231" s="135" t="s">
         <v>939</v>
       </c>
-      <c r="B231" s="135" t="s">
+      <c r="C231" s="104" t="s">
         <v>940</v>
       </c>
-      <c r="C231" s="104" t="s">
+      <c r="D231" s="63" t="s">
         <v>941</v>
       </c>
-      <c r="D231" s="63" t="s">
+      <c r="E231" s="136" t="s">
         <v>942</v>
-      </c>
-      <c r="E231" s="136" t="s">
-        <v>943</v>
       </c>
       <c r="F231" s="7"/>
       <c r="G231" s="7" t="s">
+        <v>943</v>
+      </c>
+      <c r="H231" s="66" t="s">
         <v>944</v>
       </c>
-      <c r="H231" s="66" t="s">
+      <c r="I231" s="7" t="s">
         <v>945</v>
-      </c>
-      <c r="I231" s="7" t="s">
-        <v>946</v>
       </c>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
@@ -18472,38 +18406,38 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
+        <v>946</v>
+      </c>
+      <c r="B2" s="40" t="s">
         <v>947</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C2" s="70" t="s">
         <v>948</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>949</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="40" t="s">
+        <v>949</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>950</v>
-      </c>
-      <c r="F2" s="40" t="s">
-        <v>951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
+        <v>946</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>947</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="C3" s="70" t="s">
         <v>948</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>949</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="40" t="s">
+        <v>951</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>952</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="4">
@@ -18511,19 +18445,19 @@
         <v>550</v>
       </c>
       <c r="B4" s="66" t="s">
+        <v>953</v>
+      </c>
+      <c r="C4" s="70" t="s">
         <v>954</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="D4" s="70" t="s">
         <v>955</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="E4" s="40" t="s">
         <v>956</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>957</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="5">
@@ -18543,7 +18477,7 @@
         <v>563</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G5" s="139"/>
       <c r="H5" s="139"/>
@@ -18578,10 +18512,10 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="40" t="s">
+        <v>959</v>
+      </c>
+      <c r="F6" s="40" t="s">
         <v>960</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>961</v>
       </c>
       <c r="G6" s="139"/>
       <c r="H6" s="139"/>
@@ -18618,10 +18552,10 @@
         <v>677</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>961</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>962</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="8">
@@ -22626,36 +22560,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="141" t="s">
+        <v>963</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>964</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="142" t="s">
+        <v>965</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>966</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="143" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="144" t="s">
+        <v>968</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>969</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="8">
@@ -22666,41 +22600,41 @@
     </row>
     <row r="10">
       <c r="A10" s="144" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="144" t="s">
+        <v>972</v>
+      </c>
+      <c r="B11" s="145" t="s">
         <v>973</v>
-      </c>
-      <c r="B11" s="145" t="s">
-        <v>974</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="146" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="147"/>
       <c r="B13" s="148" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="149" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="150" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="151" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="17">
@@ -22709,24 +22643,24 @@
     </row>
     <row r="18">
       <c r="A18" s="144" t="s">
+        <v>979</v>
+      </c>
+      <c r="B18" s="152" t="s">
         <v>980</v>
-      </c>
-      <c r="B18" s="152" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B19" s="153"/>
     </row>
     <row r="21">
       <c r="A21" s="144" t="s">
+        <v>982</v>
+      </c>
+      <c r="B21" s="154" t="s">
         <v>983</v>
-      </c>
-      <c r="B21" s="154" t="s">
-        <v>984</v>
       </c>
     </row>
   </sheetData>
@@ -22752,57 +22686,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="144" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="155" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="155" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="155" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -22828,53 +22757,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B1" s="156" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="138" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
@@ -22918,35 +22847,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="157" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C1" s="157" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1009</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1012</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1014</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22955,13 +22884,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D4" s="158" t="str">
         <f t="shared" si="1"/>
@@ -22970,70 +22899,70 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1018</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>1021</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1024</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="160" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D9" s="161" t="s">
         <v>1027</v>
-      </c>
-      <c r="B9" s="161" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>1029</v>
       </c>
       <c r="E9" s="161"/>
       <c r="F9" s="161"/>
@@ -23060,16 +22989,16 @@
     </row>
     <row r="10">
       <c r="A10" s="160" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C10" s="161" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="E10" s="162"/>
       <c r="F10" s="162"/>
@@ -23096,16 +23025,16 @@
     </row>
     <row r="11">
       <c r="A11" s="160" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D11" s="161" t="s">
         <v>1032</v>
-      </c>
-      <c r="B11" s="161" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C11" s="161" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D11" s="161" t="s">
-        <v>1034</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="162"/>
@@ -23132,16 +23061,16 @@
     </row>
     <row r="12">
       <c r="A12" s="160" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C12" s="161" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D12" s="161" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E12" s="162"/>
       <c r="F12" s="162"/>
@@ -23168,16 +23097,16 @@
     </row>
     <row r="13">
       <c r="A13" s="160" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B13" s="160" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="161" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D13" s="161" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E13" s="162"/>
       <c r="F13" s="162"/>
@@ -23204,16 +23133,16 @@
     </row>
     <row r="14">
       <c r="A14" s="160" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C14" s="161" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E14" s="162"/>
       <c r="F14" s="162"/>
@@ -23265,51 +23194,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="163" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="144" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C2" s="144" t="s">
         <v>1008</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="D2" s="144" t="s">
         <v>1009</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>1011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C5" s="164" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>1045</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C5" s="164" t="s">
-        <v>1044</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1047</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -369,7 +369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1044">
   <si>
     <t>Field</t>
   </si>
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.2.0</t>
+    <t>6.4.0</t>
   </si>
   <si>
     <r>
@@ -737,7 +737,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -791,7 +791,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -851,7 +851,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -908,7 +908,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -965,7 +965,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1445,7 +1445,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -1487,7 +1487,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -1532,7 +1532,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1574,7 +1574,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -1616,7 +1616,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -3891,27 +3891,6 @@
   </si>
   <si>
     <t>PROCEDURE/EAUCTION_USED</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:EAuctionTechniqueUsage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:usesTechnique ?value .</t>
-    </r>
   </si>
   <si>
     <t>IV.1.8</t>
@@ -4784,7 +4763,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -4830,7 +4809,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -4880,7 +4859,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasNutsCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasNutsCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4929,7 +4908,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -4975,7 +4954,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5825,7 +5804,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -5870,7 +5849,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -5915,7 +5894,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -5960,7 +5939,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6110,7 +6089,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -6155,7 +6134,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -6200,7 +6179,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6245,7 +6224,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6413,7 +6392,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:thoroughfare ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
     <r>
       <rPr>
@@ -6458,7 +6437,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postName ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postName ?</t>
     </r>
     <r>
       <rPr>
@@ -6503,7 +6482,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / locn:postCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
     <r>
       <rPr>
@@ -6548,7 +6527,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t xml:space="preserve"> epo:playedBy / legal:registeredAddress / epo:hasCountryCode ?</t>
+      <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
     <r>
       <rPr>
@@ -15219,38 +15198,34 @@
         <v>493</v>
       </c>
       <c r="F110" s="50"/>
-      <c r="G110" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="H110" s="67" t="s">
-        <v>495</v>
-      </c>
+      <c r="G110" s="37"/>
+      <c r="H110" s="50"/>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
       <c r="A111" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="B111" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C111" s="37" t="s">
         <v>496</v>
       </c>
-      <c r="B111" s="48" t="s">
+      <c r="D111" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="C111" s="37" t="s">
+      <c r="E111" s="50" t="s">
         <v>498</v>
-      </c>
-      <c r="D111" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="E111" s="50" t="s">
-        <v>500</v>
       </c>
       <c r="F111" s="50"/>
       <c r="G111" s="37" t="s">
         <v>435</v>
       </c>
       <c r="H111" s="67" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="I111" s="7"/>
       <c r="J111" s="7"/>
@@ -15258,26 +15233,26 @@
     </row>
     <row r="112">
       <c r="A112" s="93" t="s">
+        <v>494</v>
+      </c>
+      <c r="B112" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="C112" s="95" t="s">
         <v>496</v>
       </c>
-      <c r="B112" s="94" t="s">
+      <c r="D112" s="96" t="s">
         <v>497</v>
       </c>
-      <c r="C112" s="95" t="s">
-        <v>498</v>
-      </c>
-      <c r="D112" s="96" t="s">
-        <v>499</v>
-      </c>
       <c r="E112" s="70" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F112" s="70"/>
       <c r="G112" s="63" t="s">
         <v>435</v>
       </c>
       <c r="H112" s="97" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
@@ -15285,10 +15260,10 @@
     </row>
     <row r="113">
       <c r="A113" s="64" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B113" s="39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
@@ -15302,7 +15277,7 @@
     </row>
     <row r="114">
       <c r="A114" s="49" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B114" s="98"/>
       <c r="C114" s="4"/>
@@ -15311,13 +15286,13 @@
         <v>419</v>
       </c>
       <c r="F114" s="40" t="s">
+        <v>505</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="H114" s="37" t="s">
         <v>507</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="H114" s="37" t="s">
-        <v>509</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
@@ -15325,22 +15300,22 @@
     </row>
     <row r="115">
       <c r="A115" s="49" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B115" s="98" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
       <c r="E115" s="50" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="50" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H115" s="67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I115" s="7" t="s">
         <v>70</v>
@@ -15350,10 +15325,10 @@
     </row>
     <row r="116">
       <c r="A116" s="49" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -15367,26 +15342,26 @@
     </row>
     <row r="117">
       <c r="A117" s="80" t="s">
+        <v>515</v>
+      </c>
+      <c r="B117" s="56" t="s">
+        <v>516</v>
+      </c>
+      <c r="C117" s="37" t="s">
         <v>517</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="D117" s="37" t="s">
         <v>518</v>
       </c>
-      <c r="C117" s="37" t="s">
+      <c r="E117" s="50" t="s">
         <v>519</v>
-      </c>
-      <c r="D117" s="37" t="s">
-        <v>520</v>
-      </c>
-      <c r="E117" s="50" t="s">
-        <v>521</v>
       </c>
       <c r="F117" s="50"/>
       <c r="G117" s="37" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H117" s="67" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
@@ -15394,10 +15369,10 @@
     </row>
     <row r="118">
       <c r="A118" s="49" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B118" s="48" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
@@ -15411,26 +15386,26 @@
     </row>
     <row r="119">
       <c r="A119" s="80" t="s">
+        <v>524</v>
+      </c>
+      <c r="B119" s="56" t="s">
+        <v>525</v>
+      </c>
+      <c r="C119" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="B119" s="56" t="s">
+      <c r="D119" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="C119" s="37" t="s">
+      <c r="E119" s="50" t="s">
         <v>528</v>
-      </c>
-      <c r="D119" s="37" t="s">
-        <v>529</v>
-      </c>
-      <c r="E119" s="50" t="s">
-        <v>530</v>
       </c>
       <c r="F119" s="50"/>
       <c r="G119" s="37" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H119" s="37" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
@@ -15438,24 +15413,24 @@
     </row>
     <row r="120">
       <c r="A120" s="88" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="F120" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F120" s="50" t="s">
+      <c r="H120" s="4" t="s">
         <v>535</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
@@ -15463,49 +15438,49 @@
     </row>
     <row r="121">
       <c r="A121" s="99" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B121" s="100" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C121" s="101"/>
       <c r="D121" s="101"/>
       <c r="E121" s="57" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F121" s="41" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G121" s="41" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H121" s="102" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="99" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B122" s="100" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C122" s="63"/>
       <c r="D122" s="63"/>
       <c r="E122" s="103" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H122" s="37" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
@@ -15513,28 +15488,28 @@
     </row>
     <row r="123">
       <c r="A123" s="49" t="s">
+        <v>541</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>542</v>
+      </c>
+      <c r="C123" s="63" t="s">
         <v>543</v>
       </c>
-      <c r="B123" s="48" t="s">
+      <c r="D123" s="63" t="s">
         <v>544</v>
       </c>
-      <c r="C123" s="63" t="s">
+      <c r="E123" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="D123" s="63" t="s">
+      <c r="F123" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="E123" s="50" t="s">
+      <c r="H123" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="F123" s="50" t="s">
-        <v>535</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>548</v>
-      </c>
-      <c r="H123" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="I123" s="7" t="s">
         <v>70</v>
@@ -15544,28 +15519,28 @@
     </row>
     <row r="124">
       <c r="A124" s="49" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B124" s="48" t="s">
         <v>6</v>
       </c>
       <c r="C124" s="63" t="s">
+        <v>549</v>
+      </c>
+      <c r="D124" s="63" t="s">
+        <v>550</v>
+      </c>
+      <c r="E124" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="D124" s="63" t="s">
+      <c r="F124" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="H124" s="71" t="s">
         <v>553</v>
-      </c>
-      <c r="F124" s="50" t="s">
-        <v>535</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="H124" s="71" t="s">
-        <v>555</v>
       </c>
       <c r="I124" s="7" t="s">
         <v>62</v>
@@ -15575,26 +15550,26 @@
     </row>
     <row r="125">
       <c r="A125" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="B125" s="48" t="s">
+        <v>555</v>
+      </c>
+      <c r="C125" s="63" t="s">
         <v>556</v>
       </c>
-      <c r="B125" s="48" t="s">
+      <c r="D125" s="63" t="s">
         <v>557</v>
       </c>
-      <c r="C125" s="63" t="s">
+      <c r="E125" s="40" t="s">
         <v>558</v>
-      </c>
-      <c r="D125" s="63" t="s">
-        <v>559</v>
-      </c>
-      <c r="E125" s="40" t="s">
-        <v>560</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H125" s="76" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
@@ -15602,26 +15577,26 @@
     </row>
     <row r="126">
       <c r="A126" s="93" t="s">
+        <v>554</v>
+      </c>
+      <c r="B126" s="94" t="s">
+        <v>555</v>
+      </c>
+      <c r="C126" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="B126" s="94" t="s">
+      <c r="D126" s="96" t="s">
         <v>557</v>
       </c>
-      <c r="C126" s="96" t="s">
-        <v>558</v>
-      </c>
-      <c r="D126" s="96" t="s">
-        <v>559</v>
-      </c>
       <c r="E126" s="66" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F126" s="7"/>
       <c r="G126" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H126" s="66" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="I126" s="7"/>
       <c r="J126" s="7"/>
@@ -15629,10 +15604,10 @@
     </row>
     <row r="127">
       <c r="A127" s="64" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B127" s="39" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C127" s="104" t="s">
         <v>472</v>
@@ -15648,10 +15623,10 @@
     </row>
     <row r="128">
       <c r="A128" s="49" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B128" s="48" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C128" s="104" t="s">
         <v>472</v>
@@ -15667,26 +15642,26 @@
     </row>
     <row r="129">
       <c r="A129" s="80" t="s">
+        <v>568</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="C129" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="B129" s="56" t="s">
+      <c r="D129" s="63" t="s">
         <v>571</v>
       </c>
-      <c r="C129" s="63" t="s">
+      <c r="E129" s="50" t="s">
         <v>572</v>
-      </c>
-      <c r="D129" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="E129" s="50" t="s">
-        <v>574</v>
       </c>
       <c r="F129" s="50"/>
       <c r="G129" s="37" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H129" s="91" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
@@ -15694,26 +15669,26 @@
     </row>
     <row r="130">
       <c r="A130" s="80" t="s">
+        <v>575</v>
+      </c>
+      <c r="B130" s="56" t="s">
+        <v>576</v>
+      </c>
+      <c r="C130" s="63" t="s">
+        <v>570</v>
+      </c>
+      <c r="D130" s="63" t="s">
+        <v>571</v>
+      </c>
+      <c r="E130" s="50" t="s">
         <v>577</v>
-      </c>
-      <c r="B130" s="56" t="s">
-        <v>578</v>
-      </c>
-      <c r="C130" s="63" t="s">
-        <v>572</v>
-      </c>
-      <c r="D130" s="63" t="s">
-        <v>573</v>
-      </c>
-      <c r="E130" s="50" t="s">
-        <v>579</v>
       </c>
       <c r="F130" s="50"/>
       <c r="G130" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H130" s="76" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I130" s="7"/>
       <c r="J130" s="7"/>
@@ -15721,24 +15696,24 @@
     </row>
     <row r="131">
       <c r="A131" s="80" t="s">
+        <v>579</v>
+      </c>
+      <c r="B131" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="C131" s="105" t="s">
         <v>581</v>
-      </c>
-      <c r="B131" s="56" t="s">
-        <v>582</v>
-      </c>
-      <c r="C131" s="105" t="s">
-        <v>583</v>
       </c>
       <c r="D131" s="63"/>
       <c r="E131" s="106" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F131" s="106"/>
       <c r="G131" s="106" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H131" s="107" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
@@ -15746,10 +15721,10 @@
     </row>
     <row r="132">
       <c r="A132" s="64" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B132" s="39" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C132" s="104" t="s">
         <v>472</v>
@@ -15765,20 +15740,20 @@
     </row>
     <row r="133">
       <c r="A133" s="80" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B133" s="56"/>
       <c r="C133" s="63"/>
       <c r="D133" s="7"/>
       <c r="E133" s="57" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F133" s="50"/>
       <c r="G133" s="37" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H133" s="50" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
@@ -15786,49 +15761,49 @@
     </row>
     <row r="134">
       <c r="A134" s="80" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B134" s="108"/>
       <c r="C134" s="63"/>
       <c r="D134" s="7"/>
       <c r="E134" s="57" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F134" s="50"/>
       <c r="G134" s="37" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="H134" s="50" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="49" t="s">
+        <v>592</v>
+      </c>
+      <c r="B135" s="48" t="s">
+        <v>593</v>
+      </c>
+      <c r="C135" s="63" t="s">
         <v>594</v>
       </c>
-      <c r="B135" s="48" t="s">
+      <c r="D135" s="63" t="s">
         <v>595</v>
       </c>
-      <c r="C135" s="63" t="s">
+      <c r="E135" s="50" t="s">
         <v>596</v>
-      </c>
-      <c r="D135" s="63" t="s">
-        <v>597</v>
-      </c>
-      <c r="E135" s="50" t="s">
-        <v>598</v>
       </c>
       <c r="F135" s="50"/>
       <c r="G135" s="40" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -15836,51 +15811,51 @@
     </row>
     <row r="136">
       <c r="A136" s="49" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C136" s="109"/>
       <c r="D136" s="109"/>
       <c r="E136" s="57" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F136" s="110"/>
       <c r="G136" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="H136" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="I136" s="7" t="s">
         <v>603</v>
-      </c>
-      <c r="H136" s="37" t="s">
-        <v>604</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>605</v>
       </c>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
       <c r="A137" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="C137" s="63" t="s">
         <v>606</v>
       </c>
-      <c r="B137" s="56" t="s">
+      <c r="D137" s="63" t="s">
         <v>607</v>
       </c>
-      <c r="C137" s="63" t="s">
+      <c r="E137" s="50" t="s">
         <v>608</v>
-      </c>
-      <c r="D137" s="63" t="s">
-        <v>609</v>
-      </c>
-      <c r="E137" s="50" t="s">
-        <v>610</v>
       </c>
       <c r="F137" s="50"/>
       <c r="G137" s="37" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="H137" s="37" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
@@ -15888,22 +15863,22 @@
     </row>
     <row r="138">
       <c r="A138" s="80" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B138" s="56" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C138" s="63"/>
       <c r="D138" s="63"/>
       <c r="E138" s="50" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F138" s="50"/>
       <c r="G138" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H138" s="40" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
@@ -15911,22 +15886,22 @@
     </row>
     <row r="139">
       <c r="A139" s="80" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B139" s="56" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C139" s="63"/>
       <c r="D139" s="63"/>
       <c r="E139" s="50" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F139" s="50"/>
       <c r="G139" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H139" s="40" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
@@ -15934,22 +15909,22 @@
     </row>
     <row r="140">
       <c r="A140" s="80" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B140" s="56" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C140" s="63"/>
       <c r="D140" s="63"/>
       <c r="E140" s="50" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="F140" s="50"/>
       <c r="G140" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H140" s="40" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -15957,22 +15932,22 @@
     </row>
     <row r="141">
       <c r="A141" s="80" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B141" s="56" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="63"/>
       <c r="E141" s="50" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F141" s="50"/>
       <c r="G141" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -15980,17 +15955,17 @@
     </row>
     <row r="142">
       <c r="A142" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="B142" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="C142" s="111" t="s">
         <v>630</v>
-      </c>
-      <c r="B142" s="56" t="s">
-        <v>631</v>
-      </c>
-      <c r="C142" s="111" t="s">
-        <v>632</v>
       </c>
       <c r="D142" s="63"/>
       <c r="E142" s="50" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F142" s="66"/>
       <c r="G142" s="37" t="s">
@@ -16005,10 +15980,10 @@
     </row>
     <row r="143">
       <c r="A143" s="49" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B143" s="48" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C143" s="104" t="s">
         <v>472</v>
@@ -16024,7 +15999,7 @@
     </row>
     <row r="144">
       <c r="A144" s="80" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B144" s="56" t="s">
         <v>56</v>
@@ -16036,14 +16011,14 @@
         <v>58</v>
       </c>
       <c r="E144" s="50" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F144" s="50"/>
       <c r="G144" s="44" t="s">
         <v>60</v>
       </c>
       <c r="H144" s="44" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I144" s="7" t="s">
         <v>62</v>
@@ -16053,7 +16028,7 @@
     </row>
     <row r="145">
       <c r="A145" s="80" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B145" s="56" t="s">
         <v>64</v>
@@ -16065,14 +16040,14 @@
         <v>66</v>
       </c>
       <c r="E145" s="50" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F145" s="50"/>
       <c r="G145" s="46" t="s">
         <v>68</v>
       </c>
       <c r="H145" s="46" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I145" s="7" t="s">
         <v>70</v>
@@ -16082,7 +16057,7 @@
     </row>
     <row r="146">
       <c r="A146" s="80" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B146" s="56" t="s">
         <v>72</v>
@@ -16094,14 +16069,14 @@
         <v>74</v>
       </c>
       <c r="E146" s="50" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F146" s="50"/>
       <c r="G146" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H146" s="40" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I146" s="7"/>
       <c r="J146" s="7"/>
@@ -16109,7 +16084,7 @@
     </row>
     <row r="147">
       <c r="A147" s="80" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B147" s="56" t="s">
         <v>79</v>
@@ -16121,14 +16096,14 @@
         <v>81</v>
       </c>
       <c r="E147" s="50" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F147" s="50"/>
       <c r="G147" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H147" s="40" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I147" s="7"/>
       <c r="J147" s="7"/>
@@ -16136,7 +16111,7 @@
     </row>
     <row r="148">
       <c r="A148" s="80" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B148" s="56" t="s">
         <v>85</v>
@@ -16148,16 +16123,16 @@
         <v>87</v>
       </c>
       <c r="E148" s="40" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F148" s="40" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G148" s="37" t="s">
         <v>90</v>
       </c>
       <c r="H148" s="50" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I148" s="7"/>
       <c r="J148" s="7"/>
@@ -16165,7 +16140,7 @@
     </row>
     <row r="149">
       <c r="A149" s="80" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B149" s="56" t="s">
         <v>93</v>
@@ -16174,17 +16149,17 @@
         <v>94</v>
       </c>
       <c r="D149" s="63" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E149" s="50" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F149" s="50"/>
       <c r="G149" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H149" s="40" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
@@ -16192,7 +16167,7 @@
     </row>
     <row r="150">
       <c r="A150" s="80" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B150" s="56" t="s">
         <v>100</v>
@@ -16204,14 +16179,14 @@
         <v>102</v>
       </c>
       <c r="E150" s="50" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F150" s="50"/>
       <c r="G150" s="44" t="s">
         <v>104</v>
       </c>
       <c r="H150" s="44" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
@@ -16219,7 +16194,7 @@
     </row>
     <row r="151">
       <c r="A151" s="80" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B151" s="56" t="s">
         <v>120</v>
@@ -16231,14 +16206,14 @@
         <v>122</v>
       </c>
       <c r="E151" s="50" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="F151" s="50"/>
       <c r="G151" s="50" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H151" s="91" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
@@ -16246,7 +16221,7 @@
     </row>
     <row r="152">
       <c r="A152" s="80" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B152" s="56" t="s">
         <v>114</v>
@@ -16258,14 +16233,14 @@
         <v>116</v>
       </c>
       <c r="E152" s="50" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F152" s="50"/>
       <c r="G152" s="50" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H152" s="91" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I152" s="7"/>
       <c r="J152" s="7"/>
@@ -16273,10 +16248,10 @@
     </row>
     <row r="153">
       <c r="A153" s="80" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B153" s="56" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C153" s="63" t="s">
         <v>136</v>
@@ -16285,14 +16260,14 @@
         <v>137</v>
       </c>
       <c r="E153" s="50" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F153" s="50"/>
       <c r="G153" s="46" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H153" s="46" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
@@ -16300,7 +16275,7 @@
     </row>
     <row r="154">
       <c r="A154" s="80" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B154" s="56" t="s">
         <v>127</v>
@@ -16312,14 +16287,14 @@
         <v>129</v>
       </c>
       <c r="E154" s="50" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="F154" s="50"/>
       <c r="G154" s="50" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H154" s="91" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
@@ -16327,26 +16302,26 @@
     </row>
     <row r="155">
       <c r="A155" s="80" t="s">
+        <v>672</v>
+      </c>
+      <c r="B155" s="56" t="s">
+        <v>673</v>
+      </c>
+      <c r="C155" s="63" t="s">
         <v>674</v>
       </c>
-      <c r="B155" s="56" t="s">
+      <c r="D155" s="63" t="s">
         <v>675</v>
       </c>
-      <c r="C155" s="63" t="s">
+      <c r="E155" s="50" t="s">
         <v>676</v>
-      </c>
-      <c r="D155" s="63" t="s">
-        <v>677</v>
-      </c>
-      <c r="E155" s="50" t="s">
-        <v>678</v>
       </c>
       <c r="F155" s="40"/>
       <c r="G155" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H155" s="112" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
@@ -16358,14 +16333,14 @@
       <c r="C156" s="63"/>
       <c r="D156" s="63"/>
       <c r="E156" s="113" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F156" s="66"/>
       <c r="G156" s="44" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H156" s="114" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
@@ -16373,10 +16348,10 @@
     </row>
     <row r="157">
       <c r="A157" s="49" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B157" s="48" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C157" s="104" t="s">
         <v>472</v>
@@ -16392,26 +16367,26 @@
     </row>
     <row r="158">
       <c r="A158" s="80" t="s">
+        <v>683</v>
+      </c>
+      <c r="B158" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="C158" s="63" t="s">
         <v>685</v>
-      </c>
-      <c r="B158" s="56" t="s">
-        <v>686</v>
-      </c>
-      <c r="C158" s="63" t="s">
-        <v>687</v>
       </c>
       <c r="D158" s="63" t="s">
         <v>271</v>
       </c>
       <c r="E158" s="50" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F158" s="50"/>
       <c r="G158" s="37" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H158" s="50" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
@@ -16419,24 +16394,24 @@
     </row>
     <row r="159">
       <c r="A159" s="74" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B159" s="75" t="s">
         <v>288</v>
       </c>
       <c r="C159" s="115" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D159" s="63"/>
       <c r="E159" s="50" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F159" s="50"/>
       <c r="G159" s="37" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="H159" s="50" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
@@ -16444,26 +16419,26 @@
     </row>
     <row r="160">
       <c r="A160" s="80" t="s">
+        <v>694</v>
+      </c>
+      <c r="B160" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="C160" s="63" t="s">
         <v>696</v>
       </c>
-      <c r="B160" s="56" t="s">
+      <c r="D160" s="63" t="s">
         <v>697</v>
       </c>
-      <c r="C160" s="63" t="s">
+      <c r="E160" s="50" t="s">
         <v>698</v>
-      </c>
-      <c r="D160" s="63" t="s">
-        <v>699</v>
-      </c>
-      <c r="E160" s="50" t="s">
-        <v>700</v>
       </c>
       <c r="F160" s="50"/>
       <c r="G160" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H160" s="40" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
@@ -16471,24 +16446,24 @@
     </row>
     <row r="161">
       <c r="A161" s="74" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B161" s="75" t="s">
         <v>288</v>
       </c>
       <c r="C161" s="115" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D161" s="63"/>
       <c r="E161" s="50" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="F161" s="50"/>
       <c r="G161" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H161" s="40" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
@@ -16496,7 +16471,7 @@
     </row>
     <row r="162">
       <c r="A162" s="80" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B162" s="56" t="s">
         <v>276</v>
@@ -16508,14 +16483,14 @@
         <v>278</v>
       </c>
       <c r="E162" s="50" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F162" s="50"/>
       <c r="G162" s="37" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H162" s="50" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
@@ -16523,24 +16498,24 @@
     </row>
     <row r="163">
       <c r="A163" s="74" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B163" s="75" t="s">
         <v>288</v>
       </c>
       <c r="C163" s="115" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D163" s="63"/>
       <c r="E163" s="70" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F163" s="70"/>
       <c r="G163" s="63" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H163" s="70" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
@@ -16548,7 +16523,7 @@
     </row>
     <row r="164">
       <c r="A164" s="80" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B164" s="56" t="s">
         <v>282</v>
@@ -16560,14 +16535,14 @@
         <v>284</v>
       </c>
       <c r="E164" s="50" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F164" s="50"/>
       <c r="G164" s="37" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H164" s="50" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
@@ -16575,24 +16550,24 @@
     </row>
     <row r="165">
       <c r="A165" s="74" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B165" s="75" t="s">
         <v>288</v>
       </c>
       <c r="C165" s="115" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D165" s="63"/>
       <c r="E165" s="113" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F165" s="70"/>
       <c r="G165" s="63" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="H165" s="70" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
@@ -16600,10 +16575,10 @@
     </row>
     <row r="166">
       <c r="A166" s="49" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B166" s="48" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C166" s="116" t="s">
         <v>472</v>
@@ -16619,26 +16594,26 @@
     </row>
     <row r="167">
       <c r="A167" s="80" t="s">
+        <v>720</v>
+      </c>
+      <c r="B167" s="56" t="s">
+        <v>721</v>
+      </c>
+      <c r="C167" s="63" t="s">
         <v>722</v>
       </c>
-      <c r="B167" s="56" t="s">
+      <c r="D167" s="63" t="s">
         <v>723</v>
       </c>
-      <c r="C167" s="63" t="s">
+      <c r="E167" s="50" t="s">
         <v>724</v>
-      </c>
-      <c r="D167" s="63" t="s">
-        <v>725</v>
-      </c>
-      <c r="E167" s="50" t="s">
-        <v>726</v>
       </c>
       <c r="F167" s="50"/>
       <c r="G167" s="50" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H167" s="67" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
@@ -16646,10 +16621,10 @@
     </row>
     <row r="168">
       <c r="A168" s="80" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B168" s="56" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
@@ -16663,26 +16638,26 @@
     </row>
     <row r="169">
       <c r="A169" s="80" t="s">
+        <v>729</v>
+      </c>
+      <c r="B169" s="56" t="s">
+        <v>730</v>
+      </c>
+      <c r="C169" s="70" t="s">
         <v>731</v>
       </c>
-      <c r="B169" s="56" t="s">
+      <c r="D169" s="70" t="s">
         <v>732</v>
       </c>
-      <c r="C169" s="70" t="s">
+      <c r="E169" s="117" t="s">
         <v>733</v>
-      </c>
-      <c r="D169" s="70" t="s">
-        <v>734</v>
-      </c>
-      <c r="E169" s="117" t="s">
-        <v>735</v>
       </c>
       <c r="F169" s="117"/>
       <c r="G169" s="37" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="H169" s="50" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
@@ -16690,24 +16665,24 @@
     </row>
     <row r="170">
       <c r="A170" s="80" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B170" s="56" t="s">
         <v>288</v>
       </c>
       <c r="C170" s="115" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D170" s="63"/>
       <c r="E170" s="117" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F170" s="117"/>
       <c r="G170" s="70" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H170" s="63" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -16715,26 +16690,26 @@
     </row>
     <row r="171">
       <c r="A171" s="80" t="s">
+        <v>740</v>
+      </c>
+      <c r="B171" s="56" t="s">
+        <v>741</v>
+      </c>
+      <c r="C171" s="63" t="s">
         <v>742</v>
       </c>
-      <c r="B171" s="56" t="s">
+      <c r="D171" s="37" t="s">
         <v>743</v>
       </c>
-      <c r="C171" s="63" t="s">
+      <c r="E171" s="117" t="s">
         <v>744</v>
-      </c>
-      <c r="D171" s="37" t="s">
-        <v>745</v>
-      </c>
-      <c r="E171" s="117" t="s">
-        <v>746</v>
       </c>
       <c r="F171" s="117"/>
       <c r="G171" s="50" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="H171" s="50" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -16742,26 +16717,26 @@
     </row>
     <row r="172">
       <c r="A172" s="80" t="s">
+        <v>747</v>
+      </c>
+      <c r="B172" s="56" t="s">
+        <v>748</v>
+      </c>
+      <c r="C172" s="63" t="s">
         <v>749</v>
       </c>
-      <c r="B172" s="56" t="s">
+      <c r="D172" s="63" t="s">
         <v>750</v>
       </c>
-      <c r="C172" s="63" t="s">
+      <c r="E172" s="117" t="s">
         <v>751</v>
-      </c>
-      <c r="D172" s="63" t="s">
-        <v>752</v>
-      </c>
-      <c r="E172" s="117" t="s">
-        <v>753</v>
       </c>
       <c r="F172" s="117"/>
       <c r="G172" s="70" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H172" s="70" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I172" s="7" t="s">
         <v>62</v>
@@ -16771,10 +16746,10 @@
     </row>
     <row r="173">
       <c r="A173" s="88" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
@@ -16788,7 +16763,7 @@
     </row>
     <row r="174">
       <c r="A174" s="64" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B174" s="39" t="s">
         <v>412</v>
@@ -16800,14 +16775,14 @@
         <v>414</v>
       </c>
       <c r="E174" s="117" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F174" s="117"/>
       <c r="G174" s="118" t="s">
         <v>227</v>
       </c>
       <c r="H174" s="119" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I174" s="7" t="s">
         <v>62</v>
@@ -16817,10 +16792,10 @@
     </row>
     <row r="175">
       <c r="A175" s="64" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B175" s="39" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C175" s="104" t="s">
         <v>472</v>
@@ -16836,24 +16811,24 @@
     </row>
     <row r="176">
       <c r="A176" s="49" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B176" s="48" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C176" s="121" t="s">
         <v>472</v>
       </c>
       <c r="D176" s="7"/>
       <c r="E176" s="122" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F176" s="117"/>
       <c r="G176" s="37" t="s">
         <v>53</v>
       </c>
       <c r="H176" s="37" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16861,7 +16836,7 @@
     </row>
     <row r="177">
       <c r="A177" s="80" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B177" s="56" t="s">
         <v>56</v>
@@ -16873,14 +16848,14 @@
         <v>58</v>
       </c>
       <c r="E177" s="50" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F177" s="50"/>
       <c r="G177" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H177" s="40" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I177" s="7" t="s">
         <v>62</v>
@@ -16890,7 +16865,7 @@
     </row>
     <row r="178">
       <c r="A178" s="80" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B178" s="56" t="s">
         <v>72</v>
@@ -16902,14 +16877,14 @@
         <v>74</v>
       </c>
       <c r="E178" s="50" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F178" s="50"/>
       <c r="G178" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H178" s="40" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I178" s="7"/>
       <c r="J178" s="7"/>
@@ -16917,7 +16892,7 @@
     </row>
     <row r="179">
       <c r="A179" s="80" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B179" s="56" t="s">
         <v>79</v>
@@ -16929,14 +16904,14 @@
         <v>81</v>
       </c>
       <c r="E179" s="50" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F179" s="50"/>
       <c r="G179" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H179" s="40" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -16944,7 +16919,7 @@
     </row>
     <row r="180">
       <c r="A180" s="80" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B180" s="56" t="s">
         <v>93</v>
@@ -16953,17 +16928,17 @@
         <v>94</v>
       </c>
       <c r="D180" s="63" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E180" s="50" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F180" s="50"/>
       <c r="G180" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H180" s="40" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -16971,7 +16946,7 @@
     </row>
     <row r="181">
       <c r="A181" s="80" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B181" s="56" t="s">
         <v>100</v>
@@ -16983,14 +16958,14 @@
         <v>102</v>
       </c>
       <c r="E181" s="50" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F181" s="50"/>
       <c r="G181" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H181" s="50" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
@@ -16998,7 +16973,7 @@
     </row>
     <row r="182">
       <c r="A182" s="80" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B182" s="56" t="s">
         <v>120</v>
@@ -17010,14 +16985,14 @@
         <v>122</v>
       </c>
       <c r="E182" s="50" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F182" s="50"/>
       <c r="G182" s="50" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H182" s="50" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
@@ -17025,7 +17000,7 @@
     </row>
     <row r="183">
       <c r="A183" s="80" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B183" s="56" t="s">
         <v>114</v>
@@ -17037,14 +17012,14 @@
         <v>116</v>
       </c>
       <c r="E183" s="50" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F183" s="70"/>
       <c r="G183" s="50" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H183" s="50" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
@@ -17052,10 +17027,10 @@
     </row>
     <row r="184">
       <c r="A184" s="80" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B184" s="56" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C184" s="63" t="s">
         <v>136</v>
@@ -17064,14 +17039,14 @@
         <v>137</v>
       </c>
       <c r="E184" s="50" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F184" s="50"/>
       <c r="G184" s="46" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H184" s="46" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -17079,7 +17054,7 @@
     </row>
     <row r="185">
       <c r="A185" s="80" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B185" s="56" t="s">
         <v>127</v>
@@ -17091,14 +17066,14 @@
         <v>129</v>
       </c>
       <c r="E185" s="50" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F185" s="50"/>
       <c r="G185" s="50" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H185" s="50" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
@@ -17106,24 +17081,24 @@
     </row>
     <row r="186">
       <c r="A186" s="49" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B186" s="48" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C186" s="121" t="s">
         <v>472</v>
       </c>
       <c r="D186" s="123"/>
       <c r="E186" s="40" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H186" s="37" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I186" s="7"/>
       <c r="J186" s="7"/>
@@ -17131,7 +17106,7 @@
     </row>
     <row r="187">
       <c r="A187" s="80" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B187" s="56" t="s">
         <v>56</v>
@@ -17143,14 +17118,14 @@
         <v>58</v>
       </c>
       <c r="E187" s="50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="F187" s="50"/>
       <c r="G187" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H187" s="40" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I187" s="7" t="s">
         <v>62</v>
@@ -17160,7 +17135,7 @@
     </row>
     <row r="188">
       <c r="A188" s="80" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B188" s="56" t="s">
         <v>72</v>
@@ -17172,14 +17147,14 @@
         <v>74</v>
       </c>
       <c r="E188" s="50" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="F188" s="50"/>
       <c r="G188" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H188" s="40" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
@@ -17187,7 +17162,7 @@
     </row>
     <row r="189">
       <c r="A189" s="80" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B189" s="56" t="s">
         <v>79</v>
@@ -17199,14 +17174,14 @@
         <v>81</v>
       </c>
       <c r="E189" s="50" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="F189" s="50"/>
       <c r="G189" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H189" s="40" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
@@ -17214,7 +17189,7 @@
     </row>
     <row r="190">
       <c r="A190" s="80" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B190" s="56" t="s">
         <v>93</v>
@@ -17223,17 +17198,17 @@
         <v>94</v>
       </c>
       <c r="D190" s="63" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E190" s="50" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="F190" s="50"/>
       <c r="G190" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H190" s="40" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
@@ -17241,7 +17216,7 @@
     </row>
     <row r="191">
       <c r="A191" s="80" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B191" s="56" t="s">
         <v>100</v>
@@ -17253,14 +17228,14 @@
         <v>102</v>
       </c>
       <c r="E191" s="50" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F191" s="50"/>
       <c r="G191" s="40" t="s">
         <v>104</v>
       </c>
       <c r="H191" s="40" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
@@ -17268,7 +17243,7 @@
     </row>
     <row r="192">
       <c r="A192" s="80" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B192" s="56" t="s">
         <v>120</v>
@@ -17280,14 +17255,14 @@
         <v>122</v>
       </c>
       <c r="E192" s="50" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F192" s="50"/>
       <c r="G192" s="50" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H192" s="50" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I192" s="7"/>
       <c r="J192" s="7"/>
@@ -17295,7 +17270,7 @@
     </row>
     <row r="193">
       <c r="A193" s="80" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B193" s="56" t="s">
         <v>114</v>
@@ -17307,14 +17282,14 @@
         <v>116</v>
       </c>
       <c r="E193" s="50" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="F193" s="50"/>
       <c r="G193" s="50" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H193" s="50" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -17322,10 +17297,10 @@
     </row>
     <row r="194">
       <c r="A194" s="80" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B194" s="56" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C194" s="63" t="s">
         <v>136</v>
@@ -17334,14 +17309,14 @@
         <v>137</v>
       </c>
       <c r="E194" s="50" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F194" s="70"/>
       <c r="G194" s="46" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H194" s="46" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -17349,7 +17324,7 @@
     </row>
     <row r="195">
       <c r="A195" s="80" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B195" s="56" t="s">
         <v>127</v>
@@ -17361,14 +17336,14 @@
         <v>129</v>
       </c>
       <c r="E195" s="50" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F195" s="50"/>
       <c r="G195" s="50" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H195" s="50" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
@@ -17376,26 +17351,26 @@
     </row>
     <row r="196">
       <c r="A196" s="49" t="s">
+        <v>817</v>
+      </c>
+      <c r="B196" s="48" t="s">
+        <v>818</v>
+      </c>
+      <c r="C196" s="63" t="s">
         <v>819</v>
       </c>
-      <c r="B196" s="48" t="s">
+      <c r="D196" s="63" t="s">
         <v>820</v>
       </c>
-      <c r="C196" s="63" t="s">
+      <c r="E196" s="50" t="s">
         <v>821</v>
-      </c>
-      <c r="D196" s="63" t="s">
-        <v>822</v>
-      </c>
-      <c r="E196" s="50" t="s">
-        <v>823</v>
       </c>
       <c r="F196" s="50"/>
       <c r="G196" s="40" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H196" s="119" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
@@ -17403,22 +17378,22 @@
     </row>
     <row r="197">
       <c r="A197" s="49" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B197" s="48" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="40" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F197" s="37"/>
       <c r="G197" s="37" t="s">
         <v>53</v>
       </c>
       <c r="H197" s="37" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I197" s="7"/>
       <c r="J197" s="7"/>
@@ -17426,7 +17401,7 @@
     </row>
     <row r="198">
       <c r="A198" s="80" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B198" s="56" t="s">
         <v>56</v>
@@ -17438,14 +17413,14 @@
         <v>58</v>
       </c>
       <c r="E198" s="50" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F198" s="50"/>
       <c r="G198" s="40" t="s">
         <v>60</v>
       </c>
       <c r="H198" s="40" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I198" s="7" t="s">
         <v>62</v>
@@ -17455,7 +17430,7 @@
     </row>
     <row r="199">
       <c r="A199" s="80" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B199" s="56" t="s">
         <v>72</v>
@@ -17467,14 +17442,14 @@
         <v>74</v>
       </c>
       <c r="E199" s="50" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F199" s="50"/>
       <c r="G199" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H199" s="40" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
@@ -17482,7 +17457,7 @@
     </row>
     <row r="200">
       <c r="A200" s="80" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B200" s="56" t="s">
         <v>79</v>
@@ -17494,14 +17469,14 @@
         <v>81</v>
       </c>
       <c r="E200" s="50" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F200" s="50"/>
       <c r="G200" s="40" t="s">
         <v>76</v>
       </c>
       <c r="H200" s="40" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
@@ -17509,7 +17484,7 @@
     </row>
     <row r="201">
       <c r="A201" s="80" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B201" s="56" t="s">
         <v>93</v>
@@ -17518,17 +17493,17 @@
         <v>94</v>
       </c>
       <c r="D201" s="63" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E201" s="50" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="F201" s="50"/>
       <c r="G201" s="40" t="s">
         <v>97</v>
       </c>
       <c r="H201" s="40" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -17536,7 +17511,7 @@
     </row>
     <row r="202">
       <c r="A202" s="80" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B202" s="56" t="s">
         <v>100</v>
@@ -17548,14 +17523,14 @@
         <v>102</v>
       </c>
       <c r="E202" s="50" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F202" s="50"/>
       <c r="G202" s="50" t="s">
         <v>104</v>
       </c>
       <c r="H202" s="50" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
@@ -17563,7 +17538,7 @@
     </row>
     <row r="203">
       <c r="A203" s="80" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B203" s="56" t="s">
         <v>120</v>
@@ -17575,14 +17550,14 @@
         <v>122</v>
       </c>
       <c r="E203" s="50" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F203" s="50"/>
       <c r="G203" s="50" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H203" s="50" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
@@ -17590,7 +17565,7 @@
     </row>
     <row r="204">
       <c r="A204" s="80" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B204" s="56" t="s">
         <v>114</v>
@@ -17602,14 +17577,14 @@
         <v>116</v>
       </c>
       <c r="E204" s="50" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F204" s="50"/>
       <c r="G204" s="50" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H204" s="50" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -17617,10 +17592,10 @@
     </row>
     <row r="205">
       <c r="A205" s="80" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B205" s="56" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C205" s="63" t="s">
         <v>136</v>
@@ -17629,14 +17604,14 @@
         <v>137</v>
       </c>
       <c r="E205" s="70" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F205" s="70"/>
       <c r="G205" s="61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H205" s="61" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
@@ -17644,7 +17619,7 @@
     </row>
     <row r="206">
       <c r="A206" s="80" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B206" s="56" t="s">
         <v>127</v>
@@ -17656,14 +17631,14 @@
         <v>129</v>
       </c>
       <c r="E206" s="50" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F206" s="70"/>
       <c r="G206" s="70" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H206" s="70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
@@ -17671,26 +17646,26 @@
     </row>
     <row r="207">
       <c r="A207" s="64" t="s">
+        <v>851</v>
+      </c>
+      <c r="B207" s="39" t="s">
+        <v>852</v>
+      </c>
+      <c r="C207" s="125" t="s">
         <v>853</v>
       </c>
-      <c r="B207" s="39" t="s">
+      <c r="D207" s="125" t="s">
         <v>854</v>
       </c>
-      <c r="C207" s="125" t="s">
+      <c r="E207" s="126" t="s">
         <v>855</v>
-      </c>
-      <c r="D207" s="125" t="s">
-        <v>856</v>
-      </c>
-      <c r="E207" s="126" t="s">
-        <v>857</v>
       </c>
       <c r="F207" s="126"/>
       <c r="G207" s="40" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="H207" s="127" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
@@ -17698,10 +17673,10 @@
     </row>
     <row r="208">
       <c r="A208" s="88" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B208" s="35" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
@@ -17715,17 +17690,17 @@
     </row>
     <row r="209">
       <c r="A209" s="64" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B209" s="39" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C209" s="104" t="s">
         <v>472</v>
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="50" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="4"/>
@@ -17736,16 +17711,16 @@
     </row>
     <row r="210">
       <c r="A210" s="49" t="s">
+        <v>863</v>
+      </c>
+      <c r="B210" s="48" t="s">
+        <v>864</v>
+      </c>
+      <c r="C210" s="104" t="s">
         <v>865</v>
       </c>
-      <c r="B210" s="48" t="s">
+      <c r="D210" s="63" t="s">
         <v>866</v>
-      </c>
-      <c r="C210" s="104" t="s">
-        <v>867</v>
-      </c>
-      <c r="D210" s="63" t="s">
-        <v>868</v>
       </c>
       <c r="E210" s="40"/>
       <c r="F210" s="7"/>
@@ -17757,26 +17732,26 @@
     </row>
     <row r="211">
       <c r="A211" s="80" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B211" s="56" t="s">
         <v>424</v>
       </c>
       <c r="C211" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="D211" s="63" t="s">
+        <v>869</v>
+      </c>
+      <c r="E211" s="70" t="s">
         <v>870</v>
-      </c>
-      <c r="D211" s="63" t="s">
-        <v>871</v>
-      </c>
-      <c r="E211" s="70" t="s">
-        <v>872</v>
       </c>
       <c r="F211" s="63"/>
       <c r="G211" s="66" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H211" s="128" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
@@ -17784,26 +17759,26 @@
     </row>
     <row r="212">
       <c r="A212" s="129" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B212" s="78" t="s">
         <v>424</v>
       </c>
       <c r="C212" s="130" t="s">
+        <v>868</v>
+      </c>
+      <c r="D212" s="130" t="s">
+        <v>869</v>
+      </c>
+      <c r="E212" s="57" t="s">
         <v>870</v>
-      </c>
-      <c r="D212" s="130" t="s">
-        <v>871</v>
-      </c>
-      <c r="E212" s="57" t="s">
-        <v>872</v>
       </c>
       <c r="F212" s="63"/>
       <c r="G212" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H212" s="76" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
@@ -17811,26 +17786,26 @@
     </row>
     <row r="213">
       <c r="A213" s="80" t="s">
+        <v>875</v>
+      </c>
+      <c r="B213" s="56" t="s">
+        <v>876</v>
+      </c>
+      <c r="C213" s="63" t="s">
+        <v>868</v>
+      </c>
+      <c r="D213" s="63" t="s">
+        <v>869</v>
+      </c>
+      <c r="E213" s="50" t="s">
         <v>877</v>
-      </c>
-      <c r="B213" s="56" t="s">
-        <v>878</v>
-      </c>
-      <c r="C213" s="63" t="s">
-        <v>870</v>
-      </c>
-      <c r="D213" s="63" t="s">
-        <v>871</v>
-      </c>
-      <c r="E213" s="50" t="s">
-        <v>879</v>
       </c>
       <c r="F213" s="63"/>
       <c r="G213" s="40" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H213" s="76" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
@@ -17838,26 +17813,26 @@
     </row>
     <row r="214">
       <c r="A214" s="129" t="s">
+        <v>875</v>
+      </c>
+      <c r="B214" s="78" t="s">
+        <v>876</v>
+      </c>
+      <c r="C214" s="130" t="s">
+        <v>868</v>
+      </c>
+      <c r="D214" s="130" t="s">
+        <v>869</v>
+      </c>
+      <c r="E214" s="57" t="s">
         <v>877</v>
-      </c>
-      <c r="B214" s="78" t="s">
-        <v>878</v>
-      </c>
-      <c r="C214" s="130" t="s">
-        <v>870</v>
-      </c>
-      <c r="D214" s="130" t="s">
-        <v>871</v>
-      </c>
-      <c r="E214" s="57" t="s">
-        <v>879</v>
       </c>
       <c r="F214" s="63"/>
       <c r="G214" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H214" s="76" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
@@ -17865,26 +17840,26 @@
     </row>
     <row r="215">
       <c r="A215" s="49" t="s">
+        <v>880</v>
+      </c>
+      <c r="B215" s="48" t="s">
+        <v>881</v>
+      </c>
+      <c r="C215" s="104" t="s">
+        <v>865</v>
+      </c>
+      <c r="D215" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E215" s="50" t="s">
         <v>882</v>
-      </c>
-      <c r="B215" s="48" t="s">
-        <v>883</v>
-      </c>
-      <c r="C215" s="104" t="s">
-        <v>867</v>
-      </c>
-      <c r="D215" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E215" s="50" t="s">
-        <v>884</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H215" s="76" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17892,10 +17867,10 @@
     </row>
     <row r="216">
       <c r="A216" s="49" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B216" s="48" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C216" s="104" t="s">
         <v>472</v>
@@ -17911,26 +17886,26 @@
     </row>
     <row r="217">
       <c r="A217" s="80" t="s">
+        <v>886</v>
+      </c>
+      <c r="B217" s="56" t="s">
+        <v>887</v>
+      </c>
+      <c r="C217" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="D217" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E217" s="50" t="s">
         <v>888</v>
-      </c>
-      <c r="B217" s="56" t="s">
-        <v>889</v>
-      </c>
-      <c r="C217" s="63" t="s">
-        <v>867</v>
-      </c>
-      <c r="D217" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E217" s="50" t="s">
-        <v>890</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H217" s="76" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -17938,26 +17913,26 @@
     </row>
     <row r="218">
       <c r="A218" s="80" t="s">
+        <v>890</v>
+      </c>
+      <c r="B218" s="56" t="s">
+        <v>891</v>
+      </c>
+      <c r="C218" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="D218" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E218" s="50" t="s">
         <v>892</v>
-      </c>
-      <c r="B218" s="56" t="s">
-        <v>893</v>
-      </c>
-      <c r="C218" s="63" t="s">
-        <v>867</v>
-      </c>
-      <c r="D218" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E218" s="50" t="s">
-        <v>894</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H218" s="76" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="I218" s="7"/>
       <c r="J218" s="7"/>
@@ -17965,26 +17940,26 @@
     </row>
     <row r="219">
       <c r="A219" s="80" t="s">
+        <v>894</v>
+      </c>
+      <c r="B219" s="56" t="s">
+        <v>895</v>
+      </c>
+      <c r="C219" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="D219" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E219" s="50" t="s">
         <v>896</v>
-      </c>
-      <c r="B219" s="56" t="s">
-        <v>897</v>
-      </c>
-      <c r="C219" s="63" t="s">
-        <v>867</v>
-      </c>
-      <c r="D219" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E219" s="50" t="s">
-        <v>898</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H219" s="76" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
@@ -17992,26 +17967,26 @@
     </row>
     <row r="220">
       <c r="A220" s="49" t="s">
+        <v>898</v>
+      </c>
+      <c r="B220" s="48" t="s">
+        <v>899</v>
+      </c>
+      <c r="C220" s="104" t="s">
+        <v>865</v>
+      </c>
+      <c r="D220" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E220" s="70" t="s">
         <v>900</v>
-      </c>
-      <c r="B220" s="48" t="s">
-        <v>901</v>
-      </c>
-      <c r="C220" s="104" t="s">
-        <v>867</v>
-      </c>
-      <c r="D220" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E220" s="70" t="s">
-        <v>902</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H220" s="128" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
@@ -18019,26 +17994,26 @@
     </row>
     <row r="221">
       <c r="A221" s="49" t="s">
+        <v>902</v>
+      </c>
+      <c r="B221" s="131" t="s">
+        <v>903</v>
+      </c>
+      <c r="C221" s="104" t="s">
+        <v>865</v>
+      </c>
+      <c r="D221" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E221" s="50" t="s">
         <v>904</v>
-      </c>
-      <c r="B221" s="131" t="s">
-        <v>905</v>
-      </c>
-      <c r="C221" s="104" t="s">
-        <v>867</v>
-      </c>
-      <c r="D221" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E221" s="50" t="s">
-        <v>906</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H221" s="76" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
@@ -18046,26 +18021,26 @@
     </row>
     <row r="222">
       <c r="A222" s="49" t="s">
+        <v>906</v>
+      </c>
+      <c r="B222" s="131" t="s">
+        <v>907</v>
+      </c>
+      <c r="C222" s="104" t="s">
+        <v>865</v>
+      </c>
+      <c r="D222" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E222" s="50" t="s">
         <v>908</v>
-      </c>
-      <c r="B222" s="131" t="s">
-        <v>909</v>
-      </c>
-      <c r="C222" s="104" t="s">
-        <v>867</v>
-      </c>
-      <c r="D222" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E222" s="50" t="s">
-        <v>910</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H222" s="76" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -18073,26 +18048,26 @@
     </row>
     <row r="223">
       <c r="A223" s="49" t="s">
+        <v>910</v>
+      </c>
+      <c r="B223" s="131" t="s">
+        <v>911</v>
+      </c>
+      <c r="C223" s="104" t="s">
+        <v>865</v>
+      </c>
+      <c r="D223" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E223" s="70" t="s">
         <v>912</v>
-      </c>
-      <c r="B223" s="131" t="s">
-        <v>913</v>
-      </c>
-      <c r="C223" s="104" t="s">
-        <v>867</v>
-      </c>
-      <c r="D223" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E223" s="70" t="s">
-        <v>914</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H223" s="128" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -18100,26 +18075,26 @@
     </row>
     <row r="224">
       <c r="A224" s="49" t="s">
+        <v>914</v>
+      </c>
+      <c r="B224" s="131" t="s">
+        <v>915</v>
+      </c>
+      <c r="C224" s="104" t="s">
+        <v>865</v>
+      </c>
+      <c r="D224" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E224" s="50" t="s">
         <v>916</v>
-      </c>
-      <c r="B224" s="131" t="s">
-        <v>917</v>
-      </c>
-      <c r="C224" s="104" t="s">
-        <v>867</v>
-      </c>
-      <c r="D224" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E224" s="50" t="s">
-        <v>918</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="4" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H224" s="76" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -18127,10 +18102,10 @@
     </row>
     <row r="225">
       <c r="A225" s="49" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B225" s="131" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C225" s="104" t="s">
         <v>472</v>
@@ -18146,26 +18121,26 @@
     </row>
     <row r="226">
       <c r="A226" s="80" t="s">
+        <v>920</v>
+      </c>
+      <c r="B226" s="132" t="s">
+        <v>921</v>
+      </c>
+      <c r="C226" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="D226" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E226" s="70" t="s">
         <v>922</v>
-      </c>
-      <c r="B226" s="132" t="s">
-        <v>923</v>
-      </c>
-      <c r="C226" s="63" t="s">
-        <v>867</v>
-      </c>
-      <c r="D226" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E226" s="70" t="s">
-        <v>924</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H226" s="128" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -18173,26 +18148,26 @@
     </row>
     <row r="227">
       <c r="A227" s="80" t="s">
+        <v>924</v>
+      </c>
+      <c r="B227" s="132" t="s">
+        <v>925</v>
+      </c>
+      <c r="C227" s="63" t="s">
+        <v>865</v>
+      </c>
+      <c r="D227" s="63" t="s">
+        <v>866</v>
+      </c>
+      <c r="E227" s="70" t="s">
         <v>926</v>
-      </c>
-      <c r="B227" s="132" t="s">
-        <v>927</v>
-      </c>
-      <c r="C227" s="63" t="s">
-        <v>867</v>
-      </c>
-      <c r="D227" s="63" t="s">
-        <v>868</v>
-      </c>
-      <c r="E227" s="70" t="s">
-        <v>928</v>
       </c>
       <c r="F227" s="7"/>
       <c r="G227" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H227" s="128" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -18200,10 +18175,10 @@
     </row>
     <row r="228">
       <c r="A228" s="64" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B228" s="62" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C228" s="104" t="s">
         <v>472</v>
@@ -18219,24 +18194,24 @@
     </row>
     <row r="229">
       <c r="A229" s="49" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B229" s="131" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C229" s="133" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D229" s="63"/>
       <c r="E229" s="70" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F229" s="7"/>
       <c r="G229" s="63" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H229" s="134" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -18244,10 +18219,10 @@
     </row>
     <row r="230">
       <c r="A230" s="64" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B230" s="62" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C230" s="104" t="s">
         <v>472</v>
@@ -18263,29 +18238,29 @@
     </row>
     <row r="231">
       <c r="A231" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="B231" s="135" t="s">
+        <v>937</v>
+      </c>
+      <c r="C231" s="104" t="s">
         <v>938</v>
       </c>
-      <c r="B231" s="135" t="s">
+      <c r="D231" s="63" t="s">
         <v>939</v>
       </c>
-      <c r="C231" s="104" t="s">
+      <c r="E231" s="136" t="s">
         <v>940</v>
-      </c>
-      <c r="D231" s="63" t="s">
-        <v>941</v>
-      </c>
-      <c r="E231" s="136" t="s">
-        <v>942</v>
       </c>
       <c r="F231" s="7"/>
       <c r="G231" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="H231" s="66" t="s">
+        <v>942</v>
+      </c>
+      <c r="I231" s="7" t="s">
         <v>943</v>
-      </c>
-      <c r="H231" s="66" t="s">
-        <v>944</v>
-      </c>
-      <c r="I231" s="7" t="s">
-        <v>945</v>
       </c>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
@@ -18406,78 +18381,78 @@
     </row>
     <row r="2">
       <c r="A2" s="72" t="s">
+        <v>944</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2" s="70" t="s">
         <v>946</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>947</v>
-      </c>
-      <c r="C2" s="70" t="s">
-        <v>948</v>
       </c>
       <c r="D2" s="70"/>
       <c r="E2" s="40" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="72" t="s">
+        <v>944</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>945</v>
+      </c>
+      <c r="C3" s="70" t="s">
         <v>946</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>947</v>
-      </c>
-      <c r="C3" s="70" t="s">
-        <v>948</v>
       </c>
       <c r="D3" s="70"/>
       <c r="E3" s="40" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F3" s="40" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="72" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B4" s="66" t="s">
+        <v>951</v>
+      </c>
+      <c r="C4" s="70" t="s">
+        <v>952</v>
+      </c>
+      <c r="D4" s="70" t="s">
         <v>953</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="E4" s="40" t="s">
         <v>954</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="F4" s="40" t="s">
         <v>955</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>956</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="138" t="s">
+        <v>554</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>555</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="D5" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>559</v>
-      </c>
       <c r="E5" s="40" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F5" s="40" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="G5" s="139"/>
       <c r="H5" s="139"/>
@@ -18502,20 +18477,20 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>629</v>
+      </c>
+      <c r="C6" s="140" t="s">
         <v>630</v>
-      </c>
-      <c r="B6" s="66" t="s">
-        <v>631</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>632</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="40" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="G6" s="139"/>
       <c r="H6" s="139"/>
@@ -18540,22 +18515,22 @@
     </row>
     <row r="7">
       <c r="A7" s="72" t="s">
+        <v>672</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>673</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="D7" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>677</v>
-      </c>
       <c r="E7" s="40" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8">
@@ -22560,36 +22535,36 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="141" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="142" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="143" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="144" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="21" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="8">
@@ -22600,41 +22575,41 @@
     </row>
     <row r="10">
       <c r="A10" s="144" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="144" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B11" s="145" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="146" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="147"/>
       <c r="B13" s="148" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="149" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="150" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="151" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="17">
@@ -22643,24 +22618,24 @@
     </row>
     <row r="18">
       <c r="A18" s="144" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B18" s="152" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B19" s="153"/>
     </row>
     <row r="21">
       <c r="A21" s="144" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B21" s="154" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>
@@ -22686,52 +22661,52 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="144" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="155" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="155" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="155" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="21" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
   </sheetData>
@@ -22757,53 +22732,53 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B1" s="156" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="138" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="21" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="21" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="21" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="21" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -22847,35 +22822,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="157" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C1" s="157" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1010</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1012</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22884,13 +22859,13 @@
     </row>
     <row r="4">
       <c r="A4" s="40" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D4" s="158" t="str">
         <f t="shared" si="1"/>
@@ -22899,70 +22874,70 @@
     </row>
     <row r="5">
       <c r="A5" s="40" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>1016</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D7" s="159" t="s">
         <v>1019</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>1022</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1023</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="160" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B9" s="161" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C9" s="161" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D9" s="161" t="s">
         <v>1025</v>
-      </c>
-      <c r="B9" s="161" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D9" s="161" t="s">
-        <v>1027</v>
       </c>
       <c r="E9" s="161"/>
       <c r="F9" s="161"/>
@@ -22989,16 +22964,16 @@
     </row>
     <row r="10">
       <c r="A10" s="160" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C10" s="161" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D10" s="161" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E10" s="162"/>
       <c r="F10" s="162"/>
@@ -23025,16 +23000,16 @@
     </row>
     <row r="11">
       <c r="A11" s="160" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B11" s="161" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C11" s="161" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D11" s="161" t="s">
         <v>1030</v>
-      </c>
-      <c r="B11" s="161" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C11" s="161" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D11" s="161" t="s">
-        <v>1032</v>
       </c>
       <c r="E11" s="162"/>
       <c r="F11" s="162"/>
@@ -23061,16 +23036,16 @@
     </row>
     <row r="12">
       <c r="A12" s="160" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C12" s="161" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D12" s="161" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="E12" s="162"/>
       <c r="F12" s="162"/>
@@ -23097,16 +23072,16 @@
     </row>
     <row r="13">
       <c r="A13" s="160" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B13" s="160" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C13" s="161" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D13" s="161" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E13" s="162"/>
       <c r="F13" s="162"/>
@@ -23133,16 +23108,16 @@
     </row>
     <row r="14">
       <c r="A14" s="160" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B14" s="160" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C14" s="161" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="D14" s="161" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="E14" s="162"/>
       <c r="F14" s="162"/>
@@ -23194,51 +23169,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="163" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="144" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B2" s="144" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C2" s="144" t="s">
         <v>1006</v>
       </c>
-      <c r="B2" s="144" t="s">
+      <c r="D2" s="144" t="s">
         <v>1007</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="21" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="21" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="21" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C5" s="164" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>1043</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C5" s="164" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1045</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F03/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F03/transformation/conceptual_mappings.xlsx
@@ -404,7 +404,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>6.7.3</t>
+    <t>6.8.1</t>
   </si>
   <si>
     <r>
